--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.04.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE6FF9-F355-42EC-9817-D58B47011D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E0F7D-F4E7-466E-AE2E-F61F7273F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="49">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -481,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JG54"/>
+  <dimension ref="A1:JH54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IT6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IO6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -549,10 +549,10 @@
     <col min="190" max="190" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="191" max="265" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -822,8 +822,9 @@
       <c r="JE1" s="10"/>
       <c r="JF1" s="10"/>
       <c r="JG1" s="10"/>
+      <c r="JH1" s="10"/>
     </row>
-    <row r="2" spans="1:267" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1094,9 @@
       <c r="JE2" s="10"/>
       <c r="JF2" s="10"/>
       <c r="JG2" s="10"/>
+      <c r="JH2" s="10"/>
     </row>
-    <row r="4" spans="1:267" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <v>2003</v>
@@ -1408,8 +1410,9 @@
         <v>2025</v>
       </c>
       <c r="JG4" s="7"/>
+      <c r="JH4" s="7"/>
     </row>
-    <row r="5" spans="1:267" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2211,8 +2214,11 @@
       <c r="JG5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="JH5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>112.243229745264</v>
       </c>
       <c r="L6" s="4">
-        <v>94.857260046182006</v>
+        <v>94.857260046181906</v>
       </c>
       <c r="M6" s="4">
         <v>463.97816674275998</v>
@@ -2259,7 +2265,7 @@
         <v>658.51269373597097</v>
       </c>
       <c r="P6" s="4">
-        <v>472.211973471401</v>
+        <v>472.21197347140202</v>
       </c>
       <c r="Q6" s="4">
         <v>520.016541509798</v>
@@ -2310,7 +2316,7 @@
         <v>-519.30786333040999</v>
       </c>
       <c r="AG6" s="4">
-        <v>383.83729626616702</v>
+        <v>383.83729626616798</v>
       </c>
       <c r="AH6" s="4">
         <v>248.94462529838401</v>
@@ -2355,16 +2361,16 @@
         <v>1109.0376403975599</v>
       </c>
       <c r="AV6" s="4">
-        <v>2316.1882227606202</v>
+        <v>2316.1882227606302</v>
       </c>
       <c r="AW6" s="4">
-        <v>237.734296130209</v>
+        <v>237.73429613021</v>
       </c>
       <c r="AX6" s="4">
         <v>3315.7122162011601</v>
       </c>
       <c r="AY6" s="4">
-        <v>543.16377751340497</v>
+        <v>543.16377751340303</v>
       </c>
       <c r="AZ6" s="4">
         <v>-1506.7364465445</v>
@@ -2415,10 +2421,10 @@
         <v>-2955.0299892233002</v>
       </c>
       <c r="BP6" s="4">
-        <v>30.578403914360401</v>
+        <v>30.578403914361001</v>
       </c>
       <c r="BQ6" s="4">
-        <v>-86.998632234333002</v>
+        <v>-86.998632234332007</v>
       </c>
       <c r="BR6" s="4">
         <v>-3100.6800663569002</v>
@@ -2460,7 +2466,7 @@
         <v>-629.45079197741995</v>
       </c>
       <c r="CE6" s="4">
-        <v>97.266894311533804</v>
+        <v>97.266894311532894</v>
       </c>
       <c r="CF6" s="4">
         <v>702.96425268919404</v>
@@ -2469,7 +2475,7 @@
         <v>-200.29962845610001</v>
       </c>
       <c r="CH6" s="4">
-        <v>952.70576365286502</v>
+        <v>952.70576365286604</v>
       </c>
       <c r="CI6" s="4">
         <v>7330.5158512930502</v>
@@ -2487,7 +2493,7 @@
         <v>-1819.3388157213999</v>
       </c>
       <c r="CN6" s="4">
-        <v>333.47846152548198</v>
+        <v>333.478461525483</v>
       </c>
       <c r="CO6" s="4">
         <v>-299.22593647869002</v>
@@ -2496,7 +2502,7 @@
         <v>-394.66534880787998</v>
       </c>
       <c r="CQ6" s="4">
-        <v>7.67132374361484</v>
+        <v>7.6713237436141499</v>
       </c>
       <c r="CR6" s="4">
         <v>1890.2944414644501</v>
@@ -2505,7 +2511,7 @@
         <v>-977.97795442437996</v>
       </c>
       <c r="CT6" s="4">
-        <v>495.10455252154702</v>
+        <v>495.104552521546</v>
       </c>
       <c r="CU6" s="4">
         <v>-114.87478563063</v>
@@ -2559,7 +2565,7 @@
         <v>-3680.4003729761998</v>
       </c>
       <c r="DL6" s="4">
-        <v>102.94521127812899</v>
+        <v>102.94521127813</v>
       </c>
       <c r="DM6" s="4">
         <v>-6864.0446299044997</v>
@@ -2577,7 +2583,7 @@
         <v>-5770.0550074472003</v>
       </c>
       <c r="DR6" s="4">
-        <v>-390.04954612428003</v>
+        <v>-390.04954612428998</v>
       </c>
       <c r="DS6" s="4">
         <v>-1256.369895197</v>
@@ -2604,7 +2610,7 @@
         <v>575.35790142282599</v>
       </c>
       <c r="EA6" s="4">
-        <v>787.23451403320098</v>
+        <v>787.23451403320303</v>
       </c>
       <c r="EB6" s="4">
         <v>422.9808174849</v>
@@ -2619,10 +2625,10 @@
         <v>-2270.3131884548998</v>
       </c>
       <c r="EF6" s="4">
-        <v>2139.0464475050799</v>
+        <v>2139.0464475050899</v>
       </c>
       <c r="EG6" s="4">
-        <v>41.875431622219999</v>
+        <v>41.875431622218201</v>
       </c>
       <c r="EH6" s="4">
         <v>-396.56071539320999</v>
@@ -2637,7 +2643,7 @@
         <v>-1642.0349443645</v>
       </c>
       <c r="EL6" s="4">
-        <v>697.36183191673604</v>
+        <v>697.36183191673695</v>
       </c>
       <c r="EM6" s="4">
         <v>-619.95193267576997</v>
@@ -2685,7 +2691,7 @@
         <v>-278.77521629359001</v>
       </c>
       <c r="FB6" s="4">
-        <v>101.02968478157101</v>
+        <v>101.029684781572</v>
       </c>
       <c r="FC6" s="4">
         <v>-828.04699014255004</v>
@@ -2694,7 +2700,7 @@
         <v>2179.8330865586699</v>
       </c>
       <c r="FE6" s="4">
-        <v>893.48564984451104</v>
+        <v>893.48564984451002</v>
       </c>
       <c r="FF6" s="4">
         <v>-2424.6623100876</v>
@@ -2709,7 +2715,7 @@
         <v>-541.54189059928001</v>
       </c>
       <c r="FJ6" s="4">
-        <v>18.850993664918501</v>
+        <v>18.850993664918299</v>
       </c>
       <c r="FK6" s="4">
         <v>-1565.0925314722999</v>
@@ -2733,7 +2739,7 @@
         <v>-1332.5380239138001</v>
       </c>
       <c r="FR6" s="4">
-        <v>409.87583800706898</v>
+        <v>409.87583800706801</v>
       </c>
       <c r="FS6" s="4">
         <v>499.238539772926</v>
@@ -2754,7 +2760,7 @@
         <v>-1517.5333598314</v>
       </c>
       <c r="FY6" s="4">
-        <v>-4.9323951696073003</v>
+        <v>-4.9323951696068997</v>
       </c>
       <c r="FZ6" s="4">
         <v>-4241.0147912512002</v>
@@ -2769,7 +2775,7 @@
         <v>-2117.6534798486</v>
       </c>
       <c r="GD6" s="4">
-        <v>-748.93803546614004</v>
+        <v>-748.93803546615004</v>
       </c>
       <c r="GE6" s="4">
         <v>-231.92920928831001</v>
@@ -2793,10 +2799,10 @@
         <v>2203.9288590853998</v>
       </c>
       <c r="GL6" s="4">
-        <v>749.42191511500005</v>
+        <v>749.42191511499902</v>
       </c>
       <c r="GM6" s="4">
-        <v>932.89549317878402</v>
+        <v>932.895493178783</v>
       </c>
       <c r="GN6" s="4">
         <v>-1767.7884504734</v>
@@ -2814,7 +2820,7 @@
         <v>-4100.4251915751001</v>
       </c>
       <c r="GS6" s="4">
-        <v>689.05767561626806</v>
+        <v>689.05767561626897</v>
       </c>
       <c r="GT6" s="4">
         <v>-1513.0433880019</v>
@@ -2832,10 +2838,10 @@
         <v>-3561.2935708658001</v>
       </c>
       <c r="GY6" s="4">
-        <v>534.087252953703</v>
+        <v>534.08725295370198</v>
       </c>
       <c r="GZ6" s="4">
-        <v>486.01061553219199</v>
+        <v>486.01061553219103</v>
       </c>
       <c r="HA6" s="4">
         <v>-250.30756705687</v>
@@ -2844,7 +2850,7 @@
         <v>-720.03964565762999</v>
       </c>
       <c r="HC6" s="4">
-        <v>-9.9190308762310995</v>
+        <v>-9.9190308762316004</v>
       </c>
       <c r="HD6" s="4">
         <v>-2637.9298567444998</v>
@@ -2856,7 +2862,7 @@
         <v>-2045.7472732423</v>
       </c>
       <c r="HG6" s="4">
-        <v>134.610514694166</v>
+        <v>134.610514694165</v>
       </c>
       <c r="HH6" s="4">
         <v>2167.4125983448198</v>
@@ -2871,7 +2877,7 @@
         <v>-1054.755978917</v>
       </c>
       <c r="HL6" s="4">
-        <v>-76.324539374864997</v>
+        <v>-76.324539374862994</v>
       </c>
       <c r="HM6" s="4">
         <v>-1029.734682904</v>
@@ -2901,7 +2907,7 @@
         <v>-1232.3365554540001</v>
       </c>
       <c r="HV6" s="4">
-        <v>219.14809033473199</v>
+        <v>219.14809033473401</v>
       </c>
       <c r="HW6" s="4">
         <v>-3003.6226026141999</v>
@@ -2934,7 +2940,7 @@
         <v>-4967.3786882840996</v>
       </c>
       <c r="IG6" s="4">
-        <v>38.838564003298998</v>
+        <v>38.838564003299403</v>
       </c>
       <c r="IH6" s="4">
         <v>1591.31109277773</v>
@@ -2943,7 +2949,7 @@
         <v>1405.3096798824199</v>
       </c>
       <c r="IJ6" s="4">
-        <v>284.09976559939798</v>
+        <v>284.09976559939997</v>
       </c>
       <c r="IK6" s="4">
         <v>-3167.8521012991</v>
@@ -2967,10 +2973,10 @@
         <v>-5114.2229110402996</v>
       </c>
       <c r="IR6" s="4">
-        <v>551.79150286409401</v>
+        <v>551.79150286409197</v>
       </c>
       <c r="IS6" s="4">
-        <v>4175.6081614596997</v>
+        <v>4175.6081614596897</v>
       </c>
       <c r="IT6" s="4">
         <v>-855.22624477009003</v>
@@ -2988,19 +2994,19 @@
         <v>-277.84285206611997</v>
       </c>
       <c r="IY6" s="4">
-        <v>283.14916665057899</v>
+        <v>283.14916665058001</v>
       </c>
       <c r="IZ6" s="4">
         <v>-3278.8662169692998</v>
       </c>
       <c r="JA6" s="4">
-        <v>1688.5347479086699</v>
+        <v>1688.5347479086599</v>
       </c>
       <c r="JB6" s="4">
         <v>-2734.1148459832998</v>
       </c>
       <c r="JC6" s="4">
-        <v>1233.9826267783801</v>
+        <v>1233.9826267783701</v>
       </c>
       <c r="JD6" s="4">
         <v>188.84052957436299</v>
@@ -3014,8 +3020,11 @@
       <c r="JG6" s="4">
         <v>-116.40019419147001</v>
       </c>
+      <c r="JH6" s="4">
+        <v>-2845.1932134652998</v>
+      </c>
     </row>
-    <row r="7" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,13 +3038,13 @@
         <v>830.18663591630298</v>
       </c>
       <c r="E7" s="4">
-        <v>33.564397109502899</v>
+        <v>33.564397109503098</v>
       </c>
       <c r="F7" s="4">
         <v>475.32108565899898</v>
       </c>
       <c r="G7" s="4">
-        <v>66.605527466110402</v>
+        <v>66.605527466110502</v>
       </c>
       <c r="H7" s="4">
         <v>570.48071415137497</v>
@@ -3149,7 +3158,7 @@
         <v>1745.4171815304301</v>
       </c>
       <c r="AS7" s="4">
-        <v>57.527216354061203</v>
+        <v>57.527216354060499</v>
       </c>
       <c r="AT7" s="4">
         <v>951.31147515829798</v>
@@ -3209,7 +3218,7 @@
         <v>3307.9334693489</v>
       </c>
       <c r="BM7" s="4">
-        <v>5542.1579617944199</v>
+        <v>5542.1579617944099</v>
       </c>
       <c r="BN7" s="4">
         <v>2354.9549707583801</v>
@@ -3251,7 +3260,7 @@
         <v>-262.22985600570001</v>
       </c>
       <c r="CA7" s="4">
-        <v>295.86984015036899</v>
+        <v>295.86984015037001</v>
       </c>
       <c r="CB7" s="4">
         <v>1344.0308630085201</v>
@@ -3275,7 +3284,7 @@
         <v>3246.5972821576602</v>
       </c>
       <c r="CI7" s="4">
-        <v>7910.8648994189098</v>
+        <v>7910.8648994188998</v>
       </c>
       <c r="CJ7" s="4">
         <v>391.84482949516899</v>
@@ -3374,10 +3383,10 @@
         <v>5247.1796219245998</v>
       </c>
       <c r="DP7" s="4">
-        <v>5702.8357265225004</v>
+        <v>5702.8357265224904</v>
       </c>
       <c r="DQ7" s="4">
-        <v>-88.608261242547997</v>
+        <v>-88.608261242549005</v>
       </c>
       <c r="DR7" s="4">
         <v>2720.7236958912599</v>
@@ -3386,7 +3395,7 @@
         <v>214.58048216479401</v>
       </c>
       <c r="DT7" s="4">
-        <v>4346.4332794011798</v>
+        <v>4346.4332794011898</v>
       </c>
       <c r="DU7" s="4">
         <v>-3675.144453894</v>
@@ -3404,7 +3413,7 @@
         <v>1664.8097047096701</v>
       </c>
       <c r="DZ7" s="4">
-        <v>833.78585512255097</v>
+        <v>833.78585512254995</v>
       </c>
       <c r="EA7" s="4">
         <v>5553.8013392741896</v>
@@ -3494,7 +3503,7 @@
         <v>-1636.5107458837999</v>
       </c>
       <c r="FD7" s="4">
-        <v>3234.9353595749199</v>
+        <v>3234.9353595749299</v>
       </c>
       <c r="FE7" s="4">
         <v>1412.35944659394</v>
@@ -3596,10 +3605,10 @@
         <v>-1407.4194161163</v>
       </c>
       <c r="GL7" s="4">
-        <v>1221.4419487068999</v>
+        <v>1221.4419487068899</v>
       </c>
       <c r="GM7" s="4">
-        <v>-42.231271811661998</v>
+        <v>-42.231271811661003</v>
       </c>
       <c r="GN7" s="4">
         <v>-130.42476325797</v>
@@ -3626,7 +3635,7 @@
         <v>3086.4486935160899</v>
       </c>
       <c r="GV7" s="4">
-        <v>270.414080745479</v>
+        <v>270.41408074548002</v>
       </c>
       <c r="GW7" s="4">
         <v>-1998.8242131344</v>
@@ -3671,7 +3680,7 @@
         <v>2828.4246239045601</v>
       </c>
       <c r="HK7" s="4">
-        <v>5045.6905188554801</v>
+        <v>5045.6905188554902</v>
       </c>
       <c r="HL7" s="4">
         <v>2602.2541745293702</v>
@@ -3680,7 +3689,7 @@
         <v>3833.5242614926301</v>
       </c>
       <c r="HN7" s="4">
-        <v>119.115440970462</v>
+        <v>119.115440970463</v>
       </c>
       <c r="HO7" s="4">
         <v>-1541.4554150755</v>
@@ -3740,7 +3749,7 @@
         <v>-745.44538943744999</v>
       </c>
       <c r="IH7" s="4">
-        <v>-442.21930055742001</v>
+        <v>-442.21930055743002</v>
       </c>
       <c r="II7" s="4">
         <v>-698.42029351431995</v>
@@ -3752,13 +3761,13 @@
         <v>-3125.3679823141001</v>
       </c>
       <c r="IL7" s="4">
-        <v>-590.64565560204005</v>
+        <v>-590.64565560203005</v>
       </c>
       <c r="IM7" s="4">
         <v>-2024.0042861421</v>
       </c>
       <c r="IN7" s="4">
-        <v>2450.9893757842801</v>
+        <v>2450.9893757842901</v>
       </c>
       <c r="IO7" s="4">
         <v>-3670.1921746358998</v>
@@ -3817,8 +3826,11 @@
       <c r="JG7" s="4">
         <v>-1334.5646632221999</v>
       </c>
+      <c r="JH7" s="4">
+        <v>-1446.6621674364001</v>
+      </c>
     </row>
-    <row r="8" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -3859,16 +3871,16 @@
         <v>-186.87530329913</v>
       </c>
       <c r="N8" s="4">
-        <v>356.47015867847898</v>
+        <v>356.47015867848</v>
       </c>
       <c r="O8" s="4">
         <v>427.58608555526098</v>
       </c>
       <c r="P8" s="4">
-        <v>644.96946849178505</v>
+        <v>644.96946849178596</v>
       </c>
       <c r="Q8" s="4">
-        <v>499.056394212231</v>
+        <v>499.05639421223202</v>
       </c>
       <c r="R8" s="4">
         <v>-307.6684920262</v>
@@ -3880,7 +3892,7 @@
         <v>1811.8371256317901</v>
       </c>
       <c r="U8" s="4">
-        <v>22.769382398957301</v>
+        <v>22.769382398957401</v>
       </c>
       <c r="V8" s="4">
         <v>730.30810930357097</v>
@@ -3964,7 +3976,7 @@
         <v>-1170.5614102285001</v>
       </c>
       <c r="AW8" s="4">
-        <v>703.139635084735</v>
+        <v>703.13963508473398</v>
       </c>
       <c r="AX8" s="4">
         <v>-1607.3517442688001</v>
@@ -4054,7 +4066,7 @@
         <v>-1476.8113495364</v>
       </c>
       <c r="CA8" s="4">
-        <v>643.46051423881499</v>
+        <v>643.46051423881602</v>
       </c>
       <c r="CB8" s="4">
         <v>1464.8574733103601</v>
@@ -4090,7 +4102,7 @@
         <v>509.48211415367001</v>
       </c>
       <c r="CM8" s="4">
-        <v>71.131876381150093</v>
+        <v>71.131876381149695</v>
       </c>
       <c r="CN8" s="4">
         <v>2221.8924624342599</v>
@@ -4114,7 +4126,7 @@
         <v>3660.7737541903198</v>
       </c>
       <c r="CU8" s="4">
-        <v>722.18604244109099</v>
+        <v>722.18604244108997</v>
       </c>
       <c r="CV8" s="4">
         <v>2595.8010052208101</v>
@@ -4189,7 +4201,7 @@
         <v>1470.95037736176</v>
       </c>
       <c r="DT8" s="4">
-        <v>4241.7822582358804</v>
+        <v>4241.7822582358904</v>
       </c>
       <c r="DU8" s="4">
         <v>-3407.0436626051001</v>
@@ -4207,7 +4219,7 @@
         <v>3154.83961470649</v>
       </c>
       <c r="DZ8" s="4">
-        <v>258.42795369972401</v>
+        <v>258.42795369972498</v>
       </c>
       <c r="EA8" s="4">
         <v>4766.5668252409796</v>
@@ -4219,7 +4231,7 @@
         <v>3856.6602224405001</v>
       </c>
       <c r="ED8" s="4">
-        <v>670.869454546111</v>
+        <v>670.86945454610998</v>
       </c>
       <c r="EE8" s="4">
         <v>1055.30902593056</v>
@@ -4261,7 +4273,7 @@
         <v>-982.39733001022</v>
       </c>
       <c r="ER8" s="4">
-        <v>3.5566773061549402</v>
+        <v>3.5566773061547399</v>
       </c>
       <c r="ES8" s="4">
         <v>-11.044117694079</v>
@@ -4306,7 +4318,7 @@
         <v>1348.7566460917801</v>
       </c>
       <c r="FG8" s="4">
-        <v>108.644753666234</v>
+        <v>108.644753666233</v>
       </c>
       <c r="FH8" s="4">
         <v>983.87649460581702</v>
@@ -4366,7 +4378,7 @@
         <v>1793.53787361165</v>
       </c>
       <c r="GA8" s="4">
-        <v>874.42080159237503</v>
+        <v>874.420801592374</v>
       </c>
       <c r="GB8" s="4">
         <v>2598.6329084978902</v>
@@ -4375,7 +4387,7 @@
         <v>1186.1601240299699</v>
       </c>
       <c r="GD8" s="4">
-        <v>1209.0855032176901</v>
+        <v>1209.0855032176801</v>
       </c>
       <c r="GE8" s="4">
         <v>-5619.7812366565004</v>
@@ -4387,10 +4399,10 @@
         <v>-534.86796016034998</v>
       </c>
       <c r="GH8" s="4">
-        <v>1160.2834524873299</v>
+        <v>1160.2834524873199</v>
       </c>
       <c r="GI8" s="4">
-        <v>2821.0461786903002</v>
+        <v>2821.0461786902902</v>
       </c>
       <c r="GJ8" s="4">
         <v>4356.8588321001698</v>
@@ -4420,7 +4432,7 @@
         <v>3807.60226467139</v>
       </c>
       <c r="GS8" s="4">
-        <v>595.22351150858503</v>
+        <v>595.22351150858594</v>
       </c>
       <c r="GT8" s="4">
         <v>1343.6339760185899</v>
@@ -4534,7 +4546,7 @@
         <v>-3085.9919877338002</v>
       </c>
       <c r="IE8" s="4">
-        <v>52.980533630689699</v>
+        <v>52.9805336306895</v>
       </c>
       <c r="IF8" s="4">
         <v>5895.7626075408898</v>
@@ -4552,7 +4564,7 @@
         <v>1821.9317955249101</v>
       </c>
       <c r="IK8" s="4">
-        <v>42.484118985036801</v>
+        <v>42.484118985036702</v>
       </c>
       <c r="IL8" s="4">
         <v>-580.38355299608997</v>
@@ -4564,7 +4576,7 @@
         <v>3254.4099481983499</v>
       </c>
       <c r="IO8" s="4">
-        <v>372.053580349284</v>
+        <v>372.05358034928503</v>
       </c>
       <c r="IP8" s="4">
         <v>634.83800899948801</v>
@@ -4597,7 +4609,7 @@
         <v>-3495.5178972801</v>
       </c>
       <c r="IZ8" s="4">
-        <v>992.61270266813699</v>
+        <v>992.61270266813597</v>
       </c>
       <c r="JA8" s="4">
         <v>-1085.0897157933</v>
@@ -4620,8 +4632,11 @@
       <c r="JG8" s="4">
         <v>-1218.1644690307</v>
       </c>
+      <c r="JH8" s="4">
+        <v>1398.5310460288599</v>
+      </c>
     </row>
-    <row r="9" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -4776,7 +4791,7 @@
         <v>-2722.4077864223</v>
       </c>
       <c r="AZ9" s="4">
-        <v>-64.180702603235005</v>
+        <v>-64.180702603233996</v>
       </c>
       <c r="BA9" s="4">
         <v>-1564.1590549078001</v>
@@ -4869,7 +4884,7 @@
         <v>-822.27629623345001</v>
       </c>
       <c r="CE9" s="4">
-        <v>55.029552444281201</v>
+        <v>55.029552444281101</v>
       </c>
       <c r="CF9" s="4">
         <v>-876.63545602927002</v>
@@ -4890,7 +4905,7 @@
         <v>-303.35783223588999</v>
       </c>
       <c r="CL9" s="4">
-        <v>414.41294339177801</v>
+        <v>414.41294339177699</v>
       </c>
       <c r="CM9" s="4">
         <v>-283.25413369922001</v>
@@ -4926,7 +4941,7 @@
         <v>225.901587615929</v>
       </c>
       <c r="CX9" s="4">
-        <v>5.3634183302322898</v>
+        <v>5.3634183302324603</v>
       </c>
       <c r="CY9" s="4">
         <v>-620.77621229251997</v>
@@ -5082,7 +5097,7 @@
         <v>806.81411115776802</v>
       </c>
       <c r="EX9" s="4">
-        <v>645.36183423414298</v>
+        <v>645.361834234144</v>
       </c>
       <c r="EY9" s="4">
         <v>-127.65285830169</v>
@@ -5121,7 +5136,7 @@
         <v>-115.89487950202</v>
       </c>
       <c r="FK9" s="4">
-        <v>-3.8770000111182998</v>
+        <v>-3.8770000111184002</v>
       </c>
       <c r="FL9" s="4">
         <v>-203.83036557464999</v>
@@ -5163,7 +5178,7 @@
         <v>-966.58283978771999</v>
       </c>
       <c r="FY9" s="4">
-        <v>23.940448453565399</v>
+        <v>23.940448453565502</v>
       </c>
       <c r="FZ9" s="4">
         <v>-7091.6392757740005</v>
@@ -5187,7 +5202,7 @@
         <v>-1052.4634228922</v>
       </c>
       <c r="GG9" s="4">
-        <v>-329.79672191212001</v>
+        <v>-329.79672191213001</v>
       </c>
       <c r="GH9" s="4">
         <v>1269.2513693516401</v>
@@ -5250,7 +5265,7 @@
         <v>-1130.7901579842001</v>
       </c>
       <c r="HB9" s="4">
-        <v>972.1439396303</v>
+        <v>972.14393963030102</v>
       </c>
       <c r="HC9" s="4">
         <v>-1842.3938745298001</v>
@@ -5271,7 +5286,7 @@
         <v>-65.843091554956999</v>
       </c>
       <c r="HI9" s="4">
-        <v>746.38199738246601</v>
+        <v>746.38199738246703</v>
       </c>
       <c r="HJ9" s="4">
         <v>-550.50159805307999</v>
@@ -5316,7 +5331,7 @@
         <v>1086.78758034831</v>
       </c>
       <c r="HX9" s="4">
-        <v>-828.12689477926006</v>
+        <v>-828.12689477925005</v>
       </c>
       <c r="HY9" s="4">
         <v>-3150.8825152908998</v>
@@ -5346,10 +5361,10 @@
         <v>528.58411702772196</v>
       </c>
       <c r="IH9" s="4">
-        <v>63.243743334153599</v>
+        <v>63.2437433341535</v>
       </c>
       <c r="II9" s="4">
-        <v>21.314776283592298</v>
+        <v>21.314776283592</v>
       </c>
       <c r="IJ9" s="4">
         <v>-768.51622999887002</v>
@@ -5423,8 +5438,11 @@
       <c r="JG9" s="4">
         <v>-1029.2037876894999</v>
       </c>
+      <c r="JH9" s="4">
+        <v>-516.50880552680997</v>
+      </c>
     </row>
-    <row r="10" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5489,7 +5507,7 @@
         <v>-108.77217600337001</v>
       </c>
       <c r="V10" s="6">
-        <v>3.5286467302608999</v>
+        <v>3.5286467302609101</v>
       </c>
       <c r="W10" s="6">
         <v>137.016244450161</v>
@@ -5651,16 +5669,16 @@
         <v>561.47014543979299</v>
       </c>
       <c r="BX10" s="6">
-        <v>132.546266342222</v>
+        <v>132.54626634222299</v>
       </c>
       <c r="BY10" s="6">
         <v>340.402094381636</v>
       </c>
       <c r="BZ10" s="6">
-        <v>9.5470730262789498</v>
+        <v>9.5470730262789303</v>
       </c>
       <c r="CA10" s="6">
-        <v>7.2936193517143098</v>
+        <v>7.2936193517142698</v>
       </c>
       <c r="CB10" s="6">
         <v>364.12245408545999</v>
@@ -5696,7 +5714,7 @@
         <v>1097.0505752388401</v>
       </c>
       <c r="CM10" s="6">
-        <v>93.314855716530403</v>
+        <v>93.314855716530502</v>
       </c>
       <c r="CN10" s="6">
         <v>1030.0341588664101</v>
@@ -5864,7 +5882,7 @@
         <v>1052.26101555175</v>
       </c>
       <c r="EQ10" s="6">
-        <v>962.29820208455101</v>
+        <v>962.29820208454998</v>
       </c>
       <c r="ER10" s="6">
         <v>1700.2009538009399</v>
@@ -6005,7 +6023,7 @@
         <v>55.096087654003398</v>
       </c>
       <c r="GL10" s="6">
-        <v>820.86807735305297</v>
+        <v>820.86807735305194</v>
       </c>
       <c r="GM10" s="6">
         <v>484.37604775702403</v>
@@ -6197,7 +6215,7 @@
         <v>-244.94307615979</v>
       </c>
       <c r="IX10" s="6">
-        <v>601.47530633596796</v>
+        <v>601.47530633596898</v>
       </c>
       <c r="IY10" s="6">
         <v>3.51043038064602</v>
@@ -6209,7 +6227,7 @@
         <v>1026.11419719996</v>
       </c>
       <c r="JB10" s="6">
-        <v>339.91058370178303</v>
+        <v>339.910583701782</v>
       </c>
       <c r="JC10" s="6">
         <v>1232.0100546255301</v>
@@ -6226,8 +6244,11 @@
       <c r="JG10" s="6">
         <v>261.67585447361603</v>
       </c>
+      <c r="JH10" s="6">
+        <v>812.00388747854402</v>
+      </c>
     </row>
-    <row r="11" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -7029,8 +7050,11 @@
       <c r="JG11" s="6">
         <v>9.6949219982743902</v>
       </c>
+      <c r="JH11" s="6">
+        <v>292.57673539897598</v>
+      </c>
     </row>
-    <row r="12" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7308,7 @@
         <v>150.362869188535</v>
       </c>
       <c r="CG12" s="6">
-        <v>-41.122025445958002</v>
+        <v>-41.122025445958997</v>
       </c>
       <c r="CH12" s="6">
         <v>264.91072368676998</v>
@@ -7362,7 +7386,7 @@
         <v>96.101990189435</v>
       </c>
       <c r="DG12" s="6">
-        <v>402.74058551496302</v>
+        <v>402.74058551496199</v>
       </c>
       <c r="DH12" s="6">
         <v>545.57601060931802</v>
@@ -7533,7 +7557,7 @@
         <v>183.812579033947</v>
       </c>
       <c r="FL12" s="6">
-        <v>-34.850786993139003</v>
+        <v>-34.850786993139998</v>
       </c>
       <c r="FM12" s="6">
         <v>334.01386205974501</v>
@@ -7602,7 +7626,7 @@
         <v>384.98496526614298</v>
       </c>
       <c r="GI12" s="6">
-        <v>1.3233287736269399</v>
+        <v>1.3233287736269701</v>
       </c>
       <c r="GJ12" s="6">
         <v>-112.2364511307</v>
@@ -7641,7 +7665,7 @@
         <v>-310.00732111025002</v>
       </c>
       <c r="GV12" s="6">
-        <v>79.844013243503397</v>
+        <v>79.844013243503298</v>
       </c>
       <c r="GW12" s="6">
         <v>-165.91471257903001</v>
@@ -7668,7 +7692,7 @@
         <v>436.649823287564</v>
       </c>
       <c r="HE12" s="6">
-        <v>-6.7600479281358004</v>
+        <v>-6.7600479281357</v>
       </c>
       <c r="HF12" s="6">
         <v>-43.783778006302001</v>
@@ -7695,7 +7719,7 @@
         <v>-54.050596578459</v>
       </c>
       <c r="HN12" s="6">
-        <v>3.2862300038875301</v>
+        <v>3.2862300038875398</v>
       </c>
       <c r="HO12" s="6">
         <v>521.28253105800195</v>
@@ -7746,7 +7770,7 @@
         <v>-50.758633080651002</v>
       </c>
       <c r="IE12" s="6">
-        <v>690.40402518142298</v>
+        <v>690.40402518142196</v>
       </c>
       <c r="IF12" s="6">
         <v>204.04572005353799</v>
@@ -7791,13 +7815,13 @@
         <v>70.391977419061206</v>
       </c>
       <c r="IT12" s="6">
-        <v>26.414560799192699</v>
+        <v>26.4145607991926</v>
       </c>
       <c r="IU12" s="6">
         <v>240.66757488772501</v>
       </c>
       <c r="IV12" s="6">
-        <v>62.391358376101699</v>
+        <v>62.3913583761016</v>
       </c>
       <c r="IW12" s="6">
         <v>-270.88956258982</v>
@@ -7832,8 +7856,11 @@
       <c r="JG12" s="6">
         <v>-50.742528401644996</v>
       </c>
+      <c r="JH12" s="6">
+        <v>385.22384445043599</v>
+      </c>
     </row>
-    <row r="13" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -8635,8 +8662,11 @@
       <c r="JG13" s="6">
         <v>302.723460876986</v>
       </c>
+      <c r="JH13" s="6">
+        <v>134.20330762913099</v>
+      </c>
     </row>
-    <row r="14" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -8782,7 +8812,7 @@
         <v>-524.90770227472001</v>
       </c>
       <c r="AW14" s="6">
-        <v>409.06865007488199</v>
+        <v>409.06865007488301</v>
       </c>
       <c r="AX14" s="6">
         <v>874.83654978869799</v>
@@ -9010,7 +9040,7 @@
         <v>4699.8335218736702</v>
       </c>
       <c r="DU14" s="6">
-        <v>-3678.2454292724001</v>
+        <v>-3678.2454292723</v>
       </c>
       <c r="DV14" s="6">
         <v>1904.23838217808</v>
@@ -9061,7 +9091,7 @@
         <v>1564.6469154747399</v>
       </c>
       <c r="EL14" s="6">
-        <v>4704.1578920532602</v>
+        <v>4704.1578920532502</v>
       </c>
       <c r="EM14" s="6">
         <v>3045.2792869356599</v>
@@ -9142,7 +9172,7 @@
         <v>484.27345035787903</v>
       </c>
       <c r="FM14" s="6">
-        <v>56.988572900219403</v>
+        <v>56.988572900219197</v>
       </c>
       <c r="FN14" s="6">
         <v>1250.1152506667299</v>
@@ -9226,7 +9256,7 @@
         <v>1416.5647293519901</v>
       </c>
       <c r="GO14" s="6">
-        <v>3115.5056872478299</v>
+        <v>3115.5056872478399</v>
       </c>
       <c r="GP14" s="6">
         <v>-804.25809454151999</v>
@@ -9250,7 +9280,7 @@
         <v>249.57187524436401</v>
       </c>
       <c r="GW14" s="6">
-        <v>197.21976640937501</v>
+        <v>197.21976640937601</v>
       </c>
       <c r="GX14" s="6">
         <v>4555.2212946630698</v>
@@ -9283,7 +9313,7 @@
         <v>1094.1882970259701</v>
       </c>
       <c r="HH14" s="6">
-        <v>300.29168726396898</v>
+        <v>300.29168726397</v>
       </c>
       <c r="HI14" s="6">
         <v>-632.49164690302996</v>
@@ -9328,7 +9358,7 @@
         <v>2235.3702267440099</v>
       </c>
       <c r="HW14" s="6">
-        <v>935.07135624561602</v>
+        <v>935.07135624561499</v>
       </c>
       <c r="HX14" s="6">
         <v>2179.3892171929201</v>
@@ -9421,7 +9451,7 @@
         <v>1887.5063640334199</v>
       </c>
       <c r="JB14" s="6">
-        <v>3.7272743217486699</v>
+        <v>3.7272743217487898</v>
       </c>
       <c r="JC14" s="6">
         <v>607.85065435829904</v>
@@ -9438,8 +9468,11 @@
       <c r="JG14" s="6">
         <v>1290.87964216314</v>
       </c>
+      <c r="JH14" s="6">
+        <v>1328.51269300535</v>
+      </c>
     </row>
-    <row r="15" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -10241,8 +10274,11 @@
       <c r="JG15" s="6">
         <v>237.75326955</v>
       </c>
+      <c r="JH15" s="6">
+        <v>422.56395179999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -10436,7 +10472,7 @@
         <v>75.523488031510794</v>
       </c>
       <c r="BM16" s="6">
-        <v>286.431949219096</v>
+        <v>286.43194921909497</v>
       </c>
       <c r="BN16" s="6">
         <v>248.35229915951999</v>
@@ -10562,7 +10598,7 @@
         <v>127.70461789246799</v>
       </c>
       <c r="DC16" s="6">
-        <v>555.62641069154097</v>
+        <v>555.62641069153995</v>
       </c>
       <c r="DD16" s="6">
         <v>994.55490944008102</v>
@@ -10736,7 +10772,7 @@
         <v>301.22779510418502</v>
       </c>
       <c r="FI16" s="6">
-        <v>424.22808679068601</v>
+        <v>424.22808679068697</v>
       </c>
       <c r="FJ16" s="6">
         <v>39.4696407239271</v>
@@ -11044,8 +11080,11 @@
       <c r="JG16" s="6">
         <v>44.133582609524801</v>
       </c>
+      <c r="JH16" s="6">
+        <v>135.66388499054099</v>
+      </c>
     </row>
-    <row r="17" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -11847,8 +11886,11 @@
       <c r="JG17" s="6">
         <v>1008.99279000361</v>
       </c>
+      <c r="JH17" s="6">
+        <v>770.28485621481298</v>
+      </c>
     </row>
-    <row r="18" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -11922,7 +11964,7 @@
         <v>391.400180001698</v>
       </c>
       <c r="Y18" s="4">
-        <v>-6.4500616362854002</v>
+        <v>-6.4500616362852998</v>
       </c>
       <c r="Z18" s="4">
         <v>-258.55310809154003</v>
@@ -11970,7 +12012,7 @@
         <v>1140.9296894885899</v>
       </c>
       <c r="AO18" s="4">
-        <v>40.755517923426197</v>
+        <v>40.755517923426098</v>
       </c>
       <c r="AP18" s="4">
         <v>979.08371516643695</v>
@@ -12021,7 +12063,7 @@
         <v>3150.7353474267702</v>
       </c>
       <c r="BF18" s="4">
-        <v>446.99475274353301</v>
+        <v>446.99475274353398</v>
       </c>
       <c r="BG18" s="4">
         <v>964.86062049444695</v>
@@ -12144,7 +12186,7 @@
         <v>411.007981775367</v>
       </c>
       <c r="CU18" s="4">
-        <v>66.554823761454102</v>
+        <v>66.554823761454003</v>
       </c>
       <c r="CV18" s="4">
         <v>-1831.0103493664001</v>
@@ -12240,7 +12282,7 @@
         <v>636.13467626661395</v>
       </c>
       <c r="EA18" s="4">
-        <v>53.498586620550199</v>
+        <v>53.4985866205501</v>
       </c>
       <c r="EB18" s="4">
         <v>3531.3516582171501</v>
@@ -12279,7 +12321,7 @@
         <v>1401.19129104423</v>
       </c>
       <c r="EN18" s="4">
-        <v>896.136094667164</v>
+        <v>896.13609466716298</v>
       </c>
       <c r="EO18" s="4">
         <v>-3628.7029862371</v>
@@ -12399,10 +12441,10 @@
         <v>1426.7889740061601</v>
       </c>
       <c r="GB18" s="4">
-        <v>856.35474660913098</v>
+        <v>856.35474660913201</v>
       </c>
       <c r="GC18" s="4">
-        <v>-453.23862660714002</v>
+        <v>-453.23862660713002</v>
       </c>
       <c r="GD18" s="4">
         <v>29.848579733110299</v>
@@ -12492,7 +12534,7 @@
         <v>-5070.7619242407</v>
       </c>
       <c r="HG18" s="4">
-        <v>41.275255686521398</v>
+        <v>41.275255686521596</v>
       </c>
       <c r="HH18" s="4">
         <v>5837.4218152418998</v>
@@ -12531,7 +12573,7 @@
         <v>-4215.6772798861002</v>
       </c>
       <c r="HT18" s="4">
-        <v>843.98667600568899</v>
+        <v>843.98667600569001</v>
       </c>
       <c r="HU18" s="4">
         <v>-1792.2449088301</v>
@@ -12621,7 +12663,7 @@
         <v>339.26340395311098</v>
       </c>
       <c r="IX18" s="4">
-        <v>722.33828408490399</v>
+        <v>722.33828408490297</v>
       </c>
       <c r="IY18" s="4">
         <v>2340.24037927779</v>
@@ -12650,8 +12692,11 @@
       <c r="JG18" s="4">
         <v>864.87104286778595</v>
       </c>
+      <c r="JH18" s="4">
+        <v>-662.92929513064996</v>
+      </c>
     </row>
-    <row r="19" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -12668,7 +12713,7 @@
         <v>410.41060107688298</v>
       </c>
       <c r="F19" s="6">
-        <v>96.983275951661597</v>
+        <v>96.983275951661497</v>
       </c>
       <c r="G19" s="6">
         <v>608.42604535303497</v>
@@ -12683,7 +12728,7 @@
         <v>486.80827286226599</v>
       </c>
       <c r="K19" s="6">
-        <v>701.55972260588806</v>
+        <v>701.55972260588703</v>
       </c>
       <c r="L19" s="6">
         <v>431.13342024045102</v>
@@ -12692,7 +12737,7 @@
         <v>628.42973251025296</v>
       </c>
       <c r="N19" s="6">
-        <v>361.26946297476798</v>
+        <v>361.269462974769</v>
       </c>
       <c r="O19" s="6">
         <v>297.01815356873198</v>
@@ -13034,7 +13079,7 @@
         <v>-2576.8242964917999</v>
       </c>
       <c r="DX19" s="6">
-        <v>2562.0757839713401</v>
+        <v>2562.0757839713501</v>
       </c>
       <c r="DY19" s="6">
         <v>-2902.9716046603999</v>
@@ -13070,7 +13115,7 @@
         <v>1796.6289011296601</v>
       </c>
       <c r="EJ19" s="6">
-        <v>1951.0101563114099</v>
+        <v>1951.0101563113999</v>
       </c>
       <c r="EK19" s="6">
         <v>984.57006923407505</v>
@@ -13088,7 +13133,7 @@
         <v>-2756.469011616</v>
       </c>
       <c r="EP19" s="6">
-        <v>59.393561850792899</v>
+        <v>59.3935618507928</v>
       </c>
       <c r="EQ19" s="6">
         <v>1621.8332868627399</v>
@@ -13214,7 +13259,7 @@
         <v>-894.03080343440001</v>
       </c>
       <c r="GF19" s="6">
-        <v>249.51049607980701</v>
+        <v>249.51049607980801</v>
       </c>
       <c r="GG19" s="6">
         <v>-1183.978885857</v>
@@ -13349,7 +13394,7 @@
         <v>236.784776827889</v>
       </c>
       <c r="HY19" s="6">
-        <v>17.805783352040098</v>
+        <v>17.8057833520404</v>
       </c>
       <c r="HZ19" s="6">
         <v>2255.77062735456</v>
@@ -13382,13 +13427,13 @@
         <v>1138.1264142493901</v>
       </c>
       <c r="IJ19" s="6">
-        <v>-690.60297767904001</v>
+        <v>-690.60297767903</v>
       </c>
       <c r="IK19" s="6">
-        <v>496.97750790076299</v>
+        <v>496.97750790076401</v>
       </c>
       <c r="IL19" s="6">
-        <v>2326.6322059577801</v>
+        <v>2326.6322059577701</v>
       </c>
       <c r="IM19" s="6">
         <v>372.90054162695299</v>
@@ -13412,7 +13457,7 @@
         <v>-1265.7506413128001</v>
       </c>
       <c r="IT19" s="6">
-        <v>455.91287733958802</v>
+        <v>455.912877339587</v>
       </c>
       <c r="IU19" s="6">
         <v>499.695684449483</v>
@@ -13436,7 +13481,7 @@
         <v>1016.27765375557</v>
       </c>
       <c r="JB19" s="6">
-        <v>712.56250708812297</v>
+        <v>712.56250708812399</v>
       </c>
       <c r="JC19" s="6">
         <v>-25.326927205103001</v>
@@ -13453,8 +13498,11 @@
       <c r="JG19" s="6">
         <v>1471.8513777779799</v>
       </c>
+      <c r="JH19" s="6">
+        <v>889.198451844582</v>
+      </c>
     </row>
-    <row r="20" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -13636,7 +13684,7 @@
         <v>493.16527394715598</v>
       </c>
       <c r="BI20" s="6">
-        <v>397.911839073446</v>
+        <v>397.91183907344498</v>
       </c>
       <c r="BJ20" s="6">
         <v>519.114649453065</v>
@@ -13873,7 +13921,7 @@
         <v>1668.56962751573</v>
       </c>
       <c r="EJ20" s="6">
-        <v>1871.35984079642</v>
+        <v>1871.35984079641</v>
       </c>
       <c r="EK20" s="6">
         <v>511.05865911337997</v>
@@ -14137,7 +14185,7 @@
         <v>1064.7385443097901</v>
       </c>
       <c r="HT20" s="6">
-        <v>3340.2536211248298</v>
+        <v>3340.2536211248398</v>
       </c>
       <c r="HU20" s="6">
         <v>-957.12674573641004</v>
@@ -14209,7 +14257,7 @@
         <v>-975.06850221061995</v>
       </c>
       <c r="IR20" s="6">
-        <v>1626.3529837210001</v>
+        <v>1626.3529837209901</v>
       </c>
       <c r="IS20" s="6">
         <v>-440.44520400490001</v>
@@ -14248,7 +14296,7 @@
         <v>1137.3570789067901</v>
       </c>
       <c r="JE20" s="6">
-        <v>5.0290587337846597</v>
+        <v>5.0290587337846704</v>
       </c>
       <c r="JF20" s="6">
         <v>1516.2610918553</v>
@@ -14256,8 +14304,11 @@
       <c r="JG20" s="6">
         <v>1100.5107514705601</v>
       </c>
+      <c r="JH20" s="6">
+        <v>652.38933365310299</v>
+      </c>
     </row>
-    <row r="21" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -14550,7 +14601,7 @@
         <v>609.11106764795295</v>
       </c>
       <c r="CT21" s="6">
-        <v>757.29392347103999</v>
+        <v>757.29392347104101</v>
       </c>
       <c r="CU21" s="6">
         <v>-128.05573598109001</v>
@@ -14622,7 +14673,7 @@
         <v>1141.7293011817401</v>
       </c>
       <c r="DR21" s="6">
-        <v>37.264933054372896</v>
+        <v>37.264933054372797</v>
       </c>
       <c r="DS21" s="6">
         <v>919.08238028168205</v>
@@ -14661,7 +14712,7 @@
         <v>-223.86577813551</v>
       </c>
       <c r="EE21" s="6">
-        <v>783.29583721101699</v>
+        <v>783.29583721101596</v>
       </c>
       <c r="EF21" s="6">
         <v>386.78429803893198</v>
@@ -14751,7 +14802,7 @@
         <v>504.402310299992</v>
       </c>
       <c r="FI21" s="6">
-        <v>-94.443921267557997</v>
+        <v>-94.443921267557002</v>
       </c>
       <c r="FJ21" s="6">
         <v>-681.27818633241998</v>
@@ -14826,7 +14877,7 @@
         <v>-99.835688110575006</v>
       </c>
       <c r="GH21" s="6">
-        <v>61.959644777636797</v>
+        <v>61.959644777636697</v>
       </c>
       <c r="GI21" s="6">
         <v>819.02899869741896</v>
@@ -14862,7 +14913,7 @@
         <v>-535.15497913752995</v>
       </c>
       <c r="GT21" s="6">
-        <v>-81.287035166189</v>
+        <v>-81.287035166189995</v>
       </c>
       <c r="GU21" s="6">
         <v>-1173.3915478469</v>
@@ -14901,7 +14952,7 @@
         <v>-2250.3181073552</v>
       </c>
       <c r="HG21" s="6">
-        <v>275.03117001893497</v>
+        <v>275.031170018936</v>
       </c>
       <c r="HH21" s="6">
         <v>-1580.0582363891001</v>
@@ -14922,7 +14973,7 @@
         <v>-1817.0234621435</v>
       </c>
       <c r="HN21" s="6">
-        <v>683.68097787224303</v>
+        <v>683.68097787224394</v>
       </c>
       <c r="HO21" s="6">
         <v>-2057.5349057075</v>
@@ -14934,7 +14985,7 @@
         <v>-3814.3672280799001</v>
       </c>
       <c r="HR21" s="6">
-        <v>237.02386921967701</v>
+        <v>237.02386921967599</v>
       </c>
       <c r="HS21" s="6">
         <v>-1677.7675844881001</v>
@@ -14970,10 +15021,10 @@
         <v>652.135941748405</v>
       </c>
       <c r="ID21" s="6">
-        <v>88.759015671415199</v>
+        <v>88.759015671415099</v>
       </c>
       <c r="IE21" s="6">
-        <v>402.61858607412398</v>
+        <v>402.61858607412501</v>
       </c>
       <c r="IF21" s="6">
         <v>879.81092631562694</v>
@@ -15059,8 +15110,11 @@
       <c r="JG21" s="6">
         <v>371.34062630742301</v>
       </c>
+      <c r="JH21" s="6">
+        <v>236.80911819148</v>
+      </c>
     </row>
-    <row r="22" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -15098,7 +15152,7 @@
         <v>-21.423866316632999</v>
       </c>
       <c r="M22" s="6">
-        <v>22.480421531059498</v>
+        <v>22.480421531059399</v>
       </c>
       <c r="N22" s="6">
         <v>6.7419799954413699</v>
@@ -15383,7 +15437,7 @@
         <v>104.65457767432</v>
       </c>
       <c r="DD22" s="6">
-        <v>53.274569070635003</v>
+        <v>53.274569070634897</v>
       </c>
       <c r="DE22" s="6">
         <v>-1241.5912109323999</v>
@@ -15392,7 +15446,7 @@
         <v>1041.7043708951401</v>
       </c>
       <c r="DG22" s="6">
-        <v>26.9063598794847</v>
+        <v>26.9063598794848</v>
       </c>
       <c r="DH22" s="6">
         <v>264.23478683661301</v>
@@ -15611,7 +15665,7 @@
         <v>725.35560075933404</v>
       </c>
       <c r="GB22" s="6">
-        <v>93.855225983896204</v>
+        <v>93.855225983896304</v>
       </c>
       <c r="GC22" s="6">
         <v>-212.09560855570999</v>
@@ -15854,7 +15908,7 @@
         <v>136.91715468826399</v>
       </c>
       <c r="JE22" s="6">
-        <v>-3.4630242108756</v>
+        <v>-3.4630242108756999</v>
       </c>
       <c r="JF22" s="6">
         <v>223.95884414191099</v>
@@ -15862,8 +15916,11 @@
       <c r="JG22" s="6">
         <v>926.53039332502499</v>
       </c>
+      <c r="JH22" s="6">
+        <v>415.12057211465202</v>
+      </c>
     </row>
-    <row r="23" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -16665,8 +16722,11 @@
       <c r="JG23" s="6">
         <v>-555.18976701760005</v>
       </c>
+      <c r="JH23" s="6">
+        <v>-178.31145392317001</v>
+      </c>
     </row>
-    <row r="24" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -17468,8 +17528,11 @@
       <c r="JG24" s="6">
         <v>606.98033491019805</v>
       </c>
+      <c r="JH24" s="6">
+        <v>1552.1277469752399</v>
+      </c>
     </row>
-    <row r="25" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -18206,7 +18269,7 @@
         <v>-92.361741699153001</v>
       </c>
       <c r="IL25" s="6">
-        <v>7.81129525308768</v>
+        <v>7.8112952530877102</v>
       </c>
       <c r="IM25" s="6">
         <v>-868.09274635465999</v>
@@ -18271,8 +18334,11 @@
       <c r="JG25" s="6">
         <v>-151.64196798133</v>
       </c>
+      <c r="JH25" s="6">
+        <v>-194.15274268139001</v>
+      </c>
     </row>
-    <row r="26" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -18670,7 +18736,7 @@
         <v>90.854982519937494</v>
       </c>
       <c r="EC26" s="6">
-        <v>936.90082727667095</v>
+        <v>936.90082727667198</v>
       </c>
       <c r="ED26" s="6">
         <v>-612.20298137822999</v>
@@ -18682,7 +18748,7 @@
         <v>-1.4788057384389</v>
       </c>
       <c r="EG26" s="6">
-        <v>911.69553194009404</v>
+        <v>911.69553194009495</v>
       </c>
       <c r="EH26" s="6">
         <v>527.56535966947501</v>
@@ -18811,7 +18877,7 @@
         <v>1533.5797686948499</v>
       </c>
       <c r="FX26" s="6">
-        <v>7.5673063601758797</v>
+        <v>7.5673063601759099</v>
       </c>
       <c r="FY26" s="6">
         <v>1465.5415679642199</v>
@@ -18946,7 +19012,7 @@
         <v>8969.7604248505104</v>
       </c>
       <c r="HQ26" s="6">
-        <v>764.70620036726802</v>
+        <v>764.70620036726905</v>
       </c>
       <c r="HR26" s="6">
         <v>6416.0642500674903</v>
@@ -19003,7 +19069,7 @@
         <v>377.70546658978401</v>
       </c>
       <c r="IJ26" s="6">
-        <v>-95.702097770654007</v>
+        <v>-95.702097770652998</v>
       </c>
       <c r="IK26" s="6">
         <v>-466.20754579367002</v>
@@ -19074,8 +19140,11 @@
       <c r="JG26" s="6">
         <v>758.62230289152899</v>
       </c>
+      <c r="JH26" s="6">
+        <v>1746.2804896566299</v>
+      </c>
     </row>
-    <row r="27" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -19877,8 +19946,11 @@
       <c r="JG27" s="6">
         <v>669.10033545603403</v>
       </c>
+      <c r="JH27" s="6">
+        <v>1655.76091237077</v>
+      </c>
     </row>
-    <row r="28" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -20680,8 +20752,11 @@
       <c r="JG28" s="6">
         <v>89.521967435495995</v>
       </c>
+      <c r="JH28" s="6">
+        <v>90.519577285863306</v>
+      </c>
     </row>
-    <row r="29" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -20695,7 +20770,7 @@
         <v>5.4999999999998002</v>
       </c>
       <c r="E29" s="4">
-        <v>3.3999999999993</v>
+        <v>3.3999999999993098</v>
       </c>
       <c r="F29" s="4">
         <v>7.90000000000021</v>
@@ -20767,7 +20842,7 @@
         <v>29.448081079447199</v>
       </c>
       <c r="AC29" s="4">
-        <v>32.946799938346999</v>
+        <v>32.946799938346899</v>
       </c>
       <c r="AD29" s="4">
         <v>44.423326775014601</v>
@@ -20785,10 +20860,10 @@
         <v>-6.0414799287461998</v>
       </c>
       <c r="AI29" s="4">
-        <v>6.0656016919439102</v>
+        <v>6.06560169194392</v>
       </c>
       <c r="AJ29" s="4">
-        <v>74.931686457045899</v>
+        <v>74.931686457045799</v>
       </c>
       <c r="AK29" s="4">
         <v>-0.95492732073249997</v>
@@ -20806,7 +20881,7 @@
         <v>-0.24960605688260001</v>
       </c>
       <c r="AP29" s="4">
-        <v>78.686274065344094</v>
+        <v>78.686274065343994</v>
       </c>
       <c r="AQ29" s="4">
         <v>217.73151042035499</v>
@@ -20818,19 +20893,19 @@
         <v>34.305113540704603</v>
       </c>
       <c r="AT29" s="4">
-        <v>44.432022323855797</v>
+        <v>44.432022323855897</v>
       </c>
       <c r="AU29" s="4">
-        <v>39.011160267779601</v>
+        <v>39.011160267779502</v>
       </c>
       <c r="AV29" s="4">
         <v>-52.711771236780002</v>
       </c>
       <c r="AW29" s="4">
-        <v>7.4995917960240996</v>
+        <v>7.4995917960241201</v>
       </c>
       <c r="AX29" s="4">
-        <v>81.695393139803002</v>
+        <v>81.695393139803102</v>
       </c>
       <c r="AY29" s="4">
         <v>141.65813433060799</v>
@@ -20845,7 +20920,7 @@
         <v>-49.890135149693002</v>
       </c>
       <c r="BC29" s="4">
-        <v>43.035386468605999</v>
+        <v>43.035386468606099</v>
       </c>
       <c r="BD29" s="4">
         <v>-68.973376740524003</v>
@@ -20857,10 +20932,10 @@
         <v>15.901202077602701</v>
       </c>
       <c r="BG29" s="4">
-        <v>14.6549833587249</v>
+        <v>14.654983358725</v>
       </c>
       <c r="BH29" s="4">
-        <v>-8.1360523467528996</v>
+        <v>-8.1360523467530008</v>
       </c>
       <c r="BI29" s="4">
         <v>7.4154780323601202</v>
@@ -20878,7 +20953,7 @@
         <v>292.16650491596698</v>
       </c>
       <c r="BN29" s="4">
-        <v>179.48224224829201</v>
+        <v>179.48224224829099</v>
       </c>
       <c r="BO29" s="4">
         <v>156.28105324142001</v>
@@ -20896,7 +20971,7 @@
         <v>-174.08562442882001</v>
       </c>
       <c r="BT29" s="4">
-        <v>50.562468977609399</v>
+        <v>50.5624689776092</v>
       </c>
       <c r="BU29" s="4">
         <v>355.64914349878001</v>
@@ -20905,7 +20980,7 @@
         <v>-106.94302364469</v>
       </c>
       <c r="BW29" s="4">
-        <v>67.019590860702607</v>
+        <v>67.019590860702493</v>
       </c>
       <c r="BX29" s="4">
         <v>265.31438764497</v>
@@ -20914,28 +20989,28 @@
         <v>486.19224642974598</v>
       </c>
       <c r="BZ29" s="4">
-        <v>52.780448726457003</v>
+        <v>52.780448726457102</v>
       </c>
       <c r="CA29" s="4">
         <v>77.073983711448705</v>
       </c>
       <c r="CB29" s="4">
-        <v>58.157816167975099</v>
+        <v>58.157816167975</v>
       </c>
       <c r="CC29" s="4">
-        <v>72.579956951462094</v>
+        <v>72.579956951462194</v>
       </c>
       <c r="CD29" s="4">
         <v>48.735879445350399</v>
       </c>
       <c r="CE29" s="4">
-        <v>97.425194498248004</v>
+        <v>97.425194498248104</v>
       </c>
       <c r="CF29" s="4">
         <v>-100.45503053463</v>
       </c>
       <c r="CG29" s="4">
-        <v>30.721817313217301</v>
+        <v>30.721817313217201</v>
       </c>
       <c r="CH29" s="4">
         <v>191.199840403699</v>
@@ -20947,7 +21022,7 @@
         <v>150.29543165402899</v>
       </c>
       <c r="CK29" s="4">
-        <v>28.795535026906499</v>
+        <v>28.7955350269064</v>
       </c>
       <c r="CL29" s="4">
         <v>89.141044827083803</v>
@@ -20962,7 +21037,7 @@
         <v>206.992693249068</v>
       </c>
       <c r="CP29" s="4">
-        <v>-6.2917893743846003</v>
+        <v>-6.2917893743844999</v>
       </c>
       <c r="CQ29" s="4">
         <v>26.094500273615299</v>
@@ -21049,13 +21124,13 @@
         <v>53.542407893472898</v>
       </c>
       <c r="DS29" s="4">
-        <v>22.5355787573058</v>
+        <v>22.5355787573057</v>
       </c>
       <c r="DT29" s="4">
         <v>-34.201089415879999</v>
       </c>
       <c r="DU29" s="4">
-        <v>84.548045485798298</v>
+        <v>84.548045485798397</v>
       </c>
       <c r="DV29" s="4">
         <v>-121.84711704137</v>
@@ -21070,7 +21145,7 @@
         <v>287.21060278118699</v>
       </c>
       <c r="DZ29" s="4">
-        <v>2.7056422903153301</v>
+        <v>2.7056422903152701</v>
       </c>
       <c r="EA29" s="4">
         <v>-97.787954664506003</v>
@@ -21088,10 +21163,10 @@
         <v>179.720036305848</v>
       </c>
       <c r="EF29" s="4">
-        <v>265.45641701050198</v>
+        <v>265.456417010503</v>
       </c>
       <c r="EG29" s="4">
-        <v>27.321280941910999</v>
+        <v>27.321280941911098</v>
       </c>
       <c r="EH29" s="4">
         <v>74.515537655000003</v>
@@ -21109,7 +21184,7 @@
         <v>86.974006889999998</v>
       </c>
       <c r="EM29" s="4">
-        <v>12.1724566800999</v>
+        <v>12.172456680099801</v>
       </c>
       <c r="EN29" s="4">
         <v>-146.40835862</v>
@@ -21148,25 +21223,25 @@
         <v>181.147302422525</v>
       </c>
       <c r="EZ29" s="4">
-        <v>78.074361539899101</v>
+        <v>78.074361539898902</v>
       </c>
       <c r="FA29" s="4">
-        <v>161.50217625847199</v>
+        <v>161.502176258471</v>
       </c>
       <c r="FB29" s="4">
-        <v>32.752360557379397</v>
+        <v>32.752360557379603</v>
       </c>
       <c r="FC29" s="4">
         <v>124.16859429417499</v>
       </c>
       <c r="FD29" s="4">
-        <v>0.43816959630273999</v>
+        <v>0.43816959630282998</v>
       </c>
       <c r="FE29" s="4">
-        <v>55.4448296290279</v>
+        <v>55.444829629027801</v>
       </c>
       <c r="FF29" s="4">
-        <v>75.048637756442204</v>
+        <v>75.048637756442304</v>
       </c>
       <c r="FG29" s="4">
         <v>139.493796181714</v>
@@ -21178,10 +21253,10 @@
         <v>46.101847410898102</v>
       </c>
       <c r="FJ29" s="4">
-        <v>14.131595499224099</v>
+        <v>14.131595499224</v>
       </c>
       <c r="FK29" s="4">
-        <v>14.565142118243299</v>
+        <v>14.565142118243401</v>
       </c>
       <c r="FL29" s="4">
         <v>84.420633401672703</v>
@@ -21196,19 +21271,19 @@
         <v>-4.7262642700891</v>
       </c>
       <c r="FP29" s="4">
-        <v>1.1266698029346101</v>
+        <v>1.1266698029346001</v>
       </c>
       <c r="FQ29" s="4">
-        <v>-4.8186969638060004</v>
+        <v>-4.8186969638060999</v>
       </c>
       <c r="FR29" s="4">
-        <v>42.977649982308101</v>
+        <v>42.977649982308002</v>
       </c>
       <c r="FS29" s="4">
-        <v>84.865307963167595</v>
+        <v>84.865307963167695</v>
       </c>
       <c r="FT29" s="4">
-        <v>94.099984515126394</v>
+        <v>94.099984515126494</v>
       </c>
       <c r="FU29" s="4">
         <v>-16.100390955165</v>
@@ -21226,7 +21301,7 @@
         <v>32.914216347898403</v>
       </c>
       <c r="FZ29" s="4">
-        <v>48.967858062497797</v>
+        <v>48.967858062498003</v>
       </c>
       <c r="GA29" s="4">
         <v>-106.57996871333</v>
@@ -21241,7 +21316,7 @@
         <v>-49.126166371830003</v>
       </c>
       <c r="GE29" s="4">
-        <v>123.328605347831</v>
+        <v>123.328605347832</v>
       </c>
       <c r="GF29" s="4">
         <v>108.40006419405501</v>
@@ -21253,10 +21328,10 @@
         <v>448.42103916513503</v>
       </c>
       <c r="GI29" s="4">
-        <v>115.807579362623</v>
+        <v>115.807579362624</v>
       </c>
       <c r="GJ29" s="4">
-        <v>19.2238110343676</v>
+        <v>19.223811034367699</v>
       </c>
       <c r="GK29" s="4">
         <v>79.316728169384305</v>
@@ -21271,7 +21346,7 @@
         <v>119.322732728273</v>
       </c>
       <c r="GO29" s="4">
-        <v>12.0931616864373</v>
+        <v>12.0931616864374</v>
       </c>
       <c r="GP29" s="4">
         <v>179.540816913616</v>
@@ -21286,7 +21361,7 @@
         <v>106.95398514485299</v>
       </c>
       <c r="GT29" s="4">
-        <v>-0.47945832867080002</v>
+        <v>-0.47945832867069998</v>
       </c>
       <c r="GU29" s="4">
         <v>100.104516983027</v>
@@ -21307,19 +21382,19 @@
         <v>508.464203472821</v>
       </c>
       <c r="HA29" s="4">
-        <v>420.44947143168298</v>
+        <v>420.449471431684</v>
       </c>
       <c r="HB29" s="4">
-        <v>451.36133416094799</v>
+        <v>451.36133416094702</v>
       </c>
       <c r="HC29" s="4">
-        <v>-71.055757893212004</v>
+        <v>-71.055757893212999</v>
       </c>
       <c r="HD29" s="4">
         <v>354.353564416263</v>
       </c>
       <c r="HE29" s="4">
-        <v>4.44875110174348</v>
+        <v>4.4487511017433699</v>
       </c>
       <c r="HF29" s="4">
         <v>270.74507393849001</v>
@@ -21328,7 +21403,7 @@
         <v>-103.49713048076001</v>
       </c>
       <c r="HH29" s="4">
-        <v>2.1727964208861299</v>
+        <v>2.1727964208860202</v>
       </c>
       <c r="HI29" s="4">
         <v>-38.965268178565999</v>
@@ -21349,19 +21424,19 @@
         <v>36.637953425025302</v>
       </c>
       <c r="HO29" s="4">
-        <v>98.921507561353295</v>
+        <v>98.921507561353394</v>
       </c>
       <c r="HP29" s="4">
-        <v>50.3774945896593</v>
+        <v>50.377494589658902</v>
       </c>
       <c r="HQ29" s="4">
         <v>164.073846324572</v>
       </c>
       <c r="HR29" s="4">
-        <v>11.135315001105001</v>
+        <v>11.1353150011051</v>
       </c>
       <c r="HS29" s="4">
-        <v>44.561143213785698</v>
+        <v>44.561143213786103</v>
       </c>
       <c r="HT29" s="4">
         <v>-39.909364266216002</v>
@@ -21370,7 +21445,7 @@
         <v>345.614195371221</v>
       </c>
       <c r="HV29" s="4">
-        <v>79.275191176898304</v>
+        <v>79.275191176898403</v>
       </c>
       <c r="HW29" s="4">
         <v>233.38740383960399</v>
@@ -21385,19 +21460,19 @@
         <v>-68.982689180803007</v>
       </c>
       <c r="IA29" s="4">
-        <v>172.27763052268401</v>
+        <v>172.277630522685</v>
       </c>
       <c r="IB29" s="4">
-        <v>119.108069444592</v>
+        <v>119.108069444591</v>
       </c>
       <c r="IC29" s="4">
-        <v>259.703584209577</v>
+        <v>259.70358420957803</v>
       </c>
       <c r="ID29" s="4">
-        <v>0.97491496629765995</v>
+        <v>0.97491496629800001</v>
       </c>
       <c r="IE29" s="4">
-        <v>-25.625959234861998</v>
+        <v>-25.625959234861</v>
       </c>
       <c r="IF29" s="4">
         <v>-229.24281527786999</v>
@@ -21427,13 +21502,13 @@
         <v>-313.87497016258999</v>
       </c>
       <c r="IO29" s="4">
-        <v>-77.579440123479003</v>
+        <v>-77.579440123479998</v>
       </c>
       <c r="IP29" s="4">
         <v>-182.22341948559</v>
       </c>
       <c r="IQ29" s="4">
-        <v>186.21184351554299</v>
+        <v>186.211843515542</v>
       </c>
       <c r="IR29" s="4">
         <v>291.43236501983</v>
@@ -21445,13 +21520,13 @@
         <v>-182.74056749502</v>
       </c>
       <c r="IU29" s="4">
-        <v>178.56614325802099</v>
+        <v>178.56614325801999</v>
       </c>
       <c r="IV29" s="4">
-        <v>17.774573345134499</v>
+        <v>17.774573345134701</v>
       </c>
       <c r="IW29" s="4">
-        <v>270.844956604103</v>
+        <v>270.84495660410198</v>
       </c>
       <c r="IX29" s="4">
         <v>-204.57951781513</v>
@@ -21483,8 +21558,11 @@
       <c r="JG29" s="4">
         <v>-28.022007266387</v>
       </c>
+      <c r="JH29" s="4">
+        <v>-230.69357736489999</v>
+      </c>
     </row>
-    <row r="30" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -21525,7 +21603,7 @@
         <v>100.04294599571701</v>
       </c>
       <c r="N30" s="4">
-        <v>776.45800030979797</v>
+        <v>776.45800030979899</v>
       </c>
       <c r="O30" s="4">
         <v>951.10976218766598</v>
@@ -21537,13 +21615,13 @@
         <v>-27.866625212132</v>
       </c>
       <c r="R30" s="4">
-        <v>1.5997858494175801</v>
+        <v>1.5997858494175701</v>
       </c>
       <c r="S30" s="4">
         <v>-42.241310219254999</v>
       </c>
       <c r="T30" s="4">
-        <v>879.73899616147503</v>
+        <v>879.73899616147605</v>
       </c>
       <c r="U30" s="4">
         <v>93.490757095520493</v>
@@ -21738,7 +21816,7 @@
         <v>674.57761041936703</v>
       </c>
       <c r="CG30" s="4">
-        <v>-74.700885021616998</v>
+        <v>-74.700885021618006</v>
       </c>
       <c r="CH30" s="4">
         <v>420.198660917354</v>
@@ -21753,7 +21831,7 @@
         <v>1452.4779024518</v>
       </c>
       <c r="CL30" s="4">
-        <v>22.273567622643501</v>
+        <v>22.273567622643601</v>
       </c>
       <c r="CM30" s="4">
         <v>-2136.5961859070999</v>
@@ -21780,7 +21858,7 @@
         <v>2495.2746864024698</v>
       </c>
       <c r="CU30" s="4">
-        <v>-312.47200516020001</v>
+        <v>-312.47200516021002</v>
       </c>
       <c r="CV30" s="4">
         <v>-203.92438884553999</v>
@@ -21918,7 +21996,7 @@
         <v>3863.55415592498</v>
       </c>
       <c r="EO30" s="4">
-        <v>619.68444066823997</v>
+        <v>619.684440668241</v>
       </c>
       <c r="EP30" s="4">
         <v>1218.5137457595599</v>
@@ -21933,7 +22011,7 @@
         <v>718.02890220743495</v>
       </c>
       <c r="ET30" s="4">
-        <v>77.371778282452297</v>
+        <v>77.371778282452198</v>
       </c>
       <c r="EU30" s="4">
         <v>-318.19430883082998</v>
@@ -21951,7 +22029,7 @@
         <v>-676.14576096507994</v>
       </c>
       <c r="EZ30" s="4">
-        <v>521.45317241247199</v>
+        <v>521.45317241247301</v>
       </c>
       <c r="FA30" s="4">
         <v>-947.75210498304</v>
@@ -21990,13 +22068,13 @@
         <v>-989.89424533987994</v>
       </c>
       <c r="FM30" s="4">
-        <v>56.4102353918448</v>
+        <v>56.410235391844999</v>
       </c>
       <c r="FN30" s="4">
         <v>-101.44186704133</v>
       </c>
       <c r="FO30" s="4">
-        <v>-1.1827869612135</v>
+        <v>-1.1827869612135999</v>
       </c>
       <c r="FP30" s="4">
         <v>-532.14078570567005</v>
@@ -22143,7 +22221,7 @@
         <v>1007.32272100573</v>
       </c>
       <c r="HL30" s="4">
-        <v>568.14725296027405</v>
+        <v>568.14725296027302</v>
       </c>
       <c r="HM30" s="4">
         <v>3172.34617828401</v>
@@ -22173,7 +22251,7 @@
         <v>-454.77918174767001</v>
       </c>
       <c r="HV30" s="4">
-        <v>5920.5779938129699</v>
+        <v>5920.5779938129799</v>
       </c>
       <c r="HW30" s="4">
         <v>-8665.6007208110004</v>
@@ -22263,7 +22341,7 @@
         <v>-165.78901177827001</v>
       </c>
       <c r="IZ30" s="4">
-        <v>97.044470256232003</v>
+        <v>97.044470256231904</v>
       </c>
       <c r="JA30" s="4">
         <v>476.35992905877998</v>
@@ -22284,10 +22362,13 @@
         <v>1927.09462508978</v>
       </c>
       <c r="JG30" s="4">
-        <v>10.922981356025399</v>
+        <v>10.922981356025</v>
+      </c>
+      <c r="JH30" s="4">
+        <v>-1313.1119249778001</v>
       </c>
     </row>
-    <row r="31" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -22568,7 +22649,7 @@
         <v>1689.8665990313</v>
       </c>
       <c r="CP31" s="6">
-        <v>12.931609351299</v>
+        <v>12.931609351299199</v>
       </c>
       <c r="CQ31" s="6">
         <v>-471.73146584305999</v>
@@ -22580,7 +22661,7 @@
         <v>-2278.1923377008002</v>
       </c>
       <c r="CT31" s="6">
-        <v>2971.7890886960699</v>
+        <v>2971.7890886960799</v>
       </c>
       <c r="CU31" s="6">
         <v>-579.43136712097998</v>
@@ -22634,7 +22715,7 @@
         <v>-2698.7119641189001</v>
       </c>
       <c r="DL31" s="6">
-        <v>3041.1648952371902</v>
+        <v>3041.1648952371802</v>
       </c>
       <c r="DM31" s="6">
         <v>-1738.2643498159</v>
@@ -22775,7 +22856,7 @@
         <v>400.195106732694</v>
       </c>
       <c r="FG31" s="6">
-        <v>1118.2222052751999</v>
+        <v>1118.2222052751899</v>
       </c>
       <c r="FH31" s="6">
         <v>-357.59472939727999</v>
@@ -22841,7 +22922,7 @@
         <v>-689.98004960905996</v>
       </c>
       <c r="GC31" s="6">
-        <v>853.26747496370695</v>
+        <v>853.26747496370797</v>
       </c>
       <c r="GD31" s="6">
         <v>177.278783020346</v>
@@ -23057,7 +23138,7 @@
         <v>1233.99958396581</v>
       </c>
       <c r="IW31" s="6">
-        <v>702.43170080637105</v>
+        <v>702.43170080637196</v>
       </c>
       <c r="IX31" s="6">
         <v>-1117.5075884815999</v>
@@ -23075,7 +23156,7 @@
         <v>156.07535343909299</v>
       </c>
       <c r="JC31" s="6">
-        <v>939.07895879755404</v>
+        <v>939.07895879755495</v>
       </c>
       <c r="JD31" s="6">
         <v>-276.67320591070001</v>
@@ -23089,8 +23170,11 @@
       <c r="JG31" s="6">
         <v>-1132.6494292995001</v>
       </c>
+      <c r="JH31" s="6">
+        <v>-1121.7057747352001</v>
+      </c>
     </row>
-    <row r="32" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -23892,8 +23976,11 @@
       <c r="JG32" s="6">
         <v>0</v>
       </c>
+      <c r="JH32" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -24695,8 +24782,11 @@
       <c r="JG33" s="6">
         <v>-233.10989815561999</v>
       </c>
+      <c r="JH33" s="6">
+        <v>-578.76194687520001</v>
+      </c>
     </row>
-    <row r="34" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -25498,8 +25588,11 @@
       <c r="JG34" s="6">
         <v>-125.44572213511999</v>
       </c>
+      <c r="JH34" s="6">
+        <v>97.752251761265398</v>
+      </c>
     </row>
-    <row r="35" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -25666,7 +25759,7 @@
         <v>-3729.5653993964002</v>
       </c>
       <c r="BD35" s="6">
-        <v>90.206057311217094</v>
+        <v>90.206057311216995</v>
       </c>
       <c r="BE35" s="6">
         <v>1211.62509561669</v>
@@ -25756,7 +25849,7 @@
         <v>383.61300233640202</v>
       </c>
       <c r="CH35" s="6">
-        <v>131.437527698309</v>
+        <v>131.437527698308</v>
       </c>
       <c r="CI35" s="6">
         <v>368.89128418741899</v>
@@ -25795,7 +25888,7 @@
         <v>3028.1020131208802</v>
       </c>
       <c r="CU35" s="6">
-        <v>70.050534269572196</v>
+        <v>70.050534269571997</v>
       </c>
       <c r="CV35" s="6">
         <v>241.16248863260799</v>
@@ -26134,7 +26227,7 @@
         <v>-1636.9461969470999</v>
       </c>
       <c r="HD35" s="6">
-        <v>-61.695196254868002</v>
+        <v>-61.695196254869003</v>
       </c>
       <c r="HE35" s="6">
         <v>1779.15049328539</v>
@@ -26301,8 +26394,11 @@
       <c r="JG35" s="6">
         <v>-771.29081290596002</v>
       </c>
+      <c r="JH35" s="6">
+        <v>-637.85111918891005</v>
+      </c>
     </row>
-    <row r="36" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -27104,8 +27200,11 @@
       <c r="JG36" s="6">
         <v>-2.8029961028431001</v>
       </c>
+      <c r="JH36" s="6">
+        <v>-2.8449604323368001</v>
+      </c>
     </row>
-    <row r="37" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
@@ -27227,7 +27326,7 @@
         <v>1624.6240087655799</v>
       </c>
       <c r="AO37" s="6">
-        <v>11.029413169927601</v>
+        <v>11.0294131699277</v>
       </c>
       <c r="AP37" s="6">
         <v>196.48465313580101</v>
@@ -27329,7 +27428,7 @@
         <v>-1143.0875491422</v>
       </c>
       <c r="BW37" s="6">
-        <v>1.8349788102934499</v>
+        <v>1.83497881029334</v>
       </c>
       <c r="BX37" s="6">
         <v>-480.84807619514999</v>
@@ -27907,8 +28006,11 @@
       <c r="JG37" s="6">
         <v>-1143.5724106555999</v>
       </c>
+      <c r="JH37" s="6">
+        <v>191.40615024264699</v>
+      </c>
     </row>
-    <row r="38" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -28710,8 +28812,11 @@
       <c r="JG38" s="6">
         <v>-598.87150058382997</v>
       </c>
+      <c r="JH38" s="6">
+        <v>-210.48441373028999</v>
+      </c>
     </row>
-    <row r="39" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -28938,7 +29043,7 @@
         <v>884.20571878312001</v>
       </c>
       <c r="BX39" s="6">
-        <v>1.6414500145342601</v>
+        <v>1.6414500145342501</v>
       </c>
       <c r="BY39" s="6">
         <v>-488.68011806571002</v>
@@ -29070,7 +29175,7 @@
         <v>2628.23417811323</v>
       </c>
       <c r="DP39" s="6">
-        <v>-85.074020153904996</v>
+        <v>-85.074020153906005</v>
       </c>
       <c r="DQ39" s="6">
         <v>-423.85612522142998</v>
@@ -29513,8 +29618,11 @@
       <c r="JG39" s="6">
         <v>-332.54801864856</v>
       </c>
+      <c r="JH39" s="6">
+        <v>326.439831989688</v>
+      </c>
     </row>
-    <row r="40" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -30316,8 +30424,11 @@
       <c r="JG40" s="6">
         <v>-193.09327789426999</v>
       </c>
+      <c r="JH40" s="6">
+        <v>66.698167912255798</v>
+      </c>
     </row>
-    <row r="41" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -31119,8 +31230,11 @@
       <c r="JG41" s="6">
         <v>3.4253000000000002E-4</v>
       </c>
+      <c r="JH41" s="6">
+        <v>3.4253000000000002E-4</v>
+      </c>
     </row>
-    <row r="42" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -31922,8 +32036,11 @@
       <c r="JG42" s="6">
         <v>-19.059956058901999</v>
       </c>
+      <c r="JH42" s="6">
+        <v>8.7522215409898294</v>
+      </c>
     </row>
-    <row r="43" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -32006,7 +32123,7 @@
         <v>-169.1</v>
       </c>
       <c r="AB43" s="4">
-        <v>58.9</v>
+        <v>58.899999999999899</v>
       </c>
       <c r="AC43" s="4">
         <v>1582</v>
@@ -32243,7 +32360,7 @@
         <v>2555.4248205466602</v>
       </c>
       <c r="DC43" s="4">
-        <v>5.4196477184271297</v>
+        <v>5.4196477184270897</v>
       </c>
       <c r="DD43" s="4">
         <v>1190.75918456769</v>
@@ -32336,7 +32453,7 @@
         <v>-796.05416632407002</v>
       </c>
       <c r="EH43" s="4">
-        <v>660.506231160006</v>
+        <v>660.50623116000702</v>
       </c>
       <c r="EI43" s="4">
         <v>25.4844096841022</v>
@@ -32725,8 +32842,11 @@
       <c r="JG43" s="4">
         <v>65.031576540631093</v>
       </c>
+      <c r="JH43" s="4">
+        <v>-121.94961046506999</v>
+      </c>
     </row>
-    <row r="44" spans="1:267" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
@@ -32996,8 +33116,9 @@
       <c r="JE44" s="8"/>
       <c r="JF44" s="8"/>
       <c r="JG44" s="8"/>
+      <c r="JH44" s="8"/>
     </row>
-    <row r="45" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
@@ -33014,7 +33135,7 @@
         <v>681.351934558327</v>
       </c>
       <c r="F45" s="6">
-        <v>836.96074273269699</v>
+        <v>836.96074273269596</v>
       </c>
       <c r="G45" s="6">
         <v>476.46627794621702</v>
@@ -33032,7 +33153,7 @@
         <v>133.043229745264</v>
       </c>
       <c r="L45" s="6">
-        <v>50.9572600461821</v>
+        <v>50.957260046181901</v>
       </c>
       <c r="M45" s="6">
         <v>601.57816674276</v>
@@ -33044,7 +33165,7 @@
         <v>648.51269373597097</v>
       </c>
       <c r="P45" s="6">
-        <v>530.21197347140105</v>
+        <v>530.21197347140196</v>
       </c>
       <c r="Q45" s="6">
         <v>363.21654150979799</v>
@@ -33074,10 +33195,10 @@
         <v>1372.29181906607</v>
       </c>
       <c r="Z45" s="6">
-        <v>19.8080689488419</v>
+        <v>19.808068948841701</v>
       </c>
       <c r="AA45" s="6">
-        <v>10.319023331798</v>
+        <v>10.319023331798199</v>
       </c>
       <c r="AB45" s="6">
         <v>257.70622758189501</v>
@@ -33089,13 +33210,13 @@
         <v>-1049.6481026336</v>
       </c>
       <c r="AE45" s="6">
-        <v>195.894616346654</v>
+        <v>195.894616346655</v>
       </c>
       <c r="AF45" s="6">
         <v>-85.007863330413002</v>
       </c>
       <c r="AG45" s="6">
-        <v>381.23729626616699</v>
+        <v>381.23729626616802</v>
       </c>
       <c r="AH45" s="6">
         <v>780.84462529838402</v>
@@ -33170,7 +33291,7 @@
         <v>2326.1321922654802</v>
       </c>
       <c r="BF45" s="6">
-        <v>82.094573972245698</v>
+        <v>82.0945739722452</v>
       </c>
       <c r="BG45" s="6">
         <v>1999.7583393699199</v>
@@ -33221,7 +33342,7 @@
         <v>-513.13297089498997</v>
       </c>
       <c r="BW45" s="6">
-        <v>695.90073066352397</v>
+        <v>695.90073066352295</v>
       </c>
       <c r="BX45" s="6">
         <v>-662.19860442920003</v>
@@ -33245,7 +33366,7 @@
         <v>-1368.6919549938</v>
       </c>
       <c r="CE45" s="6">
-        <v>371.91790509533598</v>
+        <v>371.91790509533502</v>
       </c>
       <c r="CF45" s="6">
         <v>727.40790939038095</v>
@@ -33266,7 +33387,7 @@
         <v>808.20157042145001</v>
       </c>
       <c r="CL45" s="6">
-        <v>308.38709423052001</v>
+        <v>308.38709423052097</v>
       </c>
       <c r="CM45" s="6">
         <v>-2112.4294465103999</v>
@@ -33275,7 +33396,7 @@
         <v>454.66684950784401</v>
       </c>
       <c r="CO45" s="6">
-        <v>-29.614848898841</v>
+        <v>-29.614848898843</v>
       </c>
       <c r="CP45" s="6">
         <v>-818.62682948583995</v>
@@ -33335,7 +33456,7 @@
         <v>234.947686302493</v>
       </c>
       <c r="DI45" s="6">
-        <v>768.91164112564297</v>
+        <v>768.91164112564195</v>
       </c>
       <c r="DJ45" s="6">
         <v>-1957.3607735200001</v>
@@ -33374,7 +33495,7 @@
         <v>-1445.4051883138</v>
       </c>
       <c r="DV45" s="6">
-        <v>294.38083120815099</v>
+        <v>294.38083120815202</v>
       </c>
       <c r="DW45" s="6">
         <v>-4566.0397711645001</v>
@@ -33407,7 +33528,7 @@
         <v>1190.3234697658099</v>
       </c>
       <c r="EG45" s="6">
-        <v>837.92959794629098</v>
+        <v>837.92959794628905</v>
       </c>
       <c r="EH45" s="6">
         <v>-1057.0669465532001</v>
@@ -33422,7 +33543,7 @@
         <v>-1677.443884025</v>
       </c>
       <c r="EL45" s="6">
-        <v>146.426399909726</v>
+        <v>146.426399909727</v>
       </c>
       <c r="EM45" s="6">
         <v>-185.24638300913</v>
@@ -33440,7 +33561,7 @@
         <v>1119.9004675056999</v>
       </c>
       <c r="ER45" s="6">
-        <v>48.262056171193102</v>
+        <v>48.262056171192597</v>
       </c>
       <c r="ES45" s="6">
         <v>1514.0538268783801</v>
@@ -33470,7 +33591,7 @@
         <v>-386.48653812056</v>
       </c>
       <c r="FB45" s="6">
-        <v>455.13124389014899</v>
+        <v>455.13124389015002</v>
       </c>
       <c r="FC45" s="6">
         <v>-548.12673332713996</v>
@@ -33479,7 +33600,7 @@
         <v>1408.62122167439</v>
       </c>
       <c r="FE45" s="6">
-        <v>631.16159195754699</v>
+        <v>631.16159195754597</v>
       </c>
       <c r="FF45" s="6">
         <v>-2778.1708573954002</v>
@@ -33518,13 +33639,13 @@
         <v>-1205.3112977672999</v>
       </c>
       <c r="FR45" s="6">
-        <v>782.45915043298805</v>
+        <v>782.45915043298703</v>
       </c>
       <c r="FS45" s="6">
         <v>575.21218264391405</v>
       </c>
       <c r="FT45" s="6">
-        <v>137.016341356552</v>
+        <v>137.01634135655101</v>
       </c>
       <c r="FU45" s="6">
         <v>-1922.7631141879001</v>
@@ -33536,7 +33657,7 @@
         <v>-2465.5836184591999</v>
       </c>
       <c r="FX45" s="6">
-        <v>-35.914355402303997</v>
+        <v>-35.914355402303002</v>
       </c>
       <c r="FY45" s="6">
         <v>-1012.6221296602999</v>
@@ -33575,7 +33696,7 @@
         <v>-1834.1489495631999</v>
       </c>
       <c r="GK45" s="6">
-        <v>1976.9132937367699</v>
+        <v>1976.9132937367599</v>
       </c>
       <c r="GL45" s="6">
         <v>2004.9812376623599</v>
@@ -33599,7 +33720,7 @@
         <v>-3887.5605868532002</v>
       </c>
       <c r="GS45" s="6">
-        <v>963.715307452047</v>
+        <v>963.71530745204802</v>
       </c>
       <c r="GT45" s="6">
         <v>-1262.0679656550999</v>
@@ -33611,7 +33732,7 @@
         <v>-1996.8061450166999</v>
       </c>
       <c r="GW45" s="6">
-        <v>33.060238386822903</v>
+        <v>33.060238386821503</v>
       </c>
       <c r="GX45" s="6">
         <v>-447.11828097802999</v>
@@ -33623,13 +33744,13 @@
         <v>-1548.3446187917</v>
       </c>
       <c r="HA45" s="6">
-        <v>833.94966231051501</v>
+        <v>833.94966231051296</v>
       </c>
       <c r="HB45" s="6">
         <v>-548.22688766249996</v>
       </c>
       <c r="HC45" s="6">
-        <v>499.52887929965101</v>
+        <v>499.52887929964999</v>
       </c>
       <c r="HD45" s="6">
         <v>-2333.5818225437001</v>
@@ -33686,7 +33807,7 @@
         <v>942.26875293681599</v>
       </c>
       <c r="HV45" s="6">
-        <v>238.28587792767499</v>
+        <v>238.28587792767701</v>
       </c>
       <c r="HW45" s="6">
         <v>-2449.8487823086002</v>
@@ -33698,7 +33819,7 @@
         <v>-4648.2948617724996</v>
       </c>
       <c r="HZ45" s="6">
-        <v>-232.70304957932001</v>
+        <v>-232.70304957931</v>
       </c>
       <c r="IA45" s="6">
         <v>-1795.7294510444001</v>
@@ -33728,7 +33849,7 @@
         <v>1145.6692096614699</v>
       </c>
       <c r="IJ45" s="6">
-        <v>520.27825017470002</v>
+        <v>520.27825017470195</v>
       </c>
       <c r="IK45" s="6">
         <v>-3310.7524444536002</v>
@@ -33752,10 +33873,10 @@
         <v>-6521.7504224212998</v>
       </c>
       <c r="IR45" s="6">
-        <v>844.46932553350496</v>
+        <v>844.46932553350405</v>
       </c>
       <c r="IS45" s="6">
-        <v>817.69633421511003</v>
+        <v>817.69633421510605</v>
       </c>
       <c r="IT45" s="6">
         <v>-888.93190153226999</v>
@@ -33799,8 +33920,11 @@
       <c r="JG45" s="6">
         <v>-181.43177073210001</v>
       </c>
+      <c r="JH45" s="6">
+        <v>-2723.2436030002</v>
+      </c>
     </row>
-    <row r="46" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -34602,8 +34726,11 @@
       <c r="JG46" s="6">
         <v>606.98033491019805</v>
       </c>
+      <c r="JH46" s="6">
+        <v>1552.1277469752399</v>
+      </c>
     </row>
-    <row r="47" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -35001,7 +35128,7 @@
         <v>90.854982519937494</v>
       </c>
       <c r="EC47" s="6">
-        <v>936.90082727667095</v>
+        <v>936.90082727667198</v>
       </c>
       <c r="ED47" s="6">
         <v>-612.20298137822999</v>
@@ -35013,7 +35140,7 @@
         <v>-1.4788057384389</v>
       </c>
       <c r="EG47" s="6">
-        <v>911.69553194009404</v>
+        <v>911.69553194009495</v>
       </c>
       <c r="EH47" s="6">
         <v>527.56535966947501</v>
@@ -35142,7 +35269,7 @@
         <v>1533.5797686948499</v>
       </c>
       <c r="FX47" s="6">
-        <v>7.5673063601758797</v>
+        <v>7.5673063601759099</v>
       </c>
       <c r="FY47" s="6">
         <v>1465.5415679642199</v>
@@ -35277,7 +35404,7 @@
         <v>8969.7604248505104</v>
       </c>
       <c r="HQ47" s="6">
-        <v>764.70620036726802</v>
+        <v>764.70620036726905</v>
       </c>
       <c r="HR47" s="6">
         <v>6416.0642500674903</v>
@@ -35334,7 +35461,7 @@
         <v>377.70546658978401</v>
       </c>
       <c r="IJ47" s="6">
-        <v>-95.702097770654007</v>
+        <v>-95.702097770652998</v>
       </c>
       <c r="IK47" s="6">
         <v>-466.20754579367002</v>
@@ -35405,8 +35532,11 @@
       <c r="JG47" s="6">
         <v>758.62230289152899</v>
       </c>
+      <c r="JH47" s="6">
+        <v>1746.2804896566299</v>
+      </c>
     </row>
-    <row r="48" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -35936,10 +36066,10 @@
         <v>258.23480483325898</v>
       </c>
       <c r="FU48" s="6">
-        <v>84.886529146104493</v>
+        <v>84.886529146104706</v>
       </c>
       <c r="FV48" s="6">
-        <v>264.535947400064</v>
+        <v>264.53594740006298</v>
       </c>
       <c r="FW48" s="6">
         <v>931.16329007058096</v>
@@ -36080,7 +36210,7 @@
         <v>7527.6940666050796</v>
       </c>
       <c r="HQ48" s="6">
-        <v>289.17198506816902</v>
+        <v>289.17198506816999</v>
       </c>
       <c r="HR48" s="6">
         <v>6502.7817623690198</v>
@@ -36208,8 +36338,11 @@
       <c r="JG48" s="6">
         <v>392.22536942818101</v>
       </c>
+      <c r="JH48" s="6">
+        <v>1633.42706376613</v>
+      </c>
     </row>
-    <row r="49" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
@@ -37011,8 +37144,11 @@
       <c r="JG49" s="6">
         <v>366.39693346334798</v>
       </c>
+      <c r="JH49" s="6">
+        <v>112.853425890501</v>
+      </c>
     </row>
-    <row r="50" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -37749,7 +37885,7 @@
         <v>-92.361741699153001</v>
       </c>
       <c r="IL50" s="6">
-        <v>7.81129525308768</v>
+        <v>7.8112952530877102</v>
       </c>
       <c r="IM50" s="6">
         <v>-868.09274635465999</v>
@@ -37814,8 +37950,11 @@
       <c r="JG50" s="6">
         <v>-151.64196798133</v>
       </c>
+      <c r="JH50" s="6">
+        <v>-194.15274268139001</v>
+      </c>
     </row>
-    <row r="51" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>46</v>
       </c>
@@ -38617,8 +38756,11 @@
       <c r="JG51" s="6">
         <v>-36.653965101954</v>
       </c>
+      <c r="JH51" s="6">
+        <v>-9.5002580426981993</v>
+      </c>
     </row>
-    <row r="52" spans="1:267" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
@@ -39376,7 +39518,7 @@
         <v>-68.423024719517002</v>
       </c>
       <c r="IS52" s="6">
-        <v>71.932652612310406</v>
+        <v>71.932652612310306</v>
       </c>
       <c r="IT52" s="6">
         <v>-36.193447435605997</v>
@@ -39412,7 +39554,7 @@
         <v>-273.45374420457</v>
       </c>
       <c r="JE52" s="6">
-        <v>5.8089174899741698</v>
+        <v>5.80891748997416</v>
       </c>
       <c r="JF52" s="6">
         <v>-23.042052443980999</v>
@@ -39420,8 +39562,11 @@
       <c r="JG52" s="6">
         <v>-114.98800287938001</v>
       </c>
+      <c r="JH52" s="6">
+        <v>-184.65248463869</v>
+      </c>
     </row>
-    <row r="54" spans="1:267" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:268" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>48</v>
       </c>
@@ -39691,16 +39836,17 @@
       <c r="JE54" s="12"/>
       <c r="JF54" s="12"/>
       <c r="JG54" s="12"/>
+      <c r="JH54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A54:JG54"/>
+    <mergeCell ref="A54:JH54"/>
     <mergeCell ref="IH4:IS4"/>
     <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="JF4:JG4"/>
-    <mergeCell ref="A44:JG44"/>
-    <mergeCell ref="A1:JG1"/>
-    <mergeCell ref="A2:JG2"/>
+    <mergeCell ref="JF4:JH4"/>
+    <mergeCell ref="A44:JH44"/>
+    <mergeCell ref="A1:JH1"/>
+    <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
     <mergeCell ref="GL4:GW4"/>
     <mergeCell ref="GX4:HI4"/>
@@ -39732,7 +39878,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -39879,7 +40025,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4">
-        <v>931.79317399879699</v>
+        <v>931.79317399879801</v>
       </c>
       <c r="C5" s="4">
         <v>3504.3321658472601</v>
@@ -39900,7 +40046,7 @@
         <v>2388.0343117307002</v>
       </c>
       <c r="I5" s="4">
-        <v>7487.4661587924702</v>
+        <v>7487.4661587924602</v>
       </c>
       <c r="J5" s="4">
         <v>-9096.5100319319008</v>
@@ -39918,7 +40064,7 @@
         <v>-3916.9038000688001</v>
       </c>
       <c r="O5" s="4">
-        <v>-4231.2744934343</v>
+        <v>-4231.2744934341999</v>
       </c>
       <c r="P5" s="4">
         <v>-6157.8165409762996</v>
@@ -39965,7 +40111,7 @@
         <v>20588.552757014801</v>
       </c>
       <c r="G6" s="4">
-        <v>8366.7592309438896</v>
+        <v>8366.7592309439005</v>
       </c>
       <c r="H6" s="4">
         <v>14081.612400062</v>
@@ -39989,7 +40135,7 @@
         <v>3686.7132617689099</v>
       </c>
       <c r="O6" s="4">
-        <v>2008.5695429126299</v>
+        <v>2008.5695429126399</v>
       </c>
       <c r="P6" s="4">
         <v>5919.3438584347896</v>
@@ -39998,7 +40144,7 @@
         <v>-3200.7152774739998</v>
       </c>
       <c r="R6" s="4">
-        <v>5280.4352073341397</v>
+        <v>5280.4352073341497</v>
       </c>
       <c r="S6" s="4">
         <v>-8602.2456052066009</v>
@@ -40365,7 +40511,7 @@
         <v>1424.4208244676499</v>
       </c>
       <c r="V11" s="6">
-        <v>951.327266920792</v>
+        <v>951.32726692079302</v>
       </c>
       <c r="W11" s="6">
         <v>1716.28733330821</v>
@@ -40850,13 +40996,13 @@
         <v>2669.4425111257801</v>
       </c>
       <c r="R18" s="6">
-        <v>877.47555439936605</v>
+        <v>877.47555439936502</v>
       </c>
       <c r="S18" s="6">
         <v>-5930.4620896118004</v>
       </c>
       <c r="T18" s="6">
-        <v>164.769286497781</v>
+        <v>164.76928649778</v>
       </c>
       <c r="U18" s="6">
         <v>7557.55187273314</v>
@@ -40927,7 +41073,7 @@
         <v>1716.48473590563</v>
       </c>
       <c r="T19" s="6">
-        <v>6732.880336446</v>
+        <v>6732.88033644601</v>
       </c>
       <c r="U19" s="6">
         <v>-5176.5620977489998</v>
@@ -41533,13 +41679,13 @@
         <v>1048.60326757025</v>
       </c>
       <c r="I28" s="4">
-        <v>933.68916442190095</v>
+        <v>933.68916442190198</v>
       </c>
       <c r="J28" s="4">
         <v>2418.2233191694199</v>
       </c>
       <c r="K28" s="4">
-        <v>-10.434393075408</v>
+        <v>-10.434393075409</v>
       </c>
       <c r="L28" s="4">
         <v>1005.34292603341</v>
@@ -41557,7 +41703,7 @@
         <v>64.688919285997201</v>
       </c>
       <c r="Q28" s="4">
-        <v>881.731688049078</v>
+        <v>881.73168804907903</v>
       </c>
       <c r="R28" s="4">
         <v>1500.61843477825</v>
@@ -41566,10 +41712,10 @@
         <v>2536.4022624842801</v>
       </c>
       <c r="T28" s="4">
-        <v>-17.424868797372</v>
+        <v>-17.424868797371001</v>
       </c>
       <c r="U28" s="4">
-        <v>36.4897520674904</v>
+        <v>36.489752067491501</v>
       </c>
       <c r="V28" s="4">
         <v>-1757.3986176215001</v>
@@ -41592,7 +41738,7 @@
         <v>494.007584979255</v>
       </c>
       <c r="E29" s="4">
-        <v>862.05952338803104</v>
+        <v>862.05952338803002</v>
       </c>
       <c r="F29" s="4">
         <v>1452.7103248549299</v>
@@ -41613,7 +41759,7 @@
         <v>-5906.2866439888003</v>
       </c>
       <c r="L29" s="4">
-        <v>1806.95351338828</v>
+        <v>1806.95351338829</v>
       </c>
       <c r="M29" s="4">
         <v>6921.4610968329398</v>
@@ -42001,7 +42147,7 @@
         <v>284.30464809234098</v>
       </c>
       <c r="W34" s="6">
-        <v>1339.65248741246</v>
+        <v>1339.65248741247</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,23 +5,51 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.05.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\04_PRODUCTOS\02_CF\CF.18.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E0F7D-F4E7-466E-AE2E-F61F7273F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7A361-A83E-42CA-AC0E-46AF8CDD1C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="-4200" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
     <sheet name="Anual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -155,9 +183,6 @@
     <t>.      Mercado externo</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>.      Mercado local</t>
   </si>
   <si>
@@ -236,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -304,11 +329,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -330,12 +370,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -345,8 +379,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +530,10 @@
   <dimension ref="A1:JH54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IO6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="JI7" sqref="JI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -553,864 +599,864 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="10"/>
-      <c r="CK1" s="10"/>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="10"/>
-      <c r="DC1" s="10"/>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="10"/>
-      <c r="DU1" s="10"/>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="10"/>
-      <c r="EM1" s="10"/>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="10"/>
-      <c r="FE1" s="10"/>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="10"/>
-      <c r="FW1" s="10"/>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="10"/>
-      <c r="GO1" s="10"/>
-      <c r="GP1" s="10"/>
-      <c r="GQ1" s="10"/>
-      <c r="GR1" s="10"/>
-      <c r="GS1" s="10"/>
-      <c r="GT1" s="10"/>
-      <c r="GU1" s="10"/>
-      <c r="GV1" s="10"/>
-      <c r="GW1" s="10"/>
-      <c r="GX1" s="10"/>
-      <c r="GY1" s="10"/>
-      <c r="GZ1" s="10"/>
-      <c r="HA1" s="10"/>
-      <c r="HB1" s="10"/>
-      <c r="HC1" s="10"/>
-      <c r="HD1" s="10"/>
-      <c r="HE1" s="10"/>
-      <c r="HF1" s="10"/>
-      <c r="HG1" s="10"/>
-      <c r="HH1" s="10"/>
-      <c r="HI1" s="10"/>
-      <c r="HJ1" s="10"/>
-      <c r="HK1" s="10"/>
-      <c r="HL1" s="10"/>
-      <c r="HM1" s="10"/>
-      <c r="HN1" s="10"/>
-      <c r="HO1" s="10"/>
-      <c r="HP1" s="10"/>
-      <c r="HQ1" s="10"/>
-      <c r="HR1" s="10"/>
-      <c r="HS1" s="10"/>
-      <c r="HT1" s="10"/>
-      <c r="HU1" s="10"/>
-      <c r="HV1" s="10"/>
-      <c r="HW1" s="10"/>
-      <c r="HX1" s="10"/>
-      <c r="HY1" s="10"/>
-      <c r="HZ1" s="10"/>
-      <c r="IA1" s="10"/>
-      <c r="IB1" s="10"/>
-      <c r="IC1" s="10"/>
-      <c r="ID1" s="10"/>
-      <c r="IE1" s="10"/>
-      <c r="IF1" s="10"/>
-      <c r="IG1" s="10"/>
-      <c r="IH1" s="10"/>
-      <c r="II1" s="10"/>
-      <c r="IJ1" s="10"/>
-      <c r="IK1" s="10"/>
-      <c r="IL1" s="10"/>
-      <c r="IM1" s="10"/>
-      <c r="IN1" s="10"/>
-      <c r="IO1" s="10"/>
-      <c r="IP1" s="10"/>
-      <c r="IQ1" s="10"/>
-      <c r="IR1" s="10"/>
-      <c r="IS1" s="10"/>
-      <c r="IT1" s="10"/>
-      <c r="IU1" s="10"/>
-      <c r="IV1" s="10"/>
-      <c r="IW1" s="10"/>
-      <c r="IX1" s="10"/>
-      <c r="IY1" s="10"/>
-      <c r="IZ1" s="10"/>
-      <c r="JA1" s="10"/>
-      <c r="JB1" s="10"/>
-      <c r="JC1" s="10"/>
-      <c r="JD1" s="10"/>
-      <c r="JE1" s="10"/>
-      <c r="JF1" s="10"/>
-      <c r="JG1" s="10"/>
-      <c r="JH1" s="10"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="8"/>
+      <c r="FW1" s="8"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="8"/>
+      <c r="GO1" s="8"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="8"/>
+      <c r="HG1" s="8"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="8"/>
+      <c r="HY1" s="8"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="8"/>
+      <c r="IQ1" s="8"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="8"/>
     </row>
     <row r="2" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
-      <c r="BQ2" s="10"/>
-      <c r="BR2" s="10"/>
-      <c r="BS2" s="10"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="10"/>
-      <c r="BV2" s="10"/>
-      <c r="BW2" s="10"/>
-      <c r="BX2" s="10"/>
-      <c r="BY2" s="10"/>
-      <c r="BZ2" s="10"/>
-      <c r="CA2" s="10"/>
-      <c r="CB2" s="10"/>
-      <c r="CC2" s="10"/>
-      <c r="CD2" s="10"/>
-      <c r="CE2" s="10"/>
-      <c r="CF2" s="10"/>
-      <c r="CG2" s="10"/>
-      <c r="CH2" s="10"/>
-      <c r="CI2" s="10"/>
-      <c r="CJ2" s="10"/>
-      <c r="CK2" s="10"/>
-      <c r="CL2" s="10"/>
-      <c r="CM2" s="10"/>
-      <c r="CN2" s="10"/>
-      <c r="CO2" s="10"/>
-      <c r="CP2" s="10"/>
-      <c r="CQ2" s="10"/>
-      <c r="CR2" s="10"/>
-      <c r="CS2" s="10"/>
-      <c r="CT2" s="10"/>
-      <c r="CU2" s="10"/>
-      <c r="CV2" s="10"/>
-      <c r="CW2" s="10"/>
-      <c r="CX2" s="10"/>
-      <c r="CY2" s="10"/>
-      <c r="CZ2" s="10"/>
-      <c r="DA2" s="10"/>
-      <c r="DB2" s="10"/>
-      <c r="DC2" s="10"/>
-      <c r="DD2" s="10"/>
-      <c r="DE2" s="10"/>
-      <c r="DF2" s="10"/>
-      <c r="DG2" s="10"/>
-      <c r="DH2" s="10"/>
-      <c r="DI2" s="10"/>
-      <c r="DJ2" s="10"/>
-      <c r="DK2" s="10"/>
-      <c r="DL2" s="10"/>
-      <c r="DM2" s="10"/>
-      <c r="DN2" s="10"/>
-      <c r="DO2" s="10"/>
-      <c r="DP2" s="10"/>
-      <c r="DQ2" s="10"/>
-      <c r="DR2" s="10"/>
-      <c r="DS2" s="10"/>
-      <c r="DT2" s="10"/>
-      <c r="DU2" s="10"/>
-      <c r="DV2" s="10"/>
-      <c r="DW2" s="10"/>
-      <c r="DX2" s="10"/>
-      <c r="DY2" s="10"/>
-      <c r="DZ2" s="10"/>
-      <c r="EA2" s="10"/>
-      <c r="EB2" s="10"/>
-      <c r="EC2" s="10"/>
-      <c r="ED2" s="10"/>
-      <c r="EE2" s="10"/>
-      <c r="EF2" s="10"/>
-      <c r="EG2" s="10"/>
-      <c r="EH2" s="10"/>
-      <c r="EI2" s="10"/>
-      <c r="EJ2" s="10"/>
-      <c r="EK2" s="10"/>
-      <c r="EL2" s="10"/>
-      <c r="EM2" s="10"/>
-      <c r="EN2" s="10"/>
-      <c r="EO2" s="10"/>
-      <c r="EP2" s="10"/>
-      <c r="EQ2" s="10"/>
-      <c r="ER2" s="10"/>
-      <c r="ES2" s="10"/>
-      <c r="ET2" s="10"/>
-      <c r="EU2" s="10"/>
-      <c r="EV2" s="10"/>
-      <c r="EW2" s="10"/>
-      <c r="EX2" s="10"/>
-      <c r="EY2" s="10"/>
-      <c r="EZ2" s="10"/>
-      <c r="FA2" s="10"/>
-      <c r="FB2" s="10"/>
-      <c r="FC2" s="10"/>
-      <c r="FD2" s="10"/>
-      <c r="FE2" s="10"/>
-      <c r="FF2" s="10"/>
-      <c r="FG2" s="10"/>
-      <c r="FH2" s="10"/>
-      <c r="FI2" s="10"/>
-      <c r="FJ2" s="10"/>
-      <c r="FK2" s="10"/>
-      <c r="FL2" s="10"/>
-      <c r="FM2" s="10"/>
-      <c r="FN2" s="10"/>
-      <c r="FO2" s="10"/>
-      <c r="FP2" s="10"/>
-      <c r="FQ2" s="10"/>
-      <c r="FR2" s="10"/>
-      <c r="FS2" s="10"/>
-      <c r="FT2" s="10"/>
-      <c r="FU2" s="10"/>
-      <c r="FV2" s="10"/>
-      <c r="FW2" s="10"/>
-      <c r="FX2" s="10"/>
-      <c r="FY2" s="10"/>
-      <c r="FZ2" s="10"/>
-      <c r="GA2" s="10"/>
-      <c r="GB2" s="10"/>
-      <c r="GC2" s="10"/>
-      <c r="GD2" s="10"/>
-      <c r="GE2" s="10"/>
-      <c r="GF2" s="10"/>
-      <c r="GG2" s="10"/>
-      <c r="GH2" s="10"/>
-      <c r="GI2" s="10"/>
-      <c r="GJ2" s="10"/>
-      <c r="GK2" s="10"/>
-      <c r="GL2" s="10"/>
-      <c r="GM2" s="10"/>
-      <c r="GN2" s="10"/>
-      <c r="GO2" s="10"/>
-      <c r="GP2" s="10"/>
-      <c r="GQ2" s="10"/>
-      <c r="GR2" s="10"/>
-      <c r="GS2" s="10"/>
-      <c r="GT2" s="10"/>
-      <c r="GU2" s="10"/>
-      <c r="GV2" s="10"/>
-      <c r="GW2" s="10"/>
-      <c r="GX2" s="10"/>
-      <c r="GY2" s="10"/>
-      <c r="GZ2" s="10"/>
-      <c r="HA2" s="10"/>
-      <c r="HB2" s="10"/>
-      <c r="HC2" s="10"/>
-      <c r="HD2" s="10"/>
-      <c r="HE2" s="10"/>
-      <c r="HF2" s="10"/>
-      <c r="HG2" s="10"/>
-      <c r="HH2" s="10"/>
-      <c r="HI2" s="10"/>
-      <c r="HJ2" s="10"/>
-      <c r="HK2" s="10"/>
-      <c r="HL2" s="10"/>
-      <c r="HM2" s="10"/>
-      <c r="HN2" s="10"/>
-      <c r="HO2" s="10"/>
-      <c r="HP2" s="10"/>
-      <c r="HQ2" s="10"/>
-      <c r="HR2" s="10"/>
-      <c r="HS2" s="10"/>
-      <c r="HT2" s="10"/>
-      <c r="HU2" s="10"/>
-      <c r="HV2" s="10"/>
-      <c r="HW2" s="10"/>
-      <c r="HX2" s="10"/>
-      <c r="HY2" s="10"/>
-      <c r="HZ2" s="10"/>
-      <c r="IA2" s="10"/>
-      <c r="IB2" s="10"/>
-      <c r="IC2" s="10"/>
-      <c r="ID2" s="10"/>
-      <c r="IE2" s="10"/>
-      <c r="IF2" s="10"/>
-      <c r="IG2" s="10"/>
-      <c r="IH2" s="10"/>
-      <c r="II2" s="10"/>
-      <c r="IJ2" s="10"/>
-      <c r="IK2" s="10"/>
-      <c r="IL2" s="10"/>
-      <c r="IM2" s="10"/>
-      <c r="IN2" s="10"/>
-      <c r="IO2" s="10"/>
-      <c r="IP2" s="10"/>
-      <c r="IQ2" s="10"/>
-      <c r="IR2" s="10"/>
-      <c r="IS2" s="10"/>
-      <c r="IT2" s="10"/>
-      <c r="IU2" s="10"/>
-      <c r="IV2" s="10"/>
-      <c r="IW2" s="10"/>
-      <c r="IX2" s="10"/>
-      <c r="IY2" s="10"/>
-      <c r="IZ2" s="10"/>
-      <c r="JA2" s="10"/>
-      <c r="JB2" s="10"/>
-      <c r="JC2" s="10"/>
-      <c r="JD2" s="10"/>
-      <c r="JE2" s="10"/>
-      <c r="JF2" s="10"/>
-      <c r="JG2" s="10"/>
-      <c r="JH2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="8"/>
+      <c r="DR2" s="8"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8"/>
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="8"/>
+      <c r="EJ2" s="8"/>
+      <c r="EK2" s="8"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
+      <c r="EN2" s="8"/>
+      <c r="EO2" s="8"/>
+      <c r="EP2" s="8"/>
+      <c r="EQ2" s="8"/>
+      <c r="ER2" s="8"/>
+      <c r="ES2" s="8"/>
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="8"/>
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="8"/>
+      <c r="EX2" s="8"/>
+      <c r="EY2" s="8"/>
+      <c r="EZ2" s="8"/>
+      <c r="FA2" s="8"/>
+      <c r="FB2" s="8"/>
+      <c r="FC2" s="8"/>
+      <c r="FD2" s="8"/>
+      <c r="FE2" s="8"/>
+      <c r="FF2" s="8"/>
+      <c r="FG2" s="8"/>
+      <c r="FH2" s="8"/>
+      <c r="FI2" s="8"/>
+      <c r="FJ2" s="8"/>
+      <c r="FK2" s="8"/>
+      <c r="FL2" s="8"/>
+      <c r="FM2" s="8"/>
+      <c r="FN2" s="8"/>
+      <c r="FO2" s="8"/>
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="8"/>
+      <c r="FU2" s="8"/>
+      <c r="FV2" s="8"/>
+      <c r="FW2" s="8"/>
+      <c r="FX2" s="8"/>
+      <c r="FY2" s="8"/>
+      <c r="FZ2" s="8"/>
+      <c r="GA2" s="8"/>
+      <c r="GB2" s="8"/>
+      <c r="GC2" s="8"/>
+      <c r="GD2" s="8"/>
+      <c r="GE2" s="8"/>
+      <c r="GF2" s="8"/>
+      <c r="GG2" s="8"/>
+      <c r="GH2" s="8"/>
+      <c r="GI2" s="8"/>
+      <c r="GJ2" s="8"/>
+      <c r="GK2" s="8"/>
+      <c r="GL2" s="8"/>
+      <c r="GM2" s="8"/>
+      <c r="GN2" s="8"/>
+      <c r="GO2" s="8"/>
+      <c r="GP2" s="8"/>
+      <c r="GQ2" s="8"/>
+      <c r="GR2" s="8"/>
+      <c r="GS2" s="8"/>
+      <c r="GT2" s="8"/>
+      <c r="GU2" s="8"/>
+      <c r="GV2" s="8"/>
+      <c r="GW2" s="8"/>
+      <c r="GX2" s="8"/>
+      <c r="GY2" s="8"/>
+      <c r="GZ2" s="8"/>
+      <c r="HA2" s="8"/>
+      <c r="HB2" s="8"/>
+      <c r="HC2" s="8"/>
+      <c r="HD2" s="8"/>
+      <c r="HE2" s="8"/>
+      <c r="HF2" s="8"/>
+      <c r="HG2" s="8"/>
+      <c r="HH2" s="8"/>
+      <c r="HI2" s="8"/>
+      <c r="HJ2" s="8"/>
+      <c r="HK2" s="8"/>
+      <c r="HL2" s="8"/>
+      <c r="HM2" s="8"/>
+      <c r="HN2" s="8"/>
+      <c r="HO2" s="8"/>
+      <c r="HP2" s="8"/>
+      <c r="HQ2" s="8"/>
+      <c r="HR2" s="8"/>
+      <c r="HS2" s="8"/>
+      <c r="HT2" s="8"/>
+      <c r="HU2" s="8"/>
+      <c r="HV2" s="8"/>
+      <c r="HW2" s="8"/>
+      <c r="HX2" s="8"/>
+      <c r="HY2" s="8"/>
+      <c r="HZ2" s="8"/>
+      <c r="IA2" s="8"/>
+      <c r="IB2" s="8"/>
+      <c r="IC2" s="8"/>
+      <c r="ID2" s="8"/>
+      <c r="IE2" s="8"/>
+      <c r="IF2" s="8"/>
+      <c r="IG2" s="8"/>
+      <c r="IH2" s="8"/>
+      <c r="II2" s="8"/>
+      <c r="IJ2" s="8"/>
+      <c r="IK2" s="8"/>
+      <c r="IL2" s="8"/>
+      <c r="IM2" s="8"/>
+      <c r="IN2" s="8"/>
+      <c r="IO2" s="8"/>
+      <c r="IP2" s="8"/>
+      <c r="IQ2" s="8"/>
+      <c r="IR2" s="8"/>
+      <c r="IS2" s="8"/>
+      <c r="IT2" s="8"/>
+      <c r="IU2" s="8"/>
+      <c r="IV2" s="8"/>
+      <c r="IW2" s="8"/>
+      <c r="IX2" s="8"/>
+      <c r="IY2" s="8"/>
+      <c r="IZ2" s="8"/>
+      <c r="JA2" s="8"/>
+      <c r="JB2" s="8"/>
+      <c r="JC2" s="8"/>
+      <c r="JD2" s="8"/>
+      <c r="JE2" s="8"/>
+      <c r="JF2" s="8"/>
+      <c r="JG2" s="8"/>
+      <c r="JH2" s="8"/>
     </row>
     <row r="4" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>2003</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
         <v>2004</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10">
         <v>2005</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7">
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10">
         <v>2006</v>
       </c>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7">
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10">
         <v>2007</v>
       </c>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="7">
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10">
         <v>2008</v>
       </c>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="7"/>
-      <c r="BU4" s="7"/>
-      <c r="BV4" s="7">
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10">
         <v>2009</v>
       </c>
-      <c r="BW4" s="7"/>
-      <c r="BX4" s="7"/>
-      <c r="BY4" s="7"/>
-      <c r="BZ4" s="7"/>
-      <c r="CA4" s="7"/>
-      <c r="CB4" s="7"/>
-      <c r="CC4" s="7"/>
-      <c r="CD4" s="7"/>
-      <c r="CE4" s="7"/>
-      <c r="CF4" s="7"/>
-      <c r="CG4" s="7"/>
-      <c r="CH4" s="7">
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10">
         <v>2010</v>
       </c>
-      <c r="CI4" s="7"/>
-      <c r="CJ4" s="7"/>
-      <c r="CK4" s="7"/>
-      <c r="CL4" s="7"/>
-      <c r="CM4" s="7"/>
-      <c r="CN4" s="7"/>
-      <c r="CO4" s="7"/>
-      <c r="CP4" s="7"/>
-      <c r="CQ4" s="7"/>
-      <c r="CR4" s="7"/>
-      <c r="CS4" s="7"/>
-      <c r="CT4" s="7">
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="10">
         <v>2011</v>
       </c>
-      <c r="CU4" s="7"/>
-      <c r="CV4" s="7"/>
-      <c r="CW4" s="7"/>
-      <c r="CX4" s="7"/>
-      <c r="CY4" s="7"/>
-      <c r="CZ4" s="7"/>
-      <c r="DA4" s="7"/>
-      <c r="DB4" s="7"/>
-      <c r="DC4" s="7"/>
-      <c r="DD4" s="7"/>
-      <c r="DE4" s="7"/>
-      <c r="DF4" s="7">
+      <c r="CU4" s="10"/>
+      <c r="CV4" s="10"/>
+      <c r="CW4" s="10"/>
+      <c r="CX4" s="10"/>
+      <c r="CY4" s="10"/>
+      <c r="CZ4" s="10"/>
+      <c r="DA4" s="10"/>
+      <c r="DB4" s="10"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="10"/>
+      <c r="DE4" s="10"/>
+      <c r="DF4" s="10">
         <v>2012</v>
       </c>
-      <c r="DG4" s="7"/>
-      <c r="DH4" s="7"/>
-      <c r="DI4" s="7"/>
-      <c r="DJ4" s="7"/>
-      <c r="DK4" s="7"/>
-      <c r="DL4" s="7"/>
-      <c r="DM4" s="7"/>
-      <c r="DN4" s="7"/>
-      <c r="DO4" s="7"/>
-      <c r="DP4" s="7"/>
-      <c r="DQ4" s="7"/>
-      <c r="DR4" s="7">
+      <c r="DG4" s="10"/>
+      <c r="DH4" s="10"/>
+      <c r="DI4" s="10"/>
+      <c r="DJ4" s="10"/>
+      <c r="DK4" s="10"/>
+      <c r="DL4" s="10"/>
+      <c r="DM4" s="10"/>
+      <c r="DN4" s="10"/>
+      <c r="DO4" s="10"/>
+      <c r="DP4" s="10"/>
+      <c r="DQ4" s="10"/>
+      <c r="DR4" s="10">
         <v>2013</v>
       </c>
-      <c r="DS4" s="7"/>
-      <c r="DT4" s="7"/>
-      <c r="DU4" s="7"/>
-      <c r="DV4" s="7"/>
-      <c r="DW4" s="7"/>
-      <c r="DX4" s="7"/>
-      <c r="DY4" s="7"/>
-      <c r="DZ4" s="7"/>
-      <c r="EA4" s="7"/>
-      <c r="EB4" s="7"/>
-      <c r="EC4" s="7"/>
-      <c r="ED4" s="7">
+      <c r="DS4" s="10"/>
+      <c r="DT4" s="10"/>
+      <c r="DU4" s="10"/>
+      <c r="DV4" s="10"/>
+      <c r="DW4" s="10"/>
+      <c r="DX4" s="10"/>
+      <c r="DY4" s="10"/>
+      <c r="DZ4" s="10"/>
+      <c r="EA4" s="10"/>
+      <c r="EB4" s="10"/>
+      <c r="EC4" s="10"/>
+      <c r="ED4" s="10">
         <v>2014</v>
       </c>
-      <c r="EE4" s="7"/>
-      <c r="EF4" s="7"/>
-      <c r="EG4" s="7"/>
-      <c r="EH4" s="7"/>
-      <c r="EI4" s="7"/>
-      <c r="EJ4" s="7"/>
-      <c r="EK4" s="7"/>
-      <c r="EL4" s="7"/>
-      <c r="EM4" s="7"/>
-      <c r="EN4" s="7"/>
-      <c r="EO4" s="7"/>
-      <c r="EP4" s="7">
+      <c r="EE4" s="10"/>
+      <c r="EF4" s="10"/>
+      <c r="EG4" s="10"/>
+      <c r="EH4" s="10"/>
+      <c r="EI4" s="10"/>
+      <c r="EJ4" s="10"/>
+      <c r="EK4" s="10"/>
+      <c r="EL4" s="10"/>
+      <c r="EM4" s="10"/>
+      <c r="EN4" s="10"/>
+      <c r="EO4" s="10"/>
+      <c r="EP4" s="10">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="7"/>
-      <c r="ER4" s="7"/>
-      <c r="ES4" s="7"/>
-      <c r="ET4" s="7"/>
-      <c r="EU4" s="7"/>
-      <c r="EV4" s="7"/>
-      <c r="EW4" s="7"/>
-      <c r="EX4" s="7"/>
-      <c r="EY4" s="7"/>
-      <c r="EZ4" s="7"/>
-      <c r="FA4" s="7"/>
-      <c r="FB4" s="7">
+      <c r="EQ4" s="10"/>
+      <c r="ER4" s="10"/>
+      <c r="ES4" s="10"/>
+      <c r="ET4" s="10"/>
+      <c r="EU4" s="10"/>
+      <c r="EV4" s="10"/>
+      <c r="EW4" s="10"/>
+      <c r="EX4" s="10"/>
+      <c r="EY4" s="10"/>
+      <c r="EZ4" s="10"/>
+      <c r="FA4" s="10"/>
+      <c r="FB4" s="10">
         <v>2016</v>
       </c>
-      <c r="FC4" s="7"/>
-      <c r="FD4" s="7"/>
-      <c r="FE4" s="7"/>
-      <c r="FF4" s="7"/>
-      <c r="FG4" s="7"/>
-      <c r="FH4" s="7"/>
-      <c r="FI4" s="7"/>
-      <c r="FJ4" s="7"/>
-      <c r="FK4" s="7"/>
-      <c r="FL4" s="7"/>
-      <c r="FM4" s="7"/>
-      <c r="FN4" s="7">
+      <c r="FC4" s="10"/>
+      <c r="FD4" s="10"/>
+      <c r="FE4" s="10"/>
+      <c r="FF4" s="10"/>
+      <c r="FG4" s="10"/>
+      <c r="FH4" s="10"/>
+      <c r="FI4" s="10"/>
+      <c r="FJ4" s="10"/>
+      <c r="FK4" s="10"/>
+      <c r="FL4" s="10"/>
+      <c r="FM4" s="10"/>
+      <c r="FN4" s="10">
         <v>2017</v>
       </c>
-      <c r="FO4" s="7"/>
-      <c r="FP4" s="7"/>
-      <c r="FQ4" s="7"/>
-      <c r="FR4" s="7"/>
-      <c r="FS4" s="7"/>
-      <c r="FT4" s="7"/>
-      <c r="FU4" s="7"/>
-      <c r="FV4" s="7"/>
-      <c r="FW4" s="7"/>
-      <c r="FX4" s="7"/>
-      <c r="FY4" s="7"/>
-      <c r="FZ4" s="7">
+      <c r="FO4" s="10"/>
+      <c r="FP4" s="10"/>
+      <c r="FQ4" s="10"/>
+      <c r="FR4" s="10"/>
+      <c r="FS4" s="10"/>
+      <c r="FT4" s="10"/>
+      <c r="FU4" s="10"/>
+      <c r="FV4" s="10"/>
+      <c r="FW4" s="10"/>
+      <c r="FX4" s="10"/>
+      <c r="FY4" s="10"/>
+      <c r="FZ4" s="10">
         <v>2018</v>
       </c>
-      <c r="GA4" s="7"/>
-      <c r="GB4" s="7"/>
-      <c r="GC4" s="7"/>
-      <c r="GD4" s="7"/>
-      <c r="GE4" s="7"/>
-      <c r="GF4" s="7"/>
-      <c r="GG4" s="7"/>
-      <c r="GH4" s="7"/>
-      <c r="GI4" s="7"/>
-      <c r="GJ4" s="7"/>
-      <c r="GK4" s="7"/>
-      <c r="GL4" s="7">
+      <c r="GA4" s="10"/>
+      <c r="GB4" s="10"/>
+      <c r="GC4" s="10"/>
+      <c r="GD4" s="10"/>
+      <c r="GE4" s="10"/>
+      <c r="GF4" s="10"/>
+      <c r="GG4" s="10"/>
+      <c r="GH4" s="10"/>
+      <c r="GI4" s="10"/>
+      <c r="GJ4" s="10"/>
+      <c r="GK4" s="10"/>
+      <c r="GL4" s="10">
         <v>2019</v>
       </c>
-      <c r="GM4" s="7"/>
-      <c r="GN4" s="7"/>
-      <c r="GO4" s="7"/>
-      <c r="GP4" s="7"/>
-      <c r="GQ4" s="7"/>
-      <c r="GR4" s="7"/>
-      <c r="GS4" s="7"/>
-      <c r="GT4" s="7"/>
-      <c r="GU4" s="7"/>
-      <c r="GV4" s="7"/>
-      <c r="GW4" s="7"/>
-      <c r="GX4" s="7">
+      <c r="GM4" s="10"/>
+      <c r="GN4" s="10"/>
+      <c r="GO4" s="10"/>
+      <c r="GP4" s="10"/>
+      <c r="GQ4" s="10"/>
+      <c r="GR4" s="10"/>
+      <c r="GS4" s="10"/>
+      <c r="GT4" s="10"/>
+      <c r="GU4" s="10"/>
+      <c r="GV4" s="10"/>
+      <c r="GW4" s="10"/>
+      <c r="GX4" s="10">
         <v>2020</v>
       </c>
-      <c r="GY4" s="7"/>
-      <c r="GZ4" s="7"/>
-      <c r="HA4" s="7"/>
-      <c r="HB4" s="7"/>
-      <c r="HC4" s="7"/>
-      <c r="HD4" s="7"/>
-      <c r="HE4" s="7"/>
-      <c r="HF4" s="7"/>
-      <c r="HG4" s="7"/>
-      <c r="HH4" s="7"/>
-      <c r="HI4" s="7"/>
-      <c r="HJ4" s="7">
+      <c r="GY4" s="10"/>
+      <c r="GZ4" s="10"/>
+      <c r="HA4" s="10"/>
+      <c r="HB4" s="10"/>
+      <c r="HC4" s="10"/>
+      <c r="HD4" s="10"/>
+      <c r="HE4" s="10"/>
+      <c r="HF4" s="10"/>
+      <c r="HG4" s="10"/>
+      <c r="HH4" s="10"/>
+      <c r="HI4" s="10"/>
+      <c r="HJ4" s="10">
         <v>2021</v>
       </c>
-      <c r="HK4" s="7"/>
-      <c r="HL4" s="7"/>
-      <c r="HM4" s="7"/>
-      <c r="HN4" s="7"/>
-      <c r="HO4" s="7"/>
-      <c r="HP4" s="7"/>
-      <c r="HQ4" s="7"/>
-      <c r="HR4" s="7"/>
-      <c r="HS4" s="7"/>
-      <c r="HT4" s="7"/>
-      <c r="HU4" s="7"/>
-      <c r="HV4" s="7">
+      <c r="HK4" s="10"/>
+      <c r="HL4" s="10"/>
+      <c r="HM4" s="10"/>
+      <c r="HN4" s="10"/>
+      <c r="HO4" s="10"/>
+      <c r="HP4" s="10"/>
+      <c r="HQ4" s="10"/>
+      <c r="HR4" s="10"/>
+      <c r="HS4" s="10"/>
+      <c r="HT4" s="10"/>
+      <c r="HU4" s="10"/>
+      <c r="HV4" s="10">
         <v>2022</v>
       </c>
-      <c r="HW4" s="7"/>
-      <c r="HX4" s="7"/>
-      <c r="HY4" s="7"/>
-      <c r="HZ4" s="7"/>
-      <c r="IA4" s="7"/>
-      <c r="IB4" s="7"/>
-      <c r="IC4" s="7"/>
-      <c r="ID4" s="7"/>
-      <c r="IE4" s="7"/>
-      <c r="IF4" s="7"/>
-      <c r="IG4" s="7"/>
-      <c r="IH4" s="7">
+      <c r="HW4" s="10"/>
+      <c r="HX4" s="10"/>
+      <c r="HY4" s="10"/>
+      <c r="HZ4" s="10"/>
+      <c r="IA4" s="10"/>
+      <c r="IB4" s="10"/>
+      <c r="IC4" s="10"/>
+      <c r="ID4" s="10"/>
+      <c r="IE4" s="10"/>
+      <c r="IF4" s="10"/>
+      <c r="IG4" s="10"/>
+      <c r="IH4" s="10">
         <v>2023</v>
       </c>
-      <c r="II4" s="7"/>
-      <c r="IJ4" s="7"/>
-      <c r="IK4" s="7"/>
-      <c r="IL4" s="7"/>
-      <c r="IM4" s="7"/>
-      <c r="IN4" s="7"/>
-      <c r="IO4" s="7"/>
-      <c r="IP4" s="7"/>
-      <c r="IQ4" s="7"/>
-      <c r="IR4" s="7"/>
-      <c r="IS4" s="7"/>
-      <c r="IT4" s="7">
+      <c r="II4" s="10"/>
+      <c r="IJ4" s="10"/>
+      <c r="IK4" s="10"/>
+      <c r="IL4" s="10"/>
+      <c r="IM4" s="10"/>
+      <c r="IN4" s="10"/>
+      <c r="IO4" s="10"/>
+      <c r="IP4" s="10"/>
+      <c r="IQ4" s="10"/>
+      <c r="IR4" s="10"/>
+      <c r="IS4" s="10"/>
+      <c r="IT4" s="10">
         <v>2024</v>
       </c>
-      <c r="IU4" s="7"/>
-      <c r="IV4" s="7"/>
-      <c r="IW4" s="7"/>
-      <c r="IX4" s="7"/>
-      <c r="IY4" s="7"/>
-      <c r="IZ4" s="7"/>
-      <c r="JA4" s="7"/>
-      <c r="JB4" s="7"/>
-      <c r="JC4" s="7"/>
-      <c r="JD4" s="7"/>
-      <c r="JE4" s="7"/>
-      <c r="JF4" s="7">
+      <c r="IU4" s="10"/>
+      <c r="IV4" s="10"/>
+      <c r="IW4" s="10"/>
+      <c r="IX4" s="10"/>
+      <c r="IY4" s="10"/>
+      <c r="IZ4" s="10"/>
+      <c r="JA4" s="10"/>
+      <c r="JB4" s="10"/>
+      <c r="JC4" s="10"/>
+      <c r="JD4" s="10"/>
+      <c r="JE4" s="10"/>
+      <c r="JF4" s="10">
         <v>2025</v>
       </c>
-      <c r="JG4" s="7"/>
-      <c r="JH4" s="7"/>
+      <c r="JG4" s="10"/>
+      <c r="JH4" s="10"/>
     </row>
     <row r="5" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -2259,13 +2305,13 @@
         <v>463.97816674275998</v>
       </c>
       <c r="N6" s="4">
-        <v>595.21244685532497</v>
+        <v>595.21244685532395</v>
       </c>
       <c r="O6" s="4">
         <v>658.51269373597097</v>
       </c>
       <c r="P6" s="4">
-        <v>472.21197347140202</v>
+        <v>472.211973471401</v>
       </c>
       <c r="Q6" s="4">
         <v>520.016541509798</v>
@@ -2289,7 +2335,7 @@
         <v>317.76899822024598</v>
       </c>
       <c r="X6" s="4">
-        <v>-7.5577281404825003</v>
+        <v>-7.5577281404822001</v>
       </c>
       <c r="Y6" s="4">
         <v>1301.89181906607</v>
@@ -2316,7 +2362,7 @@
         <v>-519.30786333040999</v>
       </c>
       <c r="AG6" s="4">
-        <v>383.83729626616798</v>
+        <v>383.83729626616702</v>
       </c>
       <c r="AH6" s="4">
         <v>248.94462529838401</v>
@@ -2370,7 +2416,7 @@
         <v>3315.7122162011601</v>
       </c>
       <c r="AY6" s="4">
-        <v>543.16377751340303</v>
+        <v>543.16377751340406</v>
       </c>
       <c r="AZ6" s="4">
         <v>-1506.7364465445</v>
@@ -2415,16 +2461,16 @@
         <v>3312.1526418838298</v>
       </c>
       <c r="BN6" s="4">
-        <v>757.32502678809396</v>
+        <v>757.32502678809306</v>
       </c>
       <c r="BO6" s="4">
         <v>-2955.0299892233002</v>
       </c>
       <c r="BP6" s="4">
-        <v>30.578403914361001</v>
+        <v>30.578403914360699</v>
       </c>
       <c r="BQ6" s="4">
-        <v>-86.998632234332007</v>
+        <v>-86.998632234333002</v>
       </c>
       <c r="BR6" s="4">
         <v>-3100.6800663569002</v>
@@ -2487,13 +2533,13 @@
         <v>758.48369668276302</v>
       </c>
       <c r="CL6" s="4">
-        <v>415.069286026322</v>
+        <v>415.06928602632303</v>
       </c>
       <c r="CM6" s="4">
         <v>-1819.3388157213999</v>
       </c>
       <c r="CN6" s="4">
-        <v>333.478461525483</v>
+        <v>333.47846152548198</v>
       </c>
       <c r="CO6" s="4">
         <v>-299.22593647869002</v>
@@ -2502,7 +2548,7 @@
         <v>-394.66534880787998</v>
       </c>
       <c r="CQ6" s="4">
-        <v>7.6713237436141499</v>
+        <v>7.67132374361461</v>
       </c>
       <c r="CR6" s="4">
         <v>1890.2944414644501</v>
@@ -2511,7 +2557,7 @@
         <v>-977.97795442437996</v>
       </c>
       <c r="CT6" s="4">
-        <v>495.104552521546</v>
+        <v>495.10455252154497</v>
       </c>
       <c r="CU6" s="4">
         <v>-114.87478563063</v>
@@ -2541,7 +2587,7 @@
         <v>-1205.3333829175001</v>
       </c>
       <c r="DD6" s="4">
-        <v>4356.0445607954898</v>
+        <v>4356.0445607954798</v>
       </c>
       <c r="DE6" s="4">
         <v>-5582.4376590958</v>
@@ -2610,7 +2656,7 @@
         <v>575.35790142282599</v>
       </c>
       <c r="EA6" s="4">
-        <v>787.23451403320303</v>
+        <v>787.234514033202</v>
       </c>
       <c r="EB6" s="4">
         <v>422.9808174849</v>
@@ -2625,10 +2671,10 @@
         <v>-2270.3131884548998</v>
       </c>
       <c r="EF6" s="4">
-        <v>2139.0464475050899</v>
+        <v>2139.0464475050799</v>
       </c>
       <c r="EG6" s="4">
-        <v>41.875431622218201</v>
+        <v>41.875431622218599</v>
       </c>
       <c r="EH6" s="4">
         <v>-396.56071539320999</v>
@@ -2691,7 +2737,7 @@
         <v>-278.77521629359001</v>
       </c>
       <c r="FB6" s="4">
-        <v>101.029684781572</v>
+        <v>101.02968478157</v>
       </c>
       <c r="FC6" s="4">
         <v>-828.04699014255004</v>
@@ -2700,7 +2746,7 @@
         <v>2179.8330865586699</v>
       </c>
       <c r="FE6" s="4">
-        <v>893.48564984451002</v>
+        <v>893.48564984451104</v>
       </c>
       <c r="FF6" s="4">
         <v>-2424.6623100876</v>
@@ -2715,7 +2761,7 @@
         <v>-541.54189059928001</v>
       </c>
       <c r="FJ6" s="4">
-        <v>18.850993664918299</v>
+        <v>18.850993664918501</v>
       </c>
       <c r="FK6" s="4">
         <v>-1565.0925314722999</v>
@@ -2739,7 +2785,7 @@
         <v>-1332.5380239138001</v>
       </c>
       <c r="FR6" s="4">
-        <v>409.87583800706801</v>
+        <v>409.87583800706898</v>
       </c>
       <c r="FS6" s="4">
         <v>499.238539772926</v>
@@ -2760,13 +2806,13 @@
         <v>-1517.5333598314</v>
       </c>
       <c r="FY6" s="4">
-        <v>-4.9323951696068997</v>
+        <v>-4.9323951696073003</v>
       </c>
       <c r="FZ6" s="4">
         <v>-4241.0147912512002</v>
       </c>
       <c r="GA6" s="4">
-        <v>646.652563393729</v>
+        <v>646.65256339373002</v>
       </c>
       <c r="GB6" s="4">
         <v>2084.7391728879902</v>
@@ -2775,10 +2821,10 @@
         <v>-2117.6534798486</v>
       </c>
       <c r="GD6" s="4">
-        <v>-748.93803546615004</v>
+        <v>-748.93803546614004</v>
       </c>
       <c r="GE6" s="4">
-        <v>-231.92920928831001</v>
+        <v>-231.9292092883</v>
       </c>
       <c r="GF6" s="4">
         <v>-3739.9749063981999</v>
@@ -2793,7 +2839,7 @@
         <v>-4581.4628333559003</v>
       </c>
       <c r="GJ6" s="4">
-        <v>118.97017076473099</v>
+        <v>118.970170764733</v>
       </c>
       <c r="GK6" s="4">
         <v>2203.9288590853998</v>
@@ -2802,7 +2848,7 @@
         <v>749.42191511499902</v>
       </c>
       <c r="GM6" s="4">
-        <v>932.895493178783</v>
+        <v>932.89549317878402</v>
       </c>
       <c r="GN6" s="4">
         <v>-1767.7884504734</v>
@@ -2838,10 +2884,10 @@
         <v>-3561.2935708658001</v>
       </c>
       <c r="GY6" s="4">
-        <v>534.08725295370198</v>
+        <v>534.087252953703</v>
       </c>
       <c r="GZ6" s="4">
-        <v>486.01061553219103</v>
+        <v>486.01061553219</v>
       </c>
       <c r="HA6" s="4">
         <v>-250.30756705687</v>
@@ -2877,7 +2923,7 @@
         <v>-1054.755978917</v>
       </c>
       <c r="HL6" s="4">
-        <v>-76.324539374862994</v>
+        <v>-76.324539374864003</v>
       </c>
       <c r="HM6" s="4">
         <v>-1029.734682904</v>
@@ -2907,7 +2953,7 @@
         <v>-1232.3365554540001</v>
       </c>
       <c r="HV6" s="4">
-        <v>219.14809033473401</v>
+        <v>219.148090334735</v>
       </c>
       <c r="HW6" s="4">
         <v>-3003.6226026141999</v>
@@ -2940,7 +2986,7 @@
         <v>-4967.3786882840996</v>
       </c>
       <c r="IG6" s="4">
-        <v>38.838564003299403</v>
+        <v>38.838564003298998</v>
       </c>
       <c r="IH6" s="4">
         <v>1591.31109277773</v>
@@ -2949,7 +2995,7 @@
         <v>1405.3096798824199</v>
       </c>
       <c r="IJ6" s="4">
-        <v>284.09976559939997</v>
+        <v>284.09976559940202</v>
       </c>
       <c r="IK6" s="4">
         <v>-3167.8521012991</v>
@@ -2973,7 +3019,7 @@
         <v>-5114.2229110402996</v>
       </c>
       <c r="IR6" s="4">
-        <v>551.79150286409197</v>
+        <v>551.79150286409299</v>
       </c>
       <c r="IS6" s="4">
         <v>4175.6081614596897</v>
@@ -3000,13 +3046,13 @@
         <v>-3278.8662169692998</v>
       </c>
       <c r="JA6" s="4">
-        <v>1688.5347479086599</v>
+        <v>1688.5347479086699</v>
       </c>
       <c r="JB6" s="4">
         <v>-2734.1148459832998</v>
       </c>
       <c r="JC6" s="4">
-        <v>1233.9826267783701</v>
+        <v>1233.9826267783801</v>
       </c>
       <c r="JD6" s="4">
         <v>188.84052957436299</v>
@@ -3015,13 +3061,13 @@
         <v>-1028.9986300083001</v>
       </c>
       <c r="JF6" s="4">
-        <v>1986.49305160579</v>
+        <v>2286.4459680756099</v>
       </c>
       <c r="JG6" s="4">
-        <v>-116.40019419147001</v>
+        <v>42.991611145693803</v>
       </c>
       <c r="JH6" s="4">
-        <v>-2845.1932134652998</v>
+        <v>-2437.1465886471001</v>
       </c>
     </row>
     <row r="7" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3038,13 +3084,13 @@
         <v>830.18663591630298</v>
       </c>
       <c r="E7" s="4">
-        <v>33.564397109503098</v>
+        <v>33.564397109502899</v>
       </c>
       <c r="F7" s="4">
         <v>475.32108565899898</v>
       </c>
       <c r="G7" s="4">
-        <v>66.605527466110502</v>
+        <v>66.605527466110303</v>
       </c>
       <c r="H7" s="4">
         <v>570.48071415137497</v>
@@ -3158,7 +3204,7 @@
         <v>1745.4171815304301</v>
       </c>
       <c r="AS7" s="4">
-        <v>57.527216354060499</v>
+        <v>57.527216354060997</v>
       </c>
       <c r="AT7" s="4">
         <v>951.31147515829798</v>
@@ -3170,7 +3216,7 @@
         <v>1145.6268125321001</v>
       </c>
       <c r="AW7" s="4">
-        <v>940.87393121494404</v>
+        <v>940.87393121494301</v>
       </c>
       <c r="AX7" s="4">
         <v>1708.3604719324001</v>
@@ -3188,13 +3234,13 @@
         <v>4584.94299500541</v>
       </c>
       <c r="BC7" s="4">
-        <v>-854.74156657681999</v>
+        <v>-854.74156657680999</v>
       </c>
       <c r="BD7" s="4">
         <v>3444.6657532285999</v>
       </c>
       <c r="BE7" s="4">
-        <v>770.21514931565196</v>
+        <v>770.21514931565105</v>
       </c>
       <c r="BF7" s="4">
         <v>1578.1284627774301</v>
@@ -3218,7 +3264,7 @@
         <v>3307.9334693489</v>
       </c>
       <c r="BM7" s="4">
-        <v>5542.1579617944099</v>
+        <v>5542.1579617944199</v>
       </c>
       <c r="BN7" s="4">
         <v>2354.9549707583801</v>
@@ -3284,7 +3330,7 @@
         <v>3246.5972821576602</v>
       </c>
       <c r="CI7" s="4">
-        <v>7910.8648994188998</v>
+        <v>7910.8648994189098</v>
       </c>
       <c r="CJ7" s="4">
         <v>391.84482949516899</v>
@@ -3365,7 +3411,7 @@
         <v>3575.29349797237</v>
       </c>
       <c r="DJ7" s="4">
-        <v>757.15932007268202</v>
+        <v>757.159320072681</v>
       </c>
       <c r="DK7" s="4">
         <v>1292.81067497188</v>
@@ -3383,7 +3429,7 @@
         <v>5247.1796219245998</v>
       </c>
       <c r="DP7" s="4">
-        <v>5702.8357265224904</v>
+        <v>5702.8357265225004</v>
       </c>
       <c r="DQ7" s="4">
         <v>-88.608261242549005</v>
@@ -3395,7 +3441,7 @@
         <v>214.58048216479401</v>
       </c>
       <c r="DT7" s="4">
-        <v>4346.4332794011898</v>
+        <v>4346.4332794011798</v>
       </c>
       <c r="DU7" s="4">
         <v>-3675.144453894</v>
@@ -3416,7 +3462,7 @@
         <v>833.78585512254995</v>
       </c>
       <c r="EA7" s="4">
-        <v>5553.8013392741896</v>
+        <v>5553.8013392741796</v>
       </c>
       <c r="EB7" s="4">
         <v>1526.4829612640899</v>
@@ -3449,7 +3495,7 @@
         <v>-871.06347613348998</v>
       </c>
       <c r="EL7" s="4">
-        <v>4605.4534797674696</v>
+        <v>4605.4534797674596</v>
       </c>
       <c r="EM7" s="4">
         <v>3379.6420967399099</v>
@@ -3461,7 +3507,7 @@
         <v>-361.35881852979003</v>
       </c>
       <c r="EP7" s="4">
-        <v>808.92763083122395</v>
+        <v>808.92763083122497</v>
       </c>
       <c r="EQ7" s="4">
         <v>-1744.7127916381</v>
@@ -3485,7 +3531,7 @@
         <v>-2673.0338445273001</v>
       </c>
       <c r="EX7" s="4">
-        <v>11316.4224350572</v>
+        <v>11316.4224350573</v>
       </c>
       <c r="EY7" s="4">
         <v>1062.2484620614</v>
@@ -3527,7 +3573,7 @@
         <v>504.604251515442</v>
       </c>
       <c r="FL7" s="4">
-        <v>944.91674554657004</v>
+        <v>944.91674554656902</v>
       </c>
       <c r="FM7" s="4">
         <v>-483.34890645524001</v>
@@ -3671,7 +3717,7 @@
         <v>-710.86490967397003</v>
       </c>
       <c r="HH7" s="4">
-        <v>424.32640149972099</v>
+        <v>424.32640149972002</v>
       </c>
       <c r="HI7" s="4">
         <v>-5297.1261644372998</v>
@@ -3689,13 +3735,13 @@
         <v>3833.5242614926301</v>
       </c>
       <c r="HN7" s="4">
-        <v>119.115440970463</v>
+        <v>119.115440970462</v>
       </c>
       <c r="HO7" s="4">
         <v>-1541.4554150755</v>
       </c>
       <c r="HP7" s="4">
-        <v>7868.2167116112796</v>
+        <v>7868.2167116112896</v>
       </c>
       <c r="HQ7" s="4">
         <v>3681.38128635578</v>
@@ -3743,7 +3789,7 @@
         <v>-1857.5205660811</v>
       </c>
       <c r="IF7" s="4">
-        <v>928.383919256833</v>
+        <v>928.38391925683197</v>
       </c>
       <c r="IG7" s="4">
         <v>-745.44538943744999</v>
@@ -3767,7 +3813,7 @@
         <v>-2024.0042861421</v>
       </c>
       <c r="IN7" s="4">
-        <v>2450.9893757842901</v>
+        <v>2450.9893757842801</v>
       </c>
       <c r="IO7" s="4">
         <v>-3670.1921746358998</v>
@@ -3806,13 +3852,13 @@
         <v>-2286.2535143012001</v>
       </c>
       <c r="JA7" s="4">
-        <v>603.44503211537403</v>
+        <v>603.44503211537301</v>
       </c>
       <c r="JB7" s="4">
         <v>-1499.1031465521</v>
       </c>
       <c r="JC7" s="4">
-        <v>242.991544086408</v>
+        <v>242.99154408640899</v>
       </c>
       <c r="JD7" s="4">
         <v>-1081.2990442572</v>
@@ -3821,13 +3867,13 @@
         <v>-2074.1180414498999</v>
       </c>
       <c r="JF7" s="4">
-        <v>3320.4377745726501</v>
+        <v>3275.7022171089502</v>
       </c>
       <c r="JG7" s="4">
-        <v>-1334.5646632221999</v>
+        <v>-1075.0910868285</v>
       </c>
       <c r="JH7" s="4">
-        <v>-1446.6621674364001</v>
+        <v>-1038.6155426181999</v>
       </c>
     </row>
     <row r="8" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3853,7 +3899,7 @@
         <v>-161.86075048011</v>
       </c>
       <c r="H8" s="4">
-        <v>769.428823904144</v>
+        <v>769.42882390414297</v>
       </c>
       <c r="I8" s="4">
         <v>328.79925105760901</v>
@@ -3877,10 +3923,10 @@
         <v>427.58608555526098</v>
       </c>
       <c r="P8" s="4">
-        <v>644.96946849178596</v>
+        <v>644.96946849178505</v>
       </c>
       <c r="Q8" s="4">
-        <v>499.05639421223202</v>
+        <v>499.056394212231</v>
       </c>
       <c r="R8" s="4">
         <v>-307.6684920262</v>
@@ -3892,7 +3938,7 @@
         <v>1811.8371256317901</v>
       </c>
       <c r="U8" s="4">
-        <v>22.769382398957401</v>
+        <v>22.769382398957301</v>
       </c>
       <c r="V8" s="4">
         <v>730.30810930357097</v>
@@ -3976,7 +4022,7 @@
         <v>-1170.5614102285001</v>
       </c>
       <c r="AW8" s="4">
-        <v>703.13963508473398</v>
+        <v>703.139635084735</v>
       </c>
       <c r="AX8" s="4">
         <v>-1607.3517442688001</v>
@@ -3985,7 +4031,7 @@
         <v>1315.2954896824101</v>
       </c>
       <c r="AZ8" s="4">
-        <v>1856.0567652781001</v>
+        <v>1856.0567652781101</v>
       </c>
       <c r="BA8" s="4">
         <v>1226.77941941673</v>
@@ -4066,7 +4112,7 @@
         <v>-1476.8113495364</v>
       </c>
       <c r="CA8" s="4">
-        <v>643.46051423881602</v>
+        <v>643.46051423881499</v>
       </c>
       <c r="CB8" s="4">
         <v>1464.8574733103601</v>
@@ -4090,7 +4136,7 @@
         <v>2293.8915185047899</v>
       </c>
       <c r="CI8" s="4">
-        <v>580.34904812585603</v>
+        <v>580.34904812585501</v>
       </c>
       <c r="CJ8" s="4">
         <v>1101.3894396589301</v>
@@ -4120,13 +4166,13 @@
         <v>1688.7713699946</v>
       </c>
       <c r="CS8" s="4">
-        <v>-68.516071484397003</v>
+        <v>-68.516071484395994</v>
       </c>
       <c r="CT8" s="4">
         <v>3660.7737541903198</v>
       </c>
       <c r="CU8" s="4">
-        <v>722.18604244108997</v>
+        <v>722.18604244109099</v>
       </c>
       <c r="CV8" s="4">
         <v>2595.8010052208101</v>
@@ -4150,7 +4196,7 @@
         <v>835.88704134140198</v>
       </c>
       <c r="DC8" s="4">
-        <v>1073.37178034618</v>
+        <v>1073.37178034619</v>
       </c>
       <c r="DD8" s="4">
         <v>8700.3231595804009</v>
@@ -4183,7 +4229,7 @@
         <v>3121.3245548070799</v>
       </c>
       <c r="DN8" s="4">
-        <v>2922.7987655892698</v>
+        <v>2922.7987655892598</v>
       </c>
       <c r="DO8" s="4">
         <v>8129.0835340055401</v>
@@ -4219,7 +4265,7 @@
         <v>3154.83961470649</v>
       </c>
       <c r="DZ8" s="4">
-        <v>258.42795369972498</v>
+        <v>258.42795369972401</v>
       </c>
       <c r="EA8" s="4">
         <v>4766.5668252409796</v>
@@ -4252,7 +4298,7 @@
         <v>4213.4317714785802</v>
       </c>
       <c r="EK8" s="4">
-        <v>770.97146823099195</v>
+        <v>770.97146823099297</v>
       </c>
       <c r="EL8" s="4">
         <v>3908.0916478507302</v>
@@ -4273,7 +4319,7 @@
         <v>-982.39733001022</v>
       </c>
       <c r="ER8" s="4">
-        <v>3.5566773061547399</v>
+        <v>3.5566773061552501</v>
       </c>
       <c r="ES8" s="4">
         <v>-11.044117694079</v>
@@ -4318,13 +4364,13 @@
         <v>1348.7566460917801</v>
       </c>
       <c r="FG8" s="4">
-        <v>108.644753666233</v>
+        <v>108.644753666234</v>
       </c>
       <c r="FH8" s="4">
-        <v>983.87649460581702</v>
+        <v>983.87649460581599</v>
       </c>
       <c r="FI8" s="4">
-        <v>271.154116488505</v>
+        <v>271.15411648850602</v>
       </c>
       <c r="FJ8" s="4">
         <v>-558.08356876307005</v>
@@ -4339,10 +4385,10 @@
         <v>-1662.5228738605001</v>
       </c>
       <c r="FN8" s="4">
-        <v>72.920265925800507</v>
+        <v>72.920265925800805</v>
       </c>
       <c r="FO8" s="4">
-        <v>35.434012541978497</v>
+        <v>35.434012541978397</v>
       </c>
       <c r="FP8" s="4">
         <v>-351.20027369306001</v>
@@ -4378,7 +4424,7 @@
         <v>1793.53787361165</v>
       </c>
       <c r="GA8" s="4">
-        <v>874.420801592374</v>
+        <v>874.42080159237503</v>
       </c>
       <c r="GB8" s="4">
         <v>2598.6329084978902</v>
@@ -4387,7 +4433,7 @@
         <v>1186.1601240299699</v>
       </c>
       <c r="GD8" s="4">
-        <v>1209.0855032176801</v>
+        <v>1209.0855032176901</v>
       </c>
       <c r="GE8" s="4">
         <v>-5619.7812366565004</v>
@@ -4399,7 +4445,7 @@
         <v>-534.86796016034998</v>
       </c>
       <c r="GH8" s="4">
-        <v>1160.2834524873199</v>
+        <v>1160.2834524873299</v>
       </c>
       <c r="GI8" s="4">
         <v>2821.0461786902902</v>
@@ -4432,7 +4478,7 @@
         <v>3807.60226467139</v>
       </c>
       <c r="GS8" s="4">
-        <v>595.22351150858594</v>
+        <v>595.22351150858503</v>
       </c>
       <c r="GT8" s="4">
         <v>1343.6339760185899</v>
@@ -4546,7 +4592,7 @@
         <v>-3085.9919877338002</v>
       </c>
       <c r="IE8" s="4">
-        <v>52.9805336306895</v>
+        <v>52.980533630689699</v>
       </c>
       <c r="IF8" s="4">
         <v>5895.7626075408898</v>
@@ -4579,7 +4625,7 @@
         <v>372.05358034928503</v>
       </c>
       <c r="IP8" s="4">
-        <v>634.83800899948801</v>
+        <v>634.83800899948903</v>
       </c>
       <c r="IQ8" s="4">
         <v>1485.56136571822</v>
@@ -4603,7 +4649,7 @@
         <v>734.12582621595902</v>
       </c>
       <c r="IX8" s="4">
-        <v>549.727307631342</v>
+        <v>549.72730763134302</v>
       </c>
       <c r="IY8" s="4">
         <v>-3495.5178972801</v>
@@ -4627,10 +4673,10 @@
         <v>-1045.1194114415</v>
       </c>
       <c r="JF8" s="4">
-        <v>1333.9447229668599</v>
+        <v>989.25624903334199</v>
       </c>
       <c r="JG8" s="4">
-        <v>-1218.1644690307</v>
+        <v>-1118.0826979742001</v>
       </c>
       <c r="JH8" s="4">
         <v>1398.5310460288599</v>
@@ -4746,7 +4792,7 @@
         <v>19.430467118626801</v>
       </c>
       <c r="AK9" s="4">
-        <v>662.66621382346</v>
+        <v>662.66621382345897</v>
       </c>
       <c r="AL9" s="4">
         <v>-546.95303305192999</v>
@@ -4791,7 +4837,7 @@
         <v>-2722.4077864223</v>
       </c>
       <c r="AZ9" s="4">
-        <v>-64.180702603233996</v>
+        <v>-64.180702603235005</v>
       </c>
       <c r="BA9" s="4">
         <v>-1564.1590549078001</v>
@@ -4848,7 +4894,7 @@
         <v>-622.87850473999003</v>
       </c>
       <c r="BS9" s="4">
-        <v>439.44846952816403</v>
+        <v>439.44846952816499</v>
       </c>
       <c r="BT9" s="4">
         <v>-2579.9546293738999</v>
@@ -4941,7 +4987,7 @@
         <v>225.901587615929</v>
       </c>
       <c r="CX9" s="4">
-        <v>5.3634183302324603</v>
+        <v>5.3634183302324798</v>
       </c>
       <c r="CY9" s="4">
         <v>-620.77621229251997</v>
@@ -4959,7 +5005,7 @@
         <v>-2379.1314618539</v>
       </c>
       <c r="DD9" s="4">
-        <v>28.673343255816899</v>
+        <v>28.673343255817802</v>
       </c>
       <c r="DE9" s="4">
         <v>-350.33048979591001</v>
@@ -5097,7 +5143,7 @@
         <v>806.81411115776802</v>
       </c>
       <c r="EX9" s="4">
-        <v>645.361834234144</v>
+        <v>645.36183423414502</v>
       </c>
       <c r="EY9" s="4">
         <v>-127.65285830169</v>
@@ -5178,7 +5224,7 @@
         <v>-966.58283978771999</v>
       </c>
       <c r="FY9" s="4">
-        <v>23.940448453565502</v>
+        <v>23.940448453565399</v>
       </c>
       <c r="FZ9" s="4">
         <v>-7091.6392757740005</v>
@@ -5220,7 +5266,7 @@
         <v>-566.29678189213996</v>
       </c>
       <c r="GM9" s="4">
-        <v>817.25219786748698</v>
+        <v>817.25219786748801</v>
       </c>
       <c r="GN9" s="4">
         <v>-383.06619851041</v>
@@ -5265,7 +5311,7 @@
         <v>-1130.7901579842001</v>
       </c>
       <c r="HB9" s="4">
-        <v>972.14393963030102</v>
+        <v>972.1439396303</v>
       </c>
       <c r="HC9" s="4">
         <v>-1842.3938745298001</v>
@@ -5322,7 +5368,7 @@
         <v>4970.0234287672201</v>
       </c>
       <c r="HU9" s="4">
-        <v>2843.6786481433501</v>
+        <v>2843.6786481433401</v>
       </c>
       <c r="HV9" s="4">
         <v>441.64220103354802</v>
@@ -5364,7 +5410,7 @@
         <v>63.2437433341535</v>
       </c>
       <c r="II9" s="4">
-        <v>21.314776283592</v>
+        <v>21.3147762835919</v>
       </c>
       <c r="IJ9" s="4">
         <v>-768.51622999887002</v>
@@ -5433,13 +5479,13 @@
         <v>1001.84932505287</v>
       </c>
       <c r="JF9" s="4">
-        <v>-737.52852871293999</v>
+        <v>-93.520062606343998</v>
       </c>
       <c r="JG9" s="4">
-        <v>-1029.2037876894999</v>
+        <v>-1067.2633692449999</v>
       </c>
       <c r="JH9" s="4">
-        <v>-516.50880552680997</v>
+        <v>-657.22961096183997</v>
       </c>
     </row>
     <row r="10" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5507,7 +5553,7 @@
         <v>-108.77217600337001</v>
       </c>
       <c r="V10" s="6">
-        <v>3.5286467302609101</v>
+        <v>3.5286467302608999</v>
       </c>
       <c r="W10" s="6">
         <v>137.016244450161</v>
@@ -5675,10 +5721,10 @@
         <v>340.402094381636</v>
       </c>
       <c r="BZ10" s="6">
-        <v>9.5470730262789303</v>
+        <v>9.5470730262789498</v>
       </c>
       <c r="CA10" s="6">
-        <v>7.2936193517142698</v>
+        <v>7.2936193517143098</v>
       </c>
       <c r="CB10" s="6">
         <v>364.12245408545999</v>
@@ -5714,7 +5760,7 @@
         <v>1097.0505752388401</v>
       </c>
       <c r="CM10" s="6">
-        <v>93.314855716530502</v>
+        <v>93.314855716530403</v>
       </c>
       <c r="CN10" s="6">
         <v>1030.0341588664101</v>
@@ -5726,7 +5772,7 @@
         <v>748.76060762905399</v>
       </c>
       <c r="CQ10" s="6">
-        <v>609.04553777263698</v>
+        <v>609.04553777263595</v>
       </c>
       <c r="CR10" s="6">
         <v>581.116298904014</v>
@@ -6077,7 +6123,7 @@
         <v>-450.23789412861998</v>
       </c>
       <c r="HD10" s="6">
-        <v>769.44168680395796</v>
+        <v>769.44168680395705</v>
       </c>
       <c r="HE10" s="6">
         <v>556.11418788004596</v>
@@ -6092,7 +6138,7 @@
         <v>234.44859570901301</v>
       </c>
       <c r="HI10" s="6">
-        <v>113.890350479441</v>
+        <v>113.89035047944</v>
       </c>
       <c r="HJ10" s="6">
         <v>573.70306109108606</v>
@@ -6143,7 +6189,7 @@
         <v>483.75661732466199</v>
       </c>
       <c r="HZ10" s="6">
-        <v>32.165296726414503</v>
+        <v>32.165296726414603</v>
       </c>
       <c r="IA10" s="6">
         <v>828.10634146843802</v>
@@ -6239,13 +6285,13 @@
         <v>852.31833986889103</v>
       </c>
       <c r="JF10" s="6">
-        <v>282.39367381049601</v>
+        <v>405.29947909806202</v>
       </c>
       <c r="JG10" s="6">
-        <v>261.67585447361603</v>
+        <v>407.23961000636399</v>
       </c>
       <c r="JH10" s="6">
-        <v>812.00388747854402</v>
+        <v>671.28308204351197</v>
       </c>
     </row>
     <row r="11" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7045,13 +7091,13 @@
         <v>416.46482357826801</v>
       </c>
       <c r="JF11" s="6">
-        <v>59.989463262515201</v>
+        <v>91.121426256215599</v>
       </c>
       <c r="JG11" s="6">
-        <v>9.6949219982743902</v>
+        <v>30.1209673604518</v>
       </c>
       <c r="JH11" s="6">
-        <v>292.57673539897598</v>
+        <v>292.57692237241997</v>
       </c>
     </row>
     <row r="12" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7131,7 +7177,7 @@
         <v>360.62569890370798</v>
       </c>
       <c r="Z12" s="6">
-        <v>2.11265613880839</v>
+        <v>2.1126561388084002</v>
       </c>
       <c r="AA12" s="6">
         <v>83.388028165230907</v>
@@ -7308,7 +7354,7 @@
         <v>150.362869188535</v>
       </c>
       <c r="CG12" s="6">
-        <v>-41.122025445958997</v>
+        <v>-41.122025445958002</v>
       </c>
       <c r="CH12" s="6">
         <v>264.91072368676998</v>
@@ -7626,7 +7672,7 @@
         <v>384.98496526614298</v>
       </c>
       <c r="GI12" s="6">
-        <v>1.3233287736269701</v>
+        <v>1.3233287736269399</v>
       </c>
       <c r="GJ12" s="6">
         <v>-112.2364511307</v>
@@ -7665,7 +7711,7 @@
         <v>-310.00732111025002</v>
       </c>
       <c r="GV12" s="6">
-        <v>79.844013243503298</v>
+        <v>79.844013243503397</v>
       </c>
       <c r="GW12" s="6">
         <v>-165.91471257903001</v>
@@ -7851,13 +7897,13 @@
         <v>143.192148638036</v>
       </c>
       <c r="JF12" s="6">
-        <v>-45.957714861694001</v>
+        <v>-45.343008079964001</v>
       </c>
       <c r="JG12" s="6">
-        <v>-50.742528401644996</v>
+        <v>-1.7887276753578001</v>
       </c>
       <c r="JH12" s="6">
-        <v>385.22384445043599</v>
+        <v>244.50285204196101</v>
       </c>
     </row>
     <row r="13" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8657,10 +8703,10 @@
         <v>292.66136765258699</v>
       </c>
       <c r="JF13" s="6">
-        <v>268.361925409675</v>
+        <v>359.52106092180998</v>
       </c>
       <c r="JG13" s="6">
-        <v>302.723460876986</v>
+        <v>378.90737032126998</v>
       </c>
       <c r="JH13" s="6">
         <v>134.20330762913099</v>
@@ -8761,10 +8807,10 @@
         <v>687.22103914719298</v>
       </c>
       <c r="AF14" s="6">
-        <v>920.33331604128796</v>
+        <v>920.33331604128898</v>
       </c>
       <c r="AG14" s="6">
-        <v>660.01566372644095</v>
+        <v>660.01566372644004</v>
       </c>
       <c r="AH14" s="6">
         <v>512.82273547697503</v>
@@ -9040,7 +9086,7 @@
         <v>4699.8335218736702</v>
       </c>
       <c r="DU14" s="6">
-        <v>-3678.2454292723</v>
+        <v>-3678.2454292724001</v>
       </c>
       <c r="DV14" s="6">
         <v>1904.23838217808</v>
@@ -9133,7 +9179,7 @@
         <v>1155.84795676927</v>
       </c>
       <c r="EZ14" s="6">
-        <v>1179.09816044231</v>
+        <v>1179.09816044232</v>
       </c>
       <c r="FA14" s="6">
         <v>170.711900649386</v>
@@ -9451,7 +9497,7 @@
         <v>1887.5063640334199</v>
       </c>
       <c r="JB14" s="6">
-        <v>3.7272743217487898</v>
+        <v>3.72727432174882</v>
       </c>
       <c r="JC14" s="6">
         <v>607.85065435829904</v>
@@ -9463,10 +9509,10 @@
         <v>-149.53098518397999</v>
       </c>
       <c r="JF14" s="6">
-        <v>1019.92220252343</v>
+        <v>498.81954170440599</v>
       </c>
       <c r="JG14" s="6">
-        <v>1290.87964216314</v>
+        <v>1474.5029792513701</v>
       </c>
       <c r="JH14" s="6">
         <v>1328.51269300535</v>
@@ -10269,10 +10315,10 @@
         <v>1128.5175564199999</v>
       </c>
       <c r="JF15" s="6">
-        <v>151.77524292999999</v>
+        <v>150.39996748999999</v>
       </c>
       <c r="JG15" s="6">
-        <v>237.75326955</v>
+        <v>510.89154125608798</v>
       </c>
       <c r="JH15" s="6">
         <v>422.56395179999998</v>
@@ -11075,10 +11121,10 @@
         <v>-390.3926242677</v>
       </c>
       <c r="JF16" s="6">
-        <v>81.2879854789972</v>
+        <v>91.918636024857307</v>
       </c>
       <c r="JG16" s="6">
-        <v>44.133582609524801</v>
+        <v>-278.65811700020998</v>
       </c>
       <c r="JH16" s="6">
         <v>135.66388499054099</v>
@@ -11881,10 +11927,10 @@
         <v>-887.65591733628003</v>
       </c>
       <c r="JF17" s="6">
-        <v>786.85897411443602</v>
+        <v>256.500938189549</v>
       </c>
       <c r="JG17" s="6">
-        <v>1008.99279000361</v>
+        <v>1242.2695549954899</v>
       </c>
       <c r="JH17" s="6">
         <v>770.28485621481298</v>
@@ -11955,7 +12001,7 @@
         <v>409.334088213732</v>
       </c>
       <c r="V18" s="4">
-        <v>160.98155910029701</v>
+        <v>160.98155910029601</v>
       </c>
       <c r="W18" s="4">
         <v>-54.169133866015002</v>
@@ -11964,7 +12010,7 @@
         <v>391.400180001698</v>
       </c>
       <c r="Y18" s="4">
-        <v>-6.4500616362852998</v>
+        <v>-6.4500616362854002</v>
       </c>
       <c r="Z18" s="4">
         <v>-258.55310809154003</v>
@@ -12000,7 +12046,7 @@
         <v>-94.617388513186</v>
       </c>
       <c r="AK18" s="4">
-        <v>72.735749456527898</v>
+        <v>72.735749456527998</v>
       </c>
       <c r="AL18" s="4">
         <v>973.45948839739503</v>
@@ -12012,7 +12058,7 @@
         <v>1140.9296894885899</v>
       </c>
       <c r="AO18" s="4">
-        <v>40.755517923426098</v>
+        <v>40.755517923426197</v>
       </c>
       <c r="AP18" s="4">
         <v>979.08371516643695</v>
@@ -12150,7 +12196,7 @@
         <v>1673.6994226304701</v>
       </c>
       <c r="CI18" s="4">
-        <v>-7.7332567604540996</v>
+        <v>-7.7332567604542</v>
       </c>
       <c r="CJ18" s="4">
         <v>898.26825073661303</v>
@@ -12186,7 +12232,7 @@
         <v>411.007981775367</v>
       </c>
       <c r="CU18" s="4">
-        <v>66.554823761454003</v>
+        <v>66.554823761454102</v>
       </c>
       <c r="CV18" s="4">
         <v>-1831.0103493664001</v>
@@ -12282,7 +12328,7 @@
         <v>636.13467626661395</v>
       </c>
       <c r="EA18" s="4">
-        <v>53.4985866205501</v>
+        <v>53.498586620549901</v>
       </c>
       <c r="EB18" s="4">
         <v>3531.3516582171501</v>
@@ -12444,10 +12490,10 @@
         <v>856.35474660913201</v>
       </c>
       <c r="GC18" s="4">
-        <v>-453.23862660713002</v>
+        <v>-453.23862660714002</v>
       </c>
       <c r="GD18" s="4">
-        <v>29.848579733110299</v>
+        <v>29.848579733110601</v>
       </c>
       <c r="GE18" s="4">
         <v>-886.74794431359999</v>
@@ -12534,7 +12580,7 @@
         <v>-5070.7619242407</v>
       </c>
       <c r="HG18" s="4">
-        <v>41.275255686521596</v>
+        <v>41.275255686521199</v>
       </c>
       <c r="HH18" s="4">
         <v>5837.4218152418998</v>
@@ -12663,7 +12709,7 @@
         <v>339.26340395311098</v>
       </c>
       <c r="IX18" s="4">
-        <v>722.33828408490297</v>
+        <v>722.33828408490399</v>
       </c>
       <c r="IY18" s="4">
         <v>2340.24037927779</v>
@@ -12687,13 +12733,13 @@
         <v>-366.47186149474999</v>
       </c>
       <c r="JF18" s="4">
-        <v>1137.1573524273001</v>
+        <v>1183.33207244749</v>
       </c>
       <c r="JG18" s="4">
-        <v>864.87104286778595</v>
+        <v>855.52438392658098</v>
       </c>
       <c r="JH18" s="4">
-        <v>-662.92929513064996</v>
+        <v>-122.67399176276</v>
       </c>
     </row>
     <row r="19" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -12728,7 +12774,7 @@
         <v>486.80827286226599</v>
       </c>
       <c r="K19" s="6">
-        <v>701.55972260588703</v>
+        <v>701.55972260588806</v>
       </c>
       <c r="L19" s="6">
         <v>431.13342024045102</v>
@@ -12737,7 +12783,7 @@
         <v>628.42973251025296</v>
       </c>
       <c r="N19" s="6">
-        <v>361.269462974769</v>
+        <v>361.26946297476798</v>
       </c>
       <c r="O19" s="6">
         <v>297.01815356873198</v>
@@ -12818,7 +12864,7 @@
         <v>1117.8718881360001</v>
       </c>
       <c r="AO19" s="6">
-        <v>219.668749166255</v>
+        <v>219.668749166254</v>
       </c>
       <c r="AP19" s="6">
         <v>975.34372780766603</v>
@@ -13022,7 +13068,7 @@
         <v>1302.45924614462</v>
       </c>
       <c r="DE19" s="6">
-        <v>-48.605834446789999</v>
+        <v>-48.605834446791</v>
       </c>
       <c r="DF19" s="6">
         <v>1931.70822183363</v>
@@ -13079,7 +13125,7 @@
         <v>-2576.8242964917999</v>
       </c>
       <c r="DX19" s="6">
-        <v>2562.0757839713501</v>
+        <v>2562.0757839713401</v>
       </c>
       <c r="DY19" s="6">
         <v>-2902.9716046603999</v>
@@ -13115,7 +13161,7 @@
         <v>1796.6289011296601</v>
       </c>
       <c r="EJ19" s="6">
-        <v>1951.0101563113999</v>
+        <v>1951.0101563114099</v>
       </c>
       <c r="EK19" s="6">
         <v>984.57006923407505</v>
@@ -13133,7 +13179,7 @@
         <v>-2756.469011616</v>
       </c>
       <c r="EP19" s="6">
-        <v>59.3935618507928</v>
+        <v>59.393561850792899</v>
       </c>
       <c r="EQ19" s="6">
         <v>1621.8332868627399</v>
@@ -13394,7 +13440,7 @@
         <v>236.784776827889</v>
       </c>
       <c r="HY19" s="6">
-        <v>17.8057833520404</v>
+        <v>17.805783352040201</v>
       </c>
       <c r="HZ19" s="6">
         <v>2255.77062735456</v>
@@ -13430,7 +13476,7 @@
         <v>-690.60297767903</v>
       </c>
       <c r="IK19" s="6">
-        <v>496.97750790076401</v>
+        <v>496.97750790076299</v>
       </c>
       <c r="IL19" s="6">
         <v>2326.6322059577701</v>
@@ -13481,7 +13527,7 @@
         <v>1016.27765375557</v>
       </c>
       <c r="JB19" s="6">
-        <v>712.56250708812399</v>
+        <v>712.56250708812297</v>
       </c>
       <c r="JC19" s="6">
         <v>-25.326927205103001</v>
@@ -13493,13 +13539,13 @@
         <v>-421.14935668966001</v>
       </c>
       <c r="JF19" s="6">
-        <v>2085.0010823808998</v>
+        <v>2026.04427818466</v>
       </c>
       <c r="JG19" s="6">
-        <v>1471.8513777779799</v>
+        <v>1540.8138599948199</v>
       </c>
       <c r="JH19" s="6">
-        <v>889.198451844582</v>
+        <v>1429.45375521248</v>
       </c>
     </row>
     <row r="20" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -13684,7 +13730,7 @@
         <v>493.16527394715598</v>
       </c>
       <c r="BI20" s="6">
-        <v>397.91183907344498</v>
+        <v>397.911839073446</v>
       </c>
       <c r="BJ20" s="6">
         <v>519.114649453065</v>
@@ -13921,7 +13967,7 @@
         <v>1668.56962751573</v>
       </c>
       <c r="EJ20" s="6">
-        <v>1871.35984079641</v>
+        <v>1871.35984079642</v>
       </c>
       <c r="EK20" s="6">
         <v>511.05865911337997</v>
@@ -14185,7 +14231,7 @@
         <v>1064.7385443097901</v>
       </c>
       <c r="HT20" s="6">
-        <v>3340.2536211248398</v>
+        <v>3340.2536211248298</v>
       </c>
       <c r="HU20" s="6">
         <v>-957.12674573641004</v>
@@ -14257,7 +14303,7 @@
         <v>-975.06850221061995</v>
       </c>
       <c r="IR20" s="6">
-        <v>1626.3529837209901</v>
+        <v>1626.3529837210001</v>
       </c>
       <c r="IS20" s="6">
         <v>-440.44520400490001</v>
@@ -14296,16 +14342,16 @@
         <v>1137.3570789067901</v>
       </c>
       <c r="JE20" s="6">
-        <v>5.0290587337846704</v>
+        <v>5.0290587337846402</v>
       </c>
       <c r="JF20" s="6">
-        <v>1516.2610918553</v>
+        <v>1407.22947684987</v>
       </c>
       <c r="JG20" s="6">
-        <v>1100.5107514705601</v>
+        <v>1355.93966498335</v>
       </c>
       <c r="JH20" s="6">
-        <v>652.38933365310299</v>
+        <v>653.40296134363803</v>
       </c>
     </row>
     <row r="21" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14355,7 +14401,7 @@
         <v>-11.615368909311</v>
       </c>
       <c r="P21" s="6">
-        <v>155.45296228534201</v>
+        <v>155.45296228534301</v>
       </c>
       <c r="Q21" s="6">
         <v>340.310386496597</v>
@@ -14382,7 +14428,7 @@
         <v>-82.703443410101002</v>
       </c>
       <c r="Y21" s="6">
-        <v>655.15597773347395</v>
+        <v>655.15597773347497</v>
       </c>
       <c r="Z21" s="6">
         <v>-51.929786067696</v>
@@ -14712,7 +14758,7 @@
         <v>-223.86577813551</v>
       </c>
       <c r="EE21" s="6">
-        <v>783.29583721101596</v>
+        <v>783.29583721101699</v>
       </c>
       <c r="EF21" s="6">
         <v>386.78429803893198</v>
@@ -14802,7 +14848,7 @@
         <v>504.402310299992</v>
       </c>
       <c r="FI21" s="6">
-        <v>-94.443921267557002</v>
+        <v>-94.443921267557997</v>
       </c>
       <c r="FJ21" s="6">
         <v>-681.27818633241998</v>
@@ -14877,7 +14923,7 @@
         <v>-99.835688110575006</v>
       </c>
       <c r="GH21" s="6">
-        <v>61.959644777636697</v>
+        <v>61.959644777636797</v>
       </c>
       <c r="GI21" s="6">
         <v>819.02899869741896</v>
@@ -15021,10 +15067,10 @@
         <v>652.135941748405</v>
       </c>
       <c r="ID21" s="6">
-        <v>88.759015671415099</v>
+        <v>88.759015671415199</v>
       </c>
       <c r="IE21" s="6">
-        <v>402.61858607412501</v>
+        <v>402.61858607412398</v>
       </c>
       <c r="IF21" s="6">
         <v>879.81092631562694</v>
@@ -15105,13 +15151,13 @@
         <v>-426.17841542344001</v>
       </c>
       <c r="JF21" s="6">
-        <v>568.73999052559896</v>
+        <v>618.81480133478703</v>
       </c>
       <c r="JG21" s="6">
-        <v>371.34062630742301</v>
+        <v>184.87419501146601</v>
       </c>
       <c r="JH21" s="6">
-        <v>236.80911819148</v>
+        <v>776.05079386883699</v>
       </c>
     </row>
     <row r="22" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15446,7 +15492,7 @@
         <v>1041.7043708951401</v>
       </c>
       <c r="DG22" s="6">
-        <v>26.9063598794848</v>
+        <v>26.9063598794847</v>
       </c>
       <c r="DH22" s="6">
         <v>264.23478683661301</v>
@@ -15908,16 +15954,16 @@
         <v>136.91715468826399</v>
       </c>
       <c r="JE22" s="6">
-        <v>-3.4630242108756999</v>
+        <v>-3.4630242108756</v>
       </c>
       <c r="JF22" s="6">
-        <v>223.95884414191099</v>
+        <v>285.97214636830898</v>
       </c>
       <c r="JG22" s="6">
-        <v>926.53039332502499</v>
+        <v>926.23477305097094</v>
       </c>
       <c r="JH22" s="6">
-        <v>415.12057211465202</v>
+        <v>414.36109591763102</v>
       </c>
     </row>
     <row r="23" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16717,13 +16763,13 @@
         <v>-422.71539121257001</v>
       </c>
       <c r="JF23" s="6">
-        <v>344.781146383688</v>
+        <v>332.84265496647799</v>
       </c>
       <c r="JG23" s="6">
-        <v>-555.18976701760005</v>
+        <v>-741.36057803950996</v>
       </c>
       <c r="JH23" s="6">
-        <v>-178.31145392317001</v>
+        <v>361.68969795120699</v>
       </c>
     </row>
     <row r="24" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -17190,7 +17236,7 @@
         <v>855.61685509047402</v>
       </c>
       <c r="EY24" s="6">
-        <v>66.058131452102799</v>
+        <v>66.0581314521027</v>
       </c>
       <c r="EZ24" s="6">
         <v>-69.591694052864</v>
@@ -17286,7 +17332,7 @@
         <v>471.65922555401897</v>
       </c>
       <c r="GE24" s="6">
-        <v>-7.2828591208061004</v>
+        <v>-7.2828591208060001</v>
       </c>
       <c r="GF24" s="6">
         <v>508.20111279245299</v>
@@ -17310,7 +17356,7 @@
         <v>982.52143414883597</v>
       </c>
       <c r="GM24" s="6">
-        <v>3.8803686465224501</v>
+        <v>3.8803686465224301</v>
       </c>
       <c r="GN24" s="6">
         <v>371.01544457758399</v>
@@ -17418,7 +17464,7 @@
         <v>6508.9877381938304</v>
       </c>
       <c r="HW24" s="6">
-        <v>-8.8364721929634005</v>
+        <v>-8.8364721929634999</v>
       </c>
       <c r="HX24" s="6">
         <v>1861.70091719889</v>
@@ -17523,10 +17569,10 @@
         <v>-54.677495194906001</v>
       </c>
       <c r="JF24" s="6">
-        <v>947.84372995360195</v>
+        <v>842.71220573716096</v>
       </c>
       <c r="JG24" s="6">
-        <v>606.98033491019805</v>
+        <v>685.28947606823601</v>
       </c>
       <c r="JH24" s="6">
         <v>1552.1277469752399</v>
@@ -17681,7 +17727,7 @@
         <v>-284.44109144427</v>
       </c>
       <c r="AX25" s="6">
-        <v>9.2960570777539893</v>
+        <v>9.2960570777539999</v>
       </c>
       <c r="AY25" s="6">
         <v>17.339454733293799</v>
@@ -17822,7 +17868,7 @@
         <v>10.5461902206826</v>
       </c>
       <c r="CS25" s="6">
-        <v>85.441177636803701</v>
+        <v>85.441177636803602</v>
       </c>
       <c r="CT25" s="6">
         <v>191.33786459384999</v>
@@ -18269,7 +18315,7 @@
         <v>-92.361741699153001</v>
       </c>
       <c r="IL25" s="6">
-        <v>7.8112952530877102</v>
+        <v>7.81129525308768</v>
       </c>
       <c r="IM25" s="6">
         <v>-868.09274635465999</v>
@@ -18736,7 +18782,7 @@
         <v>90.854982519937494</v>
       </c>
       <c r="EC26" s="6">
-        <v>936.90082727667198</v>
+        <v>936.90082727667095</v>
       </c>
       <c r="ED26" s="6">
         <v>-612.20298137822999</v>
@@ -18877,7 +18923,7 @@
         <v>1533.5797686948499</v>
       </c>
       <c r="FX26" s="6">
-        <v>7.5673063601759099</v>
+        <v>7.5673063601758797</v>
       </c>
       <c r="FY26" s="6">
         <v>1465.5415679642199</v>
@@ -19066,7 +19112,7 @@
         <v>-525.49115684532001</v>
       </c>
       <c r="II26" s="6">
-        <v>377.70546658978401</v>
+        <v>377.70546658978299</v>
       </c>
       <c r="IJ26" s="6">
         <v>-95.702097770652998</v>
@@ -19135,10 +19181,10 @@
         <v>-82.623071473161005</v>
       </c>
       <c r="JF26" s="6">
-        <v>892.14234571582097</v>
+        <v>787.010821499381</v>
       </c>
       <c r="JG26" s="6">
-        <v>758.62230289152899</v>
+        <v>836.93144404956797</v>
       </c>
       <c r="JH26" s="6">
         <v>1746.2804896566299</v>
@@ -19941,10 +19987,10 @@
         <v>-73.353249672773998</v>
       </c>
       <c r="JF27" s="6">
-        <v>294.97232052879002</v>
+        <v>189.88679631234899</v>
       </c>
       <c r="JG27" s="6">
-        <v>669.10033545603403</v>
+        <v>747.45547661407204</v>
       </c>
       <c r="JH27" s="6">
         <v>1655.76091237077</v>
@@ -20747,10 +20793,10 @@
         <v>-9.2698218003869002</v>
       </c>
       <c r="JF28" s="6">
-        <v>597.17002518703202</v>
+        <v>597.12402518703198</v>
       </c>
       <c r="JG28" s="6">
-        <v>89.521967435495995</v>
+        <v>89.475967435496003</v>
       </c>
       <c r="JH28" s="6">
         <v>90.519577285863306</v>
@@ -20863,7 +20909,7 @@
         <v>6.06560169194392</v>
       </c>
       <c r="AJ29" s="4">
-        <v>74.931686457045799</v>
+        <v>74.931686457045899</v>
       </c>
       <c r="AK29" s="4">
         <v>-0.95492732073249997</v>
@@ -20878,10 +20924,10 @@
         <v>-36.734993073942</v>
       </c>
       <c r="AO29" s="4">
-        <v>-0.24960605688260001</v>
+        <v>-0.24960605688269999</v>
       </c>
       <c r="AP29" s="4">
-        <v>78.686274065343994</v>
+        <v>78.686274065344094</v>
       </c>
       <c r="AQ29" s="4">
         <v>217.73151042035499</v>
@@ -20893,7 +20939,7 @@
         <v>34.305113540704603</v>
       </c>
       <c r="AT29" s="4">
-        <v>44.432022323855897</v>
+        <v>44.432022323855797</v>
       </c>
       <c r="AU29" s="4">
         <v>39.011160267779502</v>
@@ -20902,7 +20948,7 @@
         <v>-52.711771236780002</v>
       </c>
       <c r="AW29" s="4">
-        <v>7.4995917960241201</v>
+        <v>7.4995917960240703</v>
       </c>
       <c r="AX29" s="4">
         <v>81.695393139803102</v>
@@ -20971,10 +21017,10 @@
         <v>-174.08562442882001</v>
       </c>
       <c r="BT29" s="4">
-        <v>50.5624689776092</v>
+        <v>50.562468977609299</v>
       </c>
       <c r="BU29" s="4">
-        <v>355.64914349878001</v>
+        <v>355.64914349877898</v>
       </c>
       <c r="BV29" s="4">
         <v>-106.94302364469</v>
@@ -21010,7 +21056,7 @@
         <v>-100.45503053463</v>
       </c>
       <c r="CG29" s="4">
-        <v>30.721817313217201</v>
+        <v>30.721817313217301</v>
       </c>
       <c r="CH29" s="4">
         <v>191.199840403699</v>
@@ -21025,7 +21071,7 @@
         <v>28.7955350269064</v>
       </c>
       <c r="CL29" s="4">
-        <v>89.141044827083803</v>
+        <v>89.141044827083903</v>
       </c>
       <c r="CM29" s="4">
         <v>-275.03217049020998</v>
@@ -21067,7 +21113,7 @@
         <v>-6.0611122392064001</v>
       </c>
       <c r="CZ29" s="4">
-        <v>53.4706349614763</v>
+        <v>53.470634961476399</v>
       </c>
       <c r="DA29" s="4">
         <v>279.734442373256</v>
@@ -21145,7 +21191,7 @@
         <v>287.21060278118699</v>
       </c>
       <c r="DZ29" s="4">
-        <v>2.7056422903152701</v>
+        <v>2.7056422903153199</v>
       </c>
       <c r="EA29" s="4">
         <v>-97.787954664506003</v>
@@ -21184,7 +21230,7 @@
         <v>86.974006889999998</v>
       </c>
       <c r="EM29" s="4">
-        <v>12.172456680099801</v>
+        <v>12.1724566800999</v>
       </c>
       <c r="EN29" s="4">
         <v>-146.40835862</v>
@@ -21235,7 +21281,7 @@
         <v>124.16859429417499</v>
       </c>
       <c r="FD29" s="4">
-        <v>0.43816959630282998</v>
+        <v>0.43816959630286001</v>
       </c>
       <c r="FE29" s="4">
         <v>55.444829629027801</v>
@@ -21292,7 +21338,7 @@
         <v>-46.358460832376998</v>
       </c>
       <c r="FW29" s="4">
-        <v>12.969380565365199</v>
+        <v>12.9693805653651</v>
       </c>
       <c r="FX29" s="4">
         <v>-38.738722966624998</v>
@@ -21301,7 +21347,7 @@
         <v>32.914216347898403</v>
       </c>
       <c r="FZ29" s="4">
-        <v>48.967858062498003</v>
+        <v>48.967858062497903</v>
       </c>
       <c r="GA29" s="4">
         <v>-106.57996871333</v>
@@ -21334,7 +21380,7 @@
         <v>19.223811034367699</v>
       </c>
       <c r="GK29" s="4">
-        <v>79.316728169384305</v>
+        <v>79.316728169384206</v>
       </c>
       <c r="GL29" s="4">
         <v>34.3508178339154</v>
@@ -21346,7 +21392,7 @@
         <v>119.322732728273</v>
       </c>
       <c r="GO29" s="4">
-        <v>12.0931616864374</v>
+        <v>12.0931616864373</v>
       </c>
       <c r="GP29" s="4">
         <v>179.540816913616</v>
@@ -21394,7 +21440,7 @@
         <v>354.353564416263</v>
       </c>
       <c r="HE29" s="4">
-        <v>4.4487511017433699</v>
+        <v>4.4487511017435004</v>
       </c>
       <c r="HF29" s="4">
         <v>270.74507393849001</v>
@@ -21403,10 +21449,10 @@
         <v>-103.49713048076001</v>
       </c>
       <c r="HH29" s="4">
-        <v>2.1727964208860202</v>
+        <v>2.1727964208860602</v>
       </c>
       <c r="HI29" s="4">
-        <v>-38.965268178565999</v>
+        <v>-38.965268178564997</v>
       </c>
       <c r="HJ29" s="4">
         <v>-258.26903994359998</v>
@@ -21421,7 +21467,7 @@
         <v>-58.844052892390003</v>
       </c>
       <c r="HN29" s="4">
-        <v>36.637953425025302</v>
+        <v>36.637953425025401</v>
       </c>
       <c r="HO29" s="4">
         <v>98.921507561353394</v>
@@ -21445,7 +21491,7 @@
         <v>345.614195371221</v>
       </c>
       <c r="HV29" s="4">
-        <v>79.275191176898403</v>
+        <v>79.275191176898304</v>
       </c>
       <c r="HW29" s="4">
         <v>233.38740383960399</v>
@@ -21472,7 +21518,7 @@
         <v>0.97491496629800001</v>
       </c>
       <c r="IE29" s="4">
-        <v>-25.625959234861</v>
+        <v>-25.625959234861998</v>
       </c>
       <c r="IF29" s="4">
         <v>-229.24281527786999</v>
@@ -21523,10 +21569,10 @@
         <v>178.56614325801999</v>
       </c>
       <c r="IV29" s="4">
-        <v>17.774573345134701</v>
+        <v>17.774573345134499</v>
       </c>
       <c r="IW29" s="4">
-        <v>270.84495660410198</v>
+        <v>270.844956604103</v>
       </c>
       <c r="IX29" s="4">
         <v>-204.57951781513</v>
@@ -21535,7 +21581,7 @@
         <v>-36.165190046763001</v>
       </c>
       <c r="IZ29" s="4">
-        <v>38.8851719410792</v>
+        <v>38.885171941079001</v>
       </c>
       <c r="JA29" s="4">
         <v>-78.848631353266995</v>
@@ -21553,10 +21599,10 @@
         <v>-170.96475169548</v>
       </c>
       <c r="JF29" s="4">
-        <v>-142.1412949262</v>
+        <v>-156.79392885505999</v>
       </c>
       <c r="JG29" s="4">
-        <v>-28.022007266387</v>
+        <v>-49.897245714980997</v>
       </c>
       <c r="JH29" s="4">
         <v>-230.69357736489999</v>
@@ -21603,7 +21649,7 @@
         <v>100.04294599571701</v>
       </c>
       <c r="N30" s="4">
-        <v>776.45800030979899</v>
+        <v>776.45800030979797</v>
       </c>
       <c r="O30" s="4">
         <v>951.10976218766598</v>
@@ -21615,7 +21661,7 @@
         <v>-27.866625212132</v>
       </c>
       <c r="R30" s="4">
-        <v>1.5997858494175701</v>
+        <v>1.5997858494176</v>
       </c>
       <c r="S30" s="4">
         <v>-42.241310219254999</v>
@@ -21624,7 +21670,7 @@
         <v>879.73899616147605</v>
       </c>
       <c r="U30" s="4">
-        <v>93.490757095520493</v>
+        <v>93.490757095520394</v>
       </c>
       <c r="V30" s="4">
         <v>-429.92319391890999</v>
@@ -21636,7 +21682,7 @@
         <v>-705.10119418907004</v>
       </c>
       <c r="Y30" s="4">
-        <v>1144.25323241358</v>
+        <v>1144.25323241359</v>
       </c>
       <c r="Z30" s="4">
         <v>496.01793526826799</v>
@@ -21678,7 +21724,7 @@
         <v>1680.05185019686</v>
       </c>
       <c r="AM30" s="4">
-        <v>161.84850629513099</v>
+        <v>161.84850629513201</v>
       </c>
       <c r="AN30" s="4">
         <v>926.54019399230197</v>
@@ -21732,7 +21778,7 @@
         <v>781.37706047445101</v>
       </c>
       <c r="BE30" s="4">
-        <v>-4.4274457043047004</v>
+        <v>-4.4274457043047999</v>
       </c>
       <c r="BF30" s="4">
         <v>-359.30507910444999</v>
@@ -21777,7 +21823,7 @@
         <v>-3334.1196501974</v>
       </c>
       <c r="BT30" s="4">
-        <v>1939.72878547551</v>
+        <v>1939.7287854755</v>
       </c>
       <c r="BU30" s="4">
         <v>-80.775143178993005</v>
@@ -21957,7 +22003,7 @@
         <v>1315.2934431204501</v>
       </c>
       <c r="EB30" s="4">
-        <v>76.021461959963801</v>
+        <v>76.021461959963602</v>
       </c>
       <c r="EC30" s="4">
         <v>-2937.1699691754002</v>
@@ -22008,7 +22054,7 @@
         <v>-1047.5317409777001</v>
       </c>
       <c r="ES30" s="4">
-        <v>718.02890220743495</v>
+        <v>718.02890220743598</v>
       </c>
       <c r="ET30" s="4">
         <v>77.371778282452198</v>
@@ -22116,7 +22162,7 @@
         <v>-2570.5976716312998</v>
       </c>
       <c r="GC30" s="4">
-        <v>673.25721393514505</v>
+        <v>673.25721393514596</v>
       </c>
       <c r="GD30" s="4">
         <v>-599.58207201506002</v>
@@ -22164,7 +22210,7 @@
         <v>-293.85445948486</v>
       </c>
       <c r="GS30" s="4">
-        <v>328.84803723699099</v>
+        <v>328.84803723699201</v>
       </c>
       <c r="GT30" s="4">
         <v>526.36839073186104</v>
@@ -22341,7 +22387,7 @@
         <v>-165.78901177827001</v>
       </c>
       <c r="IZ30" s="4">
-        <v>97.044470256231904</v>
+        <v>97.044470256231804</v>
       </c>
       <c r="JA30" s="4">
         <v>476.35992905877998</v>
@@ -22359,13 +22405,13 @@
         <v>-1331.9698771678</v>
       </c>
       <c r="JF30" s="4">
-        <v>1927.09462508978</v>
+        <v>1551.5169893616701</v>
       </c>
       <c r="JG30" s="4">
-        <v>10.922981356025</v>
+        <v>239.59626563846399</v>
       </c>
       <c r="JH30" s="4">
-        <v>-1313.1119249778001</v>
+        <v>-1304.5997980924999</v>
       </c>
     </row>
     <row r="31" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22589,7 +22635,7 @@
         <v>-1363.2692981320999</v>
       </c>
       <c r="BV31" s="6">
-        <v>6.5428444417057703</v>
+        <v>6.5428444417057596</v>
       </c>
       <c r="BW31" s="6">
         <v>720.242424980583</v>
@@ -22604,7 +22650,7 @@
         <v>-1130.0919057915</v>
       </c>
       <c r="CA31" s="6">
-        <v>-68.396586377522993</v>
+        <v>-68.396586377524002</v>
       </c>
       <c r="CB31" s="6">
         <v>-364.34441588984998</v>
@@ -22649,7 +22695,7 @@
         <v>1689.8665990313</v>
       </c>
       <c r="CP31" s="6">
-        <v>12.931609351299199</v>
+        <v>12.931609351299</v>
       </c>
       <c r="CQ31" s="6">
         <v>-471.73146584305999</v>
@@ -22661,7 +22707,7 @@
         <v>-2278.1923377008002</v>
       </c>
       <c r="CT31" s="6">
-        <v>2971.7890886960799</v>
+        <v>2971.7890886960699</v>
       </c>
       <c r="CU31" s="6">
         <v>-579.43136712097998</v>
@@ -22715,7 +22761,7 @@
         <v>-2698.7119641189001</v>
       </c>
       <c r="DL31" s="6">
-        <v>3041.1648952371802</v>
+        <v>3041.1648952371902</v>
       </c>
       <c r="DM31" s="6">
         <v>-1738.2643498159</v>
@@ -22793,7 +22839,7 @@
         <v>-1569.4311229053999</v>
       </c>
       <c r="EL31" s="6">
-        <v>73.359599824488896</v>
+        <v>73.359599824488797</v>
       </c>
       <c r="EM31" s="6">
         <v>884.87697576745097</v>
@@ -22835,7 +22881,7 @@
         <v>204.690705375264</v>
       </c>
       <c r="EZ31" s="6">
-        <v>575.82312434523806</v>
+        <v>575.82312434523897</v>
       </c>
       <c r="FA31" s="6">
         <v>-995.80733218937996</v>
@@ -22922,7 +22968,7 @@
         <v>-689.98004960905996</v>
       </c>
       <c r="GC31" s="6">
-        <v>853.26747496370797</v>
+        <v>853.26747496370695</v>
       </c>
       <c r="GD31" s="6">
         <v>177.278783020346</v>
@@ -23036,7 +23082,7 @@
         <v>933.91202770029895</v>
       </c>
       <c r="HO31" s="6">
-        <v>861.63782740094302</v>
+        <v>861.637827400942</v>
       </c>
       <c r="HP31" s="6">
         <v>3066.8134162075398</v>
@@ -23138,7 +23184,7 @@
         <v>1233.99958396581</v>
       </c>
       <c r="IW31" s="6">
-        <v>702.43170080637196</v>
+        <v>702.43170080637105</v>
       </c>
       <c r="IX31" s="6">
         <v>-1117.5075884815999</v>
@@ -23156,7 +23202,7 @@
         <v>156.07535343909299</v>
       </c>
       <c r="JC31" s="6">
-        <v>939.07895879755495</v>
+        <v>939.07895879755404</v>
       </c>
       <c r="JD31" s="6">
         <v>-276.67320591070001</v>
@@ -23165,13 +23211,13 @@
         <v>-279.66671815693002</v>
       </c>
       <c r="JF31" s="6">
-        <v>2891.9833858102402</v>
+        <v>2791.42775690807</v>
       </c>
       <c r="JG31" s="6">
-        <v>-1132.6494292995001</v>
+        <v>-1083.3342957006</v>
       </c>
       <c r="JH31" s="6">
-        <v>-1121.7057747352001</v>
+        <v>-1113.1936478498001</v>
       </c>
     </row>
     <row r="32" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -24777,10 +24823,10 @@
         <v>1013.73110840833</v>
       </c>
       <c r="JF33" s="6">
-        <v>1714.8688225774899</v>
+        <v>1768.87308698424</v>
       </c>
       <c r="JG33" s="6">
-        <v>-233.10989815561999</v>
+        <v>-303.44052620346002</v>
       </c>
       <c r="JH33" s="6">
         <v>-578.76194687520001</v>
@@ -25583,10 +25629,10 @@
         <v>15.925438226660701</v>
       </c>
       <c r="JF34" s="6">
-        <v>-261.31048958513998</v>
+        <v>-268.22743367613998</v>
       </c>
       <c r="JG34" s="6">
-        <v>-125.44572213511999</v>
+        <v>-107.56620475602</v>
       </c>
       <c r="JH34" s="6">
         <v>97.752251761265398</v>
@@ -25759,7 +25805,7 @@
         <v>-3729.5653993964002</v>
       </c>
       <c r="BD35" s="6">
-        <v>90.206057311216995</v>
+        <v>90.206057311217094</v>
       </c>
       <c r="BE35" s="6">
         <v>1211.62509561669</v>
@@ -25849,7 +25895,7 @@
         <v>383.61300233640202</v>
       </c>
       <c r="CH35" s="6">
-        <v>131.437527698308</v>
+        <v>131.437527698309</v>
       </c>
       <c r="CI35" s="6">
         <v>368.89128418741899</v>
@@ -25888,7 +25934,7 @@
         <v>3028.1020131208802</v>
       </c>
       <c r="CU35" s="6">
-        <v>70.050534269571997</v>
+        <v>70.050534269572196</v>
       </c>
       <c r="CV35" s="6">
         <v>241.16248863260799</v>
@@ -26389,13 +26435,13 @@
         <v>-1303.2135075752999</v>
       </c>
       <c r="JF35" s="6">
-        <v>1441.2141255414001</v>
+        <v>1293.4096084734799</v>
       </c>
       <c r="JG35" s="6">
-        <v>-771.29081290596002</v>
+        <v>-669.84841866825002</v>
       </c>
       <c r="JH35" s="6">
-        <v>-637.85111918891005</v>
+        <v>-629.33899230357997</v>
       </c>
     </row>
     <row r="36" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -27195,10 +27241,10 @@
         <v>-6.1097572166434997</v>
       </c>
       <c r="JF36" s="6">
-        <v>-2.7890727235087001</v>
+        <v>-2.6275048735087001</v>
       </c>
       <c r="JG36" s="6">
-        <v>-2.8029961028431001</v>
+        <v>-2.4791460728431001</v>
       </c>
       <c r="JH36" s="6">
         <v>-2.8449604323368001</v>
@@ -27233,7 +27279,7 @@
         <v>105.733621191672</v>
       </c>
       <c r="J37" s="6">
-        <v>171.80316038970901</v>
+        <v>171.80316038971</v>
       </c>
       <c r="K37" s="6">
         <v>439.76209753306699</v>
@@ -27326,7 +27372,7 @@
         <v>1624.6240087655799</v>
       </c>
       <c r="AO37" s="6">
-        <v>11.0294131699277</v>
+        <v>11.029413169927601</v>
       </c>
       <c r="AP37" s="6">
         <v>196.48465313580101</v>
@@ -27428,7 +27474,7 @@
         <v>-1143.0875491422</v>
       </c>
       <c r="BW37" s="6">
-        <v>1.83497881029334</v>
+        <v>1.83497881029337</v>
       </c>
       <c r="BX37" s="6">
         <v>-480.84807619514999</v>
@@ -27488,7 +27534,7 @@
         <v>-99.099547160721002</v>
       </c>
       <c r="CQ37" s="6">
-        <v>511.36232597125701</v>
+        <v>511.36232597125797</v>
       </c>
       <c r="CR37" s="6">
         <v>311.56320099441399</v>
@@ -27518,7 +27564,7 @@
         <v>824.80754136677001</v>
       </c>
       <c r="DA37" s="6">
-        <v>583.79789120982196</v>
+        <v>583.79789120982105</v>
       </c>
       <c r="DB37" s="6">
         <v>-604.23641032201999</v>
@@ -27527,7 +27573,7 @@
         <v>281.012433545985</v>
       </c>
       <c r="DD37" s="6">
-        <v>80.374913722520404</v>
+        <v>80.374913722520304</v>
       </c>
       <c r="DE37" s="6">
         <v>640.23485577212398</v>
@@ -27803,7 +27849,7 @@
         <v>843.421455337461</v>
       </c>
       <c r="GR37" s="6">
-        <v>388.21873669950799</v>
+        <v>388.21873669950901</v>
       </c>
       <c r="GS37" s="6">
         <v>607.26676749294904</v>
@@ -28001,10 +28047,10 @@
         <v>1052.3031590108701</v>
       </c>
       <c r="JF37" s="6">
-        <v>964.888760720459</v>
+        <v>1239.9107675464099</v>
       </c>
       <c r="JG37" s="6">
-        <v>-1143.5724106555999</v>
+        <v>-1322.930561339</v>
       </c>
       <c r="JH37" s="6">
         <v>191.40615024264699</v>
@@ -28807,10 +28853,10 @@
         <v>294.93755230821398</v>
       </c>
       <c r="JF38" s="6">
-        <v>222.060216995763</v>
+        <v>245.317476440977</v>
       </c>
       <c r="JG38" s="6">
-        <v>-598.87150058382997</v>
+        <v>-699.05472102549004</v>
       </c>
       <c r="JH38" s="6">
         <v>-210.48441373028999</v>
@@ -29043,7 +29089,7 @@
         <v>884.20571878312001</v>
       </c>
       <c r="BX39" s="6">
-        <v>1.6414500145342501</v>
+        <v>1.6414500145342601</v>
       </c>
       <c r="BY39" s="6">
         <v>-488.68011806571002</v>
@@ -29175,7 +29221,7 @@
         <v>2628.23417811323</v>
       </c>
       <c r="DP39" s="6">
-        <v>-85.074020153906005</v>
+        <v>-85.074020153904996</v>
       </c>
       <c r="DQ39" s="6">
         <v>-423.85612522142998</v>
@@ -29613,10 +29659,10 @@
         <v>844.79612468330902</v>
       </c>
       <c r="JF39" s="6">
-        <v>418.548785762546</v>
+        <v>475.18553314327897</v>
       </c>
       <c r="JG39" s="6">
-        <v>-332.54801864856</v>
+        <v>-216.59494889037001</v>
       </c>
       <c r="JH39" s="6">
         <v>326.439831989688</v>
@@ -30419,10 +30465,10 @@
         <v>-96.438331903622</v>
       </c>
       <c r="JF40" s="6">
-        <v>315.4458914626</v>
+        <v>510.57389146259999</v>
       </c>
       <c r="JG40" s="6">
-        <v>-193.09327789426999</v>
+        <v>-388.22127789426997</v>
       </c>
       <c r="JH40" s="6">
         <v>66.698167912255798</v>
@@ -32847,276 +32893,276 @@
       </c>
     </row>
     <row r="44" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
-      <c r="AP44" s="8"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="8"/>
-      <c r="AS44" s="8"/>
-      <c r="AT44" s="8"/>
-      <c r="AU44" s="8"/>
-      <c r="AV44" s="8"/>
-      <c r="AW44" s="8"/>
-      <c r="AX44" s="8"/>
-      <c r="AY44" s="8"/>
-      <c r="AZ44" s="8"/>
-      <c r="BA44" s="8"/>
-      <c r="BB44" s="8"/>
-      <c r="BC44" s="8"/>
-      <c r="BD44" s="8"/>
-      <c r="BE44" s="8"/>
-      <c r="BF44" s="8"/>
-      <c r="BG44" s="8"/>
-      <c r="BH44" s="8"/>
-      <c r="BI44" s="8"/>
-      <c r="BJ44" s="8"/>
-      <c r="BK44" s="8"/>
-      <c r="BL44" s="8"/>
-      <c r="BM44" s="8"/>
-      <c r="BN44" s="8"/>
-      <c r="BO44" s="8"/>
-      <c r="BP44" s="8"/>
-      <c r="BQ44" s="8"/>
-      <c r="BR44" s="8"/>
-      <c r="BS44" s="8"/>
-      <c r="BT44" s="8"/>
-      <c r="BU44" s="8"/>
-      <c r="BV44" s="8"/>
-      <c r="BW44" s="8"/>
-      <c r="BX44" s="8"/>
-      <c r="BY44" s="8"/>
-      <c r="BZ44" s="8"/>
-      <c r="CA44" s="8"/>
-      <c r="CB44" s="8"/>
-      <c r="CC44" s="8"/>
-      <c r="CD44" s="8"/>
-      <c r="CE44" s="8"/>
-      <c r="CF44" s="8"/>
-      <c r="CG44" s="8"/>
-      <c r="CH44" s="8"/>
-      <c r="CI44" s="8"/>
-      <c r="CJ44" s="8"/>
-      <c r="CK44" s="8"/>
-      <c r="CL44" s="8"/>
-      <c r="CM44" s="8"/>
-      <c r="CN44" s="8"/>
-      <c r="CO44" s="8"/>
-      <c r="CP44" s="8"/>
-      <c r="CQ44" s="8"/>
-      <c r="CR44" s="8"/>
-      <c r="CS44" s="8"/>
-      <c r="CT44" s="8"/>
-      <c r="CU44" s="8"/>
-      <c r="CV44" s="8"/>
-      <c r="CW44" s="8"/>
-      <c r="CX44" s="8"/>
-      <c r="CY44" s="8"/>
-      <c r="CZ44" s="8"/>
-      <c r="DA44" s="8"/>
-      <c r="DB44" s="8"/>
-      <c r="DC44" s="8"/>
-      <c r="DD44" s="8"/>
-      <c r="DE44" s="8"/>
-      <c r="DF44" s="8"/>
-      <c r="DG44" s="8"/>
-      <c r="DH44" s="8"/>
-      <c r="DI44" s="8"/>
-      <c r="DJ44" s="8"/>
-      <c r="DK44" s="8"/>
-      <c r="DL44" s="8"/>
-      <c r="DM44" s="8"/>
-      <c r="DN44" s="8"/>
-      <c r="DO44" s="8"/>
-      <c r="DP44" s="8"/>
-      <c r="DQ44" s="8"/>
-      <c r="DR44" s="8"/>
-      <c r="DS44" s="8"/>
-      <c r="DT44" s="8"/>
-      <c r="DU44" s="8"/>
-      <c r="DV44" s="8"/>
-      <c r="DW44" s="8"/>
-      <c r="DX44" s="8"/>
-      <c r="DY44" s="8"/>
-      <c r="DZ44" s="8"/>
-      <c r="EA44" s="8"/>
-      <c r="EB44" s="8"/>
-      <c r="EC44" s="8"/>
-      <c r="ED44" s="8"/>
-      <c r="EE44" s="8"/>
-      <c r="EF44" s="8"/>
-      <c r="EG44" s="8"/>
-      <c r="EH44" s="8"/>
-      <c r="EI44" s="8"/>
-      <c r="EJ44" s="8"/>
-      <c r="EK44" s="8"/>
-      <c r="EL44" s="8"/>
-      <c r="EM44" s="8"/>
-      <c r="EN44" s="8"/>
-      <c r="EO44" s="8"/>
-      <c r="EP44" s="8"/>
-      <c r="EQ44" s="8"/>
-      <c r="ER44" s="8"/>
-      <c r="ES44" s="8"/>
-      <c r="ET44" s="8"/>
-      <c r="EU44" s="8"/>
-      <c r="EV44" s="8"/>
-      <c r="EW44" s="8"/>
-      <c r="EX44" s="8"/>
-      <c r="EY44" s="8"/>
-      <c r="EZ44" s="8"/>
-      <c r="FA44" s="8"/>
-      <c r="FB44" s="8"/>
-      <c r="FC44" s="8"/>
-      <c r="FD44" s="8"/>
-      <c r="FE44" s="8"/>
-      <c r="FF44" s="8"/>
-      <c r="FG44" s="8"/>
-      <c r="FH44" s="8"/>
-      <c r="FI44" s="8"/>
-      <c r="FJ44" s="8"/>
-      <c r="FK44" s="8"/>
-      <c r="FL44" s="8"/>
-      <c r="FM44" s="8"/>
-      <c r="FN44" s="8"/>
-      <c r="FO44" s="8"/>
-      <c r="FP44" s="8"/>
-      <c r="FQ44" s="8"/>
-      <c r="FR44" s="8"/>
-      <c r="FS44" s="8"/>
-      <c r="FT44" s="8"/>
-      <c r="FU44" s="8"/>
-      <c r="FV44" s="8"/>
-      <c r="FW44" s="8"/>
-      <c r="FX44" s="8"/>
-      <c r="FY44" s="8"/>
-      <c r="FZ44" s="8"/>
-      <c r="GA44" s="8"/>
-      <c r="GB44" s="8"/>
-      <c r="GC44" s="8"/>
-      <c r="GD44" s="8"/>
-      <c r="GE44" s="8"/>
-      <c r="GF44" s="8"/>
-      <c r="GG44" s="8"/>
-      <c r="GH44" s="8"/>
-      <c r="GI44" s="8"/>
-      <c r="GJ44" s="8"/>
-      <c r="GK44" s="8"/>
-      <c r="GL44" s="8"/>
-      <c r="GM44" s="8"/>
-      <c r="GN44" s="8"/>
-      <c r="GO44" s="8"/>
-      <c r="GP44" s="8"/>
-      <c r="GQ44" s="8"/>
-      <c r="GR44" s="8"/>
-      <c r="GS44" s="8"/>
-      <c r="GT44" s="8"/>
-      <c r="GU44" s="8"/>
-      <c r="GV44" s="8"/>
-      <c r="GW44" s="8"/>
-      <c r="GX44" s="8"/>
-      <c r="GY44" s="8"/>
-      <c r="GZ44" s="8"/>
-      <c r="HA44" s="8"/>
-      <c r="HB44" s="8"/>
-      <c r="HC44" s="8"/>
-      <c r="HD44" s="8"/>
-      <c r="HE44" s="8"/>
-      <c r="HF44" s="8"/>
-      <c r="HG44" s="8"/>
-      <c r="HH44" s="8"/>
-      <c r="HI44" s="8"/>
-      <c r="HJ44" s="8"/>
-      <c r="HK44" s="8"/>
-      <c r="HL44" s="8"/>
-      <c r="HM44" s="8"/>
-      <c r="HN44" s="8"/>
-      <c r="HO44" s="8"/>
-      <c r="HP44" s="8"/>
-      <c r="HQ44" s="8"/>
-      <c r="HR44" s="8"/>
-      <c r="HS44" s="8"/>
-      <c r="HT44" s="8"/>
-      <c r="HU44" s="8"/>
-      <c r="HV44" s="8"/>
-      <c r="HW44" s="8"/>
-      <c r="HX44" s="8"/>
-      <c r="HY44" s="8"/>
-      <c r="HZ44" s="8"/>
-      <c r="IA44" s="8"/>
-      <c r="IB44" s="8"/>
-      <c r="IC44" s="8"/>
-      <c r="ID44" s="8"/>
-      <c r="IE44" s="8"/>
-      <c r="IF44" s="8"/>
-      <c r="IG44" s="8"/>
-      <c r="IH44" s="8"/>
-      <c r="II44" s="8"/>
-      <c r="IJ44" s="8"/>
-      <c r="IK44" s="8"/>
-      <c r="IL44" s="8"/>
-      <c r="IM44" s="8"/>
-      <c r="IN44" s="8"/>
-      <c r="IO44" s="8"/>
-      <c r="IP44" s="8"/>
-      <c r="IQ44" s="8"/>
-      <c r="IR44" s="8"/>
-      <c r="IS44" s="8"/>
-      <c r="IT44" s="8"/>
-      <c r="IU44" s="8"/>
-      <c r="IV44" s="8"/>
-      <c r="IW44" s="8"/>
-      <c r="IX44" s="8"/>
-      <c r="IY44" s="8"/>
-      <c r="IZ44" s="8"/>
-      <c r="JA44" s="8"/>
-      <c r="JB44" s="8"/>
-      <c r="JC44" s="8"/>
-      <c r="JD44" s="8"/>
-      <c r="JE44" s="8"/>
-      <c r="JF44" s="8"/>
-      <c r="JG44" s="8"/>
-      <c r="JH44" s="8"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BC44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="12"/>
+      <c r="BR44" s="12"/>
+      <c r="BS44" s="12"/>
+      <c r="BT44" s="12"/>
+      <c r="BU44" s="12"/>
+      <c r="BV44" s="12"/>
+      <c r="BW44" s="12"/>
+      <c r="BX44" s="12"/>
+      <c r="BY44" s="12"/>
+      <c r="BZ44" s="12"/>
+      <c r="CA44" s="12"/>
+      <c r="CB44" s="12"/>
+      <c r="CC44" s="12"/>
+      <c r="CD44" s="12"/>
+      <c r="CE44" s="12"/>
+      <c r="CF44" s="12"/>
+      <c r="CG44" s="12"/>
+      <c r="CH44" s="12"/>
+      <c r="CI44" s="12"/>
+      <c r="CJ44" s="12"/>
+      <c r="CK44" s="12"/>
+      <c r="CL44" s="12"/>
+      <c r="CM44" s="12"/>
+      <c r="CN44" s="12"/>
+      <c r="CO44" s="12"/>
+      <c r="CP44" s="12"/>
+      <c r="CQ44" s="12"/>
+      <c r="CR44" s="12"/>
+      <c r="CS44" s="12"/>
+      <c r="CT44" s="12"/>
+      <c r="CU44" s="12"/>
+      <c r="CV44" s="12"/>
+      <c r="CW44" s="12"/>
+      <c r="CX44" s="12"/>
+      <c r="CY44" s="12"/>
+      <c r="CZ44" s="12"/>
+      <c r="DA44" s="12"/>
+      <c r="DB44" s="12"/>
+      <c r="DC44" s="12"/>
+      <c r="DD44" s="12"/>
+      <c r="DE44" s="12"/>
+      <c r="DF44" s="12"/>
+      <c r="DG44" s="12"/>
+      <c r="DH44" s="12"/>
+      <c r="DI44" s="12"/>
+      <c r="DJ44" s="12"/>
+      <c r="DK44" s="12"/>
+      <c r="DL44" s="12"/>
+      <c r="DM44" s="12"/>
+      <c r="DN44" s="12"/>
+      <c r="DO44" s="12"/>
+      <c r="DP44" s="12"/>
+      <c r="DQ44" s="12"/>
+      <c r="DR44" s="12"/>
+      <c r="DS44" s="12"/>
+      <c r="DT44" s="12"/>
+      <c r="DU44" s="12"/>
+      <c r="DV44" s="12"/>
+      <c r="DW44" s="12"/>
+      <c r="DX44" s="12"/>
+      <c r="DY44" s="12"/>
+      <c r="DZ44" s="12"/>
+      <c r="EA44" s="12"/>
+      <c r="EB44" s="12"/>
+      <c r="EC44" s="12"/>
+      <c r="ED44" s="12"/>
+      <c r="EE44" s="12"/>
+      <c r="EF44" s="12"/>
+      <c r="EG44" s="12"/>
+      <c r="EH44" s="12"/>
+      <c r="EI44" s="12"/>
+      <c r="EJ44" s="12"/>
+      <c r="EK44" s="12"/>
+      <c r="EL44" s="12"/>
+      <c r="EM44" s="12"/>
+      <c r="EN44" s="12"/>
+      <c r="EO44" s="12"/>
+      <c r="EP44" s="12"/>
+      <c r="EQ44" s="12"/>
+      <c r="ER44" s="12"/>
+      <c r="ES44" s="12"/>
+      <c r="ET44" s="12"/>
+      <c r="EU44" s="12"/>
+      <c r="EV44" s="12"/>
+      <c r="EW44" s="12"/>
+      <c r="EX44" s="12"/>
+      <c r="EY44" s="12"/>
+      <c r="EZ44" s="12"/>
+      <c r="FA44" s="12"/>
+      <c r="FB44" s="12"/>
+      <c r="FC44" s="12"/>
+      <c r="FD44" s="12"/>
+      <c r="FE44" s="12"/>
+      <c r="FF44" s="12"/>
+      <c r="FG44" s="12"/>
+      <c r="FH44" s="12"/>
+      <c r="FI44" s="12"/>
+      <c r="FJ44" s="12"/>
+      <c r="FK44" s="12"/>
+      <c r="FL44" s="12"/>
+      <c r="FM44" s="12"/>
+      <c r="FN44" s="12"/>
+      <c r="FO44" s="12"/>
+      <c r="FP44" s="12"/>
+      <c r="FQ44" s="12"/>
+      <c r="FR44" s="12"/>
+      <c r="FS44" s="12"/>
+      <c r="FT44" s="12"/>
+      <c r="FU44" s="12"/>
+      <c r="FV44" s="12"/>
+      <c r="FW44" s="12"/>
+      <c r="FX44" s="12"/>
+      <c r="FY44" s="12"/>
+      <c r="FZ44" s="12"/>
+      <c r="GA44" s="12"/>
+      <c r="GB44" s="12"/>
+      <c r="GC44" s="12"/>
+      <c r="GD44" s="12"/>
+      <c r="GE44" s="12"/>
+      <c r="GF44" s="12"/>
+      <c r="GG44" s="12"/>
+      <c r="GH44" s="12"/>
+      <c r="GI44" s="12"/>
+      <c r="GJ44" s="12"/>
+      <c r="GK44" s="12"/>
+      <c r="GL44" s="12"/>
+      <c r="GM44" s="12"/>
+      <c r="GN44" s="12"/>
+      <c r="GO44" s="12"/>
+      <c r="GP44" s="12"/>
+      <c r="GQ44" s="12"/>
+      <c r="GR44" s="12"/>
+      <c r="GS44" s="12"/>
+      <c r="GT44" s="12"/>
+      <c r="GU44" s="12"/>
+      <c r="GV44" s="12"/>
+      <c r="GW44" s="12"/>
+      <c r="GX44" s="12"/>
+      <c r="GY44" s="12"/>
+      <c r="GZ44" s="12"/>
+      <c r="HA44" s="12"/>
+      <c r="HB44" s="12"/>
+      <c r="HC44" s="12"/>
+      <c r="HD44" s="12"/>
+      <c r="HE44" s="12"/>
+      <c r="HF44" s="12"/>
+      <c r="HG44" s="12"/>
+      <c r="HH44" s="12"/>
+      <c r="HI44" s="12"/>
+      <c r="HJ44" s="12"/>
+      <c r="HK44" s="12"/>
+      <c r="HL44" s="12"/>
+      <c r="HM44" s="12"/>
+      <c r="HN44" s="12"/>
+      <c r="HO44" s="12"/>
+      <c r="HP44" s="12"/>
+      <c r="HQ44" s="12"/>
+      <c r="HR44" s="12"/>
+      <c r="HS44" s="12"/>
+      <c r="HT44" s="12"/>
+      <c r="HU44" s="12"/>
+      <c r="HV44" s="12"/>
+      <c r="HW44" s="12"/>
+      <c r="HX44" s="12"/>
+      <c r="HY44" s="12"/>
+      <c r="HZ44" s="12"/>
+      <c r="IA44" s="12"/>
+      <c r="IB44" s="12"/>
+      <c r="IC44" s="12"/>
+      <c r="ID44" s="12"/>
+      <c r="IE44" s="12"/>
+      <c r="IF44" s="12"/>
+      <c r="IG44" s="12"/>
+      <c r="IH44" s="12"/>
+      <c r="II44" s="12"/>
+      <c r="IJ44" s="12"/>
+      <c r="IK44" s="12"/>
+      <c r="IL44" s="12"/>
+      <c r="IM44" s="12"/>
+      <c r="IN44" s="12"/>
+      <c r="IO44" s="12"/>
+      <c r="IP44" s="12"/>
+      <c r="IQ44" s="12"/>
+      <c r="IR44" s="12"/>
+      <c r="IS44" s="12"/>
+      <c r="IT44" s="12"/>
+      <c r="IU44" s="12"/>
+      <c r="IV44" s="12"/>
+      <c r="IW44" s="12"/>
+      <c r="IX44" s="12"/>
+      <c r="IY44" s="12"/>
+      <c r="IZ44" s="12"/>
+      <c r="JA44" s="12"/>
+      <c r="JB44" s="12"/>
+      <c r="JC44" s="12"/>
+      <c r="JD44" s="12"/>
+      <c r="JE44" s="12"/>
+      <c r="JF44" s="12"/>
+      <c r="JG44" s="12"/>
+      <c r="JH44" s="12"/>
     </row>
     <row r="45" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -33135,7 +33181,7 @@
         <v>681.351934558327</v>
       </c>
       <c r="F45" s="6">
-        <v>836.96074273269596</v>
+        <v>836.96074273269699</v>
       </c>
       <c r="G45" s="6">
         <v>476.46627794621702</v>
@@ -33165,7 +33211,7 @@
         <v>648.51269373597097</v>
       </c>
       <c r="P45" s="6">
-        <v>530.21197347140196</v>
+        <v>530.21197347140105</v>
       </c>
       <c r="Q45" s="6">
         <v>363.21654150979799</v>
@@ -33198,7 +33244,7 @@
         <v>19.808068948841701</v>
       </c>
       <c r="AA45" s="6">
-        <v>10.319023331798199</v>
+        <v>10.319023331798</v>
       </c>
       <c r="AB45" s="6">
         <v>257.70622758189501</v>
@@ -33213,10 +33259,10 @@
         <v>195.894616346655</v>
       </c>
       <c r="AF45" s="6">
-        <v>-85.007863330413002</v>
+        <v>-85.007863330411993</v>
       </c>
       <c r="AG45" s="6">
-        <v>381.23729626616802</v>
+        <v>381.23729626616699</v>
       </c>
       <c r="AH45" s="6">
         <v>780.84462529838402</v>
@@ -33288,10 +33334,10 @@
         <v>1653.24861233511</v>
       </c>
       <c r="BE45" s="6">
-        <v>2326.1321922654802</v>
+        <v>2326.1321922654902</v>
       </c>
       <c r="BF45" s="6">
-        <v>82.0945739722452</v>
+        <v>82.0945739722453</v>
       </c>
       <c r="BG45" s="6">
         <v>1999.7583393699199</v>
@@ -33342,7 +33388,7 @@
         <v>-513.13297089498997</v>
       </c>
       <c r="BW45" s="6">
-        <v>695.90073066352295</v>
+        <v>695.90073066352397</v>
       </c>
       <c r="BX45" s="6">
         <v>-662.19860442920003</v>
@@ -33375,7 +33421,7 @@
         <v>-32.945420741968</v>
       </c>
       <c r="CH45" s="6">
-        <v>1132.7289536255901</v>
+        <v>1132.7289536256001</v>
       </c>
       <c r="CI45" s="6">
         <v>7054.0230177930498</v>
@@ -33393,10 +33439,10 @@
         <v>-2112.4294465103999</v>
       </c>
       <c r="CN45" s="6">
-        <v>454.66684950784401</v>
+        <v>454.66684950784298</v>
       </c>
       <c r="CO45" s="6">
-        <v>-29.614848898843</v>
+        <v>-29.614848898841998</v>
       </c>
       <c r="CP45" s="6">
         <v>-818.62682948583995</v>
@@ -33471,7 +33517,7 @@
         <v>-6687.2948994100998</v>
       </c>
       <c r="DN45" s="6">
-        <v>599.88201428780405</v>
+        <v>599.88201428780496</v>
       </c>
       <c r="DO45" s="6">
         <v>-1844.1932073738999</v>
@@ -33495,7 +33541,7 @@
         <v>-1445.4051883138</v>
       </c>
       <c r="DV45" s="6">
-        <v>294.38083120815202</v>
+        <v>294.38083120815298</v>
       </c>
       <c r="DW45" s="6">
         <v>-4566.0397711645001</v>
@@ -33528,7 +33574,7 @@
         <v>1190.3234697658099</v>
       </c>
       <c r="EG45" s="6">
-        <v>837.92959794628905</v>
+        <v>837.92959794628996</v>
       </c>
       <c r="EH45" s="6">
         <v>-1057.0669465532001</v>
@@ -33561,7 +33607,7 @@
         <v>1119.9004675056999</v>
       </c>
       <c r="ER45" s="6">
-        <v>48.262056171192597</v>
+        <v>48.262056171193002</v>
       </c>
       <c r="ES45" s="6">
         <v>1514.0538268783801</v>
@@ -33591,7 +33637,7 @@
         <v>-386.48653812056</v>
       </c>
       <c r="FB45" s="6">
-        <v>455.13124389015002</v>
+        <v>455.13124389014899</v>
       </c>
       <c r="FC45" s="6">
         <v>-548.12673332713996</v>
@@ -33600,13 +33646,13 @@
         <v>1408.62122167439</v>
       </c>
       <c r="FE45" s="6">
-        <v>631.16159195754597</v>
+        <v>631.16159195754699</v>
       </c>
       <c r="FF45" s="6">
         <v>-2778.1708573954002</v>
       </c>
       <c r="FG45" s="6">
-        <v>247.90168015099701</v>
+        <v>247.90168015099599</v>
       </c>
       <c r="FH45" s="6">
         <v>-2549.2414483747002</v>
@@ -33639,13 +33685,13 @@
         <v>-1205.3112977672999</v>
       </c>
       <c r="FR45" s="6">
-        <v>782.45915043298703</v>
+        <v>782.45915043298805</v>
       </c>
       <c r="FS45" s="6">
-        <v>575.21218264391405</v>
+        <v>575.21218264391496</v>
       </c>
       <c r="FT45" s="6">
-        <v>137.01634135655101</v>
+        <v>137.016341356552</v>
       </c>
       <c r="FU45" s="6">
         <v>-1922.7631141879001</v>
@@ -33657,7 +33703,7 @@
         <v>-2465.5836184591999</v>
       </c>
       <c r="FX45" s="6">
-        <v>-35.914355402303002</v>
+        <v>-35.914355402302</v>
       </c>
       <c r="FY45" s="6">
         <v>-1012.6221296602999</v>
@@ -33666,7 +33712,7 @@
         <v>-3550.2133057888</v>
       </c>
       <c r="GA45" s="6">
-        <v>713.61758044524095</v>
+        <v>713.61758044524197</v>
       </c>
       <c r="GB45" s="6">
         <v>2469.9817020339001</v>
@@ -33720,7 +33766,7 @@
         <v>-3887.5605868532002</v>
       </c>
       <c r="GS45" s="6">
-        <v>963.71530745204802</v>
+        <v>963.715307452047</v>
       </c>
       <c r="GT45" s="6">
         <v>-1262.0679656550999</v>
@@ -33732,10 +33778,10 @@
         <v>-1996.8061450166999</v>
       </c>
       <c r="GW45" s="6">
-        <v>33.060238386821503</v>
+        <v>33.060238386822697</v>
       </c>
       <c r="GX45" s="6">
-        <v>-447.11828097802999</v>
+        <v>-447.11828097801998</v>
       </c>
       <c r="GY45" s="6">
         <v>1831.5159548886299</v>
@@ -33744,13 +33790,13 @@
         <v>-1548.3446187917</v>
       </c>
       <c r="HA45" s="6">
-        <v>833.94966231051296</v>
+        <v>833.94966231051399</v>
       </c>
       <c r="HB45" s="6">
         <v>-548.22688766249996</v>
       </c>
       <c r="HC45" s="6">
-        <v>499.52887929964999</v>
+        <v>499.52887929965101</v>
       </c>
       <c r="HD45" s="6">
         <v>-2333.5818225437001</v>
@@ -33804,10 +33850,10 @@
         <v>1288.1332714375301</v>
       </c>
       <c r="HU45" s="6">
-        <v>942.26875293681599</v>
+        <v>942.26875293681701</v>
       </c>
       <c r="HV45" s="6">
-        <v>238.28587792767701</v>
+        <v>238.285877927678</v>
       </c>
       <c r="HW45" s="6">
         <v>-2449.8487823086002</v>
@@ -33819,7 +33865,7 @@
         <v>-4648.2948617724996</v>
       </c>
       <c r="HZ45" s="6">
-        <v>-232.70304957931</v>
+        <v>-232.70304957932001</v>
       </c>
       <c r="IA45" s="6">
         <v>-1795.7294510444001</v>
@@ -33831,7 +33877,7 @@
         <v>-299.75540656869998</v>
       </c>
       <c r="ID45" s="6">
-        <v>-726.15577359975998</v>
+        <v>-726.15577359976999</v>
       </c>
       <c r="IE45" s="6">
         <v>-1984.1078449581</v>
@@ -33849,7 +33895,7 @@
         <v>1145.6692096614699</v>
       </c>
       <c r="IJ45" s="6">
-        <v>520.27825017470195</v>
+        <v>520.278250174704</v>
       </c>
       <c r="IK45" s="6">
         <v>-3310.7524444536002</v>
@@ -33876,7 +33922,7 @@
         <v>844.46932553350405</v>
       </c>
       <c r="IS45" s="6">
-        <v>817.69633421510605</v>
+        <v>817.69633421510798</v>
       </c>
       <c r="IT45" s="6">
         <v>-888.93190153226999</v>
@@ -33915,13 +33961,13 @@
         <v>-867.55716530515997</v>
       </c>
       <c r="JF45" s="6">
-        <v>2184.5821538779401</v>
+        <v>2484.5350703477602</v>
       </c>
       <c r="JG45" s="6">
-        <v>-181.43177073210001</v>
+        <v>-22.039965394936999</v>
       </c>
       <c r="JH45" s="6">
-        <v>-2723.2436030002</v>
+        <v>-2315.1969781819998</v>
       </c>
     </row>
     <row r="46" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -34388,7 +34434,7 @@
         <v>855.61685509047402</v>
       </c>
       <c r="EY46" s="6">
-        <v>66.058131452102799</v>
+        <v>66.0581314521027</v>
       </c>
       <c r="EZ46" s="6">
         <v>-69.591694052864</v>
@@ -34484,7 +34530,7 @@
         <v>471.65922555401897</v>
       </c>
       <c r="GE46" s="6">
-        <v>-7.2828591208061004</v>
+        <v>-7.2828591208060001</v>
       </c>
       <c r="GF46" s="6">
         <v>508.20111279245299</v>
@@ -34508,7 +34554,7 @@
         <v>982.52143414883597</v>
       </c>
       <c r="GM46" s="6">
-        <v>3.8803686465224501</v>
+        <v>3.8803686465224301</v>
       </c>
       <c r="GN46" s="6">
         <v>371.01544457758399</v>
@@ -34616,7 +34662,7 @@
         <v>6508.9877381938304</v>
       </c>
       <c r="HW46" s="6">
-        <v>-8.8364721929634005</v>
+        <v>-8.8364721929634999</v>
       </c>
       <c r="HX46" s="6">
         <v>1861.70091719889</v>
@@ -34721,10 +34767,10 @@
         <v>-54.677495194906001</v>
       </c>
       <c r="JF46" s="6">
-        <v>947.84372995360195</v>
+        <v>842.71220573716096</v>
       </c>
       <c r="JG46" s="6">
-        <v>606.98033491019805</v>
+        <v>685.28947606823601</v>
       </c>
       <c r="JH46" s="6">
         <v>1552.1277469752399</v>
@@ -35128,7 +35174,7 @@
         <v>90.854982519937494</v>
       </c>
       <c r="EC47" s="6">
-        <v>936.90082727667198</v>
+        <v>936.90082727667095</v>
       </c>
       <c r="ED47" s="6">
         <v>-612.20298137822999</v>
@@ -35269,7 +35315,7 @@
         <v>1533.5797686948499</v>
       </c>
       <c r="FX47" s="6">
-        <v>7.5673063601759099</v>
+        <v>7.5673063601758797</v>
       </c>
       <c r="FY47" s="6">
         <v>1465.5415679642199</v>
@@ -35458,7 +35504,7 @@
         <v>-525.49115684532001</v>
       </c>
       <c r="II47" s="6">
-        <v>377.70546658978401</v>
+        <v>377.70546658978299</v>
       </c>
       <c r="IJ47" s="6">
         <v>-95.702097770652998</v>
@@ -35527,10 +35573,10 @@
         <v>-82.623071473161005</v>
       </c>
       <c r="JF47" s="6">
-        <v>892.14234571582097</v>
+        <v>787.010821499381</v>
       </c>
       <c r="JG47" s="6">
-        <v>758.62230289152899</v>
+        <v>836.93144404956797</v>
       </c>
       <c r="JH47" s="6">
         <v>1746.2804896566299</v>
@@ -35540,330 +35586,114 @@
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BP48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BU48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BV48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BW48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BX48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BZ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CB48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CC48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CD48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CE48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CF48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CI48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CJ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CK48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CL48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CM48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CN48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CO48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CP48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CQ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CR48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CS48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CT48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CU48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CV48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CW48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CX48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CY48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CZ48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DA48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DB48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DC48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DD48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DE48" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="6"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="6"/>
+      <c r="BF48" s="6"/>
+      <c r="BG48" s="6"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="6"/>
+      <c r="BJ48" s="6"/>
+      <c r="BK48" s="6"/>
+      <c r="BL48" s="6"/>
+      <c r="BM48" s="6"/>
+      <c r="BN48" s="6"/>
+      <c r="BO48" s="6"/>
+      <c r="BP48" s="6"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48" s="6"/>
+      <c r="BS48" s="6"/>
+      <c r="BT48" s="6"/>
+      <c r="BU48" s="6"/>
+      <c r="BV48" s="6"/>
+      <c r="BW48" s="6"/>
+      <c r="BX48" s="6"/>
+      <c r="BY48" s="6"/>
+      <c r="BZ48" s="6"/>
+      <c r="CA48" s="6"/>
+      <c r="CB48" s="6"/>
+      <c r="CC48" s="6"/>
+      <c r="CD48" s="6"/>
+      <c r="CE48" s="6"/>
+      <c r="CF48" s="6"/>
+      <c r="CG48" s="6"/>
+      <c r="CH48" s="6"/>
+      <c r="CI48" s="6"/>
+      <c r="CJ48" s="6"/>
+      <c r="CK48" s="6"/>
+      <c r="CL48" s="6"/>
+      <c r="CM48" s="6"/>
+      <c r="CN48" s="6"/>
+      <c r="CO48" s="6"/>
+      <c r="CP48" s="6"/>
+      <c r="CQ48" s="6"/>
+      <c r="CR48" s="6"/>
+      <c r="CS48" s="6"/>
+      <c r="CT48" s="6"/>
+      <c r="CU48" s="6"/>
+      <c r="CV48" s="6"/>
+      <c r="CW48" s="6"/>
+      <c r="CX48" s="6"/>
+      <c r="CY48" s="6"/>
+      <c r="CZ48" s="6"/>
+      <c r="DA48" s="6"/>
+      <c r="DB48" s="6"/>
+      <c r="DC48" s="6"/>
+      <c r="DD48" s="6"/>
+      <c r="DE48" s="6"/>
       <c r="DF48" s="6">
         <v>-133.93937442293</v>
       </c>
@@ -36063,13 +35893,13 @@
         <v>2056.5373690061501</v>
       </c>
       <c r="FT48" s="6">
-        <v>258.23480483325898</v>
+        <v>258.23480483325801</v>
       </c>
       <c r="FU48" s="6">
-        <v>84.886529146104706</v>
+        <v>84.886529146104493</v>
       </c>
       <c r="FV48" s="6">
-        <v>264.53594740006298</v>
+        <v>264.535947400064</v>
       </c>
       <c r="FW48" s="6">
         <v>931.16329007058096</v>
@@ -36210,7 +36040,7 @@
         <v>7527.6940666050796</v>
       </c>
       <c r="HQ48" s="6">
-        <v>289.17198506816999</v>
+        <v>289.17198506816902</v>
       </c>
       <c r="HR48" s="6">
         <v>6502.7817623690198</v>
@@ -36333,10 +36163,10 @@
         <v>402.09355977688398</v>
       </c>
       <c r="JF48" s="6">
-        <v>518.251690971583</v>
+        <v>473.22609708532798</v>
       </c>
       <c r="JG48" s="6">
-        <v>392.22536942818101</v>
+        <v>420.79673968133699</v>
       </c>
       <c r="JH48" s="6">
         <v>1633.42706376613</v>
@@ -36344,332 +36174,116 @@
     </row>
     <row r="49" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BP49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BU49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BV49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BW49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BX49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BZ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CB49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CC49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CD49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CE49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CF49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CI49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CJ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CK49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CL49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CM49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CN49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CO49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CP49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CQ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CR49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CS49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CT49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CU49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CV49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CW49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CX49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CY49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="CZ49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DA49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DB49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DC49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DD49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="DE49" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="6"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="6"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="6"/>
+      <c r="BB49" s="6"/>
+      <c r="BC49" s="6"/>
+      <c r="BD49" s="6"/>
+      <c r="BE49" s="6"/>
+      <c r="BF49" s="6"/>
+      <c r="BG49" s="6"/>
+      <c r="BH49" s="6"/>
+      <c r="BI49" s="6"/>
+      <c r="BJ49" s="6"/>
+      <c r="BK49" s="6"/>
+      <c r="BL49" s="6"/>
+      <c r="BM49" s="6"/>
+      <c r="BN49" s="6"/>
+      <c r="BO49" s="6"/>
+      <c r="BP49" s="6"/>
+      <c r="BQ49" s="6"/>
+      <c r="BR49" s="6"/>
+      <c r="BS49" s="6"/>
+      <c r="BT49" s="6"/>
+      <c r="BU49" s="6"/>
+      <c r="BV49" s="6"/>
+      <c r="BW49" s="6"/>
+      <c r="BX49" s="6"/>
+      <c r="BY49" s="6"/>
+      <c r="BZ49" s="6"/>
+      <c r="CA49" s="6"/>
+      <c r="CB49" s="6"/>
+      <c r="CC49" s="6"/>
+      <c r="CD49" s="6"/>
+      <c r="CE49" s="6"/>
+      <c r="CF49" s="6"/>
+      <c r="CG49" s="6"/>
+      <c r="CH49" s="6"/>
+      <c r="CI49" s="6"/>
+      <c r="CJ49" s="6"/>
+      <c r="CK49" s="6"/>
+      <c r="CL49" s="6"/>
+      <c r="CM49" s="6"/>
+      <c r="CN49" s="6"/>
+      <c r="CO49" s="6"/>
+      <c r="CP49" s="6"/>
+      <c r="CQ49" s="6"/>
+      <c r="CR49" s="6"/>
+      <c r="CS49" s="6"/>
+      <c r="CT49" s="6"/>
+      <c r="CU49" s="6"/>
+      <c r="CV49" s="6"/>
+      <c r="CW49" s="6"/>
+      <c r="CX49" s="6"/>
+      <c r="CY49" s="6"/>
+      <c r="CZ49" s="6"/>
+      <c r="DA49" s="6"/>
+      <c r="DB49" s="6"/>
+      <c r="DC49" s="6"/>
+      <c r="DD49" s="6"/>
+      <c r="DE49" s="6"/>
       <c r="DF49" s="6">
         <v>0</v>
       </c>
@@ -37139,10 +36753,10 @@
         <v>-484.71663125005</v>
       </c>
       <c r="JF49" s="6">
-        <v>373.89065474423802</v>
+        <v>313.78472441405199</v>
       </c>
       <c r="JG49" s="6">
-        <v>366.39693346334798</v>
+        <v>416.13470436823098</v>
       </c>
       <c r="JH49" s="6">
         <v>112.853425890501</v>
@@ -37297,7 +36911,7 @@
         <v>-284.44109144427</v>
       </c>
       <c r="AX50" s="6">
-        <v>9.2960570777539893</v>
+        <v>9.2960570777539999</v>
       </c>
       <c r="AY50" s="6">
         <v>17.339454733293799</v>
@@ -37438,7 +37052,7 @@
         <v>10.5461902206826</v>
       </c>
       <c r="CS50" s="6">
-        <v>85.441177636803701</v>
+        <v>85.441177636803602</v>
       </c>
       <c r="CT50" s="6">
         <v>191.33786459384999</v>
@@ -37885,7 +37499,7 @@
         <v>-92.361741699153001</v>
       </c>
       <c r="IL50" s="6">
-        <v>7.8112952530877102</v>
+        <v>7.81129525308768</v>
       </c>
       <c r="IM50" s="6">
         <v>-868.09274635465999</v>
@@ -37956,7 +37570,7 @@
     </row>
     <row r="51" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="6">
         <v>20.160676840000001</v>
@@ -38761,1082 +38375,1082 @@
       </c>
     </row>
     <row r="52" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="A52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="14">
         <v>19.34872678</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="14">
         <v>37.452131880000003</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="14">
         <v>10.06766826</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="14">
         <v>8.3275564699999993</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="14">
         <v>18.888182109999999</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="14">
         <v>28.547767019999998</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="14">
         <v>18.450947970000001</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="14">
         <v>14.317201300000001</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="14">
         <v>4.0277391400000004</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="14">
         <v>46.831771809999999</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="14">
         <v>11.375770449999999</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="14">
         <v>24.019598129999999</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="14">
         <v>-1.80278552</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="14">
         <v>7.67393795</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="14">
         <v>23.517354739999998</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="14">
         <v>43.065930479999999</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="14">
         <v>-59.182567130000002</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="14">
         <v>-8.5855378499999997</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="14">
         <v>25.750414920000001</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U52" s="14">
         <v>38.16650207</v>
       </c>
-      <c r="V52" s="6">
+      <c r="V52" s="14">
         <v>4.3579325600000001</v>
       </c>
-      <c r="W52" s="6">
+      <c r="W52" s="14">
         <v>6.7543364300000004</v>
       </c>
-      <c r="X52" s="6">
+      <c r="X52" s="14">
         <v>52.151176390000003</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Y52" s="14">
         <v>5.3590540799999999</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="Z52" s="14">
         <v>-10.452469637771999</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AA52" s="14">
         <v>20.3764540029232</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AB52" s="14">
         <v>15.1256656866314</v>
       </c>
-      <c r="AC52" s="6">
+      <c r="AC52" s="14">
         <v>66.326070792441598</v>
       </c>
-      <c r="AD52" s="6">
+      <c r="AD52" s="14">
         <v>-22.892244955227</v>
       </c>
-      <c r="AE52" s="6">
+      <c r="AE52" s="14">
         <v>-0.37555051886230001</v>
       </c>
-      <c r="AF52" s="6">
+      <c r="AF52" s="14">
         <v>83.3592618212014</v>
       </c>
-      <c r="AG52" s="6">
+      <c r="AG52" s="14">
         <v>51.150685709031798</v>
       </c>
-      <c r="AH52" s="6">
+      <c r="AH52" s="14">
         <v>52.950869436857701</v>
       </c>
-      <c r="AI52" s="6">
+      <c r="AI52" s="14">
         <v>93.151937643472806</v>
       </c>
-      <c r="AJ52" s="6">
+      <c r="AJ52" s="14">
         <v>105.54455920865399</v>
       </c>
-      <c r="AK52" s="6">
+      <c r="AK52" s="14">
         <v>487.10057612114701</v>
       </c>
-      <c r="AL52" s="6">
+      <c r="AL52" s="14">
         <v>-9.7378929999999997</v>
       </c>
-      <c r="AM52" s="6">
+      <c r="AM52" s="14">
         <v>82.424042020000002</v>
       </c>
-      <c r="AN52" s="6">
+      <c r="AN52" s="14">
         <v>-78.303358979999999</v>
       </c>
-      <c r="AO52" s="6">
+      <c r="AO52" s="14">
         <v>44.549262390000003</v>
       </c>
-      <c r="AP52" s="6">
+      <c r="AP52" s="14">
         <v>31.400760040000002</v>
       </c>
-      <c r="AQ52" s="6">
+      <c r="AQ52" s="14">
         <v>115.66767833</v>
       </c>
-      <c r="AR52" s="6">
+      <c r="AR52" s="14">
         <v>-94.414216569999994</v>
       </c>
-      <c r="AS52" s="6">
+      <c r="AS52" s="14">
         <v>83.537460190000004</v>
       </c>
-      <c r="AT52" s="6">
+      <c r="AT52" s="14">
         <v>-16.295698789999999</v>
       </c>
-      <c r="AU52" s="6">
+      <c r="AU52" s="14">
         <v>152.45959958</v>
       </c>
-      <c r="AV52" s="6">
+      <c r="AV52" s="14">
         <v>-32.647572879999998</v>
       </c>
-      <c r="AW52" s="6">
+      <c r="AW52" s="14">
         <v>90.175303769999999</v>
       </c>
-      <c r="AX52" s="6">
+      <c r="AX52" s="14">
         <v>92.546823829999994</v>
       </c>
-      <c r="AY52" s="6">
+      <c r="AY52" s="14">
         <v>46.342999020000001</v>
       </c>
-      <c r="AZ52" s="6">
+      <c r="AZ52" s="14">
         <v>-119.34307552999999</v>
       </c>
-      <c r="BA52" s="6">
+      <c r="BA52" s="14">
         <v>58.486539909999998</v>
       </c>
-      <c r="BB52" s="6">
+      <c r="BB52" s="14">
         <v>48.82140313</v>
       </c>
-      <c r="BC52" s="6">
+      <c r="BC52" s="14">
         <v>26.297892959999999</v>
       </c>
-      <c r="BD52" s="6">
+      <c r="BD52" s="14">
         <v>97.911526989999999</v>
       </c>
-      <c r="BE52" s="6">
+      <c r="BE52" s="14">
         <v>-12.15140766</v>
       </c>
-      <c r="BF52" s="6">
+      <c r="BF52" s="14">
         <v>73.198390840000002</v>
       </c>
-      <c r="BG52" s="6">
+      <c r="BG52" s="14">
         <v>219.3696118</v>
       </c>
-      <c r="BH52" s="6">
+      <c r="BH52" s="14">
         <v>152.58089201999999</v>
       </c>
-      <c r="BI52" s="6">
+      <c r="BI52" s="14">
         <v>-139.29583898000001</v>
       </c>
-      <c r="BJ52" s="6">
+      <c r="BJ52" s="14">
         <v>78.324969392702997</v>
       </c>
-      <c r="BK52" s="6">
+      <c r="BK52" s="14">
         <v>57.435447202977997</v>
       </c>
-      <c r="BL52" s="6">
+      <c r="BL52" s="14">
         <v>151.675972271896</v>
       </c>
-      <c r="BM52" s="6">
+      <c r="BM52" s="14">
         <v>133.08576886398399</v>
       </c>
-      <c r="BN52" s="6">
+      <c r="BN52" s="14">
         <v>207.91237688202199</v>
       </c>
-      <c r="BO52" s="6">
+      <c r="BO52" s="14">
         <v>80.261684780121001</v>
       </c>
-      <c r="BP52" s="6">
+      <c r="BP52" s="14">
         <v>115.215220983652</v>
       </c>
-      <c r="BQ52" s="6">
+      <c r="BQ52" s="14">
         <v>87.518932607234007</v>
       </c>
-      <c r="BR52" s="6">
+      <c r="BR52" s="14">
         <v>250.86916057525301</v>
       </c>
-      <c r="BS52" s="6">
+      <c r="BS52" s="14">
         <v>141.70397187586499</v>
       </c>
-      <c r="BT52" s="6">
+      <c r="BT52" s="14">
         <v>123.936358314163</v>
       </c>
-      <c r="BU52" s="6">
+      <c r="BU52" s="14">
         <v>42.601056195753998</v>
       </c>
-      <c r="BV52" s="6">
+      <c r="BV52" s="14">
         <v>-23.21857057703</v>
       </c>
-      <c r="BW52" s="6">
+      <c r="BW52" s="14">
         <v>44.164707959985002</v>
       </c>
-      <c r="BX52" s="6">
+      <c r="BX52" s="14">
         <v>21.280525355388999</v>
       </c>
-      <c r="BY52" s="6">
+      <c r="BY52" s="14">
         <v>14.585857853193</v>
       </c>
-      <c r="BZ52" s="6">
+      <c r="BZ52" s="14">
         <v>-41.625239209139004</v>
       </c>
-      <c r="CA52" s="6">
+      <c r="CA52" s="14">
         <v>68.286890959369998</v>
       </c>
-      <c r="CB52" s="6">
+      <c r="CB52" s="14">
         <v>17.322460787962999</v>
       </c>
-      <c r="CC52" s="6">
+      <c r="CC52" s="14">
         <v>80.195051067766002</v>
       </c>
-      <c r="CD52" s="6">
+      <c r="CD52" s="14">
         <v>138.43080677725601</v>
       </c>
-      <c r="CE52" s="6">
+      <c r="CE52" s="14">
         <v>22.804765206494</v>
       </c>
-      <c r="CF52" s="6">
+      <c r="CF52" s="14">
         <v>27.486701870192999</v>
       </c>
-      <c r="CG52" s="6">
+      <c r="CG52" s="14">
         <v>-87.666602861558999</v>
       </c>
-      <c r="CH52" s="6">
+      <c r="CH52" s="14">
         <v>331.43117014793103</v>
       </c>
-      <c r="CI52" s="6">
+      <c r="CI52" s="14">
         <v>203.49101598361901</v>
       </c>
-      <c r="CJ52" s="6">
+      <c r="CJ52" s="14">
         <v>443.49962750815598</v>
       </c>
-      <c r="CK52" s="6">
+      <c r="CK52" s="14">
         <v>314.83663706820403</v>
       </c>
-      <c r="CL52" s="6">
+      <c r="CL52" s="14">
         <v>-10.833708733944</v>
       </c>
-      <c r="CM52" s="6">
+      <c r="CM52" s="14">
         <v>29.179205492360001</v>
       </c>
-      <c r="CN52" s="6">
+      <c r="CN52" s="14">
         <v>170.100635185556</v>
       </c>
-      <c r="CO52" s="6">
+      <c r="CO52" s="14">
         <v>71.752893650337896</v>
       </c>
-      <c r="CP52" s="6">
+      <c r="CP52" s="14">
         <v>89.749945844698999</v>
       </c>
-      <c r="CQ52" s="6">
+      <c r="CQ52" s="14">
         <v>604.00053164488202</v>
       </c>
-      <c r="CR52" s="6">
+      <c r="CR52" s="14">
         <v>113.897991586028</v>
       </c>
-      <c r="CS52" s="6">
+      <c r="CS52" s="14">
         <v>327.90769121029001</v>
       </c>
-      <c r="CT52" s="6">
+      <c r="CT52" s="14">
         <v>245.241772617019</v>
       </c>
-      <c r="CU52" s="6">
+      <c r="CU52" s="14">
         <v>84.769914145300206</v>
       </c>
-      <c r="CV52" s="6">
+      <c r="CV52" s="14">
         <v>352.83809271765398</v>
       </c>
-      <c r="CW52" s="6">
+      <c r="CW52" s="14">
         <v>109.700628239298</v>
       </c>
-      <c r="CX52" s="6">
+      <c r="CX52" s="14">
         <v>469.73005376680698</v>
       </c>
-      <c r="CY52" s="6">
+      <c r="CY52" s="14">
         <v>676.79856468218202</v>
       </c>
-      <c r="CZ52" s="6">
+      <c r="CZ52" s="14">
         <v>461.69338141543801</v>
       </c>
-      <c r="DA52" s="6">
+      <c r="DA52" s="14">
         <v>299.32294322145702</v>
       </c>
-      <c r="DB52" s="6">
+      <c r="DB52" s="14">
         <v>223.900580293632</v>
       </c>
-      <c r="DC52" s="6">
+      <c r="DC52" s="14">
         <v>193.30553910988601</v>
       </c>
-      <c r="DD52" s="6">
+      <c r="DD52" s="14">
         <v>419.27522863151597</v>
       </c>
-      <c r="DE52" s="6">
+      <c r="DE52" s="14">
         <v>561.98861141963698</v>
       </c>
-      <c r="DF52" s="6">
+      <c r="DF52" s="14">
         <v>421.68265006618401</v>
       </c>
-      <c r="DG52" s="6">
+      <c r="DG52" s="14">
         <v>505.94115374031799</v>
       </c>
-      <c r="DH52" s="6">
+      <c r="DH52" s="14">
         <v>494.96110984587398</v>
       </c>
-      <c r="DI52" s="6">
+      <c r="DI52" s="14">
         <v>549.10405533118001</v>
       </c>
-      <c r="DJ52" s="6">
+      <c r="DJ52" s="14">
         <v>7.7285346092436402</v>
       </c>
-      <c r="DK52" s="6">
+      <c r="DK52" s="14">
         <v>693.26159029153803</v>
       </c>
-      <c r="DL52" s="6">
+      <c r="DL52" s="14">
         <v>215.92108795567199</v>
       </c>
-      <c r="DM52" s="6">
+      <c r="DM52" s="14">
         <v>415.54209222877603</v>
       </c>
-      <c r="DN52" s="6">
+      <c r="DN52" s="14">
         <v>412.82205029161599</v>
       </c>
-      <c r="DO52" s="6">
+      <c r="DO52" s="14">
         <v>378.31076942469099</v>
       </c>
-      <c r="DP52" s="6">
+      <c r="DP52" s="14">
         <v>243.012370415655</v>
       </c>
-      <c r="DQ52" s="6">
+      <c r="DQ52" s="14">
         <v>611.736924960789</v>
       </c>
-      <c r="DR52" s="6">
+      <c r="DR52" s="14">
         <v>720.83622358950799</v>
       </c>
-      <c r="DS52" s="6">
+      <c r="DS52" s="14">
         <v>282.41635440894498</v>
       </c>
-      <c r="DT52" s="6">
+      <c r="DT52" s="14">
         <v>844.10484705510305</v>
       </c>
-      <c r="DU52" s="6">
+      <c r="DU52" s="14">
         <v>478.98368078583798</v>
       </c>
-      <c r="DV52" s="6">
+      <c r="DV52" s="14">
         <v>513.84433379916197</v>
       </c>
-      <c r="DW52" s="6">
+      <c r="DW52" s="14">
         <v>476.39784431510299</v>
       </c>
-      <c r="DX52" s="6">
+      <c r="DX52" s="14">
         <v>371.68281368714901</v>
       </c>
-      <c r="DY52" s="6">
+      <c r="DY52" s="14">
         <v>301.94706989404102</v>
       </c>
-      <c r="DZ52" s="6">
+      <c r="DZ52" s="14">
         <v>612.49904098694901</v>
       </c>
-      <c r="EA52" s="6">
+      <c r="EA52" s="14">
         <v>6.0236161818065996</v>
       </c>
-      <c r="EB52" s="6">
+      <c r="EB52" s="14">
         <v>310.92534356512101</v>
       </c>
-      <c r="EC52" s="6">
+      <c r="EC52" s="14">
         <v>163.17636438658801</v>
       </c>
-      <c r="ED52" s="6">
+      <c r="ED52" s="14">
         <v>90.7532943924611</v>
       </c>
-      <c r="EE52" s="6">
+      <c r="EE52" s="14">
         <v>183.49108773269799</v>
       </c>
-      <c r="EF52" s="6">
+      <c r="EF52" s="14">
         <v>288.39349839983203</v>
       </c>
-      <c r="EG52" s="6">
+      <c r="EG52" s="14">
         <v>269.26888680493897</v>
       </c>
-      <c r="EH52" s="6">
+      <c r="EH52" s="14">
         <v>485.21785632631901</v>
       </c>
-      <c r="EI52" s="6">
+      <c r="EI52" s="14">
         <v>307.07691781884103</v>
       </c>
-      <c r="EJ52" s="6">
+      <c r="EJ52" s="14">
         <v>447.68102234219799</v>
       </c>
-      <c r="EK52" s="6">
+      <c r="EK52" s="14">
         <v>394.430503584875</v>
       </c>
-      <c r="EL52" s="6">
+      <c r="EL52" s="14">
         <v>-129.37857123689</v>
       </c>
-      <c r="EM52" s="6">
+      <c r="EM52" s="14">
         <v>-154.33145316123</v>
       </c>
-      <c r="EN52" s="6">
+      <c r="EN52" s="14">
         <v>59.241836000747902</v>
       </c>
-      <c r="EO52" s="6">
+      <c r="EO52" s="14">
         <v>-72.909809170545998</v>
       </c>
-      <c r="EP52" s="6">
+      <c r="EP52" s="14">
         <v>98.506904799667794</v>
       </c>
-      <c r="EQ52" s="6">
+      <c r="EQ52" s="14">
         <v>133.15707386479099</v>
       </c>
-      <c r="ER52" s="6">
+      <c r="ER52" s="14">
         <v>-139.43616721302001</v>
       </c>
-      <c r="ES52" s="6">
+      <c r="ES52" s="14">
         <v>215.92927123810799</v>
       </c>
-      <c r="ET52" s="6">
+      <c r="ET52" s="14">
         <v>25.1814876126192</v>
       </c>
-      <c r="EU52" s="6">
+      <c r="EU52" s="14">
         <v>-195.76269609932001</v>
       </c>
-      <c r="EV52" s="6">
+      <c r="EV52" s="14">
         <v>-12.852803131071999</v>
       </c>
-      <c r="EW52" s="6">
+      <c r="EW52" s="14">
         <v>-55.098361783173999</v>
       </c>
-      <c r="EX52" s="6">
+      <c r="EX52" s="14">
         <v>9.2356625394163707</v>
       </c>
-      <c r="EY52" s="6">
+      <c r="EY52" s="14">
         <v>210.14621152101299</v>
       </c>
-      <c r="EZ52" s="6">
+      <c r="EZ52" s="14">
         <v>70.098037541590401</v>
       </c>
-      <c r="FA52" s="6">
+      <c r="FA52" s="14">
         <v>-261.21219010597002</v>
       </c>
-      <c r="FB52" s="6">
+      <c r="FB52" s="14">
         <v>-98.448758417769994</v>
       </c>
-      <c r="FC52" s="6">
+      <c r="FC52" s="14">
         <v>173.01049708093399</v>
       </c>
-      <c r="FD52" s="6">
+      <c r="FD52" s="14">
         <v>119.153239887102</v>
       </c>
-      <c r="FE52" s="6">
+      <c r="FE52" s="14">
         <v>439.062224160553</v>
       </c>
-      <c r="FF52" s="6">
+      <c r="FF52" s="14">
         <v>91.476210263724397</v>
       </c>
-      <c r="FG52" s="6">
+      <c r="FG52" s="14">
         <v>-67.813622821546005</v>
       </c>
-      <c r="FH52" s="6">
+      <c r="FH52" s="14">
         <v>447.60183277802099</v>
       </c>
-      <c r="FI52" s="6">
+      <c r="FI52" s="14">
         <v>78.966751354804302</v>
       </c>
-      <c r="FJ52" s="6">
+      <c r="FJ52" s="14">
         <v>91.644657971118207</v>
       </c>
-      <c r="FK52" s="6">
+      <c r="FK52" s="14">
         <v>71.697142556896395</v>
       </c>
-      <c r="FL52" s="6">
+      <c r="FL52" s="14">
         <v>26.903418840273002</v>
       </c>
-      <c r="FM52" s="6">
+      <c r="FM52" s="14">
         <v>27.309513969361301</v>
       </c>
-      <c r="FN52" s="6">
+      <c r="FN52" s="14">
         <v>125.002365379888</v>
       </c>
-      <c r="FO52" s="6">
+      <c r="FO52" s="14">
         <v>-298.49641143762</v>
       </c>
-      <c r="FP52" s="6">
+      <c r="FP52" s="14">
         <v>443.19993471411499</v>
       </c>
-      <c r="FQ52" s="6">
+      <c r="FQ52" s="14">
         <v>31.8575640879248</v>
       </c>
-      <c r="FR52" s="6">
+      <c r="FR52" s="14">
         <v>-164.19283348984999</v>
       </c>
-      <c r="FS52" s="6">
+      <c r="FS52" s="14">
         <v>40.924330282671598</v>
       </c>
-      <c r="FT52" s="6">
+      <c r="FT52" s="14">
         <v>334.39098088818201</v>
       </c>
-      <c r="FU52" s="6">
+      <c r="FU52" s="14">
         <v>-48.861639473802001</v>
       </c>
-      <c r="FV52" s="6">
+      <c r="FV52" s="14">
         <v>-26.069258754063998</v>
       </c>
-      <c r="FW52" s="6">
+      <c r="FW52" s="14">
         <v>297.44287848404201</v>
       </c>
-      <c r="FX52" s="6">
+      <c r="FX52" s="14">
         <v>171.52850856509801</v>
       </c>
-      <c r="FY52" s="6">
+      <c r="FY52" s="14">
         <v>208.987581922034</v>
       </c>
-      <c r="FZ52" s="6">
+      <c r="FZ52" s="14">
         <v>-49.073033298650998</v>
       </c>
-      <c r="GA52" s="6">
+      <c r="GA52" s="14">
         <v>-44.473109410503</v>
       </c>
-      <c r="GB52" s="6">
+      <c r="GB52" s="14">
         <v>-304.54318773247002</v>
       </c>
-      <c r="GC52" s="6">
+      <c r="GC52" s="14">
         <v>-99.634499118329003</v>
       </c>
-      <c r="GD52" s="6">
+      <c r="GD52" s="14">
         <v>14.3999677281559</v>
       </c>
-      <c r="GE52" s="6">
+      <c r="GE52" s="14">
         <v>-533.49637983411003</v>
       </c>
-      <c r="GF52" s="6">
+      <c r="GF52" s="14">
         <v>280.59723727070798</v>
       </c>
-      <c r="GG52" s="6">
+      <c r="GG52" s="14">
         <v>250.338848535061</v>
       </c>
-      <c r="GH52" s="6">
+      <c r="GH52" s="14">
         <v>-9.1496138833072003</v>
       </c>
-      <c r="GI52" s="6">
+      <c r="GI52" s="14">
         <v>396.16377274953999</v>
       </c>
-      <c r="GJ52" s="6">
+      <c r="GJ52" s="14">
         <v>197.28688644376601</v>
       </c>
-      <c r="GK52" s="6">
+      <c r="GK52" s="14">
         <v>145.28463152561901</v>
       </c>
-      <c r="GL52" s="6">
+      <c r="GL52" s="14">
         <v>516.840354923885</v>
       </c>
-      <c r="GM52" s="6">
+      <c r="GM52" s="14">
         <v>243.873743307301</v>
       </c>
-      <c r="GN52" s="6">
+      <c r="GN52" s="14">
         <v>150.31963429090499</v>
       </c>
-      <c r="GO52" s="6">
+      <c r="GO52" s="14">
         <v>-436.28567617339002</v>
       </c>
-      <c r="GP52" s="6">
+      <c r="GP52" s="14">
         <v>-359.99463112889998</v>
       </c>
-      <c r="GQ52" s="6">
+      <c r="GQ52" s="14">
         <v>304.23575211876403</v>
       </c>
-      <c r="GR52" s="6">
+      <c r="GR52" s="14">
         <v>629.38002703852499</v>
       </c>
-      <c r="GS52" s="6">
+      <c r="GS52" s="14">
         <v>136.552997960808</v>
       </c>
-      <c r="GT52" s="6">
+      <c r="GT52" s="14">
         <v>176.14179787129299</v>
       </c>
-      <c r="GU52" s="6">
+      <c r="GU52" s="14">
         <v>17.618007881802601</v>
       </c>
-      <c r="GV52" s="6">
+      <c r="GV52" s="14">
         <v>1032.2909153064199</v>
       </c>
-      <c r="GW52" s="6">
+      <c r="GW52" s="14">
         <v>297.08545915537297</v>
       </c>
-      <c r="GX52" s="6">
+      <c r="GX52" s="14">
         <v>500.735310618352</v>
       </c>
-      <c r="GY52" s="6">
+      <c r="GY52" s="14">
         <v>151.17224012149501</v>
       </c>
-      <c r="GZ52" s="6">
+      <c r="GZ52" s="14">
         <v>-425.25220564699998</v>
       </c>
-      <c r="HA52" s="6">
+      <c r="HA52" s="14">
         <v>31.169869308095301</v>
       </c>
-      <c r="HB52" s="6">
+      <c r="HB52" s="14">
         <v>367.00850021646897</v>
       </c>
-      <c r="HC52" s="6">
+      <c r="HC52" s="14">
         <v>-297.82208985866998</v>
       </c>
-      <c r="HD52" s="6">
+      <c r="HD52" s="14">
         <v>-34.606433585471997</v>
       </c>
-      <c r="HE52" s="6">
+      <c r="HE52" s="14">
         <v>-70.095105380484</v>
       </c>
-      <c r="HF52" s="6">
+      <c r="HF52" s="14">
         <v>-203.85093354668999</v>
       </c>
-      <c r="HG52" s="6">
+      <c r="HG52" s="14">
         <v>-90.938673566527996</v>
       </c>
-      <c r="HH52" s="6">
+      <c r="HH52" s="14">
         <v>-26.10105005294</v>
       </c>
-      <c r="HI52" s="6">
+      <c r="HI52" s="14">
         <v>-104.96390638203</v>
       </c>
-      <c r="HJ52" s="6">
+      <c r="HJ52" s="14">
         <v>12.688411400253599</v>
       </c>
-      <c r="HK52" s="6">
+      <c r="HK52" s="14">
         <v>-65.451930112127997</v>
       </c>
-      <c r="HL52" s="6">
+      <c r="HL52" s="14">
         <v>85.575782890327204</v>
       </c>
-      <c r="HM52" s="6">
+      <c r="HM52" s="14">
         <v>-24.071843308201998</v>
       </c>
-      <c r="HN52" s="6">
+      <c r="HN52" s="14">
         <v>119.391605294792</v>
       </c>
-      <c r="HO52" s="6">
+      <c r="HO52" s="14">
         <v>188.74964397259799</v>
       </c>
-      <c r="HP52" s="6">
+      <c r="HP52" s="14">
         <v>146.19868549078299</v>
       </c>
-      <c r="HQ52" s="6">
+      <c r="HQ52" s="14">
         <v>-139.48805316751</v>
       </c>
-      <c r="HR52" s="6">
+      <c r="HR52" s="14">
         <v>252.33742961214099</v>
       </c>
-      <c r="HS52" s="6">
+      <c r="HS52" s="14">
         <v>314.29470813909001</v>
       </c>
-      <c r="HT52" s="6">
+      <c r="HT52" s="14">
         <v>590.02815829375902</v>
       </c>
-      <c r="HU52" s="6">
+      <c r="HU52" s="14">
         <v>117.018671586381</v>
       </c>
-      <c r="HV52" s="6">
+      <c r="HV52" s="14">
         <v>13.5560664383559</v>
       </c>
-      <c r="HW52" s="6">
+      <c r="HW52" s="14">
         <v>-28.739400721610998</v>
       </c>
-      <c r="HX52" s="6">
+      <c r="HX52" s="14">
         <v>331.93253288907601</v>
       </c>
-      <c r="HY52" s="6">
+      <c r="HY52" s="14">
         <v>96.2338168020528</v>
       </c>
-      <c r="HZ52" s="6">
+      <c r="HZ52" s="14">
         <v>-28.275851686965002</v>
       </c>
-      <c r="IA52" s="6">
+      <c r="IA52" s="14">
         <v>291.50018158953998</v>
       </c>
-      <c r="IB52" s="6">
+      <c r="IB52" s="14">
         <v>136.22735718381901</v>
       </c>
-      <c r="IC52" s="6">
+      <c r="IC52" s="14">
         <v>102.317087149206</v>
       </c>
-      <c r="ID52" s="6">
+      <c r="ID52" s="14">
         <v>-58.327380982671997</v>
       </c>
-      <c r="IE52" s="6">
+      <c r="IE52" s="14">
         <v>-11.882960774328</v>
       </c>
-      <c r="IF52" s="6">
+      <c r="IF52" s="14">
         <v>6740.8721743897004</v>
       </c>
-      <c r="IG52" s="6">
+      <c r="IG52" s="14">
         <v>216.253185966643</v>
       </c>
-      <c r="IH52" s="6">
+      <c r="IH52" s="14">
         <v>271.95944555776998</v>
       </c>
-      <c r="II52" s="6">
+      <c r="II52" s="14">
         <v>48.188570746557097</v>
       </c>
-      <c r="IJ52" s="6">
+      <c r="IJ52" s="14">
         <v>-194.75158619442999</v>
       </c>
-      <c r="IK52" s="6">
+      <c r="IK52" s="14">
         <v>38.629804777317403</v>
       </c>
-      <c r="IL52" s="6">
+      <c r="IL52" s="14">
         <v>183.68383627698501</v>
       </c>
-      <c r="IM52" s="6">
+      <c r="IM52" s="14">
         <v>-636.34285212835005</v>
       </c>
-      <c r="IN52" s="6">
+      <c r="IN52" s="14">
         <v>60.483225870466804</v>
       </c>
-      <c r="IO52" s="6">
+      <c r="IO52" s="14">
         <v>206.04712247480299</v>
       </c>
-      <c r="IP52" s="6">
+      <c r="IP52" s="14">
         <v>-13.190928337991</v>
       </c>
-      <c r="IQ52" s="6">
+      <c r="IQ52" s="14">
         <v>33.815184193618101</v>
       </c>
-      <c r="IR52" s="6">
+      <c r="IR52" s="14">
         <v>-68.423024719517002</v>
       </c>
-      <c r="IS52" s="6">
-        <v>71.932652612310306</v>
-      </c>
-      <c r="IT52" s="6">
+      <c r="IS52" s="14">
+        <v>71.932652612310406</v>
+      </c>
+      <c r="IT52" s="14">
         <v>-36.193447435605997</v>
       </c>
-      <c r="IU52" s="6">
+      <c r="IU52" s="14">
         <v>237.89350877990799</v>
       </c>
-      <c r="IV52" s="6">
+      <c r="IV52" s="14">
         <v>-16.710918420397999</v>
       </c>
-      <c r="IW52" s="6">
+      <c r="IW52" s="14">
         <v>-84.062082032313995</v>
       </c>
-      <c r="IX52" s="6">
+      <c r="IX52" s="14">
         <v>-32.796000212172999</v>
       </c>
-      <c r="IY52" s="6">
+      <c r="IY52" s="14">
         <v>-174.00507133189001</v>
       </c>
-      <c r="IZ52" s="6">
+      <c r="IZ52" s="14">
         <v>-1675.0004284193001</v>
       </c>
-      <c r="JA52" s="6">
+      <c r="JA52" s="14">
         <v>-473.7847540981</v>
       </c>
-      <c r="JB52" s="6">
+      <c r="JB52" s="14">
         <v>18.0346705447324</v>
       </c>
-      <c r="JC52" s="6">
+      <c r="JC52" s="14">
         <v>181.45007859148899</v>
       </c>
-      <c r="JD52" s="6">
+      <c r="JD52" s="14">
         <v>-273.45374420457</v>
       </c>
-      <c r="JE52" s="6">
-        <v>5.80891748997416</v>
-      </c>
-      <c r="JF52" s="6">
+      <c r="JE52" s="14">
+        <v>5.8089174899741796</v>
+      </c>
+      <c r="JF52" s="14">
         <v>-23.042052443980999</v>
       </c>
-      <c r="JG52" s="6">
+      <c r="JG52" s="14">
         <v>-114.98800287938001</v>
       </c>
-      <c r="JH52" s="6">
+      <c r="JH52" s="14">
         <v>-184.65248463869</v>
       </c>
     </row>
     <row r="54" spans="1:268" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
-      <c r="AN54" s="12"/>
-      <c r="AO54" s="12"/>
-      <c r="AP54" s="12"/>
-      <c r="AQ54" s="12"/>
-      <c r="AR54" s="12"/>
-      <c r="AS54" s="12"/>
-      <c r="AT54" s="12"/>
-      <c r="AU54" s="12"/>
-      <c r="AV54" s="12"/>
-      <c r="AW54" s="12"/>
-      <c r="AX54" s="12"/>
-      <c r="AY54" s="12"/>
-      <c r="AZ54" s="12"/>
-      <c r="BA54" s="12"/>
-      <c r="BB54" s="12"/>
-      <c r="BC54" s="12"/>
-      <c r="BD54" s="12"/>
-      <c r="BE54" s="12"/>
-      <c r="BF54" s="12"/>
-      <c r="BG54" s="12"/>
-      <c r="BH54" s="12"/>
-      <c r="BI54" s="12"/>
-      <c r="BJ54" s="12"/>
-      <c r="BK54" s="12"/>
-      <c r="BL54" s="12"/>
-      <c r="BM54" s="12"/>
-      <c r="BN54" s="12"/>
-      <c r="BO54" s="12"/>
-      <c r="BP54" s="12"/>
-      <c r="BQ54" s="12"/>
-      <c r="BR54" s="12"/>
-      <c r="BS54" s="12"/>
-      <c r="BT54" s="12"/>
-      <c r="BU54" s="12"/>
-      <c r="BV54" s="12"/>
-      <c r="BW54" s="12"/>
-      <c r="BX54" s="12"/>
-      <c r="BY54" s="12"/>
-      <c r="BZ54" s="12"/>
-      <c r="CA54" s="12"/>
-      <c r="CB54" s="12"/>
-      <c r="CC54" s="12"/>
-      <c r="CD54" s="12"/>
-      <c r="CE54" s="12"/>
-      <c r="CF54" s="12"/>
-      <c r="CG54" s="12"/>
-      <c r="CH54" s="12"/>
-      <c r="CI54" s="12"/>
-      <c r="CJ54" s="12"/>
-      <c r="CK54" s="12"/>
-      <c r="CL54" s="12"/>
-      <c r="CM54" s="12"/>
-      <c r="CN54" s="12"/>
-      <c r="CO54" s="12"/>
-      <c r="CP54" s="12"/>
-      <c r="CQ54" s="12"/>
-      <c r="CR54" s="12"/>
-      <c r="CS54" s="12"/>
-      <c r="CT54" s="12"/>
-      <c r="CU54" s="12"/>
-      <c r="CV54" s="12"/>
-      <c r="CW54" s="12"/>
-      <c r="CX54" s="12"/>
-      <c r="CY54" s="12"/>
-      <c r="CZ54" s="12"/>
-      <c r="DA54" s="12"/>
-      <c r="DB54" s="12"/>
-      <c r="DC54" s="12"/>
-      <c r="DD54" s="12"/>
-      <c r="DE54" s="12"/>
-      <c r="DF54" s="12"/>
-      <c r="DG54" s="12"/>
-      <c r="DH54" s="12"/>
-      <c r="DI54" s="12"/>
-      <c r="DJ54" s="12"/>
-      <c r="DK54" s="12"/>
-      <c r="DL54" s="12"/>
-      <c r="DM54" s="12"/>
-      <c r="DN54" s="12"/>
-      <c r="DO54" s="12"/>
-      <c r="DP54" s="12"/>
-      <c r="DQ54" s="12"/>
-      <c r="DR54" s="12"/>
-      <c r="DS54" s="12"/>
-      <c r="DT54" s="12"/>
-      <c r="DU54" s="12"/>
-      <c r="DV54" s="12"/>
-      <c r="DW54" s="12"/>
-      <c r="DX54" s="12"/>
-      <c r="DY54" s="12"/>
-      <c r="DZ54" s="12"/>
-      <c r="EA54" s="12"/>
-      <c r="EB54" s="12"/>
-      <c r="EC54" s="12"/>
-      <c r="ED54" s="12"/>
-      <c r="EE54" s="12"/>
-      <c r="EF54" s="12"/>
-      <c r="EG54" s="12"/>
-      <c r="EH54" s="12"/>
-      <c r="EI54" s="12"/>
-      <c r="EJ54" s="12"/>
-      <c r="EK54" s="12"/>
-      <c r="EL54" s="12"/>
-      <c r="EM54" s="12"/>
-      <c r="EN54" s="12"/>
-      <c r="EO54" s="12"/>
-      <c r="EP54" s="12"/>
-      <c r="EQ54" s="12"/>
-      <c r="ER54" s="12"/>
-      <c r="ES54" s="12"/>
-      <c r="ET54" s="12"/>
-      <c r="EU54" s="12"/>
-      <c r="EV54" s="12"/>
-      <c r="EW54" s="12"/>
-      <c r="EX54" s="12"/>
-      <c r="EY54" s="12"/>
-      <c r="EZ54" s="12"/>
-      <c r="FA54" s="12"/>
-      <c r="FB54" s="12"/>
-      <c r="FC54" s="12"/>
-      <c r="FD54" s="12"/>
-      <c r="FE54" s="12"/>
-      <c r="FF54" s="12"/>
-      <c r="FG54" s="12"/>
-      <c r="FH54" s="12"/>
-      <c r="FI54" s="12"/>
-      <c r="FJ54" s="12"/>
-      <c r="FK54" s="12"/>
-      <c r="FL54" s="12"/>
-      <c r="FM54" s="12"/>
-      <c r="FN54" s="12"/>
-      <c r="FO54" s="12"/>
-      <c r="FP54" s="12"/>
-      <c r="FQ54" s="12"/>
-      <c r="FR54" s="12"/>
-      <c r="FS54" s="12"/>
-      <c r="FT54" s="12"/>
-      <c r="FU54" s="12"/>
-      <c r="FV54" s="12"/>
-      <c r="FW54" s="12"/>
-      <c r="FX54" s="12"/>
-      <c r="FY54" s="12"/>
-      <c r="FZ54" s="12"/>
-      <c r="GA54" s="12"/>
-      <c r="GB54" s="12"/>
-      <c r="GC54" s="12"/>
-      <c r="GD54" s="12"/>
-      <c r="GE54" s="12"/>
-      <c r="GF54" s="12"/>
-      <c r="GG54" s="12"/>
-      <c r="GH54" s="12"/>
-      <c r="GI54" s="12"/>
-      <c r="GJ54" s="12"/>
-      <c r="GK54" s="12"/>
-      <c r="GL54" s="12"/>
-      <c r="GM54" s="12"/>
-      <c r="GN54" s="12"/>
-      <c r="GO54" s="12"/>
-      <c r="GP54" s="12"/>
-      <c r="GQ54" s="12"/>
-      <c r="GR54" s="12"/>
-      <c r="GS54" s="12"/>
-      <c r="GT54" s="12"/>
-      <c r="GU54" s="12"/>
-      <c r="GV54" s="12"/>
-      <c r="GW54" s="12"/>
-      <c r="GX54" s="12"/>
-      <c r="GY54" s="12"/>
-      <c r="GZ54" s="12"/>
-      <c r="HA54" s="12"/>
-      <c r="HB54" s="12"/>
-      <c r="HC54" s="12"/>
-      <c r="HD54" s="12"/>
-      <c r="HE54" s="12"/>
-      <c r="HF54" s="12"/>
-      <c r="HG54" s="12"/>
-      <c r="HH54" s="12"/>
-      <c r="HI54" s="12"/>
-      <c r="HJ54" s="12"/>
-      <c r="HK54" s="12"/>
-      <c r="HL54" s="12"/>
-      <c r="HM54" s="12"/>
-      <c r="HN54" s="12"/>
-      <c r="HO54" s="12"/>
-      <c r="HP54" s="12"/>
-      <c r="HQ54" s="12"/>
-      <c r="HR54" s="12"/>
-      <c r="HS54" s="12"/>
-      <c r="HT54" s="12"/>
-      <c r="HU54" s="12"/>
-      <c r="HV54" s="12"/>
-      <c r="HW54" s="12"/>
-      <c r="HX54" s="12"/>
-      <c r="HY54" s="12"/>
-      <c r="HZ54" s="12"/>
-      <c r="IA54" s="12"/>
-      <c r="IB54" s="12"/>
-      <c r="IC54" s="12"/>
-      <c r="ID54" s="12"/>
-      <c r="IE54" s="12"/>
-      <c r="IF54" s="12"/>
-      <c r="IG54" s="12"/>
-      <c r="IH54" s="12"/>
-      <c r="II54" s="12"/>
-      <c r="IJ54" s="12"/>
-      <c r="IK54" s="12"/>
-      <c r="IL54" s="12"/>
-      <c r="IM54" s="12"/>
-      <c r="IN54" s="12"/>
-      <c r="IO54" s="12"/>
-      <c r="IP54" s="12"/>
-      <c r="IQ54" s="12"/>
-      <c r="IR54" s="12"/>
-      <c r="IS54" s="12"/>
-      <c r="IT54" s="12"/>
-      <c r="IU54" s="12"/>
-      <c r="IV54" s="12"/>
-      <c r="IW54" s="12"/>
-      <c r="IX54" s="12"/>
-      <c r="IY54" s="12"/>
-      <c r="IZ54" s="12"/>
-      <c r="JA54" s="12"/>
-      <c r="JB54" s="12"/>
-      <c r="JC54" s="12"/>
-      <c r="JD54" s="12"/>
-      <c r="JE54" s="12"/>
-      <c r="JF54" s="12"/>
-      <c r="JG54" s="12"/>
-      <c r="JH54" s="12"/>
+      <c r="A54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="11"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="11"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="11"/>
+      <c r="AZ54" s="11"/>
+      <c r="BA54" s="11"/>
+      <c r="BB54" s="11"/>
+      <c r="BC54" s="11"/>
+      <c r="BD54" s="11"/>
+      <c r="BE54" s="11"/>
+      <c r="BF54" s="11"/>
+      <c r="BG54" s="11"/>
+      <c r="BH54" s="11"/>
+      <c r="BI54" s="11"/>
+      <c r="BJ54" s="11"/>
+      <c r="BK54" s="11"/>
+      <c r="BL54" s="11"/>
+      <c r="BM54" s="11"/>
+      <c r="BN54" s="11"/>
+      <c r="BO54" s="11"/>
+      <c r="BP54" s="11"/>
+      <c r="BQ54" s="11"/>
+      <c r="BR54" s="11"/>
+      <c r="BS54" s="11"/>
+      <c r="BT54" s="11"/>
+      <c r="BU54" s="11"/>
+      <c r="BV54" s="11"/>
+      <c r="BW54" s="11"/>
+      <c r="BX54" s="11"/>
+      <c r="BY54" s="11"/>
+      <c r="BZ54" s="11"/>
+      <c r="CA54" s="11"/>
+      <c r="CB54" s="11"/>
+      <c r="CC54" s="11"/>
+      <c r="CD54" s="11"/>
+      <c r="CE54" s="11"/>
+      <c r="CF54" s="11"/>
+      <c r="CG54" s="11"/>
+      <c r="CH54" s="11"/>
+      <c r="CI54" s="11"/>
+      <c r="CJ54" s="11"/>
+      <c r="CK54" s="11"/>
+      <c r="CL54" s="11"/>
+      <c r="CM54" s="11"/>
+      <c r="CN54" s="11"/>
+      <c r="CO54" s="11"/>
+      <c r="CP54" s="11"/>
+      <c r="CQ54" s="11"/>
+      <c r="CR54" s="11"/>
+      <c r="CS54" s="11"/>
+      <c r="CT54" s="11"/>
+      <c r="CU54" s="11"/>
+      <c r="CV54" s="11"/>
+      <c r="CW54" s="11"/>
+      <c r="CX54" s="11"/>
+      <c r="CY54" s="11"/>
+      <c r="CZ54" s="11"/>
+      <c r="DA54" s="11"/>
+      <c r="DB54" s="11"/>
+      <c r="DC54" s="11"/>
+      <c r="DD54" s="11"/>
+      <c r="DE54" s="11"/>
+      <c r="DF54" s="11"/>
+      <c r="DG54" s="11"/>
+      <c r="DH54" s="11"/>
+      <c r="DI54" s="11"/>
+      <c r="DJ54" s="11"/>
+      <c r="DK54" s="11"/>
+      <c r="DL54" s="11"/>
+      <c r="DM54" s="11"/>
+      <c r="DN54" s="11"/>
+      <c r="DO54" s="11"/>
+      <c r="DP54" s="11"/>
+      <c r="DQ54" s="11"/>
+      <c r="DR54" s="11"/>
+      <c r="DS54" s="11"/>
+      <c r="DT54" s="11"/>
+      <c r="DU54" s="11"/>
+      <c r="DV54" s="11"/>
+      <c r="DW54" s="11"/>
+      <c r="DX54" s="11"/>
+      <c r="DY54" s="11"/>
+      <c r="DZ54" s="11"/>
+      <c r="EA54" s="11"/>
+      <c r="EB54" s="11"/>
+      <c r="EC54" s="11"/>
+      <c r="ED54" s="11"/>
+      <c r="EE54" s="11"/>
+      <c r="EF54" s="11"/>
+      <c r="EG54" s="11"/>
+      <c r="EH54" s="11"/>
+      <c r="EI54" s="11"/>
+      <c r="EJ54" s="11"/>
+      <c r="EK54" s="11"/>
+      <c r="EL54" s="11"/>
+      <c r="EM54" s="11"/>
+      <c r="EN54" s="11"/>
+      <c r="EO54" s="11"/>
+      <c r="EP54" s="11"/>
+      <c r="EQ54" s="11"/>
+      <c r="ER54" s="11"/>
+      <c r="ES54" s="11"/>
+      <c r="ET54" s="11"/>
+      <c r="EU54" s="11"/>
+      <c r="EV54" s="11"/>
+      <c r="EW54" s="11"/>
+      <c r="EX54" s="11"/>
+      <c r="EY54" s="11"/>
+      <c r="EZ54" s="11"/>
+      <c r="FA54" s="11"/>
+      <c r="FB54" s="11"/>
+      <c r="FC54" s="11"/>
+      <c r="FD54" s="11"/>
+      <c r="FE54" s="11"/>
+      <c r="FF54" s="11"/>
+      <c r="FG54" s="11"/>
+      <c r="FH54" s="11"/>
+      <c r="FI54" s="11"/>
+      <c r="FJ54" s="11"/>
+      <c r="FK54" s="11"/>
+      <c r="FL54" s="11"/>
+      <c r="FM54" s="11"/>
+      <c r="FN54" s="11"/>
+      <c r="FO54" s="11"/>
+      <c r="FP54" s="11"/>
+      <c r="FQ54" s="11"/>
+      <c r="FR54" s="11"/>
+      <c r="FS54" s="11"/>
+      <c r="FT54" s="11"/>
+      <c r="FU54" s="11"/>
+      <c r="FV54" s="11"/>
+      <c r="FW54" s="11"/>
+      <c r="FX54" s="11"/>
+      <c r="FY54" s="11"/>
+      <c r="FZ54" s="11"/>
+      <c r="GA54" s="11"/>
+      <c r="GB54" s="11"/>
+      <c r="GC54" s="11"/>
+      <c r="GD54" s="11"/>
+      <c r="GE54" s="11"/>
+      <c r="GF54" s="11"/>
+      <c r="GG54" s="11"/>
+      <c r="GH54" s="11"/>
+      <c r="GI54" s="11"/>
+      <c r="GJ54" s="11"/>
+      <c r="GK54" s="11"/>
+      <c r="GL54" s="11"/>
+      <c r="GM54" s="11"/>
+      <c r="GN54" s="11"/>
+      <c r="GO54" s="11"/>
+      <c r="GP54" s="11"/>
+      <c r="GQ54" s="11"/>
+      <c r="GR54" s="11"/>
+      <c r="GS54" s="11"/>
+      <c r="GT54" s="11"/>
+      <c r="GU54" s="11"/>
+      <c r="GV54" s="11"/>
+      <c r="GW54" s="11"/>
+      <c r="GX54" s="11"/>
+      <c r="GY54" s="11"/>
+      <c r="GZ54" s="11"/>
+      <c r="HA54" s="11"/>
+      <c r="HB54" s="11"/>
+      <c r="HC54" s="11"/>
+      <c r="HD54" s="11"/>
+      <c r="HE54" s="11"/>
+      <c r="HF54" s="11"/>
+      <c r="HG54" s="11"/>
+      <c r="HH54" s="11"/>
+      <c r="HI54" s="11"/>
+      <c r="HJ54" s="11"/>
+      <c r="HK54" s="11"/>
+      <c r="HL54" s="11"/>
+      <c r="HM54" s="11"/>
+      <c r="HN54" s="11"/>
+      <c r="HO54" s="11"/>
+      <c r="HP54" s="11"/>
+      <c r="HQ54" s="11"/>
+      <c r="HR54" s="11"/>
+      <c r="HS54" s="11"/>
+      <c r="HT54" s="11"/>
+      <c r="HU54" s="11"/>
+      <c r="HV54" s="11"/>
+      <c r="HW54" s="11"/>
+      <c r="HX54" s="11"/>
+      <c r="HY54" s="11"/>
+      <c r="HZ54" s="11"/>
+      <c r="IA54" s="11"/>
+      <c r="IB54" s="11"/>
+      <c r="IC54" s="11"/>
+      <c r="ID54" s="11"/>
+      <c r="IE54" s="11"/>
+      <c r="IF54" s="11"/>
+      <c r="IG54" s="11"/>
+      <c r="IH54" s="11"/>
+      <c r="II54" s="11"/>
+      <c r="IJ54" s="11"/>
+      <c r="IK54" s="11"/>
+      <c r="IL54" s="11"/>
+      <c r="IM54" s="11"/>
+      <c r="IN54" s="11"/>
+      <c r="IO54" s="11"/>
+      <c r="IP54" s="11"/>
+      <c r="IQ54" s="11"/>
+      <c r="IR54" s="11"/>
+      <c r="IS54" s="11"/>
+      <c r="IT54" s="11"/>
+      <c r="IU54" s="11"/>
+      <c r="IV54" s="11"/>
+      <c r="IW54" s="11"/>
+      <c r="IX54" s="11"/>
+      <c r="IY54" s="11"/>
+      <c r="IZ54" s="11"/>
+      <c r="JA54" s="11"/>
+      <c r="JB54" s="11"/>
+      <c r="JC54" s="11"/>
+      <c r="JD54" s="11"/>
+      <c r="JE54" s="11"/>
+      <c r="JF54" s="11"/>
+      <c r="JG54" s="11"/>
+      <c r="JH54" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -39845,6 +39459,12 @@
     <mergeCell ref="IT4:JE4"/>
     <mergeCell ref="JF4:JH4"/>
     <mergeCell ref="A44:JH44"/>
+    <mergeCell ref="DF4:DQ4"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="AL4:AW4"/>
+    <mergeCell ref="AX4:BI4"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -39861,12 +39481,6 @@
     <mergeCell ref="BV4:CG4"/>
     <mergeCell ref="CH4:CS4"/>
     <mergeCell ref="CT4:DE4"/>
-    <mergeCell ref="DF4:DQ4"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="Z4:AK4"/>
-    <mergeCell ref="AL4:AW4"/>
-    <mergeCell ref="AX4:BI4"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -39878,10 +39492,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39896,58 +39510,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -40046,7 +39660,7 @@
         <v>2388.0343117307002</v>
       </c>
       <c r="I5" s="4">
-        <v>7487.4661587924602</v>
+        <v>7487.4661587924702</v>
       </c>
       <c r="J5" s="4">
         <v>-9096.5100319319008</v>
@@ -40064,7 +39678,7 @@
         <v>-3916.9038000688001</v>
       </c>
       <c r="O5" s="4">
-        <v>-4231.2744934341999</v>
+        <v>-4231.2744934343</v>
       </c>
       <c r="P5" s="4">
         <v>-6157.8165409762996</v>
@@ -40111,7 +39725,7 @@
         <v>20588.552757014801</v>
       </c>
       <c r="G6" s="4">
-        <v>8366.7592309439005</v>
+        <v>8366.7592309438896</v>
       </c>
       <c r="H6" s="4">
         <v>14081.612400062</v>
@@ -40132,10 +39746,10 @@
         <v>16462.0123329544</v>
       </c>
       <c r="N6" s="4">
-        <v>3686.7132617689099</v>
+        <v>3686.7132617689199</v>
       </c>
       <c r="O6" s="4">
-        <v>2008.5695429126399</v>
+        <v>2008.5695429126299</v>
       </c>
       <c r="P6" s="4">
         <v>5919.3438584347896</v>
@@ -40996,13 +40610,13 @@
         <v>2669.4425111257801</v>
       </c>
       <c r="R18" s="6">
-        <v>877.47555439936502</v>
+        <v>877.47555439936605</v>
       </c>
       <c r="S18" s="6">
         <v>-5930.4620896118004</v>
       </c>
       <c r="T18" s="6">
-        <v>164.76928649778</v>
+        <v>164.769286497781</v>
       </c>
       <c r="U18" s="6">
         <v>7557.55187273314</v>
@@ -41073,7 +40687,7 @@
         <v>1716.48473590563</v>
       </c>
       <c r="T19" s="6">
-        <v>6732.88033644601</v>
+        <v>6732.880336446</v>
       </c>
       <c r="U19" s="6">
         <v>-5176.5620977489998</v>
@@ -41348,7 +40962,7 @@
         <v>9407.6047931996909</v>
       </c>
       <c r="Q23" s="6">
-        <v>5365.2682427542904</v>
+        <v>5365.2682427542804</v>
       </c>
       <c r="R23" s="6">
         <v>11440.634584064601</v>
@@ -41377,7 +40991,7 @@
         <v>317.74047755300001</v>
       </c>
       <c r="C24" s="6">
-        <v>7.6156761720000103</v>
+        <v>7.6156761720000201</v>
       </c>
       <c r="D24" s="6">
         <v>1570.5985125264999</v>
@@ -41410,7 +41024,7 @@
         <v>2184.7053681484099</v>
       </c>
       <c r="N24" s="6">
-        <v>-6.1753170499724002</v>
+        <v>-6.1753170499722998</v>
       </c>
       <c r="O24" s="6">
         <v>1305.6562012791501</v>
@@ -41703,7 +41317,7 @@
         <v>64.688919285997201</v>
       </c>
       <c r="Q28" s="4">
-        <v>881.73168804907903</v>
+        <v>881.731688049078</v>
       </c>
       <c r="R28" s="4">
         <v>1500.61843477825</v>
@@ -41715,7 +41329,7 @@
         <v>-17.424868797371001</v>
       </c>
       <c r="U28" s="4">
-        <v>36.489752067491501</v>
+        <v>36.489752067491096</v>
       </c>
       <c r="V28" s="4">
         <v>-1757.3986176215001</v>
@@ -41738,10 +41352,10 @@
         <v>494.007584979255</v>
       </c>
       <c r="E29" s="4">
-        <v>862.05952338803002</v>
+        <v>862.05952338803104</v>
       </c>
       <c r="F29" s="4">
-        <v>1452.7103248549299</v>
+        <v>1452.7103248549399</v>
       </c>
       <c r="G29" s="4">
         <v>-10316.181118836001</v>
@@ -41750,7 +41364,7 @@
         <v>-5159.4410855537999</v>
       </c>
       <c r="I29" s="4">
-        <v>3369.6027547649801</v>
+        <v>3369.6027547649701</v>
       </c>
       <c r="J29" s="4">
         <v>-5692.8870920418003</v>
@@ -41759,7 +41373,7 @@
         <v>-5906.2866439888003</v>
       </c>
       <c r="L29" s="4">
-        <v>1806.95351338829</v>
+        <v>1806.95351338828</v>
       </c>
       <c r="M29" s="4">
         <v>6921.4610968329398</v>
@@ -41839,7 +41453,7 @@
         <v>-3403.0966284212</v>
       </c>
       <c r="O30" s="6">
-        <v>188.841314560027</v>
+        <v>188.84131456002601</v>
       </c>
       <c r="P30" s="6">
         <v>-1238.8472318447</v>
@@ -42147,7 +41761,7 @@
         <v>284.30464809234098</v>
       </c>
       <c r="W34" s="6">
-        <v>1339.65248741247</v>
+        <v>1339.65248741246</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -42238,7 +41852,7 @@
         <v>2559.9716211063501</v>
       </c>
       <c r="F36" s="6">
-        <v>6581.6434007225698</v>
+        <v>6581.6434007225598</v>
       </c>
       <c r="G36" s="6">
         <v>4970.2888463988402</v>
@@ -42719,31 +42333,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -42756,7 +42370,7 @@
         <v>3695.1121658472598</v>
       </c>
       <c r="D44" s="6">
-        <v>-36.300672512124002</v>
+        <v>-36.300672512121999</v>
       </c>
       <c r="E44" s="6">
         <v>8042.4237893692098</v>
@@ -42943,7 +42557,7 @@
         <v>8472.5152317378906</v>
       </c>
       <c r="S46" s="6">
-        <v>6955.8977029898597</v>
+        <v>6955.8977029898497</v>
       </c>
       <c r="T46" s="6">
         <v>30216.647255663702</v>
@@ -42962,33 +42576,15 @@
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="6">
         <v>6698.0191706793403</v>
       </c>
@@ -43031,35 +42627,17 @@
     </row>
     <row r="48" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
       <c r="K48" s="6">
         <v>-371.37021157568</v>
       </c>
@@ -43108,7 +42686,7 @@
         <v>317.74047755300001</v>
       </c>
       <c r="C49" s="6">
-        <v>7.6156761720000201</v>
+        <v>7.6156761720000299</v>
       </c>
       <c r="D49" s="6">
         <v>1570.5985125264999</v>
@@ -43141,7 +42719,7 @@
         <v>2184.7053681484099</v>
       </c>
       <c r="N49" s="6">
-        <v>-6.1753170499724002</v>
+        <v>-6.1753170499722998</v>
       </c>
       <c r="O49" s="6">
         <v>1305.6562012791501</v>
@@ -43173,7 +42751,7 @@
     </row>
     <row r="50" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="6">
         <v>76.085416233000004</v>
@@ -43243,102 +42821,102 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="A51" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="14">
         <v>241.65506131999999</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="14">
         <v>137.22574911999999</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="14">
         <v>941.36581531050001</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="14">
         <v>368.81536610000001</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="14">
         <v>544.76575833000004</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="14">
         <v>1470.5409199456301</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="14">
         <v>282.04735518988099</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="14">
         <v>2689.0136365881199</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="14">
         <v>4098.5653102598299</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="14">
         <v>4950.0243891615401</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="14">
         <v>5082.8375326553096</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="14">
         <v>2168.93506983425</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="14">
         <v>97.892430784649306</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="14">
         <v>1400.5631076234699</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="14">
         <v>1115.7140011686099</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="14">
         <v>243.70152097547901</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="14">
         <v>2708.0583825528001</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="14">
         <v>-203.54447775540001</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="14">
         <v>1597.27127009229</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U51" s="14">
         <v>7801.6668082428196</v>
       </c>
-      <c r="V51" s="6">
+      <c r="V51" s="14">
         <v>2.0314511295375199</v>
       </c>
-      <c r="W51" s="6">
+      <c r="W51" s="14">
         <v>-2322.8192707481999</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
+      <c r="A53" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\04_PRODUCTOS\02_CF\CF.18.05.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.06.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7A361-A83E-42CA-AC0E-46AF8CDD1C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95123C67-F399-4773-B43E-57B73F30B743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-4200" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,25 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -261,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -344,11 +357,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -370,6 +698,93 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -385,14 +800,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,13 +948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JH54"/>
+  <dimension ref="A1:JJ54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IH6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="JI7" sqref="JI7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,869 +1017,873 @@
     <col min="191" max="265" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8"/>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8"/>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
-      <c r="DA1" s="8"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="8"/>
-      <c r="DD1" s="8"/>
-      <c r="DE1" s="8"/>
-      <c r="DF1" s="8"/>
-      <c r="DG1" s="8"/>
-      <c r="DH1" s="8"/>
-      <c r="DI1" s="8"/>
-      <c r="DJ1" s="8"/>
-      <c r="DK1" s="8"/>
-      <c r="DL1" s="8"/>
-      <c r="DM1" s="8"/>
-      <c r="DN1" s="8"/>
-      <c r="DO1" s="8"/>
-      <c r="DP1" s="8"/>
-      <c r="DQ1" s="8"/>
-      <c r="DR1" s="8"/>
-      <c r="DS1" s="8"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="8"/>
-      <c r="DV1" s="8"/>
-      <c r="DW1" s="8"/>
-      <c r="DX1" s="8"/>
-      <c r="DY1" s="8"/>
-      <c r="DZ1" s="8"/>
-      <c r="EA1" s="8"/>
-      <c r="EB1" s="8"/>
-      <c r="EC1" s="8"/>
-      <c r="ED1" s="8"/>
-      <c r="EE1" s="8"/>
-      <c r="EF1" s="8"/>
-      <c r="EG1" s="8"/>
-      <c r="EH1" s="8"/>
-      <c r="EI1" s="8"/>
-      <c r="EJ1" s="8"/>
-      <c r="EK1" s="8"/>
-      <c r="EL1" s="8"/>
-      <c r="EM1" s="8"/>
-      <c r="EN1" s="8"/>
-      <c r="EO1" s="8"/>
-      <c r="EP1" s="8"/>
-      <c r="EQ1" s="8"/>
-      <c r="ER1" s="8"/>
-      <c r="ES1" s="8"/>
-      <c r="ET1" s="8"/>
-      <c r="EU1" s="8"/>
-      <c r="EV1" s="8"/>
-      <c r="EW1" s="8"/>
-      <c r="EX1" s="8"/>
-      <c r="EY1" s="8"/>
-      <c r="EZ1" s="8"/>
-      <c r="FA1" s="8"/>
-      <c r="FB1" s="8"/>
-      <c r="FC1" s="8"/>
-      <c r="FD1" s="8"/>
-      <c r="FE1" s="8"/>
-      <c r="FF1" s="8"/>
-      <c r="FG1" s="8"/>
-      <c r="FH1" s="8"/>
-      <c r="FI1" s="8"/>
-      <c r="FJ1" s="8"/>
-      <c r="FK1" s="8"/>
-      <c r="FL1" s="8"/>
-      <c r="FM1" s="8"/>
-      <c r="FN1" s="8"/>
-      <c r="FO1" s="8"/>
-      <c r="FP1" s="8"/>
-      <c r="FQ1" s="8"/>
-      <c r="FR1" s="8"/>
-      <c r="FS1" s="8"/>
-      <c r="FT1" s="8"/>
-      <c r="FU1" s="8"/>
-      <c r="FV1" s="8"/>
-      <c r="FW1" s="8"/>
-      <c r="FX1" s="8"/>
-      <c r="FY1" s="8"/>
-      <c r="FZ1" s="8"/>
-      <c r="GA1" s="8"/>
-      <c r="GB1" s="8"/>
-      <c r="GC1" s="8"/>
-      <c r="GD1" s="8"/>
-      <c r="GE1" s="8"/>
-      <c r="GF1" s="8"/>
-      <c r="GG1" s="8"/>
-      <c r="GH1" s="8"/>
-      <c r="GI1" s="8"/>
-      <c r="GJ1" s="8"/>
-      <c r="GK1" s="8"/>
-      <c r="GL1" s="8"/>
-      <c r="GM1" s="8"/>
-      <c r="GN1" s="8"/>
-      <c r="GO1" s="8"/>
-      <c r="GP1" s="8"/>
-      <c r="GQ1" s="8"/>
-      <c r="GR1" s="8"/>
-      <c r="GS1" s="8"/>
-      <c r="GT1" s="8"/>
-      <c r="GU1" s="8"/>
-      <c r="GV1" s="8"/>
-      <c r="GW1" s="8"/>
-      <c r="GX1" s="8"/>
-      <c r="GY1" s="8"/>
-      <c r="GZ1" s="8"/>
-      <c r="HA1" s="8"/>
-      <c r="HB1" s="8"/>
-      <c r="HC1" s="8"/>
-      <c r="HD1" s="8"/>
-      <c r="HE1" s="8"/>
-      <c r="HF1" s="8"/>
-      <c r="HG1" s="8"/>
-      <c r="HH1" s="8"/>
-      <c r="HI1" s="8"/>
-      <c r="HJ1" s="8"/>
-      <c r="HK1" s="8"/>
-      <c r="HL1" s="8"/>
-      <c r="HM1" s="8"/>
-      <c r="HN1" s="8"/>
-      <c r="HO1" s="8"/>
-      <c r="HP1" s="8"/>
-      <c r="HQ1" s="8"/>
-      <c r="HR1" s="8"/>
-      <c r="HS1" s="8"/>
-      <c r="HT1" s="8"/>
-      <c r="HU1" s="8"/>
-      <c r="HV1" s="8"/>
-      <c r="HW1" s="8"/>
-      <c r="HX1" s="8"/>
-      <c r="HY1" s="8"/>
-      <c r="HZ1" s="8"/>
-      <c r="IA1" s="8"/>
-      <c r="IB1" s="8"/>
-      <c r="IC1" s="8"/>
-      <c r="ID1" s="8"/>
-      <c r="IE1" s="8"/>
-      <c r="IF1" s="8"/>
-      <c r="IG1" s="8"/>
-      <c r="IH1" s="8"/>
-      <c r="II1" s="8"/>
-      <c r="IJ1" s="8"/>
-      <c r="IK1" s="8"/>
-      <c r="IL1" s="8"/>
-      <c r="IM1" s="8"/>
-      <c r="IN1" s="8"/>
-      <c r="IO1" s="8"/>
-      <c r="IP1" s="8"/>
-      <c r="IQ1" s="8"/>
-      <c r="IR1" s="8"/>
-      <c r="IS1" s="8"/>
-      <c r="IT1" s="8"/>
-      <c r="IU1" s="8"/>
-      <c r="IV1" s="8"/>
-      <c r="IW1" s="8"/>
-      <c r="IX1" s="8"/>
-      <c r="IY1" s="8"/>
-      <c r="IZ1" s="8"/>
-      <c r="JA1" s="8"/>
-      <c r="JB1" s="8"/>
-      <c r="JC1" s="8"/>
-      <c r="JD1" s="8"/>
-      <c r="JE1" s="8"/>
-      <c r="JF1" s="8"/>
-      <c r="JG1" s="8"/>
-      <c r="JH1" s="8"/>
+    <row r="1" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="37"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="37"/>
+      <c r="CP1" s="37"/>
+      <c r="CQ1" s="37"/>
+      <c r="CR1" s="37"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37"/>
+      <c r="CU1" s="37"/>
+      <c r="CV1" s="37"/>
+      <c r="CW1" s="37"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="37"/>
+      <c r="CZ1" s="37"/>
+      <c r="DA1" s="37"/>
+      <c r="DB1" s="37"/>
+      <c r="DC1" s="37"/>
+      <c r="DD1" s="37"/>
+      <c r="DE1" s="37"/>
+      <c r="DF1" s="37"/>
+      <c r="DG1" s="37"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="37"/>
+      <c r="DJ1" s="37"/>
+      <c r="DK1" s="37"/>
+      <c r="DL1" s="37"/>
+      <c r="DM1" s="37"/>
+      <c r="DN1" s="37"/>
+      <c r="DO1" s="37"/>
+      <c r="DP1" s="37"/>
+      <c r="DQ1" s="37"/>
+      <c r="DR1" s="37"/>
+      <c r="DS1" s="37"/>
+      <c r="DT1" s="37"/>
+      <c r="DU1" s="37"/>
+      <c r="DV1" s="37"/>
+      <c r="DW1" s="37"/>
+      <c r="DX1" s="37"/>
+      <c r="DY1" s="37"/>
+      <c r="DZ1" s="37"/>
+      <c r="EA1" s="37"/>
+      <c r="EB1" s="37"/>
+      <c r="EC1" s="37"/>
+      <c r="ED1" s="37"/>
+      <c r="EE1" s="37"/>
+      <c r="EF1" s="37"/>
+      <c r="EG1" s="37"/>
+      <c r="EH1" s="37"/>
+      <c r="EI1" s="37"/>
+      <c r="EJ1" s="37"/>
+      <c r="EK1" s="37"/>
+      <c r="EL1" s="37"/>
+      <c r="EM1" s="37"/>
+      <c r="EN1" s="37"/>
+      <c r="EO1" s="37"/>
+      <c r="EP1" s="37"/>
+      <c r="EQ1" s="37"/>
+      <c r="ER1" s="37"/>
+      <c r="ES1" s="37"/>
+      <c r="ET1" s="37"/>
+      <c r="EU1" s="37"/>
+      <c r="EV1" s="37"/>
+      <c r="EW1" s="37"/>
+      <c r="EX1" s="37"/>
+      <c r="EY1" s="37"/>
+      <c r="EZ1" s="37"/>
+      <c r="FA1" s="37"/>
+      <c r="FB1" s="37"/>
+      <c r="FC1" s="37"/>
+      <c r="FD1" s="37"/>
+      <c r="FE1" s="37"/>
+      <c r="FF1" s="37"/>
+      <c r="FG1" s="37"/>
+      <c r="FH1" s="37"/>
+      <c r="FI1" s="37"/>
+      <c r="FJ1" s="37"/>
+      <c r="FK1" s="37"/>
+      <c r="FL1" s="37"/>
+      <c r="FM1" s="37"/>
+      <c r="FN1" s="37"/>
+      <c r="FO1" s="37"/>
+      <c r="FP1" s="37"/>
+      <c r="FQ1" s="37"/>
+      <c r="FR1" s="37"/>
+      <c r="FS1" s="37"/>
+      <c r="FT1" s="37"/>
+      <c r="FU1" s="37"/>
+      <c r="FV1" s="37"/>
+      <c r="FW1" s="37"/>
+      <c r="FX1" s="37"/>
+      <c r="FY1" s="37"/>
+      <c r="FZ1" s="37"/>
+      <c r="GA1" s="37"/>
+      <c r="GB1" s="37"/>
+      <c r="GC1" s="37"/>
+      <c r="GD1" s="37"/>
+      <c r="GE1" s="37"/>
+      <c r="GF1" s="37"/>
+      <c r="GG1" s="37"/>
+      <c r="GH1" s="37"/>
+      <c r="GI1" s="37"/>
+      <c r="GJ1" s="37"/>
+      <c r="GK1" s="37"/>
+      <c r="GL1" s="37"/>
+      <c r="GM1" s="37"/>
+      <c r="GN1" s="37"/>
+      <c r="GO1" s="37"/>
+      <c r="GP1" s="37"/>
+      <c r="GQ1" s="37"/>
+      <c r="GR1" s="37"/>
+      <c r="GS1" s="37"/>
+      <c r="GT1" s="37"/>
+      <c r="GU1" s="37"/>
+      <c r="GV1" s="37"/>
+      <c r="GW1" s="37"/>
+      <c r="GX1" s="37"/>
+      <c r="GY1" s="37"/>
+      <c r="GZ1" s="37"/>
+      <c r="HA1" s="37"/>
+      <c r="HB1" s="37"/>
+      <c r="HC1" s="37"/>
+      <c r="HD1" s="37"/>
+      <c r="HE1" s="37"/>
+      <c r="HF1" s="37"/>
+      <c r="HG1" s="37"/>
+      <c r="HH1" s="37"/>
+      <c r="HI1" s="37"/>
+      <c r="HJ1" s="37"/>
+      <c r="HK1" s="37"/>
+      <c r="HL1" s="37"/>
+      <c r="HM1" s="37"/>
+      <c r="HN1" s="37"/>
+      <c r="HO1" s="37"/>
+      <c r="HP1" s="37"/>
+      <c r="HQ1" s="37"/>
+      <c r="HR1" s="37"/>
+      <c r="HS1" s="37"/>
+      <c r="HT1" s="37"/>
+      <c r="HU1" s="37"/>
+      <c r="HV1" s="37"/>
+      <c r="HW1" s="37"/>
+      <c r="HX1" s="37"/>
+      <c r="HY1" s="37"/>
+      <c r="HZ1" s="37"/>
+      <c r="IA1" s="37"/>
+      <c r="IB1" s="37"/>
+      <c r="IC1" s="37"/>
+      <c r="ID1" s="37"/>
+      <c r="IE1" s="37"/>
+      <c r="IF1" s="37"/>
+      <c r="IG1" s="37"/>
+      <c r="IH1" s="37"/>
+      <c r="II1" s="37"/>
+      <c r="IJ1" s="37"/>
+      <c r="IK1" s="37"/>
+      <c r="IL1" s="37"/>
+      <c r="IM1" s="37"/>
+      <c r="IN1" s="37"/>
+      <c r="IO1" s="37"/>
+      <c r="IP1" s="37"/>
+      <c r="IQ1" s="37"/>
+      <c r="IR1" s="37"/>
+      <c r="IS1" s="37"/>
+      <c r="IT1" s="37"/>
+      <c r="IU1" s="37"/>
+      <c r="IV1" s="37"/>
+      <c r="IW1" s="37"/>
+      <c r="IX1" s="37"/>
+      <c r="IY1" s="37"/>
+      <c r="IZ1" s="37"/>
+      <c r="JA1" s="37"/>
+      <c r="JB1" s="37"/>
+      <c r="JC1" s="37"/>
+      <c r="JD1" s="37"/>
+      <c r="JE1" s="37"/>
+      <c r="JF1" s="37"/>
+      <c r="JG1" s="37"/>
+      <c r="JH1" s="37"/>
+      <c r="JI1"/>
     </row>
-    <row r="2" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
-      <c r="DA2" s="8"/>
-      <c r="DB2" s="8"/>
-      <c r="DC2" s="8"/>
-      <c r="DD2" s="8"/>
-      <c r="DE2" s="8"/>
-      <c r="DF2" s="8"/>
-      <c r="DG2" s="8"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8"/>
-      <c r="DJ2" s="8"/>
-      <c r="DK2" s="8"/>
-      <c r="DL2" s="8"/>
-      <c r="DM2" s="8"/>
-      <c r="DN2" s="8"/>
-      <c r="DO2" s="8"/>
-      <c r="DP2" s="8"/>
-      <c r="DQ2" s="8"/>
-      <c r="DR2" s="8"/>
-      <c r="DS2" s="8"/>
-      <c r="DT2" s="8"/>
-      <c r="DU2" s="8"/>
-      <c r="DV2" s="8"/>
-      <c r="DW2" s="8"/>
-      <c r="DX2" s="8"/>
-      <c r="DY2" s="8"/>
-      <c r="DZ2" s="8"/>
-      <c r="EA2" s="8"/>
-      <c r="EB2" s="8"/>
-      <c r="EC2" s="8"/>
-      <c r="ED2" s="8"/>
-      <c r="EE2" s="8"/>
-      <c r="EF2" s="8"/>
-      <c r="EG2" s="8"/>
-      <c r="EH2" s="8"/>
-      <c r="EI2" s="8"/>
-      <c r="EJ2" s="8"/>
-      <c r="EK2" s="8"/>
-      <c r="EL2" s="8"/>
-      <c r="EM2" s="8"/>
-      <c r="EN2" s="8"/>
-      <c r="EO2" s="8"/>
-      <c r="EP2" s="8"/>
-      <c r="EQ2" s="8"/>
-      <c r="ER2" s="8"/>
-      <c r="ES2" s="8"/>
-      <c r="ET2" s="8"/>
-      <c r="EU2" s="8"/>
-      <c r="EV2" s="8"/>
-      <c r="EW2" s="8"/>
-      <c r="EX2" s="8"/>
-      <c r="EY2" s="8"/>
-      <c r="EZ2" s="8"/>
-      <c r="FA2" s="8"/>
-      <c r="FB2" s="8"/>
-      <c r="FC2" s="8"/>
-      <c r="FD2" s="8"/>
-      <c r="FE2" s="8"/>
-      <c r="FF2" s="8"/>
-      <c r="FG2" s="8"/>
-      <c r="FH2" s="8"/>
-      <c r="FI2" s="8"/>
-      <c r="FJ2" s="8"/>
-      <c r="FK2" s="8"/>
-      <c r="FL2" s="8"/>
-      <c r="FM2" s="8"/>
-      <c r="FN2" s="8"/>
-      <c r="FO2" s="8"/>
-      <c r="FP2" s="8"/>
-      <c r="FQ2" s="8"/>
-      <c r="FR2" s="8"/>
-      <c r="FS2" s="8"/>
-      <c r="FT2" s="8"/>
-      <c r="FU2" s="8"/>
-      <c r="FV2" s="8"/>
-      <c r="FW2" s="8"/>
-      <c r="FX2" s="8"/>
-      <c r="FY2" s="8"/>
-      <c r="FZ2" s="8"/>
-      <c r="GA2" s="8"/>
-      <c r="GB2" s="8"/>
-      <c r="GC2" s="8"/>
-      <c r="GD2" s="8"/>
-      <c r="GE2" s="8"/>
-      <c r="GF2" s="8"/>
-      <c r="GG2" s="8"/>
-      <c r="GH2" s="8"/>
-      <c r="GI2" s="8"/>
-      <c r="GJ2" s="8"/>
-      <c r="GK2" s="8"/>
-      <c r="GL2" s="8"/>
-      <c r="GM2" s="8"/>
-      <c r="GN2" s="8"/>
-      <c r="GO2" s="8"/>
-      <c r="GP2" s="8"/>
-      <c r="GQ2" s="8"/>
-      <c r="GR2" s="8"/>
-      <c r="GS2" s="8"/>
-      <c r="GT2" s="8"/>
-      <c r="GU2" s="8"/>
-      <c r="GV2" s="8"/>
-      <c r="GW2" s="8"/>
-      <c r="GX2" s="8"/>
-      <c r="GY2" s="8"/>
-      <c r="GZ2" s="8"/>
-      <c r="HA2" s="8"/>
-      <c r="HB2" s="8"/>
-      <c r="HC2" s="8"/>
-      <c r="HD2" s="8"/>
-      <c r="HE2" s="8"/>
-      <c r="HF2" s="8"/>
-      <c r="HG2" s="8"/>
-      <c r="HH2" s="8"/>
-      <c r="HI2" s="8"/>
-      <c r="HJ2" s="8"/>
-      <c r="HK2" s="8"/>
-      <c r="HL2" s="8"/>
-      <c r="HM2" s="8"/>
-      <c r="HN2" s="8"/>
-      <c r="HO2" s="8"/>
-      <c r="HP2" s="8"/>
-      <c r="HQ2" s="8"/>
-      <c r="HR2" s="8"/>
-      <c r="HS2" s="8"/>
-      <c r="HT2" s="8"/>
-      <c r="HU2" s="8"/>
-      <c r="HV2" s="8"/>
-      <c r="HW2" s="8"/>
-      <c r="HX2" s="8"/>
-      <c r="HY2" s="8"/>
-      <c r="HZ2" s="8"/>
-      <c r="IA2" s="8"/>
-      <c r="IB2" s="8"/>
-      <c r="IC2" s="8"/>
-      <c r="ID2" s="8"/>
-      <c r="IE2" s="8"/>
-      <c r="IF2" s="8"/>
-      <c r="IG2" s="8"/>
-      <c r="IH2" s="8"/>
-      <c r="II2" s="8"/>
-      <c r="IJ2" s="8"/>
-      <c r="IK2" s="8"/>
-      <c r="IL2" s="8"/>
-      <c r="IM2" s="8"/>
-      <c r="IN2" s="8"/>
-      <c r="IO2" s="8"/>
-      <c r="IP2" s="8"/>
-      <c r="IQ2" s="8"/>
-      <c r="IR2" s="8"/>
-      <c r="IS2" s="8"/>
-      <c r="IT2" s="8"/>
-      <c r="IU2" s="8"/>
-      <c r="IV2" s="8"/>
-      <c r="IW2" s="8"/>
-      <c r="IX2" s="8"/>
-      <c r="IY2" s="8"/>
-      <c r="IZ2" s="8"/>
-      <c r="JA2" s="8"/>
-      <c r="JB2" s="8"/>
-      <c r="JC2" s="8"/>
-      <c r="JD2" s="8"/>
-      <c r="JE2" s="8"/>
-      <c r="JF2" s="8"/>
-      <c r="JG2" s="8"/>
-      <c r="JH2" s="8"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="37"/>
+      <c r="CG2" s="37"/>
+      <c r="CH2" s="37"/>
+      <c r="CI2" s="37"/>
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37"/>
+      <c r="CL2" s="37"/>
+      <c r="CM2" s="37"/>
+      <c r="CN2" s="37"/>
+      <c r="CO2" s="37"/>
+      <c r="CP2" s="37"/>
+      <c r="CQ2" s="37"/>
+      <c r="CR2" s="37"/>
+      <c r="CS2" s="37"/>
+      <c r="CT2" s="37"/>
+      <c r="CU2" s="37"/>
+      <c r="CV2" s="37"/>
+      <c r="CW2" s="37"/>
+      <c r="CX2" s="37"/>
+      <c r="CY2" s="37"/>
+      <c r="CZ2" s="37"/>
+      <c r="DA2" s="37"/>
+      <c r="DB2" s="37"/>
+      <c r="DC2" s="37"/>
+      <c r="DD2" s="37"/>
+      <c r="DE2" s="37"/>
+      <c r="DF2" s="37"/>
+      <c r="DG2" s="37"/>
+      <c r="DH2" s="37"/>
+      <c r="DI2" s="37"/>
+      <c r="DJ2" s="37"/>
+      <c r="DK2" s="37"/>
+      <c r="DL2" s="37"/>
+      <c r="DM2" s="37"/>
+      <c r="DN2" s="37"/>
+      <c r="DO2" s="37"/>
+      <c r="DP2" s="37"/>
+      <c r="DQ2" s="37"/>
+      <c r="DR2" s="37"/>
+      <c r="DS2" s="37"/>
+      <c r="DT2" s="37"/>
+      <c r="DU2" s="37"/>
+      <c r="DV2" s="37"/>
+      <c r="DW2" s="37"/>
+      <c r="DX2" s="37"/>
+      <c r="DY2" s="37"/>
+      <c r="DZ2" s="37"/>
+      <c r="EA2" s="37"/>
+      <c r="EB2" s="37"/>
+      <c r="EC2" s="37"/>
+      <c r="ED2" s="37"/>
+      <c r="EE2" s="37"/>
+      <c r="EF2" s="37"/>
+      <c r="EG2" s="37"/>
+      <c r="EH2" s="37"/>
+      <c r="EI2" s="37"/>
+      <c r="EJ2" s="37"/>
+      <c r="EK2" s="37"/>
+      <c r="EL2" s="37"/>
+      <c r="EM2" s="37"/>
+      <c r="EN2" s="37"/>
+      <c r="EO2" s="37"/>
+      <c r="EP2" s="37"/>
+      <c r="EQ2" s="37"/>
+      <c r="ER2" s="37"/>
+      <c r="ES2" s="37"/>
+      <c r="ET2" s="37"/>
+      <c r="EU2" s="37"/>
+      <c r="EV2" s="37"/>
+      <c r="EW2" s="37"/>
+      <c r="EX2" s="37"/>
+      <c r="EY2" s="37"/>
+      <c r="EZ2" s="37"/>
+      <c r="FA2" s="37"/>
+      <c r="FB2" s="37"/>
+      <c r="FC2" s="37"/>
+      <c r="FD2" s="37"/>
+      <c r="FE2" s="37"/>
+      <c r="FF2" s="37"/>
+      <c r="FG2" s="37"/>
+      <c r="FH2" s="37"/>
+      <c r="FI2" s="37"/>
+      <c r="FJ2" s="37"/>
+      <c r="FK2" s="37"/>
+      <c r="FL2" s="37"/>
+      <c r="FM2" s="37"/>
+      <c r="FN2" s="37"/>
+      <c r="FO2" s="37"/>
+      <c r="FP2" s="37"/>
+      <c r="FQ2" s="37"/>
+      <c r="FR2" s="37"/>
+      <c r="FS2" s="37"/>
+      <c r="FT2" s="37"/>
+      <c r="FU2" s="37"/>
+      <c r="FV2" s="37"/>
+      <c r="FW2" s="37"/>
+      <c r="FX2" s="37"/>
+      <c r="FY2" s="37"/>
+      <c r="FZ2" s="37"/>
+      <c r="GA2" s="37"/>
+      <c r="GB2" s="37"/>
+      <c r="GC2" s="37"/>
+      <c r="GD2" s="37"/>
+      <c r="GE2" s="37"/>
+      <c r="GF2" s="37"/>
+      <c r="GG2" s="37"/>
+      <c r="GH2" s="37"/>
+      <c r="GI2" s="37"/>
+      <c r="GJ2" s="37"/>
+      <c r="GK2" s="37"/>
+      <c r="GL2" s="37"/>
+      <c r="GM2" s="37"/>
+      <c r="GN2" s="37"/>
+      <c r="GO2" s="37"/>
+      <c r="GP2" s="37"/>
+      <c r="GQ2" s="37"/>
+      <c r="GR2" s="37"/>
+      <c r="GS2" s="37"/>
+      <c r="GT2" s="37"/>
+      <c r="GU2" s="37"/>
+      <c r="GV2" s="37"/>
+      <c r="GW2" s="37"/>
+      <c r="GX2" s="37"/>
+      <c r="GY2" s="37"/>
+      <c r="GZ2" s="37"/>
+      <c r="HA2" s="37"/>
+      <c r="HB2" s="37"/>
+      <c r="HC2" s="37"/>
+      <c r="HD2" s="37"/>
+      <c r="HE2" s="37"/>
+      <c r="HF2" s="37"/>
+      <c r="HG2" s="37"/>
+      <c r="HH2" s="37"/>
+      <c r="HI2" s="37"/>
+      <c r="HJ2" s="37"/>
+      <c r="HK2" s="37"/>
+      <c r="HL2" s="37"/>
+      <c r="HM2" s="37"/>
+      <c r="HN2" s="37"/>
+      <c r="HO2" s="37"/>
+      <c r="HP2" s="37"/>
+      <c r="HQ2" s="37"/>
+      <c r="HR2" s="37"/>
+      <c r="HS2" s="37"/>
+      <c r="HT2" s="37"/>
+      <c r="HU2" s="37"/>
+      <c r="HV2" s="37"/>
+      <c r="HW2" s="37"/>
+      <c r="HX2" s="37"/>
+      <c r="HY2" s="37"/>
+      <c r="HZ2" s="37"/>
+      <c r="IA2" s="37"/>
+      <c r="IB2" s="37"/>
+      <c r="IC2" s="37"/>
+      <c r="ID2" s="37"/>
+      <c r="IE2" s="37"/>
+      <c r="IF2" s="37"/>
+      <c r="IG2" s="37"/>
+      <c r="IH2" s="37"/>
+      <c r="II2" s="37"/>
+      <c r="IJ2" s="37"/>
+      <c r="IK2" s="37"/>
+      <c r="IL2" s="37"/>
+      <c r="IM2" s="37"/>
+      <c r="IN2" s="37"/>
+      <c r="IO2" s="37"/>
+      <c r="IP2" s="37"/>
+      <c r="IQ2" s="37"/>
+      <c r="IR2" s="37"/>
+      <c r="IS2" s="37"/>
+      <c r="IT2" s="37"/>
+      <c r="IU2" s="37"/>
+      <c r="IV2" s="37"/>
+      <c r="IW2" s="37"/>
+      <c r="IX2" s="37"/>
+      <c r="IY2" s="37"/>
+      <c r="IZ2" s="37"/>
+      <c r="JA2" s="37"/>
+      <c r="JB2" s="37"/>
+      <c r="JC2" s="37"/>
+      <c r="JD2" s="37"/>
+      <c r="JE2" s="37"/>
+      <c r="JF2" s="37"/>
+      <c r="JG2" s="37"/>
+      <c r="JH2" s="37"/>
+      <c r="JI2"/>
     </row>
-    <row r="4" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="10">
+      <c r="B4" s="39">
         <v>2003</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39">
         <v>2004</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39">
         <v>2005</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39">
         <v>2006</v>
       </c>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10">
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39">
         <v>2007</v>
       </c>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="10">
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39">
         <v>2008</v>
       </c>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="10"/>
-      <c r="BO4" s="10"/>
-      <c r="BP4" s="10"/>
-      <c r="BQ4" s="10"/>
-      <c r="BR4" s="10"/>
-      <c r="BS4" s="10"/>
-      <c r="BT4" s="10"/>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="10">
+      <c r="BK4" s="39"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39">
         <v>2009</v>
       </c>
-      <c r="BW4" s="10"/>
-      <c r="BX4" s="10"/>
-      <c r="BY4" s="10"/>
-      <c r="BZ4" s="10"/>
-      <c r="CA4" s="10"/>
-      <c r="CB4" s="10"/>
-      <c r="CC4" s="10"/>
-      <c r="CD4" s="10"/>
-      <c r="CE4" s="10"/>
-      <c r="CF4" s="10"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="10">
+      <c r="BW4" s="39"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39">
         <v>2010</v>
       </c>
-      <c r="CI4" s="10"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
-      <c r="CL4" s="10"/>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10"/>
-      <c r="CP4" s="10"/>
-      <c r="CQ4" s="10"/>
-      <c r="CR4" s="10"/>
-      <c r="CS4" s="10"/>
-      <c r="CT4" s="10">
+      <c r="CI4" s="39"/>
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39">
         <v>2011</v>
       </c>
-      <c r="CU4" s="10"/>
-      <c r="CV4" s="10"/>
-      <c r="CW4" s="10"/>
-      <c r="CX4" s="10"/>
-      <c r="CY4" s="10"/>
-      <c r="CZ4" s="10"/>
-      <c r="DA4" s="10"/>
-      <c r="DB4" s="10"/>
-      <c r="DC4" s="10"/>
-      <c r="DD4" s="10"/>
-      <c r="DE4" s="10"/>
-      <c r="DF4" s="10">
+      <c r="CU4" s="39"/>
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39">
         <v>2012</v>
       </c>
-      <c r="DG4" s="10"/>
-      <c r="DH4" s="10"/>
-      <c r="DI4" s="10"/>
-      <c r="DJ4" s="10"/>
-      <c r="DK4" s="10"/>
-      <c r="DL4" s="10"/>
-      <c r="DM4" s="10"/>
-      <c r="DN4" s="10"/>
-      <c r="DO4" s="10"/>
-      <c r="DP4" s="10"/>
-      <c r="DQ4" s="10"/>
-      <c r="DR4" s="10">
+      <c r="DG4" s="39"/>
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39">
         <v>2013</v>
       </c>
-      <c r="DS4" s="10"/>
-      <c r="DT4" s="10"/>
-      <c r="DU4" s="10"/>
-      <c r="DV4" s="10"/>
-      <c r="DW4" s="10"/>
-      <c r="DX4" s="10"/>
-      <c r="DY4" s="10"/>
-      <c r="DZ4" s="10"/>
-      <c r="EA4" s="10"/>
-      <c r="EB4" s="10"/>
-      <c r="EC4" s="10"/>
-      <c r="ED4" s="10">
+      <c r="DS4" s="39"/>
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39">
         <v>2014</v>
       </c>
-      <c r="EE4" s="10"/>
-      <c r="EF4" s="10"/>
-      <c r="EG4" s="10"/>
-      <c r="EH4" s="10"/>
-      <c r="EI4" s="10"/>
-      <c r="EJ4" s="10"/>
-      <c r="EK4" s="10"/>
-      <c r="EL4" s="10"/>
-      <c r="EM4" s="10"/>
-      <c r="EN4" s="10"/>
-      <c r="EO4" s="10"/>
-      <c r="EP4" s="10">
+      <c r="EE4" s="39"/>
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="10"/>
-      <c r="ER4" s="10"/>
-      <c r="ES4" s="10"/>
-      <c r="ET4" s="10"/>
-      <c r="EU4" s="10"/>
-      <c r="EV4" s="10"/>
-      <c r="EW4" s="10"/>
-      <c r="EX4" s="10"/>
-      <c r="EY4" s="10"/>
-      <c r="EZ4" s="10"/>
-      <c r="FA4" s="10"/>
-      <c r="FB4" s="10">
+      <c r="EQ4" s="39"/>
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39">
         <v>2016</v>
       </c>
-      <c r="FC4" s="10"/>
-      <c r="FD4" s="10"/>
-      <c r="FE4" s="10"/>
-      <c r="FF4" s="10"/>
-      <c r="FG4" s="10"/>
-      <c r="FH4" s="10"/>
-      <c r="FI4" s="10"/>
-      <c r="FJ4" s="10"/>
-      <c r="FK4" s="10"/>
-      <c r="FL4" s="10"/>
-      <c r="FM4" s="10"/>
-      <c r="FN4" s="10">
+      <c r="FC4" s="39"/>
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39">
         <v>2017</v>
       </c>
-      <c r="FO4" s="10"/>
-      <c r="FP4" s="10"/>
-      <c r="FQ4" s="10"/>
-      <c r="FR4" s="10"/>
-      <c r="FS4" s="10"/>
-      <c r="FT4" s="10"/>
-      <c r="FU4" s="10"/>
-      <c r="FV4" s="10"/>
-      <c r="FW4" s="10"/>
-      <c r="FX4" s="10"/>
-      <c r="FY4" s="10"/>
-      <c r="FZ4" s="10">
+      <c r="FO4" s="39"/>
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39">
         <v>2018</v>
       </c>
-      <c r="GA4" s="10"/>
-      <c r="GB4" s="10"/>
-      <c r="GC4" s="10"/>
-      <c r="GD4" s="10"/>
-      <c r="GE4" s="10"/>
-      <c r="GF4" s="10"/>
-      <c r="GG4" s="10"/>
-      <c r="GH4" s="10"/>
-      <c r="GI4" s="10"/>
-      <c r="GJ4" s="10"/>
-      <c r="GK4" s="10"/>
-      <c r="GL4" s="10">
+      <c r="GA4" s="39"/>
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39">
         <v>2019</v>
       </c>
-      <c r="GM4" s="10"/>
-      <c r="GN4" s="10"/>
-      <c r="GO4" s="10"/>
-      <c r="GP4" s="10"/>
-      <c r="GQ4" s="10"/>
-      <c r="GR4" s="10"/>
-      <c r="GS4" s="10"/>
-      <c r="GT4" s="10"/>
-      <c r="GU4" s="10"/>
-      <c r="GV4" s="10"/>
-      <c r="GW4" s="10"/>
-      <c r="GX4" s="10">
+      <c r="GM4" s="39"/>
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39">
         <v>2020</v>
       </c>
-      <c r="GY4" s="10"/>
-      <c r="GZ4" s="10"/>
-      <c r="HA4" s="10"/>
-      <c r="HB4" s="10"/>
-      <c r="HC4" s="10"/>
-      <c r="HD4" s="10"/>
-      <c r="HE4" s="10"/>
-      <c r="HF4" s="10"/>
-      <c r="HG4" s="10"/>
-      <c r="HH4" s="10"/>
-      <c r="HI4" s="10"/>
-      <c r="HJ4" s="10">
+      <c r="GY4" s="39"/>
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39">
         <v>2021</v>
       </c>
-      <c r="HK4" s="10"/>
-      <c r="HL4" s="10"/>
-      <c r="HM4" s="10"/>
-      <c r="HN4" s="10"/>
-      <c r="HO4" s="10"/>
-      <c r="HP4" s="10"/>
-      <c r="HQ4" s="10"/>
-      <c r="HR4" s="10"/>
-      <c r="HS4" s="10"/>
-      <c r="HT4" s="10"/>
-      <c r="HU4" s="10"/>
-      <c r="HV4" s="10">
+      <c r="HK4" s="39"/>
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39">
         <v>2022</v>
       </c>
-      <c r="HW4" s="10"/>
-      <c r="HX4" s="10"/>
-      <c r="HY4" s="10"/>
-      <c r="HZ4" s="10"/>
-      <c r="IA4" s="10"/>
-      <c r="IB4" s="10"/>
-      <c r="IC4" s="10"/>
-      <c r="ID4" s="10"/>
-      <c r="IE4" s="10"/>
-      <c r="IF4" s="10"/>
-      <c r="IG4" s="10"/>
-      <c r="IH4" s="10">
+      <c r="HW4" s="39"/>
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="39">
         <v>2023</v>
       </c>
-      <c r="II4" s="10"/>
-      <c r="IJ4" s="10"/>
-      <c r="IK4" s="10"/>
-      <c r="IL4" s="10"/>
-      <c r="IM4" s="10"/>
-      <c r="IN4" s="10"/>
-      <c r="IO4" s="10"/>
-      <c r="IP4" s="10"/>
-      <c r="IQ4" s="10"/>
-      <c r="IR4" s="10"/>
-      <c r="IS4" s="10"/>
-      <c r="IT4" s="10">
+      <c r="II4" s="39"/>
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="39">
         <v>2024</v>
       </c>
-      <c r="IU4" s="10"/>
-      <c r="IV4" s="10"/>
-      <c r="IW4" s="10"/>
-      <c r="IX4" s="10"/>
-      <c r="IY4" s="10"/>
-      <c r="IZ4" s="10"/>
-      <c r="JA4" s="10"/>
-      <c r="JB4" s="10"/>
-      <c r="JC4" s="10"/>
-      <c r="JD4" s="10"/>
-      <c r="JE4" s="10"/>
-      <c r="JF4" s="10">
+      <c r="IU4" s="39"/>
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
+      <c r="JC4" s="39"/>
+      <c r="JD4" s="39"/>
+      <c r="JE4" s="41"/>
+      <c r="JF4" s="12">
         <v>2025</v>
       </c>
-      <c r="JG4" s="10"/>
-      <c r="JH4" s="10"/>
+      <c r="JG4" s="13"/>
+      <c r="JH4" s="13"/>
+      <c r="JI4" s="14"/>
     </row>
-    <row r="5" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2254,17 +2679,20 @@
       <c r="JE5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="JF5" s="1" t="s">
+      <c r="JF5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="JG5" s="1" t="s">
+      <c r="JG5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="JH5" s="1" t="s">
+      <c r="JH5" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="JI5" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3069,8 +3497,12 @@
       <c r="JH6" s="4">
         <v>-2437.1465886471001</v>
       </c>
+      <c r="JI6" s="4">
+        <v>-1129.0731575258001</v>
+      </c>
+      <c r="JJ6" s="10"/>
     </row>
-    <row r="7" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -3875,8 +4307,12 @@
       <c r="JH7" s="4">
         <v>-1038.6155426181999</v>
       </c>
+      <c r="JI7" s="4">
+        <v>510.24998397938998</v>
+      </c>
+      <c r="JJ7" s="10"/>
     </row>
-    <row r="8" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -4681,8 +5117,12 @@
       <c r="JH8" s="4">
         <v>1398.5310460288599</v>
       </c>
+      <c r="JI8" s="4">
+        <v>1639.32314150518</v>
+      </c>
+      <c r="JJ8" s="10"/>
     </row>
-    <row r="9" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -5487,8 +5927,12 @@
       <c r="JH9" s="4">
         <v>-657.22961096183997</v>
       </c>
+      <c r="JI9" s="4">
+        <v>-1657.5169613549999</v>
+      </c>
+      <c r="JJ9" s="10"/>
     </row>
-    <row r="10" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -6293,8 +6737,12 @@
       <c r="JH10" s="6">
         <v>671.28308204351197</v>
       </c>
+      <c r="JI10" s="6">
+        <v>343.73157657793701</v>
+      </c>
+      <c r="JJ10" s="10"/>
     </row>
-    <row r="11" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -7099,8 +7547,12 @@
       <c r="JH11" s="6">
         <v>292.57692237241997</v>
       </c>
+      <c r="JI11" s="6">
+        <v>64.153407882679502</v>
+      </c>
+      <c r="JJ11" s="10"/>
     </row>
-    <row r="12" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -7905,8 +8357,12 @@
       <c r="JH12" s="6">
         <v>244.50285204196101</v>
       </c>
+      <c r="JI12" s="6">
+        <v>97.336164640994994</v>
+      </c>
+      <c r="JJ12" s="10"/>
     </row>
-    <row r="13" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -8711,8 +9167,12 @@
       <c r="JH13" s="6">
         <v>134.20330762913099</v>
       </c>
+      <c r="JI13" s="6">
+        <v>182.24200405426299</v>
+      </c>
+      <c r="JJ13" s="10"/>
     </row>
-    <row r="14" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -9517,8 +9977,12 @@
       <c r="JH14" s="6">
         <v>1328.51269300535</v>
       </c>
+      <c r="JI14" s="6">
+        <v>2001.2485379329501</v>
+      </c>
+      <c r="JJ14" s="10"/>
     </row>
-    <row r="15" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -10323,8 +10787,12 @@
       <c r="JH15" s="6">
         <v>422.56395179999998</v>
       </c>
+      <c r="JI15" s="6">
+        <v>409.86418291000001</v>
+      </c>
+      <c r="JJ15" s="10"/>
     </row>
-    <row r="16" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -11129,8 +11597,12 @@
       <c r="JH16" s="6">
         <v>135.66388499054099</v>
       </c>
+      <c r="JI16" s="6">
+        <v>147.847039511666</v>
+      </c>
+      <c r="JJ16" s="10"/>
     </row>
-    <row r="17" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -11935,8 +12407,12 @@
       <c r="JH17" s="6">
         <v>770.28485621481298</v>
       </c>
+      <c r="JI17" s="6">
+        <v>1443.53731551128</v>
+      </c>
+      <c r="JJ17" s="10"/>
     </row>
-    <row r="18" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -12741,8 +13217,12 @@
       <c r="JH18" s="4">
         <v>-122.67399176276</v>
       </c>
+      <c r="JI18" s="4">
+        <v>973.32598835516103</v>
+      </c>
+      <c r="JJ18" s="10"/>
     </row>
-    <row r="19" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -13547,8 +14027,12 @@
       <c r="JH19" s="6">
         <v>1429.45375521248</v>
       </c>
+      <c r="JI19" s="6">
+        <v>912.72190999852296</v>
+      </c>
+      <c r="JJ19" s="10"/>
     </row>
-    <row r="20" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -14353,8 +14837,12 @@
       <c r="JH20" s="6">
         <v>653.40296134363803</v>
       </c>
+      <c r="JI20" s="6">
+        <v>-766.15046552143997</v>
+      </c>
+      <c r="JJ20" s="10"/>
     </row>
-    <row r="21" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -15159,8 +15647,12 @@
       <c r="JH21" s="6">
         <v>776.05079386883699</v>
       </c>
+      <c r="JI21" s="6">
+        <v>1678.8723755199601</v>
+      </c>
+      <c r="JJ21" s="10"/>
     </row>
-    <row r="22" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -15965,8 +16457,12 @@
       <c r="JH22" s="6">
         <v>414.36109591763102</v>
       </c>
+      <c r="JI22" s="6">
+        <v>691.45966908233504</v>
+      </c>
+      <c r="JJ22" s="10"/>
     </row>
-    <row r="23" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -16771,8 +17267,12 @@
       <c r="JH23" s="6">
         <v>361.68969795120699</v>
       </c>
+      <c r="JI23" s="6">
+        <v>987.41270643762903</v>
+      </c>
+      <c r="JJ23" s="10"/>
     </row>
-    <row r="24" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -17577,8 +18077,12 @@
       <c r="JH24" s="6">
         <v>1552.1277469752399</v>
       </c>
+      <c r="JI24" s="6">
+        <v>-60.604078356639</v>
+      </c>
+      <c r="JJ24" s="10"/>
     </row>
-    <row r="25" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -18383,8 +18887,12 @@
       <c r="JH25" s="6">
         <v>-194.15274268139001</v>
       </c>
+      <c r="JI25" s="6">
+        <v>-147.80483949153</v>
+      </c>
+      <c r="JJ25" s="10"/>
     </row>
-    <row r="26" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -19189,8 +19697,12 @@
       <c r="JH26" s="6">
         <v>1746.2804896566299</v>
       </c>
+      <c r="JI26" s="6">
+        <v>87.200761134888396</v>
+      </c>
+      <c r="JJ26" s="10"/>
     </row>
-    <row r="27" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -19995,8 +20507,12 @@
       <c r="JH27" s="6">
         <v>1655.76091237077</v>
       </c>
+      <c r="JI27" s="6">
+        <v>-97.731043398243997</v>
+      </c>
+      <c r="JJ27" s="10"/>
     </row>
-    <row r="28" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -20801,8 +21317,12 @@
       <c r="JH28" s="6">
         <v>90.519577285863306</v>
       </c>
+      <c r="JI28" s="6">
+        <v>184.931804533133</v>
+      </c>
+      <c r="JJ28" s="10"/>
     </row>
-    <row r="29" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -21607,8 +22127,12 @@
       <c r="JH29" s="4">
         <v>-230.69357736489999</v>
       </c>
+      <c r="JI29" s="4">
+        <v>-447.40688744165999</v>
+      </c>
+      <c r="JJ29" s="10"/>
     </row>
-    <row r="30" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -22413,8 +22937,12 @@
       <c r="JH30" s="4">
         <v>-1304.5997980924999</v>
       </c>
+      <c r="JI30" s="4">
+        <v>186.55208288780599</v>
+      </c>
+      <c r="JJ30" s="10"/>
     </row>
-    <row r="31" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -23219,8 +23747,12 @@
       <c r="JH31" s="6">
         <v>-1113.1936478498001</v>
       </c>
+      <c r="JI31" s="6">
+        <v>1576.9893478188601</v>
+      </c>
+      <c r="JJ31" s="10"/>
     </row>
-    <row r="32" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -24025,8 +24557,12 @@
       <c r="JH32" s="6">
         <v>0</v>
       </c>
+      <c r="JI32" s="6">
+        <v>0</v>
+      </c>
+      <c r="JJ32" s="10"/>
     </row>
-    <row r="33" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -24831,8 +25367,12 @@
       <c r="JH33" s="6">
         <v>-578.76194687520001</v>
       </c>
+      <c r="JI33" s="6">
+        <v>-333.75955839901002</v>
+      </c>
+      <c r="JJ33" s="10"/>
     </row>
-    <row r="34" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -25637,8 +26177,12 @@
       <c r="JH34" s="6">
         <v>97.752251761265398</v>
       </c>
+      <c r="JI34" s="6">
+        <v>26.593674307706902</v>
+      </c>
+      <c r="JJ34" s="10"/>
     </row>
-    <row r="35" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -26443,8 +26987,12 @@
       <c r="JH35" s="6">
         <v>-629.33899230357997</v>
       </c>
+      <c r="JI35" s="6">
+        <v>1887.0411434287701</v>
+      </c>
+      <c r="JJ35" s="10"/>
     </row>
-    <row r="36" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -27249,8 +27797,12 @@
       <c r="JH36" s="6">
         <v>-2.8449604323368001</v>
       </c>
+      <c r="JI36" s="6">
+        <v>-2.8859115186099</v>
+      </c>
+      <c r="JJ36" s="10"/>
     </row>
-    <row r="37" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
@@ -28055,8 +28607,12 @@
       <c r="JH37" s="6">
         <v>191.40615024264699</v>
       </c>
+      <c r="JI37" s="6">
+        <v>1390.4372649310601</v>
+      </c>
+      <c r="JJ37" s="10"/>
     </row>
-    <row r="38" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -28861,8 +29417,12 @@
       <c r="JH38" s="6">
         <v>-210.48441373028999</v>
       </c>
+      <c r="JI38" s="6">
+        <v>279.96088745965699</v>
+      </c>
+      <c r="JJ38" s="10"/>
     </row>
-    <row r="39" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -29667,8 +30227,12 @@
       <c r="JH39" s="6">
         <v>326.439831989688</v>
       </c>
+      <c r="JI39" s="6">
+        <v>823.86680792593802</v>
+      </c>
+      <c r="JJ39" s="10"/>
     </row>
-    <row r="40" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -30473,8 +31037,12 @@
       <c r="JH40" s="6">
         <v>66.698167912255798</v>
       </c>
+      <c r="JI40" s="6">
+        <v>278.33611561267401</v>
+      </c>
+      <c r="JJ40" s="10"/>
     </row>
-    <row r="41" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -31279,8 +31847,12 @@
       <c r="JH41" s="6">
         <v>3.4253000000000002E-4</v>
       </c>
+      <c r="JI41" s="6">
+        <v>3.6183999999999999E-4</v>
+      </c>
+      <c r="JJ41" s="10"/>
     </row>
-    <row r="42" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -32085,1892 +32657,1906 @@
       <c r="JH42" s="6">
         <v>8.7522215409898294</v>
       </c>
+      <c r="JI42" s="6">
+        <v>8.2730920927880707</v>
+      </c>
+      <c r="JJ42" s="10"/>
     </row>
-    <row r="43" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="16">
         <v>905.8</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="16">
         <v>35.5</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="16">
         <v>28</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="16">
         <v>-715.9</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="16">
         <v>-312.7</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="16">
         <v>-248</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="16">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="16">
         <v>44.7</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="16">
         <v>15.6</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="16">
         <v>-20.8</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="16">
         <v>43.9</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="16">
         <v>-137.6</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="16">
         <v>139.30000000000001</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="16">
         <v>10</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="16">
         <v>-58</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="16">
         <v>156.80000000000001</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="16">
         <v>92.8</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43" s="16">
         <v>-225.08</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T43" s="16">
         <v>-7.7</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U43" s="16">
         <v>-102.9</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V43" s="16">
         <v>-25.6</v>
       </c>
-      <c r="W43" s="4">
+      <c r="W43" s="16">
         <v>-270.7</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" s="16">
         <v>170.7</v>
       </c>
-      <c r="Y43" s="4">
+      <c r="Y43" s="16">
         <v>-70.400000000000006</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="Z43" s="16">
         <v>-265</v>
       </c>
-      <c r="AA43" s="4">
+      <c r="AA43" s="16">
         <v>-169.1</v>
       </c>
-      <c r="AB43" s="4">
+      <c r="AB43" s="16">
         <v>58.899999999999899</v>
       </c>
-      <c r="AC43" s="4">
+      <c r="AC43" s="16">
         <v>1582</v>
       </c>
-      <c r="AD43" s="4">
+      <c r="AD43" s="16">
         <v>577.5</v>
       </c>
-      <c r="AE43" s="4">
+      <c r="AE43" s="16">
         <v>-548.20000000000005</v>
       </c>
-      <c r="AF43" s="4">
+      <c r="AF43" s="16">
         <v>-434.3</v>
       </c>
-      <c r="AG43" s="4">
+      <c r="AG43" s="16">
         <v>2.5999999999999899</v>
       </c>
-      <c r="AH43" s="4">
+      <c r="AH43" s="16">
         <v>-531.9</v>
       </c>
-      <c r="AI43" s="4">
+      <c r="AI43" s="16">
         <v>-595.9</v>
       </c>
-      <c r="AJ43" s="4">
+      <c r="AJ43" s="16">
         <v>1138.5999999999999</v>
       </c>
-      <c r="AK43" s="4">
+      <c r="AK43" s="16">
         <v>900.5</v>
       </c>
-      <c r="AL43" s="4">
+      <c r="AL43" s="16">
         <v>-1156.8</v>
       </c>
-      <c r="AM43" s="4">
+      <c r="AM43" s="16">
         <v>316.10000000000002</v>
       </c>
-      <c r="AN43" s="4">
+      <c r="AN43" s="16">
         <v>-230.4</v>
       </c>
-      <c r="AO43" s="4">
+      <c r="AO43" s="16">
         <v>1340.9</v>
       </c>
-      <c r="AP43" s="4">
+      <c r="AP43" s="16">
         <v>554.6</v>
       </c>
-      <c r="AQ43" s="4">
+      <c r="AQ43" s="16">
         <v>-474.8</v>
       </c>
-      <c r="AR43" s="4">
+      <c r="AR43" s="16">
         <v>-602.04999999999995</v>
       </c>
-      <c r="AS43" s="4">
+      <c r="AS43" s="16">
         <v>-94.1</v>
       </c>
-      <c r="AT43" s="4">
+      <c r="AT43" s="16">
         <v>621.20000000000005</v>
       </c>
-      <c r="AU43" s="4">
+      <c r="AU43" s="16">
         <v>-63.25</v>
       </c>
-      <c r="AV43" s="4">
+      <c r="AV43" s="16">
         <v>-500.3</v>
       </c>
-      <c r="AW43" s="4">
+      <c r="AW43" s="16">
         <v>2286.349929</v>
       </c>
-      <c r="AX43" s="4">
+      <c r="AX43" s="16">
         <v>-1984.5819618702999</v>
       </c>
-      <c r="AY43" s="4">
+      <c r="AY43" s="16">
         <v>-1320.8036648673999</v>
       </c>
-      <c r="AZ43" s="4">
+      <c r="AZ43" s="16">
         <v>-816.82869184317997</v>
       </c>
-      <c r="BA43" s="4">
+      <c r="BA43" s="16">
         <v>2046.8821723224301</v>
       </c>
-      <c r="BB43" s="4">
+      <c r="BB43" s="16">
         <v>-459.73266682114001</v>
       </c>
-      <c r="BC43" s="4">
+      <c r="BC43" s="16">
         <v>950.92180220721696</v>
       </c>
-      <c r="BD43" s="4">
+      <c r="BD43" s="16">
         <v>526.45354186426505</v>
       </c>
-      <c r="BE43" s="4">
+      <c r="BE43" s="16">
         <v>-2825.6148634095998</v>
       </c>
-      <c r="BF43" s="4">
+      <c r="BF43" s="16">
         <v>347.63782526791499</v>
       </c>
-      <c r="BG43" s="4">
+      <c r="BG43" s="16">
         <v>-37.93311167121</v>
       </c>
-      <c r="BH43" s="4">
+      <c r="BH43" s="16">
         <v>-385.68128578264998</v>
       </c>
-      <c r="BI43" s="4">
+      <c r="BI43" s="16">
         <v>745.13879251755804</v>
       </c>
-      <c r="BJ43" s="4">
+      <c r="BJ43" s="16">
         <v>-178.74965394621</v>
       </c>
-      <c r="BK43" s="4">
+      <c r="BK43" s="16">
         <v>94.9822744421664</v>
       </c>
-      <c r="BL43" s="4">
+      <c r="BL43" s="16">
         <v>433.10229808624001</v>
       </c>
-      <c r="BM43" s="4">
+      <c r="BM43" s="16">
         <v>511.077306417035</v>
       </c>
-      <c r="BN43" s="4">
+      <c r="BN43" s="16">
         <v>934.71520834795604</v>
       </c>
-      <c r="BO43" s="4">
+      <c r="BO43" s="16">
         <v>973.611525330772</v>
       </c>
-      <c r="BP43" s="4">
+      <c r="BP43" s="16">
         <v>1708.1426290737299</v>
       </c>
-      <c r="BQ43" s="4">
+      <c r="BQ43" s="16">
         <v>945.13444913146202</v>
       </c>
-      <c r="BR43" s="4">
+      <c r="BR43" s="16">
         <v>1961.88342489347</v>
       </c>
-      <c r="BS43" s="4">
+      <c r="BS43" s="16">
         <v>-186.79698717632999</v>
       </c>
-      <c r="BT43" s="4">
+      <c r="BT43" s="16">
         <v>-1105.6225249404999</v>
       </c>
-      <c r="BU43" s="4">
+      <c r="BU43" s="16">
         <v>352.76588644283203</v>
       </c>
-      <c r="BV43" s="4">
+      <c r="BV43" s="16">
         <v>738.66985719165996</v>
       </c>
-      <c r="BW43" s="4">
+      <c r="BW43" s="16">
         <v>-363.56995113506002</v>
       </c>
-      <c r="BX43" s="4">
+      <c r="BX43" s="16">
         <v>84.544282215092693</v>
       </c>
-      <c r="BY43" s="4">
+      <c r="BY43" s="16">
         <v>187.50239709587399</v>
       </c>
-      <c r="BZ43" s="4">
+      <c r="BZ43" s="16">
         <v>-24.168840682945</v>
       </c>
-      <c r="CA43" s="4">
+      <c r="CA43" s="16">
         <v>-626.07936197508002</v>
       </c>
-      <c r="CB43" s="4">
+      <c r="CB43" s="16">
         <v>-1.1285624138940999</v>
       </c>
-      <c r="CC43" s="4">
+      <c r="CC43" s="16">
         <v>1379.1852882677699</v>
       </c>
-      <c r="CD43" s="4">
+      <c r="CD43" s="16">
         <v>739.24116301640299</v>
       </c>
-      <c r="CE43" s="4">
+      <c r="CE43" s="16">
         <v>-274.65101078380002</v>
       </c>
-      <c r="CF43" s="4">
+      <c r="CF43" s="16">
         <v>-24.443656701186999</v>
       </c>
-      <c r="CG43" s="4">
+      <c r="CG43" s="16">
         <v>-167.35420771413001</v>
       </c>
-      <c r="CH43" s="4">
+      <c r="CH43" s="16">
         <v>-180.02318997272999</v>
       </c>
-      <c r="CI43" s="4">
+      <c r="CI43" s="16">
         <v>276.49283350000002</v>
       </c>
-      <c r="CJ43" s="4">
+      <c r="CJ43" s="16">
         <v>759.05412273138904</v>
       </c>
-      <c r="CK43" s="4">
+      <c r="CK43" s="16">
         <v>-49.717873738686997</v>
       </c>
-      <c r="CL43" s="4">
+      <c r="CL43" s="16">
         <v>106.682191795802</v>
       </c>
-      <c r="CM43" s="4">
+      <c r="CM43" s="16">
         <v>293.09063078905899</v>
       </c>
-      <c r="CN43" s="4">
+      <c r="CN43" s="16">
         <v>-121.18838798236</v>
       </c>
-      <c r="CO43" s="4">
+      <c r="CO43" s="16">
         <v>-269.61108757984999</v>
       </c>
-      <c r="CP43" s="4">
+      <c r="CP43" s="16">
         <v>423.96148067796003</v>
       </c>
-      <c r="CQ43" s="4">
+      <c r="CQ43" s="16">
         <v>-207.17374284390999</v>
       </c>
-      <c r="CR43" s="4">
+      <c r="CR43" s="16">
         <v>231.71837538669001</v>
       </c>
-      <c r="CS43" s="4">
+      <c r="CS43" s="16">
         <v>1760.54763608958</v>
       </c>
-      <c r="CT43" s="4">
+      <c r="CT43" s="16">
         <v>-1134.6004728534001</v>
       </c>
-      <c r="CU43" s="4">
+      <c r="CU43" s="16">
         <v>1292.3416520000001</v>
       </c>
-      <c r="CV43" s="4">
+      <c r="CV43" s="16">
         <v>2750.59310234553</v>
       </c>
-      <c r="CW43" s="4">
+      <c r="CW43" s="16">
         <v>-305.7647324774</v>
       </c>
-      <c r="CX43" s="4">
+      <c r="CX43" s="16">
         <v>1248.0231814394001</v>
       </c>
-      <c r="CY43" s="4">
+      <c r="CY43" s="16">
         <v>2009.4823897998499</v>
       </c>
-      <c r="CZ43" s="4">
+      <c r="CZ43" s="16">
         <v>-548.31328345182999</v>
       </c>
-      <c r="DA43" s="4">
+      <c r="DA43" s="16">
         <v>1643.2135306983701</v>
       </c>
-      <c r="DB43" s="4">
+      <c r="DB43" s="16">
         <v>2555.4248205466602</v>
       </c>
-      <c r="DC43" s="4">
+      <c r="DC43" s="16">
         <v>5.4196477184270897</v>
       </c>
-      <c r="DD43" s="4">
+      <c r="DD43" s="16">
         <v>1190.75918456769</v>
       </c>
-      <c r="DE43" s="4">
+      <c r="DE43" s="16">
         <v>3483.5164320264898</v>
       </c>
-      <c r="DF43" s="4">
+      <c r="DF43" s="16">
         <v>-3159.2705756367</v>
       </c>
-      <c r="DG43" s="4">
+      <c r="DG43" s="16">
         <v>-242.82307978380001</v>
       </c>
-      <c r="DH43" s="4">
+      <c r="DH43" s="16">
         <v>561.374015191073</v>
       </c>
-      <c r="DI43" s="4">
+      <c r="DI43" s="16">
         <v>-939.35221488756997</v>
       </c>
-      <c r="DJ43" s="4">
+      <c r="DJ43" s="16">
         <v>731.61545672021805</v>
       </c>
-      <c r="DK43" s="4">
+      <c r="DK43" s="16">
         <v>1995.34298234887</v>
       </c>
-      <c r="DL43" s="4">
+      <c r="DL43" s="16">
         <v>-2025.7520538686999</v>
       </c>
-      <c r="DM43" s="4">
+      <c r="DM43" s="16">
         <v>-176.74973049440999</v>
       </c>
-      <c r="DN43" s="4">
+      <c r="DN43" s="16">
         <v>1283.8281479688301</v>
       </c>
-      <c r="DO43" s="4">
+      <c r="DO43" s="16">
         <v>-1037.7107047070999</v>
       </c>
-      <c r="DP43" s="4">
+      <c r="DP43" s="16">
         <v>782.58327392570698</v>
       </c>
-      <c r="DQ43" s="4">
+      <c r="DQ43" s="16">
         <v>1860.12651498747</v>
       </c>
-      <c r="DR43" s="4">
+      <c r="DR43" s="16">
         <v>-1699.0339461217</v>
       </c>
-      <c r="DS43" s="4">
+      <c r="DS43" s="16">
         <v>-200.27362063052001</v>
       </c>
-      <c r="DT43" s="4">
+      <c r="DT43" s="16">
         <v>664.99099579497602</v>
       </c>
-      <c r="DU43" s="4">
+      <c r="DU43" s="16">
         <v>1177.30439702485</v>
       </c>
-      <c r="DV43" s="4">
+      <c r="DV43" s="16">
         <v>-565.79229469810002</v>
       </c>
-      <c r="DW43" s="4">
+      <c r="DW43" s="16">
         <v>1161.30406622642</v>
       </c>
-      <c r="DX43" s="4">
+      <c r="DX43" s="16">
         <v>-1127.5413171235</v>
       </c>
-      <c r="DY43" s="4">
+      <c r="DY43" s="16">
         <v>791.26738353688495</v>
       </c>
-      <c r="DZ43" s="4">
+      <c r="DZ43" s="16">
         <v>1100.8197052312801</v>
       </c>
-      <c r="EA43" s="4">
+      <c r="EA43" s="16">
         <v>-1648.4764632797001</v>
       </c>
-      <c r="EB43" s="4">
+      <c r="EB43" s="16">
         <v>-603.28171225606002</v>
       </c>
-      <c r="EC43" s="4">
+      <c r="EC43" s="16">
         <v>1260.1280682686399</v>
       </c>
-      <c r="ED43" s="4">
+      <c r="ED43" s="16">
         <v>-856.48472860162997</v>
       </c>
-      <c r="EE43" s="4">
+      <c r="EE43" s="16">
         <v>-226.70307692929001</v>
       </c>
-      <c r="EF43" s="4">
+      <c r="EF43" s="16">
         <v>948.72297773927301</v>
       </c>
-      <c r="EG43" s="4">
+      <c r="EG43" s="16">
         <v>-796.05416632407002</v>
       </c>
-      <c r="EH43" s="4">
+      <c r="EH43" s="16">
         <v>660.50623116000702</v>
       </c>
-      <c r="EI43" s="4">
+      <c r="EI43" s="16">
         <v>25.4844096841022</v>
       </c>
-      <c r="EJ43" s="4">
+      <c r="EJ43" s="16">
         <v>-406.69624237087999</v>
       </c>
-      <c r="EK43" s="4">
+      <c r="EK43" s="16">
         <v>35.408939660488301</v>
       </c>
-      <c r="EL43" s="4">
+      <c r="EL43" s="16">
         <v>550.93543200701004</v>
       </c>
-      <c r="EM43" s="4">
+      <c r="EM43" s="16">
         <v>-434.70554966664002</v>
       </c>
-      <c r="EN43" s="4">
+      <c r="EN43" s="16">
         <v>542.88068364945195</v>
       </c>
-      <c r="EO43" s="4">
+      <c r="EO43" s="16">
         <v>1013.5601578062</v>
       </c>
-      <c r="EP43" s="4">
+      <c r="EP43" s="16">
         <v>485.43062419589899</v>
       </c>
-      <c r="EQ43" s="4">
+      <c r="EQ43" s="16">
         <v>-1882.2159291336</v>
       </c>
-      <c r="ER43" s="4">
+      <c r="ER43" s="16">
         <v>792.11289604928095</v>
       </c>
-      <c r="ES43" s="4">
+      <c r="ES43" s="16">
         <v>10.1469516936262</v>
       </c>
-      <c r="ET43" s="4">
+      <c r="ET43" s="16">
         <v>264.37728101418702</v>
       </c>
-      <c r="EU43" s="4">
+      <c r="EU43" s="16">
         <v>-563.85031725044996</v>
       </c>
-      <c r="EV43" s="4">
+      <c r="EV43" s="16">
         <v>319.63516158433202</v>
       </c>
-      <c r="EW43" s="4">
+      <c r="EW43" s="16">
         <v>216.313844906811</v>
       </c>
-      <c r="EX43" s="4">
+      <c r="EX43" s="16">
         <v>-165.52362638989001</v>
       </c>
-      <c r="EY43" s="4">
+      <c r="EY43" s="16">
         <v>433.61762480784103</v>
       </c>
-      <c r="EZ43" s="4">
+      <c r="EZ43" s="16">
         <v>193.365522559585</v>
       </c>
-      <c r="FA43" s="4">
+      <c r="FA43" s="16">
         <v>107.711321826969</v>
       </c>
-      <c r="FB43" s="4">
+      <c r="FB43" s="16">
         <v>-354.10155910857998</v>
       </c>
-      <c r="FC43" s="4">
+      <c r="FC43" s="16">
         <v>-279.92025681541998</v>
       </c>
-      <c r="FD43" s="4">
+      <c r="FD43" s="16">
         <v>771.21186488427895</v>
       </c>
-      <c r="FE43" s="4">
+      <c r="FE43" s="16">
         <v>262.324057886964</v>
       </c>
-      <c r="FF43" s="4">
+      <c r="FF43" s="16">
         <v>353.50854730778502</v>
       </c>
-      <c r="FG43" s="4">
+      <c r="FG43" s="16">
         <v>-371.37311671985998</v>
       </c>
-      <c r="FH43" s="4">
+      <c r="FH43" s="16">
         <v>-221.27378346248</v>
       </c>
-      <c r="FI43" s="4">
+      <c r="FI43" s="16">
         <v>-356.02624813239999</v>
       </c>
-      <c r="FJ43" s="4">
+      <c r="FJ43" s="16">
         <v>275.53808212584897</v>
       </c>
-      <c r="FK43" s="4">
+      <c r="FK43" s="16">
         <v>105.744878813178</v>
       </c>
-      <c r="FL43" s="4">
+      <c r="FL43" s="16">
         <v>286.06105216695897</v>
       </c>
-      <c r="FM43" s="4">
+      <c r="FM43" s="16">
         <v>1333.39910166957</v>
       </c>
-      <c r="FN43" s="4">
+      <c r="FN43" s="16">
         <v>-1076.7823250147001</v>
       </c>
-      <c r="FO43" s="4">
+      <c r="FO43" s="16">
         <v>-234.51037185759</v>
       </c>
-      <c r="FP43" s="4">
+      <c r="FP43" s="16">
         <v>-675.29386319022001</v>
       </c>
-      <c r="FQ43" s="4">
+      <c r="FQ43" s="16">
         <v>-127.2267261465</v>
       </c>
-      <c r="FR43" s="4">
+      <c r="FR43" s="16">
         <v>-372.58331242591998</v>
       </c>
-      <c r="FS43" s="4">
+      <c r="FS43" s="16">
         <v>-75.973642870988996</v>
       </c>
-      <c r="FT43" s="4">
+      <c r="FT43" s="16">
         <v>-876.93859704284</v>
       </c>
-      <c r="FU43" s="4">
+      <c r="FU43" s="16">
         <v>490.40634530185201</v>
       </c>
-      <c r="FV43" s="4">
+      <c r="FV43" s="16">
         <v>-1066.3613009686001</v>
       </c>
-      <c r="FW43" s="4">
+      <c r="FW43" s="16">
         <v>1739.5923016326501</v>
       </c>
-      <c r="FX43" s="4">
+      <c r="FX43" s="16">
         <v>-1481.6190044291</v>
       </c>
-      <c r="FY43" s="4">
+      <c r="FY43" s="16">
         <v>1007.68973449067</v>
       </c>
-      <c r="FZ43" s="4">
+      <c r="FZ43" s="16">
         <v>-690.80148546244004</v>
       </c>
-      <c r="GA43" s="4">
+      <c r="GA43" s="16">
         <v>-66.965017051512007</v>
       </c>
-      <c r="GB43" s="4">
+      <c r="GB43" s="16">
         <v>-385.24252914591</v>
       </c>
-      <c r="GC43" s="4">
+      <c r="GC43" s="16">
         <v>-498.56642212350999</v>
       </c>
-      <c r="GD43" s="4">
+      <c r="GD43" s="16">
         <v>192.88503463355499</v>
       </c>
-      <c r="GE43" s="4">
+      <c r="GE43" s="16">
         <v>-87.618118331282005</v>
       </c>
-      <c r="GF43" s="4">
+      <c r="GF43" s="16">
         <v>536.345549278014</v>
       </c>
-      <c r="GG43" s="4">
+      <c r="GG43" s="16">
         <v>-809.37827100876996</v>
       </c>
-      <c r="GH43" s="4">
+      <c r="GH43" s="16">
         <v>450.33618949808999</v>
       </c>
-      <c r="GI43" s="4">
+      <c r="GI43" s="16">
         <v>575.58521994704904</v>
       </c>
-      <c r="GJ43" s="4">
+      <c r="GJ43" s="16">
         <v>1953.11912032798</v>
       </c>
-      <c r="GK43" s="4">
+      <c r="GK43" s="16">
         <v>227.01556534863701</v>
       </c>
-      <c r="GL43" s="4">
+      <c r="GL43" s="16">
         <v>-1255.5593225473999</v>
       </c>
-      <c r="GM43" s="4">
+      <c r="GM43" s="16">
         <v>-85.805718117249995</v>
       </c>
-      <c r="GN43" s="4">
+      <c r="GN43" s="16">
         <v>177.73366265022301</v>
       </c>
-      <c r="GO43" s="4">
+      <c r="GO43" s="16">
         <v>-581.43734849991995</v>
       </c>
-      <c r="GP43" s="4">
+      <c r="GP43" s="16">
         <v>-65.556362512608999</v>
       </c>
-      <c r="GQ43" s="4">
+      <c r="GQ43" s="16">
         <v>763.80915151106501</v>
       </c>
-      <c r="GR43" s="4">
+      <c r="GR43" s="16">
         <v>-212.86460472195</v>
       </c>
-      <c r="GS43" s="4">
+      <c r="GS43" s="16">
         <v>-274.65763183578002</v>
       </c>
-      <c r="GT43" s="4">
+      <c r="GT43" s="16">
         <v>-250.97542234671999</v>
       </c>
-      <c r="GU43" s="4">
+      <c r="GU43" s="16">
         <v>911.98865929686895</v>
       </c>
-      <c r="GV43" s="4">
+      <c r="GV43" s="16">
         <v>-973.11593283995001</v>
       </c>
-      <c r="GW43" s="4">
+      <c r="GW43" s="16">
         <v>1693.9612745038701</v>
       </c>
-      <c r="GX43" s="4">
+      <c r="GX43" s="16">
         <v>-3114.1752898877999</v>
       </c>
-      <c r="GY43" s="4">
+      <c r="GY43" s="16">
         <v>-1297.4287019348999</v>
       </c>
-      <c r="GZ43" s="4">
+      <c r="GZ43" s="16">
         <v>2034.3552343239401</v>
       </c>
-      <c r="HA43" s="4">
+      <c r="HA43" s="16">
         <v>-1084.2572293674</v>
       </c>
-      <c r="HB43" s="4">
+      <c r="HB43" s="16">
         <v>-171.81275799513</v>
       </c>
-      <c r="HC43" s="4">
+      <c r="HC43" s="16">
         <v>-509.44791017588</v>
       </c>
-      <c r="HD43" s="4">
+      <c r="HD43" s="16">
         <v>-304.34803420076003</v>
       </c>
-      <c r="HE43" s="4">
+      <c r="HE43" s="16">
         <v>663.41562418438002</v>
       </c>
-      <c r="HF43" s="4">
+      <c r="HF43" s="16">
         <v>249.73305055440699</v>
       </c>
-      <c r="HG43" s="4">
+      <c r="HG43" s="16">
         <v>319.43763212685502</v>
       </c>
-      <c r="HH43" s="4">
+      <c r="HH43" s="16">
         <v>-790.95967515466998</v>
       </c>
-      <c r="HI43" s="4">
+      <c r="HI43" s="16">
         <v>1110.5330856324299</v>
       </c>
-      <c r="HJ43" s="4">
+      <c r="HJ43" s="16">
         <v>-111.13705406050001</v>
       </c>
-      <c r="HK43" s="4">
+      <c r="HK43" s="16">
         <v>686.06355969634603</v>
       </c>
-      <c r="HL43" s="4">
+      <c r="HL43" s="16">
         <v>880.19703620159896</v>
       </c>
-      <c r="HM43" s="4">
+      <c r="HM43" s="16">
         <v>2109.18799845176</v>
       </c>
-      <c r="HN43" s="4">
+      <c r="HN43" s="16">
         <v>4932.2983016542303</v>
       </c>
-      <c r="HO43" s="4">
+      <c r="HO43" s="16">
         <v>-2595.7859130034999</v>
       </c>
-      <c r="HP43" s="4">
+      <c r="HP43" s="16">
         <v>3598.89800382154</v>
       </c>
-      <c r="HQ43" s="4">
+      <c r="HQ43" s="16">
         <v>3367.5035551314299</v>
       </c>
-      <c r="HR43" s="4">
+      <c r="HR43" s="16">
         <v>1708.6467468130199</v>
       </c>
-      <c r="HS43" s="4">
+      <c r="HS43" s="16">
         <v>1540.62447646136</v>
       </c>
-      <c r="HT43" s="4">
+      <c r="HT43" s="16">
         <v>-1730.4196291781</v>
       </c>
-      <c r="HU43" s="4">
+      <c r="HU43" s="16">
         <v>-2174.6053083909001</v>
       </c>
-      <c r="HV43" s="4">
+      <c r="HV43" s="16">
         <v>-19.137787592942999</v>
       </c>
-      <c r="HW43" s="4">
+      <c r="HW43" s="16">
         <v>-553.77382030563001</v>
       </c>
-      <c r="HX43" s="4">
+      <c r="HX43" s="16">
         <v>-1206.3921973399999</v>
       </c>
-      <c r="HY43" s="4">
+      <c r="HY43" s="16">
         <v>1162.71617261344</v>
       </c>
-      <c r="HZ43" s="4">
+      <c r="HZ43" s="16">
         <v>-2230.2681606450001</v>
       </c>
-      <c r="IA43" s="4">
+      <c r="IA43" s="16">
         <v>93.900935784938596</v>
       </c>
-      <c r="IB43" s="4">
+      <c r="IB43" s="16">
         <v>-2045.3621032151</v>
       </c>
-      <c r="IC43" s="4">
+      <c r="IC43" s="16">
         <v>-2323.4686607311</v>
       </c>
-      <c r="ID43" s="4">
+      <c r="ID43" s="16">
         <v>-2655.0541050149</v>
       </c>
-      <c r="IE43" s="4">
+      <c r="IE43" s="16">
         <v>73.606745246315697</v>
       </c>
-      <c r="IF43" s="4">
+      <c r="IF43" s="16">
         <v>44.324407998723601</v>
       </c>
-      <c r="IG43" s="4">
+      <c r="IG43" s="16">
         <v>457.74093615687701</v>
       </c>
-      <c r="IH43" s="4">
+      <c r="IH43" s="16">
         <v>-354.12633401796</v>
       </c>
-      <c r="II43" s="4">
+      <c r="II43" s="16">
         <v>259.64047022095298</v>
       </c>
-      <c r="IJ43" s="4">
+      <c r="IJ43" s="16">
         <v>-236.17848457529999</v>
       </c>
-      <c r="IK43" s="4">
+      <c r="IK43" s="16">
         <v>142.90034315455799</v>
       </c>
-      <c r="IL43" s="4">
+      <c r="IL43" s="16">
         <v>99.026665024903195</v>
       </c>
-      <c r="IM43" s="4">
+      <c r="IM43" s="16">
         <v>218.05627308994201</v>
       </c>
-      <c r="IN43" s="4">
+      <c r="IN43" s="16">
         <v>835.69348272146794</v>
       </c>
-      <c r="IO43" s="4">
+      <c r="IO43" s="16">
         <v>571.20810051854801</v>
       </c>
-      <c r="IP43" s="4">
+      <c r="IP43" s="16">
         <v>778.83340397603297</v>
       </c>
-      <c r="IQ43" s="4">
+      <c r="IQ43" s="16">
         <v>1407.52751138095</v>
       </c>
-      <c r="IR43" s="4">
+      <c r="IR43" s="16">
         <v>-292.67782266940998</v>
       </c>
-      <c r="IS43" s="4">
+      <c r="IS43" s="16">
         <v>3357.9118272445899</v>
       </c>
-      <c r="IT43" s="4">
+      <c r="IT43" s="16">
         <v>33.705656762179203</v>
       </c>
-      <c r="IU43" s="4">
+      <c r="IU43" s="16">
         <v>24.1431511055107</v>
       </c>
-      <c r="IV43" s="4">
+      <c r="IV43" s="16">
         <v>-629.62500753250004</v>
       </c>
-      <c r="IW43" s="4">
+      <c r="IW43" s="16">
         <v>-1400.6848621898</v>
       </c>
-      <c r="IX43" s="4">
+      <c r="IX43" s="16">
         <v>1486.70038775997</v>
       </c>
-      <c r="IY43" s="4">
+      <c r="IY43" s="16">
         <v>-1955.4828270138</v>
       </c>
-      <c r="IZ43" s="4">
+      <c r="IZ43" s="16">
         <v>973.66785232147402</v>
       </c>
-      <c r="JA43" s="4">
+      <c r="JA43" s="16">
         <v>94.3431453500624</v>
       </c>
-      <c r="JB43" s="4">
+      <c r="JB43" s="16">
         <v>-1107.7323739668</v>
       </c>
-      <c r="JC43" s="4">
+      <c r="JC43" s="16">
         <v>-227.79080568742</v>
       </c>
-      <c r="JD43" s="4">
+      <c r="JD43" s="16">
         <v>290.86393915602503</v>
       </c>
-      <c r="JE43" s="4">
+      <c r="JE43" s="16">
         <v>-161.44146470314999</v>
       </c>
-      <c r="JF43" s="4">
+      <c r="JF43" s="16">
         <v>-198.08910227215</v>
       </c>
-      <c r="JG43" s="4">
+      <c r="JG43" s="16">
         <v>65.031576540631093</v>
       </c>
-      <c r="JH43" s="4">
+      <c r="JH43" s="16">
         <v>-121.94961046506999</v>
       </c>
+      <c r="JI43" s="16">
+        <v>-184.02737997209999</v>
+      </c>
+      <c r="JJ43" s="10"/>
     </row>
-    <row r="44" spans="1:268" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
-      <c r="AO44" s="12"/>
-      <c r="AP44" s="12"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="12"/>
-      <c r="AS44" s="12"/>
-      <c r="AT44" s="12"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="12"/>
-      <c r="AW44" s="12"/>
-      <c r="AX44" s="12"/>
-      <c r="AY44" s="12"/>
-      <c r="AZ44" s="12"/>
-      <c r="BA44" s="12"/>
-      <c r="BB44" s="12"/>
-      <c r="BC44" s="12"/>
-      <c r="BD44" s="12"/>
-      <c r="BE44" s="12"/>
-      <c r="BF44" s="12"/>
-      <c r="BG44" s="12"/>
-      <c r="BH44" s="12"/>
-      <c r="BI44" s="12"/>
-      <c r="BJ44" s="12"/>
-      <c r="BK44" s="12"/>
-      <c r="BL44" s="12"/>
-      <c r="BM44" s="12"/>
-      <c r="BN44" s="12"/>
-      <c r="BO44" s="12"/>
-      <c r="BP44" s="12"/>
-      <c r="BQ44" s="12"/>
-      <c r="BR44" s="12"/>
-      <c r="BS44" s="12"/>
-      <c r="BT44" s="12"/>
-      <c r="BU44" s="12"/>
-      <c r="BV44" s="12"/>
-      <c r="BW44" s="12"/>
-      <c r="BX44" s="12"/>
-      <c r="BY44" s="12"/>
-      <c r="BZ44" s="12"/>
-      <c r="CA44" s="12"/>
-      <c r="CB44" s="12"/>
-      <c r="CC44" s="12"/>
-      <c r="CD44" s="12"/>
-      <c r="CE44" s="12"/>
-      <c r="CF44" s="12"/>
-      <c r="CG44" s="12"/>
-      <c r="CH44" s="12"/>
-      <c r="CI44" s="12"/>
-      <c r="CJ44" s="12"/>
-      <c r="CK44" s="12"/>
-      <c r="CL44" s="12"/>
-      <c r="CM44" s="12"/>
-      <c r="CN44" s="12"/>
-      <c r="CO44" s="12"/>
-      <c r="CP44" s="12"/>
-      <c r="CQ44" s="12"/>
-      <c r="CR44" s="12"/>
-      <c r="CS44" s="12"/>
-      <c r="CT44" s="12"/>
-      <c r="CU44" s="12"/>
-      <c r="CV44" s="12"/>
-      <c r="CW44" s="12"/>
-      <c r="CX44" s="12"/>
-      <c r="CY44" s="12"/>
-      <c r="CZ44" s="12"/>
-      <c r="DA44" s="12"/>
-      <c r="DB44" s="12"/>
-      <c r="DC44" s="12"/>
-      <c r="DD44" s="12"/>
-      <c r="DE44" s="12"/>
-      <c r="DF44" s="12"/>
-      <c r="DG44" s="12"/>
-      <c r="DH44" s="12"/>
-      <c r="DI44" s="12"/>
-      <c r="DJ44" s="12"/>
-      <c r="DK44" s="12"/>
-      <c r="DL44" s="12"/>
-      <c r="DM44" s="12"/>
-      <c r="DN44" s="12"/>
-      <c r="DO44" s="12"/>
-      <c r="DP44" s="12"/>
-      <c r="DQ44" s="12"/>
-      <c r="DR44" s="12"/>
-      <c r="DS44" s="12"/>
-      <c r="DT44" s="12"/>
-      <c r="DU44" s="12"/>
-      <c r="DV44" s="12"/>
-      <c r="DW44" s="12"/>
-      <c r="DX44" s="12"/>
-      <c r="DY44" s="12"/>
-      <c r="DZ44" s="12"/>
-      <c r="EA44" s="12"/>
-      <c r="EB44" s="12"/>
-      <c r="EC44" s="12"/>
-      <c r="ED44" s="12"/>
-      <c r="EE44" s="12"/>
-      <c r="EF44" s="12"/>
-      <c r="EG44" s="12"/>
-      <c r="EH44" s="12"/>
-      <c r="EI44" s="12"/>
-      <c r="EJ44" s="12"/>
-      <c r="EK44" s="12"/>
-      <c r="EL44" s="12"/>
-      <c r="EM44" s="12"/>
-      <c r="EN44" s="12"/>
-      <c r="EO44" s="12"/>
-      <c r="EP44" s="12"/>
-      <c r="EQ44" s="12"/>
-      <c r="ER44" s="12"/>
-      <c r="ES44" s="12"/>
-      <c r="ET44" s="12"/>
-      <c r="EU44" s="12"/>
-      <c r="EV44" s="12"/>
-      <c r="EW44" s="12"/>
-      <c r="EX44" s="12"/>
-      <c r="EY44" s="12"/>
-      <c r="EZ44" s="12"/>
-      <c r="FA44" s="12"/>
-      <c r="FB44" s="12"/>
-      <c r="FC44" s="12"/>
-      <c r="FD44" s="12"/>
-      <c r="FE44" s="12"/>
-      <c r="FF44" s="12"/>
-      <c r="FG44" s="12"/>
-      <c r="FH44" s="12"/>
-      <c r="FI44" s="12"/>
-      <c r="FJ44" s="12"/>
-      <c r="FK44" s="12"/>
-      <c r="FL44" s="12"/>
-      <c r="FM44" s="12"/>
-      <c r="FN44" s="12"/>
-      <c r="FO44" s="12"/>
-      <c r="FP44" s="12"/>
-      <c r="FQ44" s="12"/>
-      <c r="FR44" s="12"/>
-      <c r="FS44" s="12"/>
-      <c r="FT44" s="12"/>
-      <c r="FU44" s="12"/>
-      <c r="FV44" s="12"/>
-      <c r="FW44" s="12"/>
-      <c r="FX44" s="12"/>
-      <c r="FY44" s="12"/>
-      <c r="FZ44" s="12"/>
-      <c r="GA44" s="12"/>
-      <c r="GB44" s="12"/>
-      <c r="GC44" s="12"/>
-      <c r="GD44" s="12"/>
-      <c r="GE44" s="12"/>
-      <c r="GF44" s="12"/>
-      <c r="GG44" s="12"/>
-      <c r="GH44" s="12"/>
-      <c r="GI44" s="12"/>
-      <c r="GJ44" s="12"/>
-      <c r="GK44" s="12"/>
-      <c r="GL44" s="12"/>
-      <c r="GM44" s="12"/>
-      <c r="GN44" s="12"/>
-      <c r="GO44" s="12"/>
-      <c r="GP44" s="12"/>
-      <c r="GQ44" s="12"/>
-      <c r="GR44" s="12"/>
-      <c r="GS44" s="12"/>
-      <c r="GT44" s="12"/>
-      <c r="GU44" s="12"/>
-      <c r="GV44" s="12"/>
-      <c r="GW44" s="12"/>
-      <c r="GX44" s="12"/>
-      <c r="GY44" s="12"/>
-      <c r="GZ44" s="12"/>
-      <c r="HA44" s="12"/>
-      <c r="HB44" s="12"/>
-      <c r="HC44" s="12"/>
-      <c r="HD44" s="12"/>
-      <c r="HE44" s="12"/>
-      <c r="HF44" s="12"/>
-      <c r="HG44" s="12"/>
-      <c r="HH44" s="12"/>
-      <c r="HI44" s="12"/>
-      <c r="HJ44" s="12"/>
-      <c r="HK44" s="12"/>
-      <c r="HL44" s="12"/>
-      <c r="HM44" s="12"/>
-      <c r="HN44" s="12"/>
-      <c r="HO44" s="12"/>
-      <c r="HP44" s="12"/>
-      <c r="HQ44" s="12"/>
-      <c r="HR44" s="12"/>
-      <c r="HS44" s="12"/>
-      <c r="HT44" s="12"/>
-      <c r="HU44" s="12"/>
-      <c r="HV44" s="12"/>
-      <c r="HW44" s="12"/>
-      <c r="HX44" s="12"/>
-      <c r="HY44" s="12"/>
-      <c r="HZ44" s="12"/>
-      <c r="IA44" s="12"/>
-      <c r="IB44" s="12"/>
-      <c r="IC44" s="12"/>
-      <c r="ID44" s="12"/>
-      <c r="IE44" s="12"/>
-      <c r="IF44" s="12"/>
-      <c r="IG44" s="12"/>
-      <c r="IH44" s="12"/>
-      <c r="II44" s="12"/>
-      <c r="IJ44" s="12"/>
-      <c r="IK44" s="12"/>
-      <c r="IL44" s="12"/>
-      <c r="IM44" s="12"/>
-      <c r="IN44" s="12"/>
-      <c r="IO44" s="12"/>
-      <c r="IP44" s="12"/>
-      <c r="IQ44" s="12"/>
-      <c r="IR44" s="12"/>
-      <c r="IS44" s="12"/>
-      <c r="IT44" s="12"/>
-      <c r="IU44" s="12"/>
-      <c r="IV44" s="12"/>
-      <c r="IW44" s="12"/>
-      <c r="IX44" s="12"/>
-      <c r="IY44" s="12"/>
-      <c r="IZ44" s="12"/>
-      <c r="JA44" s="12"/>
-      <c r="JB44" s="12"/>
-      <c r="JC44" s="12"/>
-      <c r="JD44" s="12"/>
-      <c r="JE44" s="12"/>
-      <c r="JF44" s="12"/>
-      <c r="JG44" s="12"/>
-      <c r="JH44" s="12"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="43"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="43"/>
+      <c r="AM44" s="43"/>
+      <c r="AN44" s="43"/>
+      <c r="AO44" s="43"/>
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="43"/>
+      <c r="AR44" s="43"/>
+      <c r="AS44" s="43"/>
+      <c r="AT44" s="43"/>
+      <c r="AU44" s="43"/>
+      <c r="AV44" s="43"/>
+      <c r="AW44" s="43"/>
+      <c r="AX44" s="43"/>
+      <c r="AY44" s="43"/>
+      <c r="AZ44" s="43"/>
+      <c r="BA44" s="43"/>
+      <c r="BB44" s="43"/>
+      <c r="BC44" s="43"/>
+      <c r="BD44" s="43"/>
+      <c r="BE44" s="43"/>
+      <c r="BF44" s="43"/>
+      <c r="BG44" s="43"/>
+      <c r="BH44" s="43"/>
+      <c r="BI44" s="43"/>
+      <c r="BJ44" s="43"/>
+      <c r="BK44" s="43"/>
+      <c r="BL44" s="43"/>
+      <c r="BM44" s="43"/>
+      <c r="BN44" s="43"/>
+      <c r="BO44" s="43"/>
+      <c r="BP44" s="43"/>
+      <c r="BQ44" s="43"/>
+      <c r="BR44" s="43"/>
+      <c r="BS44" s="43"/>
+      <c r="BT44" s="43"/>
+      <c r="BU44" s="43"/>
+      <c r="BV44" s="43"/>
+      <c r="BW44" s="43"/>
+      <c r="BX44" s="43"/>
+      <c r="BY44" s="43"/>
+      <c r="BZ44" s="43"/>
+      <c r="CA44" s="43"/>
+      <c r="CB44" s="43"/>
+      <c r="CC44" s="43"/>
+      <c r="CD44" s="43"/>
+      <c r="CE44" s="43"/>
+      <c r="CF44" s="43"/>
+      <c r="CG44" s="43"/>
+      <c r="CH44" s="43"/>
+      <c r="CI44" s="43"/>
+      <c r="CJ44" s="43"/>
+      <c r="CK44" s="43"/>
+      <c r="CL44" s="43"/>
+      <c r="CM44" s="43"/>
+      <c r="CN44" s="43"/>
+      <c r="CO44" s="43"/>
+      <c r="CP44" s="43"/>
+      <c r="CQ44" s="43"/>
+      <c r="CR44" s="43"/>
+      <c r="CS44" s="43"/>
+      <c r="CT44" s="43"/>
+      <c r="CU44" s="43"/>
+      <c r="CV44" s="43"/>
+      <c r="CW44" s="43"/>
+      <c r="CX44" s="43"/>
+      <c r="CY44" s="43"/>
+      <c r="CZ44" s="43"/>
+      <c r="DA44" s="43"/>
+      <c r="DB44" s="43"/>
+      <c r="DC44" s="43"/>
+      <c r="DD44" s="43"/>
+      <c r="DE44" s="43"/>
+      <c r="DF44" s="43"/>
+      <c r="DG44" s="43"/>
+      <c r="DH44" s="43"/>
+      <c r="DI44" s="43"/>
+      <c r="DJ44" s="43"/>
+      <c r="DK44" s="43"/>
+      <c r="DL44" s="43"/>
+      <c r="DM44" s="43"/>
+      <c r="DN44" s="43"/>
+      <c r="DO44" s="43"/>
+      <c r="DP44" s="43"/>
+      <c r="DQ44" s="43"/>
+      <c r="DR44" s="43"/>
+      <c r="DS44" s="43"/>
+      <c r="DT44" s="43"/>
+      <c r="DU44" s="43"/>
+      <c r="DV44" s="43"/>
+      <c r="DW44" s="43"/>
+      <c r="DX44" s="43"/>
+      <c r="DY44" s="43"/>
+      <c r="DZ44" s="43"/>
+      <c r="EA44" s="43"/>
+      <c r="EB44" s="43"/>
+      <c r="EC44" s="43"/>
+      <c r="ED44" s="43"/>
+      <c r="EE44" s="43"/>
+      <c r="EF44" s="43"/>
+      <c r="EG44" s="43"/>
+      <c r="EH44" s="43"/>
+      <c r="EI44" s="43"/>
+      <c r="EJ44" s="43"/>
+      <c r="EK44" s="43"/>
+      <c r="EL44" s="43"/>
+      <c r="EM44" s="43"/>
+      <c r="EN44" s="43"/>
+      <c r="EO44" s="43"/>
+      <c r="EP44" s="43"/>
+      <c r="EQ44" s="43"/>
+      <c r="ER44" s="43"/>
+      <c r="ES44" s="43"/>
+      <c r="ET44" s="43"/>
+      <c r="EU44" s="43"/>
+      <c r="EV44" s="43"/>
+      <c r="EW44" s="43"/>
+      <c r="EX44" s="43"/>
+      <c r="EY44" s="43"/>
+      <c r="EZ44" s="43"/>
+      <c r="FA44" s="43"/>
+      <c r="FB44" s="43"/>
+      <c r="FC44" s="43"/>
+      <c r="FD44" s="43"/>
+      <c r="FE44" s="43"/>
+      <c r="FF44" s="43"/>
+      <c r="FG44" s="43"/>
+      <c r="FH44" s="43"/>
+      <c r="FI44" s="43"/>
+      <c r="FJ44" s="43"/>
+      <c r="FK44" s="43"/>
+      <c r="FL44" s="43"/>
+      <c r="FM44" s="43"/>
+      <c r="FN44" s="43"/>
+      <c r="FO44" s="43"/>
+      <c r="FP44" s="43"/>
+      <c r="FQ44" s="43"/>
+      <c r="FR44" s="43"/>
+      <c r="FS44" s="43"/>
+      <c r="FT44" s="43"/>
+      <c r="FU44" s="43"/>
+      <c r="FV44" s="43"/>
+      <c r="FW44" s="43"/>
+      <c r="FX44" s="43"/>
+      <c r="FY44" s="43"/>
+      <c r="FZ44" s="43"/>
+      <c r="GA44" s="43"/>
+      <c r="GB44" s="43"/>
+      <c r="GC44" s="43"/>
+      <c r="GD44" s="43"/>
+      <c r="GE44" s="43"/>
+      <c r="GF44" s="43"/>
+      <c r="GG44" s="43"/>
+      <c r="GH44" s="43"/>
+      <c r="GI44" s="43"/>
+      <c r="GJ44" s="43"/>
+      <c r="GK44" s="43"/>
+      <c r="GL44" s="43"/>
+      <c r="GM44" s="43"/>
+      <c r="GN44" s="43"/>
+      <c r="GO44" s="43"/>
+      <c r="GP44" s="43"/>
+      <c r="GQ44" s="43"/>
+      <c r="GR44" s="43"/>
+      <c r="GS44" s="43"/>
+      <c r="GT44" s="43"/>
+      <c r="GU44" s="43"/>
+      <c r="GV44" s="43"/>
+      <c r="GW44" s="43"/>
+      <c r="GX44" s="43"/>
+      <c r="GY44" s="43"/>
+      <c r="GZ44" s="43"/>
+      <c r="HA44" s="43"/>
+      <c r="HB44" s="43"/>
+      <c r="HC44" s="43"/>
+      <c r="HD44" s="43"/>
+      <c r="HE44" s="43"/>
+      <c r="HF44" s="43"/>
+      <c r="HG44" s="43"/>
+      <c r="HH44" s="43"/>
+      <c r="HI44" s="43"/>
+      <c r="HJ44" s="43"/>
+      <c r="HK44" s="43"/>
+      <c r="HL44" s="43"/>
+      <c r="HM44" s="43"/>
+      <c r="HN44" s="43"/>
+      <c r="HO44" s="43"/>
+      <c r="HP44" s="43"/>
+      <c r="HQ44" s="43"/>
+      <c r="HR44" s="43"/>
+      <c r="HS44" s="43"/>
+      <c r="HT44" s="43"/>
+      <c r="HU44" s="43"/>
+      <c r="HV44" s="43"/>
+      <c r="HW44" s="43"/>
+      <c r="HX44" s="43"/>
+      <c r="HY44" s="43"/>
+      <c r="HZ44" s="43"/>
+      <c r="IA44" s="43"/>
+      <c r="IB44" s="43"/>
+      <c r="IC44" s="43"/>
+      <c r="ID44" s="43"/>
+      <c r="IE44" s="43"/>
+      <c r="IF44" s="43"/>
+      <c r="IG44" s="43"/>
+      <c r="IH44" s="43"/>
+      <c r="II44" s="43"/>
+      <c r="IJ44" s="43"/>
+      <c r="IK44" s="43"/>
+      <c r="IL44" s="43"/>
+      <c r="IM44" s="43"/>
+      <c r="IN44" s="43"/>
+      <c r="IO44" s="43"/>
+      <c r="IP44" s="43"/>
+      <c r="IQ44" s="43"/>
+      <c r="IR44" s="43"/>
+      <c r="IS44" s="43"/>
+      <c r="IT44" s="43"/>
+      <c r="IU44" s="43"/>
+      <c r="IV44" s="43"/>
+      <c r="IW44" s="43"/>
+      <c r="IX44" s="43"/>
+      <c r="IY44" s="43"/>
+      <c r="IZ44" s="43"/>
+      <c r="JA44" s="43"/>
+      <c r="JB44" s="43"/>
+      <c r="JC44" s="43"/>
+      <c r="JD44" s="43"/>
+      <c r="JE44" s="43"/>
+      <c r="JF44" s="43"/>
+      <c r="JG44" s="43"/>
+      <c r="JH44" s="43"/>
+      <c r="JI44" s="43"/>
+      <c r="JJ44" s="10"/>
     </row>
-    <row r="45" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="18">
         <v>-2135.7758514912998</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="18">
         <v>398.25612861667298</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="18">
         <v>947.27088880982399</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="18">
         <v>681.351934558327</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="18">
         <v>836.96074273269699</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="18">
         <v>476.46627794621702</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="18">
         <v>-194.84810975277</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="18">
         <v>-103.05784520947</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="18">
         <v>-394.80964874558998</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="18">
         <v>133.043229745264</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="18">
         <v>50.957260046181901</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="18">
         <v>601.57816674276</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="18">
         <v>455.91244685532502</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="18">
         <v>648.51269373597097</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="18">
         <v>530.21197347140105</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="18">
         <v>363.21654150979799</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="18">
         <v>494.61950173301602</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="18">
         <v>436.51474956345203</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="18">
         <v>-114.02022134169</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="18">
         <v>-77.795148042498994</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="18">
         <v>-824.56346078334002</v>
       </c>
-      <c r="W45" s="6">
+      <c r="W45" s="18">
         <v>588.46899822024602</v>
       </c>
-      <c r="X45" s="6">
+      <c r="X45" s="18">
         <v>-178.25772814048</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Y45" s="18">
         <v>1372.29181906607</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="Z45" s="18">
         <v>19.808068948841701</v>
       </c>
-      <c r="AA45" s="6">
+      <c r="AA45" s="18">
         <v>10.319023331798</v>
       </c>
-      <c r="AB45" s="6">
+      <c r="AB45" s="18">
         <v>257.70622758189501</v>
       </c>
-      <c r="AC45" s="6">
+      <c r="AC45" s="18">
         <v>-714.50273577985001</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AD45" s="18">
         <v>-1049.6481026336</v>
       </c>
-      <c r="AE45" s="6">
+      <c r="AE45" s="18">
         <v>195.894616346655</v>
       </c>
-      <c r="AF45" s="6">
+      <c r="AF45" s="18">
         <v>-85.007863330411993</v>
       </c>
-      <c r="AG45" s="6">
+      <c r="AG45" s="18">
         <v>381.23729626616699</v>
       </c>
-      <c r="AH45" s="6">
+      <c r="AH45" s="18">
         <v>780.84462529838402</v>
       </c>
-      <c r="AI45" s="6">
+      <c r="AI45" s="18">
         <v>1186.8226552082699</v>
       </c>
-      <c r="AJ45" s="6">
+      <c r="AJ45" s="18">
         <v>-769.54124507519998</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AK45" s="18">
         <v>-250.23323867504001</v>
       </c>
-      <c r="AL45" s="6">
+      <c r="AL45" s="18">
         <v>2120.64737723813</v>
       </c>
-      <c r="AM45" s="6">
+      <c r="AM45" s="18">
         <v>-846.41552423830001</v>
       </c>
-      <c r="AN45" s="6">
+      <c r="AN45" s="18">
         <v>556.57077464576003</v>
       </c>
-      <c r="AO45" s="6">
+      <c r="AO45" s="18">
         <v>-134.84717931579999</v>
       </c>
-      <c r="AP45" s="6">
+      <c r="AP45" s="18">
         <v>1657.27959351956</v>
       </c>
-      <c r="AQ45" s="6">
+      <c r="AQ45" s="18">
         <v>588.73850004644396</v>
       </c>
-      <c r="AR45" s="6">
+      <c r="AR45" s="18">
         <v>2691.2147787326498</v>
       </c>
-      <c r="AS45" s="6">
+      <c r="AS45" s="18">
         <v>-36.024774502546002</v>
       </c>
-      <c r="AT45" s="6">
+      <c r="AT45" s="18">
         <v>-494.89998704508997</v>
       </c>
-      <c r="AU45" s="6">
+      <c r="AU45" s="18">
         <v>1172.2876403975599</v>
       </c>
-      <c r="AV45" s="6">
+      <c r="AV45" s="18">
         <v>2816.4882227606199</v>
       </c>
-      <c r="AW45" s="6">
+      <c r="AW45" s="18">
         <v>-2048.6156328697998</v>
       </c>
-      <c r="AX45" s="6">
+      <c r="AX45" s="18">
         <v>5300.2941780715</v>
       </c>
-      <c r="AY45" s="6">
+      <c r="AY45" s="18">
         <v>1863.9674423808301</v>
       </c>
-      <c r="AZ45" s="6">
+      <c r="AZ45" s="18">
         <v>-689.90775470128995</v>
       </c>
-      <c r="BA45" s="6">
+      <c r="BA45" s="18">
         <v>-17.615070984035999</v>
       </c>
-      <c r="BB45" s="6">
+      <c r="BB45" s="18">
         <v>2548.7629054634199</v>
       </c>
-      <c r="BC45" s="6">
+      <c r="BC45" s="18">
         <v>-2379.3602493612998</v>
       </c>
-      <c r="BD45" s="6">
+      <c r="BD45" s="18">
         <v>1653.24861233511</v>
       </c>
-      <c r="BE45" s="6">
+      <c r="BE45" s="18">
         <v>2326.1321922654902</v>
       </c>
-      <c r="BF45" s="6">
+      <c r="BF45" s="18">
         <v>82.0945739722453</v>
       </c>
-      <c r="BG45" s="6">
+      <c r="BG45" s="18">
         <v>1999.7583393699199</v>
       </c>
-      <c r="BH45" s="6">
+      <c r="BH45" s="18">
         <v>1911.7495056612399</v>
       </c>
-      <c r="BI45" s="6">
+      <c r="BI45" s="18">
         <v>-3006.7767288847999</v>
       </c>
-      <c r="BJ45" s="6">
+      <c r="BJ45" s="18">
         <v>1756.33406947407</v>
       </c>
-      <c r="BK45" s="6">
+      <c r="BK45" s="18">
         <v>-592.79292225869995</v>
       </c>
-      <c r="BL45" s="6">
+      <c r="BL45" s="18">
         <v>953.43686872407295</v>
       </c>
-      <c r="BM45" s="6">
+      <c r="BM45" s="18">
         <v>2801.0753354668</v>
       </c>
-      <c r="BN45" s="6">
+      <c r="BN45" s="18">
         <v>-177.39018155986</v>
       </c>
-      <c r="BO45" s="6">
+      <c r="BO45" s="18">
         <v>-3928.6415145541</v>
       </c>
-      <c r="BP45" s="6">
+      <c r="BP45" s="18">
         <v>-1677.5642251593999</v>
       </c>
-      <c r="BQ45" s="6">
+      <c r="BQ45" s="18">
         <v>-1032.1330813658001</v>
       </c>
-      <c r="BR45" s="6">
+      <c r="BR45" s="18">
         <v>-5062.5634912504001</v>
       </c>
-      <c r="BS45" s="6">
+      <c r="BS45" s="18">
         <v>-1557.4942787752</v>
       </c>
-      <c r="BT45" s="6">
+      <c r="BT45" s="18">
         <v>-697.13291928860997</v>
       </c>
-      <c r="BU45" s="6">
+      <c r="BU45" s="18">
         <v>-1978.8813723998001</v>
       </c>
-      <c r="BV45" s="6">
+      <c r="BV45" s="18">
         <v>-513.13297089498997</v>
       </c>
-      <c r="BW45" s="6">
+      <c r="BW45" s="18">
         <v>695.90073066352397</v>
       </c>
-      <c r="BX45" s="6">
+      <c r="BX45" s="18">
         <v>-662.19860442920003</v>
       </c>
-      <c r="BY45" s="6">
+      <c r="BY45" s="18">
         <v>495.12900178515599</v>
       </c>
-      <c r="BZ45" s="6">
+      <c r="BZ45" s="18">
         <v>1238.7503342136699</v>
       </c>
-      <c r="CA45" s="6">
+      <c r="CA45" s="18">
         <v>278.48868788662998</v>
       </c>
-      <c r="CB45" s="6">
+      <c r="CB45" s="18">
         <v>-119.69804788795</v>
       </c>
-      <c r="CC45" s="6">
+      <c r="CC45" s="18">
         <v>-370.64065473677999</v>
       </c>
-      <c r="CD45" s="6">
+      <c r="CD45" s="18">
         <v>-1368.6919549938</v>
       </c>
-      <c r="CE45" s="6">
+      <c r="CE45" s="18">
         <v>371.91790509533502</v>
       </c>
-      <c r="CF45" s="6">
+      <c r="CF45" s="18">
         <v>727.40790939038095</v>
       </c>
-      <c r="CG45" s="6">
+      <c r="CG45" s="18">
         <v>-32.945420741968</v>
       </c>
-      <c r="CH45" s="6">
+      <c r="CH45" s="18">
         <v>1132.7289536256001</v>
       </c>
-      <c r="CI45" s="6">
+      <c r="CI45" s="18">
         <v>7054.0230177930498</v>
       </c>
-      <c r="CJ45" s="6">
+      <c r="CJ45" s="18">
         <v>-1468.5987328951001</v>
       </c>
-      <c r="CK45" s="6">
+      <c r="CK45" s="18">
         <v>808.20157042145001</v>
       </c>
-      <c r="CL45" s="6">
+      <c r="CL45" s="18">
         <v>308.38709423052097</v>
       </c>
-      <c r="CM45" s="6">
+      <c r="CM45" s="18">
         <v>-2112.4294465103999</v>
       </c>
-      <c r="CN45" s="6">
+      <c r="CN45" s="18">
         <v>454.66684950784298</v>
       </c>
-      <c r="CO45" s="6">
+      <c r="CO45" s="18">
         <v>-29.614848898841998</v>
       </c>
-      <c r="CP45" s="6">
+      <c r="CP45" s="18">
         <v>-818.62682948583995</v>
       </c>
-      <c r="CQ45" s="6">
+      <c r="CQ45" s="18">
         <v>214.84506658752301</v>
       </c>
-      <c r="CR45" s="6">
+      <c r="CR45" s="18">
         <v>1658.5760660777601</v>
       </c>
-      <c r="CS45" s="6">
+      <c r="CS45" s="18">
         <v>-2738.5255905140002</v>
       </c>
-      <c r="CT45" s="6">
+      <c r="CT45" s="18">
         <v>1629.7050253749301</v>
       </c>
-      <c r="CU45" s="6">
+      <c r="CU45" s="18">
         <v>-1407.2164376306</v>
       </c>
-      <c r="CV45" s="6">
+      <c r="CV45" s="18">
         <v>-3084.4931398937001</v>
       </c>
-      <c r="CW45" s="6">
+      <c r="CW45" s="18">
         <v>2820.88172258646</v>
       </c>
-      <c r="CX45" s="6">
+      <c r="CX45" s="18">
         <v>-130.10058524734001</v>
       </c>
-      <c r="CY45" s="6">
+      <c r="CY45" s="18">
         <v>-6693.9297706889001</v>
       </c>
-      <c r="CZ45" s="6">
+      <c r="CZ45" s="18">
         <v>-1552.0320069649999</v>
       </c>
-      <c r="DA45" s="6">
+      <c r="DA45" s="18">
         <v>-3585.4941762829999</v>
       </c>
-      <c r="DB45" s="6">
+      <c r="DB45" s="18">
         <v>-4172.5043700140995</v>
       </c>
-      <c r="DC45" s="6">
+      <c r="DC45" s="18">
         <v>-1210.7530306358999</v>
       </c>
-      <c r="DD45" s="6">
+      <c r="DD45" s="18">
         <v>3165.2853762278</v>
       </c>
-      <c r="DE45" s="6">
+      <c r="DE45" s="18">
         <v>-9065.9540911222994</v>
       </c>
-      <c r="DF45" s="6">
+      <c r="DF45" s="18">
         <v>3030.39104417005</v>
       </c>
-      <c r="DG45" s="6">
+      <c r="DG45" s="18">
         <v>-1728.0739619408</v>
       </c>
-      <c r="DH45" s="6">
+      <c r="DH45" s="18">
         <v>234.947686302493</v>
       </c>
-      <c r="DI45" s="6">
+      <c r="DI45" s="18">
         <v>768.91164112564195</v>
       </c>
-      <c r="DJ45" s="6">
+      <c r="DJ45" s="18">
         <v>-1957.3607735200001</v>
       </c>
-      <c r="DK45" s="6">
+      <c r="DK45" s="18">
         <v>-5675.7433553250003</v>
       </c>
-      <c r="DL45" s="6">
+      <c r="DL45" s="18">
         <v>2128.69726514681</v>
       </c>
-      <c r="DM45" s="6">
+      <c r="DM45" s="18">
         <v>-6687.2948994100998</v>
       </c>
-      <c r="DN45" s="6">
+      <c r="DN45" s="18">
         <v>599.88201428780496</v>
       </c>
-      <c r="DO45" s="6">
+      <c r="DO45" s="18">
         <v>-1844.1932073738999</v>
       </c>
-      <c r="DP45" s="6">
+      <c r="DP45" s="18">
         <v>3919.6809079065501</v>
       </c>
-      <c r="DQ45" s="6">
+      <c r="DQ45" s="18">
         <v>-7630.1815224347001</v>
       </c>
-      <c r="DR45" s="6">
+      <c r="DR45" s="18">
         <v>1308.98439999738</v>
       </c>
-      <c r="DS45" s="6">
+      <c r="DS45" s="18">
         <v>-1056.0962745664001</v>
       </c>
-      <c r="DT45" s="6">
+      <c r="DT45" s="18">
         <v>-560.33997462968</v>
       </c>
-      <c r="DU45" s="6">
+      <c r="DU45" s="18">
         <v>-1445.4051883138</v>
       </c>
-      <c r="DV45" s="6">
+      <c r="DV45" s="18">
         <v>294.38083120815298</v>
       </c>
-      <c r="DW45" s="6">
+      <c r="DW45" s="18">
         <v>-4566.0397711645001</v>
       </c>
-      <c r="DX45" s="6">
+      <c r="DX45" s="18">
         <v>-3272.7940748637998</v>
       </c>
-      <c r="DY45" s="6">
+      <c r="DY45" s="18">
         <v>-2281.2972935337002</v>
       </c>
-      <c r="DZ45" s="6">
+      <c r="DZ45" s="18">
         <v>-525.46180380844999</v>
       </c>
-      <c r="EA45" s="6">
+      <c r="EA45" s="18">
         <v>2435.71097731288</v>
       </c>
-      <c r="EB45" s="6">
+      <c r="EB45" s="18">
         <v>1026.26252974096</v>
       </c>
-      <c r="EC45" s="6">
+      <c r="EC45" s="18">
         <v>-5203.9754307488001</v>
       </c>
-      <c r="ED45" s="6">
+      <c r="ED45" s="18">
         <v>-752.86175182978002</v>
       </c>
-      <c r="EE45" s="6">
+      <c r="EE45" s="18">
         <v>-2043.6101115255999</v>
       </c>
-      <c r="EF45" s="6">
+      <c r="EF45" s="18">
         <v>1190.3234697658099</v>
       </c>
-      <c r="EG45" s="6">
+      <c r="EG45" s="18">
         <v>837.92959794628996</v>
       </c>
-      <c r="EH45" s="6">
+      <c r="EH45" s="18">
         <v>-1057.0669465532001</v>
       </c>
-      <c r="EI45" s="6">
+      <c r="EI45" s="18">
         <v>-2080.3902572457</v>
       </c>
-      <c r="EJ45" s="6">
+      <c r="EJ45" s="18">
         <v>-2016.7701496088</v>
       </c>
-      <c r="EK45" s="6">
+      <c r="EK45" s="18">
         <v>-1677.443884025</v>
       </c>
-      <c r="EL45" s="6">
+      <c r="EL45" s="18">
         <v>146.426399909727</v>
       </c>
-      <c r="EM45" s="6">
+      <c r="EM45" s="18">
         <v>-185.24638300913</v>
       </c>
-      <c r="EN45" s="6">
+      <c r="EN45" s="18">
         <v>860.79139404754505</v>
       </c>
-      <c r="EO45" s="6">
+      <c r="EO45" s="18">
         <v>-3621.5281707109998</v>
       </c>
-      <c r="EP45" s="6">
+      <c r="EP45" s="18">
         <v>1448.3478027409799</v>
       </c>
-      <c r="EQ45" s="6">
+      <c r="EQ45" s="18">
         <v>1119.9004675056999</v>
       </c>
-      <c r="ER45" s="6">
+      <c r="ER45" s="18">
         <v>48.262056171193002</v>
       </c>
-      <c r="ES45" s="6">
+      <c r="ES45" s="18">
         <v>1514.0538268783801</v>
       </c>
-      <c r="ET45" s="6">
+      <c r="ET45" s="18">
         <v>-2537.3846201020001</v>
       </c>
-      <c r="EU45" s="6">
+      <c r="EU45" s="18">
         <v>359.88997345668298</v>
       </c>
-      <c r="EV45" s="6">
+      <c r="EV45" s="18">
         <v>-3108.253612645</v>
       </c>
-      <c r="EW45" s="6">
+      <c r="EW45" s="18">
         <v>-1852.1258300259001</v>
       </c>
-      <c r="EX45" s="6">
+      <c r="EX45" s="18">
         <v>1756.01466988722</v>
       </c>
-      <c r="EY45" s="6">
+      <c r="EY45" s="18">
         <v>-747.35984464513001</v>
       </c>
-      <c r="EZ45" s="6">
+      <c r="EZ45" s="18">
         <v>-1742.8835070350001</v>
       </c>
-      <c r="FA45" s="6">
+      <c r="FA45" s="18">
         <v>-386.48653812056</v>
       </c>
-      <c r="FB45" s="6">
+      <c r="FB45" s="18">
         <v>455.13124389014899</v>
       </c>
-      <c r="FC45" s="6">
+      <c r="FC45" s="18">
         <v>-548.12673332713996</v>
       </c>
-      <c r="FD45" s="6">
+      <c r="FD45" s="18">
         <v>1408.62122167439</v>
       </c>
-      <c r="FE45" s="6">
+      <c r="FE45" s="18">
         <v>631.16159195754699</v>
       </c>
-      <c r="FF45" s="6">
+      <c r="FF45" s="18">
         <v>-2778.1708573954002</v>
       </c>
-      <c r="FG45" s="6">
+      <c r="FG45" s="18">
         <v>247.90168015099599</v>
       </c>
-      <c r="FH45" s="6">
+      <c r="FH45" s="18">
         <v>-2549.2414483747002</v>
       </c>
-      <c r="FI45" s="6">
+      <c r="FI45" s="18">
         <v>-185.51564246688</v>
       </c>
-      <c r="FJ45" s="6">
+      <c r="FJ45" s="18">
         <v>-256.68708846093</v>
       </c>
-      <c r="FK45" s="6">
+      <c r="FK45" s="18">
         <v>-1670.8374102855</v>
       </c>
-      <c r="FL45" s="6">
+      <c r="FL45" s="18">
         <v>-636.37853714847995</v>
       </c>
-      <c r="FM45" s="6">
+      <c r="FM45" s="18">
         <v>-154.22513426425999</v>
       </c>
-      <c r="FN45" s="6">
+      <c r="FN45" s="18">
         <v>-1094.9966400536</v>
       </c>
-      <c r="FO45" s="6">
+      <c r="FO45" s="18">
         <v>1904.0471198166299</v>
       </c>
-      <c r="FP45" s="6">
+      <c r="FP45" s="18">
         <v>-422.35778188784002</v>
       </c>
-      <c r="FQ45" s="6">
+      <c r="FQ45" s="18">
         <v>-1205.3112977672999</v>
       </c>
-      <c r="FR45" s="6">
+      <c r="FR45" s="18">
         <v>782.45915043298805</v>
       </c>
-      <c r="FS45" s="6">
+      <c r="FS45" s="18">
         <v>575.21218264391496</v>
       </c>
-      <c r="FT45" s="6">
+      <c r="FT45" s="18">
         <v>137.016341356552</v>
       </c>
-      <c r="FU45" s="6">
+      <c r="FU45" s="18">
         <v>-1922.7631141879001</v>
       </c>
-      <c r="FV45" s="6">
+      <c r="FV45" s="18">
         <v>1352.5983647133501</v>
       </c>
-      <c r="FW45" s="6">
+      <c r="FW45" s="18">
         <v>-2465.5836184591999</v>
       </c>
-      <c r="FX45" s="6">
+      <c r="FX45" s="18">
         <v>-35.914355402302</v>
       </c>
-      <c r="FY45" s="6">
+      <c r="FY45" s="18">
         <v>-1012.6221296602999</v>
       </c>
-      <c r="FZ45" s="6">
+      <c r="FZ45" s="18">
         <v>-3550.2133057888</v>
       </c>
-      <c r="GA45" s="6">
+      <c r="GA45" s="18">
         <v>713.61758044524197</v>
       </c>
-      <c r="GB45" s="6">
+      <c r="GB45" s="18">
         <v>2469.9817020339001</v>
       </c>
-      <c r="GC45" s="6">
+      <c r="GC45" s="18">
         <v>-1619.0870577251001</v>
       </c>
-      <c r="GD45" s="6">
+      <c r="GD45" s="18">
         <v>-941.82307009969998</v>
       </c>
-      <c r="GE45" s="6">
+      <c r="GE45" s="18">
         <v>-144.31109095702001</v>
       </c>
-      <c r="GF45" s="6">
+      <c r="GF45" s="18">
         <v>-4276.3204556763003</v>
       </c>
-      <c r="GG45" s="6">
+      <c r="GG45" s="18">
         <v>-1378.9225079149001</v>
       </c>
-      <c r="GH45" s="6">
+      <c r="GH45" s="18">
         <v>1006.00434845267</v>
       </c>
-      <c r="GI45" s="6">
+      <c r="GI45" s="18">
         <v>-5157.0480533029004</v>
       </c>
-      <c r="GJ45" s="6">
+      <c r="GJ45" s="18">
         <v>-1834.1489495631999</v>
       </c>
-      <c r="GK45" s="6">
+      <c r="GK45" s="18">
         <v>1976.9132937367599</v>
       </c>
-      <c r="GL45" s="6">
+      <c r="GL45" s="18">
         <v>2004.9812376623599</v>
       </c>
-      <c r="GM45" s="6">
+      <c r="GM45" s="18">
         <v>1018.70121129603</v>
       </c>
-      <c r="GN45" s="6">
+      <c r="GN45" s="18">
         <v>-1945.5221131236001</v>
       </c>
-      <c r="GO45" s="6">
+      <c r="GO45" s="18">
         <v>-810.48408179908995</v>
       </c>
-      <c r="GP45" s="6">
+      <c r="GP45" s="18">
         <v>-3828.7924749716999</v>
       </c>
-      <c r="GQ45" s="6">
+      <c r="GQ45" s="18">
         <v>437.83302534172901</v>
       </c>
-      <c r="GR45" s="6">
+      <c r="GR45" s="18">
         <v>-3887.5605868532002</v>
       </c>
-      <c r="GS45" s="6">
+      <c r="GS45" s="18">
         <v>963.715307452047</v>
       </c>
-      <c r="GT45" s="6">
+      <c r="GT45" s="18">
         <v>-1262.0679656550999</v>
       </c>
-      <c r="GU45" s="6">
+      <c r="GU45" s="18">
         <v>-1364.2717105833999</v>
       </c>
-      <c r="GV45" s="6">
+      <c r="GV45" s="18">
         <v>-1996.8061450166999</v>
       </c>
-      <c r="GW45" s="6">
+      <c r="GW45" s="18">
         <v>33.060238386822697</v>
       </c>
-      <c r="GX45" s="6">
+      <c r="GX45" s="18">
         <v>-447.11828097801998</v>
       </c>
-      <c r="GY45" s="6">
+      <c r="GY45" s="18">
         <v>1831.5159548886299</v>
       </c>
-      <c r="GZ45" s="6">
+      <c r="GZ45" s="18">
         <v>-1548.3446187917</v>
       </c>
-      <c r="HA45" s="6">
+      <c r="HA45" s="18">
         <v>833.94966231051399</v>
       </c>
-      <c r="HB45" s="6">
+      <c r="HB45" s="18">
         <v>-548.22688766249996</v>
       </c>
-      <c r="HC45" s="6">
+      <c r="HC45" s="18">
         <v>499.52887929965101</v>
       </c>
-      <c r="HD45" s="6">
+      <c r="HD45" s="18">
         <v>-2333.5818225437001</v>
       </c>
-      <c r="HE45" s="6">
+      <c r="HE45" s="18">
         <v>-223.65789118331</v>
       </c>
-      <c r="HF45" s="6">
+      <c r="HF45" s="18">
         <v>-2295.4803237966998</v>
       </c>
-      <c r="HG45" s="6">
+      <c r="HG45" s="18">
         <v>-184.82711743268999</v>
       </c>
-      <c r="HH45" s="6">
+      <c r="HH45" s="18">
         <v>2958.3722734994899</v>
       </c>
-      <c r="HI45" s="6">
+      <c r="HI45" s="18">
         <v>-3364.2816778640999</v>
       </c>
-      <c r="HJ45" s="6">
+      <c r="HJ45" s="18">
         <v>-1289.5063057110999</v>
       </c>
-      <c r="HK45" s="6">
+      <c r="HK45" s="18">
         <v>-1740.8195386134</v>
       </c>
-      <c r="HL45" s="6">
+      <c r="HL45" s="18">
         <v>-956.52157557646001</v>
       </c>
-      <c r="HM45" s="6">
+      <c r="HM45" s="18">
         <v>-3138.9226813557002</v>
       </c>
-      <c r="HN45" s="6">
+      <c r="HN45" s="18">
         <v>-5873.1026266654999</v>
       </c>
-      <c r="HO45" s="6">
+      <c r="HO45" s="18">
         <v>-1114.2078497412999</v>
       </c>
-      <c r="HP45" s="6">
+      <c r="HP45" s="18">
         <v>-8284.8341532376999</v>
       </c>
-      <c r="HQ45" s="6">
+      <c r="HQ45" s="18">
         <v>-4635.3755706961001</v>
       </c>
-      <c r="HR45" s="6">
+      <c r="HR45" s="18">
         <v>-5531.8907065625999</v>
       </c>
-      <c r="HS45" s="6">
+      <c r="HS45" s="18">
         <v>-7071.6276375624002</v>
       </c>
-      <c r="HT45" s="6">
+      <c r="HT45" s="18">
         <v>1288.1332714375301</v>
       </c>
-      <c r="HU45" s="6">
+      <c r="HU45" s="18">
         <v>942.26875293681701</v>
       </c>
-      <c r="HV45" s="6">
+      <c r="HV45" s="18">
         <v>238.285877927678</v>
       </c>
-      <c r="HW45" s="6">
+      <c r="HW45" s="18">
         <v>-2449.8487823086002</v>
       </c>
-      <c r="HX45" s="6">
+      <c r="HX45" s="18">
         <v>-1473.1373805804001</v>
       </c>
-      <c r="HY45" s="6">
+      <c r="HY45" s="18">
         <v>-4648.2948617724996</v>
       </c>
-      <c r="HZ45" s="6">
+      <c r="HZ45" s="18">
         <v>-232.70304957932001</v>
       </c>
-      <c r="IA45" s="6">
+      <c r="IA45" s="18">
         <v>-1795.7294510444001</v>
       </c>
-      <c r="IB45" s="6">
+      <c r="IB45" s="18">
         <v>-340.46558089158998</v>
       </c>
-      <c r="IC45" s="6">
+      <c r="IC45" s="18">
         <v>-299.75540656869998</v>
       </c>
-      <c r="ID45" s="6">
+      <c r="ID45" s="18">
         <v>-726.15577359976999</v>
       </c>
-      <c r="IE45" s="6">
+      <c r="IE45" s="18">
         <v>-1984.1078449581</v>
       </c>
-      <c r="IF45" s="6">
+      <c r="IF45" s="18">
         <v>-5011.7030962828003</v>
       </c>
-      <c r="IG45" s="6">
+      <c r="IG45" s="18">
         <v>-418.90237215358002</v>
       </c>
-      <c r="IH45" s="6">
+      <c r="IH45" s="18">
         <v>1945.43742679569</v>
       </c>
-      <c r="II45" s="6">
+      <c r="II45" s="18">
         <v>1145.6692096614699</v>
       </c>
-      <c r="IJ45" s="6">
+      <c r="IJ45" s="18">
         <v>520.278250174704</v>
       </c>
-      <c r="IK45" s="6">
+      <c r="IK45" s="18">
         <v>-3310.7524444536002</v>
       </c>
-      <c r="IL45" s="6">
+      <c r="IL45" s="18">
         <v>-109.28876763085</v>
       </c>
-      <c r="IM45" s="6">
+      <c r="IM45" s="18">
         <v>-1324.1952825472999</v>
       </c>
-      <c r="IN45" s="6">
+      <c r="IN45" s="18">
         <v>-1639.1140551354999</v>
       </c>
-      <c r="IO45" s="6">
+      <c r="IO45" s="18">
         <v>-4613.4538555037998</v>
       </c>
-      <c r="IP45" s="6">
+      <c r="IP45" s="18">
         <v>-2916.6032545526</v>
       </c>
-      <c r="IQ45" s="6">
+      <c r="IQ45" s="18">
         <v>-6521.7504224212998</v>
       </c>
-      <c r="IR45" s="6">
+      <c r="IR45" s="18">
         <v>844.46932553350405</v>
       </c>
-      <c r="IS45" s="6">
+      <c r="IS45" s="18">
         <v>817.69633421510798</v>
       </c>
-      <c r="IT45" s="6">
+      <c r="IT45" s="18">
         <v>-888.93190153226999</v>
       </c>
-      <c r="IU45" s="6">
+      <c r="IU45" s="18">
         <v>-90.579367729075003</v>
       </c>
-      <c r="IV45" s="6">
+      <c r="IV45" s="18">
         <v>2029.2779650377499</v>
       </c>
-      <c r="IW45" s="6">
+      <c r="IW45" s="18">
         <v>-2256.0123170106999</v>
       </c>
-      <c r="IX45" s="6">
+      <c r="IX45" s="18">
         <v>-1764.5432398261</v>
       </c>
-      <c r="IY45" s="6">
+      <c r="IY45" s="18">
         <v>2238.63199366442</v>
       </c>
-      <c r="IZ45" s="6">
+      <c r="IZ45" s="18">
         <v>-4252.5340692908003</v>
       </c>
-      <c r="JA45" s="6">
+      <c r="JA45" s="18">
         <v>1594.1916025585999</v>
       </c>
-      <c r="JB45" s="6">
+      <c r="JB45" s="18">
         <v>-1626.3824720165001</v>
       </c>
-      <c r="JC45" s="6">
+      <c r="JC45" s="18">
         <v>1461.7734324657899</v>
       </c>
-      <c r="JD45" s="6">
+      <c r="JD45" s="18">
         <v>-102.02340958166</v>
       </c>
-      <c r="JE45" s="6">
+      <c r="JE45" s="18">
         <v>-867.55716530515997</v>
       </c>
-      <c r="JF45" s="6">
+      <c r="JF45" s="19">
         <v>2484.5350703477602</v>
       </c>
-      <c r="JG45" s="6">
+      <c r="JG45" s="22">
         <v>-22.039965394936999</v>
       </c>
-      <c r="JH45" s="6">
+      <c r="JH45" s="23">
         <v>-2315.1969781819998</v>
       </c>
+      <c r="JI45" s="24">
+        <v>-945.04577755369996</v>
+      </c>
+      <c r="JJ45" s="10"/>
     </row>
-    <row r="46" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -34766,17 +35352,21 @@
       <c r="JE46" s="6">
         <v>-54.677495194906001</v>
       </c>
-      <c r="JF46" s="6">
+      <c r="JF46" s="20">
         <v>842.71220573716096</v>
       </c>
-      <c r="JG46" s="6">
+      <c r="JG46" s="25">
         <v>685.28947606823601</v>
       </c>
       <c r="JH46" s="6">
         <v>1552.1277469752399</v>
       </c>
+      <c r="JI46" s="26">
+        <v>-60.604078356639</v>
+      </c>
+      <c r="JJ46" s="10"/>
     </row>
-    <row r="47" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -35572,17 +36162,21 @@
       <c r="JE47" s="6">
         <v>-82.623071473161005</v>
       </c>
-      <c r="JF47" s="6">
+      <c r="JF47" s="20">
         <v>787.010821499381</v>
       </c>
-      <c r="JG47" s="6">
+      <c r="JG47" s="25">
         <v>836.93144404956797</v>
       </c>
       <c r="JH47" s="6">
         <v>1746.2804896566299</v>
       </c>
+      <c r="JI47" s="26">
+        <v>87.200761134888396</v>
+      </c>
+      <c r="JJ47" s="10"/>
     </row>
-    <row r="48" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -36162,17 +36756,21 @@
       <c r="JE48" s="6">
         <v>402.09355977688398</v>
       </c>
-      <c r="JF48" s="6">
+      <c r="JF48" s="20">
         <v>473.22609708532798</v>
       </c>
-      <c r="JG48" s="6">
+      <c r="JG48" s="25">
         <v>420.79673968133699</v>
       </c>
       <c r="JH48" s="6">
         <v>1633.42706376613</v>
       </c>
+      <c r="JI48" s="26">
+        <v>-264.02054638926001</v>
+      </c>
+      <c r="JJ48" s="10"/>
     </row>
-    <row r="49" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -36752,17 +37350,21 @@
       <c r="JE49" s="6">
         <v>-484.71663125005</v>
       </c>
-      <c r="JF49" s="6">
+      <c r="JF49" s="20">
         <v>313.78472441405199</v>
       </c>
-      <c r="JG49" s="6">
+      <c r="JG49" s="25">
         <v>416.13470436823098</v>
       </c>
       <c r="JH49" s="6">
         <v>112.853425890501</v>
       </c>
+      <c r="JI49" s="26">
+        <v>351.22130752414301</v>
+      </c>
+      <c r="JJ49" s="10"/>
     </row>
-    <row r="50" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -37558,17 +38160,21 @@
       <c r="JE50" s="6">
         <v>27.945576278255199</v>
       </c>
-      <c r="JF50" s="6">
+      <c r="JF50" s="20">
         <v>55.701384237780402</v>
       </c>
-      <c r="JG50" s="6">
+      <c r="JG50" s="25">
         <v>-151.64196798133</v>
       </c>
       <c r="JH50" s="6">
         <v>-194.15274268139001</v>
       </c>
+      <c r="JI50" s="26">
+        <v>-147.80483949153</v>
+      </c>
+      <c r="JJ50" s="10"/>
     </row>
-    <row r="51" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -38364,1107 +38970,1115 @@
       <c r="JE51" s="6">
         <v>22.1366587882811</v>
       </c>
-      <c r="JF51" s="6">
+      <c r="JF51" s="20">
         <v>78.743436681761096</v>
       </c>
-      <c r="JG51" s="6">
+      <c r="JG51" s="25">
         <v>-36.653965101954</v>
       </c>
       <c r="JH51" s="6">
         <v>-9.5002580426981993</v>
       </c>
+      <c r="JI51" s="26">
+        <v>-103.67128238254</v>
+      </c>
+      <c r="JJ51" s="10"/>
     </row>
-    <row r="52" spans="1:268" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="8">
         <v>19.34872678</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="8">
         <v>37.452131880000003</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="8">
         <v>10.06766826</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="8">
         <v>8.3275564699999993</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="8">
         <v>18.888182109999999</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="8">
         <v>28.547767019999998</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="8">
         <v>18.450947970000001</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="8">
         <v>14.317201300000001</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="8">
         <v>4.0277391400000004</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="8">
         <v>46.831771809999999</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="8">
         <v>11.375770449999999</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="8">
         <v>24.019598129999999</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="8">
         <v>-1.80278552</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52" s="8">
         <v>7.67393795</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="8">
         <v>23.517354739999998</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q52" s="8">
         <v>43.065930479999999</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R52" s="8">
         <v>-59.182567130000002</v>
       </c>
-      <c r="S52" s="14">
+      <c r="S52" s="8">
         <v>-8.5855378499999997</v>
       </c>
-      <c r="T52" s="14">
+      <c r="T52" s="8">
         <v>25.750414920000001</v>
       </c>
-      <c r="U52" s="14">
+      <c r="U52" s="8">
         <v>38.16650207</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V52" s="8">
         <v>4.3579325600000001</v>
       </c>
-      <c r="W52" s="14">
+      <c r="W52" s="8">
         <v>6.7543364300000004</v>
       </c>
-      <c r="X52" s="14">
+      <c r="X52" s="8">
         <v>52.151176390000003</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y52" s="8">
         <v>5.3590540799999999</v>
       </c>
-      <c r="Z52" s="14">
+      <c r="Z52" s="8">
         <v>-10.452469637771999</v>
       </c>
-      <c r="AA52" s="14">
+      <c r="AA52" s="8">
         <v>20.3764540029232</v>
       </c>
-      <c r="AB52" s="14">
+      <c r="AB52" s="8">
         <v>15.1256656866314</v>
       </c>
-      <c r="AC52" s="14">
+      <c r="AC52" s="8">
         <v>66.326070792441598</v>
       </c>
-      <c r="AD52" s="14">
+      <c r="AD52" s="8">
         <v>-22.892244955227</v>
       </c>
-      <c r="AE52" s="14">
+      <c r="AE52" s="8">
         <v>-0.37555051886230001</v>
       </c>
-      <c r="AF52" s="14">
+      <c r="AF52" s="8">
         <v>83.3592618212014</v>
       </c>
-      <c r="AG52" s="14">
+      <c r="AG52" s="8">
         <v>51.150685709031798</v>
       </c>
-      <c r="AH52" s="14">
+      <c r="AH52" s="8">
         <v>52.950869436857701</v>
       </c>
-      <c r="AI52" s="14">
+      <c r="AI52" s="8">
         <v>93.151937643472806</v>
       </c>
-      <c r="AJ52" s="14">
+      <c r="AJ52" s="8">
         <v>105.54455920865399</v>
       </c>
-      <c r="AK52" s="14">
+      <c r="AK52" s="8">
         <v>487.10057612114701</v>
       </c>
-      <c r="AL52" s="14">
+      <c r="AL52" s="8">
         <v>-9.7378929999999997</v>
       </c>
-      <c r="AM52" s="14">
+      <c r="AM52" s="8">
         <v>82.424042020000002</v>
       </c>
-      <c r="AN52" s="14">
+      <c r="AN52" s="8">
         <v>-78.303358979999999</v>
       </c>
-      <c r="AO52" s="14">
+      <c r="AO52" s="8">
         <v>44.549262390000003</v>
       </c>
-      <c r="AP52" s="14">
+      <c r="AP52" s="8">
         <v>31.400760040000002</v>
       </c>
-      <c r="AQ52" s="14">
+      <c r="AQ52" s="8">
         <v>115.66767833</v>
       </c>
-      <c r="AR52" s="14">
+      <c r="AR52" s="8">
         <v>-94.414216569999994</v>
       </c>
-      <c r="AS52" s="14">
+      <c r="AS52" s="8">
         <v>83.537460190000004</v>
       </c>
-      <c r="AT52" s="14">
+      <c r="AT52" s="8">
         <v>-16.295698789999999</v>
       </c>
-      <c r="AU52" s="14">
+      <c r="AU52" s="8">
         <v>152.45959958</v>
       </c>
-      <c r="AV52" s="14">
+      <c r="AV52" s="8">
         <v>-32.647572879999998</v>
       </c>
-      <c r="AW52" s="14">
+      <c r="AW52" s="8">
         <v>90.175303769999999</v>
       </c>
-      <c r="AX52" s="14">
+      <c r="AX52" s="8">
         <v>92.546823829999994</v>
       </c>
-      <c r="AY52" s="14">
+      <c r="AY52" s="8">
         <v>46.342999020000001</v>
       </c>
-      <c r="AZ52" s="14">
+      <c r="AZ52" s="8">
         <v>-119.34307552999999</v>
       </c>
-      <c r="BA52" s="14">
+      <c r="BA52" s="8">
         <v>58.486539909999998</v>
       </c>
-      <c r="BB52" s="14">
+      <c r="BB52" s="8">
         <v>48.82140313</v>
       </c>
-      <c r="BC52" s="14">
+      <c r="BC52" s="8">
         <v>26.297892959999999</v>
       </c>
-      <c r="BD52" s="14">
+      <c r="BD52" s="8">
         <v>97.911526989999999</v>
       </c>
-      <c r="BE52" s="14">
+      <c r="BE52" s="8">
         <v>-12.15140766</v>
       </c>
-      <c r="BF52" s="14">
+      <c r="BF52" s="8">
         <v>73.198390840000002</v>
       </c>
-      <c r="BG52" s="14">
+      <c r="BG52" s="8">
         <v>219.3696118</v>
       </c>
-      <c r="BH52" s="14">
+      <c r="BH52" s="8">
         <v>152.58089201999999</v>
       </c>
-      <c r="BI52" s="14">
+      <c r="BI52" s="8">
         <v>-139.29583898000001</v>
       </c>
-      <c r="BJ52" s="14">
+      <c r="BJ52" s="8">
         <v>78.324969392702997</v>
       </c>
-      <c r="BK52" s="14">
+      <c r="BK52" s="8">
         <v>57.435447202977997</v>
       </c>
-      <c r="BL52" s="14">
+      <c r="BL52" s="8">
         <v>151.675972271896</v>
       </c>
-      <c r="BM52" s="14">
+      <c r="BM52" s="8">
         <v>133.08576886398399</v>
       </c>
-      <c r="BN52" s="14">
+      <c r="BN52" s="8">
         <v>207.91237688202199</v>
       </c>
-      <c r="BO52" s="14">
+      <c r="BO52" s="8">
         <v>80.261684780121001</v>
       </c>
-      <c r="BP52" s="14">
+      <c r="BP52" s="8">
         <v>115.215220983652</v>
       </c>
-      <c r="BQ52" s="14">
+      <c r="BQ52" s="8">
         <v>87.518932607234007</v>
       </c>
-      <c r="BR52" s="14">
+      <c r="BR52" s="8">
         <v>250.86916057525301</v>
       </c>
-      <c r="BS52" s="14">
+      <c r="BS52" s="8">
         <v>141.70397187586499</v>
       </c>
-      <c r="BT52" s="14">
+      <c r="BT52" s="8">
         <v>123.936358314163</v>
       </c>
-      <c r="BU52" s="14">
+      <c r="BU52" s="8">
         <v>42.601056195753998</v>
       </c>
-      <c r="BV52" s="14">
+      <c r="BV52" s="8">
         <v>-23.21857057703</v>
       </c>
-      <c r="BW52" s="14">
+      <c r="BW52" s="8">
         <v>44.164707959985002</v>
       </c>
-      <c r="BX52" s="14">
+      <c r="BX52" s="8">
         <v>21.280525355388999</v>
       </c>
-      <c r="BY52" s="14">
+      <c r="BY52" s="8">
         <v>14.585857853193</v>
       </c>
-      <c r="BZ52" s="14">
+      <c r="BZ52" s="8">
         <v>-41.625239209139004</v>
       </c>
-      <c r="CA52" s="14">
+      <c r="CA52" s="8">
         <v>68.286890959369998</v>
       </c>
-      <c r="CB52" s="14">
+      <c r="CB52" s="8">
         <v>17.322460787962999</v>
       </c>
-      <c r="CC52" s="14">
+      <c r="CC52" s="8">
         <v>80.195051067766002</v>
       </c>
-      <c r="CD52" s="14">
+      <c r="CD52" s="8">
         <v>138.43080677725601</v>
       </c>
-      <c r="CE52" s="14">
+      <c r="CE52" s="8">
         <v>22.804765206494</v>
       </c>
-      <c r="CF52" s="14">
+      <c r="CF52" s="8">
         <v>27.486701870192999</v>
       </c>
-      <c r="CG52" s="14">
+      <c r="CG52" s="8">
         <v>-87.666602861558999</v>
       </c>
-      <c r="CH52" s="14">
+      <c r="CH52" s="8">
         <v>331.43117014793103</v>
       </c>
-      <c r="CI52" s="14">
+      <c r="CI52" s="8">
         <v>203.49101598361901</v>
       </c>
-      <c r="CJ52" s="14">
+      <c r="CJ52" s="8">
         <v>443.49962750815598</v>
       </c>
-      <c r="CK52" s="14">
+      <c r="CK52" s="8">
         <v>314.83663706820403</v>
       </c>
-      <c r="CL52" s="14">
+      <c r="CL52" s="8">
         <v>-10.833708733944</v>
       </c>
-      <c r="CM52" s="14">
+      <c r="CM52" s="8">
         <v>29.179205492360001</v>
       </c>
-      <c r="CN52" s="14">
+      <c r="CN52" s="8">
         <v>170.100635185556</v>
       </c>
-      <c r="CO52" s="14">
+      <c r="CO52" s="8">
         <v>71.752893650337896</v>
       </c>
-      <c r="CP52" s="14">
+      <c r="CP52" s="8">
         <v>89.749945844698999</v>
       </c>
-      <c r="CQ52" s="14">
+      <c r="CQ52" s="8">
         <v>604.00053164488202</v>
       </c>
-      <c r="CR52" s="14">
+      <c r="CR52" s="8">
         <v>113.897991586028</v>
       </c>
-      <c r="CS52" s="14">
+      <c r="CS52" s="8">
         <v>327.90769121029001</v>
       </c>
-      <c r="CT52" s="14">
+      <c r="CT52" s="8">
         <v>245.241772617019</v>
       </c>
-      <c r="CU52" s="14">
+      <c r="CU52" s="8">
         <v>84.769914145300206</v>
       </c>
-      <c r="CV52" s="14">
+      <c r="CV52" s="8">
         <v>352.83809271765398</v>
       </c>
-      <c r="CW52" s="14">
+      <c r="CW52" s="8">
         <v>109.700628239298</v>
       </c>
-      <c r="CX52" s="14">
+      <c r="CX52" s="8">
         <v>469.73005376680698</v>
       </c>
-      <c r="CY52" s="14">
+      <c r="CY52" s="8">
         <v>676.79856468218202</v>
       </c>
-      <c r="CZ52" s="14">
+      <c r="CZ52" s="8">
         <v>461.69338141543801</v>
       </c>
-      <c r="DA52" s="14">
+      <c r="DA52" s="8">
         <v>299.32294322145702</v>
       </c>
-      <c r="DB52" s="14">
+      <c r="DB52" s="8">
         <v>223.900580293632</v>
       </c>
-      <c r="DC52" s="14">
+      <c r="DC52" s="8">
         <v>193.30553910988601</v>
       </c>
-      <c r="DD52" s="14">
+      <c r="DD52" s="8">
         <v>419.27522863151597</v>
       </c>
-      <c r="DE52" s="14">
+      <c r="DE52" s="8">
         <v>561.98861141963698</v>
       </c>
-      <c r="DF52" s="14">
+      <c r="DF52" s="8">
         <v>421.68265006618401</v>
       </c>
-      <c r="DG52" s="14">
+      <c r="DG52" s="8">
         <v>505.94115374031799</v>
       </c>
-      <c r="DH52" s="14">
+      <c r="DH52" s="8">
         <v>494.96110984587398</v>
       </c>
-      <c r="DI52" s="14">
+      <c r="DI52" s="8">
         <v>549.10405533118001</v>
       </c>
-      <c r="DJ52" s="14">
+      <c r="DJ52" s="8">
         <v>7.7285346092436402</v>
       </c>
-      <c r="DK52" s="14">
+      <c r="DK52" s="8">
         <v>693.26159029153803</v>
       </c>
-      <c r="DL52" s="14">
+      <c r="DL52" s="8">
         <v>215.92108795567199</v>
       </c>
-      <c r="DM52" s="14">
+      <c r="DM52" s="8">
         <v>415.54209222877603</v>
       </c>
-      <c r="DN52" s="14">
+      <c r="DN52" s="8">
         <v>412.82205029161599</v>
       </c>
-      <c r="DO52" s="14">
+      <c r="DO52" s="8">
         <v>378.31076942469099</v>
       </c>
-      <c r="DP52" s="14">
+      <c r="DP52" s="8">
         <v>243.012370415655</v>
       </c>
-      <c r="DQ52" s="14">
+      <c r="DQ52" s="8">
         <v>611.736924960789</v>
       </c>
-      <c r="DR52" s="14">
+      <c r="DR52" s="8">
         <v>720.83622358950799</v>
       </c>
-      <c r="DS52" s="14">
+      <c r="DS52" s="8">
         <v>282.41635440894498</v>
       </c>
-      <c r="DT52" s="14">
+      <c r="DT52" s="8">
         <v>844.10484705510305</v>
       </c>
-      <c r="DU52" s="14">
+      <c r="DU52" s="8">
         <v>478.98368078583798</v>
       </c>
-      <c r="DV52" s="14">
+      <c r="DV52" s="8">
         <v>513.84433379916197</v>
       </c>
-      <c r="DW52" s="14">
+      <c r="DW52" s="8">
         <v>476.39784431510299</v>
       </c>
-      <c r="DX52" s="14">
+      <c r="DX52" s="8">
         <v>371.68281368714901</v>
       </c>
-      <c r="DY52" s="14">
+      <c r="DY52" s="8">
         <v>301.94706989404102</v>
       </c>
-      <c r="DZ52" s="14">
+      <c r="DZ52" s="8">
         <v>612.49904098694901</v>
       </c>
-      <c r="EA52" s="14">
+      <c r="EA52" s="8">
         <v>6.0236161818065996</v>
       </c>
-      <c r="EB52" s="14">
+      <c r="EB52" s="8">
         <v>310.92534356512101</v>
       </c>
-      <c r="EC52" s="14">
+      <c r="EC52" s="8">
         <v>163.17636438658801</v>
       </c>
-      <c r="ED52" s="14">
+      <c r="ED52" s="8">
         <v>90.7532943924611</v>
       </c>
-      <c r="EE52" s="14">
+      <c r="EE52" s="8">
         <v>183.49108773269799</v>
       </c>
-      <c r="EF52" s="14">
+      <c r="EF52" s="8">
         <v>288.39349839983203</v>
       </c>
-      <c r="EG52" s="14">
+      <c r="EG52" s="8">
         <v>269.26888680493897</v>
       </c>
-      <c r="EH52" s="14">
+      <c r="EH52" s="8">
         <v>485.21785632631901</v>
       </c>
-      <c r="EI52" s="14">
+      <c r="EI52" s="8">
         <v>307.07691781884103</v>
       </c>
-      <c r="EJ52" s="14">
+      <c r="EJ52" s="8">
         <v>447.68102234219799</v>
       </c>
-      <c r="EK52" s="14">
+      <c r="EK52" s="8">
         <v>394.430503584875</v>
       </c>
-      <c r="EL52" s="14">
+      <c r="EL52" s="8">
         <v>-129.37857123689</v>
       </c>
-      <c r="EM52" s="14">
+      <c r="EM52" s="8">
         <v>-154.33145316123</v>
       </c>
-      <c r="EN52" s="14">
+      <c r="EN52" s="8">
         <v>59.241836000747902</v>
       </c>
-      <c r="EO52" s="14">
+      <c r="EO52" s="8">
         <v>-72.909809170545998</v>
       </c>
-      <c r="EP52" s="14">
+      <c r="EP52" s="8">
         <v>98.506904799667794</v>
       </c>
-      <c r="EQ52" s="14">
+      <c r="EQ52" s="8">
         <v>133.15707386479099</v>
       </c>
-      <c r="ER52" s="14">
+      <c r="ER52" s="8">
         <v>-139.43616721302001</v>
       </c>
-      <c r="ES52" s="14">
+      <c r="ES52" s="8">
         <v>215.92927123810799</v>
       </c>
-      <c r="ET52" s="14">
+      <c r="ET52" s="8">
         <v>25.1814876126192</v>
       </c>
-      <c r="EU52" s="14">
+      <c r="EU52" s="8">
         <v>-195.76269609932001</v>
       </c>
-      <c r="EV52" s="14">
+      <c r="EV52" s="8">
         <v>-12.852803131071999</v>
       </c>
-      <c r="EW52" s="14">
+      <c r="EW52" s="8">
         <v>-55.098361783173999</v>
       </c>
-      <c r="EX52" s="14">
+      <c r="EX52" s="8">
         <v>9.2356625394163707</v>
       </c>
-      <c r="EY52" s="14">
+      <c r="EY52" s="8">
         <v>210.14621152101299</v>
       </c>
-      <c r="EZ52" s="14">
+      <c r="EZ52" s="8">
         <v>70.098037541590401</v>
       </c>
-      <c r="FA52" s="14">
+      <c r="FA52" s="8">
         <v>-261.21219010597002</v>
       </c>
-      <c r="FB52" s="14">
+      <c r="FB52" s="8">
         <v>-98.448758417769994</v>
       </c>
-      <c r="FC52" s="14">
+      <c r="FC52" s="8">
         <v>173.01049708093399</v>
       </c>
-      <c r="FD52" s="14">
+      <c r="FD52" s="8">
         <v>119.153239887102</v>
       </c>
-      <c r="FE52" s="14">
+      <c r="FE52" s="8">
         <v>439.062224160553</v>
       </c>
-      <c r="FF52" s="14">
+      <c r="FF52" s="8">
         <v>91.476210263724397</v>
       </c>
-      <c r="FG52" s="14">
+      <c r="FG52" s="8">
         <v>-67.813622821546005</v>
       </c>
-      <c r="FH52" s="14">
+      <c r="FH52" s="8">
         <v>447.60183277802099</v>
       </c>
-      <c r="FI52" s="14">
+      <c r="FI52" s="8">
         <v>78.966751354804302</v>
       </c>
-      <c r="FJ52" s="14">
+      <c r="FJ52" s="8">
         <v>91.644657971118207</v>
       </c>
-      <c r="FK52" s="14">
+      <c r="FK52" s="8">
         <v>71.697142556896395</v>
       </c>
-      <c r="FL52" s="14">
+      <c r="FL52" s="8">
         <v>26.903418840273002</v>
       </c>
-      <c r="FM52" s="14">
+      <c r="FM52" s="8">
         <v>27.309513969361301</v>
       </c>
-      <c r="FN52" s="14">
+      <c r="FN52" s="8">
         <v>125.002365379888</v>
       </c>
-      <c r="FO52" s="14">
+      <c r="FO52" s="8">
         <v>-298.49641143762</v>
       </c>
-      <c r="FP52" s="14">
+      <c r="FP52" s="8">
         <v>443.19993471411499</v>
       </c>
-      <c r="FQ52" s="14">
+      <c r="FQ52" s="8">
         <v>31.8575640879248</v>
       </c>
-      <c r="FR52" s="14">
+      <c r="FR52" s="8">
         <v>-164.19283348984999</v>
       </c>
-      <c r="FS52" s="14">
+      <c r="FS52" s="8">
         <v>40.924330282671598</v>
       </c>
-      <c r="FT52" s="14">
+      <c r="FT52" s="8">
         <v>334.39098088818201</v>
       </c>
-      <c r="FU52" s="14">
+      <c r="FU52" s="8">
         <v>-48.861639473802001</v>
       </c>
-      <c r="FV52" s="14">
+      <c r="FV52" s="8">
         <v>-26.069258754063998</v>
       </c>
-      <c r="FW52" s="14">
+      <c r="FW52" s="8">
         <v>297.44287848404201</v>
       </c>
-      <c r="FX52" s="14">
+      <c r="FX52" s="8">
         <v>171.52850856509801</v>
       </c>
-      <c r="FY52" s="14">
+      <c r="FY52" s="8">
         <v>208.987581922034</v>
       </c>
-      <c r="FZ52" s="14">
+      <c r="FZ52" s="8">
         <v>-49.073033298650998</v>
       </c>
-      <c r="GA52" s="14">
+      <c r="GA52" s="8">
         <v>-44.473109410503</v>
       </c>
-      <c r="GB52" s="14">
+      <c r="GB52" s="8">
         <v>-304.54318773247002</v>
       </c>
-      <c r="GC52" s="14">
+      <c r="GC52" s="8">
         <v>-99.634499118329003</v>
       </c>
-      <c r="GD52" s="14">
+      <c r="GD52" s="8">
         <v>14.3999677281559</v>
       </c>
-      <c r="GE52" s="14">
+      <c r="GE52" s="8">
         <v>-533.49637983411003</v>
       </c>
-      <c r="GF52" s="14">
+      <c r="GF52" s="8">
         <v>280.59723727070798</v>
       </c>
-      <c r="GG52" s="14">
+      <c r="GG52" s="8">
         <v>250.338848535061</v>
       </c>
-      <c r="GH52" s="14">
+      <c r="GH52" s="8">
         <v>-9.1496138833072003</v>
       </c>
-      <c r="GI52" s="14">
+      <c r="GI52" s="8">
         <v>396.16377274953999</v>
       </c>
-      <c r="GJ52" s="14">
+      <c r="GJ52" s="8">
         <v>197.28688644376601</v>
       </c>
-      <c r="GK52" s="14">
+      <c r="GK52" s="8">
         <v>145.28463152561901</v>
       </c>
-      <c r="GL52" s="14">
+      <c r="GL52" s="8">
         <v>516.840354923885</v>
       </c>
-      <c r="GM52" s="14">
+      <c r="GM52" s="8">
         <v>243.873743307301</v>
       </c>
-      <c r="GN52" s="14">
+      <c r="GN52" s="8">
         <v>150.31963429090499</v>
       </c>
-      <c r="GO52" s="14">
+      <c r="GO52" s="8">
         <v>-436.28567617339002</v>
       </c>
-      <c r="GP52" s="14">
+      <c r="GP52" s="8">
         <v>-359.99463112889998</v>
       </c>
-      <c r="GQ52" s="14">
+      <c r="GQ52" s="8">
         <v>304.23575211876403</v>
       </c>
-      <c r="GR52" s="14">
+      <c r="GR52" s="8">
         <v>629.38002703852499</v>
       </c>
-      <c r="GS52" s="14">
+      <c r="GS52" s="8">
         <v>136.552997960808</v>
       </c>
-      <c r="GT52" s="14">
+      <c r="GT52" s="8">
         <v>176.14179787129299</v>
       </c>
-      <c r="GU52" s="14">
+      <c r="GU52" s="8">
         <v>17.618007881802601</v>
       </c>
-      <c r="GV52" s="14">
+      <c r="GV52" s="8">
         <v>1032.2909153064199</v>
       </c>
-      <c r="GW52" s="14">
+      <c r="GW52" s="8">
         <v>297.08545915537297</v>
       </c>
-      <c r="GX52" s="14">
+      <c r="GX52" s="8">
         <v>500.735310618352</v>
       </c>
-      <c r="GY52" s="14">
+      <c r="GY52" s="8">
         <v>151.17224012149501</v>
       </c>
-      <c r="GZ52" s="14">
+      <c r="GZ52" s="8">
         <v>-425.25220564699998</v>
       </c>
-      <c r="HA52" s="14">
+      <c r="HA52" s="8">
         <v>31.169869308095301</v>
       </c>
-      <c r="HB52" s="14">
+      <c r="HB52" s="8">
         <v>367.00850021646897</v>
       </c>
-      <c r="HC52" s="14">
+      <c r="HC52" s="8">
         <v>-297.82208985866998</v>
       </c>
-      <c r="HD52" s="14">
+      <c r="HD52" s="8">
         <v>-34.606433585471997</v>
       </c>
-      <c r="HE52" s="14">
+      <c r="HE52" s="8">
         <v>-70.095105380484</v>
       </c>
-      <c r="HF52" s="14">
+      <c r="HF52" s="8">
         <v>-203.85093354668999</v>
       </c>
-      <c r="HG52" s="14">
+      <c r="HG52" s="8">
         <v>-90.938673566527996</v>
       </c>
-      <c r="HH52" s="14">
+      <c r="HH52" s="8">
         <v>-26.10105005294</v>
       </c>
-      <c r="HI52" s="14">
+      <c r="HI52" s="8">
         <v>-104.96390638203</v>
       </c>
-      <c r="HJ52" s="14">
+      <c r="HJ52" s="8">
         <v>12.688411400253599</v>
       </c>
-      <c r="HK52" s="14">
+      <c r="HK52" s="8">
         <v>-65.451930112127997</v>
       </c>
-      <c r="HL52" s="14">
+      <c r="HL52" s="8">
         <v>85.575782890327204</v>
       </c>
-      <c r="HM52" s="14">
+      <c r="HM52" s="8">
         <v>-24.071843308201998</v>
       </c>
-      <c r="HN52" s="14">
+      <c r="HN52" s="8">
         <v>119.391605294792</v>
       </c>
-      <c r="HO52" s="14">
+      <c r="HO52" s="8">
         <v>188.74964397259799</v>
       </c>
-      <c r="HP52" s="14">
+      <c r="HP52" s="8">
         <v>146.19868549078299</v>
       </c>
-      <c r="HQ52" s="14">
+      <c r="HQ52" s="8">
         <v>-139.48805316751</v>
       </c>
-      <c r="HR52" s="14">
+      <c r="HR52" s="8">
         <v>252.33742961214099</v>
       </c>
-      <c r="HS52" s="14">
+      <c r="HS52" s="8">
         <v>314.29470813909001</v>
       </c>
-      <c r="HT52" s="14">
+      <c r="HT52" s="8">
         <v>590.02815829375902</v>
       </c>
-      <c r="HU52" s="14">
+      <c r="HU52" s="8">
         <v>117.018671586381</v>
       </c>
-      <c r="HV52" s="14">
+      <c r="HV52" s="8">
         <v>13.5560664383559</v>
       </c>
-      <c r="HW52" s="14">
+      <c r="HW52" s="8">
         <v>-28.739400721610998</v>
       </c>
-      <c r="HX52" s="14">
+      <c r="HX52" s="8">
         <v>331.93253288907601</v>
       </c>
-      <c r="HY52" s="14">
+      <c r="HY52" s="8">
         <v>96.2338168020528</v>
       </c>
-      <c r="HZ52" s="14">
+      <c r="HZ52" s="8">
         <v>-28.275851686965002</v>
       </c>
-      <c r="IA52" s="14">
+      <c r="IA52" s="8">
         <v>291.50018158953998</v>
       </c>
-      <c r="IB52" s="14">
+      <c r="IB52" s="8">
         <v>136.22735718381901</v>
       </c>
-      <c r="IC52" s="14">
+      <c r="IC52" s="8">
         <v>102.317087149206</v>
       </c>
-      <c r="ID52" s="14">
+      <c r="ID52" s="8">
         <v>-58.327380982671997</v>
       </c>
-      <c r="IE52" s="14">
+      <c r="IE52" s="8">
         <v>-11.882960774328</v>
       </c>
-      <c r="IF52" s="14">
+      <c r="IF52" s="8">
         <v>6740.8721743897004</v>
       </c>
-      <c r="IG52" s="14">
+      <c r="IG52" s="8">
         <v>216.253185966643</v>
       </c>
-      <c r="IH52" s="14">
+      <c r="IH52" s="8">
         <v>271.95944555776998</v>
       </c>
-      <c r="II52" s="14">
+      <c r="II52" s="8">
         <v>48.188570746557097</v>
       </c>
-      <c r="IJ52" s="14">
+      <c r="IJ52" s="8">
         <v>-194.75158619442999</v>
       </c>
-      <c r="IK52" s="14">
+      <c r="IK52" s="8">
         <v>38.629804777317403</v>
       </c>
-      <c r="IL52" s="14">
+      <c r="IL52" s="8">
         <v>183.68383627698501</v>
       </c>
-      <c r="IM52" s="14">
+      <c r="IM52" s="8">
         <v>-636.34285212835005</v>
       </c>
-      <c r="IN52" s="14">
+      <c r="IN52" s="8">
         <v>60.483225870466804</v>
       </c>
-      <c r="IO52" s="14">
+      <c r="IO52" s="8">
         <v>206.04712247480299</v>
       </c>
-      <c r="IP52" s="14">
+      <c r="IP52" s="8">
         <v>-13.190928337991</v>
       </c>
-      <c r="IQ52" s="14">
+      <c r="IQ52" s="8">
         <v>33.815184193618101</v>
       </c>
-      <c r="IR52" s="14">
+      <c r="IR52" s="8">
         <v>-68.423024719517002</v>
       </c>
-      <c r="IS52" s="14">
+      <c r="IS52" s="8">
         <v>71.932652612310406</v>
       </c>
-      <c r="IT52" s="14">
+      <c r="IT52" s="8">
         <v>-36.193447435605997</v>
       </c>
-      <c r="IU52" s="14">
+      <c r="IU52" s="8">
         <v>237.89350877990799</v>
       </c>
-      <c r="IV52" s="14">
+      <c r="IV52" s="8">
         <v>-16.710918420397999</v>
       </c>
-      <c r="IW52" s="14">
+      <c r="IW52" s="8">
         <v>-84.062082032313995</v>
       </c>
-      <c r="IX52" s="14">
+      <c r="IX52" s="8">
         <v>-32.796000212172999</v>
       </c>
-      <c r="IY52" s="14">
+      <c r="IY52" s="8">
         <v>-174.00507133189001</v>
       </c>
-      <c r="IZ52" s="14">
+      <c r="IZ52" s="8">
         <v>-1675.0004284193001</v>
       </c>
-      <c r="JA52" s="14">
+      <c r="JA52" s="8">
         <v>-473.7847540981</v>
       </c>
-      <c r="JB52" s="14">
+      <c r="JB52" s="8">
         <v>18.0346705447324</v>
       </c>
-      <c r="JC52" s="14">
+      <c r="JC52" s="8">
         <v>181.45007859148899</v>
       </c>
-      <c r="JD52" s="14">
+      <c r="JD52" s="8">
         <v>-273.45374420457</v>
       </c>
-      <c r="JE52" s="14">
+      <c r="JE52" s="8">
         <v>5.8089174899741796</v>
       </c>
-      <c r="JF52" s="14">
+      <c r="JF52" s="21">
         <v>-23.042052443980999</v>
       </c>
-      <c r="JG52" s="14">
+      <c r="JG52" s="27">
         <v>-114.98800287938001</v>
       </c>
-      <c r="JH52" s="14">
+      <c r="JH52" s="8">
         <v>-184.65248463869</v>
       </c>
+      <c r="JI52" s="28">
+        <v>-44.133557108985997</v>
+      </c>
+      <c r="JJ52" s="10"/>
     </row>
-    <row r="54" spans="1:268" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:270" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
-      <c r="AU54" s="11"/>
-      <c r="AV54" s="11"/>
-      <c r="AW54" s="11"/>
-      <c r="AX54" s="11"/>
-      <c r="AY54" s="11"/>
-      <c r="AZ54" s="11"/>
-      <c r="BA54" s="11"/>
-      <c r="BB54" s="11"/>
-      <c r="BC54" s="11"/>
-      <c r="BD54" s="11"/>
-      <c r="BE54" s="11"/>
-      <c r="BF54" s="11"/>
-      <c r="BG54" s="11"/>
-      <c r="BH54" s="11"/>
-      <c r="BI54" s="11"/>
-      <c r="BJ54" s="11"/>
-      <c r="BK54" s="11"/>
-      <c r="BL54" s="11"/>
-      <c r="BM54" s="11"/>
-      <c r="BN54" s="11"/>
-      <c r="BO54" s="11"/>
-      <c r="BP54" s="11"/>
-      <c r="BQ54" s="11"/>
-      <c r="BR54" s="11"/>
-      <c r="BS54" s="11"/>
-      <c r="BT54" s="11"/>
-      <c r="BU54" s="11"/>
-      <c r="BV54" s="11"/>
-      <c r="BW54" s="11"/>
-      <c r="BX54" s="11"/>
-      <c r="BY54" s="11"/>
-      <c r="BZ54" s="11"/>
-      <c r="CA54" s="11"/>
-      <c r="CB54" s="11"/>
-      <c r="CC54" s="11"/>
-      <c r="CD54" s="11"/>
-      <c r="CE54" s="11"/>
-      <c r="CF54" s="11"/>
-      <c r="CG54" s="11"/>
-      <c r="CH54" s="11"/>
-      <c r="CI54" s="11"/>
-      <c r="CJ54" s="11"/>
-      <c r="CK54" s="11"/>
-      <c r="CL54" s="11"/>
-      <c r="CM54" s="11"/>
-      <c r="CN54" s="11"/>
-      <c r="CO54" s="11"/>
-      <c r="CP54" s="11"/>
-      <c r="CQ54" s="11"/>
-      <c r="CR54" s="11"/>
-      <c r="CS54" s="11"/>
-      <c r="CT54" s="11"/>
-      <c r="CU54" s="11"/>
-      <c r="CV54" s="11"/>
-      <c r="CW54" s="11"/>
-      <c r="CX54" s="11"/>
-      <c r="CY54" s="11"/>
-      <c r="CZ54" s="11"/>
-      <c r="DA54" s="11"/>
-      <c r="DB54" s="11"/>
-      <c r="DC54" s="11"/>
-      <c r="DD54" s="11"/>
-      <c r="DE54" s="11"/>
-      <c r="DF54" s="11"/>
-      <c r="DG54" s="11"/>
-      <c r="DH54" s="11"/>
-      <c r="DI54" s="11"/>
-      <c r="DJ54" s="11"/>
-      <c r="DK54" s="11"/>
-      <c r="DL54" s="11"/>
-      <c r="DM54" s="11"/>
-      <c r="DN54" s="11"/>
-      <c r="DO54" s="11"/>
-      <c r="DP54" s="11"/>
-      <c r="DQ54" s="11"/>
-      <c r="DR54" s="11"/>
-      <c r="DS54" s="11"/>
-      <c r="DT54" s="11"/>
-      <c r="DU54" s="11"/>
-      <c r="DV54" s="11"/>
-      <c r="DW54" s="11"/>
-      <c r="DX54" s="11"/>
-      <c r="DY54" s="11"/>
-      <c r="DZ54" s="11"/>
-      <c r="EA54" s="11"/>
-      <c r="EB54" s="11"/>
-      <c r="EC54" s="11"/>
-      <c r="ED54" s="11"/>
-      <c r="EE54" s="11"/>
-      <c r="EF54" s="11"/>
-      <c r="EG54" s="11"/>
-      <c r="EH54" s="11"/>
-      <c r="EI54" s="11"/>
-      <c r="EJ54" s="11"/>
-      <c r="EK54" s="11"/>
-      <c r="EL54" s="11"/>
-      <c r="EM54" s="11"/>
-      <c r="EN54" s="11"/>
-      <c r="EO54" s="11"/>
-      <c r="EP54" s="11"/>
-      <c r="EQ54" s="11"/>
-      <c r="ER54" s="11"/>
-      <c r="ES54" s="11"/>
-      <c r="ET54" s="11"/>
-      <c r="EU54" s="11"/>
-      <c r="EV54" s="11"/>
-      <c r="EW54" s="11"/>
-      <c r="EX54" s="11"/>
-      <c r="EY54" s="11"/>
-      <c r="EZ54" s="11"/>
-      <c r="FA54" s="11"/>
-      <c r="FB54" s="11"/>
-      <c r="FC54" s="11"/>
-      <c r="FD54" s="11"/>
-      <c r="FE54" s="11"/>
-      <c r="FF54" s="11"/>
-      <c r="FG54" s="11"/>
-      <c r="FH54" s="11"/>
-      <c r="FI54" s="11"/>
-      <c r="FJ54" s="11"/>
-      <c r="FK54" s="11"/>
-      <c r="FL54" s="11"/>
-      <c r="FM54" s="11"/>
-      <c r="FN54" s="11"/>
-      <c r="FO54" s="11"/>
-      <c r="FP54" s="11"/>
-      <c r="FQ54" s="11"/>
-      <c r="FR54" s="11"/>
-      <c r="FS54" s="11"/>
-      <c r="FT54" s="11"/>
-      <c r="FU54" s="11"/>
-      <c r="FV54" s="11"/>
-      <c r="FW54" s="11"/>
-      <c r="FX54" s="11"/>
-      <c r="FY54" s="11"/>
-      <c r="FZ54" s="11"/>
-      <c r="GA54" s="11"/>
-      <c r="GB54" s="11"/>
-      <c r="GC54" s="11"/>
-      <c r="GD54" s="11"/>
-      <c r="GE54" s="11"/>
-      <c r="GF54" s="11"/>
-      <c r="GG54" s="11"/>
-      <c r="GH54" s="11"/>
-      <c r="GI54" s="11"/>
-      <c r="GJ54" s="11"/>
-      <c r="GK54" s="11"/>
-      <c r="GL54" s="11"/>
-      <c r="GM54" s="11"/>
-      <c r="GN54" s="11"/>
-      <c r="GO54" s="11"/>
-      <c r="GP54" s="11"/>
-      <c r="GQ54" s="11"/>
-      <c r="GR54" s="11"/>
-      <c r="GS54" s="11"/>
-      <c r="GT54" s="11"/>
-      <c r="GU54" s="11"/>
-      <c r="GV54" s="11"/>
-      <c r="GW54" s="11"/>
-      <c r="GX54" s="11"/>
-      <c r="GY54" s="11"/>
-      <c r="GZ54" s="11"/>
-      <c r="HA54" s="11"/>
-      <c r="HB54" s="11"/>
-      <c r="HC54" s="11"/>
-      <c r="HD54" s="11"/>
-      <c r="HE54" s="11"/>
-      <c r="HF54" s="11"/>
-      <c r="HG54" s="11"/>
-      <c r="HH54" s="11"/>
-      <c r="HI54" s="11"/>
-      <c r="HJ54" s="11"/>
-      <c r="HK54" s="11"/>
-      <c r="HL54" s="11"/>
-      <c r="HM54" s="11"/>
-      <c r="HN54" s="11"/>
-      <c r="HO54" s="11"/>
-      <c r="HP54" s="11"/>
-      <c r="HQ54" s="11"/>
-      <c r="HR54" s="11"/>
-      <c r="HS54" s="11"/>
-      <c r="HT54" s="11"/>
-      <c r="HU54" s="11"/>
-      <c r="HV54" s="11"/>
-      <c r="HW54" s="11"/>
-      <c r="HX54" s="11"/>
-      <c r="HY54" s="11"/>
-      <c r="HZ54" s="11"/>
-      <c r="IA54" s="11"/>
-      <c r="IB54" s="11"/>
-      <c r="IC54" s="11"/>
-      <c r="ID54" s="11"/>
-      <c r="IE54" s="11"/>
-      <c r="IF54" s="11"/>
-      <c r="IG54" s="11"/>
-      <c r="IH54" s="11"/>
-      <c r="II54" s="11"/>
-      <c r="IJ54" s="11"/>
-      <c r="IK54" s="11"/>
-      <c r="IL54" s="11"/>
-      <c r="IM54" s="11"/>
-      <c r="IN54" s="11"/>
-      <c r="IO54" s="11"/>
-      <c r="IP54" s="11"/>
-      <c r="IQ54" s="11"/>
-      <c r="IR54" s="11"/>
-      <c r="IS54" s="11"/>
-      <c r="IT54" s="11"/>
-      <c r="IU54" s="11"/>
-      <c r="IV54" s="11"/>
-      <c r="IW54" s="11"/>
-      <c r="IX54" s="11"/>
-      <c r="IY54" s="11"/>
-      <c r="IZ54" s="11"/>
-      <c r="JA54" s="11"/>
-      <c r="JB54" s="11"/>
-      <c r="JC54" s="11"/>
-      <c r="JD54" s="11"/>
-      <c r="JE54" s="11"/>
-      <c r="JF54" s="11"/>
-      <c r="JG54" s="11"/>
-      <c r="JH54" s="11"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="40"/>
+      <c r="AM54" s="40"/>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="40"/>
+      <c r="AP54" s="40"/>
+      <c r="AQ54" s="40"/>
+      <c r="AR54" s="40"/>
+      <c r="AS54" s="40"/>
+      <c r="AT54" s="40"/>
+      <c r="AU54" s="40"/>
+      <c r="AV54" s="40"/>
+      <c r="AW54" s="40"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+      <c r="BB54" s="40"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="40"/>
+      <c r="BE54" s="40"/>
+      <c r="BF54" s="40"/>
+      <c r="BG54" s="40"/>
+      <c r="BH54" s="40"/>
+      <c r="BI54" s="40"/>
+      <c r="BJ54" s="40"/>
+      <c r="BK54" s="40"/>
+      <c r="BL54" s="40"/>
+      <c r="BM54" s="40"/>
+      <c r="BN54" s="40"/>
+      <c r="BO54" s="40"/>
+      <c r="BP54" s="40"/>
+      <c r="BQ54" s="40"/>
+      <c r="BR54" s="40"/>
+      <c r="BS54" s="40"/>
+      <c r="BT54" s="40"/>
+      <c r="BU54" s="40"/>
+      <c r="BV54" s="40"/>
+      <c r="BW54" s="40"/>
+      <c r="BX54" s="40"/>
+      <c r="BY54" s="40"/>
+      <c r="BZ54" s="40"/>
+      <c r="CA54" s="40"/>
+      <c r="CB54" s="40"/>
+      <c r="CC54" s="40"/>
+      <c r="CD54" s="40"/>
+      <c r="CE54" s="40"/>
+      <c r="CF54" s="40"/>
+      <c r="CG54" s="40"/>
+      <c r="CH54" s="40"/>
+      <c r="CI54" s="40"/>
+      <c r="CJ54" s="40"/>
+      <c r="CK54" s="40"/>
+      <c r="CL54" s="40"/>
+      <c r="CM54" s="40"/>
+      <c r="CN54" s="40"/>
+      <c r="CO54" s="40"/>
+      <c r="CP54" s="40"/>
+      <c r="CQ54" s="40"/>
+      <c r="CR54" s="40"/>
+      <c r="CS54" s="40"/>
+      <c r="CT54" s="40"/>
+      <c r="CU54" s="40"/>
+      <c r="CV54" s="40"/>
+      <c r="CW54" s="40"/>
+      <c r="CX54" s="40"/>
+      <c r="CY54" s="40"/>
+      <c r="CZ54" s="40"/>
+      <c r="DA54" s="40"/>
+      <c r="DB54" s="40"/>
+      <c r="DC54" s="40"/>
+      <c r="DD54" s="40"/>
+      <c r="DE54" s="40"/>
+      <c r="DF54" s="40"/>
+      <c r="DG54" s="40"/>
+      <c r="DH54" s="40"/>
+      <c r="DI54" s="40"/>
+      <c r="DJ54" s="40"/>
+      <c r="DK54" s="40"/>
+      <c r="DL54" s="40"/>
+      <c r="DM54" s="40"/>
+      <c r="DN54" s="40"/>
+      <c r="DO54" s="40"/>
+      <c r="DP54" s="40"/>
+      <c r="DQ54" s="40"/>
+      <c r="DR54" s="40"/>
+      <c r="DS54" s="40"/>
+      <c r="DT54" s="40"/>
+      <c r="DU54" s="40"/>
+      <c r="DV54" s="40"/>
+      <c r="DW54" s="40"/>
+      <c r="DX54" s="40"/>
+      <c r="DY54" s="40"/>
+      <c r="DZ54" s="40"/>
+      <c r="EA54" s="40"/>
+      <c r="EB54" s="40"/>
+      <c r="EC54" s="40"/>
+      <c r="ED54" s="40"/>
+      <c r="EE54" s="40"/>
+      <c r="EF54" s="40"/>
+      <c r="EG54" s="40"/>
+      <c r="EH54" s="40"/>
+      <c r="EI54" s="40"/>
+      <c r="EJ54" s="40"/>
+      <c r="EK54" s="40"/>
+      <c r="EL54" s="40"/>
+      <c r="EM54" s="40"/>
+      <c r="EN54" s="40"/>
+      <c r="EO54" s="40"/>
+      <c r="EP54" s="40"/>
+      <c r="EQ54" s="40"/>
+      <c r="ER54" s="40"/>
+      <c r="ES54" s="40"/>
+      <c r="ET54" s="40"/>
+      <c r="EU54" s="40"/>
+      <c r="EV54" s="40"/>
+      <c r="EW54" s="40"/>
+      <c r="EX54" s="40"/>
+      <c r="EY54" s="40"/>
+      <c r="EZ54" s="40"/>
+      <c r="FA54" s="40"/>
+      <c r="FB54" s="40"/>
+      <c r="FC54" s="40"/>
+      <c r="FD54" s="40"/>
+      <c r="FE54" s="40"/>
+      <c r="FF54" s="40"/>
+      <c r="FG54" s="40"/>
+      <c r="FH54" s="40"/>
+      <c r="FI54" s="40"/>
+      <c r="FJ54" s="40"/>
+      <c r="FK54" s="40"/>
+      <c r="FL54" s="40"/>
+      <c r="FM54" s="40"/>
+      <c r="FN54" s="40"/>
+      <c r="FO54" s="40"/>
+      <c r="FP54" s="40"/>
+      <c r="FQ54" s="40"/>
+      <c r="FR54" s="40"/>
+      <c r="FS54" s="40"/>
+      <c r="FT54" s="40"/>
+      <c r="FU54" s="40"/>
+      <c r="FV54" s="40"/>
+      <c r="FW54" s="40"/>
+      <c r="FX54" s="40"/>
+      <c r="FY54" s="40"/>
+      <c r="FZ54" s="40"/>
+      <c r="GA54" s="40"/>
+      <c r="GB54" s="40"/>
+      <c r="GC54" s="40"/>
+      <c r="GD54" s="40"/>
+      <c r="GE54" s="40"/>
+      <c r="GF54" s="40"/>
+      <c r="GG54" s="40"/>
+      <c r="GH54" s="40"/>
+      <c r="GI54" s="40"/>
+      <c r="GJ54" s="40"/>
+      <c r="GK54" s="40"/>
+      <c r="GL54" s="40"/>
+      <c r="GM54" s="40"/>
+      <c r="GN54" s="40"/>
+      <c r="GO54" s="40"/>
+      <c r="GP54" s="40"/>
+      <c r="GQ54" s="40"/>
+      <c r="GR54" s="40"/>
+      <c r="GS54" s="40"/>
+      <c r="GT54" s="40"/>
+      <c r="GU54" s="40"/>
+      <c r="GV54" s="40"/>
+      <c r="GW54" s="40"/>
+      <c r="GX54" s="40"/>
+      <c r="GY54" s="40"/>
+      <c r="GZ54" s="40"/>
+      <c r="HA54" s="40"/>
+      <c r="HB54" s="40"/>
+      <c r="HC54" s="40"/>
+      <c r="HD54" s="40"/>
+      <c r="HE54" s="40"/>
+      <c r="HF54" s="40"/>
+      <c r="HG54" s="40"/>
+      <c r="HH54" s="40"/>
+      <c r="HI54" s="40"/>
+      <c r="HJ54" s="40"/>
+      <c r="HK54" s="40"/>
+      <c r="HL54" s="40"/>
+      <c r="HM54" s="40"/>
+      <c r="HN54" s="40"/>
+      <c r="HO54" s="40"/>
+      <c r="HP54" s="40"/>
+      <c r="HQ54" s="40"/>
+      <c r="HR54" s="40"/>
+      <c r="HS54" s="40"/>
+      <c r="HT54" s="40"/>
+      <c r="HU54" s="40"/>
+      <c r="HV54" s="40"/>
+      <c r="HW54" s="40"/>
+      <c r="HX54" s="40"/>
+      <c r="HY54" s="40"/>
+      <c r="HZ54" s="40"/>
+      <c r="IA54" s="40"/>
+      <c r="IB54" s="40"/>
+      <c r="IC54" s="40"/>
+      <c r="ID54" s="40"/>
+      <c r="IE54" s="40"/>
+      <c r="IF54" s="40"/>
+      <c r="IG54" s="40"/>
+      <c r="IH54" s="40"/>
+      <c r="II54" s="40"/>
+      <c r="IJ54" s="40"/>
+      <c r="IK54" s="40"/>
+      <c r="IL54" s="40"/>
+      <c r="IM54" s="40"/>
+      <c r="IN54" s="40"/>
+      <c r="IO54" s="40"/>
+      <c r="IP54" s="40"/>
+      <c r="IQ54" s="40"/>
+      <c r="IR54" s="40"/>
+      <c r="IS54" s="40"/>
+      <c r="IT54" s="40"/>
+      <c r="IU54" s="40"/>
+      <c r="IV54" s="40"/>
+      <c r="IW54" s="40"/>
+      <c r="IX54" s="40"/>
+      <c r="IY54" s="40"/>
+      <c r="IZ54" s="40"/>
+      <c r="JA54" s="40"/>
+      <c r="JB54" s="40"/>
+      <c r="JC54" s="40"/>
+      <c r="JD54" s="40"/>
+      <c r="JE54" s="40"/>
+      <c r="JF54" s="40"/>
+      <c r="JG54" s="40"/>
+      <c r="JH54" s="40"/>
+      <c r="JI54"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="A54:JH54"/>
     <mergeCell ref="IH4:IS4"/>
     <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="JF4:JH4"/>
-    <mergeCell ref="A44:JH44"/>
     <mergeCell ref="DF4:DQ4"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="N4:Y4"/>
     <mergeCell ref="Z4:AK4"/>
     <mergeCell ref="AL4:AW4"/>
     <mergeCell ref="AX4:BI4"/>
+    <mergeCell ref="A44:JI44"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -39492,10 +40106,10 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z52" sqref="Z52"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39510,64 +40124,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="29">
         <v>2003</v>
       </c>
       <c r="C4" s="1">
@@ -39635,10 +40249,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="30">
         <v>931.79317399879801</v>
       </c>
       <c r="C5" s="4">
@@ -39706,10 +40320,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="30">
         <v>4418.4340347796797</v>
       </c>
       <c r="C6" s="4">
@@ -39777,10 +40391,10 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="30">
         <v>3486.6408607808798</v>
       </c>
       <c r="C7" s="4">
@@ -39848,10 +40462,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="30">
         <v>-1666.2471217358</v>
       </c>
       <c r="C8" s="4">
@@ -39919,10 +40533,10 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="31">
         <v>1819.48130001444</v>
       </c>
       <c r="C9" s="6">
@@ -39990,10 +40604,10 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="31">
         <v>587.84219239000004</v>
       </c>
       <c r="C10" s="6">
@@ -40061,10 +40675,10 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="31">
         <v>574.44112347197802</v>
       </c>
       <c r="C11" s="6">
@@ -40132,10 +40746,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="31">
         <v>657.19798415246305</v>
       </c>
       <c r="C12" s="6">
@@ -40203,10 +40817,10 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="31">
         <v>3485.7284217502702</v>
       </c>
       <c r="C13" s="6">
@@ -40274,10 +40888,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="31">
         <v>1546.397020831</v>
       </c>
       <c r="C14" s="6">
@@ -40345,10 +40959,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="31">
         <v>-477.85101517477</v>
       </c>
       <c r="C15" s="6">
@@ -40416,10 +41030,10 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="31">
         <v>2417.18241609403</v>
       </c>
       <c r="C16" s="6">
@@ -40487,10 +41101,10 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="30">
         <v>3288.1294299749502</v>
       </c>
       <c r="C17" s="4">
@@ -40558,10 +41172,10 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="31">
         <v>4698.9805120803003</v>
       </c>
       <c r="C18" s="6">
@@ -40629,10 +41243,10 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="31">
         <v>4853.4592857362204</v>
       </c>
       <c r="C19" s="6">
@@ -40700,10 +41314,10 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="31">
         <v>-154.47877365592001</v>
       </c>
       <c r="C20" s="6">
@@ -40771,10 +41385,10 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="31">
         <v>8.5069365140774398</v>
       </c>
       <c r="C21" s="6">
@@ -40842,10 +41456,10 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="31">
         <v>-162.98571017</v>
       </c>
       <c r="C22" s="6">
@@ -40913,10 +41527,10 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="31">
         <v>1410.8510821053501</v>
       </c>
       <c r="C23" s="6">
@@ -40984,10 +41598,10 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="31">
         <v>317.74047755300001</v>
       </c>
       <c r="C24" s="6">
@@ -41055,10 +41669,10 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="31">
         <v>1093.11060455235</v>
       </c>
       <c r="C25" s="6">
@@ -41126,10 +41740,10 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="31">
         <v>1093.11060455235</v>
       </c>
       <c r="C26" s="6">
@@ -41197,10 +41811,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="31">
         <v>0</v>
       </c>
       <c r="C27" s="6">
@@ -41268,10 +41882,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="30">
         <v>-117.63091175308</v>
       </c>
       <c r="C28" s="4">
@@ -41339,10 +41953,10 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="30">
         <v>-206.85822248724</v>
       </c>
       <c r="C29" s="4">
@@ -41410,10 +42024,10 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="31">
         <v>105.60313443802301</v>
       </c>
       <c r="C30" s="6">
@@ -41481,10 +42095,10 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="31">
         <v>60</v>
       </c>
       <c r="C31" s="6">
@@ -41552,10 +42166,10 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="31">
         <v>547.31113443802303</v>
       </c>
       <c r="C32" s="6">
@@ -41623,10 +42237,10 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="31">
         <v>-43.619</v>
       </c>
       <c r="C33" s="6">
@@ -41694,10 +42308,10 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="31">
         <v>-458.089</v>
       </c>
       <c r="C34" s="6">
@@ -41765,10 +42379,10 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="31">
         <v>0</v>
       </c>
       <c r="C35" s="6">
@@ -41836,10 +42450,10 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="31">
         <v>312.46135692526298</v>
       </c>
       <c r="C36" s="6">
@@ -41907,10 +42521,10 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="31">
         <v>-213.67901805028001</v>
       </c>
       <c r="C37" s="6">
@@ -41978,10 +42592,10 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="31">
         <v>476.18700026532503</v>
       </c>
       <c r="C38" s="6">
@@ -42049,10 +42663,10 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="31">
         <v>52.254000710218698</v>
       </c>
       <c r="C39" s="6">
@@ -42120,10 +42734,10 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="31">
         <v>-2.23165441</v>
       </c>
       <c r="C40" s="6">
@@ -42191,10 +42805,10 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="31">
         <v>-6.8971589999999999E-2</v>
       </c>
       <c r="C41" s="6">
@@ -42262,10 +42876,10 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="30">
         <v>-365.6</v>
       </c>
       <c r="C42" s="4">
@@ -42333,31 +42947,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -42821,102 +43435,102 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="8">
         <v>241.65506131999999</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="8">
         <v>137.22574911999999</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="8">
         <v>941.36581531050001</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="8">
         <v>368.81536610000001</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="8">
         <v>544.76575833000004</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="8">
         <v>1470.5409199456301</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="8">
         <v>282.04735518988099</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="8">
         <v>2689.0136365881199</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="8">
         <v>4098.5653102598299</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="8">
         <v>4950.0243891615401</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="8">
         <v>5082.8375326553096</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="8">
         <v>2168.93506983425</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="8">
         <v>97.892430784649306</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="8">
         <v>1400.5631076234699</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="8">
         <v>1115.7140011686099</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q51" s="8">
         <v>243.70152097547901</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51" s="8">
         <v>2708.0583825528001</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51" s="8">
         <v>-203.54447775540001</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="8">
         <v>1597.27127009229</v>
       </c>
-      <c r="U51" s="14">
+      <c r="U51" s="8">
         <v>7801.6668082428196</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="8">
         <v>2.0314511295375199</v>
       </c>
-      <c r="W51" s="14">
+      <c r="W51" s="8">
         <v>-2322.8192707481999</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.06.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\04_PRODUCTOS\02_CF\CF.07.07.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95123C67-F399-4773-B43E-57B73F30B743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADD349-BE9D-4802-A280-6A8ADC6A4639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="4485" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -676,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -712,15 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -785,20 +776,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -809,11 +794,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +960,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="IP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="JM41" sqref="JM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1017,871 +1023,874 @@
     <col min="191" max="265" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="269" max="270" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
-      <c r="BS1" s="37"/>
-      <c r="BT1" s="37"/>
-      <c r="BU1" s="37"/>
-      <c r="BV1" s="37"/>
-      <c r="BW1" s="37"/>
-      <c r="BX1" s="37"/>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="37"/>
-      <c r="CC1" s="37"/>
-      <c r="CD1" s="37"/>
-      <c r="CE1" s="37"/>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="37"/>
-      <c r="CI1" s="37"/>
-      <c r="CJ1" s="37"/>
-      <c r="CK1" s="37"/>
-      <c r="CL1" s="37"/>
-      <c r="CM1" s="37"/>
-      <c r="CN1" s="37"/>
-      <c r="CO1" s="37"/>
-      <c r="CP1" s="37"/>
-      <c r="CQ1" s="37"/>
-      <c r="CR1" s="37"/>
-      <c r="CS1" s="37"/>
-      <c r="CT1" s="37"/>
-      <c r="CU1" s="37"/>
-      <c r="CV1" s="37"/>
-      <c r="CW1" s="37"/>
-      <c r="CX1" s="37"/>
-      <c r="CY1" s="37"/>
-      <c r="CZ1" s="37"/>
-      <c r="DA1" s="37"/>
-      <c r="DB1" s="37"/>
-      <c r="DC1" s="37"/>
-      <c r="DD1" s="37"/>
-      <c r="DE1" s="37"/>
-      <c r="DF1" s="37"/>
-      <c r="DG1" s="37"/>
-      <c r="DH1" s="37"/>
-      <c r="DI1" s="37"/>
-      <c r="DJ1" s="37"/>
-      <c r="DK1" s="37"/>
-      <c r="DL1" s="37"/>
-      <c r="DM1" s="37"/>
-      <c r="DN1" s="37"/>
-      <c r="DO1" s="37"/>
-      <c r="DP1" s="37"/>
-      <c r="DQ1" s="37"/>
-      <c r="DR1" s="37"/>
-      <c r="DS1" s="37"/>
-      <c r="DT1" s="37"/>
-      <c r="DU1" s="37"/>
-      <c r="DV1" s="37"/>
-      <c r="DW1" s="37"/>
-      <c r="DX1" s="37"/>
-      <c r="DY1" s="37"/>
-      <c r="DZ1" s="37"/>
-      <c r="EA1" s="37"/>
-      <c r="EB1" s="37"/>
-      <c r="EC1" s="37"/>
-      <c r="ED1" s="37"/>
-      <c r="EE1" s="37"/>
-      <c r="EF1" s="37"/>
-      <c r="EG1" s="37"/>
-      <c r="EH1" s="37"/>
-      <c r="EI1" s="37"/>
-      <c r="EJ1" s="37"/>
-      <c r="EK1" s="37"/>
-      <c r="EL1" s="37"/>
-      <c r="EM1" s="37"/>
-      <c r="EN1" s="37"/>
-      <c r="EO1" s="37"/>
-      <c r="EP1" s="37"/>
-      <c r="EQ1" s="37"/>
-      <c r="ER1" s="37"/>
-      <c r="ES1" s="37"/>
-      <c r="ET1" s="37"/>
-      <c r="EU1" s="37"/>
-      <c r="EV1" s="37"/>
-      <c r="EW1" s="37"/>
-      <c r="EX1" s="37"/>
-      <c r="EY1" s="37"/>
-      <c r="EZ1" s="37"/>
-      <c r="FA1" s="37"/>
-      <c r="FB1" s="37"/>
-      <c r="FC1" s="37"/>
-      <c r="FD1" s="37"/>
-      <c r="FE1" s="37"/>
-      <c r="FF1" s="37"/>
-      <c r="FG1" s="37"/>
-      <c r="FH1" s="37"/>
-      <c r="FI1" s="37"/>
-      <c r="FJ1" s="37"/>
-      <c r="FK1" s="37"/>
-      <c r="FL1" s="37"/>
-      <c r="FM1" s="37"/>
-      <c r="FN1" s="37"/>
-      <c r="FO1" s="37"/>
-      <c r="FP1" s="37"/>
-      <c r="FQ1" s="37"/>
-      <c r="FR1" s="37"/>
-      <c r="FS1" s="37"/>
-      <c r="FT1" s="37"/>
-      <c r="FU1" s="37"/>
-      <c r="FV1" s="37"/>
-      <c r="FW1" s="37"/>
-      <c r="FX1" s="37"/>
-      <c r="FY1" s="37"/>
-      <c r="FZ1" s="37"/>
-      <c r="GA1" s="37"/>
-      <c r="GB1" s="37"/>
-      <c r="GC1" s="37"/>
-      <c r="GD1" s="37"/>
-      <c r="GE1" s="37"/>
-      <c r="GF1" s="37"/>
-      <c r="GG1" s="37"/>
-      <c r="GH1" s="37"/>
-      <c r="GI1" s="37"/>
-      <c r="GJ1" s="37"/>
-      <c r="GK1" s="37"/>
-      <c r="GL1" s="37"/>
-      <c r="GM1" s="37"/>
-      <c r="GN1" s="37"/>
-      <c r="GO1" s="37"/>
-      <c r="GP1" s="37"/>
-      <c r="GQ1" s="37"/>
-      <c r="GR1" s="37"/>
-      <c r="GS1" s="37"/>
-      <c r="GT1" s="37"/>
-      <c r="GU1" s="37"/>
-      <c r="GV1" s="37"/>
-      <c r="GW1" s="37"/>
-      <c r="GX1" s="37"/>
-      <c r="GY1" s="37"/>
-      <c r="GZ1" s="37"/>
-      <c r="HA1" s="37"/>
-      <c r="HB1" s="37"/>
-      <c r="HC1" s="37"/>
-      <c r="HD1" s="37"/>
-      <c r="HE1" s="37"/>
-      <c r="HF1" s="37"/>
-      <c r="HG1" s="37"/>
-      <c r="HH1" s="37"/>
-      <c r="HI1" s="37"/>
-      <c r="HJ1" s="37"/>
-      <c r="HK1" s="37"/>
-      <c r="HL1" s="37"/>
-      <c r="HM1" s="37"/>
-      <c r="HN1" s="37"/>
-      <c r="HO1" s="37"/>
-      <c r="HP1" s="37"/>
-      <c r="HQ1" s="37"/>
-      <c r="HR1" s="37"/>
-      <c r="HS1" s="37"/>
-      <c r="HT1" s="37"/>
-      <c r="HU1" s="37"/>
-      <c r="HV1" s="37"/>
-      <c r="HW1" s="37"/>
-      <c r="HX1" s="37"/>
-      <c r="HY1" s="37"/>
-      <c r="HZ1" s="37"/>
-      <c r="IA1" s="37"/>
-      <c r="IB1" s="37"/>
-      <c r="IC1" s="37"/>
-      <c r="ID1" s="37"/>
-      <c r="IE1" s="37"/>
-      <c r="IF1" s="37"/>
-      <c r="IG1" s="37"/>
-      <c r="IH1" s="37"/>
-      <c r="II1" s="37"/>
-      <c r="IJ1" s="37"/>
-      <c r="IK1" s="37"/>
-      <c r="IL1" s="37"/>
-      <c r="IM1" s="37"/>
-      <c r="IN1" s="37"/>
-      <c r="IO1" s="37"/>
-      <c r="IP1" s="37"/>
-      <c r="IQ1" s="37"/>
-      <c r="IR1" s="37"/>
-      <c r="IS1" s="37"/>
-      <c r="IT1" s="37"/>
-      <c r="IU1" s="37"/>
-      <c r="IV1" s="37"/>
-      <c r="IW1" s="37"/>
-      <c r="IX1" s="37"/>
-      <c r="IY1" s="37"/>
-      <c r="IZ1" s="37"/>
-      <c r="JA1" s="37"/>
-      <c r="JB1" s="37"/>
-      <c r="JC1" s="37"/>
-      <c r="JD1" s="37"/>
-      <c r="JE1" s="37"/>
-      <c r="JF1" s="37"/>
-      <c r="JG1" s="37"/>
-      <c r="JH1" s="37"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40"/>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="40"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40"/>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CE1" s="40"/>
+      <c r="CF1" s="40"/>
+      <c r="CG1" s="40"/>
+      <c r="CH1" s="40"/>
+      <c r="CI1" s="40"/>
+      <c r="CJ1" s="40"/>
+      <c r="CK1" s="40"/>
+      <c r="CL1" s="40"/>
+      <c r="CM1" s="40"/>
+      <c r="CN1" s="40"/>
+      <c r="CO1" s="40"/>
+      <c r="CP1" s="40"/>
+      <c r="CQ1" s="40"/>
+      <c r="CR1" s="40"/>
+      <c r="CS1" s="40"/>
+      <c r="CT1" s="40"/>
+      <c r="CU1" s="40"/>
+      <c r="CV1" s="40"/>
+      <c r="CW1" s="40"/>
+      <c r="CX1" s="40"/>
+      <c r="CY1" s="40"/>
+      <c r="CZ1" s="40"/>
+      <c r="DA1" s="40"/>
+      <c r="DB1" s="40"/>
+      <c r="DC1" s="40"/>
+      <c r="DD1" s="40"/>
+      <c r="DE1" s="40"/>
+      <c r="DF1" s="40"/>
+      <c r="DG1" s="40"/>
+      <c r="DH1" s="40"/>
+      <c r="DI1" s="40"/>
+      <c r="DJ1" s="40"/>
+      <c r="DK1" s="40"/>
+      <c r="DL1" s="40"/>
+      <c r="DM1" s="40"/>
+      <c r="DN1" s="40"/>
+      <c r="DO1" s="40"/>
+      <c r="DP1" s="40"/>
+      <c r="DQ1" s="40"/>
+      <c r="DR1" s="40"/>
+      <c r="DS1" s="40"/>
+      <c r="DT1" s="40"/>
+      <c r="DU1" s="40"/>
+      <c r="DV1" s="40"/>
+      <c r="DW1" s="40"/>
+      <c r="DX1" s="40"/>
+      <c r="DY1" s="40"/>
+      <c r="DZ1" s="40"/>
+      <c r="EA1" s="40"/>
+      <c r="EB1" s="40"/>
+      <c r="EC1" s="40"/>
+      <c r="ED1" s="40"/>
+      <c r="EE1" s="40"/>
+      <c r="EF1" s="40"/>
+      <c r="EG1" s="40"/>
+      <c r="EH1" s="40"/>
+      <c r="EI1" s="40"/>
+      <c r="EJ1" s="40"/>
+      <c r="EK1" s="40"/>
+      <c r="EL1" s="40"/>
+      <c r="EM1" s="40"/>
+      <c r="EN1" s="40"/>
+      <c r="EO1" s="40"/>
+      <c r="EP1" s="40"/>
+      <c r="EQ1" s="40"/>
+      <c r="ER1" s="40"/>
+      <c r="ES1" s="40"/>
+      <c r="ET1" s="40"/>
+      <c r="EU1" s="40"/>
+      <c r="EV1" s="40"/>
+      <c r="EW1" s="40"/>
+      <c r="EX1" s="40"/>
+      <c r="EY1" s="40"/>
+      <c r="EZ1" s="40"/>
+      <c r="FA1" s="40"/>
+      <c r="FB1" s="40"/>
+      <c r="FC1" s="40"/>
+      <c r="FD1" s="40"/>
+      <c r="FE1" s="40"/>
+      <c r="FF1" s="40"/>
+      <c r="FG1" s="40"/>
+      <c r="FH1" s="40"/>
+      <c r="FI1" s="40"/>
+      <c r="FJ1" s="40"/>
+      <c r="FK1" s="40"/>
+      <c r="FL1" s="40"/>
+      <c r="FM1" s="40"/>
+      <c r="FN1" s="40"/>
+      <c r="FO1" s="40"/>
+      <c r="FP1" s="40"/>
+      <c r="FQ1" s="40"/>
+      <c r="FR1" s="40"/>
+      <c r="FS1" s="40"/>
+      <c r="FT1" s="40"/>
+      <c r="FU1" s="40"/>
+      <c r="FV1" s="40"/>
+      <c r="FW1" s="40"/>
+      <c r="FX1" s="40"/>
+      <c r="FY1" s="40"/>
+      <c r="FZ1" s="40"/>
+      <c r="GA1" s="40"/>
+      <c r="GB1" s="40"/>
+      <c r="GC1" s="40"/>
+      <c r="GD1" s="40"/>
+      <c r="GE1" s="40"/>
+      <c r="GF1" s="40"/>
+      <c r="GG1" s="40"/>
+      <c r="GH1" s="40"/>
+      <c r="GI1" s="40"/>
+      <c r="GJ1" s="40"/>
+      <c r="GK1" s="40"/>
+      <c r="GL1" s="40"/>
+      <c r="GM1" s="40"/>
+      <c r="GN1" s="40"/>
+      <c r="GO1" s="40"/>
+      <c r="GP1" s="40"/>
+      <c r="GQ1" s="40"/>
+      <c r="GR1" s="40"/>
+      <c r="GS1" s="40"/>
+      <c r="GT1" s="40"/>
+      <c r="GU1" s="40"/>
+      <c r="GV1" s="40"/>
+      <c r="GW1" s="40"/>
+      <c r="GX1" s="40"/>
+      <c r="GY1" s="40"/>
+      <c r="GZ1" s="40"/>
+      <c r="HA1" s="40"/>
+      <c r="HB1" s="40"/>
+      <c r="HC1" s="40"/>
+      <c r="HD1" s="40"/>
+      <c r="HE1" s="40"/>
+      <c r="HF1" s="40"/>
+      <c r="HG1" s="40"/>
+      <c r="HH1" s="40"/>
+      <c r="HI1" s="40"/>
+      <c r="HJ1" s="40"/>
+      <c r="HK1" s="40"/>
+      <c r="HL1" s="40"/>
+      <c r="HM1" s="40"/>
+      <c r="HN1" s="40"/>
+      <c r="HO1" s="40"/>
+      <c r="HP1" s="40"/>
+      <c r="HQ1" s="40"/>
+      <c r="HR1" s="40"/>
+      <c r="HS1" s="40"/>
+      <c r="HT1" s="40"/>
+      <c r="HU1" s="40"/>
+      <c r="HV1" s="40"/>
+      <c r="HW1" s="40"/>
+      <c r="HX1" s="40"/>
+      <c r="HY1" s="40"/>
+      <c r="HZ1" s="40"/>
+      <c r="IA1" s="40"/>
+      <c r="IB1" s="40"/>
+      <c r="IC1" s="40"/>
+      <c r="ID1" s="40"/>
+      <c r="IE1" s="40"/>
+      <c r="IF1" s="40"/>
+      <c r="IG1" s="40"/>
+      <c r="IH1" s="40"/>
+      <c r="II1" s="40"/>
+      <c r="IJ1" s="40"/>
+      <c r="IK1" s="40"/>
+      <c r="IL1" s="40"/>
+      <c r="IM1" s="40"/>
+      <c r="IN1" s="40"/>
+      <c r="IO1" s="40"/>
+      <c r="IP1" s="40"/>
+      <c r="IQ1" s="40"/>
+      <c r="IR1" s="40"/>
+      <c r="IS1" s="40"/>
+      <c r="IT1" s="40"/>
+      <c r="IU1" s="40"/>
+      <c r="IV1" s="40"/>
+      <c r="IW1" s="40"/>
+      <c r="IX1" s="40"/>
+      <c r="IY1" s="40"/>
+      <c r="IZ1" s="40"/>
+      <c r="JA1" s="40"/>
+      <c r="JB1" s="40"/>
+      <c r="JC1" s="40"/>
+      <c r="JD1" s="40"/>
+      <c r="JE1" s="40"/>
+      <c r="JF1" s="40"/>
+      <c r="JG1" s="40"/>
+      <c r="JH1" s="40"/>
       <c r="JI1"/>
+      <c r="JJ1" s="33"/>
     </row>
     <row r="2" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
-      <c r="CF2" s="37"/>
-      <c r="CG2" s="37"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="37"/>
-      <c r="CJ2" s="37"/>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="37"/>
-      <c r="CM2" s="37"/>
-      <c r="CN2" s="37"/>
-      <c r="CO2" s="37"/>
-      <c r="CP2" s="37"/>
-      <c r="CQ2" s="37"/>
-      <c r="CR2" s="37"/>
-      <c r="CS2" s="37"/>
-      <c r="CT2" s="37"/>
-      <c r="CU2" s="37"/>
-      <c r="CV2" s="37"/>
-      <c r="CW2" s="37"/>
-      <c r="CX2" s="37"/>
-      <c r="CY2" s="37"/>
-      <c r="CZ2" s="37"/>
-      <c r="DA2" s="37"/>
-      <c r="DB2" s="37"/>
-      <c r="DC2" s="37"/>
-      <c r="DD2" s="37"/>
-      <c r="DE2" s="37"/>
-      <c r="DF2" s="37"/>
-      <c r="DG2" s="37"/>
-      <c r="DH2" s="37"/>
-      <c r="DI2" s="37"/>
-      <c r="DJ2" s="37"/>
-      <c r="DK2" s="37"/>
-      <c r="DL2" s="37"/>
-      <c r="DM2" s="37"/>
-      <c r="DN2" s="37"/>
-      <c r="DO2" s="37"/>
-      <c r="DP2" s="37"/>
-      <c r="DQ2" s="37"/>
-      <c r="DR2" s="37"/>
-      <c r="DS2" s="37"/>
-      <c r="DT2" s="37"/>
-      <c r="DU2" s="37"/>
-      <c r="DV2" s="37"/>
-      <c r="DW2" s="37"/>
-      <c r="DX2" s="37"/>
-      <c r="DY2" s="37"/>
-      <c r="DZ2" s="37"/>
-      <c r="EA2" s="37"/>
-      <c r="EB2" s="37"/>
-      <c r="EC2" s="37"/>
-      <c r="ED2" s="37"/>
-      <c r="EE2" s="37"/>
-      <c r="EF2" s="37"/>
-      <c r="EG2" s="37"/>
-      <c r="EH2" s="37"/>
-      <c r="EI2" s="37"/>
-      <c r="EJ2" s="37"/>
-      <c r="EK2" s="37"/>
-      <c r="EL2" s="37"/>
-      <c r="EM2" s="37"/>
-      <c r="EN2" s="37"/>
-      <c r="EO2" s="37"/>
-      <c r="EP2" s="37"/>
-      <c r="EQ2" s="37"/>
-      <c r="ER2" s="37"/>
-      <c r="ES2" s="37"/>
-      <c r="ET2" s="37"/>
-      <c r="EU2" s="37"/>
-      <c r="EV2" s="37"/>
-      <c r="EW2" s="37"/>
-      <c r="EX2" s="37"/>
-      <c r="EY2" s="37"/>
-      <c r="EZ2" s="37"/>
-      <c r="FA2" s="37"/>
-      <c r="FB2" s="37"/>
-      <c r="FC2" s="37"/>
-      <c r="FD2" s="37"/>
-      <c r="FE2" s="37"/>
-      <c r="FF2" s="37"/>
-      <c r="FG2" s="37"/>
-      <c r="FH2" s="37"/>
-      <c r="FI2" s="37"/>
-      <c r="FJ2" s="37"/>
-      <c r="FK2" s="37"/>
-      <c r="FL2" s="37"/>
-      <c r="FM2" s="37"/>
-      <c r="FN2" s="37"/>
-      <c r="FO2" s="37"/>
-      <c r="FP2" s="37"/>
-      <c r="FQ2" s="37"/>
-      <c r="FR2" s="37"/>
-      <c r="FS2" s="37"/>
-      <c r="FT2" s="37"/>
-      <c r="FU2" s="37"/>
-      <c r="FV2" s="37"/>
-      <c r="FW2" s="37"/>
-      <c r="FX2" s="37"/>
-      <c r="FY2" s="37"/>
-      <c r="FZ2" s="37"/>
-      <c r="GA2" s="37"/>
-      <c r="GB2" s="37"/>
-      <c r="GC2" s="37"/>
-      <c r="GD2" s="37"/>
-      <c r="GE2" s="37"/>
-      <c r="GF2" s="37"/>
-      <c r="GG2" s="37"/>
-      <c r="GH2" s="37"/>
-      <c r="GI2" s="37"/>
-      <c r="GJ2" s="37"/>
-      <c r="GK2" s="37"/>
-      <c r="GL2" s="37"/>
-      <c r="GM2" s="37"/>
-      <c r="GN2" s="37"/>
-      <c r="GO2" s="37"/>
-      <c r="GP2" s="37"/>
-      <c r="GQ2" s="37"/>
-      <c r="GR2" s="37"/>
-      <c r="GS2" s="37"/>
-      <c r="GT2" s="37"/>
-      <c r="GU2" s="37"/>
-      <c r="GV2" s="37"/>
-      <c r="GW2" s="37"/>
-      <c r="GX2" s="37"/>
-      <c r="GY2" s="37"/>
-      <c r="GZ2" s="37"/>
-      <c r="HA2" s="37"/>
-      <c r="HB2" s="37"/>
-      <c r="HC2" s="37"/>
-      <c r="HD2" s="37"/>
-      <c r="HE2" s="37"/>
-      <c r="HF2" s="37"/>
-      <c r="HG2" s="37"/>
-      <c r="HH2" s="37"/>
-      <c r="HI2" s="37"/>
-      <c r="HJ2" s="37"/>
-      <c r="HK2" s="37"/>
-      <c r="HL2" s="37"/>
-      <c r="HM2" s="37"/>
-      <c r="HN2" s="37"/>
-      <c r="HO2" s="37"/>
-      <c r="HP2" s="37"/>
-      <c r="HQ2" s="37"/>
-      <c r="HR2" s="37"/>
-      <c r="HS2" s="37"/>
-      <c r="HT2" s="37"/>
-      <c r="HU2" s="37"/>
-      <c r="HV2" s="37"/>
-      <c r="HW2" s="37"/>
-      <c r="HX2" s="37"/>
-      <c r="HY2" s="37"/>
-      <c r="HZ2" s="37"/>
-      <c r="IA2" s="37"/>
-      <c r="IB2" s="37"/>
-      <c r="IC2" s="37"/>
-      <c r="ID2" s="37"/>
-      <c r="IE2" s="37"/>
-      <c r="IF2" s="37"/>
-      <c r="IG2" s="37"/>
-      <c r="IH2" s="37"/>
-      <c r="II2" s="37"/>
-      <c r="IJ2" s="37"/>
-      <c r="IK2" s="37"/>
-      <c r="IL2" s="37"/>
-      <c r="IM2" s="37"/>
-      <c r="IN2" s="37"/>
-      <c r="IO2" s="37"/>
-      <c r="IP2" s="37"/>
-      <c r="IQ2" s="37"/>
-      <c r="IR2" s="37"/>
-      <c r="IS2" s="37"/>
-      <c r="IT2" s="37"/>
-      <c r="IU2" s="37"/>
-      <c r="IV2" s="37"/>
-      <c r="IW2" s="37"/>
-      <c r="IX2" s="37"/>
-      <c r="IY2" s="37"/>
-      <c r="IZ2" s="37"/>
-      <c r="JA2" s="37"/>
-      <c r="JB2" s="37"/>
-      <c r="JC2" s="37"/>
-      <c r="JD2" s="37"/>
-      <c r="JE2" s="37"/>
-      <c r="JF2" s="37"/>
-      <c r="JG2" s="37"/>
-      <c r="JH2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="40"/>
+      <c r="BM2" s="40"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
+      <c r="BP2" s="40"/>
+      <c r="BQ2" s="40"/>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
+      <c r="BV2" s="40"/>
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="40"/>
+      <c r="CA2" s="40"/>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
+      <c r="CL2" s="40"/>
+      <c r="CM2" s="40"/>
+      <c r="CN2" s="40"/>
+      <c r="CO2" s="40"/>
+      <c r="CP2" s="40"/>
+      <c r="CQ2" s="40"/>
+      <c r="CR2" s="40"/>
+      <c r="CS2" s="40"/>
+      <c r="CT2" s="40"/>
+      <c r="CU2" s="40"/>
+      <c r="CV2" s="40"/>
+      <c r="CW2" s="40"/>
+      <c r="CX2" s="40"/>
+      <c r="CY2" s="40"/>
+      <c r="CZ2" s="40"/>
+      <c r="DA2" s="40"/>
+      <c r="DB2" s="40"/>
+      <c r="DC2" s="40"/>
+      <c r="DD2" s="40"/>
+      <c r="DE2" s="40"/>
+      <c r="DF2" s="40"/>
+      <c r="DG2" s="40"/>
+      <c r="DH2" s="40"/>
+      <c r="DI2" s="40"/>
+      <c r="DJ2" s="40"/>
+      <c r="DK2" s="40"/>
+      <c r="DL2" s="40"/>
+      <c r="DM2" s="40"/>
+      <c r="DN2" s="40"/>
+      <c r="DO2" s="40"/>
+      <c r="DP2" s="40"/>
+      <c r="DQ2" s="40"/>
+      <c r="DR2" s="40"/>
+      <c r="DS2" s="40"/>
+      <c r="DT2" s="40"/>
+      <c r="DU2" s="40"/>
+      <c r="DV2" s="40"/>
+      <c r="DW2" s="40"/>
+      <c r="DX2" s="40"/>
+      <c r="DY2" s="40"/>
+      <c r="DZ2" s="40"/>
+      <c r="EA2" s="40"/>
+      <c r="EB2" s="40"/>
+      <c r="EC2" s="40"/>
+      <c r="ED2" s="40"/>
+      <c r="EE2" s="40"/>
+      <c r="EF2" s="40"/>
+      <c r="EG2" s="40"/>
+      <c r="EH2" s="40"/>
+      <c r="EI2" s="40"/>
+      <c r="EJ2" s="40"/>
+      <c r="EK2" s="40"/>
+      <c r="EL2" s="40"/>
+      <c r="EM2" s="40"/>
+      <c r="EN2" s="40"/>
+      <c r="EO2" s="40"/>
+      <c r="EP2" s="40"/>
+      <c r="EQ2" s="40"/>
+      <c r="ER2" s="40"/>
+      <c r="ES2" s="40"/>
+      <c r="ET2" s="40"/>
+      <c r="EU2" s="40"/>
+      <c r="EV2" s="40"/>
+      <c r="EW2" s="40"/>
+      <c r="EX2" s="40"/>
+      <c r="EY2" s="40"/>
+      <c r="EZ2" s="40"/>
+      <c r="FA2" s="40"/>
+      <c r="FB2" s="40"/>
+      <c r="FC2" s="40"/>
+      <c r="FD2" s="40"/>
+      <c r="FE2" s="40"/>
+      <c r="FF2" s="40"/>
+      <c r="FG2" s="40"/>
+      <c r="FH2" s="40"/>
+      <c r="FI2" s="40"/>
+      <c r="FJ2" s="40"/>
+      <c r="FK2" s="40"/>
+      <c r="FL2" s="40"/>
+      <c r="FM2" s="40"/>
+      <c r="FN2" s="40"/>
+      <c r="FO2" s="40"/>
+      <c r="FP2" s="40"/>
+      <c r="FQ2" s="40"/>
+      <c r="FR2" s="40"/>
+      <c r="FS2" s="40"/>
+      <c r="FT2" s="40"/>
+      <c r="FU2" s="40"/>
+      <c r="FV2" s="40"/>
+      <c r="FW2" s="40"/>
+      <c r="FX2" s="40"/>
+      <c r="FY2" s="40"/>
+      <c r="FZ2" s="40"/>
+      <c r="GA2" s="40"/>
+      <c r="GB2" s="40"/>
+      <c r="GC2" s="40"/>
+      <c r="GD2" s="40"/>
+      <c r="GE2" s="40"/>
+      <c r="GF2" s="40"/>
+      <c r="GG2" s="40"/>
+      <c r="GH2" s="40"/>
+      <c r="GI2" s="40"/>
+      <c r="GJ2" s="40"/>
+      <c r="GK2" s="40"/>
+      <c r="GL2" s="40"/>
+      <c r="GM2" s="40"/>
+      <c r="GN2" s="40"/>
+      <c r="GO2" s="40"/>
+      <c r="GP2" s="40"/>
+      <c r="GQ2" s="40"/>
+      <c r="GR2" s="40"/>
+      <c r="GS2" s="40"/>
+      <c r="GT2" s="40"/>
+      <c r="GU2" s="40"/>
+      <c r="GV2" s="40"/>
+      <c r="GW2" s="40"/>
+      <c r="GX2" s="40"/>
+      <c r="GY2" s="40"/>
+      <c r="GZ2" s="40"/>
+      <c r="HA2" s="40"/>
+      <c r="HB2" s="40"/>
+      <c r="HC2" s="40"/>
+      <c r="HD2" s="40"/>
+      <c r="HE2" s="40"/>
+      <c r="HF2" s="40"/>
+      <c r="HG2" s="40"/>
+      <c r="HH2" s="40"/>
+      <c r="HI2" s="40"/>
+      <c r="HJ2" s="40"/>
+      <c r="HK2" s="40"/>
+      <c r="HL2" s="40"/>
+      <c r="HM2" s="40"/>
+      <c r="HN2" s="40"/>
+      <c r="HO2" s="40"/>
+      <c r="HP2" s="40"/>
+      <c r="HQ2" s="40"/>
+      <c r="HR2" s="40"/>
+      <c r="HS2" s="40"/>
+      <c r="HT2" s="40"/>
+      <c r="HU2" s="40"/>
+      <c r="HV2" s="40"/>
+      <c r="HW2" s="40"/>
+      <c r="HX2" s="40"/>
+      <c r="HY2" s="40"/>
+      <c r="HZ2" s="40"/>
+      <c r="IA2" s="40"/>
+      <c r="IB2" s="40"/>
+      <c r="IC2" s="40"/>
+      <c r="ID2" s="40"/>
+      <c r="IE2" s="40"/>
+      <c r="IF2" s="40"/>
+      <c r="IG2" s="40"/>
+      <c r="IH2" s="40"/>
+      <c r="II2" s="40"/>
+      <c r="IJ2" s="40"/>
+      <c r="IK2" s="40"/>
+      <c r="IL2" s="40"/>
+      <c r="IM2" s="40"/>
+      <c r="IN2" s="40"/>
+      <c r="IO2" s="40"/>
+      <c r="IP2" s="40"/>
+      <c r="IQ2" s="40"/>
+      <c r="IR2" s="40"/>
+      <c r="IS2" s="40"/>
+      <c r="IT2" s="40"/>
+      <c r="IU2" s="40"/>
+      <c r="IV2" s="40"/>
+      <c r="IW2" s="40"/>
+      <c r="IX2" s="40"/>
+      <c r="IY2" s="40"/>
+      <c r="IZ2" s="40"/>
+      <c r="JA2" s="40"/>
+      <c r="JB2" s="40"/>
+      <c r="JC2" s="40"/>
+      <c r="JD2" s="40"/>
+      <c r="JE2" s="40"/>
+      <c r="JF2" s="40"/>
+      <c r="JG2" s="40"/>
+      <c r="JH2" s="40"/>
       <c r="JI2"/>
+      <c r="JJ2" s="33"/>
     </row>
     <row r="4" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>2003</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35">
         <v>2004</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35">
         <v>2005</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39">
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35">
         <v>2006</v>
       </c>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39">
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35">
         <v>2007</v>
       </c>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39">
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35">
         <v>2008</v>
       </c>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39">
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35">
         <v>2009</v>
       </c>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39">
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35">
         <v>2010</v>
       </c>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39">
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35">
         <v>2011</v>
       </c>
-      <c r="CU4" s="39"/>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39">
+      <c r="CU4" s="35"/>
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35">
         <v>2012</v>
       </c>
-      <c r="DG4" s="39"/>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39">
+      <c r="DG4" s="35"/>
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35">
         <v>2013</v>
       </c>
-      <c r="DS4" s="39"/>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39">
+      <c r="DS4" s="35"/>
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35">
         <v>2014</v>
       </c>
-      <c r="EE4" s="39"/>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39">
+      <c r="EE4" s="35"/>
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="39"/>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39">
+      <c r="EQ4" s="35"/>
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35"/>
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35">
         <v>2016</v>
       </c>
-      <c r="FC4" s="39"/>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39">
+      <c r="FC4" s="35"/>
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35">
         <v>2017</v>
       </c>
-      <c r="FO4" s="39"/>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39">
+      <c r="FO4" s="35"/>
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35">
         <v>2018</v>
       </c>
-      <c r="GA4" s="39"/>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39">
+      <c r="GA4" s="35"/>
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35">
         <v>2019</v>
       </c>
-      <c r="GM4" s="39"/>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39">
+      <c r="GM4" s="35"/>
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35">
         <v>2020</v>
       </c>
-      <c r="GY4" s="39"/>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39">
+      <c r="GY4" s="35"/>
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35">
         <v>2021</v>
       </c>
-      <c r="HK4" s="39"/>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39">
+      <c r="HK4" s="35"/>
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35">
         <v>2022</v>
       </c>
-      <c r="HW4" s="39"/>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="39">
+      <c r="HW4" s="35"/>
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="35"/>
+      <c r="IG4" s="35"/>
+      <c r="IH4" s="35">
         <v>2023</v>
       </c>
-      <c r="II4" s="39"/>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="39">
+      <c r="II4" s="35"/>
+      <c r="IJ4" s="35"/>
+      <c r="IK4" s="35"/>
+      <c r="IL4" s="35"/>
+      <c r="IM4" s="35"/>
+      <c r="IN4" s="35"/>
+      <c r="IO4" s="35"/>
+      <c r="IP4" s="35"/>
+      <c r="IQ4" s="35"/>
+      <c r="IR4" s="35"/>
+      <c r="IS4" s="35"/>
+      <c r="IT4" s="35">
         <v>2024</v>
       </c>
-      <c r="IU4" s="39"/>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="39"/>
-      <c r="IX4" s="39"/>
-      <c r="IY4" s="39"/>
-      <c r="IZ4" s="39"/>
-      <c r="JA4" s="39"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="39"/>
-      <c r="JE4" s="41"/>
-      <c r="JF4" s="12">
+      <c r="IU4" s="35"/>
+      <c r="IV4" s="35"/>
+      <c r="IW4" s="35"/>
+      <c r="IX4" s="35"/>
+      <c r="IY4" s="35"/>
+      <c r="IZ4" s="35"/>
+      <c r="JA4" s="35"/>
+      <c r="JB4" s="35"/>
+      <c r="JC4" s="35"/>
+      <c r="JD4" s="35"/>
+      <c r="JE4" s="36"/>
+      <c r="JF4" s="44">
         <v>2025</v>
       </c>
-      <c r="JG4" s="13"/>
-      <c r="JH4" s="13"/>
-      <c r="JI4" s="14"/>
+      <c r="JG4" s="45"/>
+      <c r="JH4" s="45"/>
+      <c r="JI4" s="45"/>
+      <c r="JJ4" s="46"/>
     </row>
     <row r="5" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -2691,6 +2700,9 @@
       <c r="JI5" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="JJ5" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -3500,7 +3512,9 @@
       <c r="JI6" s="4">
         <v>-1129.0731575258001</v>
       </c>
-      <c r="JJ6" s="10"/>
+      <c r="JJ6" s="4">
+        <v>-2454.7091011275002</v>
+      </c>
     </row>
     <row r="7" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -4310,7 +4324,9 @@
       <c r="JI7" s="4">
         <v>510.24998397938998</v>
       </c>
-      <c r="JJ7" s="10"/>
+      <c r="JJ7" s="4">
+        <v>-1065.2005508431</v>
+      </c>
     </row>
     <row r="8" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -5120,7 +5136,9 @@
       <c r="JI8" s="4">
         <v>1639.32314150518</v>
       </c>
-      <c r="JJ8" s="10"/>
+      <c r="JJ8" s="4">
+        <v>1389.5085502843899</v>
+      </c>
     </row>
     <row r="9" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -5930,7 +5948,9 @@
       <c r="JI9" s="4">
         <v>-1657.5169613549999</v>
       </c>
-      <c r="JJ9" s="10"/>
+      <c r="JJ9" s="4">
+        <v>-1505.8192703866</v>
+      </c>
     </row>
     <row r="10" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -6740,7 +6760,9 @@
       <c r="JI10" s="6">
         <v>343.73157657793701</v>
       </c>
-      <c r="JJ10" s="10"/>
+      <c r="JJ10" s="6">
+        <v>12.1541728573487</v>
+      </c>
     </row>
     <row r="11" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -7550,7 +7572,9 @@
       <c r="JI11" s="6">
         <v>64.153407882679502</v>
       </c>
-      <c r="JJ11" s="10"/>
+      <c r="JJ11" s="6">
+        <v>160.79951808401401</v>
+      </c>
     </row>
     <row r="12" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -8360,7 +8384,9 @@
       <c r="JI12" s="6">
         <v>97.336164640994994</v>
       </c>
-      <c r="JJ12" s="10"/>
+      <c r="JJ12" s="6">
+        <v>-220.21440587205001</v>
+      </c>
     </row>
     <row r="13" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -9170,7 +9196,9 @@
       <c r="JI13" s="6">
         <v>182.24200405426299</v>
       </c>
-      <c r="JJ13" s="10"/>
+      <c r="JJ13" s="6">
+        <v>71.569060645388006</v>
+      </c>
     </row>
     <row r="14" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -9980,7 +10008,9 @@
       <c r="JI14" s="6">
         <v>2001.2485379329501</v>
       </c>
-      <c r="JJ14" s="10"/>
+      <c r="JJ14" s="6">
+        <v>1517.97344324399</v>
+      </c>
     </row>
     <row r="15" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -10790,7 +10820,9 @@
       <c r="JI15" s="6">
         <v>409.86418291000001</v>
       </c>
-      <c r="JJ15" s="10"/>
+      <c r="JJ15" s="6">
+        <v>450.65312590000002</v>
+      </c>
     </row>
     <row r="16" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -11600,7 +11632,9 @@
       <c r="JI16" s="6">
         <v>147.847039511666</v>
       </c>
-      <c r="JJ16" s="10"/>
+      <c r="JJ16" s="6">
+        <v>99.812067413882403</v>
+      </c>
     </row>
     <row r="17" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -12410,7 +12444,9 @@
       <c r="JI17" s="6">
         <v>1443.53731551128</v>
       </c>
-      <c r="JJ17" s="10"/>
+      <c r="JJ17" s="6">
+        <v>967.50824993010303</v>
+      </c>
     </row>
     <row r="18" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -13220,7 +13256,9 @@
       <c r="JI18" s="4">
         <v>973.32598835516103</v>
       </c>
-      <c r="JJ18" s="10"/>
+      <c r="JJ18" s="4">
+        <v>-377.44065822520002</v>
+      </c>
     </row>
     <row r="19" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -14030,7 +14068,9 @@
       <c r="JI19" s="6">
         <v>912.72190999852296</v>
       </c>
-      <c r="JJ19" s="10"/>
+      <c r="JJ19" s="6">
+        <v>204.66606831649901</v>
+      </c>
     </row>
     <row r="20" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -14840,7 +14880,9 @@
       <c r="JI20" s="6">
         <v>-766.15046552143997</v>
       </c>
-      <c r="JJ20" s="10"/>
+      <c r="JJ20" s="6">
+        <v>953.98037890644798</v>
+      </c>
     </row>
     <row r="21" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -15650,7 +15692,9 @@
       <c r="JI21" s="6">
         <v>1678.8723755199601</v>
       </c>
-      <c r="JJ21" s="10"/>
+      <c r="JJ21" s="6">
+        <v>-749.31431058994997</v>
+      </c>
     </row>
     <row r="22" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -16460,7 +16504,9 @@
       <c r="JI22" s="6">
         <v>691.45966908233504</v>
       </c>
-      <c r="JJ22" s="10"/>
+      <c r="JJ22" s="6">
+        <v>611.49914870089401</v>
+      </c>
     </row>
     <row r="23" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -17270,7 +17316,9 @@
       <c r="JI23" s="6">
         <v>987.41270643762903</v>
       </c>
-      <c r="JJ23" s="10"/>
+      <c r="JJ23" s="6">
+        <v>-1360.8134592908</v>
+      </c>
     </row>
     <row r="24" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -18080,7 +18128,9 @@
       <c r="JI24" s="6">
         <v>-60.604078356639</v>
       </c>
-      <c r="JJ24" s="10"/>
+      <c r="JJ24" s="6">
+        <v>582.10672654170003</v>
+      </c>
     </row>
     <row r="25" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -18890,7 +18940,9 @@
       <c r="JI25" s="6">
         <v>-147.80483949153</v>
       </c>
-      <c r="JJ25" s="10"/>
+      <c r="JJ25" s="6">
+        <v>-135.04453793287001</v>
+      </c>
     </row>
     <row r="26" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -19700,7 +19752,9 @@
       <c r="JI26" s="6">
         <v>87.200761134888396</v>
       </c>
-      <c r="JJ26" s="10"/>
+      <c r="JJ26" s="6">
+        <v>717.15126447456703</v>
+      </c>
     </row>
     <row r="27" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -20510,7 +20564,9 @@
       <c r="JI27" s="6">
         <v>-97.731043398243997</v>
       </c>
-      <c r="JJ27" s="10"/>
+      <c r="JJ27" s="6">
+        <v>603.88802110580502</v>
+      </c>
     </row>
     <row r="28" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -21320,7 +21376,9 @@
       <c r="JI28" s="6">
         <v>184.931804533133</v>
       </c>
-      <c r="JJ28" s="10"/>
+      <c r="JJ28" s="6">
+        <v>113.263243368761</v>
+      </c>
     </row>
     <row r="29" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
@@ -22130,7 +22188,9 @@
       <c r="JI29" s="4">
         <v>-447.40688744165999</v>
       </c>
-      <c r="JJ29" s="10"/>
+      <c r="JJ29" s="4">
+        <v>37.019970791611797</v>
+      </c>
     </row>
     <row r="30" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -22940,7 +23000,9 @@
       <c r="JI30" s="4">
         <v>186.55208288780599</v>
       </c>
-      <c r="JJ30" s="10"/>
+      <c r="JJ30" s="4">
+        <v>-729.97960594661004</v>
+      </c>
     </row>
     <row r="31" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -23750,7 +23812,9 @@
       <c r="JI31" s="6">
         <v>1576.9893478188601</v>
       </c>
-      <c r="JJ31" s="10"/>
+      <c r="JJ31" s="6">
+        <v>166.56846121979501</v>
+      </c>
     </row>
     <row r="32" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -24560,7 +24624,9 @@
       <c r="JI32" s="6">
         <v>0</v>
       </c>
-      <c r="JJ32" s="10"/>
+      <c r="JJ32" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -25370,7 +25436,9 @@
       <c r="JI33" s="6">
         <v>-333.75955839901002</v>
       </c>
-      <c r="JJ33" s="10"/>
+      <c r="JJ33" s="6">
+        <v>-781.92236974406001</v>
+      </c>
     </row>
     <row r="34" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26180,7 +26248,9 @@
       <c r="JI34" s="6">
         <v>26.593674307706902</v>
       </c>
-      <c r="JJ34" s="10"/>
+      <c r="JJ34" s="6">
+        <v>376.58191814606499</v>
+      </c>
     </row>
     <row r="35" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
@@ -26990,7 +27060,9 @@
       <c r="JI35" s="6">
         <v>1887.0411434287701</v>
       </c>
-      <c r="JJ35" s="10"/>
+      <c r="JJ35" s="6">
+        <v>574.809079249918</v>
+      </c>
     </row>
     <row r="36" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
@@ -27800,7 +27872,9 @@
       <c r="JI36" s="6">
         <v>-2.8859115186099</v>
       </c>
-      <c r="JJ36" s="10"/>
+      <c r="JJ36" s="6">
+        <v>-2.9001664321281999</v>
+      </c>
     </row>
     <row r="37" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -28610,7 +28684,9 @@
       <c r="JI37" s="6">
         <v>1390.4372649310601</v>
       </c>
-      <c r="JJ37" s="10"/>
+      <c r="JJ37" s="6">
+        <v>896.54806716639996</v>
+      </c>
     </row>
     <row r="38" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -29420,7 +29496,9 @@
       <c r="JI38" s="6">
         <v>279.96088745965699</v>
       </c>
-      <c r="JJ38" s="10"/>
+      <c r="JJ38" s="6">
+        <v>-12.879262510013</v>
+      </c>
     </row>
     <row r="39" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -30230,7 +30308,9 @@
       <c r="JI39" s="6">
         <v>823.86680792593802</v>
       </c>
-      <c r="JJ39" s="10"/>
+      <c r="JJ39" s="6">
+        <v>620.60241028781002</v>
+      </c>
     </row>
     <row r="40" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -31040,7 +31120,9 @@
       <c r="JI40" s="6">
         <v>278.33611561267401</v>
       </c>
-      <c r="JJ40" s="10"/>
+      <c r="JJ40" s="6">
+        <v>305.80014754079002</v>
+      </c>
     </row>
     <row r="41" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
@@ -31850,7 +31932,9 @@
       <c r="JI41" s="6">
         <v>3.6183999999999999E-4</v>
       </c>
-      <c r="JJ41" s="10"/>
+      <c r="JJ41" s="6">
+        <v>-1.31605E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
@@ -32660,1901 +32744,1907 @@
       <c r="JI42" s="6">
         <v>8.2730920927880707</v>
       </c>
-      <c r="JJ42" s="10"/>
+      <c r="JJ42" s="6">
+        <v>-16.973912102187001</v>
+      </c>
     </row>
     <row r="43" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="13">
         <v>905.8</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>35.5</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>28</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>-715.9</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>-312.7</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="13">
         <v>-248</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="13">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="13">
         <v>44.7</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="13">
         <v>15.6</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="13">
         <v>-20.8</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="13">
         <v>43.9</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="13">
         <v>-137.6</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="13">
         <v>139.30000000000001</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43" s="13">
         <v>10</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="13">
         <v>-58</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="13">
         <v>156.80000000000001</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R43" s="13">
         <v>92.8</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S43" s="13">
         <v>-225.08</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T43" s="13">
         <v>-7.7</v>
       </c>
-      <c r="U43" s="16">
+      <c r="U43" s="13">
         <v>-102.9</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="13">
         <v>-25.6</v>
       </c>
-      <c r="W43" s="16">
+      <c r="W43" s="13">
         <v>-270.7</v>
       </c>
-      <c r="X43" s="16">
+      <c r="X43" s="13">
         <v>170.7</v>
       </c>
-      <c r="Y43" s="16">
+      <c r="Y43" s="13">
         <v>-70.400000000000006</v>
       </c>
-      <c r="Z43" s="16">
+      <c r="Z43" s="13">
         <v>-265</v>
       </c>
-      <c r="AA43" s="16">
+      <c r="AA43" s="13">
         <v>-169.1</v>
       </c>
-      <c r="AB43" s="16">
+      <c r="AB43" s="13">
         <v>58.899999999999899</v>
       </c>
-      <c r="AC43" s="16">
+      <c r="AC43" s="13">
         <v>1582</v>
       </c>
-      <c r="AD43" s="16">
+      <c r="AD43" s="13">
         <v>577.5</v>
       </c>
-      <c r="AE43" s="16">
+      <c r="AE43" s="13">
         <v>-548.20000000000005</v>
       </c>
-      <c r="AF43" s="16">
+      <c r="AF43" s="13">
         <v>-434.3</v>
       </c>
-      <c r="AG43" s="16">
+      <c r="AG43" s="13">
         <v>2.5999999999999899</v>
       </c>
-      <c r="AH43" s="16">
+      <c r="AH43" s="13">
         <v>-531.9</v>
       </c>
-      <c r="AI43" s="16">
+      <c r="AI43" s="13">
         <v>-595.9</v>
       </c>
-      <c r="AJ43" s="16">
+      <c r="AJ43" s="13">
         <v>1138.5999999999999</v>
       </c>
-      <c r="AK43" s="16">
+      <c r="AK43" s="13">
         <v>900.5</v>
       </c>
-      <c r="AL43" s="16">
+      <c r="AL43" s="13">
         <v>-1156.8</v>
       </c>
-      <c r="AM43" s="16">
+      <c r="AM43" s="13">
         <v>316.10000000000002</v>
       </c>
-      <c r="AN43" s="16">
+      <c r="AN43" s="13">
         <v>-230.4</v>
       </c>
-      <c r="AO43" s="16">
+      <c r="AO43" s="13">
         <v>1340.9</v>
       </c>
-      <c r="AP43" s="16">
+      <c r="AP43" s="13">
         <v>554.6</v>
       </c>
-      <c r="AQ43" s="16">
+      <c r="AQ43" s="13">
         <v>-474.8</v>
       </c>
-      <c r="AR43" s="16">
+      <c r="AR43" s="13">
         <v>-602.04999999999995</v>
       </c>
-      <c r="AS43" s="16">
+      <c r="AS43" s="13">
         <v>-94.1</v>
       </c>
-      <c r="AT43" s="16">
+      <c r="AT43" s="13">
         <v>621.20000000000005</v>
       </c>
-      <c r="AU43" s="16">
+      <c r="AU43" s="13">
         <v>-63.25</v>
       </c>
-      <c r="AV43" s="16">
+      <c r="AV43" s="13">
         <v>-500.3</v>
       </c>
-      <c r="AW43" s="16">
+      <c r="AW43" s="13">
         <v>2286.349929</v>
       </c>
-      <c r="AX43" s="16">
+      <c r="AX43" s="13">
         <v>-1984.5819618702999</v>
       </c>
-      <c r="AY43" s="16">
+      <c r="AY43" s="13">
         <v>-1320.8036648673999</v>
       </c>
-      <c r="AZ43" s="16">
+      <c r="AZ43" s="13">
         <v>-816.82869184317997</v>
       </c>
-      <c r="BA43" s="16">
+      <c r="BA43" s="13">
         <v>2046.8821723224301</v>
       </c>
-      <c r="BB43" s="16">
+      <c r="BB43" s="13">
         <v>-459.73266682114001</v>
       </c>
-      <c r="BC43" s="16">
+      <c r="BC43" s="13">
         <v>950.92180220721696</v>
       </c>
-      <c r="BD43" s="16">
+      <c r="BD43" s="13">
         <v>526.45354186426505</v>
       </c>
-      <c r="BE43" s="16">
+      <c r="BE43" s="13">
         <v>-2825.6148634095998</v>
       </c>
-      <c r="BF43" s="16">
+      <c r="BF43" s="13">
         <v>347.63782526791499</v>
       </c>
-      <c r="BG43" s="16">
+      <c r="BG43" s="13">
         <v>-37.93311167121</v>
       </c>
-      <c r="BH43" s="16">
+      <c r="BH43" s="13">
         <v>-385.68128578264998</v>
       </c>
-      <c r="BI43" s="16">
+      <c r="BI43" s="13">
         <v>745.13879251755804</v>
       </c>
-      <c r="BJ43" s="16">
+      <c r="BJ43" s="13">
         <v>-178.74965394621</v>
       </c>
-      <c r="BK43" s="16">
+      <c r="BK43" s="13">
         <v>94.9822744421664</v>
       </c>
-      <c r="BL43" s="16">
+      <c r="BL43" s="13">
         <v>433.10229808624001</v>
       </c>
-      <c r="BM43" s="16">
+      <c r="BM43" s="13">
         <v>511.077306417035</v>
       </c>
-      <c r="BN43" s="16">
+      <c r="BN43" s="13">
         <v>934.71520834795604</v>
       </c>
-      <c r="BO43" s="16">
+      <c r="BO43" s="13">
         <v>973.611525330772</v>
       </c>
-      <c r="BP43" s="16">
+      <c r="BP43" s="13">
         <v>1708.1426290737299</v>
       </c>
-      <c r="BQ43" s="16">
+      <c r="BQ43" s="13">
         <v>945.13444913146202</v>
       </c>
-      <c r="BR43" s="16">
+      <c r="BR43" s="13">
         <v>1961.88342489347</v>
       </c>
-      <c r="BS43" s="16">
+      <c r="BS43" s="13">
         <v>-186.79698717632999</v>
       </c>
-      <c r="BT43" s="16">
+      <c r="BT43" s="13">
         <v>-1105.6225249404999</v>
       </c>
-      <c r="BU43" s="16">
+      <c r="BU43" s="13">
         <v>352.76588644283203</v>
       </c>
-      <c r="BV43" s="16">
+      <c r="BV43" s="13">
         <v>738.66985719165996</v>
       </c>
-      <c r="BW43" s="16">
+      <c r="BW43" s="13">
         <v>-363.56995113506002</v>
       </c>
-      <c r="BX43" s="16">
+      <c r="BX43" s="13">
         <v>84.544282215092693</v>
       </c>
-      <c r="BY43" s="16">
+      <c r="BY43" s="13">
         <v>187.50239709587399</v>
       </c>
-      <c r="BZ43" s="16">
+      <c r="BZ43" s="13">
         <v>-24.168840682945</v>
       </c>
-      <c r="CA43" s="16">
+      <c r="CA43" s="13">
         <v>-626.07936197508002</v>
       </c>
-      <c r="CB43" s="16">
+      <c r="CB43" s="13">
         <v>-1.1285624138940999</v>
       </c>
-      <c r="CC43" s="16">
+      <c r="CC43" s="13">
         <v>1379.1852882677699</v>
       </c>
-      <c r="CD43" s="16">
+      <c r="CD43" s="13">
         <v>739.24116301640299</v>
       </c>
-      <c r="CE43" s="16">
+      <c r="CE43" s="13">
         <v>-274.65101078380002</v>
       </c>
-      <c r="CF43" s="16">
+      <c r="CF43" s="13">
         <v>-24.443656701186999</v>
       </c>
-      <c r="CG43" s="16">
+      <c r="CG43" s="13">
         <v>-167.35420771413001</v>
       </c>
-      <c r="CH43" s="16">
+      <c r="CH43" s="13">
         <v>-180.02318997272999</v>
       </c>
-      <c r="CI43" s="16">
+      <c r="CI43" s="13">
         <v>276.49283350000002</v>
       </c>
-      <c r="CJ43" s="16">
+      <c r="CJ43" s="13">
         <v>759.05412273138904</v>
       </c>
-      <c r="CK43" s="16">
+      <c r="CK43" s="13">
         <v>-49.717873738686997</v>
       </c>
-      <c r="CL43" s="16">
+      <c r="CL43" s="13">
         <v>106.682191795802</v>
       </c>
-      <c r="CM43" s="16">
+      <c r="CM43" s="13">
         <v>293.09063078905899</v>
       </c>
-      <c r="CN43" s="16">
+      <c r="CN43" s="13">
         <v>-121.18838798236</v>
       </c>
-      <c r="CO43" s="16">
+      <c r="CO43" s="13">
         <v>-269.61108757984999</v>
       </c>
-      <c r="CP43" s="16">
+      <c r="CP43" s="13">
         <v>423.96148067796003</v>
       </c>
-      <c r="CQ43" s="16">
+      <c r="CQ43" s="13">
         <v>-207.17374284390999</v>
       </c>
-      <c r="CR43" s="16">
+      <c r="CR43" s="13">
         <v>231.71837538669001</v>
       </c>
-      <c r="CS43" s="16">
+      <c r="CS43" s="13">
         <v>1760.54763608958</v>
       </c>
-      <c r="CT43" s="16">
+      <c r="CT43" s="13">
         <v>-1134.6004728534001</v>
       </c>
-      <c r="CU43" s="16">
+      <c r="CU43" s="13">
         <v>1292.3416520000001</v>
       </c>
-      <c r="CV43" s="16">
+      <c r="CV43" s="13">
         <v>2750.59310234553</v>
       </c>
-      <c r="CW43" s="16">
+      <c r="CW43" s="13">
         <v>-305.7647324774</v>
       </c>
-      <c r="CX43" s="16">
+      <c r="CX43" s="13">
         <v>1248.0231814394001</v>
       </c>
-      <c r="CY43" s="16">
+      <c r="CY43" s="13">
         <v>2009.4823897998499</v>
       </c>
-      <c r="CZ43" s="16">
+      <c r="CZ43" s="13">
         <v>-548.31328345182999</v>
       </c>
-      <c r="DA43" s="16">
+      <c r="DA43" s="13">
         <v>1643.2135306983701</v>
       </c>
-      <c r="DB43" s="16">
+      <c r="DB43" s="13">
         <v>2555.4248205466602</v>
       </c>
-      <c r="DC43" s="16">
+      <c r="DC43" s="13">
         <v>5.4196477184270897</v>
       </c>
-      <c r="DD43" s="16">
+      <c r="DD43" s="13">
         <v>1190.75918456769</v>
       </c>
-      <c r="DE43" s="16">
+      <c r="DE43" s="13">
         <v>3483.5164320264898</v>
       </c>
-      <c r="DF43" s="16">
+      <c r="DF43" s="13">
         <v>-3159.2705756367</v>
       </c>
-      <c r="DG43" s="16">
+      <c r="DG43" s="13">
         <v>-242.82307978380001</v>
       </c>
-      <c r="DH43" s="16">
+      <c r="DH43" s="13">
         <v>561.374015191073</v>
       </c>
-      <c r="DI43" s="16">
+      <c r="DI43" s="13">
         <v>-939.35221488756997</v>
       </c>
-      <c r="DJ43" s="16">
+      <c r="DJ43" s="13">
         <v>731.61545672021805</v>
       </c>
-      <c r="DK43" s="16">
+      <c r="DK43" s="13">
         <v>1995.34298234887</v>
       </c>
-      <c r="DL43" s="16">
+      <c r="DL43" s="13">
         <v>-2025.7520538686999</v>
       </c>
-      <c r="DM43" s="16">
+      <c r="DM43" s="13">
         <v>-176.74973049440999</v>
       </c>
-      <c r="DN43" s="16">
+      <c r="DN43" s="13">
         <v>1283.8281479688301</v>
       </c>
-      <c r="DO43" s="16">
+      <c r="DO43" s="13">
         <v>-1037.7107047070999</v>
       </c>
-      <c r="DP43" s="16">
+      <c r="DP43" s="13">
         <v>782.58327392570698</v>
       </c>
-      <c r="DQ43" s="16">
+      <c r="DQ43" s="13">
         <v>1860.12651498747</v>
       </c>
-      <c r="DR43" s="16">
+      <c r="DR43" s="13">
         <v>-1699.0339461217</v>
       </c>
-      <c r="DS43" s="16">
+      <c r="DS43" s="13">
         <v>-200.27362063052001</v>
       </c>
-      <c r="DT43" s="16">
+      <c r="DT43" s="13">
         <v>664.99099579497602</v>
       </c>
-      <c r="DU43" s="16">
+      <c r="DU43" s="13">
         <v>1177.30439702485</v>
       </c>
-      <c r="DV43" s="16">
+      <c r="DV43" s="13">
         <v>-565.79229469810002</v>
       </c>
-      <c r="DW43" s="16">
+      <c r="DW43" s="13">
         <v>1161.30406622642</v>
       </c>
-      <c r="DX43" s="16">
+      <c r="DX43" s="13">
         <v>-1127.5413171235</v>
       </c>
-      <c r="DY43" s="16">
+      <c r="DY43" s="13">
         <v>791.26738353688495</v>
       </c>
-      <c r="DZ43" s="16">
+      <c r="DZ43" s="13">
         <v>1100.8197052312801</v>
       </c>
-      <c r="EA43" s="16">
+      <c r="EA43" s="13">
         <v>-1648.4764632797001</v>
       </c>
-      <c r="EB43" s="16">
+      <c r="EB43" s="13">
         <v>-603.28171225606002</v>
       </c>
-      <c r="EC43" s="16">
+      <c r="EC43" s="13">
         <v>1260.1280682686399</v>
       </c>
-      <c r="ED43" s="16">
+      <c r="ED43" s="13">
         <v>-856.48472860162997</v>
       </c>
-      <c r="EE43" s="16">
+      <c r="EE43" s="13">
         <v>-226.70307692929001</v>
       </c>
-      <c r="EF43" s="16">
+      <c r="EF43" s="13">
         <v>948.72297773927301</v>
       </c>
-      <c r="EG43" s="16">
+      <c r="EG43" s="13">
         <v>-796.05416632407002</v>
       </c>
-      <c r="EH43" s="16">
+      <c r="EH43" s="13">
         <v>660.50623116000702</v>
       </c>
-      <c r="EI43" s="16">
+      <c r="EI43" s="13">
         <v>25.4844096841022</v>
       </c>
-      <c r="EJ43" s="16">
+      <c r="EJ43" s="13">
         <v>-406.69624237087999</v>
       </c>
-      <c r="EK43" s="16">
+      <c r="EK43" s="13">
         <v>35.408939660488301</v>
       </c>
-      <c r="EL43" s="16">
+      <c r="EL43" s="13">
         <v>550.93543200701004</v>
       </c>
-      <c r="EM43" s="16">
+      <c r="EM43" s="13">
         <v>-434.70554966664002</v>
       </c>
-      <c r="EN43" s="16">
+      <c r="EN43" s="13">
         <v>542.88068364945195</v>
       </c>
-      <c r="EO43" s="16">
+      <c r="EO43" s="13">
         <v>1013.5601578062</v>
       </c>
-      <c r="EP43" s="16">
+      <c r="EP43" s="13">
         <v>485.43062419589899</v>
       </c>
-      <c r="EQ43" s="16">
+      <c r="EQ43" s="13">
         <v>-1882.2159291336</v>
       </c>
-      <c r="ER43" s="16">
+      <c r="ER43" s="13">
         <v>792.11289604928095</v>
       </c>
-      <c r="ES43" s="16">
+      <c r="ES43" s="13">
         <v>10.1469516936262</v>
       </c>
-      <c r="ET43" s="16">
+      <c r="ET43" s="13">
         <v>264.37728101418702</v>
       </c>
-      <c r="EU43" s="16">
+      <c r="EU43" s="13">
         <v>-563.85031725044996</v>
       </c>
-      <c r="EV43" s="16">
+      <c r="EV43" s="13">
         <v>319.63516158433202</v>
       </c>
-      <c r="EW43" s="16">
+      <c r="EW43" s="13">
         <v>216.313844906811</v>
       </c>
-      <c r="EX43" s="16">
+      <c r="EX43" s="13">
         <v>-165.52362638989001</v>
       </c>
-      <c r="EY43" s="16">
+      <c r="EY43" s="13">
         <v>433.61762480784103</v>
       </c>
-      <c r="EZ43" s="16">
+      <c r="EZ43" s="13">
         <v>193.365522559585</v>
       </c>
-      <c r="FA43" s="16">
+      <c r="FA43" s="13">
         <v>107.711321826969</v>
       </c>
-      <c r="FB43" s="16">
+      <c r="FB43" s="13">
         <v>-354.10155910857998</v>
       </c>
-      <c r="FC43" s="16">
+      <c r="FC43" s="13">
         <v>-279.92025681541998</v>
       </c>
-      <c r="FD43" s="16">
+      <c r="FD43" s="13">
         <v>771.21186488427895</v>
       </c>
-      <c r="FE43" s="16">
+      <c r="FE43" s="13">
         <v>262.324057886964</v>
       </c>
-      <c r="FF43" s="16">
+      <c r="FF43" s="13">
         <v>353.50854730778502</v>
       </c>
-      <c r="FG43" s="16">
+      <c r="FG43" s="13">
         <v>-371.37311671985998</v>
       </c>
-      <c r="FH43" s="16">
+      <c r="FH43" s="13">
         <v>-221.27378346248</v>
       </c>
-      <c r="FI43" s="16">
+      <c r="FI43" s="13">
         <v>-356.02624813239999</v>
       </c>
-      <c r="FJ43" s="16">
+      <c r="FJ43" s="13">
         <v>275.53808212584897</v>
       </c>
-      <c r="FK43" s="16">
+      <c r="FK43" s="13">
         <v>105.744878813178</v>
       </c>
-      <c r="FL43" s="16">
+      <c r="FL43" s="13">
         <v>286.06105216695897</v>
       </c>
-      <c r="FM43" s="16">
+      <c r="FM43" s="13">
         <v>1333.39910166957</v>
       </c>
-      <c r="FN43" s="16">
+      <c r="FN43" s="13">
         <v>-1076.7823250147001</v>
       </c>
-      <c r="FO43" s="16">
+      <c r="FO43" s="13">
         <v>-234.51037185759</v>
       </c>
-      <c r="FP43" s="16">
+      <c r="FP43" s="13">
         <v>-675.29386319022001</v>
       </c>
-      <c r="FQ43" s="16">
+      <c r="FQ43" s="13">
         <v>-127.2267261465</v>
       </c>
-      <c r="FR43" s="16">
+      <c r="FR43" s="13">
         <v>-372.58331242591998</v>
       </c>
-      <c r="FS43" s="16">
+      <c r="FS43" s="13">
         <v>-75.973642870988996</v>
       </c>
-      <c r="FT43" s="16">
+      <c r="FT43" s="13">
         <v>-876.93859704284</v>
       </c>
-      <c r="FU43" s="16">
+      <c r="FU43" s="13">
         <v>490.40634530185201</v>
       </c>
-      <c r="FV43" s="16">
+      <c r="FV43" s="13">
         <v>-1066.3613009686001</v>
       </c>
-      <c r="FW43" s="16">
+      <c r="FW43" s="13">
         <v>1739.5923016326501</v>
       </c>
-      <c r="FX43" s="16">
+      <c r="FX43" s="13">
         <v>-1481.6190044291</v>
       </c>
-      <c r="FY43" s="16">
+      <c r="FY43" s="13">
         <v>1007.68973449067</v>
       </c>
-      <c r="FZ43" s="16">
+      <c r="FZ43" s="13">
         <v>-690.80148546244004</v>
       </c>
-      <c r="GA43" s="16">
+      <c r="GA43" s="13">
         <v>-66.965017051512007</v>
       </c>
-      <c r="GB43" s="16">
+      <c r="GB43" s="13">
         <v>-385.24252914591</v>
       </c>
-      <c r="GC43" s="16">
+      <c r="GC43" s="13">
         <v>-498.56642212350999</v>
       </c>
-      <c r="GD43" s="16">
+      <c r="GD43" s="13">
         <v>192.88503463355499</v>
       </c>
-      <c r="GE43" s="16">
+      <c r="GE43" s="13">
         <v>-87.618118331282005</v>
       </c>
-      <c r="GF43" s="16">
+      <c r="GF43" s="13">
         <v>536.345549278014</v>
       </c>
-      <c r="GG43" s="16">
+      <c r="GG43" s="13">
         <v>-809.37827100876996</v>
       </c>
-      <c r="GH43" s="16">
+      <c r="GH43" s="13">
         <v>450.33618949808999</v>
       </c>
-      <c r="GI43" s="16">
+      <c r="GI43" s="13">
         <v>575.58521994704904</v>
       </c>
-      <c r="GJ43" s="16">
+      <c r="GJ43" s="13">
         <v>1953.11912032798</v>
       </c>
-      <c r="GK43" s="16">
+      <c r="GK43" s="13">
         <v>227.01556534863701</v>
       </c>
-      <c r="GL43" s="16">
+      <c r="GL43" s="13">
         <v>-1255.5593225473999</v>
       </c>
-      <c r="GM43" s="16">
+      <c r="GM43" s="13">
         <v>-85.805718117249995</v>
       </c>
-      <c r="GN43" s="16">
+      <c r="GN43" s="13">
         <v>177.73366265022301</v>
       </c>
-      <c r="GO43" s="16">
+      <c r="GO43" s="13">
         <v>-581.43734849991995</v>
       </c>
-      <c r="GP43" s="16">
+      <c r="GP43" s="13">
         <v>-65.556362512608999</v>
       </c>
-      <c r="GQ43" s="16">
+      <c r="GQ43" s="13">
         <v>763.80915151106501</v>
       </c>
-      <c r="GR43" s="16">
+      <c r="GR43" s="13">
         <v>-212.86460472195</v>
       </c>
-      <c r="GS43" s="16">
+      <c r="GS43" s="13">
         <v>-274.65763183578002</v>
       </c>
-      <c r="GT43" s="16">
+      <c r="GT43" s="13">
         <v>-250.97542234671999</v>
       </c>
-      <c r="GU43" s="16">
+      <c r="GU43" s="13">
         <v>911.98865929686895</v>
       </c>
-      <c r="GV43" s="16">
+      <c r="GV43" s="13">
         <v>-973.11593283995001</v>
       </c>
-      <c r="GW43" s="16">
+      <c r="GW43" s="13">
         <v>1693.9612745038701</v>
       </c>
-      <c r="GX43" s="16">
+      <c r="GX43" s="13">
         <v>-3114.1752898877999</v>
       </c>
-      <c r="GY43" s="16">
+      <c r="GY43" s="13">
         <v>-1297.4287019348999</v>
       </c>
-      <c r="GZ43" s="16">
+      <c r="GZ43" s="13">
         <v>2034.3552343239401</v>
       </c>
-      <c r="HA43" s="16">
+      <c r="HA43" s="13">
         <v>-1084.2572293674</v>
       </c>
-      <c r="HB43" s="16">
+      <c r="HB43" s="13">
         <v>-171.81275799513</v>
       </c>
-      <c r="HC43" s="16">
+      <c r="HC43" s="13">
         <v>-509.44791017588</v>
       </c>
-      <c r="HD43" s="16">
+      <c r="HD43" s="13">
         <v>-304.34803420076003</v>
       </c>
-      <c r="HE43" s="16">
+      <c r="HE43" s="13">
         <v>663.41562418438002</v>
       </c>
-      <c r="HF43" s="16">
+      <c r="HF43" s="13">
         <v>249.73305055440699</v>
       </c>
-      <c r="HG43" s="16">
+      <c r="HG43" s="13">
         <v>319.43763212685502</v>
       </c>
-      <c r="HH43" s="16">
+      <c r="HH43" s="13">
         <v>-790.95967515466998</v>
       </c>
-      <c r="HI43" s="16">
+      <c r="HI43" s="13">
         <v>1110.5330856324299</v>
       </c>
-      <c r="HJ43" s="16">
+      <c r="HJ43" s="13">
         <v>-111.13705406050001</v>
       </c>
-      <c r="HK43" s="16">
+      <c r="HK43" s="13">
         <v>686.06355969634603</v>
       </c>
-      <c r="HL43" s="16">
+      <c r="HL43" s="13">
         <v>880.19703620159896</v>
       </c>
-      <c r="HM43" s="16">
+      <c r="HM43" s="13">
         <v>2109.18799845176</v>
       </c>
-      <c r="HN43" s="16">
+      <c r="HN43" s="13">
         <v>4932.2983016542303</v>
       </c>
-      <c r="HO43" s="16">
+      <c r="HO43" s="13">
         <v>-2595.7859130034999</v>
       </c>
-      <c r="HP43" s="16">
+      <c r="HP43" s="13">
         <v>3598.89800382154</v>
       </c>
-      <c r="HQ43" s="16">
+      <c r="HQ43" s="13">
         <v>3367.5035551314299</v>
       </c>
-      <c r="HR43" s="16">
+      <c r="HR43" s="13">
         <v>1708.6467468130199</v>
       </c>
-      <c r="HS43" s="16">
+      <c r="HS43" s="13">
         <v>1540.62447646136</v>
       </c>
-      <c r="HT43" s="16">
+      <c r="HT43" s="13">
         <v>-1730.4196291781</v>
       </c>
-      <c r="HU43" s="16">
+      <c r="HU43" s="13">
         <v>-2174.6053083909001</v>
       </c>
-      <c r="HV43" s="16">
+      <c r="HV43" s="13">
         <v>-19.137787592942999</v>
       </c>
-      <c r="HW43" s="16">
+      <c r="HW43" s="13">
         <v>-553.77382030563001</v>
       </c>
-      <c r="HX43" s="16">
+      <c r="HX43" s="13">
         <v>-1206.3921973399999</v>
       </c>
-      <c r="HY43" s="16">
+      <c r="HY43" s="13">
         <v>1162.71617261344</v>
       </c>
-      <c r="HZ43" s="16">
+      <c r="HZ43" s="13">
         <v>-2230.2681606450001</v>
       </c>
-      <c r="IA43" s="16">
+      <c r="IA43" s="13">
         <v>93.900935784938596</v>
       </c>
-      <c r="IB43" s="16">
+      <c r="IB43" s="13">
         <v>-2045.3621032151</v>
       </c>
-      <c r="IC43" s="16">
+      <c r="IC43" s="13">
         <v>-2323.4686607311</v>
       </c>
-      <c r="ID43" s="16">
+      <c r="ID43" s="13">
         <v>-2655.0541050149</v>
       </c>
-      <c r="IE43" s="16">
+      <c r="IE43" s="13">
         <v>73.606745246315697</v>
       </c>
-      <c r="IF43" s="16">
+      <c r="IF43" s="13">
         <v>44.324407998723601</v>
       </c>
-      <c r="IG43" s="16">
+      <c r="IG43" s="13">
         <v>457.74093615687701</v>
       </c>
-      <c r="IH43" s="16">
+      <c r="IH43" s="13">
         <v>-354.12633401796</v>
       </c>
-      <c r="II43" s="16">
+      <c r="II43" s="13">
         <v>259.64047022095298</v>
       </c>
-      <c r="IJ43" s="16">
+      <c r="IJ43" s="13">
         <v>-236.17848457529999</v>
       </c>
-      <c r="IK43" s="16">
+      <c r="IK43" s="13">
         <v>142.90034315455799</v>
       </c>
-      <c r="IL43" s="16">
+      <c r="IL43" s="13">
         <v>99.026665024903195</v>
       </c>
-      <c r="IM43" s="16">
+      <c r="IM43" s="13">
         <v>218.05627308994201</v>
       </c>
-      <c r="IN43" s="16">
+      <c r="IN43" s="13">
         <v>835.69348272146794</v>
       </c>
-      <c r="IO43" s="16">
+      <c r="IO43" s="13">
         <v>571.20810051854801</v>
       </c>
-      <c r="IP43" s="16">
+      <c r="IP43" s="13">
         <v>778.83340397603297</v>
       </c>
-      <c r="IQ43" s="16">
+      <c r="IQ43" s="13">
         <v>1407.52751138095</v>
       </c>
-      <c r="IR43" s="16">
+      <c r="IR43" s="13">
         <v>-292.67782266940998</v>
       </c>
-      <c r="IS43" s="16">
+      <c r="IS43" s="13">
         <v>3357.9118272445899</v>
       </c>
-      <c r="IT43" s="16">
+      <c r="IT43" s="13">
         <v>33.705656762179203</v>
       </c>
-      <c r="IU43" s="16">
+      <c r="IU43" s="13">
         <v>24.1431511055107</v>
       </c>
-      <c r="IV43" s="16">
+      <c r="IV43" s="13">
         <v>-629.62500753250004</v>
       </c>
-      <c r="IW43" s="16">
+      <c r="IW43" s="13">
         <v>-1400.6848621898</v>
       </c>
-      <c r="IX43" s="16">
+      <c r="IX43" s="13">
         <v>1486.70038775997</v>
       </c>
-      <c r="IY43" s="16">
+      <c r="IY43" s="13">
         <v>-1955.4828270138</v>
       </c>
-      <c r="IZ43" s="16">
+      <c r="IZ43" s="13">
         <v>973.66785232147402</v>
       </c>
-      <c r="JA43" s="16">
+      <c r="JA43" s="13">
         <v>94.3431453500624</v>
       </c>
-      <c r="JB43" s="16">
+      <c r="JB43" s="13">
         <v>-1107.7323739668</v>
       </c>
-      <c r="JC43" s="16">
+      <c r="JC43" s="13">
         <v>-227.79080568742</v>
       </c>
-      <c r="JD43" s="16">
+      <c r="JD43" s="13">
         <v>290.86393915602503</v>
       </c>
-      <c r="JE43" s="16">
+      <c r="JE43" s="13">
         <v>-161.44146470314999</v>
       </c>
-      <c r="JF43" s="16">
+      <c r="JF43" s="13">
         <v>-198.08910227215</v>
       </c>
-      <c r="JG43" s="16">
+      <c r="JG43" s="13">
         <v>65.031576540631093</v>
       </c>
-      <c r="JH43" s="16">
+      <c r="JH43" s="13">
         <v>-121.94961046506999</v>
       </c>
-      <c r="JI43" s="16">
+      <c r="JI43" s="13">
         <v>-184.02737997209999</v>
       </c>
-      <c r="JJ43" s="10"/>
+      <c r="JJ43" s="47">
+        <v>121.51046263933701</v>
+      </c>
     </row>
     <row r="44" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
-      <c r="AD44" s="43"/>
-      <c r="AE44" s="43"/>
-      <c r="AF44" s="43"/>
-      <c r="AG44" s="43"/>
-      <c r="AH44" s="43"/>
-      <c r="AI44" s="43"/>
-      <c r="AJ44" s="43"/>
-      <c r="AK44" s="43"/>
-      <c r="AL44" s="43"/>
-      <c r="AM44" s="43"/>
-      <c r="AN44" s="43"/>
-      <c r="AO44" s="43"/>
-      <c r="AP44" s="43"/>
-      <c r="AQ44" s="43"/>
-      <c r="AR44" s="43"/>
-      <c r="AS44" s="43"/>
-      <c r="AT44" s="43"/>
-      <c r="AU44" s="43"/>
-      <c r="AV44" s="43"/>
-      <c r="AW44" s="43"/>
-      <c r="AX44" s="43"/>
-      <c r="AY44" s="43"/>
-      <c r="AZ44" s="43"/>
-      <c r="BA44" s="43"/>
-      <c r="BB44" s="43"/>
-      <c r="BC44" s="43"/>
-      <c r="BD44" s="43"/>
-      <c r="BE44" s="43"/>
-      <c r="BF44" s="43"/>
-      <c r="BG44" s="43"/>
-      <c r="BH44" s="43"/>
-      <c r="BI44" s="43"/>
-      <c r="BJ44" s="43"/>
-      <c r="BK44" s="43"/>
-      <c r="BL44" s="43"/>
-      <c r="BM44" s="43"/>
-      <c r="BN44" s="43"/>
-      <c r="BO44" s="43"/>
-      <c r="BP44" s="43"/>
-      <c r="BQ44" s="43"/>
-      <c r="BR44" s="43"/>
-      <c r="BS44" s="43"/>
-      <c r="BT44" s="43"/>
-      <c r="BU44" s="43"/>
-      <c r="BV44" s="43"/>
-      <c r="BW44" s="43"/>
-      <c r="BX44" s="43"/>
-      <c r="BY44" s="43"/>
-      <c r="BZ44" s="43"/>
-      <c r="CA44" s="43"/>
-      <c r="CB44" s="43"/>
-      <c r="CC44" s="43"/>
-      <c r="CD44" s="43"/>
-      <c r="CE44" s="43"/>
-      <c r="CF44" s="43"/>
-      <c r="CG44" s="43"/>
-      <c r="CH44" s="43"/>
-      <c r="CI44" s="43"/>
-      <c r="CJ44" s="43"/>
-      <c r="CK44" s="43"/>
-      <c r="CL44" s="43"/>
-      <c r="CM44" s="43"/>
-      <c r="CN44" s="43"/>
-      <c r="CO44" s="43"/>
-      <c r="CP44" s="43"/>
-      <c r="CQ44" s="43"/>
-      <c r="CR44" s="43"/>
-      <c r="CS44" s="43"/>
-      <c r="CT44" s="43"/>
-      <c r="CU44" s="43"/>
-      <c r="CV44" s="43"/>
-      <c r="CW44" s="43"/>
-      <c r="CX44" s="43"/>
-      <c r="CY44" s="43"/>
-      <c r="CZ44" s="43"/>
-      <c r="DA44" s="43"/>
-      <c r="DB44" s="43"/>
-      <c r="DC44" s="43"/>
-      <c r="DD44" s="43"/>
-      <c r="DE44" s="43"/>
-      <c r="DF44" s="43"/>
-      <c r="DG44" s="43"/>
-      <c r="DH44" s="43"/>
-      <c r="DI44" s="43"/>
-      <c r="DJ44" s="43"/>
-      <c r="DK44" s="43"/>
-      <c r="DL44" s="43"/>
-      <c r="DM44" s="43"/>
-      <c r="DN44" s="43"/>
-      <c r="DO44" s="43"/>
-      <c r="DP44" s="43"/>
-      <c r="DQ44" s="43"/>
-      <c r="DR44" s="43"/>
-      <c r="DS44" s="43"/>
-      <c r="DT44" s="43"/>
-      <c r="DU44" s="43"/>
-      <c r="DV44" s="43"/>
-      <c r="DW44" s="43"/>
-      <c r="DX44" s="43"/>
-      <c r="DY44" s="43"/>
-      <c r="DZ44" s="43"/>
-      <c r="EA44" s="43"/>
-      <c r="EB44" s="43"/>
-      <c r="EC44" s="43"/>
-      <c r="ED44" s="43"/>
-      <c r="EE44" s="43"/>
-      <c r="EF44" s="43"/>
-      <c r="EG44" s="43"/>
-      <c r="EH44" s="43"/>
-      <c r="EI44" s="43"/>
-      <c r="EJ44" s="43"/>
-      <c r="EK44" s="43"/>
-      <c r="EL44" s="43"/>
-      <c r="EM44" s="43"/>
-      <c r="EN44" s="43"/>
-      <c r="EO44" s="43"/>
-      <c r="EP44" s="43"/>
-      <c r="EQ44" s="43"/>
-      <c r="ER44" s="43"/>
-      <c r="ES44" s="43"/>
-      <c r="ET44" s="43"/>
-      <c r="EU44" s="43"/>
-      <c r="EV44" s="43"/>
-      <c r="EW44" s="43"/>
-      <c r="EX44" s="43"/>
-      <c r="EY44" s="43"/>
-      <c r="EZ44" s="43"/>
-      <c r="FA44" s="43"/>
-      <c r="FB44" s="43"/>
-      <c r="FC44" s="43"/>
-      <c r="FD44" s="43"/>
-      <c r="FE44" s="43"/>
-      <c r="FF44" s="43"/>
-      <c r="FG44" s="43"/>
-      <c r="FH44" s="43"/>
-      <c r="FI44" s="43"/>
-      <c r="FJ44" s="43"/>
-      <c r="FK44" s="43"/>
-      <c r="FL44" s="43"/>
-      <c r="FM44" s="43"/>
-      <c r="FN44" s="43"/>
-      <c r="FO44" s="43"/>
-      <c r="FP44" s="43"/>
-      <c r="FQ44" s="43"/>
-      <c r="FR44" s="43"/>
-      <c r="FS44" s="43"/>
-      <c r="FT44" s="43"/>
-      <c r="FU44" s="43"/>
-      <c r="FV44" s="43"/>
-      <c r="FW44" s="43"/>
-      <c r="FX44" s="43"/>
-      <c r="FY44" s="43"/>
-      <c r="FZ44" s="43"/>
-      <c r="GA44" s="43"/>
-      <c r="GB44" s="43"/>
-      <c r="GC44" s="43"/>
-      <c r="GD44" s="43"/>
-      <c r="GE44" s="43"/>
-      <c r="GF44" s="43"/>
-      <c r="GG44" s="43"/>
-      <c r="GH44" s="43"/>
-      <c r="GI44" s="43"/>
-      <c r="GJ44" s="43"/>
-      <c r="GK44" s="43"/>
-      <c r="GL44" s="43"/>
-      <c r="GM44" s="43"/>
-      <c r="GN44" s="43"/>
-      <c r="GO44" s="43"/>
-      <c r="GP44" s="43"/>
-      <c r="GQ44" s="43"/>
-      <c r="GR44" s="43"/>
-      <c r="GS44" s="43"/>
-      <c r="GT44" s="43"/>
-      <c r="GU44" s="43"/>
-      <c r="GV44" s="43"/>
-      <c r="GW44" s="43"/>
-      <c r="GX44" s="43"/>
-      <c r="GY44" s="43"/>
-      <c r="GZ44" s="43"/>
-      <c r="HA44" s="43"/>
-      <c r="HB44" s="43"/>
-      <c r="HC44" s="43"/>
-      <c r="HD44" s="43"/>
-      <c r="HE44" s="43"/>
-      <c r="HF44" s="43"/>
-      <c r="HG44" s="43"/>
-      <c r="HH44" s="43"/>
-      <c r="HI44" s="43"/>
-      <c r="HJ44" s="43"/>
-      <c r="HK44" s="43"/>
-      <c r="HL44" s="43"/>
-      <c r="HM44" s="43"/>
-      <c r="HN44" s="43"/>
-      <c r="HO44" s="43"/>
-      <c r="HP44" s="43"/>
-      <c r="HQ44" s="43"/>
-      <c r="HR44" s="43"/>
-      <c r="HS44" s="43"/>
-      <c r="HT44" s="43"/>
-      <c r="HU44" s="43"/>
-      <c r="HV44" s="43"/>
-      <c r="HW44" s="43"/>
-      <c r="HX44" s="43"/>
-      <c r="HY44" s="43"/>
-      <c r="HZ44" s="43"/>
-      <c r="IA44" s="43"/>
-      <c r="IB44" s="43"/>
-      <c r="IC44" s="43"/>
-      <c r="ID44" s="43"/>
-      <c r="IE44" s="43"/>
-      <c r="IF44" s="43"/>
-      <c r="IG44" s="43"/>
-      <c r="IH44" s="43"/>
-      <c r="II44" s="43"/>
-      <c r="IJ44" s="43"/>
-      <c r="IK44" s="43"/>
-      <c r="IL44" s="43"/>
-      <c r="IM44" s="43"/>
-      <c r="IN44" s="43"/>
-      <c r="IO44" s="43"/>
-      <c r="IP44" s="43"/>
-      <c r="IQ44" s="43"/>
-      <c r="IR44" s="43"/>
-      <c r="IS44" s="43"/>
-      <c r="IT44" s="43"/>
-      <c r="IU44" s="43"/>
-      <c r="IV44" s="43"/>
-      <c r="IW44" s="43"/>
-      <c r="IX44" s="43"/>
-      <c r="IY44" s="43"/>
-      <c r="IZ44" s="43"/>
-      <c r="JA44" s="43"/>
-      <c r="JB44" s="43"/>
-      <c r="JC44" s="43"/>
-      <c r="JD44" s="43"/>
-      <c r="JE44" s="43"/>
-      <c r="JF44" s="43"/>
-      <c r="JG44" s="43"/>
-      <c r="JH44" s="43"/>
-      <c r="JI44" s="43"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="38"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="38"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="38"/>
+      <c r="BH44" s="38"/>
+      <c r="BI44" s="38"/>
+      <c r="BJ44" s="38"/>
+      <c r="BK44" s="38"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="38"/>
+      <c r="BP44" s="38"/>
+      <c r="BQ44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="38"/>
+      <c r="BW44" s="38"/>
+      <c r="BX44" s="38"/>
+      <c r="BY44" s="38"/>
+      <c r="BZ44" s="38"/>
+      <c r="CA44" s="38"/>
+      <c r="CB44" s="38"/>
+      <c r="CC44" s="38"/>
+      <c r="CD44" s="38"/>
+      <c r="CE44" s="38"/>
+      <c r="CF44" s="38"/>
+      <c r="CG44" s="38"/>
+      <c r="CH44" s="38"/>
+      <c r="CI44" s="38"/>
+      <c r="CJ44" s="38"/>
+      <c r="CK44" s="38"/>
+      <c r="CL44" s="38"/>
+      <c r="CM44" s="38"/>
+      <c r="CN44" s="38"/>
+      <c r="CO44" s="38"/>
+      <c r="CP44" s="38"/>
+      <c r="CQ44" s="38"/>
+      <c r="CR44" s="38"/>
+      <c r="CS44" s="38"/>
+      <c r="CT44" s="38"/>
+      <c r="CU44" s="38"/>
+      <c r="CV44" s="38"/>
+      <c r="CW44" s="38"/>
+      <c r="CX44" s="38"/>
+      <c r="CY44" s="38"/>
+      <c r="CZ44" s="38"/>
+      <c r="DA44" s="38"/>
+      <c r="DB44" s="38"/>
+      <c r="DC44" s="38"/>
+      <c r="DD44" s="38"/>
+      <c r="DE44" s="38"/>
+      <c r="DF44" s="38"/>
+      <c r="DG44" s="38"/>
+      <c r="DH44" s="38"/>
+      <c r="DI44" s="38"/>
+      <c r="DJ44" s="38"/>
+      <c r="DK44" s="38"/>
+      <c r="DL44" s="38"/>
+      <c r="DM44" s="38"/>
+      <c r="DN44" s="38"/>
+      <c r="DO44" s="38"/>
+      <c r="DP44" s="38"/>
+      <c r="DQ44" s="38"/>
+      <c r="DR44" s="38"/>
+      <c r="DS44" s="38"/>
+      <c r="DT44" s="38"/>
+      <c r="DU44" s="38"/>
+      <c r="DV44" s="38"/>
+      <c r="DW44" s="38"/>
+      <c r="DX44" s="38"/>
+      <c r="DY44" s="38"/>
+      <c r="DZ44" s="38"/>
+      <c r="EA44" s="38"/>
+      <c r="EB44" s="38"/>
+      <c r="EC44" s="38"/>
+      <c r="ED44" s="38"/>
+      <c r="EE44" s="38"/>
+      <c r="EF44" s="38"/>
+      <c r="EG44" s="38"/>
+      <c r="EH44" s="38"/>
+      <c r="EI44" s="38"/>
+      <c r="EJ44" s="38"/>
+      <c r="EK44" s="38"/>
+      <c r="EL44" s="38"/>
+      <c r="EM44" s="38"/>
+      <c r="EN44" s="38"/>
+      <c r="EO44" s="38"/>
+      <c r="EP44" s="38"/>
+      <c r="EQ44" s="38"/>
+      <c r="ER44" s="38"/>
+      <c r="ES44" s="38"/>
+      <c r="ET44" s="38"/>
+      <c r="EU44" s="38"/>
+      <c r="EV44" s="38"/>
+      <c r="EW44" s="38"/>
+      <c r="EX44" s="38"/>
+      <c r="EY44" s="38"/>
+      <c r="EZ44" s="38"/>
+      <c r="FA44" s="38"/>
+      <c r="FB44" s="38"/>
+      <c r="FC44" s="38"/>
+      <c r="FD44" s="38"/>
+      <c r="FE44" s="38"/>
+      <c r="FF44" s="38"/>
+      <c r="FG44" s="38"/>
+      <c r="FH44" s="38"/>
+      <c r="FI44" s="38"/>
+      <c r="FJ44" s="38"/>
+      <c r="FK44" s="38"/>
+      <c r="FL44" s="38"/>
+      <c r="FM44" s="38"/>
+      <c r="FN44" s="38"/>
+      <c r="FO44" s="38"/>
+      <c r="FP44" s="38"/>
+      <c r="FQ44" s="38"/>
+      <c r="FR44" s="38"/>
+      <c r="FS44" s="38"/>
+      <c r="FT44" s="38"/>
+      <c r="FU44" s="38"/>
+      <c r="FV44" s="38"/>
+      <c r="FW44" s="38"/>
+      <c r="FX44" s="38"/>
+      <c r="FY44" s="38"/>
+      <c r="FZ44" s="38"/>
+      <c r="GA44" s="38"/>
+      <c r="GB44" s="38"/>
+      <c r="GC44" s="38"/>
+      <c r="GD44" s="38"/>
+      <c r="GE44" s="38"/>
+      <c r="GF44" s="38"/>
+      <c r="GG44" s="38"/>
+      <c r="GH44" s="38"/>
+      <c r="GI44" s="38"/>
+      <c r="GJ44" s="38"/>
+      <c r="GK44" s="38"/>
+      <c r="GL44" s="38"/>
+      <c r="GM44" s="38"/>
+      <c r="GN44" s="38"/>
+      <c r="GO44" s="38"/>
+      <c r="GP44" s="38"/>
+      <c r="GQ44" s="38"/>
+      <c r="GR44" s="38"/>
+      <c r="GS44" s="38"/>
+      <c r="GT44" s="38"/>
+      <c r="GU44" s="38"/>
+      <c r="GV44" s="38"/>
+      <c r="GW44" s="38"/>
+      <c r="GX44" s="38"/>
+      <c r="GY44" s="38"/>
+      <c r="GZ44" s="38"/>
+      <c r="HA44" s="38"/>
+      <c r="HB44" s="38"/>
+      <c r="HC44" s="38"/>
+      <c r="HD44" s="38"/>
+      <c r="HE44" s="38"/>
+      <c r="HF44" s="38"/>
+      <c r="HG44" s="38"/>
+      <c r="HH44" s="38"/>
+      <c r="HI44" s="38"/>
+      <c r="HJ44" s="38"/>
+      <c r="HK44" s="38"/>
+      <c r="HL44" s="38"/>
+      <c r="HM44" s="38"/>
+      <c r="HN44" s="38"/>
+      <c r="HO44" s="38"/>
+      <c r="HP44" s="38"/>
+      <c r="HQ44" s="38"/>
+      <c r="HR44" s="38"/>
+      <c r="HS44" s="38"/>
+      <c r="HT44" s="38"/>
+      <c r="HU44" s="38"/>
+      <c r="HV44" s="38"/>
+      <c r="HW44" s="38"/>
+      <c r="HX44" s="38"/>
+      <c r="HY44" s="38"/>
+      <c r="HZ44" s="38"/>
+      <c r="IA44" s="38"/>
+      <c r="IB44" s="38"/>
+      <c r="IC44" s="38"/>
+      <c r="ID44" s="38"/>
+      <c r="IE44" s="38"/>
+      <c r="IF44" s="38"/>
+      <c r="IG44" s="38"/>
+      <c r="IH44" s="38"/>
+      <c r="II44" s="38"/>
+      <c r="IJ44" s="38"/>
+      <c r="IK44" s="38"/>
+      <c r="IL44" s="38"/>
+      <c r="IM44" s="38"/>
+      <c r="IN44" s="38"/>
+      <c r="IO44" s="38"/>
+      <c r="IP44" s="38"/>
+      <c r="IQ44" s="38"/>
+      <c r="IR44" s="38"/>
+      <c r="IS44" s="38"/>
+      <c r="IT44" s="38"/>
+      <c r="IU44" s="38"/>
+      <c r="IV44" s="38"/>
+      <c r="IW44" s="38"/>
+      <c r="IX44" s="38"/>
+      <c r="IY44" s="38"/>
+      <c r="IZ44" s="38"/>
+      <c r="JA44" s="38"/>
+      <c r="JB44" s="38"/>
+      <c r="JC44" s="38"/>
+      <c r="JD44" s="38"/>
+      <c r="JE44" s="38"/>
+      <c r="JF44" s="38"/>
+      <c r="JG44" s="38"/>
+      <c r="JH44" s="38"/>
+      <c r="JI44" s="38"/>
       <c r="JJ44" s="10"/>
     </row>
     <row r="45" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="15">
         <v>-2135.7758514912998</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="15">
         <v>398.25612861667298</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="15">
         <v>947.27088880982399</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="15">
         <v>681.351934558327</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="15">
         <v>836.96074273269699</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="15">
         <v>476.46627794621702</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="15">
         <v>-194.84810975277</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="15">
         <v>-103.05784520947</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="15">
         <v>-394.80964874558998</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="15">
         <v>133.043229745264</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="15">
         <v>50.957260046181901</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="15">
         <v>601.57816674276</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="15">
         <v>455.91244685532502</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="15">
         <v>648.51269373597097</v>
       </c>
-      <c r="P45" s="18">
+      <c r="P45" s="15">
         <v>530.21197347140105</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="Q45" s="15">
         <v>363.21654150979799</v>
       </c>
-      <c r="R45" s="18">
+      <c r="R45" s="15">
         <v>494.61950173301602</v>
       </c>
-      <c r="S45" s="18">
+      <c r="S45" s="15">
         <v>436.51474956345203</v>
       </c>
-      <c r="T45" s="18">
+      <c r="T45" s="15">
         <v>-114.02022134169</v>
       </c>
-      <c r="U45" s="18">
+      <c r="U45" s="15">
         <v>-77.795148042498994</v>
       </c>
-      <c r="V45" s="18">
+      <c r="V45" s="15">
         <v>-824.56346078334002</v>
       </c>
-      <c r="W45" s="18">
+      <c r="W45" s="15">
         <v>588.46899822024602</v>
       </c>
-      <c r="X45" s="18">
+      <c r="X45" s="15">
         <v>-178.25772814048</v>
       </c>
-      <c r="Y45" s="18">
+      <c r="Y45" s="15">
         <v>1372.29181906607</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="Z45" s="15">
         <v>19.808068948841701</v>
       </c>
-      <c r="AA45" s="18">
+      <c r="AA45" s="15">
         <v>10.319023331798</v>
       </c>
-      <c r="AB45" s="18">
+      <c r="AB45" s="15">
         <v>257.70622758189501</v>
       </c>
-      <c r="AC45" s="18">
+      <c r="AC45" s="15">
         <v>-714.50273577985001</v>
       </c>
-      <c r="AD45" s="18">
+      <c r="AD45" s="15">
         <v>-1049.6481026336</v>
       </c>
-      <c r="AE45" s="18">
+      <c r="AE45" s="15">
         <v>195.894616346655</v>
       </c>
-      <c r="AF45" s="18">
+      <c r="AF45" s="15">
         <v>-85.007863330411993</v>
       </c>
-      <c r="AG45" s="18">
+      <c r="AG45" s="15">
         <v>381.23729626616699</v>
       </c>
-      <c r="AH45" s="18">
+      <c r="AH45" s="15">
         <v>780.84462529838402</v>
       </c>
-      <c r="AI45" s="18">
+      <c r="AI45" s="15">
         <v>1186.8226552082699</v>
       </c>
-      <c r="AJ45" s="18">
+      <c r="AJ45" s="15">
         <v>-769.54124507519998</v>
       </c>
-      <c r="AK45" s="18">
+      <c r="AK45" s="15">
         <v>-250.23323867504001</v>
       </c>
-      <c r="AL45" s="18">
+      <c r="AL45" s="15">
         <v>2120.64737723813</v>
       </c>
-      <c r="AM45" s="18">
+      <c r="AM45" s="15">
         <v>-846.41552423830001</v>
       </c>
-      <c r="AN45" s="18">
+      <c r="AN45" s="15">
         <v>556.57077464576003</v>
       </c>
-      <c r="AO45" s="18">
+      <c r="AO45" s="15">
         <v>-134.84717931579999</v>
       </c>
-      <c r="AP45" s="18">
+      <c r="AP45" s="15">
         <v>1657.27959351956</v>
       </c>
-      <c r="AQ45" s="18">
+      <c r="AQ45" s="15">
         <v>588.73850004644396</v>
       </c>
-      <c r="AR45" s="18">
+      <c r="AR45" s="15">
         <v>2691.2147787326498</v>
       </c>
-      <c r="AS45" s="18">
+      <c r="AS45" s="15">
         <v>-36.024774502546002</v>
       </c>
-      <c r="AT45" s="18">
+      <c r="AT45" s="15">
         <v>-494.89998704508997</v>
       </c>
-      <c r="AU45" s="18">
+      <c r="AU45" s="15">
         <v>1172.2876403975599</v>
       </c>
-      <c r="AV45" s="18">
+      <c r="AV45" s="15">
         <v>2816.4882227606199</v>
       </c>
-      <c r="AW45" s="18">
+      <c r="AW45" s="15">
         <v>-2048.6156328697998</v>
       </c>
-      <c r="AX45" s="18">
+      <c r="AX45" s="15">
         <v>5300.2941780715</v>
       </c>
-      <c r="AY45" s="18">
+      <c r="AY45" s="15">
         <v>1863.9674423808301</v>
       </c>
-      <c r="AZ45" s="18">
+      <c r="AZ45" s="15">
         <v>-689.90775470128995</v>
       </c>
-      <c r="BA45" s="18">
+      <c r="BA45" s="15">
         <v>-17.615070984035999</v>
       </c>
-      <c r="BB45" s="18">
+      <c r="BB45" s="15">
         <v>2548.7629054634199</v>
       </c>
-      <c r="BC45" s="18">
+      <c r="BC45" s="15">
         <v>-2379.3602493612998</v>
       </c>
-      <c r="BD45" s="18">
+      <c r="BD45" s="15">
         <v>1653.24861233511</v>
       </c>
-      <c r="BE45" s="18">
+      <c r="BE45" s="15">
         <v>2326.1321922654902</v>
       </c>
-      <c r="BF45" s="18">
+      <c r="BF45" s="15">
         <v>82.0945739722453</v>
       </c>
-      <c r="BG45" s="18">
+      <c r="BG45" s="15">
         <v>1999.7583393699199</v>
       </c>
-      <c r="BH45" s="18">
+      <c r="BH45" s="15">
         <v>1911.7495056612399</v>
       </c>
-      <c r="BI45" s="18">
+      <c r="BI45" s="15">
         <v>-3006.7767288847999</v>
       </c>
-      <c r="BJ45" s="18">
+      <c r="BJ45" s="15">
         <v>1756.33406947407</v>
       </c>
-      <c r="BK45" s="18">
+      <c r="BK45" s="15">
         <v>-592.79292225869995</v>
       </c>
-      <c r="BL45" s="18">
+      <c r="BL45" s="15">
         <v>953.43686872407295</v>
       </c>
-      <c r="BM45" s="18">
+      <c r="BM45" s="15">
         <v>2801.0753354668</v>
       </c>
-      <c r="BN45" s="18">
+      <c r="BN45" s="15">
         <v>-177.39018155986</v>
       </c>
-      <c r="BO45" s="18">
+      <c r="BO45" s="15">
         <v>-3928.6415145541</v>
       </c>
-      <c r="BP45" s="18">
+      <c r="BP45" s="15">
         <v>-1677.5642251593999</v>
       </c>
-      <c r="BQ45" s="18">
+      <c r="BQ45" s="15">
         <v>-1032.1330813658001</v>
       </c>
-      <c r="BR45" s="18">
+      <c r="BR45" s="15">
         <v>-5062.5634912504001</v>
       </c>
-      <c r="BS45" s="18">
+      <c r="BS45" s="15">
         <v>-1557.4942787752</v>
       </c>
-      <c r="BT45" s="18">
+      <c r="BT45" s="15">
         <v>-697.13291928860997</v>
       </c>
-      <c r="BU45" s="18">
+      <c r="BU45" s="15">
         <v>-1978.8813723998001</v>
       </c>
-      <c r="BV45" s="18">
+      <c r="BV45" s="15">
         <v>-513.13297089498997</v>
       </c>
-      <c r="BW45" s="18">
+      <c r="BW45" s="15">
         <v>695.90073066352397</v>
       </c>
-      <c r="BX45" s="18">
+      <c r="BX45" s="15">
         <v>-662.19860442920003</v>
       </c>
-      <c r="BY45" s="18">
+      <c r="BY45" s="15">
         <v>495.12900178515599</v>
       </c>
-      <c r="BZ45" s="18">
+      <c r="BZ45" s="15">
         <v>1238.7503342136699</v>
       </c>
-      <c r="CA45" s="18">
+      <c r="CA45" s="15">
         <v>278.48868788662998</v>
       </c>
-      <c r="CB45" s="18">
+      <c r="CB45" s="15">
         <v>-119.69804788795</v>
       </c>
-      <c r="CC45" s="18">
+      <c r="CC45" s="15">
         <v>-370.64065473677999</v>
       </c>
-      <c r="CD45" s="18">
+      <c r="CD45" s="15">
         <v>-1368.6919549938</v>
       </c>
-      <c r="CE45" s="18">
+      <c r="CE45" s="15">
         <v>371.91790509533502</v>
       </c>
-      <c r="CF45" s="18">
+      <c r="CF45" s="15">
         <v>727.40790939038095</v>
       </c>
-      <c r="CG45" s="18">
+      <c r="CG45" s="15">
         <v>-32.945420741968</v>
       </c>
-      <c r="CH45" s="18">
+      <c r="CH45" s="15">
         <v>1132.7289536256001</v>
       </c>
-      <c r="CI45" s="18">
+      <c r="CI45" s="15">
         <v>7054.0230177930498</v>
       </c>
-      <c r="CJ45" s="18">
+      <c r="CJ45" s="15">
         <v>-1468.5987328951001</v>
       </c>
-      <c r="CK45" s="18">
+      <c r="CK45" s="15">
         <v>808.20157042145001</v>
       </c>
-      <c r="CL45" s="18">
+      <c r="CL45" s="15">
         <v>308.38709423052097</v>
       </c>
-      <c r="CM45" s="18">
+      <c r="CM45" s="15">
         <v>-2112.4294465103999</v>
       </c>
-      <c r="CN45" s="18">
+      <c r="CN45" s="15">
         <v>454.66684950784298</v>
       </c>
-      <c r="CO45" s="18">
+      <c r="CO45" s="15">
         <v>-29.614848898841998</v>
       </c>
-      <c r="CP45" s="18">
+      <c r="CP45" s="15">
         <v>-818.62682948583995</v>
       </c>
-      <c r="CQ45" s="18">
+      <c r="CQ45" s="15">
         <v>214.84506658752301</v>
       </c>
-      <c r="CR45" s="18">
+      <c r="CR45" s="15">
         <v>1658.5760660777601</v>
       </c>
-      <c r="CS45" s="18">
+      <c r="CS45" s="15">
         <v>-2738.5255905140002</v>
       </c>
-      <c r="CT45" s="18">
+      <c r="CT45" s="15">
         <v>1629.7050253749301</v>
       </c>
-      <c r="CU45" s="18">
+      <c r="CU45" s="15">
         <v>-1407.2164376306</v>
       </c>
-      <c r="CV45" s="18">
+      <c r="CV45" s="15">
         <v>-3084.4931398937001</v>
       </c>
-      <c r="CW45" s="18">
+      <c r="CW45" s="15">
         <v>2820.88172258646</v>
       </c>
-      <c r="CX45" s="18">
+      <c r="CX45" s="15">
         <v>-130.10058524734001</v>
       </c>
-      <c r="CY45" s="18">
+      <c r="CY45" s="15">
         <v>-6693.9297706889001</v>
       </c>
-      <c r="CZ45" s="18">
+      <c r="CZ45" s="15">
         <v>-1552.0320069649999</v>
       </c>
-      <c r="DA45" s="18">
+      <c r="DA45" s="15">
         <v>-3585.4941762829999</v>
       </c>
-      <c r="DB45" s="18">
+      <c r="DB45" s="15">
         <v>-4172.5043700140995</v>
       </c>
-      <c r="DC45" s="18">
+      <c r="DC45" s="15">
         <v>-1210.7530306358999</v>
       </c>
-      <c r="DD45" s="18">
+      <c r="DD45" s="15">
         <v>3165.2853762278</v>
       </c>
-      <c r="DE45" s="18">
+      <c r="DE45" s="15">
         <v>-9065.9540911222994</v>
       </c>
-      <c r="DF45" s="18">
+      <c r="DF45" s="15">
         <v>3030.39104417005</v>
       </c>
-      <c r="DG45" s="18">
+      <c r="DG45" s="15">
         <v>-1728.0739619408</v>
       </c>
-      <c r="DH45" s="18">
+      <c r="DH45" s="15">
         <v>234.947686302493</v>
       </c>
-      <c r="DI45" s="18">
+      <c r="DI45" s="15">
         <v>768.91164112564195</v>
       </c>
-      <c r="DJ45" s="18">
+      <c r="DJ45" s="15">
         <v>-1957.3607735200001</v>
       </c>
-      <c r="DK45" s="18">
+      <c r="DK45" s="15">
         <v>-5675.7433553250003</v>
       </c>
-      <c r="DL45" s="18">
+      <c r="DL45" s="15">
         <v>2128.69726514681</v>
       </c>
-      <c r="DM45" s="18">
+      <c r="DM45" s="15">
         <v>-6687.2948994100998</v>
       </c>
-      <c r="DN45" s="18">
+      <c r="DN45" s="15">
         <v>599.88201428780496</v>
       </c>
-      <c r="DO45" s="18">
+      <c r="DO45" s="15">
         <v>-1844.1932073738999</v>
       </c>
-      <c r="DP45" s="18">
+      <c r="DP45" s="15">
         <v>3919.6809079065501</v>
       </c>
-      <c r="DQ45" s="18">
+      <c r="DQ45" s="15">
         <v>-7630.1815224347001</v>
       </c>
-      <c r="DR45" s="18">
+      <c r="DR45" s="15">
         <v>1308.98439999738</v>
       </c>
-      <c r="DS45" s="18">
+      <c r="DS45" s="15">
         <v>-1056.0962745664001</v>
       </c>
-      <c r="DT45" s="18">
+      <c r="DT45" s="15">
         <v>-560.33997462968</v>
       </c>
-      <c r="DU45" s="18">
+      <c r="DU45" s="15">
         <v>-1445.4051883138</v>
       </c>
-      <c r="DV45" s="18">
+      <c r="DV45" s="15">
         <v>294.38083120815298</v>
       </c>
-      <c r="DW45" s="18">
+      <c r="DW45" s="15">
         <v>-4566.0397711645001</v>
       </c>
-      <c r="DX45" s="18">
+      <c r="DX45" s="15">
         <v>-3272.7940748637998</v>
       </c>
-      <c r="DY45" s="18">
+      <c r="DY45" s="15">
         <v>-2281.2972935337002</v>
       </c>
-      <c r="DZ45" s="18">
+      <c r="DZ45" s="15">
         <v>-525.46180380844999</v>
       </c>
-      <c r="EA45" s="18">
+      <c r="EA45" s="15">
         <v>2435.71097731288</v>
       </c>
-      <c r="EB45" s="18">
+      <c r="EB45" s="15">
         <v>1026.26252974096</v>
       </c>
-      <c r="EC45" s="18">
+      <c r="EC45" s="15">
         <v>-5203.9754307488001</v>
       </c>
-      <c r="ED45" s="18">
+      <c r="ED45" s="15">
         <v>-752.86175182978002</v>
       </c>
-      <c r="EE45" s="18">
+      <c r="EE45" s="15">
         <v>-2043.6101115255999</v>
       </c>
-      <c r="EF45" s="18">
+      <c r="EF45" s="15">
         <v>1190.3234697658099</v>
       </c>
-      <c r="EG45" s="18">
+      <c r="EG45" s="15">
         <v>837.92959794628996</v>
       </c>
-      <c r="EH45" s="18">
+      <c r="EH45" s="15">
         <v>-1057.0669465532001</v>
       </c>
-      <c r="EI45" s="18">
+      <c r="EI45" s="15">
         <v>-2080.3902572457</v>
       </c>
-      <c r="EJ45" s="18">
+      <c r="EJ45" s="15">
         <v>-2016.7701496088</v>
       </c>
-      <c r="EK45" s="18">
+      <c r="EK45" s="15">
         <v>-1677.443884025</v>
       </c>
-      <c r="EL45" s="18">
+      <c r="EL45" s="15">
         <v>146.426399909727</v>
       </c>
-      <c r="EM45" s="18">
+      <c r="EM45" s="15">
         <v>-185.24638300913</v>
       </c>
-      <c r="EN45" s="18">
+      <c r="EN45" s="15">
         <v>860.79139404754505</v>
       </c>
-      <c r="EO45" s="18">
+      <c r="EO45" s="15">
         <v>-3621.5281707109998</v>
       </c>
-      <c r="EP45" s="18">
+      <c r="EP45" s="15">
         <v>1448.3478027409799</v>
       </c>
-      <c r="EQ45" s="18">
+      <c r="EQ45" s="15">
         <v>1119.9004675056999</v>
       </c>
-      <c r="ER45" s="18">
+      <c r="ER45" s="15">
         <v>48.262056171193002</v>
       </c>
-      <c r="ES45" s="18">
+      <c r="ES45" s="15">
         <v>1514.0538268783801</v>
       </c>
-      <c r="ET45" s="18">
+      <c r="ET45" s="15">
         <v>-2537.3846201020001</v>
       </c>
-      <c r="EU45" s="18">
+      <c r="EU45" s="15">
         <v>359.88997345668298</v>
       </c>
-      <c r="EV45" s="18">
+      <c r="EV45" s="15">
         <v>-3108.253612645</v>
       </c>
-      <c r="EW45" s="18">
+      <c r="EW45" s="15">
         <v>-1852.1258300259001</v>
       </c>
-      <c r="EX45" s="18">
+      <c r="EX45" s="15">
         <v>1756.01466988722</v>
       </c>
-      <c r="EY45" s="18">
+      <c r="EY45" s="15">
         <v>-747.35984464513001</v>
       </c>
-      <c r="EZ45" s="18">
+      <c r="EZ45" s="15">
         <v>-1742.8835070350001</v>
       </c>
-      <c r="FA45" s="18">
+      <c r="FA45" s="15">
         <v>-386.48653812056</v>
       </c>
-      <c r="FB45" s="18">
+      <c r="FB45" s="15">
         <v>455.13124389014899</v>
       </c>
-      <c r="FC45" s="18">
+      <c r="FC45" s="15">
         <v>-548.12673332713996</v>
       </c>
-      <c r="FD45" s="18">
+      <c r="FD45" s="15">
         <v>1408.62122167439</v>
       </c>
-      <c r="FE45" s="18">
+      <c r="FE45" s="15">
         <v>631.16159195754699</v>
       </c>
-      <c r="FF45" s="18">
+      <c r="FF45" s="15">
         <v>-2778.1708573954002</v>
       </c>
-      <c r="FG45" s="18">
+      <c r="FG45" s="15">
         <v>247.90168015099599</v>
       </c>
-      <c r="FH45" s="18">
+      <c r="FH45" s="15">
         <v>-2549.2414483747002</v>
       </c>
-      <c r="FI45" s="18">
+      <c r="FI45" s="15">
         <v>-185.51564246688</v>
       </c>
-      <c r="FJ45" s="18">
+      <c r="FJ45" s="15">
         <v>-256.68708846093</v>
       </c>
-      <c r="FK45" s="18">
+      <c r="FK45" s="15">
         <v>-1670.8374102855</v>
       </c>
-      <c r="FL45" s="18">
+      <c r="FL45" s="15">
         <v>-636.37853714847995</v>
       </c>
-      <c r="FM45" s="18">
+      <c r="FM45" s="15">
         <v>-154.22513426425999</v>
       </c>
-      <c r="FN45" s="18">
+      <c r="FN45" s="15">
         <v>-1094.9966400536</v>
       </c>
-      <c r="FO45" s="18">
+      <c r="FO45" s="15">
         <v>1904.0471198166299</v>
       </c>
-      <c r="FP45" s="18">
+      <c r="FP45" s="15">
         <v>-422.35778188784002</v>
       </c>
-      <c r="FQ45" s="18">
+      <c r="FQ45" s="15">
         <v>-1205.3112977672999</v>
       </c>
-      <c r="FR45" s="18">
+      <c r="FR45" s="15">
         <v>782.45915043298805</v>
       </c>
-      <c r="FS45" s="18">
+      <c r="FS45" s="15">
         <v>575.21218264391496</v>
       </c>
-      <c r="FT45" s="18">
+      <c r="FT45" s="15">
         <v>137.016341356552</v>
       </c>
-      <c r="FU45" s="18">
+      <c r="FU45" s="15">
         <v>-1922.7631141879001</v>
       </c>
-      <c r="FV45" s="18">
+      <c r="FV45" s="15">
         <v>1352.5983647133501</v>
       </c>
-      <c r="FW45" s="18">
+      <c r="FW45" s="15">
         <v>-2465.5836184591999</v>
       </c>
-      <c r="FX45" s="18">
+      <c r="FX45" s="15">
         <v>-35.914355402302</v>
       </c>
-      <c r="FY45" s="18">
+      <c r="FY45" s="15">
         <v>-1012.6221296602999</v>
       </c>
-      <c r="FZ45" s="18">
+      <c r="FZ45" s="15">
         <v>-3550.2133057888</v>
       </c>
-      <c r="GA45" s="18">
+      <c r="GA45" s="15">
         <v>713.61758044524197</v>
       </c>
-      <c r="GB45" s="18">
+      <c r="GB45" s="15">
         <v>2469.9817020339001</v>
       </c>
-      <c r="GC45" s="18">
+      <c r="GC45" s="15">
         <v>-1619.0870577251001</v>
       </c>
-      <c r="GD45" s="18">
+      <c r="GD45" s="15">
         <v>-941.82307009969998</v>
       </c>
-      <c r="GE45" s="18">
+      <c r="GE45" s="15">
         <v>-144.31109095702001</v>
       </c>
-      <c r="GF45" s="18">
+      <c r="GF45" s="15">
         <v>-4276.3204556763003</v>
       </c>
-      <c r="GG45" s="18">
+      <c r="GG45" s="15">
         <v>-1378.9225079149001</v>
       </c>
-      <c r="GH45" s="18">
+      <c r="GH45" s="15">
         <v>1006.00434845267</v>
       </c>
-      <c r="GI45" s="18">
+      <c r="GI45" s="15">
         <v>-5157.0480533029004</v>
       </c>
-      <c r="GJ45" s="18">
+      <c r="GJ45" s="15">
         <v>-1834.1489495631999</v>
       </c>
-      <c r="GK45" s="18">
+      <c r="GK45" s="15">
         <v>1976.9132937367599</v>
       </c>
-      <c r="GL45" s="18">
+      <c r="GL45" s="15">
         <v>2004.9812376623599</v>
       </c>
-      <c r="GM45" s="18">
+      <c r="GM45" s="15">
         <v>1018.70121129603</v>
       </c>
-      <c r="GN45" s="18">
+      <c r="GN45" s="15">
         <v>-1945.5221131236001</v>
       </c>
-      <c r="GO45" s="18">
+      <c r="GO45" s="15">
         <v>-810.48408179908995</v>
       </c>
-      <c r="GP45" s="18">
+      <c r="GP45" s="15">
         <v>-3828.7924749716999</v>
       </c>
-      <c r="GQ45" s="18">
+      <c r="GQ45" s="15">
         <v>437.83302534172901</v>
       </c>
-      <c r="GR45" s="18">
+      <c r="GR45" s="15">
         <v>-3887.5605868532002</v>
       </c>
-      <c r="GS45" s="18">
+      <c r="GS45" s="15">
         <v>963.715307452047</v>
       </c>
-      <c r="GT45" s="18">
+      <c r="GT45" s="15">
         <v>-1262.0679656550999</v>
       </c>
-      <c r="GU45" s="18">
+      <c r="GU45" s="15">
         <v>-1364.2717105833999</v>
       </c>
-      <c r="GV45" s="18">
+      <c r="GV45" s="15">
         <v>-1996.8061450166999</v>
       </c>
-      <c r="GW45" s="18">
+      <c r="GW45" s="15">
         <v>33.060238386822697</v>
       </c>
-      <c r="GX45" s="18">
+      <c r="GX45" s="15">
         <v>-447.11828097801998</v>
       </c>
-      <c r="GY45" s="18">
+      <c r="GY45" s="15">
         <v>1831.5159548886299</v>
       </c>
-      <c r="GZ45" s="18">
+      <c r="GZ45" s="15">
         <v>-1548.3446187917</v>
       </c>
-      <c r="HA45" s="18">
+      <c r="HA45" s="15">
         <v>833.94966231051399</v>
       </c>
-      <c r="HB45" s="18">
+      <c r="HB45" s="15">
         <v>-548.22688766249996</v>
       </c>
-      <c r="HC45" s="18">
+      <c r="HC45" s="15">
         <v>499.52887929965101</v>
       </c>
-      <c r="HD45" s="18">
+      <c r="HD45" s="15">
         <v>-2333.5818225437001</v>
       </c>
-      <c r="HE45" s="18">
+      <c r="HE45" s="15">
         <v>-223.65789118331</v>
       </c>
-      <c r="HF45" s="18">
+      <c r="HF45" s="15">
         <v>-2295.4803237966998</v>
       </c>
-      <c r="HG45" s="18">
+      <c r="HG45" s="15">
         <v>-184.82711743268999</v>
       </c>
-      <c r="HH45" s="18">
+      <c r="HH45" s="15">
         <v>2958.3722734994899</v>
       </c>
-      <c r="HI45" s="18">
+      <c r="HI45" s="15">
         <v>-3364.2816778640999</v>
       </c>
-      <c r="HJ45" s="18">
+      <c r="HJ45" s="15">
         <v>-1289.5063057110999</v>
       </c>
-      <c r="HK45" s="18">
+      <c r="HK45" s="15">
         <v>-1740.8195386134</v>
       </c>
-      <c r="HL45" s="18">
+      <c r="HL45" s="15">
         <v>-956.52157557646001</v>
       </c>
-      <c r="HM45" s="18">
+      <c r="HM45" s="15">
         <v>-3138.9226813557002</v>
       </c>
-      <c r="HN45" s="18">
+      <c r="HN45" s="15">
         <v>-5873.1026266654999</v>
       </c>
-      <c r="HO45" s="18">
+      <c r="HO45" s="15">
         <v>-1114.2078497412999</v>
       </c>
-      <c r="HP45" s="18">
+      <c r="HP45" s="15">
         <v>-8284.8341532376999</v>
       </c>
-      <c r="HQ45" s="18">
+      <c r="HQ45" s="15">
         <v>-4635.3755706961001</v>
       </c>
-      <c r="HR45" s="18">
+      <c r="HR45" s="15">
         <v>-5531.8907065625999</v>
       </c>
-      <c r="HS45" s="18">
+      <c r="HS45" s="15">
         <v>-7071.6276375624002</v>
       </c>
-      <c r="HT45" s="18">
+      <c r="HT45" s="15">
         <v>1288.1332714375301</v>
       </c>
-      <c r="HU45" s="18">
+      <c r="HU45" s="15">
         <v>942.26875293681701</v>
       </c>
-      <c r="HV45" s="18">
+      <c r="HV45" s="15">
         <v>238.285877927678</v>
       </c>
-      <c r="HW45" s="18">
+      <c r="HW45" s="15">
         <v>-2449.8487823086002</v>
       </c>
-      <c r="HX45" s="18">
+      <c r="HX45" s="15">
         <v>-1473.1373805804001</v>
       </c>
-      <c r="HY45" s="18">
+      <c r="HY45" s="15">
         <v>-4648.2948617724996</v>
       </c>
-      <c r="HZ45" s="18">
+      <c r="HZ45" s="15">
         <v>-232.70304957932001</v>
       </c>
-      <c r="IA45" s="18">
+      <c r="IA45" s="15">
         <v>-1795.7294510444001</v>
       </c>
-      <c r="IB45" s="18">
+      <c r="IB45" s="15">
         <v>-340.46558089158998</v>
       </c>
-      <c r="IC45" s="18">
+      <c r="IC45" s="15">
         <v>-299.75540656869998</v>
       </c>
-      <c r="ID45" s="18">
+      <c r="ID45" s="15">
         <v>-726.15577359976999</v>
       </c>
-      <c r="IE45" s="18">
+      <c r="IE45" s="15">
         <v>-1984.1078449581</v>
       </c>
-      <c r="IF45" s="18">
+      <c r="IF45" s="15">
         <v>-5011.7030962828003</v>
       </c>
-      <c r="IG45" s="18">
+      <c r="IG45" s="15">
         <v>-418.90237215358002</v>
       </c>
-      <c r="IH45" s="18">
+      <c r="IH45" s="15">
         <v>1945.43742679569</v>
       </c>
-      <c r="II45" s="18">
+      <c r="II45" s="15">
         <v>1145.6692096614699</v>
       </c>
-      <c r="IJ45" s="18">
+      <c r="IJ45" s="15">
         <v>520.278250174704</v>
       </c>
-      <c r="IK45" s="18">
+      <c r="IK45" s="15">
         <v>-3310.7524444536002</v>
       </c>
-      <c r="IL45" s="18">
+      <c r="IL45" s="15">
         <v>-109.28876763085</v>
       </c>
-      <c r="IM45" s="18">
+      <c r="IM45" s="15">
         <v>-1324.1952825472999</v>
       </c>
-      <c r="IN45" s="18">
+      <c r="IN45" s="15">
         <v>-1639.1140551354999</v>
       </c>
-      <c r="IO45" s="18">
+      <c r="IO45" s="15">
         <v>-4613.4538555037998</v>
       </c>
-      <c r="IP45" s="18">
+      <c r="IP45" s="15">
         <v>-2916.6032545526</v>
       </c>
-      <c r="IQ45" s="18">
+      <c r="IQ45" s="15">
         <v>-6521.7504224212998</v>
       </c>
-      <c r="IR45" s="18">
+      <c r="IR45" s="15">
         <v>844.46932553350405</v>
       </c>
-      <c r="IS45" s="18">
+      <c r="IS45" s="15">
         <v>817.69633421510798</v>
       </c>
-      <c r="IT45" s="18">
+      <c r="IT45" s="15">
         <v>-888.93190153226999</v>
       </c>
-      <c r="IU45" s="18">
+      <c r="IU45" s="15">
         <v>-90.579367729075003</v>
       </c>
-      <c r="IV45" s="18">
+      <c r="IV45" s="15">
         <v>2029.2779650377499</v>
       </c>
-      <c r="IW45" s="18">
+      <c r="IW45" s="15">
         <v>-2256.0123170106999</v>
       </c>
-      <c r="IX45" s="18">
+      <c r="IX45" s="15">
         <v>-1764.5432398261</v>
       </c>
-      <c r="IY45" s="18">
+      <c r="IY45" s="15">
         <v>2238.63199366442</v>
       </c>
-      <c r="IZ45" s="18">
+      <c r="IZ45" s="15">
         <v>-4252.5340692908003</v>
       </c>
-      <c r="JA45" s="18">
+      <c r="JA45" s="15">
         <v>1594.1916025585999</v>
       </c>
-      <c r="JB45" s="18">
+      <c r="JB45" s="15">
         <v>-1626.3824720165001</v>
       </c>
-      <c r="JC45" s="18">
+      <c r="JC45" s="15">
         <v>1461.7734324657899</v>
       </c>
-      <c r="JD45" s="18">
+      <c r="JD45" s="15">
         <v>-102.02340958166</v>
       </c>
-      <c r="JE45" s="18">
+      <c r="JE45" s="15">
         <v>-867.55716530515997</v>
       </c>
-      <c r="JF45" s="19">
+      <c r="JF45" s="16">
         <v>2484.5350703477602</v>
       </c>
-      <c r="JG45" s="22">
+      <c r="JG45" s="19">
         <v>-22.039965394936999</v>
       </c>
-      <c r="JH45" s="23">
+      <c r="JH45" s="20">
         <v>-2315.1969781819998</v>
       </c>
-      <c r="JI45" s="24">
+      <c r="JI45" s="21">
         <v>-945.04577755369996</v>
       </c>
-      <c r="JJ45" s="10"/>
+      <c r="JJ45" s="21">
+        <v>-2576.2195637668001</v>
+      </c>
     </row>
     <row r="46" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
@@ -35352,19 +35442,21 @@
       <c r="JE46" s="6">
         <v>-54.677495194906001</v>
       </c>
-      <c r="JF46" s="20">
+      <c r="JF46" s="17">
         <v>842.71220573716096</v>
       </c>
-      <c r="JG46" s="25">
+      <c r="JG46" s="22">
         <v>685.28947606823601</v>
       </c>
       <c r="JH46" s="6">
         <v>1552.1277469752399</v>
       </c>
-      <c r="JI46" s="26">
+      <c r="JI46" s="23">
         <v>-60.604078356639</v>
       </c>
-      <c r="JJ46" s="10"/>
+      <c r="JJ46" s="23">
+        <v>582.10672654170003</v>
+      </c>
     </row>
     <row r="47" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -36162,19 +36254,21 @@
       <c r="JE47" s="6">
         <v>-82.623071473161005</v>
       </c>
-      <c r="JF47" s="20">
+      <c r="JF47" s="17">
         <v>787.010821499381</v>
       </c>
-      <c r="JG47" s="25">
+      <c r="JG47" s="22">
         <v>836.93144404956797</v>
       </c>
       <c r="JH47" s="6">
         <v>1746.2804896566299</v>
       </c>
-      <c r="JI47" s="26">
+      <c r="JI47" s="23">
         <v>87.200761134888396</v>
       </c>
-      <c r="JJ47" s="10"/>
+      <c r="JJ47" s="23">
+        <v>717.15126447456703</v>
+      </c>
     </row>
     <row r="48" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -36756,19 +36850,21 @@
       <c r="JE48" s="6">
         <v>402.09355977688398</v>
       </c>
-      <c r="JF48" s="20">
+      <c r="JF48" s="17">
         <v>473.22609708532798</v>
       </c>
-      <c r="JG48" s="25">
+      <c r="JG48" s="22">
         <v>420.79673968133699</v>
       </c>
       <c r="JH48" s="6">
         <v>1633.42706376613</v>
       </c>
-      <c r="JI48" s="26">
+      <c r="JI48" s="23">
         <v>-264.02054638926001</v>
       </c>
-      <c r="JJ48" s="10"/>
+      <c r="JJ48" s="23">
+        <v>421.56206610958202</v>
+      </c>
     </row>
     <row r="49" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -37350,19 +37446,21 @@
       <c r="JE49" s="6">
         <v>-484.71663125005</v>
       </c>
-      <c r="JF49" s="20">
+      <c r="JF49" s="17">
         <v>313.78472441405199</v>
       </c>
-      <c r="JG49" s="25">
+      <c r="JG49" s="22">
         <v>416.13470436823098</v>
       </c>
       <c r="JH49" s="6">
         <v>112.853425890501</v>
       </c>
-      <c r="JI49" s="26">
+      <c r="JI49" s="23">
         <v>351.22130752414301</v>
       </c>
-      <c r="JJ49" s="10"/>
+      <c r="JJ49" s="23">
+        <v>295.58919836498501</v>
+      </c>
     </row>
     <row r="50" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -38160,19 +38258,21 @@
       <c r="JE50" s="6">
         <v>27.945576278255199</v>
       </c>
-      <c r="JF50" s="20">
+      <c r="JF50" s="17">
         <v>55.701384237780402</v>
       </c>
-      <c r="JG50" s="25">
+      <c r="JG50" s="22">
         <v>-151.64196798133</v>
       </c>
       <c r="JH50" s="6">
         <v>-194.15274268139001</v>
       </c>
-      <c r="JI50" s="26">
+      <c r="JI50" s="23">
         <v>-147.80483949153</v>
       </c>
-      <c r="JJ50" s="10"/>
+      <c r="JJ50" s="23">
+        <v>-135.04453793287001</v>
+      </c>
     </row>
     <row r="51" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -38970,19 +39070,21 @@
       <c r="JE51" s="6">
         <v>22.1366587882811</v>
       </c>
-      <c r="JF51" s="20">
+      <c r="JF51" s="17">
         <v>78.743436681761096</v>
       </c>
-      <c r="JG51" s="25">
+      <c r="JG51" s="22">
         <v>-36.653965101954</v>
       </c>
       <c r="JH51" s="6">
         <v>-9.5002580426981993</v>
       </c>
-      <c r="JI51" s="26">
+      <c r="JI51" s="23">
         <v>-103.67128238254</v>
       </c>
-      <c r="JJ51" s="10"/>
+      <c r="JJ51" s="23">
+        <v>-192.31740845438</v>
+      </c>
     </row>
     <row r="52" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
@@ -39780,305 +39882,298 @@
       <c r="JE52" s="8">
         <v>5.8089174899741796</v>
       </c>
-      <c r="JF52" s="21">
+      <c r="JF52" s="18">
         <v>-23.042052443980999</v>
       </c>
-      <c r="JG52" s="27">
+      <c r="JG52" s="24">
         <v>-114.98800287938001</v>
       </c>
       <c r="JH52" s="8">
         <v>-184.65248463869</v>
       </c>
-      <c r="JI52" s="28">
+      <c r="JI52" s="25">
         <v>-44.133557108985997</v>
       </c>
-      <c r="JJ52" s="10"/>
+      <c r="JJ52" s="25">
+        <v>57.272870521518101</v>
+      </c>
     </row>
     <row r="54" spans="1:270" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="40"/>
-      <c r="AC54" s="40"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="40"/>
-      <c r="AG54" s="40"/>
-      <c r="AH54" s="40"/>
-      <c r="AI54" s="40"/>
-      <c r="AJ54" s="40"/>
-      <c r="AK54" s="40"/>
-      <c r="AL54" s="40"/>
-      <c r="AM54" s="40"/>
-      <c r="AN54" s="40"/>
-      <c r="AO54" s="40"/>
-      <c r="AP54" s="40"/>
-      <c r="AQ54" s="40"/>
-      <c r="AR54" s="40"/>
-      <c r="AS54" s="40"/>
-      <c r="AT54" s="40"/>
-      <c r="AU54" s="40"/>
-      <c r="AV54" s="40"/>
-      <c r="AW54" s="40"/>
-      <c r="AX54" s="40"/>
-      <c r="AY54" s="40"/>
-      <c r="AZ54" s="40"/>
-      <c r="BA54" s="40"/>
-      <c r="BB54" s="40"/>
-      <c r="BC54" s="40"/>
-      <c r="BD54" s="40"/>
-      <c r="BE54" s="40"/>
-      <c r="BF54" s="40"/>
-      <c r="BG54" s="40"/>
-      <c r="BH54" s="40"/>
-      <c r="BI54" s="40"/>
-      <c r="BJ54" s="40"/>
-      <c r="BK54" s="40"/>
-      <c r="BL54" s="40"/>
-      <c r="BM54" s="40"/>
-      <c r="BN54" s="40"/>
-      <c r="BO54" s="40"/>
-      <c r="BP54" s="40"/>
-      <c r="BQ54" s="40"/>
-      <c r="BR54" s="40"/>
-      <c r="BS54" s="40"/>
-      <c r="BT54" s="40"/>
-      <c r="BU54" s="40"/>
-      <c r="BV54" s="40"/>
-      <c r="BW54" s="40"/>
-      <c r="BX54" s="40"/>
-      <c r="BY54" s="40"/>
-      <c r="BZ54" s="40"/>
-      <c r="CA54" s="40"/>
-      <c r="CB54" s="40"/>
-      <c r="CC54" s="40"/>
-      <c r="CD54" s="40"/>
-      <c r="CE54" s="40"/>
-      <c r="CF54" s="40"/>
-      <c r="CG54" s="40"/>
-      <c r="CH54" s="40"/>
-      <c r="CI54" s="40"/>
-      <c r="CJ54" s="40"/>
-      <c r="CK54" s="40"/>
-      <c r="CL54" s="40"/>
-      <c r="CM54" s="40"/>
-      <c r="CN54" s="40"/>
-      <c r="CO54" s="40"/>
-      <c r="CP54" s="40"/>
-      <c r="CQ54" s="40"/>
-      <c r="CR54" s="40"/>
-      <c r="CS54" s="40"/>
-      <c r="CT54" s="40"/>
-      <c r="CU54" s="40"/>
-      <c r="CV54" s="40"/>
-      <c r="CW54" s="40"/>
-      <c r="CX54" s="40"/>
-      <c r="CY54" s="40"/>
-      <c r="CZ54" s="40"/>
-      <c r="DA54" s="40"/>
-      <c r="DB54" s="40"/>
-      <c r="DC54" s="40"/>
-      <c r="DD54" s="40"/>
-      <c r="DE54" s="40"/>
-      <c r="DF54" s="40"/>
-      <c r="DG54" s="40"/>
-      <c r="DH54" s="40"/>
-      <c r="DI54" s="40"/>
-      <c r="DJ54" s="40"/>
-      <c r="DK54" s="40"/>
-      <c r="DL54" s="40"/>
-      <c r="DM54" s="40"/>
-      <c r="DN54" s="40"/>
-      <c r="DO54" s="40"/>
-      <c r="DP54" s="40"/>
-      <c r="DQ54" s="40"/>
-      <c r="DR54" s="40"/>
-      <c r="DS54" s="40"/>
-      <c r="DT54" s="40"/>
-      <c r="DU54" s="40"/>
-      <c r="DV54" s="40"/>
-      <c r="DW54" s="40"/>
-      <c r="DX54" s="40"/>
-      <c r="DY54" s="40"/>
-      <c r="DZ54" s="40"/>
-      <c r="EA54" s="40"/>
-      <c r="EB54" s="40"/>
-      <c r="EC54" s="40"/>
-      <c r="ED54" s="40"/>
-      <c r="EE54" s="40"/>
-      <c r="EF54" s="40"/>
-      <c r="EG54" s="40"/>
-      <c r="EH54" s="40"/>
-      <c r="EI54" s="40"/>
-      <c r="EJ54" s="40"/>
-      <c r="EK54" s="40"/>
-      <c r="EL54" s="40"/>
-      <c r="EM54" s="40"/>
-      <c r="EN54" s="40"/>
-      <c r="EO54" s="40"/>
-      <c r="EP54" s="40"/>
-      <c r="EQ54" s="40"/>
-      <c r="ER54" s="40"/>
-      <c r="ES54" s="40"/>
-      <c r="ET54" s="40"/>
-      <c r="EU54" s="40"/>
-      <c r="EV54" s="40"/>
-      <c r="EW54" s="40"/>
-      <c r="EX54" s="40"/>
-      <c r="EY54" s="40"/>
-      <c r="EZ54" s="40"/>
-      <c r="FA54" s="40"/>
-      <c r="FB54" s="40"/>
-      <c r="FC54" s="40"/>
-      <c r="FD54" s="40"/>
-      <c r="FE54" s="40"/>
-      <c r="FF54" s="40"/>
-      <c r="FG54" s="40"/>
-      <c r="FH54" s="40"/>
-      <c r="FI54" s="40"/>
-      <c r="FJ54" s="40"/>
-      <c r="FK54" s="40"/>
-      <c r="FL54" s="40"/>
-      <c r="FM54" s="40"/>
-      <c r="FN54" s="40"/>
-      <c r="FO54" s="40"/>
-      <c r="FP54" s="40"/>
-      <c r="FQ54" s="40"/>
-      <c r="FR54" s="40"/>
-      <c r="FS54" s="40"/>
-      <c r="FT54" s="40"/>
-      <c r="FU54" s="40"/>
-      <c r="FV54" s="40"/>
-      <c r="FW54" s="40"/>
-      <c r="FX54" s="40"/>
-      <c r="FY54" s="40"/>
-      <c r="FZ54" s="40"/>
-      <c r="GA54" s="40"/>
-      <c r="GB54" s="40"/>
-      <c r="GC54" s="40"/>
-      <c r="GD54" s="40"/>
-      <c r="GE54" s="40"/>
-      <c r="GF54" s="40"/>
-      <c r="GG54" s="40"/>
-      <c r="GH54" s="40"/>
-      <c r="GI54" s="40"/>
-      <c r="GJ54" s="40"/>
-      <c r="GK54" s="40"/>
-      <c r="GL54" s="40"/>
-      <c r="GM54" s="40"/>
-      <c r="GN54" s="40"/>
-      <c r="GO54" s="40"/>
-      <c r="GP54" s="40"/>
-      <c r="GQ54" s="40"/>
-      <c r="GR54" s="40"/>
-      <c r="GS54" s="40"/>
-      <c r="GT54" s="40"/>
-      <c r="GU54" s="40"/>
-      <c r="GV54" s="40"/>
-      <c r="GW54" s="40"/>
-      <c r="GX54" s="40"/>
-      <c r="GY54" s="40"/>
-      <c r="GZ54" s="40"/>
-      <c r="HA54" s="40"/>
-      <c r="HB54" s="40"/>
-      <c r="HC54" s="40"/>
-      <c r="HD54" s="40"/>
-      <c r="HE54" s="40"/>
-      <c r="HF54" s="40"/>
-      <c r="HG54" s="40"/>
-      <c r="HH54" s="40"/>
-      <c r="HI54" s="40"/>
-      <c r="HJ54" s="40"/>
-      <c r="HK54" s="40"/>
-      <c r="HL54" s="40"/>
-      <c r="HM54" s="40"/>
-      <c r="HN54" s="40"/>
-      <c r="HO54" s="40"/>
-      <c r="HP54" s="40"/>
-      <c r="HQ54" s="40"/>
-      <c r="HR54" s="40"/>
-      <c r="HS54" s="40"/>
-      <c r="HT54" s="40"/>
-      <c r="HU54" s="40"/>
-      <c r="HV54" s="40"/>
-      <c r="HW54" s="40"/>
-      <c r="HX54" s="40"/>
-      <c r="HY54" s="40"/>
-      <c r="HZ54" s="40"/>
-      <c r="IA54" s="40"/>
-      <c r="IB54" s="40"/>
-      <c r="IC54" s="40"/>
-      <c r="ID54" s="40"/>
-      <c r="IE54" s="40"/>
-      <c r="IF54" s="40"/>
-      <c r="IG54" s="40"/>
-      <c r="IH54" s="40"/>
-      <c r="II54" s="40"/>
-      <c r="IJ54" s="40"/>
-      <c r="IK54" s="40"/>
-      <c r="IL54" s="40"/>
-      <c r="IM54" s="40"/>
-      <c r="IN54" s="40"/>
-      <c r="IO54" s="40"/>
-      <c r="IP54" s="40"/>
-      <c r="IQ54" s="40"/>
-      <c r="IR54" s="40"/>
-      <c r="IS54" s="40"/>
-      <c r="IT54" s="40"/>
-      <c r="IU54" s="40"/>
-      <c r="IV54" s="40"/>
-      <c r="IW54" s="40"/>
-      <c r="IX54" s="40"/>
-      <c r="IY54" s="40"/>
-      <c r="IZ54" s="40"/>
-      <c r="JA54" s="40"/>
-      <c r="JB54" s="40"/>
-      <c r="JC54" s="40"/>
-      <c r="JD54" s="40"/>
-      <c r="JE54" s="40"/>
-      <c r="JF54" s="40"/>
-      <c r="JG54" s="40"/>
-      <c r="JH54" s="40"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="34"/>
+      <c r="AH54" s="34"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="34"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="34"/>
+      <c r="AO54" s="34"/>
+      <c r="AP54" s="34"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="34"/>
+      <c r="AS54" s="34"/>
+      <c r="AT54" s="34"/>
+      <c r="AU54" s="34"/>
+      <c r="AV54" s="34"/>
+      <c r="AW54" s="34"/>
+      <c r="AX54" s="34"/>
+      <c r="AY54" s="34"/>
+      <c r="AZ54" s="34"/>
+      <c r="BA54" s="34"/>
+      <c r="BB54" s="34"/>
+      <c r="BC54" s="34"/>
+      <c r="BD54" s="34"/>
+      <c r="BE54" s="34"/>
+      <c r="BF54" s="34"/>
+      <c r="BG54" s="34"/>
+      <c r="BH54" s="34"/>
+      <c r="BI54" s="34"/>
+      <c r="BJ54" s="34"/>
+      <c r="BK54" s="34"/>
+      <c r="BL54" s="34"/>
+      <c r="BM54" s="34"/>
+      <c r="BN54" s="34"/>
+      <c r="BO54" s="34"/>
+      <c r="BP54" s="34"/>
+      <c r="BQ54" s="34"/>
+      <c r="BR54" s="34"/>
+      <c r="BS54" s="34"/>
+      <c r="BT54" s="34"/>
+      <c r="BU54" s="34"/>
+      <c r="BV54" s="34"/>
+      <c r="BW54" s="34"/>
+      <c r="BX54" s="34"/>
+      <c r="BY54" s="34"/>
+      <c r="BZ54" s="34"/>
+      <c r="CA54" s="34"/>
+      <c r="CB54" s="34"/>
+      <c r="CC54" s="34"/>
+      <c r="CD54" s="34"/>
+      <c r="CE54" s="34"/>
+      <c r="CF54" s="34"/>
+      <c r="CG54" s="34"/>
+      <c r="CH54" s="34"/>
+      <c r="CI54" s="34"/>
+      <c r="CJ54" s="34"/>
+      <c r="CK54" s="34"/>
+      <c r="CL54" s="34"/>
+      <c r="CM54" s="34"/>
+      <c r="CN54" s="34"/>
+      <c r="CO54" s="34"/>
+      <c r="CP54" s="34"/>
+      <c r="CQ54" s="34"/>
+      <c r="CR54" s="34"/>
+      <c r="CS54" s="34"/>
+      <c r="CT54" s="34"/>
+      <c r="CU54" s="34"/>
+      <c r="CV54" s="34"/>
+      <c r="CW54" s="34"/>
+      <c r="CX54" s="34"/>
+      <c r="CY54" s="34"/>
+      <c r="CZ54" s="34"/>
+      <c r="DA54" s="34"/>
+      <c r="DB54" s="34"/>
+      <c r="DC54" s="34"/>
+      <c r="DD54" s="34"/>
+      <c r="DE54" s="34"/>
+      <c r="DF54" s="34"/>
+      <c r="DG54" s="34"/>
+      <c r="DH54" s="34"/>
+      <c r="DI54" s="34"/>
+      <c r="DJ54" s="34"/>
+      <c r="DK54" s="34"/>
+      <c r="DL54" s="34"/>
+      <c r="DM54" s="34"/>
+      <c r="DN54" s="34"/>
+      <c r="DO54" s="34"/>
+      <c r="DP54" s="34"/>
+      <c r="DQ54" s="34"/>
+      <c r="DR54" s="34"/>
+      <c r="DS54" s="34"/>
+      <c r="DT54" s="34"/>
+      <c r="DU54" s="34"/>
+      <c r="DV54" s="34"/>
+      <c r="DW54" s="34"/>
+      <c r="DX54" s="34"/>
+      <c r="DY54" s="34"/>
+      <c r="DZ54" s="34"/>
+      <c r="EA54" s="34"/>
+      <c r="EB54" s="34"/>
+      <c r="EC54" s="34"/>
+      <c r="ED54" s="34"/>
+      <c r="EE54" s="34"/>
+      <c r="EF54" s="34"/>
+      <c r="EG54" s="34"/>
+      <c r="EH54" s="34"/>
+      <c r="EI54" s="34"/>
+      <c r="EJ54" s="34"/>
+      <c r="EK54" s="34"/>
+      <c r="EL54" s="34"/>
+      <c r="EM54" s="34"/>
+      <c r="EN54" s="34"/>
+      <c r="EO54" s="34"/>
+      <c r="EP54" s="34"/>
+      <c r="EQ54" s="34"/>
+      <c r="ER54" s="34"/>
+      <c r="ES54" s="34"/>
+      <c r="ET54" s="34"/>
+      <c r="EU54" s="34"/>
+      <c r="EV54" s="34"/>
+      <c r="EW54" s="34"/>
+      <c r="EX54" s="34"/>
+      <c r="EY54" s="34"/>
+      <c r="EZ54" s="34"/>
+      <c r="FA54" s="34"/>
+      <c r="FB54" s="34"/>
+      <c r="FC54" s="34"/>
+      <c r="FD54" s="34"/>
+      <c r="FE54" s="34"/>
+      <c r="FF54" s="34"/>
+      <c r="FG54" s="34"/>
+      <c r="FH54" s="34"/>
+      <c r="FI54" s="34"/>
+      <c r="FJ54" s="34"/>
+      <c r="FK54" s="34"/>
+      <c r="FL54" s="34"/>
+      <c r="FM54" s="34"/>
+      <c r="FN54" s="34"/>
+      <c r="FO54" s="34"/>
+      <c r="FP54" s="34"/>
+      <c r="FQ54" s="34"/>
+      <c r="FR54" s="34"/>
+      <c r="FS54" s="34"/>
+      <c r="FT54" s="34"/>
+      <c r="FU54" s="34"/>
+      <c r="FV54" s="34"/>
+      <c r="FW54" s="34"/>
+      <c r="FX54" s="34"/>
+      <c r="FY54" s="34"/>
+      <c r="FZ54" s="34"/>
+      <c r="GA54" s="34"/>
+      <c r="GB54" s="34"/>
+      <c r="GC54" s="34"/>
+      <c r="GD54" s="34"/>
+      <c r="GE54" s="34"/>
+      <c r="GF54" s="34"/>
+      <c r="GG54" s="34"/>
+      <c r="GH54" s="34"/>
+      <c r="GI54" s="34"/>
+      <c r="GJ54" s="34"/>
+      <c r="GK54" s="34"/>
+      <c r="GL54" s="34"/>
+      <c r="GM54" s="34"/>
+      <c r="GN54" s="34"/>
+      <c r="GO54" s="34"/>
+      <c r="GP54" s="34"/>
+      <c r="GQ54" s="34"/>
+      <c r="GR54" s="34"/>
+      <c r="GS54" s="34"/>
+      <c r="GT54" s="34"/>
+      <c r="GU54" s="34"/>
+      <c r="GV54" s="34"/>
+      <c r="GW54" s="34"/>
+      <c r="GX54" s="34"/>
+      <c r="GY54" s="34"/>
+      <c r="GZ54" s="34"/>
+      <c r="HA54" s="34"/>
+      <c r="HB54" s="34"/>
+      <c r="HC54" s="34"/>
+      <c r="HD54" s="34"/>
+      <c r="HE54" s="34"/>
+      <c r="HF54" s="34"/>
+      <c r="HG54" s="34"/>
+      <c r="HH54" s="34"/>
+      <c r="HI54" s="34"/>
+      <c r="HJ54" s="34"/>
+      <c r="HK54" s="34"/>
+      <c r="HL54" s="34"/>
+      <c r="HM54" s="34"/>
+      <c r="HN54" s="34"/>
+      <c r="HO54" s="34"/>
+      <c r="HP54" s="34"/>
+      <c r="HQ54" s="34"/>
+      <c r="HR54" s="34"/>
+      <c r="HS54" s="34"/>
+      <c r="HT54" s="34"/>
+      <c r="HU54" s="34"/>
+      <c r="HV54" s="34"/>
+      <c r="HW54" s="34"/>
+      <c r="HX54" s="34"/>
+      <c r="HY54" s="34"/>
+      <c r="HZ54" s="34"/>
+      <c r="IA54" s="34"/>
+      <c r="IB54" s="34"/>
+      <c r="IC54" s="34"/>
+      <c r="ID54" s="34"/>
+      <c r="IE54" s="34"/>
+      <c r="IF54" s="34"/>
+      <c r="IG54" s="34"/>
+      <c r="IH54" s="34"/>
+      <c r="II54" s="34"/>
+      <c r="IJ54" s="34"/>
+      <c r="IK54" s="34"/>
+      <c r="IL54" s="34"/>
+      <c r="IM54" s="34"/>
+      <c r="IN54" s="34"/>
+      <c r="IO54" s="34"/>
+      <c r="IP54" s="34"/>
+      <c r="IQ54" s="34"/>
+      <c r="IR54" s="34"/>
+      <c r="IS54" s="34"/>
+      <c r="IT54" s="34"/>
+      <c r="IU54" s="34"/>
+      <c r="IV54" s="34"/>
+      <c r="IW54" s="34"/>
+      <c r="IX54" s="34"/>
+      <c r="IY54" s="34"/>
+      <c r="IZ54" s="34"/>
+      <c r="JA54" s="34"/>
+      <c r="JB54" s="34"/>
+      <c r="JC54" s="34"/>
+      <c r="JD54" s="34"/>
+      <c r="JE54" s="34"/>
+      <c r="JF54" s="34"/>
+      <c r="JG54" s="34"/>
+      <c r="JH54" s="34"/>
       <c r="JI54"/>
+      <c r="JJ54" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A54:JH54"/>
-    <mergeCell ref="IH4:IS4"/>
-    <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="DF4:DQ4"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="Z4:AK4"/>
-    <mergeCell ref="AL4:AW4"/>
-    <mergeCell ref="AX4:BI4"/>
-    <mergeCell ref="A44:JI44"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -40095,6 +40190,16 @@
     <mergeCell ref="BV4:CG4"/>
     <mergeCell ref="CH4:CS4"/>
     <mergeCell ref="CT4:DE4"/>
+    <mergeCell ref="A54:JH54"/>
+    <mergeCell ref="IH4:IS4"/>
+    <mergeCell ref="IT4:JE4"/>
+    <mergeCell ref="DF4:DQ4"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="AL4:AW4"/>
+    <mergeCell ref="AX4:BI4"/>
+    <mergeCell ref="A44:JI44"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -40124,64 +40229,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>2003</v>
       </c>
       <c r="C4" s="1">
@@ -40249,10 +40354,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>931.79317399879801</v>
       </c>
       <c r="C5" s="4">
@@ -40320,10 +40425,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>4418.4340347796797</v>
       </c>
       <c r="C6" s="4">
@@ -40391,10 +40496,10 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <v>3486.6408607808798</v>
       </c>
       <c r="C7" s="4">
@@ -40462,10 +40567,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>-1666.2471217358</v>
       </c>
       <c r="C8" s="4">
@@ -40533,10 +40638,10 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>1819.48130001444</v>
       </c>
       <c r="C9" s="6">
@@ -40604,10 +40709,10 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>587.84219239000004</v>
       </c>
       <c r="C10" s="6">
@@ -40675,10 +40780,10 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>574.44112347197802</v>
       </c>
       <c r="C11" s="6">
@@ -40746,10 +40851,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>657.19798415246305</v>
       </c>
       <c r="C12" s="6">
@@ -40817,10 +40922,10 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>3485.7284217502702</v>
       </c>
       <c r="C13" s="6">
@@ -40888,10 +40993,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>1546.397020831</v>
       </c>
       <c r="C14" s="6">
@@ -40959,10 +41064,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>-477.85101517477</v>
       </c>
       <c r="C15" s="6">
@@ -41030,10 +41135,10 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>2417.18241609403</v>
       </c>
       <c r="C16" s="6">
@@ -41101,10 +41206,10 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <v>3288.1294299749502</v>
       </c>
       <c r="C17" s="4">
@@ -41172,10 +41277,10 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="28">
         <v>4698.9805120803003</v>
       </c>
       <c r="C18" s="6">
@@ -41243,10 +41348,10 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="28">
         <v>4853.4592857362204</v>
       </c>
       <c r="C19" s="6">
@@ -41314,10 +41419,10 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="28">
         <v>-154.47877365592001</v>
       </c>
       <c r="C20" s="6">
@@ -41385,10 +41490,10 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <v>8.5069365140774398</v>
       </c>
       <c r="C21" s="6">
@@ -41456,10 +41561,10 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="28">
         <v>-162.98571017</v>
       </c>
       <c r="C22" s="6">
@@ -41527,10 +41632,10 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>1410.8510821053501</v>
       </c>
       <c r="C23" s="6">
@@ -41598,10 +41703,10 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="28">
         <v>317.74047755300001</v>
       </c>
       <c r="C24" s="6">
@@ -41669,10 +41774,10 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="28">
         <v>1093.11060455235</v>
       </c>
       <c r="C25" s="6">
@@ -41740,10 +41845,10 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="28">
         <v>1093.11060455235</v>
       </c>
       <c r="C26" s="6">
@@ -41811,10 +41916,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="28">
         <v>0</v>
       </c>
       <c r="C27" s="6">
@@ -41882,10 +41987,10 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="27">
         <v>-117.63091175308</v>
       </c>
       <c r="C28" s="4">
@@ -41953,10 +42058,10 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="27">
         <v>-206.85822248724</v>
       </c>
       <c r="C29" s="4">
@@ -42024,10 +42129,10 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="28">
         <v>105.60313443802301</v>
       </c>
       <c r="C30" s="6">
@@ -42095,10 +42200,10 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="28">
         <v>60</v>
       </c>
       <c r="C31" s="6">
@@ -42166,10 +42271,10 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="28">
         <v>547.31113443802303</v>
       </c>
       <c r="C32" s="6">
@@ -42237,10 +42342,10 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="28">
         <v>-43.619</v>
       </c>
       <c r="C33" s="6">
@@ -42308,10 +42413,10 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="28">
         <v>-458.089</v>
       </c>
       <c r="C34" s="6">
@@ -42379,10 +42484,10 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="28">
         <v>0</v>
       </c>
       <c r="C35" s="6">
@@ -42450,10 +42555,10 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="28">
         <v>312.46135692526298</v>
       </c>
       <c r="C36" s="6">
@@ -42521,10 +42626,10 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="28">
         <v>-213.67901805028001</v>
       </c>
       <c r="C37" s="6">
@@ -42592,10 +42697,10 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="28">
         <v>476.18700026532503</v>
       </c>
       <c r="C38" s="6">
@@ -42663,10 +42768,10 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="28">
         <v>52.254000710218698</v>
       </c>
       <c r="C39" s="6">
@@ -42734,10 +42839,10 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="28">
         <v>-2.23165441</v>
       </c>
       <c r="C40" s="6">
@@ -42805,10 +42910,10 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="28">
         <v>-6.8971589999999999E-2</v>
       </c>
       <c r="C41" s="6">
@@ -42876,10 +42981,10 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="27">
         <v>-365.6</v>
       </c>
       <c r="C42" s="4">
@@ -42947,31 +43052,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -43506,31 +43611,31 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\04_PRODUCTOS\02_CF\CF.07.07.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.08.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADD349-BE9D-4802-A280-6A8ADC6A4639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E070CEB8-5008-46D1-AE3D-4EDE6EBE8A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="4485" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -254,7 +254,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBFE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -779,11 +791,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -794,32 +818,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,13 +978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JJ54"/>
+  <dimension ref="A1:JK54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IP6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IR6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="JM41" sqref="JM41"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1021,878 +1045,882 @@
     <col min="187" max="189" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="190" max="190" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="191" max="265" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="6.28515625" customWidth="1"/>
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="269" max="270" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="7.7109375" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="40"/>
-      <c r="CK1" s="40"/>
-      <c r="CL1" s="40"/>
-      <c r="CM1" s="40"/>
-      <c r="CN1" s="40"/>
-      <c r="CO1" s="40"/>
-      <c r="CP1" s="40"/>
-      <c r="CQ1" s="40"/>
-      <c r="CR1" s="40"/>
-      <c r="CS1" s="40"/>
-      <c r="CT1" s="40"/>
-      <c r="CU1" s="40"/>
-      <c r="CV1" s="40"/>
-      <c r="CW1" s="40"/>
-      <c r="CX1" s="40"/>
-      <c r="CY1" s="40"/>
-      <c r="CZ1" s="40"/>
-      <c r="DA1" s="40"/>
-      <c r="DB1" s="40"/>
-      <c r="DC1" s="40"/>
-      <c r="DD1" s="40"/>
-      <c r="DE1" s="40"/>
-      <c r="DF1" s="40"/>
-      <c r="DG1" s="40"/>
-      <c r="DH1" s="40"/>
-      <c r="DI1" s="40"/>
-      <c r="DJ1" s="40"/>
-      <c r="DK1" s="40"/>
-      <c r="DL1" s="40"/>
-      <c r="DM1" s="40"/>
-      <c r="DN1" s="40"/>
-      <c r="DO1" s="40"/>
-      <c r="DP1" s="40"/>
-      <c r="DQ1" s="40"/>
-      <c r="DR1" s="40"/>
-      <c r="DS1" s="40"/>
-      <c r="DT1" s="40"/>
-      <c r="DU1" s="40"/>
-      <c r="DV1" s="40"/>
-      <c r="DW1" s="40"/>
-      <c r="DX1" s="40"/>
-      <c r="DY1" s="40"/>
-      <c r="DZ1" s="40"/>
-      <c r="EA1" s="40"/>
-      <c r="EB1" s="40"/>
-      <c r="EC1" s="40"/>
-      <c r="ED1" s="40"/>
-      <c r="EE1" s="40"/>
-      <c r="EF1" s="40"/>
-      <c r="EG1" s="40"/>
-      <c r="EH1" s="40"/>
-      <c r="EI1" s="40"/>
-      <c r="EJ1" s="40"/>
-      <c r="EK1" s="40"/>
-      <c r="EL1" s="40"/>
-      <c r="EM1" s="40"/>
-      <c r="EN1" s="40"/>
-      <c r="EO1" s="40"/>
-      <c r="EP1" s="40"/>
-      <c r="EQ1" s="40"/>
-      <c r="ER1" s="40"/>
-      <c r="ES1" s="40"/>
-      <c r="ET1" s="40"/>
-      <c r="EU1" s="40"/>
-      <c r="EV1" s="40"/>
-      <c r="EW1" s="40"/>
-      <c r="EX1" s="40"/>
-      <c r="EY1" s="40"/>
-      <c r="EZ1" s="40"/>
-      <c r="FA1" s="40"/>
-      <c r="FB1" s="40"/>
-      <c r="FC1" s="40"/>
-      <c r="FD1" s="40"/>
-      <c r="FE1" s="40"/>
-      <c r="FF1" s="40"/>
-      <c r="FG1" s="40"/>
-      <c r="FH1" s="40"/>
-      <c r="FI1" s="40"/>
-      <c r="FJ1" s="40"/>
-      <c r="FK1" s="40"/>
-      <c r="FL1" s="40"/>
-      <c r="FM1" s="40"/>
-      <c r="FN1" s="40"/>
-      <c r="FO1" s="40"/>
-      <c r="FP1" s="40"/>
-      <c r="FQ1" s="40"/>
-      <c r="FR1" s="40"/>
-      <c r="FS1" s="40"/>
-      <c r="FT1" s="40"/>
-      <c r="FU1" s="40"/>
-      <c r="FV1" s="40"/>
-      <c r="FW1" s="40"/>
-      <c r="FX1" s="40"/>
-      <c r="FY1" s="40"/>
-      <c r="FZ1" s="40"/>
-      <c r="GA1" s="40"/>
-      <c r="GB1" s="40"/>
-      <c r="GC1" s="40"/>
-      <c r="GD1" s="40"/>
-      <c r="GE1" s="40"/>
-      <c r="GF1" s="40"/>
-      <c r="GG1" s="40"/>
-      <c r="GH1" s="40"/>
-      <c r="GI1" s="40"/>
-      <c r="GJ1" s="40"/>
-      <c r="GK1" s="40"/>
-      <c r="GL1" s="40"/>
-      <c r="GM1" s="40"/>
-      <c r="GN1" s="40"/>
-      <c r="GO1" s="40"/>
-      <c r="GP1" s="40"/>
-      <c r="GQ1" s="40"/>
-      <c r="GR1" s="40"/>
-      <c r="GS1" s="40"/>
-      <c r="GT1" s="40"/>
-      <c r="GU1" s="40"/>
-      <c r="GV1" s="40"/>
-      <c r="GW1" s="40"/>
-      <c r="GX1" s="40"/>
-      <c r="GY1" s="40"/>
-      <c r="GZ1" s="40"/>
-      <c r="HA1" s="40"/>
-      <c r="HB1" s="40"/>
-      <c r="HC1" s="40"/>
-      <c r="HD1" s="40"/>
-      <c r="HE1" s="40"/>
-      <c r="HF1" s="40"/>
-      <c r="HG1" s="40"/>
-      <c r="HH1" s="40"/>
-      <c r="HI1" s="40"/>
-      <c r="HJ1" s="40"/>
-      <c r="HK1" s="40"/>
-      <c r="HL1" s="40"/>
-      <c r="HM1" s="40"/>
-      <c r="HN1" s="40"/>
-      <c r="HO1" s="40"/>
-      <c r="HP1" s="40"/>
-      <c r="HQ1" s="40"/>
-      <c r="HR1" s="40"/>
-      <c r="HS1" s="40"/>
-      <c r="HT1" s="40"/>
-      <c r="HU1" s="40"/>
-      <c r="HV1" s="40"/>
-      <c r="HW1" s="40"/>
-      <c r="HX1" s="40"/>
-      <c r="HY1" s="40"/>
-      <c r="HZ1" s="40"/>
-      <c r="IA1" s="40"/>
-      <c r="IB1" s="40"/>
-      <c r="IC1" s="40"/>
-      <c r="ID1" s="40"/>
-      <c r="IE1" s="40"/>
-      <c r="IF1" s="40"/>
-      <c r="IG1" s="40"/>
-      <c r="IH1" s="40"/>
-      <c r="II1" s="40"/>
-      <c r="IJ1" s="40"/>
-      <c r="IK1" s="40"/>
-      <c r="IL1" s="40"/>
-      <c r="IM1" s="40"/>
-      <c r="IN1" s="40"/>
-      <c r="IO1" s="40"/>
-      <c r="IP1" s="40"/>
-      <c r="IQ1" s="40"/>
-      <c r="IR1" s="40"/>
-      <c r="IS1" s="40"/>
-      <c r="IT1" s="40"/>
-      <c r="IU1" s="40"/>
-      <c r="IV1" s="40"/>
-      <c r="IW1" s="40"/>
-      <c r="IX1" s="40"/>
-      <c r="IY1" s="40"/>
-      <c r="IZ1" s="40"/>
-      <c r="JA1" s="40"/>
-      <c r="JB1" s="40"/>
-      <c r="JC1" s="40"/>
-      <c r="JD1" s="40"/>
-      <c r="JE1" s="40"/>
-      <c r="JF1" s="40"/>
-      <c r="JG1" s="40"/>
-      <c r="JH1" s="40"/>
+    <row r="1" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="36"/>
+      <c r="EC1" s="36"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="36"/>
+      <c r="EH1" s="36"/>
+      <c r="EI1" s="36"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="36"/>
+      <c r="EM1" s="36"/>
+      <c r="EN1" s="36"/>
+      <c r="EO1" s="36"/>
+      <c r="EP1" s="36"/>
+      <c r="EQ1" s="36"/>
+      <c r="ER1" s="36"/>
+      <c r="ES1" s="36"/>
+      <c r="ET1" s="36"/>
+      <c r="EU1" s="36"/>
+      <c r="EV1" s="36"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="36"/>
+      <c r="EY1" s="36"/>
+      <c r="EZ1" s="36"/>
+      <c r="FA1" s="36"/>
+      <c r="FB1" s="36"/>
+      <c r="FC1" s="36"/>
+      <c r="FD1" s="36"/>
+      <c r="FE1" s="36"/>
+      <c r="FF1" s="36"/>
+      <c r="FG1" s="36"/>
+      <c r="FH1" s="36"/>
+      <c r="FI1" s="36"/>
+      <c r="FJ1" s="36"/>
+      <c r="FK1" s="36"/>
+      <c r="FL1" s="36"/>
+      <c r="FM1" s="36"/>
+      <c r="FN1" s="36"/>
+      <c r="FO1" s="36"/>
+      <c r="FP1" s="36"/>
+      <c r="FQ1" s="36"/>
+      <c r="FR1" s="36"/>
+      <c r="FS1" s="36"/>
+      <c r="FT1" s="36"/>
+      <c r="FU1" s="36"/>
+      <c r="FV1" s="36"/>
+      <c r="FW1" s="36"/>
+      <c r="FX1" s="36"/>
+      <c r="FY1" s="36"/>
+      <c r="FZ1" s="36"/>
+      <c r="GA1" s="36"/>
+      <c r="GB1" s="36"/>
+      <c r="GC1" s="36"/>
+      <c r="GD1" s="36"/>
+      <c r="GE1" s="36"/>
+      <c r="GF1" s="36"/>
+      <c r="GG1" s="36"/>
+      <c r="GH1" s="36"/>
+      <c r="GI1" s="36"/>
+      <c r="GJ1" s="36"/>
+      <c r="GK1" s="36"/>
+      <c r="GL1" s="36"/>
+      <c r="GM1" s="36"/>
+      <c r="GN1" s="36"/>
+      <c r="GO1" s="36"/>
+      <c r="GP1" s="36"/>
+      <c r="GQ1" s="36"/>
+      <c r="GR1" s="36"/>
+      <c r="GS1" s="36"/>
+      <c r="GT1" s="36"/>
+      <c r="GU1" s="36"/>
+      <c r="GV1" s="36"/>
+      <c r="GW1" s="36"/>
+      <c r="GX1" s="36"/>
+      <c r="GY1" s="36"/>
+      <c r="GZ1" s="36"/>
+      <c r="HA1" s="36"/>
+      <c r="HB1" s="36"/>
+      <c r="HC1" s="36"/>
+      <c r="HD1" s="36"/>
+      <c r="HE1" s="36"/>
+      <c r="HF1" s="36"/>
+      <c r="HG1" s="36"/>
+      <c r="HH1" s="36"/>
+      <c r="HI1" s="36"/>
+      <c r="HJ1" s="36"/>
+      <c r="HK1" s="36"/>
+      <c r="HL1" s="36"/>
+      <c r="HM1" s="36"/>
+      <c r="HN1" s="36"/>
+      <c r="HO1" s="36"/>
+      <c r="HP1" s="36"/>
+      <c r="HQ1" s="36"/>
+      <c r="HR1" s="36"/>
+      <c r="HS1" s="36"/>
+      <c r="HT1" s="36"/>
+      <c r="HU1" s="36"/>
+      <c r="HV1" s="36"/>
+      <c r="HW1" s="36"/>
+      <c r="HX1" s="36"/>
+      <c r="HY1" s="36"/>
+      <c r="HZ1" s="36"/>
+      <c r="IA1" s="36"/>
+      <c r="IB1" s="36"/>
+      <c r="IC1" s="36"/>
+      <c r="ID1" s="36"/>
+      <c r="IE1" s="36"/>
+      <c r="IF1" s="36"/>
+      <c r="IG1" s="36"/>
+      <c r="IH1" s="36"/>
+      <c r="II1" s="36"/>
+      <c r="IJ1" s="36"/>
+      <c r="IK1" s="36"/>
+      <c r="IL1" s="36"/>
+      <c r="IM1" s="36"/>
+      <c r="IN1" s="36"/>
+      <c r="IO1" s="36"/>
+      <c r="IP1" s="36"/>
+      <c r="IQ1" s="36"/>
+      <c r="IR1" s="36"/>
+      <c r="IS1" s="36"/>
+      <c r="IT1" s="36"/>
+      <c r="IU1" s="36"/>
+      <c r="IV1" s="36"/>
+      <c r="IW1" s="36"/>
+      <c r="IX1" s="36"/>
+      <c r="IY1" s="36"/>
+      <c r="IZ1" s="36"/>
+      <c r="JA1" s="36"/>
+      <c r="JB1" s="36"/>
+      <c r="JC1" s="36"/>
+      <c r="JD1" s="36"/>
+      <c r="JE1" s="36"/>
+      <c r="JF1" s="36"/>
+      <c r="JG1" s="36"/>
+      <c r="JH1" s="36"/>
       <c r="JI1"/>
       <c r="JJ1" s="33"/>
+      <c r="JK1"/>
     </row>
-    <row r="2" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="40"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
-      <c r="CJ2" s="40"/>
-      <c r="CK2" s="40"/>
-      <c r="CL2" s="40"/>
-      <c r="CM2" s="40"/>
-      <c r="CN2" s="40"/>
-      <c r="CO2" s="40"/>
-      <c r="CP2" s="40"/>
-      <c r="CQ2" s="40"/>
-      <c r="CR2" s="40"/>
-      <c r="CS2" s="40"/>
-      <c r="CT2" s="40"/>
-      <c r="CU2" s="40"/>
-      <c r="CV2" s="40"/>
-      <c r="CW2" s="40"/>
-      <c r="CX2" s="40"/>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
-      <c r="DA2" s="40"/>
-      <c r="DB2" s="40"/>
-      <c r="DC2" s="40"/>
-      <c r="DD2" s="40"/>
-      <c r="DE2" s="40"/>
-      <c r="DF2" s="40"/>
-      <c r="DG2" s="40"/>
-      <c r="DH2" s="40"/>
-      <c r="DI2" s="40"/>
-      <c r="DJ2" s="40"/>
-      <c r="DK2" s="40"/>
-      <c r="DL2" s="40"/>
-      <c r="DM2" s="40"/>
-      <c r="DN2" s="40"/>
-      <c r="DO2" s="40"/>
-      <c r="DP2" s="40"/>
-      <c r="DQ2" s="40"/>
-      <c r="DR2" s="40"/>
-      <c r="DS2" s="40"/>
-      <c r="DT2" s="40"/>
-      <c r="DU2" s="40"/>
-      <c r="DV2" s="40"/>
-      <c r="DW2" s="40"/>
-      <c r="DX2" s="40"/>
-      <c r="DY2" s="40"/>
-      <c r="DZ2" s="40"/>
-      <c r="EA2" s="40"/>
-      <c r="EB2" s="40"/>
-      <c r="EC2" s="40"/>
-      <c r="ED2" s="40"/>
-      <c r="EE2" s="40"/>
-      <c r="EF2" s="40"/>
-      <c r="EG2" s="40"/>
-      <c r="EH2" s="40"/>
-      <c r="EI2" s="40"/>
-      <c r="EJ2" s="40"/>
-      <c r="EK2" s="40"/>
-      <c r="EL2" s="40"/>
-      <c r="EM2" s="40"/>
-      <c r="EN2" s="40"/>
-      <c r="EO2" s="40"/>
-      <c r="EP2" s="40"/>
-      <c r="EQ2" s="40"/>
-      <c r="ER2" s="40"/>
-      <c r="ES2" s="40"/>
-      <c r="ET2" s="40"/>
-      <c r="EU2" s="40"/>
-      <c r="EV2" s="40"/>
-      <c r="EW2" s="40"/>
-      <c r="EX2" s="40"/>
-      <c r="EY2" s="40"/>
-      <c r="EZ2" s="40"/>
-      <c r="FA2" s="40"/>
-      <c r="FB2" s="40"/>
-      <c r="FC2" s="40"/>
-      <c r="FD2" s="40"/>
-      <c r="FE2" s="40"/>
-      <c r="FF2" s="40"/>
-      <c r="FG2" s="40"/>
-      <c r="FH2" s="40"/>
-      <c r="FI2" s="40"/>
-      <c r="FJ2" s="40"/>
-      <c r="FK2" s="40"/>
-      <c r="FL2" s="40"/>
-      <c r="FM2" s="40"/>
-      <c r="FN2" s="40"/>
-      <c r="FO2" s="40"/>
-      <c r="FP2" s="40"/>
-      <c r="FQ2" s="40"/>
-      <c r="FR2" s="40"/>
-      <c r="FS2" s="40"/>
-      <c r="FT2" s="40"/>
-      <c r="FU2" s="40"/>
-      <c r="FV2" s="40"/>
-      <c r="FW2" s="40"/>
-      <c r="FX2" s="40"/>
-      <c r="FY2" s="40"/>
-      <c r="FZ2" s="40"/>
-      <c r="GA2" s="40"/>
-      <c r="GB2" s="40"/>
-      <c r="GC2" s="40"/>
-      <c r="GD2" s="40"/>
-      <c r="GE2" s="40"/>
-      <c r="GF2" s="40"/>
-      <c r="GG2" s="40"/>
-      <c r="GH2" s="40"/>
-      <c r="GI2" s="40"/>
-      <c r="GJ2" s="40"/>
-      <c r="GK2" s="40"/>
-      <c r="GL2" s="40"/>
-      <c r="GM2" s="40"/>
-      <c r="GN2" s="40"/>
-      <c r="GO2" s="40"/>
-      <c r="GP2" s="40"/>
-      <c r="GQ2" s="40"/>
-      <c r="GR2" s="40"/>
-      <c r="GS2" s="40"/>
-      <c r="GT2" s="40"/>
-      <c r="GU2" s="40"/>
-      <c r="GV2" s="40"/>
-      <c r="GW2" s="40"/>
-      <c r="GX2" s="40"/>
-      <c r="GY2" s="40"/>
-      <c r="GZ2" s="40"/>
-      <c r="HA2" s="40"/>
-      <c r="HB2" s="40"/>
-      <c r="HC2" s="40"/>
-      <c r="HD2" s="40"/>
-      <c r="HE2" s="40"/>
-      <c r="HF2" s="40"/>
-      <c r="HG2" s="40"/>
-      <c r="HH2" s="40"/>
-      <c r="HI2" s="40"/>
-      <c r="HJ2" s="40"/>
-      <c r="HK2" s="40"/>
-      <c r="HL2" s="40"/>
-      <c r="HM2" s="40"/>
-      <c r="HN2" s="40"/>
-      <c r="HO2" s="40"/>
-      <c r="HP2" s="40"/>
-      <c r="HQ2" s="40"/>
-      <c r="HR2" s="40"/>
-      <c r="HS2" s="40"/>
-      <c r="HT2" s="40"/>
-      <c r="HU2" s="40"/>
-      <c r="HV2" s="40"/>
-      <c r="HW2" s="40"/>
-      <c r="HX2" s="40"/>
-      <c r="HY2" s="40"/>
-      <c r="HZ2" s="40"/>
-      <c r="IA2" s="40"/>
-      <c r="IB2" s="40"/>
-      <c r="IC2" s="40"/>
-      <c r="ID2" s="40"/>
-      <c r="IE2" s="40"/>
-      <c r="IF2" s="40"/>
-      <c r="IG2" s="40"/>
-      <c r="IH2" s="40"/>
-      <c r="II2" s="40"/>
-      <c r="IJ2" s="40"/>
-      <c r="IK2" s="40"/>
-      <c r="IL2" s="40"/>
-      <c r="IM2" s="40"/>
-      <c r="IN2" s="40"/>
-      <c r="IO2" s="40"/>
-      <c r="IP2" s="40"/>
-      <c r="IQ2" s="40"/>
-      <c r="IR2" s="40"/>
-      <c r="IS2" s="40"/>
-      <c r="IT2" s="40"/>
-      <c r="IU2" s="40"/>
-      <c r="IV2" s="40"/>
-      <c r="IW2" s="40"/>
-      <c r="IX2" s="40"/>
-      <c r="IY2" s="40"/>
-      <c r="IZ2" s="40"/>
-      <c r="JA2" s="40"/>
-      <c r="JB2" s="40"/>
-      <c r="JC2" s="40"/>
-      <c r="JD2" s="40"/>
-      <c r="JE2" s="40"/>
-      <c r="JF2" s="40"/>
-      <c r="JG2" s="40"/>
-      <c r="JH2" s="40"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="36"/>
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="36"/>
+      <c r="BY2" s="36"/>
+      <c r="BZ2" s="36"/>
+      <c r="CA2" s="36"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="36"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36"/>
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="36"/>
+      <c r="CQ2" s="36"/>
+      <c r="CR2" s="36"/>
+      <c r="CS2" s="36"/>
+      <c r="CT2" s="36"/>
+      <c r="CU2" s="36"/>
+      <c r="CV2" s="36"/>
+      <c r="CW2" s="36"/>
+      <c r="CX2" s="36"/>
+      <c r="CY2" s="36"/>
+      <c r="CZ2" s="36"/>
+      <c r="DA2" s="36"/>
+      <c r="DB2" s="36"/>
+      <c r="DC2" s="36"/>
+      <c r="DD2" s="36"/>
+      <c r="DE2" s="36"/>
+      <c r="DF2" s="36"/>
+      <c r="DG2" s="36"/>
+      <c r="DH2" s="36"/>
+      <c r="DI2" s="36"/>
+      <c r="DJ2" s="36"/>
+      <c r="DK2" s="36"/>
+      <c r="DL2" s="36"/>
+      <c r="DM2" s="36"/>
+      <c r="DN2" s="36"/>
+      <c r="DO2" s="36"/>
+      <c r="DP2" s="36"/>
+      <c r="DQ2" s="36"/>
+      <c r="DR2" s="36"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="36"/>
+      <c r="DU2" s="36"/>
+      <c r="DV2" s="36"/>
+      <c r="DW2" s="36"/>
+      <c r="DX2" s="36"/>
+      <c r="DY2" s="36"/>
+      <c r="DZ2" s="36"/>
+      <c r="EA2" s="36"/>
+      <c r="EB2" s="36"/>
+      <c r="EC2" s="36"/>
+      <c r="ED2" s="36"/>
+      <c r="EE2" s="36"/>
+      <c r="EF2" s="36"/>
+      <c r="EG2" s="36"/>
+      <c r="EH2" s="36"/>
+      <c r="EI2" s="36"/>
+      <c r="EJ2" s="36"/>
+      <c r="EK2" s="36"/>
+      <c r="EL2" s="36"/>
+      <c r="EM2" s="36"/>
+      <c r="EN2" s="36"/>
+      <c r="EO2" s="36"/>
+      <c r="EP2" s="36"/>
+      <c r="EQ2" s="36"/>
+      <c r="ER2" s="36"/>
+      <c r="ES2" s="36"/>
+      <c r="ET2" s="36"/>
+      <c r="EU2" s="36"/>
+      <c r="EV2" s="36"/>
+      <c r="EW2" s="36"/>
+      <c r="EX2" s="36"/>
+      <c r="EY2" s="36"/>
+      <c r="EZ2" s="36"/>
+      <c r="FA2" s="36"/>
+      <c r="FB2" s="36"/>
+      <c r="FC2" s="36"/>
+      <c r="FD2" s="36"/>
+      <c r="FE2" s="36"/>
+      <c r="FF2" s="36"/>
+      <c r="FG2" s="36"/>
+      <c r="FH2" s="36"/>
+      <c r="FI2" s="36"/>
+      <c r="FJ2" s="36"/>
+      <c r="FK2" s="36"/>
+      <c r="FL2" s="36"/>
+      <c r="FM2" s="36"/>
+      <c r="FN2" s="36"/>
+      <c r="FO2" s="36"/>
+      <c r="FP2" s="36"/>
+      <c r="FQ2" s="36"/>
+      <c r="FR2" s="36"/>
+      <c r="FS2" s="36"/>
+      <c r="FT2" s="36"/>
+      <c r="FU2" s="36"/>
+      <c r="FV2" s="36"/>
+      <c r="FW2" s="36"/>
+      <c r="FX2" s="36"/>
+      <c r="FY2" s="36"/>
+      <c r="FZ2" s="36"/>
+      <c r="GA2" s="36"/>
+      <c r="GB2" s="36"/>
+      <c r="GC2" s="36"/>
+      <c r="GD2" s="36"/>
+      <c r="GE2" s="36"/>
+      <c r="GF2" s="36"/>
+      <c r="GG2" s="36"/>
+      <c r="GH2" s="36"/>
+      <c r="GI2" s="36"/>
+      <c r="GJ2" s="36"/>
+      <c r="GK2" s="36"/>
+      <c r="GL2" s="36"/>
+      <c r="GM2" s="36"/>
+      <c r="GN2" s="36"/>
+      <c r="GO2" s="36"/>
+      <c r="GP2" s="36"/>
+      <c r="GQ2" s="36"/>
+      <c r="GR2" s="36"/>
+      <c r="GS2" s="36"/>
+      <c r="GT2" s="36"/>
+      <c r="GU2" s="36"/>
+      <c r="GV2" s="36"/>
+      <c r="GW2" s="36"/>
+      <c r="GX2" s="36"/>
+      <c r="GY2" s="36"/>
+      <c r="GZ2" s="36"/>
+      <c r="HA2" s="36"/>
+      <c r="HB2" s="36"/>
+      <c r="HC2" s="36"/>
+      <c r="HD2" s="36"/>
+      <c r="HE2" s="36"/>
+      <c r="HF2" s="36"/>
+      <c r="HG2" s="36"/>
+      <c r="HH2" s="36"/>
+      <c r="HI2" s="36"/>
+      <c r="HJ2" s="36"/>
+      <c r="HK2" s="36"/>
+      <c r="HL2" s="36"/>
+      <c r="HM2" s="36"/>
+      <c r="HN2" s="36"/>
+      <c r="HO2" s="36"/>
+      <c r="HP2" s="36"/>
+      <c r="HQ2" s="36"/>
+      <c r="HR2" s="36"/>
+      <c r="HS2" s="36"/>
+      <c r="HT2" s="36"/>
+      <c r="HU2" s="36"/>
+      <c r="HV2" s="36"/>
+      <c r="HW2" s="36"/>
+      <c r="HX2" s="36"/>
+      <c r="HY2" s="36"/>
+      <c r="HZ2" s="36"/>
+      <c r="IA2" s="36"/>
+      <c r="IB2" s="36"/>
+      <c r="IC2" s="36"/>
+      <c r="ID2" s="36"/>
+      <c r="IE2" s="36"/>
+      <c r="IF2" s="36"/>
+      <c r="IG2" s="36"/>
+      <c r="IH2" s="36"/>
+      <c r="II2" s="36"/>
+      <c r="IJ2" s="36"/>
+      <c r="IK2" s="36"/>
+      <c r="IL2" s="36"/>
+      <c r="IM2" s="36"/>
+      <c r="IN2" s="36"/>
+      <c r="IO2" s="36"/>
+      <c r="IP2" s="36"/>
+      <c r="IQ2" s="36"/>
+      <c r="IR2" s="36"/>
+      <c r="IS2" s="36"/>
+      <c r="IT2" s="36"/>
+      <c r="IU2" s="36"/>
+      <c r="IV2" s="36"/>
+      <c r="IW2" s="36"/>
+      <c r="IX2" s="36"/>
+      <c r="IY2" s="36"/>
+      <c r="IZ2" s="36"/>
+      <c r="JA2" s="36"/>
+      <c r="JB2" s="36"/>
+      <c r="JC2" s="36"/>
+      <c r="JD2" s="36"/>
+      <c r="JE2" s="36"/>
+      <c r="JF2" s="36"/>
+      <c r="JG2" s="36"/>
+      <c r="JH2" s="36"/>
       <c r="JI2"/>
       <c r="JJ2" s="33"/>
+      <c r="JK2"/>
     </row>
-    <row r="4" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="35">
+      <c r="B4" s="38">
         <v>2003</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38">
         <v>2004</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35">
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38">
         <v>2005</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38">
         <v>2006</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35">
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38">
         <v>2007</v>
       </c>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35">
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38">
         <v>2008</v>
       </c>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35">
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38">
         <v>2009</v>
       </c>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35">
+      <c r="BW4" s="38"/>
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38">
         <v>2010</v>
       </c>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35">
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38">
         <v>2011</v>
       </c>
-      <c r="CU4" s="35"/>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35">
+      <c r="CU4" s="38"/>
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38">
         <v>2012</v>
       </c>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35">
+      <c r="DG4" s="38"/>
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38">
         <v>2013</v>
       </c>
-      <c r="DS4" s="35"/>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35">
+      <c r="DS4" s="38"/>
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38">
         <v>2014</v>
       </c>
-      <c r="EE4" s="35"/>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35">
+      <c r="EE4" s="38"/>
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="35"/>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35"/>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35">
+      <c r="EQ4" s="38"/>
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38">
         <v>2016</v>
       </c>
-      <c r="FC4" s="35"/>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35">
+      <c r="FC4" s="38"/>
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38">
         <v>2017</v>
       </c>
-      <c r="FO4" s="35"/>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35">
+      <c r="FO4" s="38"/>
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38">
         <v>2018</v>
       </c>
-      <c r="GA4" s="35"/>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35">
+      <c r="GA4" s="38"/>
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38">
         <v>2019</v>
       </c>
-      <c r="GM4" s="35"/>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35">
+      <c r="GM4" s="38"/>
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38">
         <v>2020</v>
       </c>
-      <c r="GY4" s="35"/>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35"/>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35">
+      <c r="GY4" s="38"/>
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38">
         <v>2021</v>
       </c>
-      <c r="HK4" s="35"/>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35">
+      <c r="HK4" s="38"/>
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38">
         <v>2022</v>
       </c>
-      <c r="HW4" s="35"/>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="35"/>
-      <c r="IG4" s="35"/>
-      <c r="IH4" s="35">
+      <c r="HW4" s="38"/>
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
+      <c r="IH4" s="38">
         <v>2023</v>
       </c>
-      <c r="II4" s="35"/>
-      <c r="IJ4" s="35"/>
-      <c r="IK4" s="35"/>
-      <c r="IL4" s="35"/>
-      <c r="IM4" s="35"/>
-      <c r="IN4" s="35"/>
-      <c r="IO4" s="35"/>
-      <c r="IP4" s="35"/>
-      <c r="IQ4" s="35"/>
-      <c r="IR4" s="35"/>
-      <c r="IS4" s="35"/>
-      <c r="IT4" s="35">
+      <c r="II4" s="38"/>
+      <c r="IJ4" s="38"/>
+      <c r="IK4" s="38"/>
+      <c r="IL4" s="38"/>
+      <c r="IM4" s="38"/>
+      <c r="IN4" s="38"/>
+      <c r="IO4" s="38"/>
+      <c r="IP4" s="38"/>
+      <c r="IQ4" s="38"/>
+      <c r="IR4" s="38"/>
+      <c r="IS4" s="38"/>
+      <c r="IT4" s="38">
         <v>2024</v>
       </c>
-      <c r="IU4" s="35"/>
-      <c r="IV4" s="35"/>
-      <c r="IW4" s="35"/>
-      <c r="IX4" s="35"/>
-      <c r="IY4" s="35"/>
-      <c r="IZ4" s="35"/>
-      <c r="JA4" s="35"/>
-      <c r="JB4" s="35"/>
-      <c r="JC4" s="35"/>
-      <c r="JD4" s="35"/>
-      <c r="JE4" s="36"/>
-      <c r="JF4" s="44">
+      <c r="IU4" s="38"/>
+      <c r="IV4" s="38"/>
+      <c r="IW4" s="38"/>
+      <c r="IX4" s="38"/>
+      <c r="IY4" s="38"/>
+      <c r="IZ4" s="38"/>
+      <c r="JA4" s="38"/>
+      <c r="JB4" s="38"/>
+      <c r="JC4" s="38"/>
+      <c r="JD4" s="38"/>
+      <c r="JE4" s="40"/>
+      <c r="JF4" s="49">
         <v>2025</v>
       </c>
-      <c r="JG4" s="45"/>
-      <c r="JH4" s="45"/>
-      <c r="JI4" s="45"/>
-      <c r="JJ4" s="46"/>
+      <c r="JG4" s="50"/>
+      <c r="JH4" s="50"/>
+      <c r="JI4" s="50"/>
+      <c r="JJ4" s="50"/>
+      <c r="JK4" s="51"/>
     </row>
-    <row r="5" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2703,8 +2731,11 @@
       <c r="JJ5" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="JK5" s="48" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3515,8 +3546,11 @@
       <c r="JJ6" s="4">
         <v>-2454.7091011275002</v>
       </c>
+      <c r="JK6" s="46">
+        <v>-1764.3354360066</v>
+      </c>
     </row>
-    <row r="7" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4327,8 +4361,11 @@
       <c r="JJ7" s="4">
         <v>-1065.2005508431</v>
       </c>
+      <c r="JK7" s="46">
+        <v>-1048.1448975967</v>
+      </c>
     </row>
-    <row r="8" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5139,8 +5176,11 @@
       <c r="JJ8" s="4">
         <v>1389.5085502843899</v>
       </c>
+      <c r="JK8" s="46">
+        <v>716.19053840983497</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -5951,8 +5991,11 @@
       <c r="JJ9" s="4">
         <v>-1505.8192703866</v>
       </c>
+      <c r="JK9" s="46">
+        <v>79.875633425506507</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -6763,8 +6806,11 @@
       <c r="JJ10" s="6">
         <v>12.1541728573487</v>
       </c>
+      <c r="JK10" s="47">
+        <v>858.00134323423799</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -7575,8 +7621,11 @@
       <c r="JJ11" s="6">
         <v>160.79951808401401</v>
       </c>
+      <c r="JK11" s="47">
+        <v>128.56362061304</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -8387,8 +8436,11 @@
       <c r="JJ12" s="6">
         <v>-220.21440587205001</v>
       </c>
+      <c r="JK12" s="47">
+        <v>440.12863737839399</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -9199,8 +9251,11 @@
       <c r="JJ13" s="6">
         <v>71.569060645388006</v>
       </c>
+      <c r="JK13" s="47">
+        <v>289.30908524280397</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -10011,8 +10066,11 @@
       <c r="JJ14" s="6">
         <v>1517.97344324399</v>
       </c>
+      <c r="JK14" s="47">
+        <v>778.12570980873204</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -10823,8 +10881,11 @@
       <c r="JJ15" s="6">
         <v>450.65312590000002</v>
       </c>
+      <c r="JK15" s="47">
+        <v>585.42030042000101</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -11635,8 +11696,11 @@
       <c r="JJ16" s="6">
         <v>99.812067413882403</v>
       </c>
+      <c r="JK16" s="47">
+        <v>226.374501018465</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -12447,8 +12511,11 @@
       <c r="JJ17" s="6">
         <v>967.50824993010303</v>
       </c>
+      <c r="JK17" s="47">
+        <v>-33.669091629733998</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -13259,8 +13326,11 @@
       <c r="JJ18" s="4">
         <v>-377.44065822520002</v>
       </c>
+      <c r="JK18" s="46">
+        <v>1470.0387050270999</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -14071,8 +14141,11 @@
       <c r="JJ19" s="6">
         <v>204.66606831649901</v>
       </c>
+      <c r="JK19" s="47">
+        <v>2313.4866627136198</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -14883,8 +14956,11 @@
       <c r="JJ20" s="6">
         <v>953.98037890644798</v>
       </c>
+      <c r="JK20" s="47">
+        <v>1242.4881633170301</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -15695,8 +15771,11 @@
       <c r="JJ21" s="6">
         <v>-749.31431058994997</v>
       </c>
+      <c r="JK21" s="47">
+        <v>1070.99849939658</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -16507,8 +16586,11 @@
       <c r="JJ22" s="6">
         <v>611.49914870089401</v>
       </c>
+      <c r="JK22" s="47">
+        <v>227.270104056478</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -17319,8 +17401,11 @@
       <c r="JJ23" s="6">
         <v>-1360.8134592908</v>
       </c>
+      <c r="JK23" s="47">
+        <v>843.72839534010404</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -18131,8 +18216,11 @@
       <c r="JJ24" s="6">
         <v>582.10672654170003</v>
       </c>
+      <c r="JK24" s="47">
+        <v>843.44795768651795</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -18943,8 +19031,11 @@
       <c r="JJ25" s="6">
         <v>-135.04453793287001</v>
       </c>
+      <c r="JK25" s="47">
+        <v>-219.63308088206</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -19755,8 +19846,11 @@
       <c r="JJ26" s="6">
         <v>717.15126447456703</v>
       </c>
+      <c r="JK26" s="47">
+        <v>1063.08103856858</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -20567,8 +20661,11 @@
       <c r="JJ27" s="6">
         <v>603.88802110580502</v>
       </c>
+      <c r="JK27" s="47">
+        <v>630.77791349986705</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -21379,8 +21476,11 @@
       <c r="JJ28" s="6">
         <v>113.263243368761</v>
       </c>
+      <c r="JK28" s="47">
+        <v>432.30312506870899</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -22191,8 +22291,11 @@
       <c r="JJ29" s="4">
         <v>37.019970791611797</v>
       </c>
+      <c r="JK29" s="46">
+        <v>-157.86499620951</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -23003,8 +23106,11 @@
       <c r="JJ30" s="4">
         <v>-729.97960594661004</v>
       </c>
+      <c r="JK30" s="46">
+        <v>-3315.7427642789999</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -23815,8 +23921,11 @@
       <c r="JJ31" s="6">
         <v>166.56846121979501</v>
       </c>
+      <c r="JK31" s="47">
+        <v>-3028.5556636962001</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -24627,8 +24736,11 @@
       <c r="JJ32" s="6">
         <v>0</v>
       </c>
+      <c r="JK32" s="47">
+        <v>26.77760129</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -25439,8 +25551,11 @@
       <c r="JJ33" s="6">
         <v>-781.92236974406001</v>
       </c>
+      <c r="JK33" s="47">
+        <v>-200.04236735947001</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -26251,8 +26366,11 @@
       <c r="JJ34" s="6">
         <v>376.58191814606499</v>
       </c>
+      <c r="JK34" s="47">
+        <v>-35.973160346759997</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -27063,8 +27181,11 @@
       <c r="JJ35" s="6">
         <v>574.809079249918</v>
       </c>
+      <c r="JK35" s="47">
+        <v>-2816.3950089225</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -27875,8 +27996,11 @@
       <c r="JJ36" s="6">
         <v>-2.9001664321281999</v>
       </c>
+      <c r="JK36" s="47">
+        <v>-2.9227283574356</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
@@ -28687,8 +28811,11 @@
       <c r="JJ37" s="6">
         <v>896.54806716639996</v>
       </c>
+      <c r="JK37" s="47">
+        <v>287.18710058277901</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -29499,8 +29626,11 @@
       <c r="JJ38" s="6">
         <v>-12.879262510013</v>
       </c>
+      <c r="JK38" s="47">
+        <v>215.07495668310199</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -30311,8 +30441,11 @@
       <c r="JJ39" s="6">
         <v>620.60241028781002</v>
       </c>
+      <c r="JK39" s="47">
+        <v>-352.28276133051997</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -31123,8 +31256,11 @@
       <c r="JJ40" s="6">
         <v>305.80014754079002</v>
       </c>
+      <c r="JK40" s="47">
+        <v>416.10312972618499</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -31935,8 +32071,11 @@
       <c r="JJ41" s="6">
         <v>-1.31605E-3</v>
       </c>
+      <c r="JK41" s="47">
+        <v>3.4253000000000002E-4</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -32747,8 +32886,11 @@
       <c r="JJ42" s="6">
         <v>-16.973912102187001</v>
       </c>
+      <c r="JK42" s="47">
+        <v>8.2914329740159705</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
@@ -33556,285 +33698,289 @@
       <c r="JI43" s="13">
         <v>-184.02737997209999</v>
       </c>
-      <c r="JJ43" s="47">
+      <c r="JJ43" s="34">
         <v>121.51046263933701</v>
       </c>
+      <c r="JK43" s="34">
+        <v>159.35798602934901</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="38"/>
-      <c r="AS44" s="38"/>
-      <c r="AT44" s="38"/>
-      <c r="AU44" s="38"/>
-      <c r="AV44" s="38"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="38"/>
-      <c r="AY44" s="38"/>
-      <c r="AZ44" s="38"/>
-      <c r="BA44" s="38"/>
-      <c r="BB44" s="38"/>
-      <c r="BC44" s="38"/>
-      <c r="BD44" s="38"/>
-      <c r="BE44" s="38"/>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="38"/>
-      <c r="BH44" s="38"/>
-      <c r="BI44" s="38"/>
-      <c r="BJ44" s="38"/>
-      <c r="BK44" s="38"/>
-      <c r="BL44" s="38"/>
-      <c r="BM44" s="38"/>
-      <c r="BN44" s="38"/>
-      <c r="BO44" s="38"/>
-      <c r="BP44" s="38"/>
-      <c r="BQ44" s="38"/>
-      <c r="BR44" s="38"/>
-      <c r="BS44" s="38"/>
-      <c r="BT44" s="38"/>
-      <c r="BU44" s="38"/>
-      <c r="BV44" s="38"/>
-      <c r="BW44" s="38"/>
-      <c r="BX44" s="38"/>
-      <c r="BY44" s="38"/>
-      <c r="BZ44" s="38"/>
-      <c r="CA44" s="38"/>
-      <c r="CB44" s="38"/>
-      <c r="CC44" s="38"/>
-      <c r="CD44" s="38"/>
-      <c r="CE44" s="38"/>
-      <c r="CF44" s="38"/>
-      <c r="CG44" s="38"/>
-      <c r="CH44" s="38"/>
-      <c r="CI44" s="38"/>
-      <c r="CJ44" s="38"/>
-      <c r="CK44" s="38"/>
-      <c r="CL44" s="38"/>
-      <c r="CM44" s="38"/>
-      <c r="CN44" s="38"/>
-      <c r="CO44" s="38"/>
-      <c r="CP44" s="38"/>
-      <c r="CQ44" s="38"/>
-      <c r="CR44" s="38"/>
-      <c r="CS44" s="38"/>
-      <c r="CT44" s="38"/>
-      <c r="CU44" s="38"/>
-      <c r="CV44" s="38"/>
-      <c r="CW44" s="38"/>
-      <c r="CX44" s="38"/>
-      <c r="CY44" s="38"/>
-      <c r="CZ44" s="38"/>
-      <c r="DA44" s="38"/>
-      <c r="DB44" s="38"/>
-      <c r="DC44" s="38"/>
-      <c r="DD44" s="38"/>
-      <c r="DE44" s="38"/>
-      <c r="DF44" s="38"/>
-      <c r="DG44" s="38"/>
-      <c r="DH44" s="38"/>
-      <c r="DI44" s="38"/>
-      <c r="DJ44" s="38"/>
-      <c r="DK44" s="38"/>
-      <c r="DL44" s="38"/>
-      <c r="DM44" s="38"/>
-      <c r="DN44" s="38"/>
-      <c r="DO44" s="38"/>
-      <c r="DP44" s="38"/>
-      <c r="DQ44" s="38"/>
-      <c r="DR44" s="38"/>
-      <c r="DS44" s="38"/>
-      <c r="DT44" s="38"/>
-      <c r="DU44" s="38"/>
-      <c r="DV44" s="38"/>
-      <c r="DW44" s="38"/>
-      <c r="DX44" s="38"/>
-      <c r="DY44" s="38"/>
-      <c r="DZ44" s="38"/>
-      <c r="EA44" s="38"/>
-      <c r="EB44" s="38"/>
-      <c r="EC44" s="38"/>
-      <c r="ED44" s="38"/>
-      <c r="EE44" s="38"/>
-      <c r="EF44" s="38"/>
-      <c r="EG44" s="38"/>
-      <c r="EH44" s="38"/>
-      <c r="EI44" s="38"/>
-      <c r="EJ44" s="38"/>
-      <c r="EK44" s="38"/>
-      <c r="EL44" s="38"/>
-      <c r="EM44" s="38"/>
-      <c r="EN44" s="38"/>
-      <c r="EO44" s="38"/>
-      <c r="EP44" s="38"/>
-      <c r="EQ44" s="38"/>
-      <c r="ER44" s="38"/>
-      <c r="ES44" s="38"/>
-      <c r="ET44" s="38"/>
-      <c r="EU44" s="38"/>
-      <c r="EV44" s="38"/>
-      <c r="EW44" s="38"/>
-      <c r="EX44" s="38"/>
-      <c r="EY44" s="38"/>
-      <c r="EZ44" s="38"/>
-      <c r="FA44" s="38"/>
-      <c r="FB44" s="38"/>
-      <c r="FC44" s="38"/>
-      <c r="FD44" s="38"/>
-      <c r="FE44" s="38"/>
-      <c r="FF44" s="38"/>
-      <c r="FG44" s="38"/>
-      <c r="FH44" s="38"/>
-      <c r="FI44" s="38"/>
-      <c r="FJ44" s="38"/>
-      <c r="FK44" s="38"/>
-      <c r="FL44" s="38"/>
-      <c r="FM44" s="38"/>
-      <c r="FN44" s="38"/>
-      <c r="FO44" s="38"/>
-      <c r="FP44" s="38"/>
-      <c r="FQ44" s="38"/>
-      <c r="FR44" s="38"/>
-      <c r="FS44" s="38"/>
-      <c r="FT44" s="38"/>
-      <c r="FU44" s="38"/>
-      <c r="FV44" s="38"/>
-      <c r="FW44" s="38"/>
-      <c r="FX44" s="38"/>
-      <c r="FY44" s="38"/>
-      <c r="FZ44" s="38"/>
-      <c r="GA44" s="38"/>
-      <c r="GB44" s="38"/>
-      <c r="GC44" s="38"/>
-      <c r="GD44" s="38"/>
-      <c r="GE44" s="38"/>
-      <c r="GF44" s="38"/>
-      <c r="GG44" s="38"/>
-      <c r="GH44" s="38"/>
-      <c r="GI44" s="38"/>
-      <c r="GJ44" s="38"/>
-      <c r="GK44" s="38"/>
-      <c r="GL44" s="38"/>
-      <c r="GM44" s="38"/>
-      <c r="GN44" s="38"/>
-      <c r="GO44" s="38"/>
-      <c r="GP44" s="38"/>
-      <c r="GQ44" s="38"/>
-      <c r="GR44" s="38"/>
-      <c r="GS44" s="38"/>
-      <c r="GT44" s="38"/>
-      <c r="GU44" s="38"/>
-      <c r="GV44" s="38"/>
-      <c r="GW44" s="38"/>
-      <c r="GX44" s="38"/>
-      <c r="GY44" s="38"/>
-      <c r="GZ44" s="38"/>
-      <c r="HA44" s="38"/>
-      <c r="HB44" s="38"/>
-      <c r="HC44" s="38"/>
-      <c r="HD44" s="38"/>
-      <c r="HE44" s="38"/>
-      <c r="HF44" s="38"/>
-      <c r="HG44" s="38"/>
-      <c r="HH44" s="38"/>
-      <c r="HI44" s="38"/>
-      <c r="HJ44" s="38"/>
-      <c r="HK44" s="38"/>
-      <c r="HL44" s="38"/>
-      <c r="HM44" s="38"/>
-      <c r="HN44" s="38"/>
-      <c r="HO44" s="38"/>
-      <c r="HP44" s="38"/>
-      <c r="HQ44" s="38"/>
-      <c r="HR44" s="38"/>
-      <c r="HS44" s="38"/>
-      <c r="HT44" s="38"/>
-      <c r="HU44" s="38"/>
-      <c r="HV44" s="38"/>
-      <c r="HW44" s="38"/>
-      <c r="HX44" s="38"/>
-      <c r="HY44" s="38"/>
-      <c r="HZ44" s="38"/>
-      <c r="IA44" s="38"/>
-      <c r="IB44" s="38"/>
-      <c r="IC44" s="38"/>
-      <c r="ID44" s="38"/>
-      <c r="IE44" s="38"/>
-      <c r="IF44" s="38"/>
-      <c r="IG44" s="38"/>
-      <c r="IH44" s="38"/>
-      <c r="II44" s="38"/>
-      <c r="IJ44" s="38"/>
-      <c r="IK44" s="38"/>
-      <c r="IL44" s="38"/>
-      <c r="IM44" s="38"/>
-      <c r="IN44" s="38"/>
-      <c r="IO44" s="38"/>
-      <c r="IP44" s="38"/>
-      <c r="IQ44" s="38"/>
-      <c r="IR44" s="38"/>
-      <c r="IS44" s="38"/>
-      <c r="IT44" s="38"/>
-      <c r="IU44" s="38"/>
-      <c r="IV44" s="38"/>
-      <c r="IW44" s="38"/>
-      <c r="IX44" s="38"/>
-      <c r="IY44" s="38"/>
-      <c r="IZ44" s="38"/>
-      <c r="JA44" s="38"/>
-      <c r="JB44" s="38"/>
-      <c r="JC44" s="38"/>
-      <c r="JD44" s="38"/>
-      <c r="JE44" s="38"/>
-      <c r="JF44" s="38"/>
-      <c r="JG44" s="38"/>
-      <c r="JH44" s="38"/>
-      <c r="JI44" s="38"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="42"/>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="42"/>
+      <c r="AH44" s="42"/>
+      <c r="AI44" s="42"/>
+      <c r="AJ44" s="42"/>
+      <c r="AK44" s="42"/>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="42"/>
+      <c r="AO44" s="42"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="42"/>
+      <c r="AU44" s="42"/>
+      <c r="AV44" s="42"/>
+      <c r="AW44" s="42"/>
+      <c r="AX44" s="42"/>
+      <c r="AY44" s="42"/>
+      <c r="AZ44" s="42"/>
+      <c r="BA44" s="42"/>
+      <c r="BB44" s="42"/>
+      <c r="BC44" s="42"/>
+      <c r="BD44" s="42"/>
+      <c r="BE44" s="42"/>
+      <c r="BF44" s="42"/>
+      <c r="BG44" s="42"/>
+      <c r="BH44" s="42"/>
+      <c r="BI44" s="42"/>
+      <c r="BJ44" s="42"/>
+      <c r="BK44" s="42"/>
+      <c r="BL44" s="42"/>
+      <c r="BM44" s="42"/>
+      <c r="BN44" s="42"/>
+      <c r="BO44" s="42"/>
+      <c r="BP44" s="42"/>
+      <c r="BQ44" s="42"/>
+      <c r="BR44" s="42"/>
+      <c r="BS44" s="42"/>
+      <c r="BT44" s="42"/>
+      <c r="BU44" s="42"/>
+      <c r="BV44" s="42"/>
+      <c r="BW44" s="42"/>
+      <c r="BX44" s="42"/>
+      <c r="BY44" s="42"/>
+      <c r="BZ44" s="42"/>
+      <c r="CA44" s="42"/>
+      <c r="CB44" s="42"/>
+      <c r="CC44" s="42"/>
+      <c r="CD44" s="42"/>
+      <c r="CE44" s="42"/>
+      <c r="CF44" s="42"/>
+      <c r="CG44" s="42"/>
+      <c r="CH44" s="42"/>
+      <c r="CI44" s="42"/>
+      <c r="CJ44" s="42"/>
+      <c r="CK44" s="42"/>
+      <c r="CL44" s="42"/>
+      <c r="CM44" s="42"/>
+      <c r="CN44" s="42"/>
+      <c r="CO44" s="42"/>
+      <c r="CP44" s="42"/>
+      <c r="CQ44" s="42"/>
+      <c r="CR44" s="42"/>
+      <c r="CS44" s="42"/>
+      <c r="CT44" s="42"/>
+      <c r="CU44" s="42"/>
+      <c r="CV44" s="42"/>
+      <c r="CW44" s="42"/>
+      <c r="CX44" s="42"/>
+      <c r="CY44" s="42"/>
+      <c r="CZ44" s="42"/>
+      <c r="DA44" s="42"/>
+      <c r="DB44" s="42"/>
+      <c r="DC44" s="42"/>
+      <c r="DD44" s="42"/>
+      <c r="DE44" s="42"/>
+      <c r="DF44" s="42"/>
+      <c r="DG44" s="42"/>
+      <c r="DH44" s="42"/>
+      <c r="DI44" s="42"/>
+      <c r="DJ44" s="42"/>
+      <c r="DK44" s="42"/>
+      <c r="DL44" s="42"/>
+      <c r="DM44" s="42"/>
+      <c r="DN44" s="42"/>
+      <c r="DO44" s="42"/>
+      <c r="DP44" s="42"/>
+      <c r="DQ44" s="42"/>
+      <c r="DR44" s="42"/>
+      <c r="DS44" s="42"/>
+      <c r="DT44" s="42"/>
+      <c r="DU44" s="42"/>
+      <c r="DV44" s="42"/>
+      <c r="DW44" s="42"/>
+      <c r="DX44" s="42"/>
+      <c r="DY44" s="42"/>
+      <c r="DZ44" s="42"/>
+      <c r="EA44" s="42"/>
+      <c r="EB44" s="42"/>
+      <c r="EC44" s="42"/>
+      <c r="ED44" s="42"/>
+      <c r="EE44" s="42"/>
+      <c r="EF44" s="42"/>
+      <c r="EG44" s="42"/>
+      <c r="EH44" s="42"/>
+      <c r="EI44" s="42"/>
+      <c r="EJ44" s="42"/>
+      <c r="EK44" s="42"/>
+      <c r="EL44" s="42"/>
+      <c r="EM44" s="42"/>
+      <c r="EN44" s="42"/>
+      <c r="EO44" s="42"/>
+      <c r="EP44" s="42"/>
+      <c r="EQ44" s="42"/>
+      <c r="ER44" s="42"/>
+      <c r="ES44" s="42"/>
+      <c r="ET44" s="42"/>
+      <c r="EU44" s="42"/>
+      <c r="EV44" s="42"/>
+      <c r="EW44" s="42"/>
+      <c r="EX44" s="42"/>
+      <c r="EY44" s="42"/>
+      <c r="EZ44" s="42"/>
+      <c r="FA44" s="42"/>
+      <c r="FB44" s="42"/>
+      <c r="FC44" s="42"/>
+      <c r="FD44" s="42"/>
+      <c r="FE44" s="42"/>
+      <c r="FF44" s="42"/>
+      <c r="FG44" s="42"/>
+      <c r="FH44" s="42"/>
+      <c r="FI44" s="42"/>
+      <c r="FJ44" s="42"/>
+      <c r="FK44" s="42"/>
+      <c r="FL44" s="42"/>
+      <c r="FM44" s="42"/>
+      <c r="FN44" s="42"/>
+      <c r="FO44" s="42"/>
+      <c r="FP44" s="42"/>
+      <c r="FQ44" s="42"/>
+      <c r="FR44" s="42"/>
+      <c r="FS44" s="42"/>
+      <c r="FT44" s="42"/>
+      <c r="FU44" s="42"/>
+      <c r="FV44" s="42"/>
+      <c r="FW44" s="42"/>
+      <c r="FX44" s="42"/>
+      <c r="FY44" s="42"/>
+      <c r="FZ44" s="42"/>
+      <c r="GA44" s="42"/>
+      <c r="GB44" s="42"/>
+      <c r="GC44" s="42"/>
+      <c r="GD44" s="42"/>
+      <c r="GE44" s="42"/>
+      <c r="GF44" s="42"/>
+      <c r="GG44" s="42"/>
+      <c r="GH44" s="42"/>
+      <c r="GI44" s="42"/>
+      <c r="GJ44" s="42"/>
+      <c r="GK44" s="42"/>
+      <c r="GL44" s="42"/>
+      <c r="GM44" s="42"/>
+      <c r="GN44" s="42"/>
+      <c r="GO44" s="42"/>
+      <c r="GP44" s="42"/>
+      <c r="GQ44" s="42"/>
+      <c r="GR44" s="42"/>
+      <c r="GS44" s="42"/>
+      <c r="GT44" s="42"/>
+      <c r="GU44" s="42"/>
+      <c r="GV44" s="42"/>
+      <c r="GW44" s="42"/>
+      <c r="GX44" s="42"/>
+      <c r="GY44" s="42"/>
+      <c r="GZ44" s="42"/>
+      <c r="HA44" s="42"/>
+      <c r="HB44" s="42"/>
+      <c r="HC44" s="42"/>
+      <c r="HD44" s="42"/>
+      <c r="HE44" s="42"/>
+      <c r="HF44" s="42"/>
+      <c r="HG44" s="42"/>
+      <c r="HH44" s="42"/>
+      <c r="HI44" s="42"/>
+      <c r="HJ44" s="42"/>
+      <c r="HK44" s="42"/>
+      <c r="HL44" s="42"/>
+      <c r="HM44" s="42"/>
+      <c r="HN44" s="42"/>
+      <c r="HO44" s="42"/>
+      <c r="HP44" s="42"/>
+      <c r="HQ44" s="42"/>
+      <c r="HR44" s="42"/>
+      <c r="HS44" s="42"/>
+      <c r="HT44" s="42"/>
+      <c r="HU44" s="42"/>
+      <c r="HV44" s="42"/>
+      <c r="HW44" s="42"/>
+      <c r="HX44" s="42"/>
+      <c r="HY44" s="42"/>
+      <c r="HZ44" s="42"/>
+      <c r="IA44" s="42"/>
+      <c r="IB44" s="42"/>
+      <c r="IC44" s="42"/>
+      <c r="ID44" s="42"/>
+      <c r="IE44" s="42"/>
+      <c r="IF44" s="42"/>
+      <c r="IG44" s="42"/>
+      <c r="IH44" s="42"/>
+      <c r="II44" s="42"/>
+      <c r="IJ44" s="42"/>
+      <c r="IK44" s="42"/>
+      <c r="IL44" s="42"/>
+      <c r="IM44" s="42"/>
+      <c r="IN44" s="42"/>
+      <c r="IO44" s="42"/>
+      <c r="IP44" s="42"/>
+      <c r="IQ44" s="42"/>
+      <c r="IR44" s="42"/>
+      <c r="IS44" s="42"/>
+      <c r="IT44" s="42"/>
+      <c r="IU44" s="42"/>
+      <c r="IV44" s="42"/>
+      <c r="IW44" s="42"/>
+      <c r="IX44" s="42"/>
+      <c r="IY44" s="42"/>
+      <c r="IZ44" s="42"/>
+      <c r="JA44" s="42"/>
+      <c r="JB44" s="42"/>
+      <c r="JC44" s="42"/>
+      <c r="JD44" s="42"/>
+      <c r="JE44" s="42"/>
+      <c r="JF44" s="42"/>
+      <c r="JG44" s="42"/>
+      <c r="JH44" s="42"/>
+      <c r="JI44" s="42"/>
       <c r="JJ44" s="10"/>
+      <c r="JK44"/>
     </row>
-    <row r="45" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
@@ -34645,8 +34791,11 @@
       <c r="JJ45" s="21">
         <v>-2576.2195637668001</v>
       </c>
+      <c r="JK45" s="21">
+        <v>-1923.6934220359001</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -35457,8 +35606,11 @@
       <c r="JJ46" s="23">
         <v>582.10672654170003</v>
       </c>
+      <c r="JK46" s="23">
+        <v>843.44795768651795</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -36269,8 +36421,11 @@
       <c r="JJ47" s="23">
         <v>717.15126447456703</v>
       </c>
+      <c r="JK47" s="23">
+        <v>1063.08103856858</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -36865,8 +37020,11 @@
       <c r="JJ48" s="23">
         <v>421.56206610958202</v>
       </c>
+      <c r="JK48" s="23">
+        <v>515.23729631660797</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -37461,8 +37619,11 @@
       <c r="JJ49" s="23">
         <v>295.58919836498501</v>
       </c>
+      <c r="JK49" s="23">
+        <v>547.843742251967</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -38273,8 +38434,11 @@
       <c r="JJ50" s="23">
         <v>-135.04453793287001</v>
       </c>
+      <c r="JK50" s="23">
+        <v>-219.63308088206</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -39085,8 +39249,11 @@
       <c r="JJ51" s="23">
         <v>-192.31740845438</v>
       </c>
+      <c r="JK51" s="23">
+        <v>183.721299091699</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>46</v>
       </c>
@@ -39897,283 +40064,298 @@
       <c r="JJ52" s="25">
         <v>57.272870521518101</v>
       </c>
+      <c r="JK52" s="25">
+        <v>-403.35437997375999</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+    <row r="54" spans="1:271" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="34"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="34"/>
-      <c r="AS54" s="34"/>
-      <c r="AT54" s="34"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="34"/>
-      <c r="AW54" s="34"/>
-      <c r="AX54" s="34"/>
-      <c r="AY54" s="34"/>
-      <c r="AZ54" s="34"/>
-      <c r="BA54" s="34"/>
-      <c r="BB54" s="34"/>
-      <c r="BC54" s="34"/>
-      <c r="BD54" s="34"/>
-      <c r="BE54" s="34"/>
-      <c r="BF54" s="34"/>
-      <c r="BG54" s="34"/>
-      <c r="BH54" s="34"/>
-      <c r="BI54" s="34"/>
-      <c r="BJ54" s="34"/>
-      <c r="BK54" s="34"/>
-      <c r="BL54" s="34"/>
-      <c r="BM54" s="34"/>
-      <c r="BN54" s="34"/>
-      <c r="BO54" s="34"/>
-      <c r="BP54" s="34"/>
-      <c r="BQ54" s="34"/>
-      <c r="BR54" s="34"/>
-      <c r="BS54" s="34"/>
-      <c r="BT54" s="34"/>
-      <c r="BU54" s="34"/>
-      <c r="BV54" s="34"/>
-      <c r="BW54" s="34"/>
-      <c r="BX54" s="34"/>
-      <c r="BY54" s="34"/>
-      <c r="BZ54" s="34"/>
-      <c r="CA54" s="34"/>
-      <c r="CB54" s="34"/>
-      <c r="CC54" s="34"/>
-      <c r="CD54" s="34"/>
-      <c r="CE54" s="34"/>
-      <c r="CF54" s="34"/>
-      <c r="CG54" s="34"/>
-      <c r="CH54" s="34"/>
-      <c r="CI54" s="34"/>
-      <c r="CJ54" s="34"/>
-      <c r="CK54" s="34"/>
-      <c r="CL54" s="34"/>
-      <c r="CM54" s="34"/>
-      <c r="CN54" s="34"/>
-      <c r="CO54" s="34"/>
-      <c r="CP54" s="34"/>
-      <c r="CQ54" s="34"/>
-      <c r="CR54" s="34"/>
-      <c r="CS54" s="34"/>
-      <c r="CT54" s="34"/>
-      <c r="CU54" s="34"/>
-      <c r="CV54" s="34"/>
-      <c r="CW54" s="34"/>
-      <c r="CX54" s="34"/>
-      <c r="CY54" s="34"/>
-      <c r="CZ54" s="34"/>
-      <c r="DA54" s="34"/>
-      <c r="DB54" s="34"/>
-      <c r="DC54" s="34"/>
-      <c r="DD54" s="34"/>
-      <c r="DE54" s="34"/>
-      <c r="DF54" s="34"/>
-      <c r="DG54" s="34"/>
-      <c r="DH54" s="34"/>
-      <c r="DI54" s="34"/>
-      <c r="DJ54" s="34"/>
-      <c r="DK54" s="34"/>
-      <c r="DL54" s="34"/>
-      <c r="DM54" s="34"/>
-      <c r="DN54" s="34"/>
-      <c r="DO54" s="34"/>
-      <c r="DP54" s="34"/>
-      <c r="DQ54" s="34"/>
-      <c r="DR54" s="34"/>
-      <c r="DS54" s="34"/>
-      <c r="DT54" s="34"/>
-      <c r="DU54" s="34"/>
-      <c r="DV54" s="34"/>
-      <c r="DW54" s="34"/>
-      <c r="DX54" s="34"/>
-      <c r="DY54" s="34"/>
-      <c r="DZ54" s="34"/>
-      <c r="EA54" s="34"/>
-      <c r="EB54" s="34"/>
-      <c r="EC54" s="34"/>
-      <c r="ED54" s="34"/>
-      <c r="EE54" s="34"/>
-      <c r="EF54" s="34"/>
-      <c r="EG54" s="34"/>
-      <c r="EH54" s="34"/>
-      <c r="EI54" s="34"/>
-      <c r="EJ54" s="34"/>
-      <c r="EK54" s="34"/>
-      <c r="EL54" s="34"/>
-      <c r="EM54" s="34"/>
-      <c r="EN54" s="34"/>
-      <c r="EO54" s="34"/>
-      <c r="EP54" s="34"/>
-      <c r="EQ54" s="34"/>
-      <c r="ER54" s="34"/>
-      <c r="ES54" s="34"/>
-      <c r="ET54" s="34"/>
-      <c r="EU54" s="34"/>
-      <c r="EV54" s="34"/>
-      <c r="EW54" s="34"/>
-      <c r="EX54" s="34"/>
-      <c r="EY54" s="34"/>
-      <c r="EZ54" s="34"/>
-      <c r="FA54" s="34"/>
-      <c r="FB54" s="34"/>
-      <c r="FC54" s="34"/>
-      <c r="FD54" s="34"/>
-      <c r="FE54" s="34"/>
-      <c r="FF54" s="34"/>
-      <c r="FG54" s="34"/>
-      <c r="FH54" s="34"/>
-      <c r="FI54" s="34"/>
-      <c r="FJ54" s="34"/>
-      <c r="FK54" s="34"/>
-      <c r="FL54" s="34"/>
-      <c r="FM54" s="34"/>
-      <c r="FN54" s="34"/>
-      <c r="FO54" s="34"/>
-      <c r="FP54" s="34"/>
-      <c r="FQ54" s="34"/>
-      <c r="FR54" s="34"/>
-      <c r="FS54" s="34"/>
-      <c r="FT54" s="34"/>
-      <c r="FU54" s="34"/>
-      <c r="FV54" s="34"/>
-      <c r="FW54" s="34"/>
-      <c r="FX54" s="34"/>
-      <c r="FY54" s="34"/>
-      <c r="FZ54" s="34"/>
-      <c r="GA54" s="34"/>
-      <c r="GB54" s="34"/>
-      <c r="GC54" s="34"/>
-      <c r="GD54" s="34"/>
-      <c r="GE54" s="34"/>
-      <c r="GF54" s="34"/>
-      <c r="GG54" s="34"/>
-      <c r="GH54" s="34"/>
-      <c r="GI54" s="34"/>
-      <c r="GJ54" s="34"/>
-      <c r="GK54" s="34"/>
-      <c r="GL54" s="34"/>
-      <c r="GM54" s="34"/>
-      <c r="GN54" s="34"/>
-      <c r="GO54" s="34"/>
-      <c r="GP54" s="34"/>
-      <c r="GQ54" s="34"/>
-      <c r="GR54" s="34"/>
-      <c r="GS54" s="34"/>
-      <c r="GT54" s="34"/>
-      <c r="GU54" s="34"/>
-      <c r="GV54" s="34"/>
-      <c r="GW54" s="34"/>
-      <c r="GX54" s="34"/>
-      <c r="GY54" s="34"/>
-      <c r="GZ54" s="34"/>
-      <c r="HA54" s="34"/>
-      <c r="HB54" s="34"/>
-      <c r="HC54" s="34"/>
-      <c r="HD54" s="34"/>
-      <c r="HE54" s="34"/>
-      <c r="HF54" s="34"/>
-      <c r="HG54" s="34"/>
-      <c r="HH54" s="34"/>
-      <c r="HI54" s="34"/>
-      <c r="HJ54" s="34"/>
-      <c r="HK54" s="34"/>
-      <c r="HL54" s="34"/>
-      <c r="HM54" s="34"/>
-      <c r="HN54" s="34"/>
-      <c r="HO54" s="34"/>
-      <c r="HP54" s="34"/>
-      <c r="HQ54" s="34"/>
-      <c r="HR54" s="34"/>
-      <c r="HS54" s="34"/>
-      <c r="HT54" s="34"/>
-      <c r="HU54" s="34"/>
-      <c r="HV54" s="34"/>
-      <c r="HW54" s="34"/>
-      <c r="HX54" s="34"/>
-      <c r="HY54" s="34"/>
-      <c r="HZ54" s="34"/>
-      <c r="IA54" s="34"/>
-      <c r="IB54" s="34"/>
-      <c r="IC54" s="34"/>
-      <c r="ID54" s="34"/>
-      <c r="IE54" s="34"/>
-      <c r="IF54" s="34"/>
-      <c r="IG54" s="34"/>
-      <c r="IH54" s="34"/>
-      <c r="II54" s="34"/>
-      <c r="IJ54" s="34"/>
-      <c r="IK54" s="34"/>
-      <c r="IL54" s="34"/>
-      <c r="IM54" s="34"/>
-      <c r="IN54" s="34"/>
-      <c r="IO54" s="34"/>
-      <c r="IP54" s="34"/>
-      <c r="IQ54" s="34"/>
-      <c r="IR54" s="34"/>
-      <c r="IS54" s="34"/>
-      <c r="IT54" s="34"/>
-      <c r="IU54" s="34"/>
-      <c r="IV54" s="34"/>
-      <c r="IW54" s="34"/>
-      <c r="IX54" s="34"/>
-      <c r="IY54" s="34"/>
-      <c r="IZ54" s="34"/>
-      <c r="JA54" s="34"/>
-      <c r="JB54" s="34"/>
-      <c r="JC54" s="34"/>
-      <c r="JD54" s="34"/>
-      <c r="JE54" s="34"/>
-      <c r="JF54" s="34"/>
-      <c r="JG54" s="34"/>
-      <c r="JH54" s="34"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="39"/>
+      <c r="AM54" s="39"/>
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="39"/>
+      <c r="AP54" s="39"/>
+      <c r="AQ54" s="39"/>
+      <c r="AR54" s="39"/>
+      <c r="AS54" s="39"/>
+      <c r="AT54" s="39"/>
+      <c r="AU54" s="39"/>
+      <c r="AV54" s="39"/>
+      <c r="AW54" s="39"/>
+      <c r="AX54" s="39"/>
+      <c r="AY54" s="39"/>
+      <c r="AZ54" s="39"/>
+      <c r="BA54" s="39"/>
+      <c r="BB54" s="39"/>
+      <c r="BC54" s="39"/>
+      <c r="BD54" s="39"/>
+      <c r="BE54" s="39"/>
+      <c r="BF54" s="39"/>
+      <c r="BG54" s="39"/>
+      <c r="BH54" s="39"/>
+      <c r="BI54" s="39"/>
+      <c r="BJ54" s="39"/>
+      <c r="BK54" s="39"/>
+      <c r="BL54" s="39"/>
+      <c r="BM54" s="39"/>
+      <c r="BN54" s="39"/>
+      <c r="BO54" s="39"/>
+      <c r="BP54" s="39"/>
+      <c r="BQ54" s="39"/>
+      <c r="BR54" s="39"/>
+      <c r="BS54" s="39"/>
+      <c r="BT54" s="39"/>
+      <c r="BU54" s="39"/>
+      <c r="BV54" s="39"/>
+      <c r="BW54" s="39"/>
+      <c r="BX54" s="39"/>
+      <c r="BY54" s="39"/>
+      <c r="BZ54" s="39"/>
+      <c r="CA54" s="39"/>
+      <c r="CB54" s="39"/>
+      <c r="CC54" s="39"/>
+      <c r="CD54" s="39"/>
+      <c r="CE54" s="39"/>
+      <c r="CF54" s="39"/>
+      <c r="CG54" s="39"/>
+      <c r="CH54" s="39"/>
+      <c r="CI54" s="39"/>
+      <c r="CJ54" s="39"/>
+      <c r="CK54" s="39"/>
+      <c r="CL54" s="39"/>
+      <c r="CM54" s="39"/>
+      <c r="CN54" s="39"/>
+      <c r="CO54" s="39"/>
+      <c r="CP54" s="39"/>
+      <c r="CQ54" s="39"/>
+      <c r="CR54" s="39"/>
+      <c r="CS54" s="39"/>
+      <c r="CT54" s="39"/>
+      <c r="CU54" s="39"/>
+      <c r="CV54" s="39"/>
+      <c r="CW54" s="39"/>
+      <c r="CX54" s="39"/>
+      <c r="CY54" s="39"/>
+      <c r="CZ54" s="39"/>
+      <c r="DA54" s="39"/>
+      <c r="DB54" s="39"/>
+      <c r="DC54" s="39"/>
+      <c r="DD54" s="39"/>
+      <c r="DE54" s="39"/>
+      <c r="DF54" s="39"/>
+      <c r="DG54" s="39"/>
+      <c r="DH54" s="39"/>
+      <c r="DI54" s="39"/>
+      <c r="DJ54" s="39"/>
+      <c r="DK54" s="39"/>
+      <c r="DL54" s="39"/>
+      <c r="DM54" s="39"/>
+      <c r="DN54" s="39"/>
+      <c r="DO54" s="39"/>
+      <c r="DP54" s="39"/>
+      <c r="DQ54" s="39"/>
+      <c r="DR54" s="39"/>
+      <c r="DS54" s="39"/>
+      <c r="DT54" s="39"/>
+      <c r="DU54" s="39"/>
+      <c r="DV54" s="39"/>
+      <c r="DW54" s="39"/>
+      <c r="DX54" s="39"/>
+      <c r="DY54" s="39"/>
+      <c r="DZ54" s="39"/>
+      <c r="EA54" s="39"/>
+      <c r="EB54" s="39"/>
+      <c r="EC54" s="39"/>
+      <c r="ED54" s="39"/>
+      <c r="EE54" s="39"/>
+      <c r="EF54" s="39"/>
+      <c r="EG54" s="39"/>
+      <c r="EH54" s="39"/>
+      <c r="EI54" s="39"/>
+      <c r="EJ54" s="39"/>
+      <c r="EK54" s="39"/>
+      <c r="EL54" s="39"/>
+      <c r="EM54" s="39"/>
+      <c r="EN54" s="39"/>
+      <c r="EO54" s="39"/>
+      <c r="EP54" s="39"/>
+      <c r="EQ54" s="39"/>
+      <c r="ER54" s="39"/>
+      <c r="ES54" s="39"/>
+      <c r="ET54" s="39"/>
+      <c r="EU54" s="39"/>
+      <c r="EV54" s="39"/>
+      <c r="EW54" s="39"/>
+      <c r="EX54" s="39"/>
+      <c r="EY54" s="39"/>
+      <c r="EZ54" s="39"/>
+      <c r="FA54" s="39"/>
+      <c r="FB54" s="39"/>
+      <c r="FC54" s="39"/>
+      <c r="FD54" s="39"/>
+      <c r="FE54" s="39"/>
+      <c r="FF54" s="39"/>
+      <c r="FG54" s="39"/>
+      <c r="FH54" s="39"/>
+      <c r="FI54" s="39"/>
+      <c r="FJ54" s="39"/>
+      <c r="FK54" s="39"/>
+      <c r="FL54" s="39"/>
+      <c r="FM54" s="39"/>
+      <c r="FN54" s="39"/>
+      <c r="FO54" s="39"/>
+      <c r="FP54" s="39"/>
+      <c r="FQ54" s="39"/>
+      <c r="FR54" s="39"/>
+      <c r="FS54" s="39"/>
+      <c r="FT54" s="39"/>
+      <c r="FU54" s="39"/>
+      <c r="FV54" s="39"/>
+      <c r="FW54" s="39"/>
+      <c r="FX54" s="39"/>
+      <c r="FY54" s="39"/>
+      <c r="FZ54" s="39"/>
+      <c r="GA54" s="39"/>
+      <c r="GB54" s="39"/>
+      <c r="GC54" s="39"/>
+      <c r="GD54" s="39"/>
+      <c r="GE54" s="39"/>
+      <c r="GF54" s="39"/>
+      <c r="GG54" s="39"/>
+      <c r="GH54" s="39"/>
+      <c r="GI54" s="39"/>
+      <c r="GJ54" s="39"/>
+      <c r="GK54" s="39"/>
+      <c r="GL54" s="39"/>
+      <c r="GM54" s="39"/>
+      <c r="GN54" s="39"/>
+      <c r="GO54" s="39"/>
+      <c r="GP54" s="39"/>
+      <c r="GQ54" s="39"/>
+      <c r="GR54" s="39"/>
+      <c r="GS54" s="39"/>
+      <c r="GT54" s="39"/>
+      <c r="GU54" s="39"/>
+      <c r="GV54" s="39"/>
+      <c r="GW54" s="39"/>
+      <c r="GX54" s="39"/>
+      <c r="GY54" s="39"/>
+      <c r="GZ54" s="39"/>
+      <c r="HA54" s="39"/>
+      <c r="HB54" s="39"/>
+      <c r="HC54" s="39"/>
+      <c r="HD54" s="39"/>
+      <c r="HE54" s="39"/>
+      <c r="HF54" s="39"/>
+      <c r="HG54" s="39"/>
+      <c r="HH54" s="39"/>
+      <c r="HI54" s="39"/>
+      <c r="HJ54" s="39"/>
+      <c r="HK54" s="39"/>
+      <c r="HL54" s="39"/>
+      <c r="HM54" s="39"/>
+      <c r="HN54" s="39"/>
+      <c r="HO54" s="39"/>
+      <c r="HP54" s="39"/>
+      <c r="HQ54" s="39"/>
+      <c r="HR54" s="39"/>
+      <c r="HS54" s="39"/>
+      <c r="HT54" s="39"/>
+      <c r="HU54" s="39"/>
+      <c r="HV54" s="39"/>
+      <c r="HW54" s="39"/>
+      <c r="HX54" s="39"/>
+      <c r="HY54" s="39"/>
+      <c r="HZ54" s="39"/>
+      <c r="IA54" s="39"/>
+      <c r="IB54" s="39"/>
+      <c r="IC54" s="39"/>
+      <c r="ID54" s="39"/>
+      <c r="IE54" s="39"/>
+      <c r="IF54" s="39"/>
+      <c r="IG54" s="39"/>
+      <c r="IH54" s="39"/>
+      <c r="II54" s="39"/>
+      <c r="IJ54" s="39"/>
+      <c r="IK54" s="39"/>
+      <c r="IL54" s="39"/>
+      <c r="IM54" s="39"/>
+      <c r="IN54" s="39"/>
+      <c r="IO54" s="39"/>
+      <c r="IP54" s="39"/>
+      <c r="IQ54" s="39"/>
+      <c r="IR54" s="39"/>
+      <c r="IS54" s="39"/>
+      <c r="IT54" s="39"/>
+      <c r="IU54" s="39"/>
+      <c r="IV54" s="39"/>
+      <c r="IW54" s="39"/>
+      <c r="IX54" s="39"/>
+      <c r="IY54" s="39"/>
+      <c r="IZ54" s="39"/>
+      <c r="JA54" s="39"/>
+      <c r="JB54" s="39"/>
+      <c r="JC54" s="39"/>
+      <c r="JD54" s="39"/>
+      <c r="JE54" s="39"/>
+      <c r="JF54" s="39"/>
+      <c r="JG54" s="39"/>
+      <c r="JH54" s="39"/>
       <c r="JI54"/>
       <c r="JJ54" s="33"/>
+      <c r="JK54"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A54:JH54"/>
+    <mergeCell ref="IH4:IS4"/>
+    <mergeCell ref="IT4:JE4"/>
+    <mergeCell ref="DF4:DQ4"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="AL4:AW4"/>
+    <mergeCell ref="AX4:BI4"/>
+    <mergeCell ref="A44:JI44"/>
+    <mergeCell ref="JF4:JK4"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -40190,16 +40372,6 @@
     <mergeCell ref="BV4:CG4"/>
     <mergeCell ref="CH4:CS4"/>
     <mergeCell ref="CT4:DE4"/>
-    <mergeCell ref="A54:JH54"/>
-    <mergeCell ref="IH4:IS4"/>
-    <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="DF4:DQ4"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="Z4:AK4"/>
-    <mergeCell ref="AL4:AW4"/>
-    <mergeCell ref="AX4:BI4"/>
-    <mergeCell ref="A44:JI44"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -40229,58 +40401,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -43052,31 +43224,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -43611,31 +43783,31 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.08.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.18.08.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E070CEB8-5008-46D1-AE3D-4EDE6EBE8A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB0A5B-6328-447B-B795-A6AB695C622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,18 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -818,24 +830,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -844,6 +838,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,877 +1048,877 @@
     <col min="266" max="266" width="6.28515625" customWidth="1"/>
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="269" max="270" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="7.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="36"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CF1" s="36"/>
-      <c r="CG1" s="36"/>
-      <c r="CH1" s="36"/>
-      <c r="CI1" s="36"/>
-      <c r="CJ1" s="36"/>
-      <c r="CK1" s="36"/>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CN1" s="36"/>
-      <c r="CO1" s="36"/>
-      <c r="CP1" s="36"/>
-      <c r="CQ1" s="36"/>
-      <c r="CR1" s="36"/>
-      <c r="CS1" s="36"/>
-      <c r="CT1" s="36"/>
-      <c r="CU1" s="36"/>
-      <c r="CV1" s="36"/>
-      <c r="CW1" s="36"/>
-      <c r="CX1" s="36"/>
-      <c r="CY1" s="36"/>
-      <c r="CZ1" s="36"/>
-      <c r="DA1" s="36"/>
-      <c r="DB1" s="36"/>
-      <c r="DC1" s="36"/>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="36"/>
-      <c r="DJ1" s="36"/>
-      <c r="DK1" s="36"/>
-      <c r="DL1" s="36"/>
-      <c r="DM1" s="36"/>
-      <c r="DN1" s="36"/>
-      <c r="DO1" s="36"/>
-      <c r="DP1" s="36"/>
-      <c r="DQ1" s="36"/>
-      <c r="DR1" s="36"/>
-      <c r="DS1" s="36"/>
-      <c r="DT1" s="36"/>
-      <c r="DU1" s="36"/>
-      <c r="DV1" s="36"/>
-      <c r="DW1" s="36"/>
-      <c r="DX1" s="36"/>
-      <c r="DY1" s="36"/>
-      <c r="DZ1" s="36"/>
-      <c r="EA1" s="36"/>
-      <c r="EB1" s="36"/>
-      <c r="EC1" s="36"/>
-      <c r="ED1" s="36"/>
-      <c r="EE1" s="36"/>
-      <c r="EF1" s="36"/>
-      <c r="EG1" s="36"/>
-      <c r="EH1" s="36"/>
-      <c r="EI1" s="36"/>
-      <c r="EJ1" s="36"/>
-      <c r="EK1" s="36"/>
-      <c r="EL1" s="36"/>
-      <c r="EM1" s="36"/>
-      <c r="EN1" s="36"/>
-      <c r="EO1" s="36"/>
-      <c r="EP1" s="36"/>
-      <c r="EQ1" s="36"/>
-      <c r="ER1" s="36"/>
-      <c r="ES1" s="36"/>
-      <c r="ET1" s="36"/>
-      <c r="EU1" s="36"/>
-      <c r="EV1" s="36"/>
-      <c r="EW1" s="36"/>
-      <c r="EX1" s="36"/>
-      <c r="EY1" s="36"/>
-      <c r="EZ1" s="36"/>
-      <c r="FA1" s="36"/>
-      <c r="FB1" s="36"/>
-      <c r="FC1" s="36"/>
-      <c r="FD1" s="36"/>
-      <c r="FE1" s="36"/>
-      <c r="FF1" s="36"/>
-      <c r="FG1" s="36"/>
-      <c r="FH1" s="36"/>
-      <c r="FI1" s="36"/>
-      <c r="FJ1" s="36"/>
-      <c r="FK1" s="36"/>
-      <c r="FL1" s="36"/>
-      <c r="FM1" s="36"/>
-      <c r="FN1" s="36"/>
-      <c r="FO1" s="36"/>
-      <c r="FP1" s="36"/>
-      <c r="FQ1" s="36"/>
-      <c r="FR1" s="36"/>
-      <c r="FS1" s="36"/>
-      <c r="FT1" s="36"/>
-      <c r="FU1" s="36"/>
-      <c r="FV1" s="36"/>
-      <c r="FW1" s="36"/>
-      <c r="FX1" s="36"/>
-      <c r="FY1" s="36"/>
-      <c r="FZ1" s="36"/>
-      <c r="GA1" s="36"/>
-      <c r="GB1" s="36"/>
-      <c r="GC1" s="36"/>
-      <c r="GD1" s="36"/>
-      <c r="GE1" s="36"/>
-      <c r="GF1" s="36"/>
-      <c r="GG1" s="36"/>
-      <c r="GH1" s="36"/>
-      <c r="GI1" s="36"/>
-      <c r="GJ1" s="36"/>
-      <c r="GK1" s="36"/>
-      <c r="GL1" s="36"/>
-      <c r="GM1" s="36"/>
-      <c r="GN1" s="36"/>
-      <c r="GO1" s="36"/>
-      <c r="GP1" s="36"/>
-      <c r="GQ1" s="36"/>
-      <c r="GR1" s="36"/>
-      <c r="GS1" s="36"/>
-      <c r="GT1" s="36"/>
-      <c r="GU1" s="36"/>
-      <c r="GV1" s="36"/>
-      <c r="GW1" s="36"/>
-      <c r="GX1" s="36"/>
-      <c r="GY1" s="36"/>
-      <c r="GZ1" s="36"/>
-      <c r="HA1" s="36"/>
-      <c r="HB1" s="36"/>
-      <c r="HC1" s="36"/>
-      <c r="HD1" s="36"/>
-      <c r="HE1" s="36"/>
-      <c r="HF1" s="36"/>
-      <c r="HG1" s="36"/>
-      <c r="HH1" s="36"/>
-      <c r="HI1" s="36"/>
-      <c r="HJ1" s="36"/>
-      <c r="HK1" s="36"/>
-      <c r="HL1" s="36"/>
-      <c r="HM1" s="36"/>
-      <c r="HN1" s="36"/>
-      <c r="HO1" s="36"/>
-      <c r="HP1" s="36"/>
-      <c r="HQ1" s="36"/>
-      <c r="HR1" s="36"/>
-      <c r="HS1" s="36"/>
-      <c r="HT1" s="36"/>
-      <c r="HU1" s="36"/>
-      <c r="HV1" s="36"/>
-      <c r="HW1" s="36"/>
-      <c r="HX1" s="36"/>
-      <c r="HY1" s="36"/>
-      <c r="HZ1" s="36"/>
-      <c r="IA1" s="36"/>
-      <c r="IB1" s="36"/>
-      <c r="IC1" s="36"/>
-      <c r="ID1" s="36"/>
-      <c r="IE1" s="36"/>
-      <c r="IF1" s="36"/>
-      <c r="IG1" s="36"/>
-      <c r="IH1" s="36"/>
-      <c r="II1" s="36"/>
-      <c r="IJ1" s="36"/>
-      <c r="IK1" s="36"/>
-      <c r="IL1" s="36"/>
-      <c r="IM1" s="36"/>
-      <c r="IN1" s="36"/>
-      <c r="IO1" s="36"/>
-      <c r="IP1" s="36"/>
-      <c r="IQ1" s="36"/>
-      <c r="IR1" s="36"/>
-      <c r="IS1" s="36"/>
-      <c r="IT1" s="36"/>
-      <c r="IU1" s="36"/>
-      <c r="IV1" s="36"/>
-      <c r="IW1" s="36"/>
-      <c r="IX1" s="36"/>
-      <c r="IY1" s="36"/>
-      <c r="IZ1" s="36"/>
-      <c r="JA1" s="36"/>
-      <c r="JB1" s="36"/>
-      <c r="JC1" s="36"/>
-      <c r="JD1" s="36"/>
-      <c r="JE1" s="36"/>
-      <c r="JF1" s="36"/>
-      <c r="JG1" s="36"/>
-      <c r="JH1" s="36"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40"/>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="40"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40"/>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CE1" s="40"/>
+      <c r="CF1" s="40"/>
+      <c r="CG1" s="40"/>
+      <c r="CH1" s="40"/>
+      <c r="CI1" s="40"/>
+      <c r="CJ1" s="40"/>
+      <c r="CK1" s="40"/>
+      <c r="CL1" s="40"/>
+      <c r="CM1" s="40"/>
+      <c r="CN1" s="40"/>
+      <c r="CO1" s="40"/>
+      <c r="CP1" s="40"/>
+      <c r="CQ1" s="40"/>
+      <c r="CR1" s="40"/>
+      <c r="CS1" s="40"/>
+      <c r="CT1" s="40"/>
+      <c r="CU1" s="40"/>
+      <c r="CV1" s="40"/>
+      <c r="CW1" s="40"/>
+      <c r="CX1" s="40"/>
+      <c r="CY1" s="40"/>
+      <c r="CZ1" s="40"/>
+      <c r="DA1" s="40"/>
+      <c r="DB1" s="40"/>
+      <c r="DC1" s="40"/>
+      <c r="DD1" s="40"/>
+      <c r="DE1" s="40"/>
+      <c r="DF1" s="40"/>
+      <c r="DG1" s="40"/>
+      <c r="DH1" s="40"/>
+      <c r="DI1" s="40"/>
+      <c r="DJ1" s="40"/>
+      <c r="DK1" s="40"/>
+      <c r="DL1" s="40"/>
+      <c r="DM1" s="40"/>
+      <c r="DN1" s="40"/>
+      <c r="DO1" s="40"/>
+      <c r="DP1" s="40"/>
+      <c r="DQ1" s="40"/>
+      <c r="DR1" s="40"/>
+      <c r="DS1" s="40"/>
+      <c r="DT1" s="40"/>
+      <c r="DU1" s="40"/>
+      <c r="DV1" s="40"/>
+      <c r="DW1" s="40"/>
+      <c r="DX1" s="40"/>
+      <c r="DY1" s="40"/>
+      <c r="DZ1" s="40"/>
+      <c r="EA1" s="40"/>
+      <c r="EB1" s="40"/>
+      <c r="EC1" s="40"/>
+      <c r="ED1" s="40"/>
+      <c r="EE1" s="40"/>
+      <c r="EF1" s="40"/>
+      <c r="EG1" s="40"/>
+      <c r="EH1" s="40"/>
+      <c r="EI1" s="40"/>
+      <c r="EJ1" s="40"/>
+      <c r="EK1" s="40"/>
+      <c r="EL1" s="40"/>
+      <c r="EM1" s="40"/>
+      <c r="EN1" s="40"/>
+      <c r="EO1" s="40"/>
+      <c r="EP1" s="40"/>
+      <c r="EQ1" s="40"/>
+      <c r="ER1" s="40"/>
+      <c r="ES1" s="40"/>
+      <c r="ET1" s="40"/>
+      <c r="EU1" s="40"/>
+      <c r="EV1" s="40"/>
+      <c r="EW1" s="40"/>
+      <c r="EX1" s="40"/>
+      <c r="EY1" s="40"/>
+      <c r="EZ1" s="40"/>
+      <c r="FA1" s="40"/>
+      <c r="FB1" s="40"/>
+      <c r="FC1" s="40"/>
+      <c r="FD1" s="40"/>
+      <c r="FE1" s="40"/>
+      <c r="FF1" s="40"/>
+      <c r="FG1" s="40"/>
+      <c r="FH1" s="40"/>
+      <c r="FI1" s="40"/>
+      <c r="FJ1" s="40"/>
+      <c r="FK1" s="40"/>
+      <c r="FL1" s="40"/>
+      <c r="FM1" s="40"/>
+      <c r="FN1" s="40"/>
+      <c r="FO1" s="40"/>
+      <c r="FP1" s="40"/>
+      <c r="FQ1" s="40"/>
+      <c r="FR1" s="40"/>
+      <c r="FS1" s="40"/>
+      <c r="FT1" s="40"/>
+      <c r="FU1" s="40"/>
+      <c r="FV1" s="40"/>
+      <c r="FW1" s="40"/>
+      <c r="FX1" s="40"/>
+      <c r="FY1" s="40"/>
+      <c r="FZ1" s="40"/>
+      <c r="GA1" s="40"/>
+      <c r="GB1" s="40"/>
+      <c r="GC1" s="40"/>
+      <c r="GD1" s="40"/>
+      <c r="GE1" s="40"/>
+      <c r="GF1" s="40"/>
+      <c r="GG1" s="40"/>
+      <c r="GH1" s="40"/>
+      <c r="GI1" s="40"/>
+      <c r="GJ1" s="40"/>
+      <c r="GK1" s="40"/>
+      <c r="GL1" s="40"/>
+      <c r="GM1" s="40"/>
+      <c r="GN1" s="40"/>
+      <c r="GO1" s="40"/>
+      <c r="GP1" s="40"/>
+      <c r="GQ1" s="40"/>
+      <c r="GR1" s="40"/>
+      <c r="GS1" s="40"/>
+      <c r="GT1" s="40"/>
+      <c r="GU1" s="40"/>
+      <c r="GV1" s="40"/>
+      <c r="GW1" s="40"/>
+      <c r="GX1" s="40"/>
+      <c r="GY1" s="40"/>
+      <c r="GZ1" s="40"/>
+      <c r="HA1" s="40"/>
+      <c r="HB1" s="40"/>
+      <c r="HC1" s="40"/>
+      <c r="HD1" s="40"/>
+      <c r="HE1" s="40"/>
+      <c r="HF1" s="40"/>
+      <c r="HG1" s="40"/>
+      <c r="HH1" s="40"/>
+      <c r="HI1" s="40"/>
+      <c r="HJ1" s="40"/>
+      <c r="HK1" s="40"/>
+      <c r="HL1" s="40"/>
+      <c r="HM1" s="40"/>
+      <c r="HN1" s="40"/>
+      <c r="HO1" s="40"/>
+      <c r="HP1" s="40"/>
+      <c r="HQ1" s="40"/>
+      <c r="HR1" s="40"/>
+      <c r="HS1" s="40"/>
+      <c r="HT1" s="40"/>
+      <c r="HU1" s="40"/>
+      <c r="HV1" s="40"/>
+      <c r="HW1" s="40"/>
+      <c r="HX1" s="40"/>
+      <c r="HY1" s="40"/>
+      <c r="HZ1" s="40"/>
+      <c r="IA1" s="40"/>
+      <c r="IB1" s="40"/>
+      <c r="IC1" s="40"/>
+      <c r="ID1" s="40"/>
+      <c r="IE1" s="40"/>
+      <c r="IF1" s="40"/>
+      <c r="IG1" s="40"/>
+      <c r="IH1" s="40"/>
+      <c r="II1" s="40"/>
+      <c r="IJ1" s="40"/>
+      <c r="IK1" s="40"/>
+      <c r="IL1" s="40"/>
+      <c r="IM1" s="40"/>
+      <c r="IN1" s="40"/>
+      <c r="IO1" s="40"/>
+      <c r="IP1" s="40"/>
+      <c r="IQ1" s="40"/>
+      <c r="IR1" s="40"/>
+      <c r="IS1" s="40"/>
+      <c r="IT1" s="40"/>
+      <c r="IU1" s="40"/>
+      <c r="IV1" s="40"/>
+      <c r="IW1" s="40"/>
+      <c r="IX1" s="40"/>
+      <c r="IY1" s="40"/>
+      <c r="IZ1" s="40"/>
+      <c r="JA1" s="40"/>
+      <c r="JB1" s="40"/>
+      <c r="JC1" s="40"/>
+      <c r="JD1" s="40"/>
+      <c r="JE1" s="40"/>
+      <c r="JF1" s="40"/>
+      <c r="JG1" s="40"/>
+      <c r="JH1" s="40"/>
       <c r="JI1"/>
       <c r="JJ1" s="33"/>
       <c r="JK1"/>
     </row>
     <row r="2" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="36"/>
-      <c r="CK2" s="36"/>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36"/>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="36"/>
-      <c r="CR2" s="36"/>
-      <c r="CS2" s="36"/>
-      <c r="CT2" s="36"/>
-      <c r="CU2" s="36"/>
-      <c r="CV2" s="36"/>
-      <c r="CW2" s="36"/>
-      <c r="CX2" s="36"/>
-      <c r="CY2" s="36"/>
-      <c r="CZ2" s="36"/>
-      <c r="DA2" s="36"/>
-      <c r="DB2" s="36"/>
-      <c r="DC2" s="36"/>
-      <c r="DD2" s="36"/>
-      <c r="DE2" s="36"/>
-      <c r="DF2" s="36"/>
-      <c r="DG2" s="36"/>
-      <c r="DH2" s="36"/>
-      <c r="DI2" s="36"/>
-      <c r="DJ2" s="36"/>
-      <c r="DK2" s="36"/>
-      <c r="DL2" s="36"/>
-      <c r="DM2" s="36"/>
-      <c r="DN2" s="36"/>
-      <c r="DO2" s="36"/>
-      <c r="DP2" s="36"/>
-      <c r="DQ2" s="36"/>
-      <c r="DR2" s="36"/>
-      <c r="DS2" s="36"/>
-      <c r="DT2" s="36"/>
-      <c r="DU2" s="36"/>
-      <c r="DV2" s="36"/>
-      <c r="DW2" s="36"/>
-      <c r="DX2" s="36"/>
-      <c r="DY2" s="36"/>
-      <c r="DZ2" s="36"/>
-      <c r="EA2" s="36"/>
-      <c r="EB2" s="36"/>
-      <c r="EC2" s="36"/>
-      <c r="ED2" s="36"/>
-      <c r="EE2" s="36"/>
-      <c r="EF2" s="36"/>
-      <c r="EG2" s="36"/>
-      <c r="EH2" s="36"/>
-      <c r="EI2" s="36"/>
-      <c r="EJ2" s="36"/>
-      <c r="EK2" s="36"/>
-      <c r="EL2" s="36"/>
-      <c r="EM2" s="36"/>
-      <c r="EN2" s="36"/>
-      <c r="EO2" s="36"/>
-      <c r="EP2" s="36"/>
-      <c r="EQ2" s="36"/>
-      <c r="ER2" s="36"/>
-      <c r="ES2" s="36"/>
-      <c r="ET2" s="36"/>
-      <c r="EU2" s="36"/>
-      <c r="EV2" s="36"/>
-      <c r="EW2" s="36"/>
-      <c r="EX2" s="36"/>
-      <c r="EY2" s="36"/>
-      <c r="EZ2" s="36"/>
-      <c r="FA2" s="36"/>
-      <c r="FB2" s="36"/>
-      <c r="FC2" s="36"/>
-      <c r="FD2" s="36"/>
-      <c r="FE2" s="36"/>
-      <c r="FF2" s="36"/>
-      <c r="FG2" s="36"/>
-      <c r="FH2" s="36"/>
-      <c r="FI2" s="36"/>
-      <c r="FJ2" s="36"/>
-      <c r="FK2" s="36"/>
-      <c r="FL2" s="36"/>
-      <c r="FM2" s="36"/>
-      <c r="FN2" s="36"/>
-      <c r="FO2" s="36"/>
-      <c r="FP2" s="36"/>
-      <c r="FQ2" s="36"/>
-      <c r="FR2" s="36"/>
-      <c r="FS2" s="36"/>
-      <c r="FT2" s="36"/>
-      <c r="FU2" s="36"/>
-      <c r="FV2" s="36"/>
-      <c r="FW2" s="36"/>
-      <c r="FX2" s="36"/>
-      <c r="FY2" s="36"/>
-      <c r="FZ2" s="36"/>
-      <c r="GA2" s="36"/>
-      <c r="GB2" s="36"/>
-      <c r="GC2" s="36"/>
-      <c r="GD2" s="36"/>
-      <c r="GE2" s="36"/>
-      <c r="GF2" s="36"/>
-      <c r="GG2" s="36"/>
-      <c r="GH2" s="36"/>
-      <c r="GI2" s="36"/>
-      <c r="GJ2" s="36"/>
-      <c r="GK2" s="36"/>
-      <c r="GL2" s="36"/>
-      <c r="GM2" s="36"/>
-      <c r="GN2" s="36"/>
-      <c r="GO2" s="36"/>
-      <c r="GP2" s="36"/>
-      <c r="GQ2" s="36"/>
-      <c r="GR2" s="36"/>
-      <c r="GS2" s="36"/>
-      <c r="GT2" s="36"/>
-      <c r="GU2" s="36"/>
-      <c r="GV2" s="36"/>
-      <c r="GW2" s="36"/>
-      <c r="GX2" s="36"/>
-      <c r="GY2" s="36"/>
-      <c r="GZ2" s="36"/>
-      <c r="HA2" s="36"/>
-      <c r="HB2" s="36"/>
-      <c r="HC2" s="36"/>
-      <c r="HD2" s="36"/>
-      <c r="HE2" s="36"/>
-      <c r="HF2" s="36"/>
-      <c r="HG2" s="36"/>
-      <c r="HH2" s="36"/>
-      <c r="HI2" s="36"/>
-      <c r="HJ2" s="36"/>
-      <c r="HK2" s="36"/>
-      <c r="HL2" s="36"/>
-      <c r="HM2" s="36"/>
-      <c r="HN2" s="36"/>
-      <c r="HO2" s="36"/>
-      <c r="HP2" s="36"/>
-      <c r="HQ2" s="36"/>
-      <c r="HR2" s="36"/>
-      <c r="HS2" s="36"/>
-      <c r="HT2" s="36"/>
-      <c r="HU2" s="36"/>
-      <c r="HV2" s="36"/>
-      <c r="HW2" s="36"/>
-      <c r="HX2" s="36"/>
-      <c r="HY2" s="36"/>
-      <c r="HZ2" s="36"/>
-      <c r="IA2" s="36"/>
-      <c r="IB2" s="36"/>
-      <c r="IC2" s="36"/>
-      <c r="ID2" s="36"/>
-      <c r="IE2" s="36"/>
-      <c r="IF2" s="36"/>
-      <c r="IG2" s="36"/>
-      <c r="IH2" s="36"/>
-      <c r="II2" s="36"/>
-      <c r="IJ2" s="36"/>
-      <c r="IK2" s="36"/>
-      <c r="IL2" s="36"/>
-      <c r="IM2" s="36"/>
-      <c r="IN2" s="36"/>
-      <c r="IO2" s="36"/>
-      <c r="IP2" s="36"/>
-      <c r="IQ2" s="36"/>
-      <c r="IR2" s="36"/>
-      <c r="IS2" s="36"/>
-      <c r="IT2" s="36"/>
-      <c r="IU2" s="36"/>
-      <c r="IV2" s="36"/>
-      <c r="IW2" s="36"/>
-      <c r="IX2" s="36"/>
-      <c r="IY2" s="36"/>
-      <c r="IZ2" s="36"/>
-      <c r="JA2" s="36"/>
-      <c r="JB2" s="36"/>
-      <c r="JC2" s="36"/>
-      <c r="JD2" s="36"/>
-      <c r="JE2" s="36"/>
-      <c r="JF2" s="36"/>
-      <c r="JG2" s="36"/>
-      <c r="JH2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="40"/>
+      <c r="BM2" s="40"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
+      <c r="BP2" s="40"/>
+      <c r="BQ2" s="40"/>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
+      <c r="BV2" s="40"/>
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="40"/>
+      <c r="CA2" s="40"/>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
+      <c r="CL2" s="40"/>
+      <c r="CM2" s="40"/>
+      <c r="CN2" s="40"/>
+      <c r="CO2" s="40"/>
+      <c r="CP2" s="40"/>
+      <c r="CQ2" s="40"/>
+      <c r="CR2" s="40"/>
+      <c r="CS2" s="40"/>
+      <c r="CT2" s="40"/>
+      <c r="CU2" s="40"/>
+      <c r="CV2" s="40"/>
+      <c r="CW2" s="40"/>
+      <c r="CX2" s="40"/>
+      <c r="CY2" s="40"/>
+      <c r="CZ2" s="40"/>
+      <c r="DA2" s="40"/>
+      <c r="DB2" s="40"/>
+      <c r="DC2" s="40"/>
+      <c r="DD2" s="40"/>
+      <c r="DE2" s="40"/>
+      <c r="DF2" s="40"/>
+      <c r="DG2" s="40"/>
+      <c r="DH2" s="40"/>
+      <c r="DI2" s="40"/>
+      <c r="DJ2" s="40"/>
+      <c r="DK2" s="40"/>
+      <c r="DL2" s="40"/>
+      <c r="DM2" s="40"/>
+      <c r="DN2" s="40"/>
+      <c r="DO2" s="40"/>
+      <c r="DP2" s="40"/>
+      <c r="DQ2" s="40"/>
+      <c r="DR2" s="40"/>
+      <c r="DS2" s="40"/>
+      <c r="DT2" s="40"/>
+      <c r="DU2" s="40"/>
+      <c r="DV2" s="40"/>
+      <c r="DW2" s="40"/>
+      <c r="DX2" s="40"/>
+      <c r="DY2" s="40"/>
+      <c r="DZ2" s="40"/>
+      <c r="EA2" s="40"/>
+      <c r="EB2" s="40"/>
+      <c r="EC2" s="40"/>
+      <c r="ED2" s="40"/>
+      <c r="EE2" s="40"/>
+      <c r="EF2" s="40"/>
+      <c r="EG2" s="40"/>
+      <c r="EH2" s="40"/>
+      <c r="EI2" s="40"/>
+      <c r="EJ2" s="40"/>
+      <c r="EK2" s="40"/>
+      <c r="EL2" s="40"/>
+      <c r="EM2" s="40"/>
+      <c r="EN2" s="40"/>
+      <c r="EO2" s="40"/>
+      <c r="EP2" s="40"/>
+      <c r="EQ2" s="40"/>
+      <c r="ER2" s="40"/>
+      <c r="ES2" s="40"/>
+      <c r="ET2" s="40"/>
+      <c r="EU2" s="40"/>
+      <c r="EV2" s="40"/>
+      <c r="EW2" s="40"/>
+      <c r="EX2" s="40"/>
+      <c r="EY2" s="40"/>
+      <c r="EZ2" s="40"/>
+      <c r="FA2" s="40"/>
+      <c r="FB2" s="40"/>
+      <c r="FC2" s="40"/>
+      <c r="FD2" s="40"/>
+      <c r="FE2" s="40"/>
+      <c r="FF2" s="40"/>
+      <c r="FG2" s="40"/>
+      <c r="FH2" s="40"/>
+      <c r="FI2" s="40"/>
+      <c r="FJ2" s="40"/>
+      <c r="FK2" s="40"/>
+      <c r="FL2" s="40"/>
+      <c r="FM2" s="40"/>
+      <c r="FN2" s="40"/>
+      <c r="FO2" s="40"/>
+      <c r="FP2" s="40"/>
+      <c r="FQ2" s="40"/>
+      <c r="FR2" s="40"/>
+      <c r="FS2" s="40"/>
+      <c r="FT2" s="40"/>
+      <c r="FU2" s="40"/>
+      <c r="FV2" s="40"/>
+      <c r="FW2" s="40"/>
+      <c r="FX2" s="40"/>
+      <c r="FY2" s="40"/>
+      <c r="FZ2" s="40"/>
+      <c r="GA2" s="40"/>
+      <c r="GB2" s="40"/>
+      <c r="GC2" s="40"/>
+      <c r="GD2" s="40"/>
+      <c r="GE2" s="40"/>
+      <c r="GF2" s="40"/>
+      <c r="GG2" s="40"/>
+      <c r="GH2" s="40"/>
+      <c r="GI2" s="40"/>
+      <c r="GJ2" s="40"/>
+      <c r="GK2" s="40"/>
+      <c r="GL2" s="40"/>
+      <c r="GM2" s="40"/>
+      <c r="GN2" s="40"/>
+      <c r="GO2" s="40"/>
+      <c r="GP2" s="40"/>
+      <c r="GQ2" s="40"/>
+      <c r="GR2" s="40"/>
+      <c r="GS2" s="40"/>
+      <c r="GT2" s="40"/>
+      <c r="GU2" s="40"/>
+      <c r="GV2" s="40"/>
+      <c r="GW2" s="40"/>
+      <c r="GX2" s="40"/>
+      <c r="GY2" s="40"/>
+      <c r="GZ2" s="40"/>
+      <c r="HA2" s="40"/>
+      <c r="HB2" s="40"/>
+      <c r="HC2" s="40"/>
+      <c r="HD2" s="40"/>
+      <c r="HE2" s="40"/>
+      <c r="HF2" s="40"/>
+      <c r="HG2" s="40"/>
+      <c r="HH2" s="40"/>
+      <c r="HI2" s="40"/>
+      <c r="HJ2" s="40"/>
+      <c r="HK2" s="40"/>
+      <c r="HL2" s="40"/>
+      <c r="HM2" s="40"/>
+      <c r="HN2" s="40"/>
+      <c r="HO2" s="40"/>
+      <c r="HP2" s="40"/>
+      <c r="HQ2" s="40"/>
+      <c r="HR2" s="40"/>
+      <c r="HS2" s="40"/>
+      <c r="HT2" s="40"/>
+      <c r="HU2" s="40"/>
+      <c r="HV2" s="40"/>
+      <c r="HW2" s="40"/>
+      <c r="HX2" s="40"/>
+      <c r="HY2" s="40"/>
+      <c r="HZ2" s="40"/>
+      <c r="IA2" s="40"/>
+      <c r="IB2" s="40"/>
+      <c r="IC2" s="40"/>
+      <c r="ID2" s="40"/>
+      <c r="IE2" s="40"/>
+      <c r="IF2" s="40"/>
+      <c r="IG2" s="40"/>
+      <c r="IH2" s="40"/>
+      <c r="II2" s="40"/>
+      <c r="IJ2" s="40"/>
+      <c r="IK2" s="40"/>
+      <c r="IL2" s="40"/>
+      <c r="IM2" s="40"/>
+      <c r="IN2" s="40"/>
+      <c r="IO2" s="40"/>
+      <c r="IP2" s="40"/>
+      <c r="IQ2" s="40"/>
+      <c r="IR2" s="40"/>
+      <c r="IS2" s="40"/>
+      <c r="IT2" s="40"/>
+      <c r="IU2" s="40"/>
+      <c r="IV2" s="40"/>
+      <c r="IW2" s="40"/>
+      <c r="IX2" s="40"/>
+      <c r="IY2" s="40"/>
+      <c r="IZ2" s="40"/>
+      <c r="JA2" s="40"/>
+      <c r="JB2" s="40"/>
+      <c r="JC2" s="40"/>
+      <c r="JD2" s="40"/>
+      <c r="JE2" s="40"/>
+      <c r="JF2" s="40"/>
+      <c r="JG2" s="40"/>
+      <c r="JH2" s="40"/>
       <c r="JI2"/>
       <c r="JJ2" s="33"/>
       <c r="JK2"/>
     </row>
     <row r="4" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="38">
+      <c r="B4" s="42">
         <v>2003</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42">
         <v>2004</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42">
         <v>2005</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42">
         <v>2006</v>
       </c>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38">
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42">
         <v>2007</v>
       </c>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38">
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42">
         <v>2008</v>
       </c>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38">
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42">
         <v>2009</v>
       </c>
-      <c r="BW4" s="38"/>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38">
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42">
         <v>2010</v>
       </c>
-      <c r="CI4" s="38"/>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38">
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="42"/>
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42">
         <v>2011</v>
       </c>
-      <c r="CU4" s="38"/>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38">
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42">
         <v>2012</v>
       </c>
-      <c r="DG4" s="38"/>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38">
+      <c r="DG4" s="42"/>
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="42">
         <v>2013</v>
       </c>
-      <c r="DS4" s="38"/>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38">
+      <c r="DS4" s="42"/>
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42">
         <v>2014</v>
       </c>
-      <c r="EE4" s="38"/>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38">
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="38"/>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38">
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42">
         <v>2016</v>
       </c>
-      <c r="FC4" s="38"/>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38">
+      <c r="FC4" s="42"/>
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="42"/>
+      <c r="FF4" s="42"/>
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="42">
         <v>2017</v>
       </c>
-      <c r="FO4" s="38"/>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38">
+      <c r="FO4" s="42"/>
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="42"/>
+      <c r="FV4" s="42"/>
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42">
         <v>2018</v>
       </c>
-      <c r="GA4" s="38"/>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38">
+      <c r="GA4" s="42"/>
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="42"/>
+      <c r="GL4" s="42">
         <v>2019</v>
       </c>
-      <c r="GM4" s="38"/>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38">
+      <c r="GM4" s="42"/>
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="42"/>
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42">
         <v>2020</v>
       </c>
-      <c r="GY4" s="38"/>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38">
+      <c r="GY4" s="42"/>
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="42"/>
+      <c r="HB4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="42">
         <v>2021</v>
       </c>
-      <c r="HK4" s="38"/>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38">
+      <c r="HK4" s="42"/>
+      <c r="HL4" s="42"/>
+      <c r="HM4" s="42"/>
+      <c r="HN4" s="42"/>
+      <c r="HO4" s="42"/>
+      <c r="HP4" s="42"/>
+      <c r="HQ4" s="42"/>
+      <c r="HR4" s="42"/>
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42">
         <v>2022</v>
       </c>
-      <c r="HW4" s="38"/>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="38">
+      <c r="HW4" s="42"/>
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="42"/>
+      <c r="IA4" s="42"/>
+      <c r="IB4" s="42"/>
+      <c r="IC4" s="42"/>
+      <c r="ID4" s="42"/>
+      <c r="IE4" s="42"/>
+      <c r="IF4" s="42"/>
+      <c r="IG4" s="42"/>
+      <c r="IH4" s="42">
         <v>2023</v>
       </c>
-      <c r="II4" s="38"/>
-      <c r="IJ4" s="38"/>
-      <c r="IK4" s="38"/>
-      <c r="IL4" s="38"/>
-      <c r="IM4" s="38"/>
-      <c r="IN4" s="38"/>
-      <c r="IO4" s="38"/>
-      <c r="IP4" s="38"/>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="38">
+      <c r="II4" s="42"/>
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="42">
         <v>2024</v>
       </c>
-      <c r="IU4" s="38"/>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="38"/>
-      <c r="IX4" s="38"/>
-      <c r="IY4" s="38"/>
-      <c r="IZ4" s="38"/>
-      <c r="JA4" s="38"/>
-      <c r="JB4" s="38"/>
-      <c r="JC4" s="38"/>
-      <c r="JD4" s="38"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="49">
+      <c r="IU4" s="42"/>
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="44"/>
+      <c r="JF4" s="47">
         <v>2025</v>
       </c>
-      <c r="JG4" s="50"/>
-      <c r="JH4" s="50"/>
-      <c r="JI4" s="50"/>
-      <c r="JJ4" s="50"/>
-      <c r="JK4" s="51"/>
+      <c r="JG4" s="48"/>
+      <c r="JH4" s="48"/>
+      <c r="JI4" s="48"/>
+      <c r="JJ4" s="48"/>
+      <c r="JK4" s="49"/>
     </row>
     <row r="5" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -2731,7 +2731,7 @@
       <c r="JJ5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="JK5" s="48" t="s">
+      <c r="JK5" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3532,22 +3532,22 @@
         <v>-1028.9986300083001</v>
       </c>
       <c r="JF6" s="4">
-        <v>2286.4459680756099</v>
+        <v>1188.41642939952</v>
       </c>
       <c r="JG6" s="4">
-        <v>42.991611145693803</v>
+        <v>-1512.8776628584001</v>
       </c>
       <c r="JH6" s="4">
-        <v>-2437.1465886471001</v>
+        <v>-2093.7995649861</v>
       </c>
       <c r="JI6" s="4">
-        <v>-1129.0731575258001</v>
+        <v>-988.08999719891005</v>
       </c>
       <c r="JJ6" s="4">
-        <v>-2454.7091011275002</v>
-      </c>
-      <c r="JK6" s="46">
-        <v>-1764.3354360066</v>
+        <v>-1705.6120319234999</v>
+      </c>
+      <c r="JK6" s="36">
+        <v>-1879.6716170065999</v>
       </c>
     </row>
     <row r="7" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,22 +4347,22 @@
         <v>-2074.1180414498999</v>
       </c>
       <c r="JF7" s="4">
-        <v>3275.7022171089502</v>
+        <v>2703.7430782787201</v>
       </c>
       <c r="JG7" s="4">
-        <v>-1075.0910868285</v>
+        <v>-1401.7181791078999</v>
       </c>
       <c r="JH7" s="4">
-        <v>-1038.6155426181999</v>
+        <v>132.51882134379699</v>
       </c>
       <c r="JI7" s="4">
-        <v>510.24998397938998</v>
+        <v>615.26364335831897</v>
       </c>
       <c r="JJ7" s="4">
-        <v>-1065.2005508431</v>
-      </c>
-      <c r="JK7" s="46">
-        <v>-1048.1448975967</v>
+        <v>-302.95713927452999</v>
+      </c>
+      <c r="JK7" s="36">
+        <v>-1163.4810785966999</v>
       </c>
     </row>
     <row r="8" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5162,21 +5162,21 @@
         <v>-1045.1194114415</v>
       </c>
       <c r="JF8" s="4">
-        <v>989.25624903334199</v>
+        <v>1515.3266488791901</v>
       </c>
       <c r="JG8" s="4">
-        <v>-1118.0826979742001</v>
+        <v>111.159483750536</v>
       </c>
       <c r="JH8" s="4">
-        <v>1398.5310460288599</v>
+        <v>2226.31838632992</v>
       </c>
       <c r="JI8" s="4">
-        <v>1639.32314150518</v>
+        <v>1603.3536405572299</v>
       </c>
       <c r="JJ8" s="4">
-        <v>1389.5085502843899</v>
-      </c>
-      <c r="JK8" s="46">
+        <v>1402.65489264901</v>
+      </c>
+      <c r="JK8" s="36">
         <v>716.19053840983497</v>
       </c>
     </row>
@@ -5977,22 +5977,22 @@
         <v>1001.84932505287</v>
       </c>
       <c r="JF9" s="4">
-        <v>-93.520062606343998</v>
+        <v>-294.16169723338999</v>
       </c>
       <c r="JG9" s="4">
-        <v>-1067.2633692449999</v>
+        <v>-1391.7408103256</v>
       </c>
       <c r="JH9" s="4">
-        <v>-657.22961096183997</v>
+        <v>91.035393919710103</v>
       </c>
       <c r="JI9" s="4">
-        <v>-1657.5169613549999</v>
+        <v>-1577.1648435848001</v>
       </c>
       <c r="JJ9" s="4">
-        <v>-1505.8192703866</v>
-      </c>
-      <c r="JK9" s="46">
-        <v>79.875633425506507</v>
+        <v>-1289.1893347256</v>
+      </c>
+      <c r="JK9" s="36">
+        <v>-35.460547574492999</v>
       </c>
     </row>
     <row r="10" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6792,22 +6792,22 @@
         <v>852.31833986889103</v>
       </c>
       <c r="JF10" s="6">
-        <v>405.29947909806202</v>
+        <v>476.54751698071601</v>
       </c>
       <c r="JG10" s="6">
-        <v>407.23961000636399</v>
+        <v>692.38003736450901</v>
       </c>
       <c r="JH10" s="6">
-        <v>671.28308204351197</v>
+        <v>968.11679876686298</v>
       </c>
       <c r="JI10" s="6">
-        <v>343.73157657793701</v>
+        <v>374.19529497273101</v>
       </c>
       <c r="JJ10" s="6">
-        <v>12.1541728573487</v>
-      </c>
-      <c r="JK10" s="47">
-        <v>858.00134323423799</v>
+        <v>-78.337839180870006</v>
+      </c>
+      <c r="JK10" s="37">
+        <v>742.66516223423798</v>
       </c>
     </row>
     <row r="11" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7607,21 +7607,21 @@
         <v>416.46482357826801</v>
       </c>
       <c r="JF11" s="6">
-        <v>91.121426256215599</v>
+        <v>193.478250322294</v>
       </c>
       <c r="JG11" s="6">
-        <v>30.1209673604518</v>
+        <v>270.1536959773</v>
       </c>
       <c r="JH11" s="6">
-        <v>292.57692237241997</v>
+        <v>417.20175338856399</v>
       </c>
       <c r="JI11" s="6">
-        <v>64.153407882679502</v>
+        <v>68.543522571631897</v>
       </c>
       <c r="JJ11" s="6">
-        <v>160.79951808401401</v>
-      </c>
-      <c r="JK11" s="47">
+        <v>131.029729314473</v>
+      </c>
+      <c r="JK11" s="37">
         <v>128.56362061304</v>
       </c>
     </row>
@@ -8422,22 +8422,22 @@
         <v>143.192148638036</v>
       </c>
       <c r="JF12" s="6">
-        <v>-45.343008079964001</v>
+        <v>17.918957549081401</v>
       </c>
       <c r="JG12" s="6">
-        <v>-1.7887276753578001</v>
+        <v>89.892567509853393</v>
       </c>
       <c r="JH12" s="6">
-        <v>244.50285204196101</v>
+        <v>484.341693518618</v>
       </c>
       <c r="JI12" s="6">
-        <v>97.336164640994994</v>
+        <v>139.79555764183701</v>
       </c>
       <c r="JJ12" s="6">
-        <v>-220.21440587205001</v>
-      </c>
-      <c r="JK12" s="47">
-        <v>440.12863737839399</v>
+        <v>-249.38489204537001</v>
+      </c>
+      <c r="JK12" s="37">
+        <v>324.79245637839398</v>
       </c>
     </row>
     <row r="13" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9237,21 +9237,21 @@
         <v>292.66136765258699</v>
       </c>
       <c r="JF13" s="6">
-        <v>359.52106092180998</v>
+        <v>265.15030910934001</v>
       </c>
       <c r="JG13" s="6">
-        <v>378.90737032126998</v>
+        <v>332.33377387735601</v>
       </c>
       <c r="JH13" s="6">
-        <v>134.20330762913099</v>
+        <v>66.573351859682006</v>
       </c>
       <c r="JI13" s="6">
-        <v>182.24200405426299</v>
+        <v>165.856214759262</v>
       </c>
       <c r="JJ13" s="6">
-        <v>71.569060645388006</v>
-      </c>
-      <c r="JK13" s="47">
+        <v>40.017323550027498</v>
+      </c>
+      <c r="JK13" s="37">
         <v>289.30908524280397</v>
       </c>
     </row>
@@ -10052,21 +10052,21 @@
         <v>-149.53098518397999</v>
       </c>
       <c r="JF14" s="6">
-        <v>498.81954170440599</v>
+        <v>770.70921421410196</v>
       </c>
       <c r="JG14" s="6">
-        <v>1474.5029792513701</v>
+        <v>2084.1208476901102</v>
       </c>
       <c r="JH14" s="6">
-        <v>1328.51269300535</v>
+        <v>877.08140484715295</v>
       </c>
       <c r="JI14" s="6">
-        <v>2001.2485379329501</v>
+        <v>1951.3601385575701</v>
       </c>
       <c r="JJ14" s="6">
-        <v>1517.97344324399</v>
-      </c>
-      <c r="JK14" s="47">
+        <v>1210.8514955447499</v>
+      </c>
+      <c r="JK14" s="37">
         <v>778.12570980873204</v>
       </c>
     </row>
@@ -10867,21 +10867,21 @@
         <v>1128.5175564199999</v>
       </c>
       <c r="JF15" s="6">
-        <v>150.39996748999999</v>
+        <v>150.16633150999999</v>
       </c>
       <c r="JG15" s="6">
-        <v>510.89154125608798</v>
+        <v>1025.3716739894801</v>
       </c>
       <c r="JH15" s="6">
-        <v>422.56395179999998</v>
+        <v>419.24722014000002</v>
       </c>
       <c r="JI15" s="6">
-        <v>409.86418291000001</v>
+        <v>432.93191062353498</v>
       </c>
       <c r="JJ15" s="6">
-        <v>450.65312590000002</v>
-      </c>
-      <c r="JK15" s="47">
+        <v>459.97056966000002</v>
+      </c>
+      <c r="JK15" s="37">
         <v>585.42030042000101</v>
       </c>
     </row>
@@ -11682,21 +11682,21 @@
         <v>-390.3926242677</v>
       </c>
       <c r="JF16" s="6">
-        <v>91.918636024857307</v>
+        <v>36.555653245317302</v>
       </c>
       <c r="JG16" s="6">
-        <v>-278.65811700020998</v>
+        <v>-285.09334362921999</v>
       </c>
       <c r="JH16" s="6">
-        <v>135.66388499054099</v>
+        <v>-400.377156195</v>
       </c>
       <c r="JI16" s="6">
-        <v>147.847039511666</v>
+        <v>60.112881528106598</v>
       </c>
       <c r="JJ16" s="6">
-        <v>99.812067413882403</v>
-      </c>
-      <c r="JK16" s="47">
+        <v>149.655605855392</v>
+      </c>
+      <c r="JK16" s="37">
         <v>226.374501018465</v>
       </c>
     </row>
@@ -12497,21 +12497,21 @@
         <v>-887.65591733628003</v>
       </c>
       <c r="JF17" s="6">
-        <v>256.500938189549</v>
+        <v>583.98722945878501</v>
       </c>
       <c r="JG17" s="6">
-        <v>1242.2695549954899</v>
+        <v>1343.8425173298399</v>
       </c>
       <c r="JH17" s="6">
-        <v>770.28485621481298</v>
+        <v>858.211340902149</v>
       </c>
       <c r="JI17" s="6">
-        <v>1443.53731551128</v>
+        <v>1458.3153464059201</v>
       </c>
       <c r="JJ17" s="6">
-        <v>967.50824993010303</v>
-      </c>
-      <c r="JK17" s="47">
+        <v>601.22532002936202</v>
+      </c>
+      <c r="JK17" s="37">
         <v>-33.669091629733998</v>
       </c>
     </row>
@@ -13312,21 +13312,21 @@
         <v>-366.47186149474999</v>
       </c>
       <c r="JF18" s="4">
-        <v>1183.33207244749</v>
+        <v>1252.7271314606701</v>
       </c>
       <c r="JG18" s="4">
-        <v>855.52438392658098</v>
+        <v>1084.1442802556501</v>
       </c>
       <c r="JH18" s="4">
-        <v>-122.67399176276</v>
+        <v>-347.32045601425</v>
       </c>
       <c r="JI18" s="4">
-        <v>973.32598835516103</v>
+        <v>1070.5117005529501</v>
       </c>
       <c r="JJ18" s="4">
-        <v>-377.44065822520002</v>
-      </c>
-      <c r="JK18" s="46">
+        <v>-385.61052607228999</v>
+      </c>
+      <c r="JK18" s="36">
         <v>1470.0387050270999</v>
       </c>
     </row>
@@ -14127,21 +14127,21 @@
         <v>-421.14935668966001</v>
       </c>
       <c r="JF19" s="6">
-        <v>2026.04427818466</v>
+        <v>2160.56587586567</v>
       </c>
       <c r="JG19" s="6">
-        <v>1540.8138599948199</v>
+        <v>1815.71094705054</v>
       </c>
       <c r="JH19" s="6">
-        <v>1429.45375521248</v>
+        <v>1858.0323528354199</v>
       </c>
       <c r="JI19" s="6">
-        <v>912.72190999852296</v>
+        <v>998.58303888803198</v>
       </c>
       <c r="JJ19" s="6">
-        <v>204.66606831649901</v>
-      </c>
-      <c r="JK19" s="47">
+        <v>198.45724806208199</v>
+      </c>
+      <c r="JK19" s="37">
         <v>2313.4866627136198</v>
       </c>
     </row>
@@ -14942,21 +14942,21 @@
         <v>5.0290587337846402</v>
       </c>
       <c r="JF20" s="6">
-        <v>1407.22947684987</v>
+        <v>1588.5132499459201</v>
       </c>
       <c r="JG20" s="6">
-        <v>1355.93966498335</v>
+        <v>1453.95097633302</v>
       </c>
       <c r="JH20" s="6">
-        <v>653.40296134363803</v>
+        <v>1085.78596528002</v>
       </c>
       <c r="JI20" s="6">
-        <v>-766.15046552143997</v>
+        <v>-668.70090346789004</v>
       </c>
       <c r="JJ20" s="6">
-        <v>953.98037890644798</v>
-      </c>
-      <c r="JK20" s="47">
+        <v>945.60308411677795</v>
+      </c>
+      <c r="JK20" s="37">
         <v>1242.4881633170301</v>
       </c>
     </row>
@@ -15757,21 +15757,21 @@
         <v>-426.17841542344001</v>
       </c>
       <c r="JF21" s="6">
-        <v>618.81480133478703</v>
+        <v>572.05262591974395</v>
       </c>
       <c r="JG21" s="6">
-        <v>184.87419501146601</v>
+        <v>361.75997071751601</v>
       </c>
       <c r="JH21" s="6">
-        <v>776.05079386883699</v>
+        <v>772.24638755540002</v>
       </c>
       <c r="JI21" s="6">
-        <v>1678.8723755199601</v>
+        <v>1667.2839423559201</v>
       </c>
       <c r="JJ21" s="6">
-        <v>-749.31431058994997</v>
-      </c>
-      <c r="JK21" s="47">
+        <v>-747.1458360547</v>
+      </c>
+      <c r="JK21" s="37">
         <v>1070.99849939658</v>
       </c>
     </row>
@@ -16572,21 +16572,21 @@
         <v>-3.4630242108756</v>
       </c>
       <c r="JF22" s="6">
-        <v>285.97214636830898</v>
+        <v>390.73673115432001</v>
       </c>
       <c r="JG22" s="6">
-        <v>926.23477305097094</v>
+        <v>932.11073895937795</v>
       </c>
       <c r="JH22" s="6">
-        <v>414.36109591763102</v>
+        <v>446.20595720078597</v>
       </c>
       <c r="JI22" s="6">
-        <v>691.45966908233504</v>
+        <v>679.87123591829504</v>
       </c>
       <c r="JJ22" s="6">
-        <v>611.49914870089401</v>
-      </c>
-      <c r="JK22" s="47">
+        <v>613.66762323614796</v>
+      </c>
+      <c r="JK22" s="37">
         <v>227.270104056478</v>
       </c>
     </row>
@@ -17387,13 +17387,13 @@
         <v>-422.71539121257001</v>
       </c>
       <c r="JF23" s="6">
-        <v>332.84265496647799</v>
+        <v>181.31589476542399</v>
       </c>
       <c r="JG23" s="6">
-        <v>-741.36057803950996</v>
+        <v>-570.35076824186001</v>
       </c>
       <c r="JH23" s="6">
-        <v>361.68969795120699</v>
+        <v>326.04043035461399</v>
       </c>
       <c r="JI23" s="6">
         <v>987.41270643762903</v>
@@ -17401,7 +17401,7 @@
       <c r="JJ23" s="6">
         <v>-1360.8134592908</v>
       </c>
-      <c r="JK23" s="47">
+      <c r="JK23" s="37">
         <v>843.72839534010404</v>
       </c>
     </row>
@@ -18202,21 +18202,21 @@
         <v>-54.677495194906001</v>
       </c>
       <c r="JF24" s="6">
-        <v>842.71220573716096</v>
+        <v>907.83874440499699</v>
       </c>
       <c r="JG24" s="6">
-        <v>685.28947606823601</v>
+        <v>731.56666679489297</v>
       </c>
       <c r="JH24" s="6">
-        <v>1552.1277469752399</v>
+        <v>2205.3528088496601</v>
       </c>
       <c r="JI24" s="6">
-        <v>-60.604078356639</v>
+        <v>-71.928661664914003</v>
       </c>
       <c r="JJ24" s="6">
-        <v>582.10672654170003</v>
-      </c>
-      <c r="JK24" s="47">
+        <v>584.06777413437305</v>
+      </c>
+      <c r="JK24" s="37">
         <v>843.44795768651795</v>
       </c>
     </row>
@@ -19017,7 +19017,7 @@
         <v>27.945576278255199</v>
       </c>
       <c r="JF25" s="6">
-        <v>55.701384237780402</v>
+        <v>55.701384237780502</v>
       </c>
       <c r="JG25" s="6">
         <v>-151.64196798133</v>
@@ -19029,9 +19029,9 @@
         <v>-147.80483949153</v>
       </c>
       <c r="JJ25" s="6">
-        <v>-135.04453793287001</v>
-      </c>
-      <c r="JK25" s="47">
+        <v>-135.08557068677999</v>
+      </c>
+      <c r="JK25" s="37">
         <v>-219.63308088206</v>
       </c>
     </row>
@@ -19832,21 +19832,21 @@
         <v>-82.623071473161005</v>
       </c>
       <c r="JF26" s="6">
-        <v>787.010821499381</v>
+        <v>852.13736016721703</v>
       </c>
       <c r="JG26" s="6">
-        <v>836.93144404956797</v>
+        <v>883.20863477622402</v>
       </c>
       <c r="JH26" s="6">
-        <v>1746.2804896566299</v>
+        <v>2399.5055515310601</v>
       </c>
       <c r="JI26" s="6">
-        <v>87.200761134888396</v>
+        <v>75.8761778266134</v>
       </c>
       <c r="JJ26" s="6">
-        <v>717.15126447456703</v>
-      </c>
-      <c r="JK26" s="47">
+        <v>719.15334482114895</v>
+      </c>
+      <c r="JK26" s="37">
         <v>1063.08103856858</v>
       </c>
     </row>
@@ -20647,21 +20647,21 @@
         <v>-73.353249672773998</v>
       </c>
       <c r="JF27" s="6">
-        <v>189.88679631234899</v>
+        <v>259.92593655476003</v>
       </c>
       <c r="JG27" s="6">
-        <v>747.45547661407204</v>
+        <v>793.74553502530296</v>
       </c>
       <c r="JH27" s="6">
-        <v>1655.76091237077</v>
+        <v>2303.99911206977</v>
       </c>
       <c r="JI27" s="6">
-        <v>-97.731043398243997</v>
+        <v>-108.03519219642</v>
       </c>
       <c r="JJ27" s="6">
-        <v>603.88802110580502</v>
-      </c>
-      <c r="JK27" s="47">
+        <v>605.89010145238694</v>
+      </c>
+      <c r="JK27" s="37">
         <v>630.77791349986705</v>
       </c>
     </row>
@@ -21462,21 +21462,21 @@
         <v>-9.2698218003869002</v>
       </c>
       <c r="JF28" s="6">
-        <v>597.12402518703198</v>
+        <v>592.211423612457</v>
       </c>
       <c r="JG28" s="6">
-        <v>89.475967435496003</v>
+        <v>89.463099750921302</v>
       </c>
       <c r="JH28" s="6">
-        <v>90.519577285863306</v>
+        <v>95.506439461288593</v>
       </c>
       <c r="JI28" s="6">
-        <v>184.931804533133</v>
+        <v>183.91137002303799</v>
       </c>
       <c r="JJ28" s="6">
         <v>113.263243368761</v>
       </c>
-      <c r="JK28" s="47">
+      <c r="JK28" s="37">
         <v>432.30312506870899</v>
       </c>
     </row>
@@ -22277,21 +22277,21 @@
         <v>-170.96475169548</v>
       </c>
       <c r="JF29" s="4">
-        <v>-156.79392885505999</v>
+        <v>-136.90423404223</v>
       </c>
       <c r="JG29" s="4">
-        <v>-49.897245714980997</v>
+        <v>-123.85181107429</v>
       </c>
       <c r="JH29" s="4">
-        <v>-230.69357736489999</v>
+        <v>-451.29294961074999</v>
       </c>
       <c r="JI29" s="4">
-        <v>-447.40688744165999</v>
+        <v>-439.03397031345003</v>
       </c>
       <c r="JJ29" s="4">
-        <v>37.019970791611797</v>
-      </c>
-      <c r="JK29" s="46">
+        <v>-29.607419313404002</v>
+      </c>
+      <c r="JK29" s="36">
         <v>-157.86499620951</v>
       </c>
     </row>
@@ -23092,21 +23092,21 @@
         <v>-1331.9698771678</v>
       </c>
       <c r="JF30" s="4">
-        <v>1551.5169893616701</v>
+        <v>564.84433148662401</v>
       </c>
       <c r="JG30" s="4">
-        <v>239.59626563846399</v>
+        <v>-1146.4608982548</v>
       </c>
       <c r="JH30" s="4">
-        <v>-1304.5997980924999</v>
+        <v>-1264.2719428158</v>
       </c>
       <c r="JI30" s="4">
-        <v>186.55208288780599</v>
+        <v>141.62449611852099</v>
       </c>
       <c r="JJ30" s="4">
-        <v>-729.97960594661004</v>
-      </c>
-      <c r="JK30" s="46">
+        <v>-122.71521445155</v>
+      </c>
+      <c r="JK30" s="36">
         <v>-3315.7427642789999</v>
       </c>
     </row>
@@ -23907,21 +23907,21 @@
         <v>-279.66671815693002</v>
       </c>
       <c r="JF31" s="6">
-        <v>2791.42775690807</v>
+        <v>1821.1875424371699</v>
       </c>
       <c r="JG31" s="6">
-        <v>-1083.3342957006</v>
+        <v>-2228.4305868698002</v>
       </c>
       <c r="JH31" s="6">
-        <v>-1113.1936478498001</v>
+        <v>-770.73960968706001</v>
       </c>
       <c r="JI31" s="6">
-        <v>1576.9893478188601</v>
+        <v>1556.49411160758</v>
       </c>
       <c r="JJ31" s="6">
-        <v>166.56846121979501</v>
-      </c>
-      <c r="JK31" s="47">
+        <v>750.48406657854002</v>
+      </c>
+      <c r="JK31" s="37">
         <v>-3028.5556636962001</v>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="JJ32" s="6">
         <v>0</v>
       </c>
-      <c r="JK32" s="47">
+      <c r="JK32" s="37">
         <v>26.77760129</v>
       </c>
     </row>
@@ -25537,21 +25537,21 @@
         <v>1013.73110840833</v>
       </c>
       <c r="JF33" s="6">
-        <v>1768.87308698424</v>
+        <v>1559.2478770412599</v>
       </c>
       <c r="JG33" s="6">
-        <v>-303.44052620346002</v>
+        <v>-226.12803068061001</v>
       </c>
       <c r="JH33" s="6">
-        <v>-578.76194687520001</v>
+        <v>-497.83597423404001</v>
       </c>
       <c r="JI33" s="6">
-        <v>-333.75955839901002</v>
+        <v>-105.5862235896</v>
       </c>
       <c r="JJ33" s="6">
-        <v>-781.92236974406001</v>
-      </c>
-      <c r="JK33" s="47">
+        <v>-580.68408952786001</v>
+      </c>
+      <c r="JK33" s="37">
         <v>-200.04236735947001</v>
       </c>
     </row>
@@ -26352,21 +26352,21 @@
         <v>15.925438226660701</v>
       </c>
       <c r="JF34" s="6">
-        <v>-268.22743367613998</v>
+        <v>-257.26382664281999</v>
       </c>
       <c r="JG34" s="6">
-        <v>-107.56620475602</v>
+        <v>-100.44001776855001</v>
       </c>
       <c r="JH34" s="6">
-        <v>97.752251761265398</v>
+        <v>109.75415089367699</v>
       </c>
       <c r="JI34" s="6">
-        <v>26.593674307706902</v>
+        <v>23.8945510768073</v>
       </c>
       <c r="JJ34" s="6">
-        <v>376.58191814606499</v>
-      </c>
-      <c r="JK34" s="47">
+        <v>385.03332093123601</v>
+      </c>
+      <c r="JK34" s="37">
         <v>-35.973160346759997</v>
       </c>
     </row>
@@ -27167,21 +27167,21 @@
         <v>-1303.2135075752999</v>
       </c>
       <c r="JF35" s="6">
-        <v>1293.4096084734799</v>
+        <v>521.99256476224298</v>
       </c>
       <c r="JG35" s="6">
-        <v>-669.84841866825002</v>
+        <v>-1899.0595423177999</v>
       </c>
       <c r="JH35" s="6">
-        <v>-629.33899230357997</v>
+        <v>-379.81282591436002</v>
       </c>
       <c r="JI35" s="6">
-        <v>1887.0411434287701</v>
+        <v>1641.0716956389799</v>
       </c>
       <c r="JJ35" s="6">
-        <v>574.809079249918</v>
-      </c>
-      <c r="JK35" s="47">
+        <v>949.03500160729004</v>
+      </c>
+      <c r="JK35" s="37">
         <v>-2816.3950089225</v>
       </c>
     </row>
@@ -27982,10 +27982,10 @@
         <v>-6.1097572166434997</v>
       </c>
       <c r="JF36" s="6">
-        <v>-2.6275048735087001</v>
+        <v>-2.7890727235087001</v>
       </c>
       <c r="JG36" s="6">
-        <v>-2.4791460728431001</v>
+        <v>-2.8029961028431001</v>
       </c>
       <c r="JH36" s="6">
         <v>-2.8449604323368001</v>
@@ -27996,7 +27996,7 @@
       <c r="JJ36" s="6">
         <v>-2.9001664321281999</v>
       </c>
-      <c r="JK36" s="47">
+      <c r="JK36" s="37">
         <v>-2.9227283574356</v>
       </c>
     </row>
@@ -28797,21 +28797,21 @@
         <v>1052.3031590108701</v>
       </c>
       <c r="JF37" s="6">
-        <v>1239.9107675464099</v>
+        <v>1256.34321095054</v>
       </c>
       <c r="JG37" s="6">
-        <v>-1322.930561339</v>
+        <v>-1081.969688615</v>
       </c>
       <c r="JH37" s="6">
-        <v>191.40615024264699</v>
+        <v>493.532333128706</v>
       </c>
       <c r="JI37" s="6">
-        <v>1390.4372649310601</v>
+        <v>1414.8696154890599</v>
       </c>
       <c r="JJ37" s="6">
-        <v>896.54806716639996</v>
-      </c>
-      <c r="JK37" s="47">
+        <v>873.19928103009499</v>
+      </c>
+      <c r="JK37" s="37">
         <v>287.18710058277901</v>
       </c>
     </row>
@@ -29612,21 +29612,21 @@
         <v>294.93755230821398</v>
       </c>
       <c r="JF38" s="6">
-        <v>245.317476440977</v>
+        <v>238.35777394803199</v>
       </c>
       <c r="JG38" s="6">
-        <v>-699.05472102549004</v>
+        <v>-505.13167643559001</v>
       </c>
       <c r="JH38" s="6">
-        <v>-210.48441373028999</v>
+        <v>56.488468019368</v>
       </c>
       <c r="JI38" s="6">
-        <v>279.96088745965699</v>
+        <v>280.26939080894698</v>
       </c>
       <c r="JJ38" s="6">
-        <v>-12.879262510013</v>
-      </c>
-      <c r="JK38" s="47">
+        <v>14.347543586186999</v>
+      </c>
+      <c r="JK38" s="37">
         <v>215.07495668310199</v>
       </c>
     </row>
@@ -30427,21 +30427,21 @@
         <v>844.79612468330902</v>
       </c>
       <c r="JF39" s="6">
-        <v>475.18553314327897</v>
+        <v>498.57767904035899</v>
       </c>
       <c r="JG39" s="6">
-        <v>-216.59494889037001</v>
+        <v>-169.55712075619999</v>
       </c>
       <c r="JH39" s="6">
-        <v>326.439831989688</v>
+        <v>361.59313312609299</v>
       </c>
       <c r="JI39" s="6">
-        <v>823.86680792593802</v>
+        <v>847.87157013642502</v>
       </c>
       <c r="JJ39" s="6">
-        <v>620.60241028781002</v>
-      </c>
-      <c r="JK39" s="47">
+        <v>570.02681805530403</v>
+      </c>
+      <c r="JK39" s="37">
         <v>-352.28276133051997</v>
       </c>
     </row>
@@ -31256,7 +31256,7 @@
       <c r="JJ40" s="6">
         <v>305.80014754079002</v>
       </c>
-      <c r="JK40" s="47">
+      <c r="JK40" s="37">
         <v>416.10312972618499</v>
       </c>
     </row>
@@ -32071,7 +32071,7 @@
       <c r="JJ41" s="6">
         <v>-1.31605E-3</v>
       </c>
-      <c r="JK41" s="47">
+      <c r="JK41" s="37">
         <v>3.4253000000000002E-4</v>
       </c>
     </row>
@@ -32881,12 +32881,12 @@
         <v>8.7522215409898294</v>
       </c>
       <c r="JI42" s="6">
-        <v>8.2730920927880707</v>
+        <v>8.3921770910140108</v>
       </c>
       <c r="JJ42" s="6">
         <v>-16.973912102187001</v>
       </c>
-      <c r="JK42" s="47">
+      <c r="JK42" s="37">
         <v>8.2914329740159705</v>
       </c>
     </row>
@@ -33706,277 +33706,277 @@
       </c>
     </row>
     <row r="44" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="42"/>
-      <c r="AH44" s="42"/>
-      <c r="AI44" s="42"/>
-      <c r="AJ44" s="42"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="42"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-      <c r="AT44" s="42"/>
-      <c r="AU44" s="42"/>
-      <c r="AV44" s="42"/>
-      <c r="AW44" s="42"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="42"/>
-      <c r="AZ44" s="42"/>
-      <c r="BA44" s="42"/>
-      <c r="BB44" s="42"/>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="42"/>
-      <c r="BE44" s="42"/>
-      <c r="BF44" s="42"/>
-      <c r="BG44" s="42"/>
-      <c r="BH44" s="42"/>
-      <c r="BI44" s="42"/>
-      <c r="BJ44" s="42"/>
-      <c r="BK44" s="42"/>
-      <c r="BL44" s="42"/>
-      <c r="BM44" s="42"/>
-      <c r="BN44" s="42"/>
-      <c r="BO44" s="42"/>
-      <c r="BP44" s="42"/>
-      <c r="BQ44" s="42"/>
-      <c r="BR44" s="42"/>
-      <c r="BS44" s="42"/>
-      <c r="BT44" s="42"/>
-      <c r="BU44" s="42"/>
-      <c r="BV44" s="42"/>
-      <c r="BW44" s="42"/>
-      <c r="BX44" s="42"/>
-      <c r="BY44" s="42"/>
-      <c r="BZ44" s="42"/>
-      <c r="CA44" s="42"/>
-      <c r="CB44" s="42"/>
-      <c r="CC44" s="42"/>
-      <c r="CD44" s="42"/>
-      <c r="CE44" s="42"/>
-      <c r="CF44" s="42"/>
-      <c r="CG44" s="42"/>
-      <c r="CH44" s="42"/>
-      <c r="CI44" s="42"/>
-      <c r="CJ44" s="42"/>
-      <c r="CK44" s="42"/>
-      <c r="CL44" s="42"/>
-      <c r="CM44" s="42"/>
-      <c r="CN44" s="42"/>
-      <c r="CO44" s="42"/>
-      <c r="CP44" s="42"/>
-      <c r="CQ44" s="42"/>
-      <c r="CR44" s="42"/>
-      <c r="CS44" s="42"/>
-      <c r="CT44" s="42"/>
-      <c r="CU44" s="42"/>
-      <c r="CV44" s="42"/>
-      <c r="CW44" s="42"/>
-      <c r="CX44" s="42"/>
-      <c r="CY44" s="42"/>
-      <c r="CZ44" s="42"/>
-      <c r="DA44" s="42"/>
-      <c r="DB44" s="42"/>
-      <c r="DC44" s="42"/>
-      <c r="DD44" s="42"/>
-      <c r="DE44" s="42"/>
-      <c r="DF44" s="42"/>
-      <c r="DG44" s="42"/>
-      <c r="DH44" s="42"/>
-      <c r="DI44" s="42"/>
-      <c r="DJ44" s="42"/>
-      <c r="DK44" s="42"/>
-      <c r="DL44" s="42"/>
-      <c r="DM44" s="42"/>
-      <c r="DN44" s="42"/>
-      <c r="DO44" s="42"/>
-      <c r="DP44" s="42"/>
-      <c r="DQ44" s="42"/>
-      <c r="DR44" s="42"/>
-      <c r="DS44" s="42"/>
-      <c r="DT44" s="42"/>
-      <c r="DU44" s="42"/>
-      <c r="DV44" s="42"/>
-      <c r="DW44" s="42"/>
-      <c r="DX44" s="42"/>
-      <c r="DY44" s="42"/>
-      <c r="DZ44" s="42"/>
-      <c r="EA44" s="42"/>
-      <c r="EB44" s="42"/>
-      <c r="EC44" s="42"/>
-      <c r="ED44" s="42"/>
-      <c r="EE44" s="42"/>
-      <c r="EF44" s="42"/>
-      <c r="EG44" s="42"/>
-      <c r="EH44" s="42"/>
-      <c r="EI44" s="42"/>
-      <c r="EJ44" s="42"/>
-      <c r="EK44" s="42"/>
-      <c r="EL44" s="42"/>
-      <c r="EM44" s="42"/>
-      <c r="EN44" s="42"/>
-      <c r="EO44" s="42"/>
-      <c r="EP44" s="42"/>
-      <c r="EQ44" s="42"/>
-      <c r="ER44" s="42"/>
-      <c r="ES44" s="42"/>
-      <c r="ET44" s="42"/>
-      <c r="EU44" s="42"/>
-      <c r="EV44" s="42"/>
-      <c r="EW44" s="42"/>
-      <c r="EX44" s="42"/>
-      <c r="EY44" s="42"/>
-      <c r="EZ44" s="42"/>
-      <c r="FA44" s="42"/>
-      <c r="FB44" s="42"/>
-      <c r="FC44" s="42"/>
-      <c r="FD44" s="42"/>
-      <c r="FE44" s="42"/>
-      <c r="FF44" s="42"/>
-      <c r="FG44" s="42"/>
-      <c r="FH44" s="42"/>
-      <c r="FI44" s="42"/>
-      <c r="FJ44" s="42"/>
-      <c r="FK44" s="42"/>
-      <c r="FL44" s="42"/>
-      <c r="FM44" s="42"/>
-      <c r="FN44" s="42"/>
-      <c r="FO44" s="42"/>
-      <c r="FP44" s="42"/>
-      <c r="FQ44" s="42"/>
-      <c r="FR44" s="42"/>
-      <c r="FS44" s="42"/>
-      <c r="FT44" s="42"/>
-      <c r="FU44" s="42"/>
-      <c r="FV44" s="42"/>
-      <c r="FW44" s="42"/>
-      <c r="FX44" s="42"/>
-      <c r="FY44" s="42"/>
-      <c r="FZ44" s="42"/>
-      <c r="GA44" s="42"/>
-      <c r="GB44" s="42"/>
-      <c r="GC44" s="42"/>
-      <c r="GD44" s="42"/>
-      <c r="GE44" s="42"/>
-      <c r="GF44" s="42"/>
-      <c r="GG44" s="42"/>
-      <c r="GH44" s="42"/>
-      <c r="GI44" s="42"/>
-      <c r="GJ44" s="42"/>
-      <c r="GK44" s="42"/>
-      <c r="GL44" s="42"/>
-      <c r="GM44" s="42"/>
-      <c r="GN44" s="42"/>
-      <c r="GO44" s="42"/>
-      <c r="GP44" s="42"/>
-      <c r="GQ44" s="42"/>
-      <c r="GR44" s="42"/>
-      <c r="GS44" s="42"/>
-      <c r="GT44" s="42"/>
-      <c r="GU44" s="42"/>
-      <c r="GV44" s="42"/>
-      <c r="GW44" s="42"/>
-      <c r="GX44" s="42"/>
-      <c r="GY44" s="42"/>
-      <c r="GZ44" s="42"/>
-      <c r="HA44" s="42"/>
-      <c r="HB44" s="42"/>
-      <c r="HC44" s="42"/>
-      <c r="HD44" s="42"/>
-      <c r="HE44" s="42"/>
-      <c r="HF44" s="42"/>
-      <c r="HG44" s="42"/>
-      <c r="HH44" s="42"/>
-      <c r="HI44" s="42"/>
-      <c r="HJ44" s="42"/>
-      <c r="HK44" s="42"/>
-      <c r="HL44" s="42"/>
-      <c r="HM44" s="42"/>
-      <c r="HN44" s="42"/>
-      <c r="HO44" s="42"/>
-      <c r="HP44" s="42"/>
-      <c r="HQ44" s="42"/>
-      <c r="HR44" s="42"/>
-      <c r="HS44" s="42"/>
-      <c r="HT44" s="42"/>
-      <c r="HU44" s="42"/>
-      <c r="HV44" s="42"/>
-      <c r="HW44" s="42"/>
-      <c r="HX44" s="42"/>
-      <c r="HY44" s="42"/>
-      <c r="HZ44" s="42"/>
-      <c r="IA44" s="42"/>
-      <c r="IB44" s="42"/>
-      <c r="IC44" s="42"/>
-      <c r="ID44" s="42"/>
-      <c r="IE44" s="42"/>
-      <c r="IF44" s="42"/>
-      <c r="IG44" s="42"/>
-      <c r="IH44" s="42"/>
-      <c r="II44" s="42"/>
-      <c r="IJ44" s="42"/>
-      <c r="IK44" s="42"/>
-      <c r="IL44" s="42"/>
-      <c r="IM44" s="42"/>
-      <c r="IN44" s="42"/>
-      <c r="IO44" s="42"/>
-      <c r="IP44" s="42"/>
-      <c r="IQ44" s="42"/>
-      <c r="IR44" s="42"/>
-      <c r="IS44" s="42"/>
-      <c r="IT44" s="42"/>
-      <c r="IU44" s="42"/>
-      <c r="IV44" s="42"/>
-      <c r="IW44" s="42"/>
-      <c r="IX44" s="42"/>
-      <c r="IY44" s="42"/>
-      <c r="IZ44" s="42"/>
-      <c r="JA44" s="42"/>
-      <c r="JB44" s="42"/>
-      <c r="JC44" s="42"/>
-      <c r="JD44" s="42"/>
-      <c r="JE44" s="42"/>
-      <c r="JF44" s="42"/>
-      <c r="JG44" s="42"/>
-      <c r="JH44" s="42"/>
-      <c r="JI44" s="42"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="46"/>
+      <c r="AJ44" s="46"/>
+      <c r="AK44" s="46"/>
+      <c r="AL44" s="46"/>
+      <c r="AM44" s="46"/>
+      <c r="AN44" s="46"/>
+      <c r="AO44" s="46"/>
+      <c r="AP44" s="46"/>
+      <c r="AQ44" s="46"/>
+      <c r="AR44" s="46"/>
+      <c r="AS44" s="46"/>
+      <c r="AT44" s="46"/>
+      <c r="AU44" s="46"/>
+      <c r="AV44" s="46"/>
+      <c r="AW44" s="46"/>
+      <c r="AX44" s="46"/>
+      <c r="AY44" s="46"/>
+      <c r="AZ44" s="46"/>
+      <c r="BA44" s="46"/>
+      <c r="BB44" s="46"/>
+      <c r="BC44" s="46"/>
+      <c r="BD44" s="46"/>
+      <c r="BE44" s="46"/>
+      <c r="BF44" s="46"/>
+      <c r="BG44" s="46"/>
+      <c r="BH44" s="46"/>
+      <c r="BI44" s="46"/>
+      <c r="BJ44" s="46"/>
+      <c r="BK44" s="46"/>
+      <c r="BL44" s="46"/>
+      <c r="BM44" s="46"/>
+      <c r="BN44" s="46"/>
+      <c r="BO44" s="46"/>
+      <c r="BP44" s="46"/>
+      <c r="BQ44" s="46"/>
+      <c r="BR44" s="46"/>
+      <c r="BS44" s="46"/>
+      <c r="BT44" s="46"/>
+      <c r="BU44" s="46"/>
+      <c r="BV44" s="46"/>
+      <c r="BW44" s="46"/>
+      <c r="BX44" s="46"/>
+      <c r="BY44" s="46"/>
+      <c r="BZ44" s="46"/>
+      <c r="CA44" s="46"/>
+      <c r="CB44" s="46"/>
+      <c r="CC44" s="46"/>
+      <c r="CD44" s="46"/>
+      <c r="CE44" s="46"/>
+      <c r="CF44" s="46"/>
+      <c r="CG44" s="46"/>
+      <c r="CH44" s="46"/>
+      <c r="CI44" s="46"/>
+      <c r="CJ44" s="46"/>
+      <c r="CK44" s="46"/>
+      <c r="CL44" s="46"/>
+      <c r="CM44" s="46"/>
+      <c r="CN44" s="46"/>
+      <c r="CO44" s="46"/>
+      <c r="CP44" s="46"/>
+      <c r="CQ44" s="46"/>
+      <c r="CR44" s="46"/>
+      <c r="CS44" s="46"/>
+      <c r="CT44" s="46"/>
+      <c r="CU44" s="46"/>
+      <c r="CV44" s="46"/>
+      <c r="CW44" s="46"/>
+      <c r="CX44" s="46"/>
+      <c r="CY44" s="46"/>
+      <c r="CZ44" s="46"/>
+      <c r="DA44" s="46"/>
+      <c r="DB44" s="46"/>
+      <c r="DC44" s="46"/>
+      <c r="DD44" s="46"/>
+      <c r="DE44" s="46"/>
+      <c r="DF44" s="46"/>
+      <c r="DG44" s="46"/>
+      <c r="DH44" s="46"/>
+      <c r="DI44" s="46"/>
+      <c r="DJ44" s="46"/>
+      <c r="DK44" s="46"/>
+      <c r="DL44" s="46"/>
+      <c r="DM44" s="46"/>
+      <c r="DN44" s="46"/>
+      <c r="DO44" s="46"/>
+      <c r="DP44" s="46"/>
+      <c r="DQ44" s="46"/>
+      <c r="DR44" s="46"/>
+      <c r="DS44" s="46"/>
+      <c r="DT44" s="46"/>
+      <c r="DU44" s="46"/>
+      <c r="DV44" s="46"/>
+      <c r="DW44" s="46"/>
+      <c r="DX44" s="46"/>
+      <c r="DY44" s="46"/>
+      <c r="DZ44" s="46"/>
+      <c r="EA44" s="46"/>
+      <c r="EB44" s="46"/>
+      <c r="EC44" s="46"/>
+      <c r="ED44" s="46"/>
+      <c r="EE44" s="46"/>
+      <c r="EF44" s="46"/>
+      <c r="EG44" s="46"/>
+      <c r="EH44" s="46"/>
+      <c r="EI44" s="46"/>
+      <c r="EJ44" s="46"/>
+      <c r="EK44" s="46"/>
+      <c r="EL44" s="46"/>
+      <c r="EM44" s="46"/>
+      <c r="EN44" s="46"/>
+      <c r="EO44" s="46"/>
+      <c r="EP44" s="46"/>
+      <c r="EQ44" s="46"/>
+      <c r="ER44" s="46"/>
+      <c r="ES44" s="46"/>
+      <c r="ET44" s="46"/>
+      <c r="EU44" s="46"/>
+      <c r="EV44" s="46"/>
+      <c r="EW44" s="46"/>
+      <c r="EX44" s="46"/>
+      <c r="EY44" s="46"/>
+      <c r="EZ44" s="46"/>
+      <c r="FA44" s="46"/>
+      <c r="FB44" s="46"/>
+      <c r="FC44" s="46"/>
+      <c r="FD44" s="46"/>
+      <c r="FE44" s="46"/>
+      <c r="FF44" s="46"/>
+      <c r="FG44" s="46"/>
+      <c r="FH44" s="46"/>
+      <c r="FI44" s="46"/>
+      <c r="FJ44" s="46"/>
+      <c r="FK44" s="46"/>
+      <c r="FL44" s="46"/>
+      <c r="FM44" s="46"/>
+      <c r="FN44" s="46"/>
+      <c r="FO44" s="46"/>
+      <c r="FP44" s="46"/>
+      <c r="FQ44" s="46"/>
+      <c r="FR44" s="46"/>
+      <c r="FS44" s="46"/>
+      <c r="FT44" s="46"/>
+      <c r="FU44" s="46"/>
+      <c r="FV44" s="46"/>
+      <c r="FW44" s="46"/>
+      <c r="FX44" s="46"/>
+      <c r="FY44" s="46"/>
+      <c r="FZ44" s="46"/>
+      <c r="GA44" s="46"/>
+      <c r="GB44" s="46"/>
+      <c r="GC44" s="46"/>
+      <c r="GD44" s="46"/>
+      <c r="GE44" s="46"/>
+      <c r="GF44" s="46"/>
+      <c r="GG44" s="46"/>
+      <c r="GH44" s="46"/>
+      <c r="GI44" s="46"/>
+      <c r="GJ44" s="46"/>
+      <c r="GK44" s="46"/>
+      <c r="GL44" s="46"/>
+      <c r="GM44" s="46"/>
+      <c r="GN44" s="46"/>
+      <c r="GO44" s="46"/>
+      <c r="GP44" s="46"/>
+      <c r="GQ44" s="46"/>
+      <c r="GR44" s="46"/>
+      <c r="GS44" s="46"/>
+      <c r="GT44" s="46"/>
+      <c r="GU44" s="46"/>
+      <c r="GV44" s="46"/>
+      <c r="GW44" s="46"/>
+      <c r="GX44" s="46"/>
+      <c r="GY44" s="46"/>
+      <c r="GZ44" s="46"/>
+      <c r="HA44" s="46"/>
+      <c r="HB44" s="46"/>
+      <c r="HC44" s="46"/>
+      <c r="HD44" s="46"/>
+      <c r="HE44" s="46"/>
+      <c r="HF44" s="46"/>
+      <c r="HG44" s="46"/>
+      <c r="HH44" s="46"/>
+      <c r="HI44" s="46"/>
+      <c r="HJ44" s="46"/>
+      <c r="HK44" s="46"/>
+      <c r="HL44" s="46"/>
+      <c r="HM44" s="46"/>
+      <c r="HN44" s="46"/>
+      <c r="HO44" s="46"/>
+      <c r="HP44" s="46"/>
+      <c r="HQ44" s="46"/>
+      <c r="HR44" s="46"/>
+      <c r="HS44" s="46"/>
+      <c r="HT44" s="46"/>
+      <c r="HU44" s="46"/>
+      <c r="HV44" s="46"/>
+      <c r="HW44" s="46"/>
+      <c r="HX44" s="46"/>
+      <c r="HY44" s="46"/>
+      <c r="HZ44" s="46"/>
+      <c r="IA44" s="46"/>
+      <c r="IB44" s="46"/>
+      <c r="IC44" s="46"/>
+      <c r="ID44" s="46"/>
+      <c r="IE44" s="46"/>
+      <c r="IF44" s="46"/>
+      <c r="IG44" s="46"/>
+      <c r="IH44" s="46"/>
+      <c r="II44" s="46"/>
+      <c r="IJ44" s="46"/>
+      <c r="IK44" s="46"/>
+      <c r="IL44" s="46"/>
+      <c r="IM44" s="46"/>
+      <c r="IN44" s="46"/>
+      <c r="IO44" s="46"/>
+      <c r="IP44" s="46"/>
+      <c r="IQ44" s="46"/>
+      <c r="IR44" s="46"/>
+      <c r="IS44" s="46"/>
+      <c r="IT44" s="46"/>
+      <c r="IU44" s="46"/>
+      <c r="IV44" s="46"/>
+      <c r="IW44" s="46"/>
+      <c r="IX44" s="46"/>
+      <c r="IY44" s="46"/>
+      <c r="IZ44" s="46"/>
+      <c r="JA44" s="46"/>
+      <c r="JB44" s="46"/>
+      <c r="JC44" s="46"/>
+      <c r="JD44" s="46"/>
+      <c r="JE44" s="46"/>
+      <c r="JF44" s="46"/>
+      <c r="JG44" s="46"/>
+      <c r="JH44" s="46"/>
+      <c r="JI44" s="46"/>
       <c r="JJ44" s="10"/>
       <c r="JK44"/>
     </row>
@@ -34777,22 +34777,22 @@
         <v>-867.55716530515997</v>
       </c>
       <c r="JF45" s="16">
-        <v>2484.5350703477602</v>
+        <v>1386.50553167167</v>
       </c>
       <c r="JG45" s="19">
-        <v>-22.039965394936999</v>
+        <v>-1577.9092393991</v>
       </c>
       <c r="JH45" s="20">
-        <v>-2315.1969781819998</v>
+        <v>-1971.8499545211</v>
       </c>
       <c r="JI45" s="21">
-        <v>-945.04577755369996</v>
+        <v>-804.06261722681995</v>
       </c>
       <c r="JJ45" s="21">
-        <v>-2576.2195637668001</v>
+        <v>-1827.1224945629001</v>
       </c>
       <c r="JK45" s="21">
-        <v>-1923.6934220359001</v>
+        <v>-2039.0296030359</v>
       </c>
     </row>
     <row r="46" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -35592,19 +35592,19 @@
         <v>-54.677495194906001</v>
       </c>
       <c r="JF46" s="17">
-        <v>842.71220573716096</v>
+        <v>907.83874440499699</v>
       </c>
       <c r="JG46" s="22">
-        <v>685.28947606823601</v>
+        <v>731.56666679489297</v>
       </c>
       <c r="JH46" s="6">
-        <v>1552.1277469752399</v>
+        <v>2205.3528088496601</v>
       </c>
       <c r="JI46" s="23">
-        <v>-60.604078356639</v>
+        <v>-71.928661664914003</v>
       </c>
       <c r="JJ46" s="23">
-        <v>582.10672654170003</v>
+        <v>584.06777413437305</v>
       </c>
       <c r="JK46" s="23">
         <v>843.44795768651795</v>
@@ -36407,19 +36407,19 @@
         <v>-82.623071473161005</v>
       </c>
       <c r="JF47" s="17">
-        <v>787.010821499381</v>
+        <v>852.13736016721703</v>
       </c>
       <c r="JG47" s="22">
-        <v>836.93144404956797</v>
+        <v>883.20863477622402</v>
       </c>
       <c r="JH47" s="6">
-        <v>1746.2804896566299</v>
+        <v>2399.5055515310601</v>
       </c>
       <c r="JI47" s="23">
-        <v>87.200761134888396</v>
+        <v>75.8761778266134</v>
       </c>
       <c r="JJ47" s="23">
-        <v>717.15126447456703</v>
+        <v>719.15334482114895</v>
       </c>
       <c r="JK47" s="23">
         <v>1063.08103856858</v>
@@ -37006,19 +37006,19 @@
         <v>402.09355977688398</v>
       </c>
       <c r="JF48" s="17">
-        <v>473.22609708532798</v>
+        <v>538.35263575316401</v>
       </c>
       <c r="JG48" s="22">
-        <v>420.79673968133699</v>
+        <v>467.07393040799298</v>
       </c>
       <c r="JH48" s="6">
-        <v>1633.42706376613</v>
+        <v>2286.6521256405499</v>
       </c>
       <c r="JI48" s="23">
-        <v>-264.02054638926001</v>
+        <v>-275.34512969753001</v>
       </c>
       <c r="JJ48" s="23">
-        <v>421.56206610958202</v>
+        <v>423.564146456164</v>
       </c>
       <c r="JK48" s="23">
         <v>515.23729631660797</v>
@@ -38420,7 +38420,7 @@
         <v>27.945576278255199</v>
       </c>
       <c r="JF50" s="17">
-        <v>55.701384237780402</v>
+        <v>55.701384237780502</v>
       </c>
       <c r="JG50" s="22">
         <v>-151.64196798133</v>
@@ -38432,7 +38432,7 @@
         <v>-147.80483949153</v>
       </c>
       <c r="JJ50" s="23">
-        <v>-135.04453793287001</v>
+        <v>-135.08557068677999</v>
       </c>
       <c r="JK50" s="23">
         <v>-219.63308088206</v>
@@ -40062,283 +40062,283 @@
         <v>-44.133557108985997</v>
       </c>
       <c r="JJ52" s="25">
-        <v>57.272870521518101</v>
+        <v>57.231837767608702</v>
       </c>
       <c r="JK52" s="25">
         <v>-403.35437997375999</v>
       </c>
     </row>
     <row r="54" spans="1:271" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
-      <c r="AP54" s="39"/>
-      <c r="AQ54" s="39"/>
-      <c r="AR54" s="39"/>
-      <c r="AS54" s="39"/>
-      <c r="AT54" s="39"/>
-      <c r="AU54" s="39"/>
-      <c r="AV54" s="39"/>
-      <c r="AW54" s="39"/>
-      <c r="AX54" s="39"/>
-      <c r="AY54" s="39"/>
-      <c r="AZ54" s="39"/>
-      <c r="BA54" s="39"/>
-      <c r="BB54" s="39"/>
-      <c r="BC54" s="39"/>
-      <c r="BD54" s="39"/>
-      <c r="BE54" s="39"/>
-      <c r="BF54" s="39"/>
-      <c r="BG54" s="39"/>
-      <c r="BH54" s="39"/>
-      <c r="BI54" s="39"/>
-      <c r="BJ54" s="39"/>
-      <c r="BK54" s="39"/>
-      <c r="BL54" s="39"/>
-      <c r="BM54" s="39"/>
-      <c r="BN54" s="39"/>
-      <c r="BO54" s="39"/>
-      <c r="BP54" s="39"/>
-      <c r="BQ54" s="39"/>
-      <c r="BR54" s="39"/>
-      <c r="BS54" s="39"/>
-      <c r="BT54" s="39"/>
-      <c r="BU54" s="39"/>
-      <c r="BV54" s="39"/>
-      <c r="BW54" s="39"/>
-      <c r="BX54" s="39"/>
-      <c r="BY54" s="39"/>
-      <c r="BZ54" s="39"/>
-      <c r="CA54" s="39"/>
-      <c r="CB54" s="39"/>
-      <c r="CC54" s="39"/>
-      <c r="CD54" s="39"/>
-      <c r="CE54" s="39"/>
-      <c r="CF54" s="39"/>
-      <c r="CG54" s="39"/>
-      <c r="CH54" s="39"/>
-      <c r="CI54" s="39"/>
-      <c r="CJ54" s="39"/>
-      <c r="CK54" s="39"/>
-      <c r="CL54" s="39"/>
-      <c r="CM54" s="39"/>
-      <c r="CN54" s="39"/>
-      <c r="CO54" s="39"/>
-      <c r="CP54" s="39"/>
-      <c r="CQ54" s="39"/>
-      <c r="CR54" s="39"/>
-      <c r="CS54" s="39"/>
-      <c r="CT54" s="39"/>
-      <c r="CU54" s="39"/>
-      <c r="CV54" s="39"/>
-      <c r="CW54" s="39"/>
-      <c r="CX54" s="39"/>
-      <c r="CY54" s="39"/>
-      <c r="CZ54" s="39"/>
-      <c r="DA54" s="39"/>
-      <c r="DB54" s="39"/>
-      <c r="DC54" s="39"/>
-      <c r="DD54" s="39"/>
-      <c r="DE54" s="39"/>
-      <c r="DF54" s="39"/>
-      <c r="DG54" s="39"/>
-      <c r="DH54" s="39"/>
-      <c r="DI54" s="39"/>
-      <c r="DJ54" s="39"/>
-      <c r="DK54" s="39"/>
-      <c r="DL54" s="39"/>
-      <c r="DM54" s="39"/>
-      <c r="DN54" s="39"/>
-      <c r="DO54" s="39"/>
-      <c r="DP54" s="39"/>
-      <c r="DQ54" s="39"/>
-      <c r="DR54" s="39"/>
-      <c r="DS54" s="39"/>
-      <c r="DT54" s="39"/>
-      <c r="DU54" s="39"/>
-      <c r="DV54" s="39"/>
-      <c r="DW54" s="39"/>
-      <c r="DX54" s="39"/>
-      <c r="DY54" s="39"/>
-      <c r="DZ54" s="39"/>
-      <c r="EA54" s="39"/>
-      <c r="EB54" s="39"/>
-      <c r="EC54" s="39"/>
-      <c r="ED54" s="39"/>
-      <c r="EE54" s="39"/>
-      <c r="EF54" s="39"/>
-      <c r="EG54" s="39"/>
-      <c r="EH54" s="39"/>
-      <c r="EI54" s="39"/>
-      <c r="EJ54" s="39"/>
-      <c r="EK54" s="39"/>
-      <c r="EL54" s="39"/>
-      <c r="EM54" s="39"/>
-      <c r="EN54" s="39"/>
-      <c r="EO54" s="39"/>
-      <c r="EP54" s="39"/>
-      <c r="EQ54" s="39"/>
-      <c r="ER54" s="39"/>
-      <c r="ES54" s="39"/>
-      <c r="ET54" s="39"/>
-      <c r="EU54" s="39"/>
-      <c r="EV54" s="39"/>
-      <c r="EW54" s="39"/>
-      <c r="EX54" s="39"/>
-      <c r="EY54" s="39"/>
-      <c r="EZ54" s="39"/>
-      <c r="FA54" s="39"/>
-      <c r="FB54" s="39"/>
-      <c r="FC54" s="39"/>
-      <c r="FD54" s="39"/>
-      <c r="FE54" s="39"/>
-      <c r="FF54" s="39"/>
-      <c r="FG54" s="39"/>
-      <c r="FH54" s="39"/>
-      <c r="FI54" s="39"/>
-      <c r="FJ54" s="39"/>
-      <c r="FK54" s="39"/>
-      <c r="FL54" s="39"/>
-      <c r="FM54" s="39"/>
-      <c r="FN54" s="39"/>
-      <c r="FO54" s="39"/>
-      <c r="FP54" s="39"/>
-      <c r="FQ54" s="39"/>
-      <c r="FR54" s="39"/>
-      <c r="FS54" s="39"/>
-      <c r="FT54" s="39"/>
-      <c r="FU54" s="39"/>
-      <c r="FV54" s="39"/>
-      <c r="FW54" s="39"/>
-      <c r="FX54" s="39"/>
-      <c r="FY54" s="39"/>
-      <c r="FZ54" s="39"/>
-      <c r="GA54" s="39"/>
-      <c r="GB54" s="39"/>
-      <c r="GC54" s="39"/>
-      <c r="GD54" s="39"/>
-      <c r="GE54" s="39"/>
-      <c r="GF54" s="39"/>
-      <c r="GG54" s="39"/>
-      <c r="GH54" s="39"/>
-      <c r="GI54" s="39"/>
-      <c r="GJ54" s="39"/>
-      <c r="GK54" s="39"/>
-      <c r="GL54" s="39"/>
-      <c r="GM54" s="39"/>
-      <c r="GN54" s="39"/>
-      <c r="GO54" s="39"/>
-      <c r="GP54" s="39"/>
-      <c r="GQ54" s="39"/>
-      <c r="GR54" s="39"/>
-      <c r="GS54" s="39"/>
-      <c r="GT54" s="39"/>
-      <c r="GU54" s="39"/>
-      <c r="GV54" s="39"/>
-      <c r="GW54" s="39"/>
-      <c r="GX54" s="39"/>
-      <c r="GY54" s="39"/>
-      <c r="GZ54" s="39"/>
-      <c r="HA54" s="39"/>
-      <c r="HB54" s="39"/>
-      <c r="HC54" s="39"/>
-      <c r="HD54" s="39"/>
-      <c r="HE54" s="39"/>
-      <c r="HF54" s="39"/>
-      <c r="HG54" s="39"/>
-      <c r="HH54" s="39"/>
-      <c r="HI54" s="39"/>
-      <c r="HJ54" s="39"/>
-      <c r="HK54" s="39"/>
-      <c r="HL54" s="39"/>
-      <c r="HM54" s="39"/>
-      <c r="HN54" s="39"/>
-      <c r="HO54" s="39"/>
-      <c r="HP54" s="39"/>
-      <c r="HQ54" s="39"/>
-      <c r="HR54" s="39"/>
-      <c r="HS54" s="39"/>
-      <c r="HT54" s="39"/>
-      <c r="HU54" s="39"/>
-      <c r="HV54" s="39"/>
-      <c r="HW54" s="39"/>
-      <c r="HX54" s="39"/>
-      <c r="HY54" s="39"/>
-      <c r="HZ54" s="39"/>
-      <c r="IA54" s="39"/>
-      <c r="IB54" s="39"/>
-      <c r="IC54" s="39"/>
-      <c r="ID54" s="39"/>
-      <c r="IE54" s="39"/>
-      <c r="IF54" s="39"/>
-      <c r="IG54" s="39"/>
-      <c r="IH54" s="39"/>
-      <c r="II54" s="39"/>
-      <c r="IJ54" s="39"/>
-      <c r="IK54" s="39"/>
-      <c r="IL54" s="39"/>
-      <c r="IM54" s="39"/>
-      <c r="IN54" s="39"/>
-      <c r="IO54" s="39"/>
-      <c r="IP54" s="39"/>
-      <c r="IQ54" s="39"/>
-      <c r="IR54" s="39"/>
-      <c r="IS54" s="39"/>
-      <c r="IT54" s="39"/>
-      <c r="IU54" s="39"/>
-      <c r="IV54" s="39"/>
-      <c r="IW54" s="39"/>
-      <c r="IX54" s="39"/>
-      <c r="IY54" s="39"/>
-      <c r="IZ54" s="39"/>
-      <c r="JA54" s="39"/>
-      <c r="JB54" s="39"/>
-      <c r="JC54" s="39"/>
-      <c r="JD54" s="39"/>
-      <c r="JE54" s="39"/>
-      <c r="JF54" s="39"/>
-      <c r="JG54" s="39"/>
-      <c r="JH54" s="39"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="43"/>
+      <c r="AF54" s="43"/>
+      <c r="AG54" s="43"/>
+      <c r="AH54" s="43"/>
+      <c r="AI54" s="43"/>
+      <c r="AJ54" s="43"/>
+      <c r="AK54" s="43"/>
+      <c r="AL54" s="43"/>
+      <c r="AM54" s="43"/>
+      <c r="AN54" s="43"/>
+      <c r="AO54" s="43"/>
+      <c r="AP54" s="43"/>
+      <c r="AQ54" s="43"/>
+      <c r="AR54" s="43"/>
+      <c r="AS54" s="43"/>
+      <c r="AT54" s="43"/>
+      <c r="AU54" s="43"/>
+      <c r="AV54" s="43"/>
+      <c r="AW54" s="43"/>
+      <c r="AX54" s="43"/>
+      <c r="AY54" s="43"/>
+      <c r="AZ54" s="43"/>
+      <c r="BA54" s="43"/>
+      <c r="BB54" s="43"/>
+      <c r="BC54" s="43"/>
+      <c r="BD54" s="43"/>
+      <c r="BE54" s="43"/>
+      <c r="BF54" s="43"/>
+      <c r="BG54" s="43"/>
+      <c r="BH54" s="43"/>
+      <c r="BI54" s="43"/>
+      <c r="BJ54" s="43"/>
+      <c r="BK54" s="43"/>
+      <c r="BL54" s="43"/>
+      <c r="BM54" s="43"/>
+      <c r="BN54" s="43"/>
+      <c r="BO54" s="43"/>
+      <c r="BP54" s="43"/>
+      <c r="BQ54" s="43"/>
+      <c r="BR54" s="43"/>
+      <c r="BS54" s="43"/>
+      <c r="BT54" s="43"/>
+      <c r="BU54" s="43"/>
+      <c r="BV54" s="43"/>
+      <c r="BW54" s="43"/>
+      <c r="BX54" s="43"/>
+      <c r="BY54" s="43"/>
+      <c r="BZ54" s="43"/>
+      <c r="CA54" s="43"/>
+      <c r="CB54" s="43"/>
+      <c r="CC54" s="43"/>
+      <c r="CD54" s="43"/>
+      <c r="CE54" s="43"/>
+      <c r="CF54" s="43"/>
+      <c r="CG54" s="43"/>
+      <c r="CH54" s="43"/>
+      <c r="CI54" s="43"/>
+      <c r="CJ54" s="43"/>
+      <c r="CK54" s="43"/>
+      <c r="CL54" s="43"/>
+      <c r="CM54" s="43"/>
+      <c r="CN54" s="43"/>
+      <c r="CO54" s="43"/>
+      <c r="CP54" s="43"/>
+      <c r="CQ54" s="43"/>
+      <c r="CR54" s="43"/>
+      <c r="CS54" s="43"/>
+      <c r="CT54" s="43"/>
+      <c r="CU54" s="43"/>
+      <c r="CV54" s="43"/>
+      <c r="CW54" s="43"/>
+      <c r="CX54" s="43"/>
+      <c r="CY54" s="43"/>
+      <c r="CZ54" s="43"/>
+      <c r="DA54" s="43"/>
+      <c r="DB54" s="43"/>
+      <c r="DC54" s="43"/>
+      <c r="DD54" s="43"/>
+      <c r="DE54" s="43"/>
+      <c r="DF54" s="43"/>
+      <c r="DG54" s="43"/>
+      <c r="DH54" s="43"/>
+      <c r="DI54" s="43"/>
+      <c r="DJ54" s="43"/>
+      <c r="DK54" s="43"/>
+      <c r="DL54" s="43"/>
+      <c r="DM54" s="43"/>
+      <c r="DN54" s="43"/>
+      <c r="DO54" s="43"/>
+      <c r="DP54" s="43"/>
+      <c r="DQ54" s="43"/>
+      <c r="DR54" s="43"/>
+      <c r="DS54" s="43"/>
+      <c r="DT54" s="43"/>
+      <c r="DU54" s="43"/>
+      <c r="DV54" s="43"/>
+      <c r="DW54" s="43"/>
+      <c r="DX54" s="43"/>
+      <c r="DY54" s="43"/>
+      <c r="DZ54" s="43"/>
+      <c r="EA54" s="43"/>
+      <c r="EB54" s="43"/>
+      <c r="EC54" s="43"/>
+      <c r="ED54" s="43"/>
+      <c r="EE54" s="43"/>
+      <c r="EF54" s="43"/>
+      <c r="EG54" s="43"/>
+      <c r="EH54" s="43"/>
+      <c r="EI54" s="43"/>
+      <c r="EJ54" s="43"/>
+      <c r="EK54" s="43"/>
+      <c r="EL54" s="43"/>
+      <c r="EM54" s="43"/>
+      <c r="EN54" s="43"/>
+      <c r="EO54" s="43"/>
+      <c r="EP54" s="43"/>
+      <c r="EQ54" s="43"/>
+      <c r="ER54" s="43"/>
+      <c r="ES54" s="43"/>
+      <c r="ET54" s="43"/>
+      <c r="EU54" s="43"/>
+      <c r="EV54" s="43"/>
+      <c r="EW54" s="43"/>
+      <c r="EX54" s="43"/>
+      <c r="EY54" s="43"/>
+      <c r="EZ54" s="43"/>
+      <c r="FA54" s="43"/>
+      <c r="FB54" s="43"/>
+      <c r="FC54" s="43"/>
+      <c r="FD54" s="43"/>
+      <c r="FE54" s="43"/>
+      <c r="FF54" s="43"/>
+      <c r="FG54" s="43"/>
+      <c r="FH54" s="43"/>
+      <c r="FI54" s="43"/>
+      <c r="FJ54" s="43"/>
+      <c r="FK54" s="43"/>
+      <c r="FL54" s="43"/>
+      <c r="FM54" s="43"/>
+      <c r="FN54" s="43"/>
+      <c r="FO54" s="43"/>
+      <c r="FP54" s="43"/>
+      <c r="FQ54" s="43"/>
+      <c r="FR54" s="43"/>
+      <c r="FS54" s="43"/>
+      <c r="FT54" s="43"/>
+      <c r="FU54" s="43"/>
+      <c r="FV54" s="43"/>
+      <c r="FW54" s="43"/>
+      <c r="FX54" s="43"/>
+      <c r="FY54" s="43"/>
+      <c r="FZ54" s="43"/>
+      <c r="GA54" s="43"/>
+      <c r="GB54" s="43"/>
+      <c r="GC54" s="43"/>
+      <c r="GD54" s="43"/>
+      <c r="GE54" s="43"/>
+      <c r="GF54" s="43"/>
+      <c r="GG54" s="43"/>
+      <c r="GH54" s="43"/>
+      <c r="GI54" s="43"/>
+      <c r="GJ54" s="43"/>
+      <c r="GK54" s="43"/>
+      <c r="GL54" s="43"/>
+      <c r="GM54" s="43"/>
+      <c r="GN54" s="43"/>
+      <c r="GO54" s="43"/>
+      <c r="GP54" s="43"/>
+      <c r="GQ54" s="43"/>
+      <c r="GR54" s="43"/>
+      <c r="GS54" s="43"/>
+      <c r="GT54" s="43"/>
+      <c r="GU54" s="43"/>
+      <c r="GV54" s="43"/>
+      <c r="GW54" s="43"/>
+      <c r="GX54" s="43"/>
+      <c r="GY54" s="43"/>
+      <c r="GZ54" s="43"/>
+      <c r="HA54" s="43"/>
+      <c r="HB54" s="43"/>
+      <c r="HC54" s="43"/>
+      <c r="HD54" s="43"/>
+      <c r="HE54" s="43"/>
+      <c r="HF54" s="43"/>
+      <c r="HG54" s="43"/>
+      <c r="HH54" s="43"/>
+      <c r="HI54" s="43"/>
+      <c r="HJ54" s="43"/>
+      <c r="HK54" s="43"/>
+      <c r="HL54" s="43"/>
+      <c r="HM54" s="43"/>
+      <c r="HN54" s="43"/>
+      <c r="HO54" s="43"/>
+      <c r="HP54" s="43"/>
+      <c r="HQ54" s="43"/>
+      <c r="HR54" s="43"/>
+      <c r="HS54" s="43"/>
+      <c r="HT54" s="43"/>
+      <c r="HU54" s="43"/>
+      <c r="HV54" s="43"/>
+      <c r="HW54" s="43"/>
+      <c r="HX54" s="43"/>
+      <c r="HY54" s="43"/>
+      <c r="HZ54" s="43"/>
+      <c r="IA54" s="43"/>
+      <c r="IB54" s="43"/>
+      <c r="IC54" s="43"/>
+      <c r="ID54" s="43"/>
+      <c r="IE54" s="43"/>
+      <c r="IF54" s="43"/>
+      <c r="IG54" s="43"/>
+      <c r="IH54" s="43"/>
+      <c r="II54" s="43"/>
+      <c r="IJ54" s="43"/>
+      <c r="IK54" s="43"/>
+      <c r="IL54" s="43"/>
+      <c r="IM54" s="43"/>
+      <c r="IN54" s="43"/>
+      <c r="IO54" s="43"/>
+      <c r="IP54" s="43"/>
+      <c r="IQ54" s="43"/>
+      <c r="IR54" s="43"/>
+      <c r="IS54" s="43"/>
+      <c r="IT54" s="43"/>
+      <c r="IU54" s="43"/>
+      <c r="IV54" s="43"/>
+      <c r="IW54" s="43"/>
+      <c r="IX54" s="43"/>
+      <c r="IY54" s="43"/>
+      <c r="IZ54" s="43"/>
+      <c r="JA54" s="43"/>
+      <c r="JB54" s="43"/>
+      <c r="JC54" s="43"/>
+      <c r="JD54" s="43"/>
+      <c r="JE54" s="43"/>
+      <c r="JF54" s="43"/>
+      <c r="JG54" s="43"/>
+      <c r="JH54" s="43"/>
       <c r="JI54"/>
       <c r="JJ54" s="33"/>
       <c r="JK54"/>
@@ -40383,7 +40383,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -40401,58 +40401,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -43224,31 +43224,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -43783,31 +43783,31 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.18.08.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.09.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB0A5B-6328-447B-B795-A6AB695C622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EE72C-69BE-4799-B942-94EA0B89D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -688,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -806,20 +806,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -838,6 +832,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -978,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JK54"/>
+  <dimension ref="A1:JL54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IR6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IW6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -1048,879 +1051,882 @@
     <col min="266" max="266" width="6.28515625" customWidth="1"/>
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="269" max="270" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="271" max="272" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="40"/>
-      <c r="CK1" s="40"/>
-      <c r="CL1" s="40"/>
-      <c r="CM1" s="40"/>
-      <c r="CN1" s="40"/>
-      <c r="CO1" s="40"/>
-      <c r="CP1" s="40"/>
-      <c r="CQ1" s="40"/>
-      <c r="CR1" s="40"/>
-      <c r="CS1" s="40"/>
-      <c r="CT1" s="40"/>
-      <c r="CU1" s="40"/>
-      <c r="CV1" s="40"/>
-      <c r="CW1" s="40"/>
-      <c r="CX1" s="40"/>
-      <c r="CY1" s="40"/>
-      <c r="CZ1" s="40"/>
-      <c r="DA1" s="40"/>
-      <c r="DB1" s="40"/>
-      <c r="DC1" s="40"/>
-      <c r="DD1" s="40"/>
-      <c r="DE1" s="40"/>
-      <c r="DF1" s="40"/>
-      <c r="DG1" s="40"/>
-      <c r="DH1" s="40"/>
-      <c r="DI1" s="40"/>
-      <c r="DJ1" s="40"/>
-      <c r="DK1" s="40"/>
-      <c r="DL1" s="40"/>
-      <c r="DM1" s="40"/>
-      <c r="DN1" s="40"/>
-      <c r="DO1" s="40"/>
-      <c r="DP1" s="40"/>
-      <c r="DQ1" s="40"/>
-      <c r="DR1" s="40"/>
-      <c r="DS1" s="40"/>
-      <c r="DT1" s="40"/>
-      <c r="DU1" s="40"/>
-      <c r="DV1" s="40"/>
-      <c r="DW1" s="40"/>
-      <c r="DX1" s="40"/>
-      <c r="DY1" s="40"/>
-      <c r="DZ1" s="40"/>
-      <c r="EA1" s="40"/>
-      <c r="EB1" s="40"/>
-      <c r="EC1" s="40"/>
-      <c r="ED1" s="40"/>
-      <c r="EE1" s="40"/>
-      <c r="EF1" s="40"/>
-      <c r="EG1" s="40"/>
-      <c r="EH1" s="40"/>
-      <c r="EI1" s="40"/>
-      <c r="EJ1" s="40"/>
-      <c r="EK1" s="40"/>
-      <c r="EL1" s="40"/>
-      <c r="EM1" s="40"/>
-      <c r="EN1" s="40"/>
-      <c r="EO1" s="40"/>
-      <c r="EP1" s="40"/>
-      <c r="EQ1" s="40"/>
-      <c r="ER1" s="40"/>
-      <c r="ES1" s="40"/>
-      <c r="ET1" s="40"/>
-      <c r="EU1" s="40"/>
-      <c r="EV1" s="40"/>
-      <c r="EW1" s="40"/>
-      <c r="EX1" s="40"/>
-      <c r="EY1" s="40"/>
-      <c r="EZ1" s="40"/>
-      <c r="FA1" s="40"/>
-      <c r="FB1" s="40"/>
-      <c r="FC1" s="40"/>
-      <c r="FD1" s="40"/>
-      <c r="FE1" s="40"/>
-      <c r="FF1" s="40"/>
-      <c r="FG1" s="40"/>
-      <c r="FH1" s="40"/>
-      <c r="FI1" s="40"/>
-      <c r="FJ1" s="40"/>
-      <c r="FK1" s="40"/>
-      <c r="FL1" s="40"/>
-      <c r="FM1" s="40"/>
-      <c r="FN1" s="40"/>
-      <c r="FO1" s="40"/>
-      <c r="FP1" s="40"/>
-      <c r="FQ1" s="40"/>
-      <c r="FR1" s="40"/>
-      <c r="FS1" s="40"/>
-      <c r="FT1" s="40"/>
-      <c r="FU1" s="40"/>
-      <c r="FV1" s="40"/>
-      <c r="FW1" s="40"/>
-      <c r="FX1" s="40"/>
-      <c r="FY1" s="40"/>
-      <c r="FZ1" s="40"/>
-      <c r="GA1" s="40"/>
-      <c r="GB1" s="40"/>
-      <c r="GC1" s="40"/>
-      <c r="GD1" s="40"/>
-      <c r="GE1" s="40"/>
-      <c r="GF1" s="40"/>
-      <c r="GG1" s="40"/>
-      <c r="GH1" s="40"/>
-      <c r="GI1" s="40"/>
-      <c r="GJ1" s="40"/>
-      <c r="GK1" s="40"/>
-      <c r="GL1" s="40"/>
-      <c r="GM1" s="40"/>
-      <c r="GN1" s="40"/>
-      <c r="GO1" s="40"/>
-      <c r="GP1" s="40"/>
-      <c r="GQ1" s="40"/>
-      <c r="GR1" s="40"/>
-      <c r="GS1" s="40"/>
-      <c r="GT1" s="40"/>
-      <c r="GU1" s="40"/>
-      <c r="GV1" s="40"/>
-      <c r="GW1" s="40"/>
-      <c r="GX1" s="40"/>
-      <c r="GY1" s="40"/>
-      <c r="GZ1" s="40"/>
-      <c r="HA1" s="40"/>
-      <c r="HB1" s="40"/>
-      <c r="HC1" s="40"/>
-      <c r="HD1" s="40"/>
-      <c r="HE1" s="40"/>
-      <c r="HF1" s="40"/>
-      <c r="HG1" s="40"/>
-      <c r="HH1" s="40"/>
-      <c r="HI1" s="40"/>
-      <c r="HJ1" s="40"/>
-      <c r="HK1" s="40"/>
-      <c r="HL1" s="40"/>
-      <c r="HM1" s="40"/>
-      <c r="HN1" s="40"/>
-      <c r="HO1" s="40"/>
-      <c r="HP1" s="40"/>
-      <c r="HQ1" s="40"/>
-      <c r="HR1" s="40"/>
-      <c r="HS1" s="40"/>
-      <c r="HT1" s="40"/>
-      <c r="HU1" s="40"/>
-      <c r="HV1" s="40"/>
-      <c r="HW1" s="40"/>
-      <c r="HX1" s="40"/>
-      <c r="HY1" s="40"/>
-      <c r="HZ1" s="40"/>
-      <c r="IA1" s="40"/>
-      <c r="IB1" s="40"/>
-      <c r="IC1" s="40"/>
-      <c r="ID1" s="40"/>
-      <c r="IE1" s="40"/>
-      <c r="IF1" s="40"/>
-      <c r="IG1" s="40"/>
-      <c r="IH1" s="40"/>
-      <c r="II1" s="40"/>
-      <c r="IJ1" s="40"/>
-      <c r="IK1" s="40"/>
-      <c r="IL1" s="40"/>
-      <c r="IM1" s="40"/>
-      <c r="IN1" s="40"/>
-      <c r="IO1" s="40"/>
-      <c r="IP1" s="40"/>
-      <c r="IQ1" s="40"/>
-      <c r="IR1" s="40"/>
-      <c r="IS1" s="40"/>
-      <c r="IT1" s="40"/>
-      <c r="IU1" s="40"/>
-      <c r="IV1" s="40"/>
-      <c r="IW1" s="40"/>
-      <c r="IX1" s="40"/>
-      <c r="IY1" s="40"/>
-      <c r="IZ1" s="40"/>
-      <c r="JA1" s="40"/>
-      <c r="JB1" s="40"/>
-      <c r="JC1" s="40"/>
-      <c r="JD1" s="40"/>
-      <c r="JE1" s="40"/>
-      <c r="JF1" s="40"/>
-      <c r="JG1" s="40"/>
-      <c r="JH1" s="40"/>
+    <row r="1" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="49"/>
+      <c r="CC1" s="49"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="49"/>
+      <c r="CF1" s="49"/>
+      <c r="CG1" s="49"/>
+      <c r="CH1" s="49"/>
+      <c r="CI1" s="49"/>
+      <c r="CJ1" s="49"/>
+      <c r="CK1" s="49"/>
+      <c r="CL1" s="49"/>
+      <c r="CM1" s="49"/>
+      <c r="CN1" s="49"/>
+      <c r="CO1" s="49"/>
+      <c r="CP1" s="49"/>
+      <c r="CQ1" s="49"/>
+      <c r="CR1" s="49"/>
+      <c r="CS1" s="49"/>
+      <c r="CT1" s="49"/>
+      <c r="CU1" s="49"/>
+      <c r="CV1" s="49"/>
+      <c r="CW1" s="49"/>
+      <c r="CX1" s="49"/>
+      <c r="CY1" s="49"/>
+      <c r="CZ1" s="49"/>
+      <c r="DA1" s="49"/>
+      <c r="DB1" s="49"/>
+      <c r="DC1" s="49"/>
+      <c r="DD1" s="49"/>
+      <c r="DE1" s="49"/>
+      <c r="DF1" s="49"/>
+      <c r="DG1" s="49"/>
+      <c r="DH1" s="49"/>
+      <c r="DI1" s="49"/>
+      <c r="DJ1" s="49"/>
+      <c r="DK1" s="49"/>
+      <c r="DL1" s="49"/>
+      <c r="DM1" s="49"/>
+      <c r="DN1" s="49"/>
+      <c r="DO1" s="49"/>
+      <c r="DP1" s="49"/>
+      <c r="DQ1" s="49"/>
+      <c r="DR1" s="49"/>
+      <c r="DS1" s="49"/>
+      <c r="DT1" s="49"/>
+      <c r="DU1" s="49"/>
+      <c r="DV1" s="49"/>
+      <c r="DW1" s="49"/>
+      <c r="DX1" s="49"/>
+      <c r="DY1" s="49"/>
+      <c r="DZ1" s="49"/>
+      <c r="EA1" s="49"/>
+      <c r="EB1" s="49"/>
+      <c r="EC1" s="49"/>
+      <c r="ED1" s="49"/>
+      <c r="EE1" s="49"/>
+      <c r="EF1" s="49"/>
+      <c r="EG1" s="49"/>
+      <c r="EH1" s="49"/>
+      <c r="EI1" s="49"/>
+      <c r="EJ1" s="49"/>
+      <c r="EK1" s="49"/>
+      <c r="EL1" s="49"/>
+      <c r="EM1" s="49"/>
+      <c r="EN1" s="49"/>
+      <c r="EO1" s="49"/>
+      <c r="EP1" s="49"/>
+      <c r="EQ1" s="49"/>
+      <c r="ER1" s="49"/>
+      <c r="ES1" s="49"/>
+      <c r="ET1" s="49"/>
+      <c r="EU1" s="49"/>
+      <c r="EV1" s="49"/>
+      <c r="EW1" s="49"/>
+      <c r="EX1" s="49"/>
+      <c r="EY1" s="49"/>
+      <c r="EZ1" s="49"/>
+      <c r="FA1" s="49"/>
+      <c r="FB1" s="49"/>
+      <c r="FC1" s="49"/>
+      <c r="FD1" s="49"/>
+      <c r="FE1" s="49"/>
+      <c r="FF1" s="49"/>
+      <c r="FG1" s="49"/>
+      <c r="FH1" s="49"/>
+      <c r="FI1" s="49"/>
+      <c r="FJ1" s="49"/>
+      <c r="FK1" s="49"/>
+      <c r="FL1" s="49"/>
+      <c r="FM1" s="49"/>
+      <c r="FN1" s="49"/>
+      <c r="FO1" s="49"/>
+      <c r="FP1" s="49"/>
+      <c r="FQ1" s="49"/>
+      <c r="FR1" s="49"/>
+      <c r="FS1" s="49"/>
+      <c r="FT1" s="49"/>
+      <c r="FU1" s="49"/>
+      <c r="FV1" s="49"/>
+      <c r="FW1" s="49"/>
+      <c r="FX1" s="49"/>
+      <c r="FY1" s="49"/>
+      <c r="FZ1" s="49"/>
+      <c r="GA1" s="49"/>
+      <c r="GB1" s="49"/>
+      <c r="GC1" s="49"/>
+      <c r="GD1" s="49"/>
+      <c r="GE1" s="49"/>
+      <c r="GF1" s="49"/>
+      <c r="GG1" s="49"/>
+      <c r="GH1" s="49"/>
+      <c r="GI1" s="49"/>
+      <c r="GJ1" s="49"/>
+      <c r="GK1" s="49"/>
+      <c r="GL1" s="49"/>
+      <c r="GM1" s="49"/>
+      <c r="GN1" s="49"/>
+      <c r="GO1" s="49"/>
+      <c r="GP1" s="49"/>
+      <c r="GQ1" s="49"/>
+      <c r="GR1" s="49"/>
+      <c r="GS1" s="49"/>
+      <c r="GT1" s="49"/>
+      <c r="GU1" s="49"/>
+      <c r="GV1" s="49"/>
+      <c r="GW1" s="49"/>
+      <c r="GX1" s="49"/>
+      <c r="GY1" s="49"/>
+      <c r="GZ1" s="49"/>
+      <c r="HA1" s="49"/>
+      <c r="HB1" s="49"/>
+      <c r="HC1" s="49"/>
+      <c r="HD1" s="49"/>
+      <c r="HE1" s="49"/>
+      <c r="HF1" s="49"/>
+      <c r="HG1" s="49"/>
+      <c r="HH1" s="49"/>
+      <c r="HI1" s="49"/>
+      <c r="HJ1" s="49"/>
+      <c r="HK1" s="49"/>
+      <c r="HL1" s="49"/>
+      <c r="HM1" s="49"/>
+      <c r="HN1" s="49"/>
+      <c r="HO1" s="49"/>
+      <c r="HP1" s="49"/>
+      <c r="HQ1" s="49"/>
+      <c r="HR1" s="49"/>
+      <c r="HS1" s="49"/>
+      <c r="HT1" s="49"/>
+      <c r="HU1" s="49"/>
+      <c r="HV1" s="49"/>
+      <c r="HW1" s="49"/>
+      <c r="HX1" s="49"/>
+      <c r="HY1" s="49"/>
+      <c r="HZ1" s="49"/>
+      <c r="IA1" s="49"/>
+      <c r="IB1" s="49"/>
+      <c r="IC1" s="49"/>
+      <c r="ID1" s="49"/>
+      <c r="IE1" s="49"/>
+      <c r="IF1" s="49"/>
+      <c r="IG1" s="49"/>
+      <c r="IH1" s="49"/>
+      <c r="II1" s="49"/>
+      <c r="IJ1" s="49"/>
+      <c r="IK1" s="49"/>
+      <c r="IL1" s="49"/>
+      <c r="IM1" s="49"/>
+      <c r="IN1" s="49"/>
+      <c r="IO1" s="49"/>
+      <c r="IP1" s="49"/>
+      <c r="IQ1" s="49"/>
+      <c r="IR1" s="49"/>
+      <c r="IS1" s="49"/>
+      <c r="IT1" s="49"/>
+      <c r="IU1" s="49"/>
+      <c r="IV1" s="49"/>
+      <c r="IW1" s="49"/>
+      <c r="IX1" s="49"/>
+      <c r="IY1" s="49"/>
+      <c r="IZ1" s="49"/>
+      <c r="JA1" s="49"/>
+      <c r="JB1" s="49"/>
+      <c r="JC1" s="49"/>
+      <c r="JD1" s="49"/>
+      <c r="JE1" s="49"/>
+      <c r="JF1" s="49"/>
+      <c r="JG1" s="49"/>
+      <c r="JH1" s="49"/>
       <c r="JI1"/>
       <c r="JJ1" s="33"/>
       <c r="JK1"/>
+      <c r="JL1" s="39"/>
     </row>
-    <row r="2" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="40"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
-      <c r="CJ2" s="40"/>
-      <c r="CK2" s="40"/>
-      <c r="CL2" s="40"/>
-      <c r="CM2" s="40"/>
-      <c r="CN2" s="40"/>
-      <c r="CO2" s="40"/>
-      <c r="CP2" s="40"/>
-      <c r="CQ2" s="40"/>
-      <c r="CR2" s="40"/>
-      <c r="CS2" s="40"/>
-      <c r="CT2" s="40"/>
-      <c r="CU2" s="40"/>
-      <c r="CV2" s="40"/>
-      <c r="CW2" s="40"/>
-      <c r="CX2" s="40"/>
-      <c r="CY2" s="40"/>
-      <c r="CZ2" s="40"/>
-      <c r="DA2" s="40"/>
-      <c r="DB2" s="40"/>
-      <c r="DC2" s="40"/>
-      <c r="DD2" s="40"/>
-      <c r="DE2" s="40"/>
-      <c r="DF2" s="40"/>
-      <c r="DG2" s="40"/>
-      <c r="DH2" s="40"/>
-      <c r="DI2" s="40"/>
-      <c r="DJ2" s="40"/>
-      <c r="DK2" s="40"/>
-      <c r="DL2" s="40"/>
-      <c r="DM2" s="40"/>
-      <c r="DN2" s="40"/>
-      <c r="DO2" s="40"/>
-      <c r="DP2" s="40"/>
-      <c r="DQ2" s="40"/>
-      <c r="DR2" s="40"/>
-      <c r="DS2" s="40"/>
-      <c r="DT2" s="40"/>
-      <c r="DU2" s="40"/>
-      <c r="DV2" s="40"/>
-      <c r="DW2" s="40"/>
-      <c r="DX2" s="40"/>
-      <c r="DY2" s="40"/>
-      <c r="DZ2" s="40"/>
-      <c r="EA2" s="40"/>
-      <c r="EB2" s="40"/>
-      <c r="EC2" s="40"/>
-      <c r="ED2" s="40"/>
-      <c r="EE2" s="40"/>
-      <c r="EF2" s="40"/>
-      <c r="EG2" s="40"/>
-      <c r="EH2" s="40"/>
-      <c r="EI2" s="40"/>
-      <c r="EJ2" s="40"/>
-      <c r="EK2" s="40"/>
-      <c r="EL2" s="40"/>
-      <c r="EM2" s="40"/>
-      <c r="EN2" s="40"/>
-      <c r="EO2" s="40"/>
-      <c r="EP2" s="40"/>
-      <c r="EQ2" s="40"/>
-      <c r="ER2" s="40"/>
-      <c r="ES2" s="40"/>
-      <c r="ET2" s="40"/>
-      <c r="EU2" s="40"/>
-      <c r="EV2" s="40"/>
-      <c r="EW2" s="40"/>
-      <c r="EX2" s="40"/>
-      <c r="EY2" s="40"/>
-      <c r="EZ2" s="40"/>
-      <c r="FA2" s="40"/>
-      <c r="FB2" s="40"/>
-      <c r="FC2" s="40"/>
-      <c r="FD2" s="40"/>
-      <c r="FE2" s="40"/>
-      <c r="FF2" s="40"/>
-      <c r="FG2" s="40"/>
-      <c r="FH2" s="40"/>
-      <c r="FI2" s="40"/>
-      <c r="FJ2" s="40"/>
-      <c r="FK2" s="40"/>
-      <c r="FL2" s="40"/>
-      <c r="FM2" s="40"/>
-      <c r="FN2" s="40"/>
-      <c r="FO2" s="40"/>
-      <c r="FP2" s="40"/>
-      <c r="FQ2" s="40"/>
-      <c r="FR2" s="40"/>
-      <c r="FS2" s="40"/>
-      <c r="FT2" s="40"/>
-      <c r="FU2" s="40"/>
-      <c r="FV2" s="40"/>
-      <c r="FW2" s="40"/>
-      <c r="FX2" s="40"/>
-      <c r="FY2" s="40"/>
-      <c r="FZ2" s="40"/>
-      <c r="GA2" s="40"/>
-      <c r="GB2" s="40"/>
-      <c r="GC2" s="40"/>
-      <c r="GD2" s="40"/>
-      <c r="GE2" s="40"/>
-      <c r="GF2" s="40"/>
-      <c r="GG2" s="40"/>
-      <c r="GH2" s="40"/>
-      <c r="GI2" s="40"/>
-      <c r="GJ2" s="40"/>
-      <c r="GK2" s="40"/>
-      <c r="GL2" s="40"/>
-      <c r="GM2" s="40"/>
-      <c r="GN2" s="40"/>
-      <c r="GO2" s="40"/>
-      <c r="GP2" s="40"/>
-      <c r="GQ2" s="40"/>
-      <c r="GR2" s="40"/>
-      <c r="GS2" s="40"/>
-      <c r="GT2" s="40"/>
-      <c r="GU2" s="40"/>
-      <c r="GV2" s="40"/>
-      <c r="GW2" s="40"/>
-      <c r="GX2" s="40"/>
-      <c r="GY2" s="40"/>
-      <c r="GZ2" s="40"/>
-      <c r="HA2" s="40"/>
-      <c r="HB2" s="40"/>
-      <c r="HC2" s="40"/>
-      <c r="HD2" s="40"/>
-      <c r="HE2" s="40"/>
-      <c r="HF2" s="40"/>
-      <c r="HG2" s="40"/>
-      <c r="HH2" s="40"/>
-      <c r="HI2" s="40"/>
-      <c r="HJ2" s="40"/>
-      <c r="HK2" s="40"/>
-      <c r="HL2" s="40"/>
-      <c r="HM2" s="40"/>
-      <c r="HN2" s="40"/>
-      <c r="HO2" s="40"/>
-      <c r="HP2" s="40"/>
-      <c r="HQ2" s="40"/>
-      <c r="HR2" s="40"/>
-      <c r="HS2" s="40"/>
-      <c r="HT2" s="40"/>
-      <c r="HU2" s="40"/>
-      <c r="HV2" s="40"/>
-      <c r="HW2" s="40"/>
-      <c r="HX2" s="40"/>
-      <c r="HY2" s="40"/>
-      <c r="HZ2" s="40"/>
-      <c r="IA2" s="40"/>
-      <c r="IB2" s="40"/>
-      <c r="IC2" s="40"/>
-      <c r="ID2" s="40"/>
-      <c r="IE2" s="40"/>
-      <c r="IF2" s="40"/>
-      <c r="IG2" s="40"/>
-      <c r="IH2" s="40"/>
-      <c r="II2" s="40"/>
-      <c r="IJ2" s="40"/>
-      <c r="IK2" s="40"/>
-      <c r="IL2" s="40"/>
-      <c r="IM2" s="40"/>
-      <c r="IN2" s="40"/>
-      <c r="IO2" s="40"/>
-      <c r="IP2" s="40"/>
-      <c r="IQ2" s="40"/>
-      <c r="IR2" s="40"/>
-      <c r="IS2" s="40"/>
-      <c r="IT2" s="40"/>
-      <c r="IU2" s="40"/>
-      <c r="IV2" s="40"/>
-      <c r="IW2" s="40"/>
-      <c r="IX2" s="40"/>
-      <c r="IY2" s="40"/>
-      <c r="IZ2" s="40"/>
-      <c r="JA2" s="40"/>
-      <c r="JB2" s="40"/>
-      <c r="JC2" s="40"/>
-      <c r="JD2" s="40"/>
-      <c r="JE2" s="40"/>
-      <c r="JF2" s="40"/>
-      <c r="JG2" s="40"/>
-      <c r="JH2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
+      <c r="DE2" s="49"/>
+      <c r="DF2" s="49"/>
+      <c r="DG2" s="49"/>
+      <c r="DH2" s="49"/>
+      <c r="DI2" s="49"/>
+      <c r="DJ2" s="49"/>
+      <c r="DK2" s="49"/>
+      <c r="DL2" s="49"/>
+      <c r="DM2" s="49"/>
+      <c r="DN2" s="49"/>
+      <c r="DO2" s="49"/>
+      <c r="DP2" s="49"/>
+      <c r="DQ2" s="49"/>
+      <c r="DR2" s="49"/>
+      <c r="DS2" s="49"/>
+      <c r="DT2" s="49"/>
+      <c r="DU2" s="49"/>
+      <c r="DV2" s="49"/>
+      <c r="DW2" s="49"/>
+      <c r="DX2" s="49"/>
+      <c r="DY2" s="49"/>
+      <c r="DZ2" s="49"/>
+      <c r="EA2" s="49"/>
+      <c r="EB2" s="49"/>
+      <c r="EC2" s="49"/>
+      <c r="ED2" s="49"/>
+      <c r="EE2" s="49"/>
+      <c r="EF2" s="49"/>
+      <c r="EG2" s="49"/>
+      <c r="EH2" s="49"/>
+      <c r="EI2" s="49"/>
+      <c r="EJ2" s="49"/>
+      <c r="EK2" s="49"/>
+      <c r="EL2" s="49"/>
+      <c r="EM2" s="49"/>
+      <c r="EN2" s="49"/>
+      <c r="EO2" s="49"/>
+      <c r="EP2" s="49"/>
+      <c r="EQ2" s="49"/>
+      <c r="ER2" s="49"/>
+      <c r="ES2" s="49"/>
+      <c r="ET2" s="49"/>
+      <c r="EU2" s="49"/>
+      <c r="EV2" s="49"/>
+      <c r="EW2" s="49"/>
+      <c r="EX2" s="49"/>
+      <c r="EY2" s="49"/>
+      <c r="EZ2" s="49"/>
+      <c r="FA2" s="49"/>
+      <c r="FB2" s="49"/>
+      <c r="FC2" s="49"/>
+      <c r="FD2" s="49"/>
+      <c r="FE2" s="49"/>
+      <c r="FF2" s="49"/>
+      <c r="FG2" s="49"/>
+      <c r="FH2" s="49"/>
+      <c r="FI2" s="49"/>
+      <c r="FJ2" s="49"/>
+      <c r="FK2" s="49"/>
+      <c r="FL2" s="49"/>
+      <c r="FM2" s="49"/>
+      <c r="FN2" s="49"/>
+      <c r="FO2" s="49"/>
+      <c r="FP2" s="49"/>
+      <c r="FQ2" s="49"/>
+      <c r="FR2" s="49"/>
+      <c r="FS2" s="49"/>
+      <c r="FT2" s="49"/>
+      <c r="FU2" s="49"/>
+      <c r="FV2" s="49"/>
+      <c r="FW2" s="49"/>
+      <c r="FX2" s="49"/>
+      <c r="FY2" s="49"/>
+      <c r="FZ2" s="49"/>
+      <c r="GA2" s="49"/>
+      <c r="GB2" s="49"/>
+      <c r="GC2" s="49"/>
+      <c r="GD2" s="49"/>
+      <c r="GE2" s="49"/>
+      <c r="GF2" s="49"/>
+      <c r="GG2" s="49"/>
+      <c r="GH2" s="49"/>
+      <c r="GI2" s="49"/>
+      <c r="GJ2" s="49"/>
+      <c r="GK2" s="49"/>
+      <c r="GL2" s="49"/>
+      <c r="GM2" s="49"/>
+      <c r="GN2" s="49"/>
+      <c r="GO2" s="49"/>
+      <c r="GP2" s="49"/>
+      <c r="GQ2" s="49"/>
+      <c r="GR2" s="49"/>
+      <c r="GS2" s="49"/>
+      <c r="GT2" s="49"/>
+      <c r="GU2" s="49"/>
+      <c r="GV2" s="49"/>
+      <c r="GW2" s="49"/>
+      <c r="GX2" s="49"/>
+      <c r="GY2" s="49"/>
+      <c r="GZ2" s="49"/>
+      <c r="HA2" s="49"/>
+      <c r="HB2" s="49"/>
+      <c r="HC2" s="49"/>
+      <c r="HD2" s="49"/>
+      <c r="HE2" s="49"/>
+      <c r="HF2" s="49"/>
+      <c r="HG2" s="49"/>
+      <c r="HH2" s="49"/>
+      <c r="HI2" s="49"/>
+      <c r="HJ2" s="49"/>
+      <c r="HK2" s="49"/>
+      <c r="HL2" s="49"/>
+      <c r="HM2" s="49"/>
+      <c r="HN2" s="49"/>
+      <c r="HO2" s="49"/>
+      <c r="HP2" s="49"/>
+      <c r="HQ2" s="49"/>
+      <c r="HR2" s="49"/>
+      <c r="HS2" s="49"/>
+      <c r="HT2" s="49"/>
+      <c r="HU2" s="49"/>
+      <c r="HV2" s="49"/>
+      <c r="HW2" s="49"/>
+      <c r="HX2" s="49"/>
+      <c r="HY2" s="49"/>
+      <c r="HZ2" s="49"/>
+      <c r="IA2" s="49"/>
+      <c r="IB2" s="49"/>
+      <c r="IC2" s="49"/>
+      <c r="ID2" s="49"/>
+      <c r="IE2" s="49"/>
+      <c r="IF2" s="49"/>
+      <c r="IG2" s="49"/>
+      <c r="IH2" s="49"/>
+      <c r="II2" s="49"/>
+      <c r="IJ2" s="49"/>
+      <c r="IK2" s="49"/>
+      <c r="IL2" s="49"/>
+      <c r="IM2" s="49"/>
+      <c r="IN2" s="49"/>
+      <c r="IO2" s="49"/>
+      <c r="IP2" s="49"/>
+      <c r="IQ2" s="49"/>
+      <c r="IR2" s="49"/>
+      <c r="IS2" s="49"/>
+      <c r="IT2" s="49"/>
+      <c r="IU2" s="49"/>
+      <c r="IV2" s="49"/>
+      <c r="IW2" s="49"/>
+      <c r="IX2" s="49"/>
+      <c r="IY2" s="49"/>
+      <c r="IZ2" s="49"/>
+      <c r="JA2" s="49"/>
+      <c r="JB2" s="49"/>
+      <c r="JC2" s="49"/>
+      <c r="JD2" s="49"/>
+      <c r="JE2" s="49"/>
+      <c r="JF2" s="49"/>
+      <c r="JG2" s="49"/>
+      <c r="JH2" s="49"/>
       <c r="JI2"/>
       <c r="JJ2" s="33"/>
       <c r="JK2"/>
+      <c r="JL2" s="39"/>
     </row>
-    <row r="4" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>2003</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41">
         <v>2004</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42">
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41">
         <v>2005</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42">
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41">
         <v>2006</v>
       </c>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42">
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41">
         <v>2007</v>
       </c>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42">
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41">
         <v>2008</v>
       </c>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42">
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41">
         <v>2009</v>
       </c>
-      <c r="BW4" s="42"/>
-      <c r="BX4" s="42"/>
-      <c r="BY4" s="42"/>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42">
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41">
         <v>2010</v>
       </c>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="42"/>
-      <c r="CM4" s="42"/>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42">
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41">
         <v>2011</v>
       </c>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
-      <c r="DA4" s="42"/>
-      <c r="DB4" s="42"/>
-      <c r="DC4" s="42"/>
-      <c r="DD4" s="42"/>
-      <c r="DE4" s="42"/>
-      <c r="DF4" s="42">
+      <c r="CU4" s="41"/>
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41"/>
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41">
         <v>2012</v>
       </c>
-      <c r="DG4" s="42"/>
-      <c r="DH4" s="42"/>
-      <c r="DI4" s="42"/>
-      <c r="DJ4" s="42"/>
-      <c r="DK4" s="42"/>
-      <c r="DL4" s="42"/>
-      <c r="DM4" s="42"/>
-      <c r="DN4" s="42"/>
-      <c r="DO4" s="42"/>
-      <c r="DP4" s="42"/>
-      <c r="DQ4" s="42"/>
-      <c r="DR4" s="42">
+      <c r="DG4" s="41"/>
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41"/>
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41"/>
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41">
         <v>2013</v>
       </c>
-      <c r="DS4" s="42"/>
-      <c r="DT4" s="42"/>
-      <c r="DU4" s="42"/>
-      <c r="DV4" s="42"/>
-      <c r="DW4" s="42"/>
-      <c r="DX4" s="42"/>
-      <c r="DY4" s="42"/>
-      <c r="DZ4" s="42"/>
-      <c r="EA4" s="42"/>
-      <c r="EB4" s="42"/>
-      <c r="EC4" s="42"/>
-      <c r="ED4" s="42">
+      <c r="DS4" s="41"/>
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
+      <c r="ED4" s="41">
         <v>2014</v>
       </c>
-      <c r="EE4" s="42"/>
-      <c r="EF4" s="42"/>
-      <c r="EG4" s="42"/>
-      <c r="EH4" s="42"/>
-      <c r="EI4" s="42"/>
-      <c r="EJ4" s="42"/>
-      <c r="EK4" s="42"/>
-      <c r="EL4" s="42"/>
-      <c r="EM4" s="42"/>
-      <c r="EN4" s="42"/>
-      <c r="EO4" s="42"/>
-      <c r="EP4" s="42">
+      <c r="EE4" s="41"/>
+      <c r="EF4" s="41"/>
+      <c r="EG4" s="41"/>
+      <c r="EH4" s="41"/>
+      <c r="EI4" s="41"/>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="41"/>
+      <c r="EL4" s="41"/>
+      <c r="EM4" s="41"/>
+      <c r="EN4" s="41"/>
+      <c r="EO4" s="41"/>
+      <c r="EP4" s="41">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="42"/>
-      <c r="ER4" s="42"/>
-      <c r="ES4" s="42"/>
-      <c r="ET4" s="42"/>
-      <c r="EU4" s="42"/>
-      <c r="EV4" s="42"/>
-      <c r="EW4" s="42"/>
-      <c r="EX4" s="42"/>
-      <c r="EY4" s="42"/>
-      <c r="EZ4" s="42"/>
-      <c r="FA4" s="42"/>
-      <c r="FB4" s="42">
+      <c r="EQ4" s="41"/>
+      <c r="ER4" s="41"/>
+      <c r="ES4" s="41"/>
+      <c r="ET4" s="41"/>
+      <c r="EU4" s="41"/>
+      <c r="EV4" s="41"/>
+      <c r="EW4" s="41"/>
+      <c r="EX4" s="41"/>
+      <c r="EY4" s="41"/>
+      <c r="EZ4" s="41"/>
+      <c r="FA4" s="41"/>
+      <c r="FB4" s="41">
         <v>2016</v>
       </c>
-      <c r="FC4" s="42"/>
-      <c r="FD4" s="42"/>
-      <c r="FE4" s="42"/>
-      <c r="FF4" s="42"/>
-      <c r="FG4" s="42"/>
-      <c r="FH4" s="42"/>
-      <c r="FI4" s="42"/>
-      <c r="FJ4" s="42"/>
-      <c r="FK4" s="42"/>
-      <c r="FL4" s="42"/>
-      <c r="FM4" s="42"/>
-      <c r="FN4" s="42">
+      <c r="FC4" s="41"/>
+      <c r="FD4" s="41"/>
+      <c r="FE4" s="41"/>
+      <c r="FF4" s="41"/>
+      <c r="FG4" s="41"/>
+      <c r="FH4" s="41"/>
+      <c r="FI4" s="41"/>
+      <c r="FJ4" s="41"/>
+      <c r="FK4" s="41"/>
+      <c r="FL4" s="41"/>
+      <c r="FM4" s="41"/>
+      <c r="FN4" s="41">
         <v>2017</v>
       </c>
-      <c r="FO4" s="42"/>
-      <c r="FP4" s="42"/>
-      <c r="FQ4" s="42"/>
-      <c r="FR4" s="42"/>
-      <c r="FS4" s="42"/>
-      <c r="FT4" s="42"/>
-      <c r="FU4" s="42"/>
-      <c r="FV4" s="42"/>
-      <c r="FW4" s="42"/>
-      <c r="FX4" s="42"/>
-      <c r="FY4" s="42"/>
-      <c r="FZ4" s="42">
+      <c r="FO4" s="41"/>
+      <c r="FP4" s="41"/>
+      <c r="FQ4" s="41"/>
+      <c r="FR4" s="41"/>
+      <c r="FS4" s="41"/>
+      <c r="FT4" s="41"/>
+      <c r="FU4" s="41"/>
+      <c r="FV4" s="41"/>
+      <c r="FW4" s="41"/>
+      <c r="FX4" s="41"/>
+      <c r="FY4" s="41"/>
+      <c r="FZ4" s="41">
         <v>2018</v>
       </c>
-      <c r="GA4" s="42"/>
-      <c r="GB4" s="42"/>
-      <c r="GC4" s="42"/>
-      <c r="GD4" s="42"/>
-      <c r="GE4" s="42"/>
-      <c r="GF4" s="42"/>
-      <c r="GG4" s="42"/>
-      <c r="GH4" s="42"/>
-      <c r="GI4" s="42"/>
-      <c r="GJ4" s="42"/>
-      <c r="GK4" s="42"/>
-      <c r="GL4" s="42">
+      <c r="GA4" s="41"/>
+      <c r="GB4" s="41"/>
+      <c r="GC4" s="41"/>
+      <c r="GD4" s="41"/>
+      <c r="GE4" s="41"/>
+      <c r="GF4" s="41"/>
+      <c r="GG4" s="41"/>
+      <c r="GH4" s="41"/>
+      <c r="GI4" s="41"/>
+      <c r="GJ4" s="41"/>
+      <c r="GK4" s="41"/>
+      <c r="GL4" s="41">
         <v>2019</v>
       </c>
-      <c r="GM4" s="42"/>
-      <c r="GN4" s="42"/>
-      <c r="GO4" s="42"/>
-      <c r="GP4" s="42"/>
-      <c r="GQ4" s="42"/>
-      <c r="GR4" s="42"/>
-      <c r="GS4" s="42"/>
-      <c r="GT4" s="42"/>
-      <c r="GU4" s="42"/>
-      <c r="GV4" s="42"/>
-      <c r="GW4" s="42"/>
-      <c r="GX4" s="42">
+      <c r="GM4" s="41"/>
+      <c r="GN4" s="41"/>
+      <c r="GO4" s="41"/>
+      <c r="GP4" s="41"/>
+      <c r="GQ4" s="41"/>
+      <c r="GR4" s="41"/>
+      <c r="GS4" s="41"/>
+      <c r="GT4" s="41"/>
+      <c r="GU4" s="41"/>
+      <c r="GV4" s="41"/>
+      <c r="GW4" s="41"/>
+      <c r="GX4" s="41">
         <v>2020</v>
       </c>
-      <c r="GY4" s="42"/>
-      <c r="GZ4" s="42"/>
-      <c r="HA4" s="42"/>
-      <c r="HB4" s="42"/>
-      <c r="HC4" s="42"/>
-      <c r="HD4" s="42"/>
-      <c r="HE4" s="42"/>
-      <c r="HF4" s="42"/>
-      <c r="HG4" s="42"/>
-      <c r="HH4" s="42"/>
-      <c r="HI4" s="42"/>
-      <c r="HJ4" s="42">
+      <c r="GY4" s="41"/>
+      <c r="GZ4" s="41"/>
+      <c r="HA4" s="41"/>
+      <c r="HB4" s="41"/>
+      <c r="HC4" s="41"/>
+      <c r="HD4" s="41"/>
+      <c r="HE4" s="41"/>
+      <c r="HF4" s="41"/>
+      <c r="HG4" s="41"/>
+      <c r="HH4" s="41"/>
+      <c r="HI4" s="41"/>
+      <c r="HJ4" s="41">
         <v>2021</v>
       </c>
-      <c r="HK4" s="42"/>
-      <c r="HL4" s="42"/>
-      <c r="HM4" s="42"/>
-      <c r="HN4" s="42"/>
-      <c r="HO4" s="42"/>
-      <c r="HP4" s="42"/>
-      <c r="HQ4" s="42"/>
-      <c r="HR4" s="42"/>
-      <c r="HS4" s="42"/>
-      <c r="HT4" s="42"/>
-      <c r="HU4" s="42"/>
-      <c r="HV4" s="42">
+      <c r="HK4" s="41"/>
+      <c r="HL4" s="41"/>
+      <c r="HM4" s="41"/>
+      <c r="HN4" s="41"/>
+      <c r="HO4" s="41"/>
+      <c r="HP4" s="41"/>
+      <c r="HQ4" s="41"/>
+      <c r="HR4" s="41"/>
+      <c r="HS4" s="41"/>
+      <c r="HT4" s="41"/>
+      <c r="HU4" s="41"/>
+      <c r="HV4" s="41">
         <v>2022</v>
       </c>
-      <c r="HW4" s="42"/>
-      <c r="HX4" s="42"/>
-      <c r="HY4" s="42"/>
-      <c r="HZ4" s="42"/>
-      <c r="IA4" s="42"/>
-      <c r="IB4" s="42"/>
-      <c r="IC4" s="42"/>
-      <c r="ID4" s="42"/>
-      <c r="IE4" s="42"/>
-      <c r="IF4" s="42"/>
-      <c r="IG4" s="42"/>
-      <c r="IH4" s="42">
+      <c r="HW4" s="41"/>
+      <c r="HX4" s="41"/>
+      <c r="HY4" s="41"/>
+      <c r="HZ4" s="41"/>
+      <c r="IA4" s="41"/>
+      <c r="IB4" s="41"/>
+      <c r="IC4" s="41"/>
+      <c r="ID4" s="41"/>
+      <c r="IE4" s="41"/>
+      <c r="IF4" s="41"/>
+      <c r="IG4" s="41"/>
+      <c r="IH4" s="41">
         <v>2023</v>
       </c>
-      <c r="II4" s="42"/>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="42">
+      <c r="II4" s="41"/>
+      <c r="IJ4" s="41"/>
+      <c r="IK4" s="41"/>
+      <c r="IL4" s="41"/>
+      <c r="IM4" s="41"/>
+      <c r="IN4" s="41"/>
+      <c r="IO4" s="41"/>
+      <c r="IP4" s="41"/>
+      <c r="IQ4" s="41"/>
+      <c r="IR4" s="41"/>
+      <c r="IS4" s="41"/>
+      <c r="IT4" s="41">
         <v>2024</v>
       </c>
-      <c r="IU4" s="42"/>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="44"/>
-      <c r="JF4" s="47">
+      <c r="IU4" s="41"/>
+      <c r="IV4" s="41"/>
+      <c r="IW4" s="41"/>
+      <c r="IX4" s="41"/>
+      <c r="IY4" s="41"/>
+      <c r="IZ4" s="41"/>
+      <c r="JA4" s="41"/>
+      <c r="JB4" s="41"/>
+      <c r="JC4" s="41"/>
+      <c r="JD4" s="41"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="45">
         <v>2025</v>
       </c>
-      <c r="JG4" s="48"/>
-      <c r="JH4" s="48"/>
-      <c r="JI4" s="48"/>
-      <c r="JJ4" s="48"/>
-      <c r="JK4" s="49"/>
+      <c r="JG4" s="46"/>
+      <c r="JH4" s="46"/>
+      <c r="JI4" s="46"/>
+      <c r="JJ4" s="46"/>
+      <c r="JK4" s="46"/>
+      <c r="JL4" s="47"/>
     </row>
-    <row r="5" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2734,8 +2740,11 @@
       <c r="JK5" s="38" t="s">
         <v>8</v>
       </c>
+      <c r="JL5" s="38" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3549,8 +3558,11 @@
       <c r="JK6" s="36">
         <v>-1879.6716170065999</v>
       </c>
+      <c r="JL6" s="36">
+        <v>-1164.7505813493999</v>
+      </c>
     </row>
-    <row r="7" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4364,8 +4376,11 @@
       <c r="JK7" s="36">
         <v>-1163.4810785966999</v>
       </c>
+      <c r="JL7" s="36">
+        <v>1032.6810439636099</v>
+      </c>
     </row>
-    <row r="8" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5179,8 +5194,11 @@
       <c r="JK8" s="36">
         <v>716.19053840983497</v>
       </c>
+      <c r="JL8" s="36">
+        <v>2197.431625313</v>
+      </c>
     </row>
-    <row r="9" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -5994,8 +6012,11 @@
       <c r="JK9" s="36">
         <v>-35.460547574492999</v>
       </c>
+      <c r="JL9" s="36">
+        <v>-1325.2589060403</v>
+      </c>
     </row>
-    <row r="10" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -6809,8 +6830,11 @@
       <c r="JK10" s="37">
         <v>742.66516223423798</v>
       </c>
+      <c r="JL10" s="37">
+        <v>472.63419309133201</v>
+      </c>
     </row>
-    <row r="11" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -7624,8 +7648,11 @@
       <c r="JK11" s="37">
         <v>128.56362061304</v>
       </c>
+      <c r="JL11" s="37">
+        <v>220.91448578793501</v>
+      </c>
     </row>
-    <row r="12" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -8439,8 +8466,11 @@
       <c r="JK12" s="37">
         <v>324.79245637839398</v>
       </c>
+      <c r="JL12" s="37">
+        <v>-118.35047562167</v>
+      </c>
     </row>
-    <row r="13" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -9254,8 +9284,11 @@
       <c r="JK13" s="37">
         <v>289.30908524280397</v>
       </c>
+      <c r="JL13" s="37">
+        <v>370.07018292506899</v>
+      </c>
     </row>
-    <row r="14" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -10069,8 +10102,11 @@
       <c r="JK14" s="37">
         <v>778.12570980873204</v>
       </c>
+      <c r="JL14" s="37">
+        <v>1797.8930991316199</v>
+      </c>
     </row>
-    <row r="15" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -10884,8 +10920,11 @@
       <c r="JK15" s="37">
         <v>585.42030042000101</v>
       </c>
+      <c r="JL15" s="37">
+        <v>270.83298048</v>
+      </c>
     </row>
-    <row r="16" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -11699,8 +11738,11 @@
       <c r="JK16" s="37">
         <v>226.374501018465</v>
       </c>
+      <c r="JL16" s="37">
+        <v>349.34999542011298</v>
+      </c>
     </row>
-    <row r="17" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -12514,8 +12556,11 @@
       <c r="JK17" s="37">
         <v>-33.669091629733998</v>
       </c>
+      <c r="JL17" s="37">
+        <v>1177.7101232315099</v>
+      </c>
     </row>
-    <row r="18" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -13329,8 +13374,11 @@
       <c r="JK18" s="36">
         <v>1470.0387050270999</v>
       </c>
+      <c r="JL18" s="36">
+        <v>-427.25580237220998</v>
+      </c>
     </row>
-    <row r="19" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -14144,8 +14192,11 @@
       <c r="JK19" s="37">
         <v>2313.4866627136198</v>
       </c>
+      <c r="JL19" s="37">
+        <v>715.55762897367799</v>
+      </c>
     </row>
-    <row r="20" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -14959,8 +15010,11 @@
       <c r="JK20" s="37">
         <v>1242.4881633170301</v>
       </c>
+      <c r="JL20" s="37">
+        <v>999.790696781375</v>
+      </c>
     </row>
-    <row r="21" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -15774,8 +15828,11 @@
       <c r="JK21" s="37">
         <v>1070.99849939658</v>
       </c>
+      <c r="JL21" s="37">
+        <v>-284.23306780770002</v>
+      </c>
     </row>
-    <row r="22" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -16589,8 +16646,11 @@
       <c r="JK22" s="37">
         <v>227.270104056478</v>
       </c>
+      <c r="JL22" s="37">
+        <v>111.29379635223999</v>
+      </c>
     </row>
-    <row r="23" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -17404,8 +17464,11 @@
       <c r="JK23" s="37">
         <v>843.72839534010404</v>
       </c>
+      <c r="JL23" s="37">
+        <v>-395.52686415993998</v>
+      </c>
     </row>
-    <row r="24" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -18219,8 +18282,11 @@
       <c r="JK24" s="37">
         <v>843.44795768651795</v>
       </c>
+      <c r="JL24" s="37">
+        <v>1142.81343134588</v>
+      </c>
     </row>
-    <row r="25" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -19034,8 +19100,11 @@
       <c r="JK25" s="37">
         <v>-219.63308088206</v>
       </c>
+      <c r="JL25" s="37">
+        <v>-380.80764791126001</v>
+      </c>
     </row>
-    <row r="26" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -19849,8 +19918,11 @@
       <c r="JK26" s="37">
         <v>1063.08103856858</v>
       </c>
+      <c r="JL26" s="37">
+        <v>1523.6210792571501</v>
+      </c>
     </row>
-    <row r="27" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -20664,8 +20736,11 @@
       <c r="JK27" s="37">
         <v>630.77791349986705</v>
       </c>
+      <c r="JL27" s="37">
+        <v>1753.3435608293701</v>
+      </c>
     </row>
-    <row r="28" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -21479,8 +21554,11 @@
       <c r="JK28" s="37">
         <v>432.30312506870899</v>
       </c>
+      <c r="JL28" s="37">
+        <v>-229.72248157223001</v>
+      </c>
     </row>
-    <row r="29" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -22294,8 +22372,11 @@
       <c r="JK29" s="36">
         <v>-157.86499620951</v>
       </c>
+      <c r="JL29" s="36">
+        <v>-70.383674832493995</v>
+      </c>
     </row>
-    <row r="30" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -23109,8 +23190,11 @@
       <c r="JK30" s="36">
         <v>-3315.7427642789999</v>
       </c>
+      <c r="JL30" s="36">
+        <v>597.41571908149501</v>
+      </c>
     </row>
-    <row r="31" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -23924,8 +24008,11 @@
       <c r="JK31" s="37">
         <v>-3028.5556636962001</v>
       </c>
+      <c r="JL31" s="37">
+        <v>1221.46585725614</v>
+      </c>
     </row>
-    <row r="32" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -24739,8 +24826,11 @@
       <c r="JK32" s="37">
         <v>26.77760129</v>
       </c>
+      <c r="JL32" s="37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -25554,8 +25644,11 @@
       <c r="JK33" s="37">
         <v>-200.04236735947001</v>
       </c>
+      <c r="JL33" s="37">
+        <v>-362.17993059535002</v>
+      </c>
     </row>
-    <row r="34" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -26369,8 +26462,11 @@
       <c r="JK34" s="37">
         <v>-35.973160346759997</v>
       </c>
+      <c r="JL34" s="37">
+        <v>-79.369152821048999</v>
+      </c>
     </row>
-    <row r="35" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -27184,8 +27280,11 @@
       <c r="JK35" s="37">
         <v>-2816.3950089225</v>
       </c>
+      <c r="JL35" s="37">
+        <v>1665.95138717896</v>
+      </c>
     </row>
-    <row r="36" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -27999,8 +28098,11 @@
       <c r="JK36" s="37">
         <v>-2.9227283574356</v>
       </c>
+      <c r="JL36" s="37">
+        <v>-2.9364465064142</v>
+      </c>
     </row>
-    <row r="37" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
@@ -28814,8 +28916,11 @@
       <c r="JK37" s="37">
         <v>287.18710058277901</v>
       </c>
+      <c r="JL37" s="37">
+        <v>624.05013817464896</v>
+      </c>
     </row>
-    <row r="38" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -29629,8 +29734,11 @@
       <c r="JK38" s="37">
         <v>215.07495668310199</v>
       </c>
+      <c r="JL38" s="37">
+        <v>742.26978146436295</v>
+      </c>
     </row>
-    <row r="39" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -30444,8 +30552,11 @@
       <c r="JK39" s="37">
         <v>-352.28276133051997</v>
       </c>
+      <c r="JL39" s="37">
+        <v>409.61422487256698</v>
+      </c>
     </row>
-    <row r="40" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -31259,8 +31370,11 @@
       <c r="JK40" s="37">
         <v>416.10312972618499</v>
       </c>
+      <c r="JL40" s="37">
+        <v>-536.34803998396001</v>
+      </c>
     </row>
-    <row r="41" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -32074,8 +32188,11 @@
       <c r="JK41" s="37">
         <v>3.4253000000000002E-4</v>
       </c>
+      <c r="JL41" s="37">
+        <v>3.4253000000000002E-4</v>
+      </c>
     </row>
-    <row r="42" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -32889,8 +33006,11 @@
       <c r="JK42" s="37">
         <v>8.2914329740159705</v>
       </c>
+      <c r="JL42" s="37">
+        <v>8.5138292916837894</v>
+      </c>
     </row>
-    <row r="43" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
@@ -33704,283 +33824,287 @@
       <c r="JK43" s="34">
         <v>159.35798602934901</v>
       </c>
+      <c r="JL43" s="34">
+        <v>60.732082814104203</v>
+      </c>
     </row>
-    <row r="44" spans="1:271" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+    <row r="44" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="46"/>
-      <c r="AJ44" s="46"/>
-      <c r="AK44" s="46"/>
-      <c r="AL44" s="46"/>
-      <c r="AM44" s="46"/>
-      <c r="AN44" s="46"/>
-      <c r="AO44" s="46"/>
-      <c r="AP44" s="46"/>
-      <c r="AQ44" s="46"/>
-      <c r="AR44" s="46"/>
-      <c r="AS44" s="46"/>
-      <c r="AT44" s="46"/>
-      <c r="AU44" s="46"/>
-      <c r="AV44" s="46"/>
-      <c r="AW44" s="46"/>
-      <c r="AX44" s="46"/>
-      <c r="AY44" s="46"/>
-      <c r="AZ44" s="46"/>
-      <c r="BA44" s="46"/>
-      <c r="BB44" s="46"/>
-      <c r="BC44" s="46"/>
-      <c r="BD44" s="46"/>
-      <c r="BE44" s="46"/>
-      <c r="BF44" s="46"/>
-      <c r="BG44" s="46"/>
-      <c r="BH44" s="46"/>
-      <c r="BI44" s="46"/>
-      <c r="BJ44" s="46"/>
-      <c r="BK44" s="46"/>
-      <c r="BL44" s="46"/>
-      <c r="BM44" s="46"/>
-      <c r="BN44" s="46"/>
-      <c r="BO44" s="46"/>
-      <c r="BP44" s="46"/>
-      <c r="BQ44" s="46"/>
-      <c r="BR44" s="46"/>
-      <c r="BS44" s="46"/>
-      <c r="BT44" s="46"/>
-      <c r="BU44" s="46"/>
-      <c r="BV44" s="46"/>
-      <c r="BW44" s="46"/>
-      <c r="BX44" s="46"/>
-      <c r="BY44" s="46"/>
-      <c r="BZ44" s="46"/>
-      <c r="CA44" s="46"/>
-      <c r="CB44" s="46"/>
-      <c r="CC44" s="46"/>
-      <c r="CD44" s="46"/>
-      <c r="CE44" s="46"/>
-      <c r="CF44" s="46"/>
-      <c r="CG44" s="46"/>
-      <c r="CH44" s="46"/>
-      <c r="CI44" s="46"/>
-      <c r="CJ44" s="46"/>
-      <c r="CK44" s="46"/>
-      <c r="CL44" s="46"/>
-      <c r="CM44" s="46"/>
-      <c r="CN44" s="46"/>
-      <c r="CO44" s="46"/>
-      <c r="CP44" s="46"/>
-      <c r="CQ44" s="46"/>
-      <c r="CR44" s="46"/>
-      <c r="CS44" s="46"/>
-      <c r="CT44" s="46"/>
-      <c r="CU44" s="46"/>
-      <c r="CV44" s="46"/>
-      <c r="CW44" s="46"/>
-      <c r="CX44" s="46"/>
-      <c r="CY44" s="46"/>
-      <c r="CZ44" s="46"/>
-      <c r="DA44" s="46"/>
-      <c r="DB44" s="46"/>
-      <c r="DC44" s="46"/>
-      <c r="DD44" s="46"/>
-      <c r="DE44" s="46"/>
-      <c r="DF44" s="46"/>
-      <c r="DG44" s="46"/>
-      <c r="DH44" s="46"/>
-      <c r="DI44" s="46"/>
-      <c r="DJ44" s="46"/>
-      <c r="DK44" s="46"/>
-      <c r="DL44" s="46"/>
-      <c r="DM44" s="46"/>
-      <c r="DN44" s="46"/>
-      <c r="DO44" s="46"/>
-      <c r="DP44" s="46"/>
-      <c r="DQ44" s="46"/>
-      <c r="DR44" s="46"/>
-      <c r="DS44" s="46"/>
-      <c r="DT44" s="46"/>
-      <c r="DU44" s="46"/>
-      <c r="DV44" s="46"/>
-      <c r="DW44" s="46"/>
-      <c r="DX44" s="46"/>
-      <c r="DY44" s="46"/>
-      <c r="DZ44" s="46"/>
-      <c r="EA44" s="46"/>
-      <c r="EB44" s="46"/>
-      <c r="EC44" s="46"/>
-      <c r="ED44" s="46"/>
-      <c r="EE44" s="46"/>
-      <c r="EF44" s="46"/>
-      <c r="EG44" s="46"/>
-      <c r="EH44" s="46"/>
-      <c r="EI44" s="46"/>
-      <c r="EJ44" s="46"/>
-      <c r="EK44" s="46"/>
-      <c r="EL44" s="46"/>
-      <c r="EM44" s="46"/>
-      <c r="EN44" s="46"/>
-      <c r="EO44" s="46"/>
-      <c r="EP44" s="46"/>
-      <c r="EQ44" s="46"/>
-      <c r="ER44" s="46"/>
-      <c r="ES44" s="46"/>
-      <c r="ET44" s="46"/>
-      <c r="EU44" s="46"/>
-      <c r="EV44" s="46"/>
-      <c r="EW44" s="46"/>
-      <c r="EX44" s="46"/>
-      <c r="EY44" s="46"/>
-      <c r="EZ44" s="46"/>
-      <c r="FA44" s="46"/>
-      <c r="FB44" s="46"/>
-      <c r="FC44" s="46"/>
-      <c r="FD44" s="46"/>
-      <c r="FE44" s="46"/>
-      <c r="FF44" s="46"/>
-      <c r="FG44" s="46"/>
-      <c r="FH44" s="46"/>
-      <c r="FI44" s="46"/>
-      <c r="FJ44" s="46"/>
-      <c r="FK44" s="46"/>
-      <c r="FL44" s="46"/>
-      <c r="FM44" s="46"/>
-      <c r="FN44" s="46"/>
-      <c r="FO44" s="46"/>
-      <c r="FP44" s="46"/>
-      <c r="FQ44" s="46"/>
-      <c r="FR44" s="46"/>
-      <c r="FS44" s="46"/>
-      <c r="FT44" s="46"/>
-      <c r="FU44" s="46"/>
-      <c r="FV44" s="46"/>
-      <c r="FW44" s="46"/>
-      <c r="FX44" s="46"/>
-      <c r="FY44" s="46"/>
-      <c r="FZ44" s="46"/>
-      <c r="GA44" s="46"/>
-      <c r="GB44" s="46"/>
-      <c r="GC44" s="46"/>
-      <c r="GD44" s="46"/>
-      <c r="GE44" s="46"/>
-      <c r="GF44" s="46"/>
-      <c r="GG44" s="46"/>
-      <c r="GH44" s="46"/>
-      <c r="GI44" s="46"/>
-      <c r="GJ44" s="46"/>
-      <c r="GK44" s="46"/>
-      <c r="GL44" s="46"/>
-      <c r="GM44" s="46"/>
-      <c r="GN44" s="46"/>
-      <c r="GO44" s="46"/>
-      <c r="GP44" s="46"/>
-      <c r="GQ44" s="46"/>
-      <c r="GR44" s="46"/>
-      <c r="GS44" s="46"/>
-      <c r="GT44" s="46"/>
-      <c r="GU44" s="46"/>
-      <c r="GV44" s="46"/>
-      <c r="GW44" s="46"/>
-      <c r="GX44" s="46"/>
-      <c r="GY44" s="46"/>
-      <c r="GZ44" s="46"/>
-      <c r="HA44" s="46"/>
-      <c r="HB44" s="46"/>
-      <c r="HC44" s="46"/>
-      <c r="HD44" s="46"/>
-      <c r="HE44" s="46"/>
-      <c r="HF44" s="46"/>
-      <c r="HG44" s="46"/>
-      <c r="HH44" s="46"/>
-      <c r="HI44" s="46"/>
-      <c r="HJ44" s="46"/>
-      <c r="HK44" s="46"/>
-      <c r="HL44" s="46"/>
-      <c r="HM44" s="46"/>
-      <c r="HN44" s="46"/>
-      <c r="HO44" s="46"/>
-      <c r="HP44" s="46"/>
-      <c r="HQ44" s="46"/>
-      <c r="HR44" s="46"/>
-      <c r="HS44" s="46"/>
-      <c r="HT44" s="46"/>
-      <c r="HU44" s="46"/>
-      <c r="HV44" s="46"/>
-      <c r="HW44" s="46"/>
-      <c r="HX44" s="46"/>
-      <c r="HY44" s="46"/>
-      <c r="HZ44" s="46"/>
-      <c r="IA44" s="46"/>
-      <c r="IB44" s="46"/>
-      <c r="IC44" s="46"/>
-      <c r="ID44" s="46"/>
-      <c r="IE44" s="46"/>
-      <c r="IF44" s="46"/>
-      <c r="IG44" s="46"/>
-      <c r="IH44" s="46"/>
-      <c r="II44" s="46"/>
-      <c r="IJ44" s="46"/>
-      <c r="IK44" s="46"/>
-      <c r="IL44" s="46"/>
-      <c r="IM44" s="46"/>
-      <c r="IN44" s="46"/>
-      <c r="IO44" s="46"/>
-      <c r="IP44" s="46"/>
-      <c r="IQ44" s="46"/>
-      <c r="IR44" s="46"/>
-      <c r="IS44" s="46"/>
-      <c r="IT44" s="46"/>
-      <c r="IU44" s="46"/>
-      <c r="IV44" s="46"/>
-      <c r="IW44" s="46"/>
-      <c r="IX44" s="46"/>
-      <c r="IY44" s="46"/>
-      <c r="IZ44" s="46"/>
-      <c r="JA44" s="46"/>
-      <c r="JB44" s="46"/>
-      <c r="JC44" s="46"/>
-      <c r="JD44" s="46"/>
-      <c r="JE44" s="46"/>
-      <c r="JF44" s="46"/>
-      <c r="JG44" s="46"/>
-      <c r="JH44" s="46"/>
-      <c r="JI44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="44"/>
+      <c r="AS44" s="44"/>
+      <c r="AT44" s="44"/>
+      <c r="AU44" s="44"/>
+      <c r="AV44" s="44"/>
+      <c r="AW44" s="44"/>
+      <c r="AX44" s="44"/>
+      <c r="AY44" s="44"/>
+      <c r="AZ44" s="44"/>
+      <c r="BA44" s="44"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="44"/>
+      <c r="BE44" s="44"/>
+      <c r="BF44" s="44"/>
+      <c r="BG44" s="44"/>
+      <c r="BH44" s="44"/>
+      <c r="BI44" s="44"/>
+      <c r="BJ44" s="44"/>
+      <c r="BK44" s="44"/>
+      <c r="BL44" s="44"/>
+      <c r="BM44" s="44"/>
+      <c r="BN44" s="44"/>
+      <c r="BO44" s="44"/>
+      <c r="BP44" s="44"/>
+      <c r="BQ44" s="44"/>
+      <c r="BR44" s="44"/>
+      <c r="BS44" s="44"/>
+      <c r="BT44" s="44"/>
+      <c r="BU44" s="44"/>
+      <c r="BV44" s="44"/>
+      <c r="BW44" s="44"/>
+      <c r="BX44" s="44"/>
+      <c r="BY44" s="44"/>
+      <c r="BZ44" s="44"/>
+      <c r="CA44" s="44"/>
+      <c r="CB44" s="44"/>
+      <c r="CC44" s="44"/>
+      <c r="CD44" s="44"/>
+      <c r="CE44" s="44"/>
+      <c r="CF44" s="44"/>
+      <c r="CG44" s="44"/>
+      <c r="CH44" s="44"/>
+      <c r="CI44" s="44"/>
+      <c r="CJ44" s="44"/>
+      <c r="CK44" s="44"/>
+      <c r="CL44" s="44"/>
+      <c r="CM44" s="44"/>
+      <c r="CN44" s="44"/>
+      <c r="CO44" s="44"/>
+      <c r="CP44" s="44"/>
+      <c r="CQ44" s="44"/>
+      <c r="CR44" s="44"/>
+      <c r="CS44" s="44"/>
+      <c r="CT44" s="44"/>
+      <c r="CU44" s="44"/>
+      <c r="CV44" s="44"/>
+      <c r="CW44" s="44"/>
+      <c r="CX44" s="44"/>
+      <c r="CY44" s="44"/>
+      <c r="CZ44" s="44"/>
+      <c r="DA44" s="44"/>
+      <c r="DB44" s="44"/>
+      <c r="DC44" s="44"/>
+      <c r="DD44" s="44"/>
+      <c r="DE44" s="44"/>
+      <c r="DF44" s="44"/>
+      <c r="DG44" s="44"/>
+      <c r="DH44" s="44"/>
+      <c r="DI44" s="44"/>
+      <c r="DJ44" s="44"/>
+      <c r="DK44" s="44"/>
+      <c r="DL44" s="44"/>
+      <c r="DM44" s="44"/>
+      <c r="DN44" s="44"/>
+      <c r="DO44" s="44"/>
+      <c r="DP44" s="44"/>
+      <c r="DQ44" s="44"/>
+      <c r="DR44" s="44"/>
+      <c r="DS44" s="44"/>
+      <c r="DT44" s="44"/>
+      <c r="DU44" s="44"/>
+      <c r="DV44" s="44"/>
+      <c r="DW44" s="44"/>
+      <c r="DX44" s="44"/>
+      <c r="DY44" s="44"/>
+      <c r="DZ44" s="44"/>
+      <c r="EA44" s="44"/>
+      <c r="EB44" s="44"/>
+      <c r="EC44" s="44"/>
+      <c r="ED44" s="44"/>
+      <c r="EE44" s="44"/>
+      <c r="EF44" s="44"/>
+      <c r="EG44" s="44"/>
+      <c r="EH44" s="44"/>
+      <c r="EI44" s="44"/>
+      <c r="EJ44" s="44"/>
+      <c r="EK44" s="44"/>
+      <c r="EL44" s="44"/>
+      <c r="EM44" s="44"/>
+      <c r="EN44" s="44"/>
+      <c r="EO44" s="44"/>
+      <c r="EP44" s="44"/>
+      <c r="EQ44" s="44"/>
+      <c r="ER44" s="44"/>
+      <c r="ES44" s="44"/>
+      <c r="ET44" s="44"/>
+      <c r="EU44" s="44"/>
+      <c r="EV44" s="44"/>
+      <c r="EW44" s="44"/>
+      <c r="EX44" s="44"/>
+      <c r="EY44" s="44"/>
+      <c r="EZ44" s="44"/>
+      <c r="FA44" s="44"/>
+      <c r="FB44" s="44"/>
+      <c r="FC44" s="44"/>
+      <c r="FD44" s="44"/>
+      <c r="FE44" s="44"/>
+      <c r="FF44" s="44"/>
+      <c r="FG44" s="44"/>
+      <c r="FH44" s="44"/>
+      <c r="FI44" s="44"/>
+      <c r="FJ44" s="44"/>
+      <c r="FK44" s="44"/>
+      <c r="FL44" s="44"/>
+      <c r="FM44" s="44"/>
+      <c r="FN44" s="44"/>
+      <c r="FO44" s="44"/>
+      <c r="FP44" s="44"/>
+      <c r="FQ44" s="44"/>
+      <c r="FR44" s="44"/>
+      <c r="FS44" s="44"/>
+      <c r="FT44" s="44"/>
+      <c r="FU44" s="44"/>
+      <c r="FV44" s="44"/>
+      <c r="FW44" s="44"/>
+      <c r="FX44" s="44"/>
+      <c r="FY44" s="44"/>
+      <c r="FZ44" s="44"/>
+      <c r="GA44" s="44"/>
+      <c r="GB44" s="44"/>
+      <c r="GC44" s="44"/>
+      <c r="GD44" s="44"/>
+      <c r="GE44" s="44"/>
+      <c r="GF44" s="44"/>
+      <c r="GG44" s="44"/>
+      <c r="GH44" s="44"/>
+      <c r="GI44" s="44"/>
+      <c r="GJ44" s="44"/>
+      <c r="GK44" s="44"/>
+      <c r="GL44" s="44"/>
+      <c r="GM44" s="44"/>
+      <c r="GN44" s="44"/>
+      <c r="GO44" s="44"/>
+      <c r="GP44" s="44"/>
+      <c r="GQ44" s="44"/>
+      <c r="GR44" s="44"/>
+      <c r="GS44" s="44"/>
+      <c r="GT44" s="44"/>
+      <c r="GU44" s="44"/>
+      <c r="GV44" s="44"/>
+      <c r="GW44" s="44"/>
+      <c r="GX44" s="44"/>
+      <c r="GY44" s="44"/>
+      <c r="GZ44" s="44"/>
+      <c r="HA44" s="44"/>
+      <c r="HB44" s="44"/>
+      <c r="HC44" s="44"/>
+      <c r="HD44" s="44"/>
+      <c r="HE44" s="44"/>
+      <c r="HF44" s="44"/>
+      <c r="HG44" s="44"/>
+      <c r="HH44" s="44"/>
+      <c r="HI44" s="44"/>
+      <c r="HJ44" s="44"/>
+      <c r="HK44" s="44"/>
+      <c r="HL44" s="44"/>
+      <c r="HM44" s="44"/>
+      <c r="HN44" s="44"/>
+      <c r="HO44" s="44"/>
+      <c r="HP44" s="44"/>
+      <c r="HQ44" s="44"/>
+      <c r="HR44" s="44"/>
+      <c r="HS44" s="44"/>
+      <c r="HT44" s="44"/>
+      <c r="HU44" s="44"/>
+      <c r="HV44" s="44"/>
+      <c r="HW44" s="44"/>
+      <c r="HX44" s="44"/>
+      <c r="HY44" s="44"/>
+      <c r="HZ44" s="44"/>
+      <c r="IA44" s="44"/>
+      <c r="IB44" s="44"/>
+      <c r="IC44" s="44"/>
+      <c r="ID44" s="44"/>
+      <c r="IE44" s="44"/>
+      <c r="IF44" s="44"/>
+      <c r="IG44" s="44"/>
+      <c r="IH44" s="44"/>
+      <c r="II44" s="44"/>
+      <c r="IJ44" s="44"/>
+      <c r="IK44" s="44"/>
+      <c r="IL44" s="44"/>
+      <c r="IM44" s="44"/>
+      <c r="IN44" s="44"/>
+      <c r="IO44" s="44"/>
+      <c r="IP44" s="44"/>
+      <c r="IQ44" s="44"/>
+      <c r="IR44" s="44"/>
+      <c r="IS44" s="44"/>
+      <c r="IT44" s="44"/>
+      <c r="IU44" s="44"/>
+      <c r="IV44" s="44"/>
+      <c r="IW44" s="44"/>
+      <c r="IX44" s="44"/>
+      <c r="IY44" s="44"/>
+      <c r="IZ44" s="44"/>
+      <c r="JA44" s="44"/>
+      <c r="JB44" s="44"/>
+      <c r="JC44" s="44"/>
+      <c r="JD44" s="44"/>
+      <c r="JE44" s="44"/>
+      <c r="JF44" s="44"/>
+      <c r="JG44" s="44"/>
+      <c r="JH44" s="44"/>
+      <c r="JI44" s="44"/>
       <c r="JJ44" s="10"/>
       <c r="JK44"/>
+      <c r="JL44" s="39"/>
     </row>
-    <row r="45" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
@@ -34794,8 +34918,11 @@
       <c r="JK45" s="21">
         <v>-2039.0296030359</v>
       </c>
+      <c r="JL45" s="21">
+        <v>-1225.4826641635</v>
+      </c>
     </row>
-    <row r="46" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -35609,8 +35736,11 @@
       <c r="JK46" s="23">
         <v>843.44795768651795</v>
       </c>
+      <c r="JL46" s="23">
+        <v>1142.81343134588</v>
+      </c>
     </row>
-    <row r="47" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -36424,8 +36554,11 @@
       <c r="JK47" s="23">
         <v>1063.08103856858</v>
       </c>
+      <c r="JL47" s="23">
+        <v>1523.6210792571501</v>
+      </c>
     </row>
-    <row r="48" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -37023,8 +37156,11 @@
       <c r="JK48" s="23">
         <v>515.23729631660797</v>
       </c>
+      <c r="JL48" s="23">
+        <v>983.92187301876095</v>
+      </c>
     </row>
-    <row r="49" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -37622,8 +37758,11 @@
       <c r="JK49" s="23">
         <v>547.843742251967</v>
       </c>
+      <c r="JL49" s="23">
+        <v>539.69920623838698</v>
+      </c>
     </row>
-    <row r="50" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -38437,8 +38576,11 @@
       <c r="JK50" s="23">
         <v>-219.63308088206</v>
       </c>
+      <c r="JL50" s="23">
+        <v>-380.80764791126001</v>
+      </c>
     </row>
-    <row r="51" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -39252,8 +39394,11 @@
       <c r="JK51" s="23">
         <v>183.721299091699</v>
       </c>
+      <c r="JL51" s="23">
+        <v>-108.31438825593</v>
+      </c>
     </row>
-    <row r="52" spans="1:271" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>46</v>
       </c>
@@ -40067,295 +40212,288 @@
       <c r="JK52" s="25">
         <v>-403.35437997375999</v>
       </c>
+      <c r="JL52" s="25">
+        <v>-272.49325965533001</v>
+      </c>
     </row>
-    <row r="54" spans="1:271" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43" t="s">
+    <row r="54" spans="1:272" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="43"/>
-      <c r="AB54" s="43"/>
-      <c r="AC54" s="43"/>
-      <c r="AD54" s="43"/>
-      <c r="AE54" s="43"/>
-      <c r="AF54" s="43"/>
-      <c r="AG54" s="43"/>
-      <c r="AH54" s="43"/>
-      <c r="AI54" s="43"/>
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="43"/>
-      <c r="AL54" s="43"/>
-      <c r="AM54" s="43"/>
-      <c r="AN54" s="43"/>
-      <c r="AO54" s="43"/>
-      <c r="AP54" s="43"/>
-      <c r="AQ54" s="43"/>
-      <c r="AR54" s="43"/>
-      <c r="AS54" s="43"/>
-      <c r="AT54" s="43"/>
-      <c r="AU54" s="43"/>
-      <c r="AV54" s="43"/>
-      <c r="AW54" s="43"/>
-      <c r="AX54" s="43"/>
-      <c r="AY54" s="43"/>
-      <c r="AZ54" s="43"/>
-      <c r="BA54" s="43"/>
-      <c r="BB54" s="43"/>
-      <c r="BC54" s="43"/>
-      <c r="BD54" s="43"/>
-      <c r="BE54" s="43"/>
-      <c r="BF54" s="43"/>
-      <c r="BG54" s="43"/>
-      <c r="BH54" s="43"/>
-      <c r="BI54" s="43"/>
-      <c r="BJ54" s="43"/>
-      <c r="BK54" s="43"/>
-      <c r="BL54" s="43"/>
-      <c r="BM54" s="43"/>
-      <c r="BN54" s="43"/>
-      <c r="BO54" s="43"/>
-      <c r="BP54" s="43"/>
-      <c r="BQ54" s="43"/>
-      <c r="BR54" s="43"/>
-      <c r="BS54" s="43"/>
-      <c r="BT54" s="43"/>
-      <c r="BU54" s="43"/>
-      <c r="BV54" s="43"/>
-      <c r="BW54" s="43"/>
-      <c r="BX54" s="43"/>
-      <c r="BY54" s="43"/>
-      <c r="BZ54" s="43"/>
-      <c r="CA54" s="43"/>
-      <c r="CB54" s="43"/>
-      <c r="CC54" s="43"/>
-      <c r="CD54" s="43"/>
-      <c r="CE54" s="43"/>
-      <c r="CF54" s="43"/>
-      <c r="CG54" s="43"/>
-      <c r="CH54" s="43"/>
-      <c r="CI54" s="43"/>
-      <c r="CJ54" s="43"/>
-      <c r="CK54" s="43"/>
-      <c r="CL54" s="43"/>
-      <c r="CM54" s="43"/>
-      <c r="CN54" s="43"/>
-      <c r="CO54" s="43"/>
-      <c r="CP54" s="43"/>
-      <c r="CQ54" s="43"/>
-      <c r="CR54" s="43"/>
-      <c r="CS54" s="43"/>
-      <c r="CT54" s="43"/>
-      <c r="CU54" s="43"/>
-      <c r="CV54" s="43"/>
-      <c r="CW54" s="43"/>
-      <c r="CX54" s="43"/>
-      <c r="CY54" s="43"/>
-      <c r="CZ54" s="43"/>
-      <c r="DA54" s="43"/>
-      <c r="DB54" s="43"/>
-      <c r="DC54" s="43"/>
-      <c r="DD54" s="43"/>
-      <c r="DE54" s="43"/>
-      <c r="DF54" s="43"/>
-      <c r="DG54" s="43"/>
-      <c r="DH54" s="43"/>
-      <c r="DI54" s="43"/>
-      <c r="DJ54" s="43"/>
-      <c r="DK54" s="43"/>
-      <c r="DL54" s="43"/>
-      <c r="DM54" s="43"/>
-      <c r="DN54" s="43"/>
-      <c r="DO54" s="43"/>
-      <c r="DP54" s="43"/>
-      <c r="DQ54" s="43"/>
-      <c r="DR54" s="43"/>
-      <c r="DS54" s="43"/>
-      <c r="DT54" s="43"/>
-      <c r="DU54" s="43"/>
-      <c r="DV54" s="43"/>
-      <c r="DW54" s="43"/>
-      <c r="DX54" s="43"/>
-      <c r="DY54" s="43"/>
-      <c r="DZ54" s="43"/>
-      <c r="EA54" s="43"/>
-      <c r="EB54" s="43"/>
-      <c r="EC54" s="43"/>
-      <c r="ED54" s="43"/>
-      <c r="EE54" s="43"/>
-      <c r="EF54" s="43"/>
-      <c r="EG54" s="43"/>
-      <c r="EH54" s="43"/>
-      <c r="EI54" s="43"/>
-      <c r="EJ54" s="43"/>
-      <c r="EK54" s="43"/>
-      <c r="EL54" s="43"/>
-      <c r="EM54" s="43"/>
-      <c r="EN54" s="43"/>
-      <c r="EO54" s="43"/>
-      <c r="EP54" s="43"/>
-      <c r="EQ54" s="43"/>
-      <c r="ER54" s="43"/>
-      <c r="ES54" s="43"/>
-      <c r="ET54" s="43"/>
-      <c r="EU54" s="43"/>
-      <c r="EV54" s="43"/>
-      <c r="EW54" s="43"/>
-      <c r="EX54" s="43"/>
-      <c r="EY54" s="43"/>
-      <c r="EZ54" s="43"/>
-      <c r="FA54" s="43"/>
-      <c r="FB54" s="43"/>
-      <c r="FC54" s="43"/>
-      <c r="FD54" s="43"/>
-      <c r="FE54" s="43"/>
-      <c r="FF54" s="43"/>
-      <c r="FG54" s="43"/>
-      <c r="FH54" s="43"/>
-      <c r="FI54" s="43"/>
-      <c r="FJ54" s="43"/>
-      <c r="FK54" s="43"/>
-      <c r="FL54" s="43"/>
-      <c r="FM54" s="43"/>
-      <c r="FN54" s="43"/>
-      <c r="FO54" s="43"/>
-      <c r="FP54" s="43"/>
-      <c r="FQ54" s="43"/>
-      <c r="FR54" s="43"/>
-      <c r="FS54" s="43"/>
-      <c r="FT54" s="43"/>
-      <c r="FU54" s="43"/>
-      <c r="FV54" s="43"/>
-      <c r="FW54" s="43"/>
-      <c r="FX54" s="43"/>
-      <c r="FY54" s="43"/>
-      <c r="FZ54" s="43"/>
-      <c r="GA54" s="43"/>
-      <c r="GB54" s="43"/>
-      <c r="GC54" s="43"/>
-      <c r="GD54" s="43"/>
-      <c r="GE54" s="43"/>
-      <c r="GF54" s="43"/>
-      <c r="GG54" s="43"/>
-      <c r="GH54" s="43"/>
-      <c r="GI54" s="43"/>
-      <c r="GJ54" s="43"/>
-      <c r="GK54" s="43"/>
-      <c r="GL54" s="43"/>
-      <c r="GM54" s="43"/>
-      <c r="GN54" s="43"/>
-      <c r="GO54" s="43"/>
-      <c r="GP54" s="43"/>
-      <c r="GQ54" s="43"/>
-      <c r="GR54" s="43"/>
-      <c r="GS54" s="43"/>
-      <c r="GT54" s="43"/>
-      <c r="GU54" s="43"/>
-      <c r="GV54" s="43"/>
-      <c r="GW54" s="43"/>
-      <c r="GX54" s="43"/>
-      <c r="GY54" s="43"/>
-      <c r="GZ54" s="43"/>
-      <c r="HA54" s="43"/>
-      <c r="HB54" s="43"/>
-      <c r="HC54" s="43"/>
-      <c r="HD54" s="43"/>
-      <c r="HE54" s="43"/>
-      <c r="HF54" s="43"/>
-      <c r="HG54" s="43"/>
-      <c r="HH54" s="43"/>
-      <c r="HI54" s="43"/>
-      <c r="HJ54" s="43"/>
-      <c r="HK54" s="43"/>
-      <c r="HL54" s="43"/>
-      <c r="HM54" s="43"/>
-      <c r="HN54" s="43"/>
-      <c r="HO54" s="43"/>
-      <c r="HP54" s="43"/>
-      <c r="HQ54" s="43"/>
-      <c r="HR54" s="43"/>
-      <c r="HS54" s="43"/>
-      <c r="HT54" s="43"/>
-      <c r="HU54" s="43"/>
-      <c r="HV54" s="43"/>
-      <c r="HW54" s="43"/>
-      <c r="HX54" s="43"/>
-      <c r="HY54" s="43"/>
-      <c r="HZ54" s="43"/>
-      <c r="IA54" s="43"/>
-      <c r="IB54" s="43"/>
-      <c r="IC54" s="43"/>
-      <c r="ID54" s="43"/>
-      <c r="IE54" s="43"/>
-      <c r="IF54" s="43"/>
-      <c r="IG54" s="43"/>
-      <c r="IH54" s="43"/>
-      <c r="II54" s="43"/>
-      <c r="IJ54" s="43"/>
-      <c r="IK54" s="43"/>
-      <c r="IL54" s="43"/>
-      <c r="IM54" s="43"/>
-      <c r="IN54" s="43"/>
-      <c r="IO54" s="43"/>
-      <c r="IP54" s="43"/>
-      <c r="IQ54" s="43"/>
-      <c r="IR54" s="43"/>
-      <c r="IS54" s="43"/>
-      <c r="IT54" s="43"/>
-      <c r="IU54" s="43"/>
-      <c r="IV54" s="43"/>
-      <c r="IW54" s="43"/>
-      <c r="IX54" s="43"/>
-      <c r="IY54" s="43"/>
-      <c r="IZ54" s="43"/>
-      <c r="JA54" s="43"/>
-      <c r="JB54" s="43"/>
-      <c r="JC54" s="43"/>
-      <c r="JD54" s="43"/>
-      <c r="JE54" s="43"/>
-      <c r="JF54" s="43"/>
-      <c r="JG54" s="43"/>
-      <c r="JH54" s="43"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="40"/>
+      <c r="AM54" s="40"/>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="40"/>
+      <c r="AP54" s="40"/>
+      <c r="AQ54" s="40"/>
+      <c r="AR54" s="40"/>
+      <c r="AS54" s="40"/>
+      <c r="AT54" s="40"/>
+      <c r="AU54" s="40"/>
+      <c r="AV54" s="40"/>
+      <c r="AW54" s="40"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+      <c r="BB54" s="40"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="40"/>
+      <c r="BE54" s="40"/>
+      <c r="BF54" s="40"/>
+      <c r="BG54" s="40"/>
+      <c r="BH54" s="40"/>
+      <c r="BI54" s="40"/>
+      <c r="BJ54" s="40"/>
+      <c r="BK54" s="40"/>
+      <c r="BL54" s="40"/>
+      <c r="BM54" s="40"/>
+      <c r="BN54" s="40"/>
+      <c r="BO54" s="40"/>
+      <c r="BP54" s="40"/>
+      <c r="BQ54" s="40"/>
+      <c r="BR54" s="40"/>
+      <c r="BS54" s="40"/>
+      <c r="BT54" s="40"/>
+      <c r="BU54" s="40"/>
+      <c r="BV54" s="40"/>
+      <c r="BW54" s="40"/>
+      <c r="BX54" s="40"/>
+      <c r="BY54" s="40"/>
+      <c r="BZ54" s="40"/>
+      <c r="CA54" s="40"/>
+      <c r="CB54" s="40"/>
+      <c r="CC54" s="40"/>
+      <c r="CD54" s="40"/>
+      <c r="CE54" s="40"/>
+      <c r="CF54" s="40"/>
+      <c r="CG54" s="40"/>
+      <c r="CH54" s="40"/>
+      <c r="CI54" s="40"/>
+      <c r="CJ54" s="40"/>
+      <c r="CK54" s="40"/>
+      <c r="CL54" s="40"/>
+      <c r="CM54" s="40"/>
+      <c r="CN54" s="40"/>
+      <c r="CO54" s="40"/>
+      <c r="CP54" s="40"/>
+      <c r="CQ54" s="40"/>
+      <c r="CR54" s="40"/>
+      <c r="CS54" s="40"/>
+      <c r="CT54" s="40"/>
+      <c r="CU54" s="40"/>
+      <c r="CV54" s="40"/>
+      <c r="CW54" s="40"/>
+      <c r="CX54" s="40"/>
+      <c r="CY54" s="40"/>
+      <c r="CZ54" s="40"/>
+      <c r="DA54" s="40"/>
+      <c r="DB54" s="40"/>
+      <c r="DC54" s="40"/>
+      <c r="DD54" s="40"/>
+      <c r="DE54" s="40"/>
+      <c r="DF54" s="40"/>
+      <c r="DG54" s="40"/>
+      <c r="DH54" s="40"/>
+      <c r="DI54" s="40"/>
+      <c r="DJ54" s="40"/>
+      <c r="DK54" s="40"/>
+      <c r="DL54" s="40"/>
+      <c r="DM54" s="40"/>
+      <c r="DN54" s="40"/>
+      <c r="DO54" s="40"/>
+      <c r="DP54" s="40"/>
+      <c r="DQ54" s="40"/>
+      <c r="DR54" s="40"/>
+      <c r="DS54" s="40"/>
+      <c r="DT54" s="40"/>
+      <c r="DU54" s="40"/>
+      <c r="DV54" s="40"/>
+      <c r="DW54" s="40"/>
+      <c r="DX54" s="40"/>
+      <c r="DY54" s="40"/>
+      <c r="DZ54" s="40"/>
+      <c r="EA54" s="40"/>
+      <c r="EB54" s="40"/>
+      <c r="EC54" s="40"/>
+      <c r="ED54" s="40"/>
+      <c r="EE54" s="40"/>
+      <c r="EF54" s="40"/>
+      <c r="EG54" s="40"/>
+      <c r="EH54" s="40"/>
+      <c r="EI54" s="40"/>
+      <c r="EJ54" s="40"/>
+      <c r="EK54" s="40"/>
+      <c r="EL54" s="40"/>
+      <c r="EM54" s="40"/>
+      <c r="EN54" s="40"/>
+      <c r="EO54" s="40"/>
+      <c r="EP54" s="40"/>
+      <c r="EQ54" s="40"/>
+      <c r="ER54" s="40"/>
+      <c r="ES54" s="40"/>
+      <c r="ET54" s="40"/>
+      <c r="EU54" s="40"/>
+      <c r="EV54" s="40"/>
+      <c r="EW54" s="40"/>
+      <c r="EX54" s="40"/>
+      <c r="EY54" s="40"/>
+      <c r="EZ54" s="40"/>
+      <c r="FA54" s="40"/>
+      <c r="FB54" s="40"/>
+      <c r="FC54" s="40"/>
+      <c r="FD54" s="40"/>
+      <c r="FE54" s="40"/>
+      <c r="FF54" s="40"/>
+      <c r="FG54" s="40"/>
+      <c r="FH54" s="40"/>
+      <c r="FI54" s="40"/>
+      <c r="FJ54" s="40"/>
+      <c r="FK54" s="40"/>
+      <c r="FL54" s="40"/>
+      <c r="FM54" s="40"/>
+      <c r="FN54" s="40"/>
+      <c r="FO54" s="40"/>
+      <c r="FP54" s="40"/>
+      <c r="FQ54" s="40"/>
+      <c r="FR54" s="40"/>
+      <c r="FS54" s="40"/>
+      <c r="FT54" s="40"/>
+      <c r="FU54" s="40"/>
+      <c r="FV54" s="40"/>
+      <c r="FW54" s="40"/>
+      <c r="FX54" s="40"/>
+      <c r="FY54" s="40"/>
+      <c r="FZ54" s="40"/>
+      <c r="GA54" s="40"/>
+      <c r="GB54" s="40"/>
+      <c r="GC54" s="40"/>
+      <c r="GD54" s="40"/>
+      <c r="GE54" s="40"/>
+      <c r="GF54" s="40"/>
+      <c r="GG54" s="40"/>
+      <c r="GH54" s="40"/>
+      <c r="GI54" s="40"/>
+      <c r="GJ54" s="40"/>
+      <c r="GK54" s="40"/>
+      <c r="GL54" s="40"/>
+      <c r="GM54" s="40"/>
+      <c r="GN54" s="40"/>
+      <c r="GO54" s="40"/>
+      <c r="GP54" s="40"/>
+      <c r="GQ54" s="40"/>
+      <c r="GR54" s="40"/>
+      <c r="GS54" s="40"/>
+      <c r="GT54" s="40"/>
+      <c r="GU54" s="40"/>
+      <c r="GV54" s="40"/>
+      <c r="GW54" s="40"/>
+      <c r="GX54" s="40"/>
+      <c r="GY54" s="40"/>
+      <c r="GZ54" s="40"/>
+      <c r="HA54" s="40"/>
+      <c r="HB54" s="40"/>
+      <c r="HC54" s="40"/>
+      <c r="HD54" s="40"/>
+      <c r="HE54" s="40"/>
+      <c r="HF54" s="40"/>
+      <c r="HG54" s="40"/>
+      <c r="HH54" s="40"/>
+      <c r="HI54" s="40"/>
+      <c r="HJ54" s="40"/>
+      <c r="HK54" s="40"/>
+      <c r="HL54" s="40"/>
+      <c r="HM54" s="40"/>
+      <c r="HN54" s="40"/>
+      <c r="HO54" s="40"/>
+      <c r="HP54" s="40"/>
+      <c r="HQ54" s="40"/>
+      <c r="HR54" s="40"/>
+      <c r="HS54" s="40"/>
+      <c r="HT54" s="40"/>
+      <c r="HU54" s="40"/>
+      <c r="HV54" s="40"/>
+      <c r="HW54" s="40"/>
+      <c r="HX54" s="40"/>
+      <c r="HY54" s="40"/>
+      <c r="HZ54" s="40"/>
+      <c r="IA54" s="40"/>
+      <c r="IB54" s="40"/>
+      <c r="IC54" s="40"/>
+      <c r="ID54" s="40"/>
+      <c r="IE54" s="40"/>
+      <c r="IF54" s="40"/>
+      <c r="IG54" s="40"/>
+      <c r="IH54" s="40"/>
+      <c r="II54" s="40"/>
+      <c r="IJ54" s="40"/>
+      <c r="IK54" s="40"/>
+      <c r="IL54" s="40"/>
+      <c r="IM54" s="40"/>
+      <c r="IN54" s="40"/>
+      <c r="IO54" s="40"/>
+      <c r="IP54" s="40"/>
+      <c r="IQ54" s="40"/>
+      <c r="IR54" s="40"/>
+      <c r="IS54" s="40"/>
+      <c r="IT54" s="40"/>
+      <c r="IU54" s="40"/>
+      <c r="IV54" s="40"/>
+      <c r="IW54" s="40"/>
+      <c r="IX54" s="40"/>
+      <c r="IY54" s="40"/>
+      <c r="IZ54" s="40"/>
+      <c r="JA54" s="40"/>
+      <c r="JB54" s="40"/>
+      <c r="JC54" s="40"/>
+      <c r="JD54" s="40"/>
+      <c r="JE54" s="40"/>
+      <c r="JF54" s="40"/>
+      <c r="JG54" s="40"/>
+      <c r="JH54" s="40"/>
       <c r="JI54"/>
       <c r="JJ54" s="33"/>
       <c r="JK54"/>
+      <c r="JL54" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A54:JH54"/>
-    <mergeCell ref="IH4:IS4"/>
-    <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="DF4:DQ4"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="Z4:AK4"/>
-    <mergeCell ref="AL4:AW4"/>
-    <mergeCell ref="AX4:BI4"/>
-    <mergeCell ref="A44:JI44"/>
-    <mergeCell ref="JF4:JK4"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -40372,6 +40510,17 @@
     <mergeCell ref="BV4:CG4"/>
     <mergeCell ref="CH4:CS4"/>
     <mergeCell ref="CT4:DE4"/>
+    <mergeCell ref="A54:JH54"/>
+    <mergeCell ref="IH4:IS4"/>
+    <mergeCell ref="IT4:JE4"/>
+    <mergeCell ref="DF4:DQ4"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="AL4:AW4"/>
+    <mergeCell ref="AX4:BI4"/>
+    <mergeCell ref="A44:JI44"/>
+    <mergeCell ref="JF4:JL4"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -40401,58 +40550,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -43224,31 +43373,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -43783,31 +43932,31 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.09.2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EE72C-69BE-4799-B942-94EA0B89D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -62,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -211,11 +205,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##,###,###,###,###,###,###,###,###,###,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -688,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -805,6 +799,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -980,17 +977,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JL54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:JM54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IW6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:JH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1051,882 +1048,885 @@
     <col min="266" max="266" width="6.28515625" customWidth="1"/>
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="269" max="270" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="271" max="272" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="271" max="273" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="49"/>
-      <c r="CD1" s="49"/>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="49"/>
-      <c r="CT1" s="49"/>
-      <c r="CU1" s="49"/>
-      <c r="CV1" s="49"/>
-      <c r="CW1" s="49"/>
-      <c r="CX1" s="49"/>
-      <c r="CY1" s="49"/>
-      <c r="CZ1" s="49"/>
-      <c r="DA1" s="49"/>
-      <c r="DB1" s="49"/>
-      <c r="DC1" s="49"/>
-      <c r="DD1" s="49"/>
-      <c r="DE1" s="49"/>
-      <c r="DF1" s="49"/>
-      <c r="DG1" s="49"/>
-      <c r="DH1" s="49"/>
-      <c r="DI1" s="49"/>
-      <c r="DJ1" s="49"/>
-      <c r="DK1" s="49"/>
-      <c r="DL1" s="49"/>
-      <c r="DM1" s="49"/>
-      <c r="DN1" s="49"/>
-      <c r="DO1" s="49"/>
-      <c r="DP1" s="49"/>
-      <c r="DQ1" s="49"/>
-      <c r="DR1" s="49"/>
-      <c r="DS1" s="49"/>
-      <c r="DT1" s="49"/>
-      <c r="DU1" s="49"/>
-      <c r="DV1" s="49"/>
-      <c r="DW1" s="49"/>
-      <c r="DX1" s="49"/>
-      <c r="DY1" s="49"/>
-      <c r="DZ1" s="49"/>
-      <c r="EA1" s="49"/>
-      <c r="EB1" s="49"/>
-      <c r="EC1" s="49"/>
-      <c r="ED1" s="49"/>
-      <c r="EE1" s="49"/>
-      <c r="EF1" s="49"/>
-      <c r="EG1" s="49"/>
-      <c r="EH1" s="49"/>
-      <c r="EI1" s="49"/>
-      <c r="EJ1" s="49"/>
-      <c r="EK1" s="49"/>
-      <c r="EL1" s="49"/>
-      <c r="EM1" s="49"/>
-      <c r="EN1" s="49"/>
-      <c r="EO1" s="49"/>
-      <c r="EP1" s="49"/>
-      <c r="EQ1" s="49"/>
-      <c r="ER1" s="49"/>
-      <c r="ES1" s="49"/>
-      <c r="ET1" s="49"/>
-      <c r="EU1" s="49"/>
-      <c r="EV1" s="49"/>
-      <c r="EW1" s="49"/>
-      <c r="EX1" s="49"/>
-      <c r="EY1" s="49"/>
-      <c r="EZ1" s="49"/>
-      <c r="FA1" s="49"/>
-      <c r="FB1" s="49"/>
-      <c r="FC1" s="49"/>
-      <c r="FD1" s="49"/>
-      <c r="FE1" s="49"/>
-      <c r="FF1" s="49"/>
-      <c r="FG1" s="49"/>
-      <c r="FH1" s="49"/>
-      <c r="FI1" s="49"/>
-      <c r="FJ1" s="49"/>
-      <c r="FK1" s="49"/>
-      <c r="FL1" s="49"/>
-      <c r="FM1" s="49"/>
-      <c r="FN1" s="49"/>
-      <c r="FO1" s="49"/>
-      <c r="FP1" s="49"/>
-      <c r="FQ1" s="49"/>
-      <c r="FR1" s="49"/>
-      <c r="FS1" s="49"/>
-      <c r="FT1" s="49"/>
-      <c r="FU1" s="49"/>
-      <c r="FV1" s="49"/>
-      <c r="FW1" s="49"/>
-      <c r="FX1" s="49"/>
-      <c r="FY1" s="49"/>
-      <c r="FZ1" s="49"/>
-      <c r="GA1" s="49"/>
-      <c r="GB1" s="49"/>
-      <c r="GC1" s="49"/>
-      <c r="GD1" s="49"/>
-      <c r="GE1" s="49"/>
-      <c r="GF1" s="49"/>
-      <c r="GG1" s="49"/>
-      <c r="GH1" s="49"/>
-      <c r="GI1" s="49"/>
-      <c r="GJ1" s="49"/>
-      <c r="GK1" s="49"/>
-      <c r="GL1" s="49"/>
-      <c r="GM1" s="49"/>
-      <c r="GN1" s="49"/>
-      <c r="GO1" s="49"/>
-      <c r="GP1" s="49"/>
-      <c r="GQ1" s="49"/>
-      <c r="GR1" s="49"/>
-      <c r="GS1" s="49"/>
-      <c r="GT1" s="49"/>
-      <c r="GU1" s="49"/>
-      <c r="GV1" s="49"/>
-      <c r="GW1" s="49"/>
-      <c r="GX1" s="49"/>
-      <c r="GY1" s="49"/>
-      <c r="GZ1" s="49"/>
-      <c r="HA1" s="49"/>
-      <c r="HB1" s="49"/>
-      <c r="HC1" s="49"/>
-      <c r="HD1" s="49"/>
-      <c r="HE1" s="49"/>
-      <c r="HF1" s="49"/>
-      <c r="HG1" s="49"/>
-      <c r="HH1" s="49"/>
-      <c r="HI1" s="49"/>
-      <c r="HJ1" s="49"/>
-      <c r="HK1" s="49"/>
-      <c r="HL1" s="49"/>
-      <c r="HM1" s="49"/>
-      <c r="HN1" s="49"/>
-      <c r="HO1" s="49"/>
-      <c r="HP1" s="49"/>
-      <c r="HQ1" s="49"/>
-      <c r="HR1" s="49"/>
-      <c r="HS1" s="49"/>
-      <c r="HT1" s="49"/>
-      <c r="HU1" s="49"/>
-      <c r="HV1" s="49"/>
-      <c r="HW1" s="49"/>
-      <c r="HX1" s="49"/>
-      <c r="HY1" s="49"/>
-      <c r="HZ1" s="49"/>
-      <c r="IA1" s="49"/>
-      <c r="IB1" s="49"/>
-      <c r="IC1" s="49"/>
-      <c r="ID1" s="49"/>
-      <c r="IE1" s="49"/>
-      <c r="IF1" s="49"/>
-      <c r="IG1" s="49"/>
-      <c r="IH1" s="49"/>
-      <c r="II1" s="49"/>
-      <c r="IJ1" s="49"/>
-      <c r="IK1" s="49"/>
-      <c r="IL1" s="49"/>
-      <c r="IM1" s="49"/>
-      <c r="IN1" s="49"/>
-      <c r="IO1" s="49"/>
-      <c r="IP1" s="49"/>
-      <c r="IQ1" s="49"/>
-      <c r="IR1" s="49"/>
-      <c r="IS1" s="49"/>
-      <c r="IT1" s="49"/>
-      <c r="IU1" s="49"/>
-      <c r="IV1" s="49"/>
-      <c r="IW1" s="49"/>
-      <c r="IX1" s="49"/>
-      <c r="IY1" s="49"/>
-      <c r="IZ1" s="49"/>
-      <c r="JA1" s="49"/>
-      <c r="JB1" s="49"/>
-      <c r="JC1" s="49"/>
-      <c r="JD1" s="49"/>
-      <c r="JE1" s="49"/>
-      <c r="JF1" s="49"/>
-      <c r="JG1" s="49"/>
-      <c r="JH1" s="49"/>
+    <row r="1" spans="1:273" ht="12" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50"/>
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50"/>
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="50"/>
+      <c r="CT1" s="50"/>
+      <c r="CU1" s="50"/>
+      <c r="CV1" s="50"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50"/>
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50"/>
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="50"/>
+      <c r="DG1" s="50"/>
+      <c r="DH1" s="50"/>
+      <c r="DI1" s="50"/>
+      <c r="DJ1" s="50"/>
+      <c r="DK1" s="50"/>
+      <c r="DL1" s="50"/>
+      <c r="DM1" s="50"/>
+      <c r="DN1" s="50"/>
+      <c r="DO1" s="50"/>
+      <c r="DP1" s="50"/>
+      <c r="DQ1" s="50"/>
+      <c r="DR1" s="50"/>
+      <c r="DS1" s="50"/>
+      <c r="DT1" s="50"/>
+      <c r="DU1" s="50"/>
+      <c r="DV1" s="50"/>
+      <c r="DW1" s="50"/>
+      <c r="DX1" s="50"/>
+      <c r="DY1" s="50"/>
+      <c r="DZ1" s="50"/>
+      <c r="EA1" s="50"/>
+      <c r="EB1" s="50"/>
+      <c r="EC1" s="50"/>
+      <c r="ED1" s="50"/>
+      <c r="EE1" s="50"/>
+      <c r="EF1" s="50"/>
+      <c r="EG1" s="50"/>
+      <c r="EH1" s="50"/>
+      <c r="EI1" s="50"/>
+      <c r="EJ1" s="50"/>
+      <c r="EK1" s="50"/>
+      <c r="EL1" s="50"/>
+      <c r="EM1" s="50"/>
+      <c r="EN1" s="50"/>
+      <c r="EO1" s="50"/>
+      <c r="EP1" s="50"/>
+      <c r="EQ1" s="50"/>
+      <c r="ER1" s="50"/>
+      <c r="ES1" s="50"/>
+      <c r="ET1" s="50"/>
+      <c r="EU1" s="50"/>
+      <c r="EV1" s="50"/>
+      <c r="EW1" s="50"/>
+      <c r="EX1" s="50"/>
+      <c r="EY1" s="50"/>
+      <c r="EZ1" s="50"/>
+      <c r="FA1" s="50"/>
+      <c r="FB1" s="50"/>
+      <c r="FC1" s="50"/>
+      <c r="FD1" s="50"/>
+      <c r="FE1" s="50"/>
+      <c r="FF1" s="50"/>
+      <c r="FG1" s="50"/>
+      <c r="FH1" s="50"/>
+      <c r="FI1" s="50"/>
+      <c r="FJ1" s="50"/>
+      <c r="FK1" s="50"/>
+      <c r="FL1" s="50"/>
+      <c r="FM1" s="50"/>
+      <c r="FN1" s="50"/>
+      <c r="FO1" s="50"/>
+      <c r="FP1" s="50"/>
+      <c r="FQ1" s="50"/>
+      <c r="FR1" s="50"/>
+      <c r="FS1" s="50"/>
+      <c r="FT1" s="50"/>
+      <c r="FU1" s="50"/>
+      <c r="FV1" s="50"/>
+      <c r="FW1" s="50"/>
+      <c r="FX1" s="50"/>
+      <c r="FY1" s="50"/>
+      <c r="FZ1" s="50"/>
+      <c r="GA1" s="50"/>
+      <c r="GB1" s="50"/>
+      <c r="GC1" s="50"/>
+      <c r="GD1" s="50"/>
+      <c r="GE1" s="50"/>
+      <c r="GF1" s="50"/>
+      <c r="GG1" s="50"/>
+      <c r="GH1" s="50"/>
+      <c r="GI1" s="50"/>
+      <c r="GJ1" s="50"/>
+      <c r="GK1" s="50"/>
+      <c r="GL1" s="50"/>
+      <c r="GM1" s="50"/>
+      <c r="GN1" s="50"/>
+      <c r="GO1" s="50"/>
+      <c r="GP1" s="50"/>
+      <c r="GQ1" s="50"/>
+      <c r="GR1" s="50"/>
+      <c r="GS1" s="50"/>
+      <c r="GT1" s="50"/>
+      <c r="GU1" s="50"/>
+      <c r="GV1" s="50"/>
+      <c r="GW1" s="50"/>
+      <c r="GX1" s="50"/>
+      <c r="GY1" s="50"/>
+      <c r="GZ1" s="50"/>
+      <c r="HA1" s="50"/>
+      <c r="HB1" s="50"/>
+      <c r="HC1" s="50"/>
+      <c r="HD1" s="50"/>
+      <c r="HE1" s="50"/>
+      <c r="HF1" s="50"/>
+      <c r="HG1" s="50"/>
+      <c r="HH1" s="50"/>
+      <c r="HI1" s="50"/>
+      <c r="HJ1" s="50"/>
+      <c r="HK1" s="50"/>
+      <c r="HL1" s="50"/>
+      <c r="HM1" s="50"/>
+      <c r="HN1" s="50"/>
+      <c r="HO1" s="50"/>
+      <c r="HP1" s="50"/>
+      <c r="HQ1" s="50"/>
+      <c r="HR1" s="50"/>
+      <c r="HS1" s="50"/>
+      <c r="HT1" s="50"/>
+      <c r="HU1" s="50"/>
+      <c r="HV1" s="50"/>
+      <c r="HW1" s="50"/>
+      <c r="HX1" s="50"/>
+      <c r="HY1" s="50"/>
+      <c r="HZ1" s="50"/>
+      <c r="IA1" s="50"/>
+      <c r="IB1" s="50"/>
+      <c r="IC1" s="50"/>
+      <c r="ID1" s="50"/>
+      <c r="IE1" s="50"/>
+      <c r="IF1" s="50"/>
+      <c r="IG1" s="50"/>
+      <c r="IH1" s="50"/>
+      <c r="II1" s="50"/>
+      <c r="IJ1" s="50"/>
+      <c r="IK1" s="50"/>
+      <c r="IL1" s="50"/>
+      <c r="IM1" s="50"/>
+      <c r="IN1" s="50"/>
+      <c r="IO1" s="50"/>
+      <c r="IP1" s="50"/>
+      <c r="IQ1" s="50"/>
+      <c r="IR1" s="50"/>
+      <c r="IS1" s="50"/>
+      <c r="IT1" s="50"/>
+      <c r="IU1" s="50"/>
+      <c r="IV1" s="50"/>
+      <c r="IW1" s="50"/>
+      <c r="IX1" s="50"/>
+      <c r="IY1" s="50"/>
+      <c r="IZ1" s="50"/>
+      <c r="JA1" s="50"/>
+      <c r="JB1" s="50"/>
+      <c r="JC1" s="50"/>
+      <c r="JD1" s="50"/>
+      <c r="JE1" s="50"/>
+      <c r="JF1" s="50"/>
+      <c r="JG1" s="50"/>
+      <c r="JH1" s="50"/>
       <c r="JI1"/>
       <c r="JJ1" s="33"/>
       <c r="JK1"/>
       <c r="JL1" s="39"/>
+      <c r="JM1" s="40"/>
     </row>
-    <row r="2" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:273" ht="12" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="49"/>
-      <c r="CK2" s="49"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="49"/>
-      <c r="CN2" s="49"/>
-      <c r="CO2" s="49"/>
-      <c r="CP2" s="49"/>
-      <c r="CQ2" s="49"/>
-      <c r="CR2" s="49"/>
-      <c r="CS2" s="49"/>
-      <c r="CT2" s="49"/>
-      <c r="CU2" s="49"/>
-      <c r="CV2" s="49"/>
-      <c r="CW2" s="49"/>
-      <c r="CX2" s="49"/>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49"/>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="49"/>
-      <c r="DF2" s="49"/>
-      <c r="DG2" s="49"/>
-      <c r="DH2" s="49"/>
-      <c r="DI2" s="49"/>
-      <c r="DJ2" s="49"/>
-      <c r="DK2" s="49"/>
-      <c r="DL2" s="49"/>
-      <c r="DM2" s="49"/>
-      <c r="DN2" s="49"/>
-      <c r="DO2" s="49"/>
-      <c r="DP2" s="49"/>
-      <c r="DQ2" s="49"/>
-      <c r="DR2" s="49"/>
-      <c r="DS2" s="49"/>
-      <c r="DT2" s="49"/>
-      <c r="DU2" s="49"/>
-      <c r="DV2" s="49"/>
-      <c r="DW2" s="49"/>
-      <c r="DX2" s="49"/>
-      <c r="DY2" s="49"/>
-      <c r="DZ2" s="49"/>
-      <c r="EA2" s="49"/>
-      <c r="EB2" s="49"/>
-      <c r="EC2" s="49"/>
-      <c r="ED2" s="49"/>
-      <c r="EE2" s="49"/>
-      <c r="EF2" s="49"/>
-      <c r="EG2" s="49"/>
-      <c r="EH2" s="49"/>
-      <c r="EI2" s="49"/>
-      <c r="EJ2" s="49"/>
-      <c r="EK2" s="49"/>
-      <c r="EL2" s="49"/>
-      <c r="EM2" s="49"/>
-      <c r="EN2" s="49"/>
-      <c r="EO2" s="49"/>
-      <c r="EP2" s="49"/>
-      <c r="EQ2" s="49"/>
-      <c r="ER2" s="49"/>
-      <c r="ES2" s="49"/>
-      <c r="ET2" s="49"/>
-      <c r="EU2" s="49"/>
-      <c r="EV2" s="49"/>
-      <c r="EW2" s="49"/>
-      <c r="EX2" s="49"/>
-      <c r="EY2" s="49"/>
-      <c r="EZ2" s="49"/>
-      <c r="FA2" s="49"/>
-      <c r="FB2" s="49"/>
-      <c r="FC2" s="49"/>
-      <c r="FD2" s="49"/>
-      <c r="FE2" s="49"/>
-      <c r="FF2" s="49"/>
-      <c r="FG2" s="49"/>
-      <c r="FH2" s="49"/>
-      <c r="FI2" s="49"/>
-      <c r="FJ2" s="49"/>
-      <c r="FK2" s="49"/>
-      <c r="FL2" s="49"/>
-      <c r="FM2" s="49"/>
-      <c r="FN2" s="49"/>
-      <c r="FO2" s="49"/>
-      <c r="FP2" s="49"/>
-      <c r="FQ2" s="49"/>
-      <c r="FR2" s="49"/>
-      <c r="FS2" s="49"/>
-      <c r="FT2" s="49"/>
-      <c r="FU2" s="49"/>
-      <c r="FV2" s="49"/>
-      <c r="FW2" s="49"/>
-      <c r="FX2" s="49"/>
-      <c r="FY2" s="49"/>
-      <c r="FZ2" s="49"/>
-      <c r="GA2" s="49"/>
-      <c r="GB2" s="49"/>
-      <c r="GC2" s="49"/>
-      <c r="GD2" s="49"/>
-      <c r="GE2" s="49"/>
-      <c r="GF2" s="49"/>
-      <c r="GG2" s="49"/>
-      <c r="GH2" s="49"/>
-      <c r="GI2" s="49"/>
-      <c r="GJ2" s="49"/>
-      <c r="GK2" s="49"/>
-      <c r="GL2" s="49"/>
-      <c r="GM2" s="49"/>
-      <c r="GN2" s="49"/>
-      <c r="GO2" s="49"/>
-      <c r="GP2" s="49"/>
-      <c r="GQ2" s="49"/>
-      <c r="GR2" s="49"/>
-      <c r="GS2" s="49"/>
-      <c r="GT2" s="49"/>
-      <c r="GU2" s="49"/>
-      <c r="GV2" s="49"/>
-      <c r="GW2" s="49"/>
-      <c r="GX2" s="49"/>
-      <c r="GY2" s="49"/>
-      <c r="GZ2" s="49"/>
-      <c r="HA2" s="49"/>
-      <c r="HB2" s="49"/>
-      <c r="HC2" s="49"/>
-      <c r="HD2" s="49"/>
-      <c r="HE2" s="49"/>
-      <c r="HF2" s="49"/>
-      <c r="HG2" s="49"/>
-      <c r="HH2" s="49"/>
-      <c r="HI2" s="49"/>
-      <c r="HJ2" s="49"/>
-      <c r="HK2" s="49"/>
-      <c r="HL2" s="49"/>
-      <c r="HM2" s="49"/>
-      <c r="HN2" s="49"/>
-      <c r="HO2" s="49"/>
-      <c r="HP2" s="49"/>
-      <c r="HQ2" s="49"/>
-      <c r="HR2" s="49"/>
-      <c r="HS2" s="49"/>
-      <c r="HT2" s="49"/>
-      <c r="HU2" s="49"/>
-      <c r="HV2" s="49"/>
-      <c r="HW2" s="49"/>
-      <c r="HX2" s="49"/>
-      <c r="HY2" s="49"/>
-      <c r="HZ2" s="49"/>
-      <c r="IA2" s="49"/>
-      <c r="IB2" s="49"/>
-      <c r="IC2" s="49"/>
-      <c r="ID2" s="49"/>
-      <c r="IE2" s="49"/>
-      <c r="IF2" s="49"/>
-      <c r="IG2" s="49"/>
-      <c r="IH2" s="49"/>
-      <c r="II2" s="49"/>
-      <c r="IJ2" s="49"/>
-      <c r="IK2" s="49"/>
-      <c r="IL2" s="49"/>
-      <c r="IM2" s="49"/>
-      <c r="IN2" s="49"/>
-      <c r="IO2" s="49"/>
-      <c r="IP2" s="49"/>
-      <c r="IQ2" s="49"/>
-      <c r="IR2" s="49"/>
-      <c r="IS2" s="49"/>
-      <c r="IT2" s="49"/>
-      <c r="IU2" s="49"/>
-      <c r="IV2" s="49"/>
-      <c r="IW2" s="49"/>
-      <c r="IX2" s="49"/>
-      <c r="IY2" s="49"/>
-      <c r="IZ2" s="49"/>
-      <c r="JA2" s="49"/>
-      <c r="JB2" s="49"/>
-      <c r="JC2" s="49"/>
-      <c r="JD2" s="49"/>
-      <c r="JE2" s="49"/>
-      <c r="JF2" s="49"/>
-      <c r="JG2" s="49"/>
-      <c r="JH2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="50"/>
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
+      <c r="CA2" s="50"/>
+      <c r="CB2" s="50"/>
+      <c r="CC2" s="50"/>
+      <c r="CD2" s="50"/>
+      <c r="CE2" s="50"/>
+      <c r="CF2" s="50"/>
+      <c r="CG2" s="50"/>
+      <c r="CH2" s="50"/>
+      <c r="CI2" s="50"/>
+      <c r="CJ2" s="50"/>
+      <c r="CK2" s="50"/>
+      <c r="CL2" s="50"/>
+      <c r="CM2" s="50"/>
+      <c r="CN2" s="50"/>
+      <c r="CO2" s="50"/>
+      <c r="CP2" s="50"/>
+      <c r="CQ2" s="50"/>
+      <c r="CR2" s="50"/>
+      <c r="CS2" s="50"/>
+      <c r="CT2" s="50"/>
+      <c r="CU2" s="50"/>
+      <c r="CV2" s="50"/>
+      <c r="CW2" s="50"/>
+      <c r="CX2" s="50"/>
+      <c r="CY2" s="50"/>
+      <c r="CZ2" s="50"/>
+      <c r="DA2" s="50"/>
+      <c r="DB2" s="50"/>
+      <c r="DC2" s="50"/>
+      <c r="DD2" s="50"/>
+      <c r="DE2" s="50"/>
+      <c r="DF2" s="50"/>
+      <c r="DG2" s="50"/>
+      <c r="DH2" s="50"/>
+      <c r="DI2" s="50"/>
+      <c r="DJ2" s="50"/>
+      <c r="DK2" s="50"/>
+      <c r="DL2" s="50"/>
+      <c r="DM2" s="50"/>
+      <c r="DN2" s="50"/>
+      <c r="DO2" s="50"/>
+      <c r="DP2" s="50"/>
+      <c r="DQ2" s="50"/>
+      <c r="DR2" s="50"/>
+      <c r="DS2" s="50"/>
+      <c r="DT2" s="50"/>
+      <c r="DU2" s="50"/>
+      <c r="DV2" s="50"/>
+      <c r="DW2" s="50"/>
+      <c r="DX2" s="50"/>
+      <c r="DY2" s="50"/>
+      <c r="DZ2" s="50"/>
+      <c r="EA2" s="50"/>
+      <c r="EB2" s="50"/>
+      <c r="EC2" s="50"/>
+      <c r="ED2" s="50"/>
+      <c r="EE2" s="50"/>
+      <c r="EF2" s="50"/>
+      <c r="EG2" s="50"/>
+      <c r="EH2" s="50"/>
+      <c r="EI2" s="50"/>
+      <c r="EJ2" s="50"/>
+      <c r="EK2" s="50"/>
+      <c r="EL2" s="50"/>
+      <c r="EM2" s="50"/>
+      <c r="EN2" s="50"/>
+      <c r="EO2" s="50"/>
+      <c r="EP2" s="50"/>
+      <c r="EQ2" s="50"/>
+      <c r="ER2" s="50"/>
+      <c r="ES2" s="50"/>
+      <c r="ET2" s="50"/>
+      <c r="EU2" s="50"/>
+      <c r="EV2" s="50"/>
+      <c r="EW2" s="50"/>
+      <c r="EX2" s="50"/>
+      <c r="EY2" s="50"/>
+      <c r="EZ2" s="50"/>
+      <c r="FA2" s="50"/>
+      <c r="FB2" s="50"/>
+      <c r="FC2" s="50"/>
+      <c r="FD2" s="50"/>
+      <c r="FE2" s="50"/>
+      <c r="FF2" s="50"/>
+      <c r="FG2" s="50"/>
+      <c r="FH2" s="50"/>
+      <c r="FI2" s="50"/>
+      <c r="FJ2" s="50"/>
+      <c r="FK2" s="50"/>
+      <c r="FL2" s="50"/>
+      <c r="FM2" s="50"/>
+      <c r="FN2" s="50"/>
+      <c r="FO2" s="50"/>
+      <c r="FP2" s="50"/>
+      <c r="FQ2" s="50"/>
+      <c r="FR2" s="50"/>
+      <c r="FS2" s="50"/>
+      <c r="FT2" s="50"/>
+      <c r="FU2" s="50"/>
+      <c r="FV2" s="50"/>
+      <c r="FW2" s="50"/>
+      <c r="FX2" s="50"/>
+      <c r="FY2" s="50"/>
+      <c r="FZ2" s="50"/>
+      <c r="GA2" s="50"/>
+      <c r="GB2" s="50"/>
+      <c r="GC2" s="50"/>
+      <c r="GD2" s="50"/>
+      <c r="GE2" s="50"/>
+      <c r="GF2" s="50"/>
+      <c r="GG2" s="50"/>
+      <c r="GH2" s="50"/>
+      <c r="GI2" s="50"/>
+      <c r="GJ2" s="50"/>
+      <c r="GK2" s="50"/>
+      <c r="GL2" s="50"/>
+      <c r="GM2" s="50"/>
+      <c r="GN2" s="50"/>
+      <c r="GO2" s="50"/>
+      <c r="GP2" s="50"/>
+      <c r="GQ2" s="50"/>
+      <c r="GR2" s="50"/>
+      <c r="GS2" s="50"/>
+      <c r="GT2" s="50"/>
+      <c r="GU2" s="50"/>
+      <c r="GV2" s="50"/>
+      <c r="GW2" s="50"/>
+      <c r="GX2" s="50"/>
+      <c r="GY2" s="50"/>
+      <c r="GZ2" s="50"/>
+      <c r="HA2" s="50"/>
+      <c r="HB2" s="50"/>
+      <c r="HC2" s="50"/>
+      <c r="HD2" s="50"/>
+      <c r="HE2" s="50"/>
+      <c r="HF2" s="50"/>
+      <c r="HG2" s="50"/>
+      <c r="HH2" s="50"/>
+      <c r="HI2" s="50"/>
+      <c r="HJ2" s="50"/>
+      <c r="HK2" s="50"/>
+      <c r="HL2" s="50"/>
+      <c r="HM2" s="50"/>
+      <c r="HN2" s="50"/>
+      <c r="HO2" s="50"/>
+      <c r="HP2" s="50"/>
+      <c r="HQ2" s="50"/>
+      <c r="HR2" s="50"/>
+      <c r="HS2" s="50"/>
+      <c r="HT2" s="50"/>
+      <c r="HU2" s="50"/>
+      <c r="HV2" s="50"/>
+      <c r="HW2" s="50"/>
+      <c r="HX2" s="50"/>
+      <c r="HY2" s="50"/>
+      <c r="HZ2" s="50"/>
+      <c r="IA2" s="50"/>
+      <c r="IB2" s="50"/>
+      <c r="IC2" s="50"/>
+      <c r="ID2" s="50"/>
+      <c r="IE2" s="50"/>
+      <c r="IF2" s="50"/>
+      <c r="IG2" s="50"/>
+      <c r="IH2" s="50"/>
+      <c r="II2" s="50"/>
+      <c r="IJ2" s="50"/>
+      <c r="IK2" s="50"/>
+      <c r="IL2" s="50"/>
+      <c r="IM2" s="50"/>
+      <c r="IN2" s="50"/>
+      <c r="IO2" s="50"/>
+      <c r="IP2" s="50"/>
+      <c r="IQ2" s="50"/>
+      <c r="IR2" s="50"/>
+      <c r="IS2" s="50"/>
+      <c r="IT2" s="50"/>
+      <c r="IU2" s="50"/>
+      <c r="IV2" s="50"/>
+      <c r="IW2" s="50"/>
+      <c r="IX2" s="50"/>
+      <c r="IY2" s="50"/>
+      <c r="IZ2" s="50"/>
+      <c r="JA2" s="50"/>
+      <c r="JB2" s="50"/>
+      <c r="JC2" s="50"/>
+      <c r="JD2" s="50"/>
+      <c r="JE2" s="50"/>
+      <c r="JF2" s="50"/>
+      <c r="JG2" s="50"/>
+      <c r="JH2" s="50"/>
       <c r="JI2"/>
       <c r="JJ2" s="33"/>
       <c r="JK2"/>
       <c r="JL2" s="39"/>
+      <c r="JM2" s="40"/>
     </row>
-    <row r="4" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:273" ht="12" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="41">
+      <c r="B4" s="42">
         <v>2003</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42">
         <v>2004</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42">
         <v>2005</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42">
         <v>2006</v>
       </c>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41">
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42">
         <v>2007</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41">
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42">
         <v>2008</v>
       </c>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41">
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42">
         <v>2009</v>
       </c>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41">
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42">
         <v>2010</v>
       </c>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41">
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="42"/>
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42">
         <v>2011</v>
       </c>
-      <c r="CU4" s="41"/>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41"/>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41">
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42">
         <v>2012</v>
       </c>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41"/>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41">
+      <c r="DG4" s="42"/>
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="42">
         <v>2013</v>
       </c>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41"/>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
-      <c r="ED4" s="41">
+      <c r="DS4" s="42"/>
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42">
         <v>2014</v>
       </c>
-      <c r="EE4" s="41"/>
-      <c r="EF4" s="41"/>
-      <c r="EG4" s="41"/>
-      <c r="EH4" s="41"/>
-      <c r="EI4" s="41"/>
-      <c r="EJ4" s="41"/>
-      <c r="EK4" s="41"/>
-      <c r="EL4" s="41"/>
-      <c r="EM4" s="41"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="41"/>
-      <c r="EP4" s="41">
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="41"/>
-      <c r="ER4" s="41"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="41"/>
-      <c r="EU4" s="41"/>
-      <c r="EV4" s="41"/>
-      <c r="EW4" s="41"/>
-      <c r="EX4" s="41"/>
-      <c r="EY4" s="41"/>
-      <c r="EZ4" s="41"/>
-      <c r="FA4" s="41"/>
-      <c r="FB4" s="41">
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42">
         <v>2016</v>
       </c>
-      <c r="FC4" s="41"/>
-      <c r="FD4" s="41"/>
-      <c r="FE4" s="41"/>
-      <c r="FF4" s="41"/>
-      <c r="FG4" s="41"/>
-      <c r="FH4" s="41"/>
-      <c r="FI4" s="41"/>
-      <c r="FJ4" s="41"/>
-      <c r="FK4" s="41"/>
-      <c r="FL4" s="41"/>
-      <c r="FM4" s="41"/>
-      <c r="FN4" s="41">
+      <c r="FC4" s="42"/>
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="42"/>
+      <c r="FF4" s="42"/>
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="42">
         <v>2017</v>
       </c>
-      <c r="FO4" s="41"/>
-      <c r="FP4" s="41"/>
-      <c r="FQ4" s="41"/>
-      <c r="FR4" s="41"/>
-      <c r="FS4" s="41"/>
-      <c r="FT4" s="41"/>
-      <c r="FU4" s="41"/>
-      <c r="FV4" s="41"/>
-      <c r="FW4" s="41"/>
-      <c r="FX4" s="41"/>
-      <c r="FY4" s="41"/>
-      <c r="FZ4" s="41">
+      <c r="FO4" s="42"/>
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="42"/>
+      <c r="FV4" s="42"/>
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42">
         <v>2018</v>
       </c>
-      <c r="GA4" s="41"/>
-      <c r="GB4" s="41"/>
-      <c r="GC4" s="41"/>
-      <c r="GD4" s="41"/>
-      <c r="GE4" s="41"/>
-      <c r="GF4" s="41"/>
-      <c r="GG4" s="41"/>
-      <c r="GH4" s="41"/>
-      <c r="GI4" s="41"/>
-      <c r="GJ4" s="41"/>
-      <c r="GK4" s="41"/>
-      <c r="GL4" s="41">
+      <c r="GA4" s="42"/>
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="42"/>
+      <c r="GL4" s="42">
         <v>2019</v>
       </c>
-      <c r="GM4" s="41"/>
-      <c r="GN4" s="41"/>
-      <c r="GO4" s="41"/>
-      <c r="GP4" s="41"/>
-      <c r="GQ4" s="41"/>
-      <c r="GR4" s="41"/>
-      <c r="GS4" s="41"/>
-      <c r="GT4" s="41"/>
-      <c r="GU4" s="41"/>
-      <c r="GV4" s="41"/>
-      <c r="GW4" s="41"/>
-      <c r="GX4" s="41">
+      <c r="GM4" s="42"/>
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="42"/>
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42">
         <v>2020</v>
       </c>
-      <c r="GY4" s="41"/>
-      <c r="GZ4" s="41"/>
-      <c r="HA4" s="41"/>
-      <c r="HB4" s="41"/>
-      <c r="HC4" s="41"/>
-      <c r="HD4" s="41"/>
-      <c r="HE4" s="41"/>
-      <c r="HF4" s="41"/>
-      <c r="HG4" s="41"/>
-      <c r="HH4" s="41"/>
-      <c r="HI4" s="41"/>
-      <c r="HJ4" s="41">
+      <c r="GY4" s="42"/>
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="42"/>
+      <c r="HB4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="42">
         <v>2021</v>
       </c>
-      <c r="HK4" s="41"/>
-      <c r="HL4" s="41"/>
-      <c r="HM4" s="41"/>
-      <c r="HN4" s="41"/>
-      <c r="HO4" s="41"/>
-      <c r="HP4" s="41"/>
-      <c r="HQ4" s="41"/>
-      <c r="HR4" s="41"/>
-      <c r="HS4" s="41"/>
-      <c r="HT4" s="41"/>
-      <c r="HU4" s="41"/>
-      <c r="HV4" s="41">
+      <c r="HK4" s="42"/>
+      <c r="HL4" s="42"/>
+      <c r="HM4" s="42"/>
+      <c r="HN4" s="42"/>
+      <c r="HO4" s="42"/>
+      <c r="HP4" s="42"/>
+      <c r="HQ4" s="42"/>
+      <c r="HR4" s="42"/>
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42">
         <v>2022</v>
       </c>
-      <c r="HW4" s="41"/>
-      <c r="HX4" s="41"/>
-      <c r="HY4" s="41"/>
-      <c r="HZ4" s="41"/>
-      <c r="IA4" s="41"/>
-      <c r="IB4" s="41"/>
-      <c r="IC4" s="41"/>
-      <c r="ID4" s="41"/>
-      <c r="IE4" s="41"/>
-      <c r="IF4" s="41"/>
-      <c r="IG4" s="41"/>
-      <c r="IH4" s="41">
+      <c r="HW4" s="42"/>
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="42"/>
+      <c r="IA4" s="42"/>
+      <c r="IB4" s="42"/>
+      <c r="IC4" s="42"/>
+      <c r="ID4" s="42"/>
+      <c r="IE4" s="42"/>
+      <c r="IF4" s="42"/>
+      <c r="IG4" s="42"/>
+      <c r="IH4" s="42">
         <v>2023</v>
       </c>
-      <c r="II4" s="41"/>
-      <c r="IJ4" s="41"/>
-      <c r="IK4" s="41"/>
-      <c r="IL4" s="41"/>
-      <c r="IM4" s="41"/>
-      <c r="IN4" s="41"/>
-      <c r="IO4" s="41"/>
-      <c r="IP4" s="41"/>
-      <c r="IQ4" s="41"/>
-      <c r="IR4" s="41"/>
-      <c r="IS4" s="41"/>
-      <c r="IT4" s="41">
+      <c r="II4" s="42"/>
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="42">
         <v>2024</v>
       </c>
-      <c r="IU4" s="41"/>
-      <c r="IV4" s="41"/>
-      <c r="IW4" s="41"/>
-      <c r="IX4" s="41"/>
-      <c r="IY4" s="41"/>
-      <c r="IZ4" s="41"/>
-      <c r="JA4" s="41"/>
-      <c r="JB4" s="41"/>
-      <c r="JC4" s="41"/>
-      <c r="JD4" s="41"/>
-      <c r="JE4" s="42"/>
-      <c r="JF4" s="45">
+      <c r="IU4" s="42"/>
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="43"/>
+      <c r="JF4" s="46">
         <v>2025</v>
       </c>
-      <c r="JG4" s="46"/>
-      <c r="JH4" s="46"/>
-      <c r="JI4" s="46"/>
-      <c r="JJ4" s="46"/>
-      <c r="JK4" s="46"/>
+      <c r="JG4" s="47"/>
+      <c r="JH4" s="47"/>
+      <c r="JI4" s="47"/>
+      <c r="JJ4" s="47"/>
+      <c r="JK4" s="47"/>
       <c r="JL4" s="47"/>
+      <c r="JM4" s="48"/>
     </row>
-    <row r="5" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:273" ht="12" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2743,8 +2743,11 @@
       <c r="JL5" s="38" t="s">
         <v>9</v>
       </c>
+      <c r="JM5" s="38" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:273" ht="12.95" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3561,8 +3564,11 @@
       <c r="JL6" s="36">
         <v>-1164.7505813493999</v>
       </c>
+      <c r="JM6" s="36">
+        <v>-1919.4407700290001</v>
+      </c>
     </row>
-    <row r="7" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:273" ht="12.95" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4379,8 +4385,11 @@
       <c r="JL7" s="36">
         <v>1032.6810439636099</v>
       </c>
+      <c r="JM7" s="36">
+        <v>-1408.2089641384</v>
+      </c>
     </row>
-    <row r="8" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:273" ht="12.95" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5197,8 +5206,11 @@
       <c r="JL8" s="36">
         <v>2197.431625313</v>
       </c>
+      <c r="JM8" s="36">
+        <v>511.23180589055301</v>
+      </c>
     </row>
-    <row r="9" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:273" ht="12.95" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -6015,8 +6027,11 @@
       <c r="JL9" s="36">
         <v>-1325.2589060403</v>
       </c>
+      <c r="JM9" s="36">
+        <v>-474.84706043979003</v>
+      </c>
     </row>
-    <row r="10" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:273" ht="12.95" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -6833,8 +6848,11 @@
       <c r="JL10" s="37">
         <v>472.63419309133201</v>
       </c>
+      <c r="JM10" s="37">
+        <v>1100.3124019704801</v>
+      </c>
     </row>
-    <row r="11" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:273" ht="12.95" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -7651,8 +7669,11 @@
       <c r="JL11" s="37">
         <v>220.91448578793501</v>
       </c>
+      <c r="JM11" s="37">
+        <v>612.95974688183401</v>
+      </c>
     </row>
-    <row r="12" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:273" ht="12.95" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -8469,8 +8490,11 @@
       <c r="JL12" s="37">
         <v>-118.35047562167</v>
       </c>
+      <c r="JM12" s="37">
+        <v>55.241848511915698</v>
+      </c>
     </row>
-    <row r="13" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:273" ht="12.95" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -9287,8 +9311,11 @@
       <c r="JL13" s="37">
         <v>370.07018292506899</v>
       </c>
+      <c r="JM13" s="37">
+        <v>432.11080657673199</v>
+      </c>
     </row>
-    <row r="14" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:273" ht="12.95" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -10105,8 +10132,11 @@
       <c r="JL14" s="37">
         <v>1797.8930991316199</v>
       </c>
+      <c r="JM14" s="37">
+        <v>1575.15946241027</v>
+      </c>
     </row>
-    <row r="15" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:273" ht="12.95" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -10923,8 +10953,11 @@
       <c r="JL15" s="37">
         <v>270.83298048</v>
       </c>
+      <c r="JM15" s="37">
+        <v>236.15871032999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:273" ht="12.95" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -11741,8 +11774,11 @@
       <c r="JL16" s="37">
         <v>349.34999542011298</v>
       </c>
+      <c r="JM16" s="37">
+        <v>-18.730402518695001</v>
+      </c>
     </row>
-    <row r="17" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:273" ht="12.95" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -12559,8 +12595,11 @@
       <c r="JL17" s="37">
         <v>1177.7101232315099</v>
       </c>
+      <c r="JM17" s="37">
+        <v>1357.7311545989601</v>
+      </c>
     </row>
-    <row r="18" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:273" ht="12.95" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -13377,8 +13416,11 @@
       <c r="JL18" s="36">
         <v>-427.25580237220998</v>
       </c>
+      <c r="JM18" s="36">
+        <v>2227.55851521765</v>
+      </c>
     </row>
-    <row r="19" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:273" ht="12.95" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -14195,8 +14237,11 @@
       <c r="JL19" s="37">
         <v>715.55762897367799</v>
       </c>
+      <c r="JM19" s="37">
+        <v>1923.1547956936399</v>
+      </c>
     </row>
-    <row r="20" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:273" ht="12.95" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -15013,8 +15058,11 @@
       <c r="JL20" s="37">
         <v>999.790696781375</v>
       </c>
+      <c r="JM20" s="37">
+        <v>2127.3194343779301</v>
+      </c>
     </row>
-    <row r="21" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:273" ht="12.95" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -15831,8 +15879,11 @@
       <c r="JL21" s="37">
         <v>-284.23306780770002</v>
       </c>
+      <c r="JM21" s="37">
+        <v>-204.1646386843</v>
+      </c>
     </row>
-    <row r="22" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:273" ht="12.95" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -16649,8 +16700,11 @@
       <c r="JL22" s="37">
         <v>111.29379635223999</v>
       </c>
+      <c r="JM22" s="37">
+        <v>-382.08279078236001</v>
+      </c>
     </row>
-    <row r="23" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:273" ht="12.95" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -17467,8 +17521,11 @@
       <c r="JL23" s="37">
         <v>-395.52686415993998</v>
       </c>
+      <c r="JM23" s="37">
+        <v>177.918152098062</v>
+      </c>
     </row>
-    <row r="24" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:273" ht="12.95" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -18285,8 +18342,11 @@
       <c r="JL24" s="37">
         <v>1142.81343134588</v>
       </c>
+      <c r="JM24" s="37">
+        <v>-304.40371952401</v>
+      </c>
     </row>
-    <row r="25" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:273" ht="12.95" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -19103,8 +19163,11 @@
       <c r="JL25" s="37">
         <v>-380.80764791126001</v>
       </c>
+      <c r="JM25" s="37">
+        <v>-455.60945480116999</v>
+      </c>
     </row>
-    <row r="26" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:273" ht="12.95" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -19921,8 +19984,11 @@
       <c r="JL26" s="37">
         <v>1523.6210792571501</v>
       </c>
+      <c r="JM26" s="37">
+        <v>151.20573527716101</v>
+      </c>
     </row>
-    <row r="27" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:273" ht="12.95" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -20739,8 +20805,11 @@
       <c r="JL27" s="37">
         <v>1753.3435608293701</v>
       </c>
+      <c r="JM27" s="37">
+        <v>108.274609560786</v>
+      </c>
     </row>
-    <row r="28" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:273" ht="12.95" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -21557,8 +21626,11 @@
       <c r="JL28" s="37">
         <v>-229.72248157223001</v>
       </c>
+      <c r="JM28" s="37">
+        <v>42.931125716375099</v>
+      </c>
     </row>
-    <row r="29" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:273" ht="12.95" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -22375,8 +22447,11 @@
       <c r="JL29" s="36">
         <v>-70.383674832493995</v>
       </c>
+      <c r="JM29" s="36">
+        <v>64.225654283087295</v>
+      </c>
     </row>
-    <row r="30" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:273" ht="12.95" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -23193,8 +23268,11 @@
       <c r="JL30" s="36">
         <v>597.41571908149501</v>
       </c>
+      <c r="JM30" s="36">
+        <v>-3814.6894653142999</v>
+      </c>
     </row>
-    <row r="31" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:273" ht="12.95" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -24011,8 +24089,11 @@
       <c r="JL31" s="37">
         <v>1221.46585725614</v>
       </c>
+      <c r="JM31" s="37">
+        <v>-3258.2933649785</v>
+      </c>
     </row>
-    <row r="32" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:273" ht="12.95" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -24829,8 +24910,11 @@
       <c r="JL32" s="37">
         <v>0</v>
       </c>
+      <c r="JM32" s="37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:273" ht="12.95" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -25647,8 +25731,11 @@
       <c r="JL33" s="37">
         <v>-362.17993059535002</v>
       </c>
+      <c r="JM33" s="37">
+        <v>-258.15050846599001</v>
+      </c>
     </row>
-    <row r="34" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:273" ht="12.95" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -26465,8 +26552,11 @@
       <c r="JL34" s="37">
         <v>-79.369152821048999</v>
       </c>
+      <c r="JM34" s="37">
+        <v>-10.359477357736001</v>
+      </c>
     </row>
-    <row r="35" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:273" ht="12.95" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -27283,8 +27373,11 @@
       <c r="JL35" s="37">
         <v>1665.95138717896</v>
       </c>
+      <c r="JM35" s="37">
+        <v>-3022.5754368179</v>
+      </c>
     </row>
-    <row r="36" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:273" ht="12.95" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -28101,8 +28194,11 @@
       <c r="JL36" s="37">
         <v>-2.9364465064142</v>
       </c>
+      <c r="JM36" s="37">
+        <v>32.792057663167398</v>
+      </c>
     </row>
-    <row r="37" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:273" ht="12.95" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
@@ -28919,8 +29015,11 @@
       <c r="JL37" s="37">
         <v>624.05013817464896</v>
       </c>
+      <c r="JM37" s="37">
+        <v>556.396100335852</v>
+      </c>
     </row>
-    <row r="38" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:273" ht="12.95" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -29737,8 +29836,11 @@
       <c r="JL38" s="37">
         <v>742.26978146436295</v>
       </c>
+      <c r="JM38" s="37">
+        <v>-381.62573550705002</v>
+      </c>
     </row>
-    <row r="39" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:273" ht="12.95" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -30555,8 +30657,11 @@
       <c r="JL39" s="37">
         <v>409.61422487256698</v>
       </c>
+      <c r="JM39" s="37">
+        <v>790.43022319104102</v>
+      </c>
     </row>
-    <row r="40" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:273" ht="12.95" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -31373,8 +31478,11 @@
       <c r="JL40" s="37">
         <v>-536.34803998396001</v>
       </c>
+      <c r="JM40" s="37">
+        <v>164.61488196080799</v>
+      </c>
     </row>
-    <row r="41" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:273" ht="12.95" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -32191,8 +32299,11 @@
       <c r="JL41" s="37">
         <v>3.4253000000000002E-4</v>
       </c>
+      <c r="JM41" s="37">
+        <v>3.5935999999999997E-4</v>
+      </c>
     </row>
-    <row r="42" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:273" ht="12.95" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -33009,8 +33120,11 @@
       <c r="JL42" s="37">
         <v>8.5138292916837894</v>
       </c>
+      <c r="JM42" s="37">
+        <v>-17.023628668941999</v>
+      </c>
     </row>
-    <row r="43" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:273" ht="12.95" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
@@ -33827,284 +33941,288 @@
       <c r="JL43" s="34">
         <v>60.732082814104203</v>
       </c>
+      <c r="JM43" s="34">
+        <v>78.311586224415507</v>
+      </c>
     </row>
-    <row r="44" spans="1:272" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+    <row r="44" spans="1:273" ht="12" customHeight="1">
+      <c r="A44" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="44"/>
-      <c r="AJ44" s="44"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="44"/>
-      <c r="AM44" s="44"/>
-      <c r="AN44" s="44"/>
-      <c r="AO44" s="44"/>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="44"/>
-      <c r="AR44" s="44"/>
-      <c r="AS44" s="44"/>
-      <c r="AT44" s="44"/>
-      <c r="AU44" s="44"/>
-      <c r="AV44" s="44"/>
-      <c r="AW44" s="44"/>
-      <c r="AX44" s="44"/>
-      <c r="AY44" s="44"/>
-      <c r="AZ44" s="44"/>
-      <c r="BA44" s="44"/>
-      <c r="BB44" s="44"/>
-      <c r="BC44" s="44"/>
-      <c r="BD44" s="44"/>
-      <c r="BE44" s="44"/>
-      <c r="BF44" s="44"/>
-      <c r="BG44" s="44"/>
-      <c r="BH44" s="44"/>
-      <c r="BI44" s="44"/>
-      <c r="BJ44" s="44"/>
-      <c r="BK44" s="44"/>
-      <c r="BL44" s="44"/>
-      <c r="BM44" s="44"/>
-      <c r="BN44" s="44"/>
-      <c r="BO44" s="44"/>
-      <c r="BP44" s="44"/>
-      <c r="BQ44" s="44"/>
-      <c r="BR44" s="44"/>
-      <c r="BS44" s="44"/>
-      <c r="BT44" s="44"/>
-      <c r="BU44" s="44"/>
-      <c r="BV44" s="44"/>
-      <c r="BW44" s="44"/>
-      <c r="BX44" s="44"/>
-      <c r="BY44" s="44"/>
-      <c r="BZ44" s="44"/>
-      <c r="CA44" s="44"/>
-      <c r="CB44" s="44"/>
-      <c r="CC44" s="44"/>
-      <c r="CD44" s="44"/>
-      <c r="CE44" s="44"/>
-      <c r="CF44" s="44"/>
-      <c r="CG44" s="44"/>
-      <c r="CH44" s="44"/>
-      <c r="CI44" s="44"/>
-      <c r="CJ44" s="44"/>
-      <c r="CK44" s="44"/>
-      <c r="CL44" s="44"/>
-      <c r="CM44" s="44"/>
-      <c r="CN44" s="44"/>
-      <c r="CO44" s="44"/>
-      <c r="CP44" s="44"/>
-      <c r="CQ44" s="44"/>
-      <c r="CR44" s="44"/>
-      <c r="CS44" s="44"/>
-      <c r="CT44" s="44"/>
-      <c r="CU44" s="44"/>
-      <c r="CV44" s="44"/>
-      <c r="CW44" s="44"/>
-      <c r="CX44" s="44"/>
-      <c r="CY44" s="44"/>
-      <c r="CZ44" s="44"/>
-      <c r="DA44" s="44"/>
-      <c r="DB44" s="44"/>
-      <c r="DC44" s="44"/>
-      <c r="DD44" s="44"/>
-      <c r="DE44" s="44"/>
-      <c r="DF44" s="44"/>
-      <c r="DG44" s="44"/>
-      <c r="DH44" s="44"/>
-      <c r="DI44" s="44"/>
-      <c r="DJ44" s="44"/>
-      <c r="DK44" s="44"/>
-      <c r="DL44" s="44"/>
-      <c r="DM44" s="44"/>
-      <c r="DN44" s="44"/>
-      <c r="DO44" s="44"/>
-      <c r="DP44" s="44"/>
-      <c r="DQ44" s="44"/>
-      <c r="DR44" s="44"/>
-      <c r="DS44" s="44"/>
-      <c r="DT44" s="44"/>
-      <c r="DU44" s="44"/>
-      <c r="DV44" s="44"/>
-      <c r="DW44" s="44"/>
-      <c r="DX44" s="44"/>
-      <c r="DY44" s="44"/>
-      <c r="DZ44" s="44"/>
-      <c r="EA44" s="44"/>
-      <c r="EB44" s="44"/>
-      <c r="EC44" s="44"/>
-      <c r="ED44" s="44"/>
-      <c r="EE44" s="44"/>
-      <c r="EF44" s="44"/>
-      <c r="EG44" s="44"/>
-      <c r="EH44" s="44"/>
-      <c r="EI44" s="44"/>
-      <c r="EJ44" s="44"/>
-      <c r="EK44" s="44"/>
-      <c r="EL44" s="44"/>
-      <c r="EM44" s="44"/>
-      <c r="EN44" s="44"/>
-      <c r="EO44" s="44"/>
-      <c r="EP44" s="44"/>
-      <c r="EQ44" s="44"/>
-      <c r="ER44" s="44"/>
-      <c r="ES44" s="44"/>
-      <c r="ET44" s="44"/>
-      <c r="EU44" s="44"/>
-      <c r="EV44" s="44"/>
-      <c r="EW44" s="44"/>
-      <c r="EX44" s="44"/>
-      <c r="EY44" s="44"/>
-      <c r="EZ44" s="44"/>
-      <c r="FA44" s="44"/>
-      <c r="FB44" s="44"/>
-      <c r="FC44" s="44"/>
-      <c r="FD44" s="44"/>
-      <c r="FE44" s="44"/>
-      <c r="FF44" s="44"/>
-      <c r="FG44" s="44"/>
-      <c r="FH44" s="44"/>
-      <c r="FI44" s="44"/>
-      <c r="FJ44" s="44"/>
-      <c r="FK44" s="44"/>
-      <c r="FL44" s="44"/>
-      <c r="FM44" s="44"/>
-      <c r="FN44" s="44"/>
-      <c r="FO44" s="44"/>
-      <c r="FP44" s="44"/>
-      <c r="FQ44" s="44"/>
-      <c r="FR44" s="44"/>
-      <c r="FS44" s="44"/>
-      <c r="FT44" s="44"/>
-      <c r="FU44" s="44"/>
-      <c r="FV44" s="44"/>
-      <c r="FW44" s="44"/>
-      <c r="FX44" s="44"/>
-      <c r="FY44" s="44"/>
-      <c r="FZ44" s="44"/>
-      <c r="GA44" s="44"/>
-      <c r="GB44" s="44"/>
-      <c r="GC44" s="44"/>
-      <c r="GD44" s="44"/>
-      <c r="GE44" s="44"/>
-      <c r="GF44" s="44"/>
-      <c r="GG44" s="44"/>
-      <c r="GH44" s="44"/>
-      <c r="GI44" s="44"/>
-      <c r="GJ44" s="44"/>
-      <c r="GK44" s="44"/>
-      <c r="GL44" s="44"/>
-      <c r="GM44" s="44"/>
-      <c r="GN44" s="44"/>
-      <c r="GO44" s="44"/>
-      <c r="GP44" s="44"/>
-      <c r="GQ44" s="44"/>
-      <c r="GR44" s="44"/>
-      <c r="GS44" s="44"/>
-      <c r="GT44" s="44"/>
-      <c r="GU44" s="44"/>
-      <c r="GV44" s="44"/>
-      <c r="GW44" s="44"/>
-      <c r="GX44" s="44"/>
-      <c r="GY44" s="44"/>
-      <c r="GZ44" s="44"/>
-      <c r="HA44" s="44"/>
-      <c r="HB44" s="44"/>
-      <c r="HC44" s="44"/>
-      <c r="HD44" s="44"/>
-      <c r="HE44" s="44"/>
-      <c r="HF44" s="44"/>
-      <c r="HG44" s="44"/>
-      <c r="HH44" s="44"/>
-      <c r="HI44" s="44"/>
-      <c r="HJ44" s="44"/>
-      <c r="HK44" s="44"/>
-      <c r="HL44" s="44"/>
-      <c r="HM44" s="44"/>
-      <c r="HN44" s="44"/>
-      <c r="HO44" s="44"/>
-      <c r="HP44" s="44"/>
-      <c r="HQ44" s="44"/>
-      <c r="HR44" s="44"/>
-      <c r="HS44" s="44"/>
-      <c r="HT44" s="44"/>
-      <c r="HU44" s="44"/>
-      <c r="HV44" s="44"/>
-      <c r="HW44" s="44"/>
-      <c r="HX44" s="44"/>
-      <c r="HY44" s="44"/>
-      <c r="HZ44" s="44"/>
-      <c r="IA44" s="44"/>
-      <c r="IB44" s="44"/>
-      <c r="IC44" s="44"/>
-      <c r="ID44" s="44"/>
-      <c r="IE44" s="44"/>
-      <c r="IF44" s="44"/>
-      <c r="IG44" s="44"/>
-      <c r="IH44" s="44"/>
-      <c r="II44" s="44"/>
-      <c r="IJ44" s="44"/>
-      <c r="IK44" s="44"/>
-      <c r="IL44" s="44"/>
-      <c r="IM44" s="44"/>
-      <c r="IN44" s="44"/>
-      <c r="IO44" s="44"/>
-      <c r="IP44" s="44"/>
-      <c r="IQ44" s="44"/>
-      <c r="IR44" s="44"/>
-      <c r="IS44" s="44"/>
-      <c r="IT44" s="44"/>
-      <c r="IU44" s="44"/>
-      <c r="IV44" s="44"/>
-      <c r="IW44" s="44"/>
-      <c r="IX44" s="44"/>
-      <c r="IY44" s="44"/>
-      <c r="IZ44" s="44"/>
-      <c r="JA44" s="44"/>
-      <c r="JB44" s="44"/>
-      <c r="JC44" s="44"/>
-      <c r="JD44" s="44"/>
-      <c r="JE44" s="44"/>
-      <c r="JF44" s="44"/>
-      <c r="JG44" s="44"/>
-      <c r="JH44" s="44"/>
-      <c r="JI44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="45"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="45"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="45"/>
+      <c r="AN44" s="45"/>
+      <c r="AO44" s="45"/>
+      <c r="AP44" s="45"/>
+      <c r="AQ44" s="45"/>
+      <c r="AR44" s="45"/>
+      <c r="AS44" s="45"/>
+      <c r="AT44" s="45"/>
+      <c r="AU44" s="45"/>
+      <c r="AV44" s="45"/>
+      <c r="AW44" s="45"/>
+      <c r="AX44" s="45"/>
+      <c r="AY44" s="45"/>
+      <c r="AZ44" s="45"/>
+      <c r="BA44" s="45"/>
+      <c r="BB44" s="45"/>
+      <c r="BC44" s="45"/>
+      <c r="BD44" s="45"/>
+      <c r="BE44" s="45"/>
+      <c r="BF44" s="45"/>
+      <c r="BG44" s="45"/>
+      <c r="BH44" s="45"/>
+      <c r="BI44" s="45"/>
+      <c r="BJ44" s="45"/>
+      <c r="BK44" s="45"/>
+      <c r="BL44" s="45"/>
+      <c r="BM44" s="45"/>
+      <c r="BN44" s="45"/>
+      <c r="BO44" s="45"/>
+      <c r="BP44" s="45"/>
+      <c r="BQ44" s="45"/>
+      <c r="BR44" s="45"/>
+      <c r="BS44" s="45"/>
+      <c r="BT44" s="45"/>
+      <c r="BU44" s="45"/>
+      <c r="BV44" s="45"/>
+      <c r="BW44" s="45"/>
+      <c r="BX44" s="45"/>
+      <c r="BY44" s="45"/>
+      <c r="BZ44" s="45"/>
+      <c r="CA44" s="45"/>
+      <c r="CB44" s="45"/>
+      <c r="CC44" s="45"/>
+      <c r="CD44" s="45"/>
+      <c r="CE44" s="45"/>
+      <c r="CF44" s="45"/>
+      <c r="CG44" s="45"/>
+      <c r="CH44" s="45"/>
+      <c r="CI44" s="45"/>
+      <c r="CJ44" s="45"/>
+      <c r="CK44" s="45"/>
+      <c r="CL44" s="45"/>
+      <c r="CM44" s="45"/>
+      <c r="CN44" s="45"/>
+      <c r="CO44" s="45"/>
+      <c r="CP44" s="45"/>
+      <c r="CQ44" s="45"/>
+      <c r="CR44" s="45"/>
+      <c r="CS44" s="45"/>
+      <c r="CT44" s="45"/>
+      <c r="CU44" s="45"/>
+      <c r="CV44" s="45"/>
+      <c r="CW44" s="45"/>
+      <c r="CX44" s="45"/>
+      <c r="CY44" s="45"/>
+      <c r="CZ44" s="45"/>
+      <c r="DA44" s="45"/>
+      <c r="DB44" s="45"/>
+      <c r="DC44" s="45"/>
+      <c r="DD44" s="45"/>
+      <c r="DE44" s="45"/>
+      <c r="DF44" s="45"/>
+      <c r="DG44" s="45"/>
+      <c r="DH44" s="45"/>
+      <c r="DI44" s="45"/>
+      <c r="DJ44" s="45"/>
+      <c r="DK44" s="45"/>
+      <c r="DL44" s="45"/>
+      <c r="DM44" s="45"/>
+      <c r="DN44" s="45"/>
+      <c r="DO44" s="45"/>
+      <c r="DP44" s="45"/>
+      <c r="DQ44" s="45"/>
+      <c r="DR44" s="45"/>
+      <c r="DS44" s="45"/>
+      <c r="DT44" s="45"/>
+      <c r="DU44" s="45"/>
+      <c r="DV44" s="45"/>
+      <c r="DW44" s="45"/>
+      <c r="DX44" s="45"/>
+      <c r="DY44" s="45"/>
+      <c r="DZ44" s="45"/>
+      <c r="EA44" s="45"/>
+      <c r="EB44" s="45"/>
+      <c r="EC44" s="45"/>
+      <c r="ED44" s="45"/>
+      <c r="EE44" s="45"/>
+      <c r="EF44" s="45"/>
+      <c r="EG44" s="45"/>
+      <c r="EH44" s="45"/>
+      <c r="EI44" s="45"/>
+      <c r="EJ44" s="45"/>
+      <c r="EK44" s="45"/>
+      <c r="EL44" s="45"/>
+      <c r="EM44" s="45"/>
+      <c r="EN44" s="45"/>
+      <c r="EO44" s="45"/>
+      <c r="EP44" s="45"/>
+      <c r="EQ44" s="45"/>
+      <c r="ER44" s="45"/>
+      <c r="ES44" s="45"/>
+      <c r="ET44" s="45"/>
+      <c r="EU44" s="45"/>
+      <c r="EV44" s="45"/>
+      <c r="EW44" s="45"/>
+      <c r="EX44" s="45"/>
+      <c r="EY44" s="45"/>
+      <c r="EZ44" s="45"/>
+      <c r="FA44" s="45"/>
+      <c r="FB44" s="45"/>
+      <c r="FC44" s="45"/>
+      <c r="FD44" s="45"/>
+      <c r="FE44" s="45"/>
+      <c r="FF44" s="45"/>
+      <c r="FG44" s="45"/>
+      <c r="FH44" s="45"/>
+      <c r="FI44" s="45"/>
+      <c r="FJ44" s="45"/>
+      <c r="FK44" s="45"/>
+      <c r="FL44" s="45"/>
+      <c r="FM44" s="45"/>
+      <c r="FN44" s="45"/>
+      <c r="FO44" s="45"/>
+      <c r="FP44" s="45"/>
+      <c r="FQ44" s="45"/>
+      <c r="FR44" s="45"/>
+      <c r="FS44" s="45"/>
+      <c r="FT44" s="45"/>
+      <c r="FU44" s="45"/>
+      <c r="FV44" s="45"/>
+      <c r="FW44" s="45"/>
+      <c r="FX44" s="45"/>
+      <c r="FY44" s="45"/>
+      <c r="FZ44" s="45"/>
+      <c r="GA44" s="45"/>
+      <c r="GB44" s="45"/>
+      <c r="GC44" s="45"/>
+      <c r="GD44" s="45"/>
+      <c r="GE44" s="45"/>
+      <c r="GF44" s="45"/>
+      <c r="GG44" s="45"/>
+      <c r="GH44" s="45"/>
+      <c r="GI44" s="45"/>
+      <c r="GJ44" s="45"/>
+      <c r="GK44" s="45"/>
+      <c r="GL44" s="45"/>
+      <c r="GM44" s="45"/>
+      <c r="GN44" s="45"/>
+      <c r="GO44" s="45"/>
+      <c r="GP44" s="45"/>
+      <c r="GQ44" s="45"/>
+      <c r="GR44" s="45"/>
+      <c r="GS44" s="45"/>
+      <c r="GT44" s="45"/>
+      <c r="GU44" s="45"/>
+      <c r="GV44" s="45"/>
+      <c r="GW44" s="45"/>
+      <c r="GX44" s="45"/>
+      <c r="GY44" s="45"/>
+      <c r="GZ44" s="45"/>
+      <c r="HA44" s="45"/>
+      <c r="HB44" s="45"/>
+      <c r="HC44" s="45"/>
+      <c r="HD44" s="45"/>
+      <c r="HE44" s="45"/>
+      <c r="HF44" s="45"/>
+      <c r="HG44" s="45"/>
+      <c r="HH44" s="45"/>
+      <c r="HI44" s="45"/>
+      <c r="HJ44" s="45"/>
+      <c r="HK44" s="45"/>
+      <c r="HL44" s="45"/>
+      <c r="HM44" s="45"/>
+      <c r="HN44" s="45"/>
+      <c r="HO44" s="45"/>
+      <c r="HP44" s="45"/>
+      <c r="HQ44" s="45"/>
+      <c r="HR44" s="45"/>
+      <c r="HS44" s="45"/>
+      <c r="HT44" s="45"/>
+      <c r="HU44" s="45"/>
+      <c r="HV44" s="45"/>
+      <c r="HW44" s="45"/>
+      <c r="HX44" s="45"/>
+      <c r="HY44" s="45"/>
+      <c r="HZ44" s="45"/>
+      <c r="IA44" s="45"/>
+      <c r="IB44" s="45"/>
+      <c r="IC44" s="45"/>
+      <c r="ID44" s="45"/>
+      <c r="IE44" s="45"/>
+      <c r="IF44" s="45"/>
+      <c r="IG44" s="45"/>
+      <c r="IH44" s="45"/>
+      <c r="II44" s="45"/>
+      <c r="IJ44" s="45"/>
+      <c r="IK44" s="45"/>
+      <c r="IL44" s="45"/>
+      <c r="IM44" s="45"/>
+      <c r="IN44" s="45"/>
+      <c r="IO44" s="45"/>
+      <c r="IP44" s="45"/>
+      <c r="IQ44" s="45"/>
+      <c r="IR44" s="45"/>
+      <c r="IS44" s="45"/>
+      <c r="IT44" s="45"/>
+      <c r="IU44" s="45"/>
+      <c r="IV44" s="45"/>
+      <c r="IW44" s="45"/>
+      <c r="IX44" s="45"/>
+      <c r="IY44" s="45"/>
+      <c r="IZ44" s="45"/>
+      <c r="JA44" s="45"/>
+      <c r="JB44" s="45"/>
+      <c r="JC44" s="45"/>
+      <c r="JD44" s="45"/>
+      <c r="JE44" s="45"/>
+      <c r="JF44" s="45"/>
+      <c r="JG44" s="45"/>
+      <c r="JH44" s="45"/>
+      <c r="JI44" s="45"/>
       <c r="JJ44" s="10"/>
       <c r="JK44"/>
       <c r="JL44" s="39"/>
+      <c r="JM44" s="40"/>
     </row>
-    <row r="45" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:273" ht="12.95" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
@@ -34921,8 +35039,11 @@
       <c r="JL45" s="21">
         <v>-1225.4826641635</v>
       </c>
+      <c r="JM45" s="21">
+        <v>-1997.7523562534</v>
+      </c>
     </row>
-    <row r="46" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:273" ht="12.95" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -35739,8 +35860,11 @@
       <c r="JL46" s="23">
         <v>1142.81343134588</v>
       </c>
+      <c r="JM46" s="23">
+        <v>-304.40371952401</v>
+      </c>
     </row>
-    <row r="47" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:273" ht="12.95" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -36557,8 +36681,11 @@
       <c r="JL47" s="23">
         <v>1523.6210792571501</v>
       </c>
+      <c r="JM47" s="23">
+        <v>151.20573527716101</v>
+      </c>
     </row>
-    <row r="48" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:273" ht="12.95" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -37159,8 +37286,11 @@
       <c r="JL48" s="23">
         <v>983.92187301876095</v>
       </c>
+      <c r="JM48" s="23">
+        <v>104.883565300762</v>
+      </c>
     </row>
-    <row r="49" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:273" ht="12.95" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -37761,8 +37891,11 @@
       <c r="JL49" s="23">
         <v>539.69920623838698</v>
       </c>
+      <c r="JM49" s="23">
+        <v>46.322169976399401</v>
+      </c>
     </row>
-    <row r="50" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:273" ht="12.95" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -38579,8 +38712,11 @@
       <c r="JL50" s="23">
         <v>-380.80764791126001</v>
       </c>
+      <c r="JM50" s="23">
+        <v>-455.60945480116999</v>
+      </c>
     </row>
-    <row r="51" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:273" ht="12.95" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -39397,8 +39533,11 @@
       <c r="JL51" s="23">
         <v>-108.31438825593</v>
       </c>
+      <c r="JM51" s="23">
+        <v>-462.27644498081997</v>
+      </c>
     </row>
-    <row r="52" spans="1:272" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:273" ht="12.95" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>46</v>
       </c>
@@ -40215,282 +40354,286 @@
       <c r="JL52" s="25">
         <v>-272.49325965533001</v>
       </c>
+      <c r="JM52" s="25">
+        <v>6.6669901796447801</v>
+      </c>
     </row>
-    <row r="54" spans="1:272" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:273" ht="9.9499999999999993" customHeight="1">
+      <c r="A54" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="40"/>
-      <c r="AC54" s="40"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="40"/>
-      <c r="AG54" s="40"/>
-      <c r="AH54" s="40"/>
-      <c r="AI54" s="40"/>
-      <c r="AJ54" s="40"/>
-      <c r="AK54" s="40"/>
-      <c r="AL54" s="40"/>
-      <c r="AM54" s="40"/>
-      <c r="AN54" s="40"/>
-      <c r="AO54" s="40"/>
-      <c r="AP54" s="40"/>
-      <c r="AQ54" s="40"/>
-      <c r="AR54" s="40"/>
-      <c r="AS54" s="40"/>
-      <c r="AT54" s="40"/>
-      <c r="AU54" s="40"/>
-      <c r="AV54" s="40"/>
-      <c r="AW54" s="40"/>
-      <c r="AX54" s="40"/>
-      <c r="AY54" s="40"/>
-      <c r="AZ54" s="40"/>
-      <c r="BA54" s="40"/>
-      <c r="BB54" s="40"/>
-      <c r="BC54" s="40"/>
-      <c r="BD54" s="40"/>
-      <c r="BE54" s="40"/>
-      <c r="BF54" s="40"/>
-      <c r="BG54" s="40"/>
-      <c r="BH54" s="40"/>
-      <c r="BI54" s="40"/>
-      <c r="BJ54" s="40"/>
-      <c r="BK54" s="40"/>
-      <c r="BL54" s="40"/>
-      <c r="BM54" s="40"/>
-      <c r="BN54" s="40"/>
-      <c r="BO54" s="40"/>
-      <c r="BP54" s="40"/>
-      <c r="BQ54" s="40"/>
-      <c r="BR54" s="40"/>
-      <c r="BS54" s="40"/>
-      <c r="BT54" s="40"/>
-      <c r="BU54" s="40"/>
-      <c r="BV54" s="40"/>
-      <c r="BW54" s="40"/>
-      <c r="BX54" s="40"/>
-      <c r="BY54" s="40"/>
-      <c r="BZ54" s="40"/>
-      <c r="CA54" s="40"/>
-      <c r="CB54" s="40"/>
-      <c r="CC54" s="40"/>
-      <c r="CD54" s="40"/>
-      <c r="CE54" s="40"/>
-      <c r="CF54" s="40"/>
-      <c r="CG54" s="40"/>
-      <c r="CH54" s="40"/>
-      <c r="CI54" s="40"/>
-      <c r="CJ54" s="40"/>
-      <c r="CK54" s="40"/>
-      <c r="CL54" s="40"/>
-      <c r="CM54" s="40"/>
-      <c r="CN54" s="40"/>
-      <c r="CO54" s="40"/>
-      <c r="CP54" s="40"/>
-      <c r="CQ54" s="40"/>
-      <c r="CR54" s="40"/>
-      <c r="CS54" s="40"/>
-      <c r="CT54" s="40"/>
-      <c r="CU54" s="40"/>
-      <c r="CV54" s="40"/>
-      <c r="CW54" s="40"/>
-      <c r="CX54" s="40"/>
-      <c r="CY54" s="40"/>
-      <c r="CZ54" s="40"/>
-      <c r="DA54" s="40"/>
-      <c r="DB54" s="40"/>
-      <c r="DC54" s="40"/>
-      <c r="DD54" s="40"/>
-      <c r="DE54" s="40"/>
-      <c r="DF54" s="40"/>
-      <c r="DG54" s="40"/>
-      <c r="DH54" s="40"/>
-      <c r="DI54" s="40"/>
-      <c r="DJ54" s="40"/>
-      <c r="DK54" s="40"/>
-      <c r="DL54" s="40"/>
-      <c r="DM54" s="40"/>
-      <c r="DN54" s="40"/>
-      <c r="DO54" s="40"/>
-      <c r="DP54" s="40"/>
-      <c r="DQ54" s="40"/>
-      <c r="DR54" s="40"/>
-      <c r="DS54" s="40"/>
-      <c r="DT54" s="40"/>
-      <c r="DU54" s="40"/>
-      <c r="DV54" s="40"/>
-      <c r="DW54" s="40"/>
-      <c r="DX54" s="40"/>
-      <c r="DY54" s="40"/>
-      <c r="DZ54" s="40"/>
-      <c r="EA54" s="40"/>
-      <c r="EB54" s="40"/>
-      <c r="EC54" s="40"/>
-      <c r="ED54" s="40"/>
-      <c r="EE54" s="40"/>
-      <c r="EF54" s="40"/>
-      <c r="EG54" s="40"/>
-      <c r="EH54" s="40"/>
-      <c r="EI54" s="40"/>
-      <c r="EJ54" s="40"/>
-      <c r="EK54" s="40"/>
-      <c r="EL54" s="40"/>
-      <c r="EM54" s="40"/>
-      <c r="EN54" s="40"/>
-      <c r="EO54" s="40"/>
-      <c r="EP54" s="40"/>
-      <c r="EQ54" s="40"/>
-      <c r="ER54" s="40"/>
-      <c r="ES54" s="40"/>
-      <c r="ET54" s="40"/>
-      <c r="EU54" s="40"/>
-      <c r="EV54" s="40"/>
-      <c r="EW54" s="40"/>
-      <c r="EX54" s="40"/>
-      <c r="EY54" s="40"/>
-      <c r="EZ54" s="40"/>
-      <c r="FA54" s="40"/>
-      <c r="FB54" s="40"/>
-      <c r="FC54" s="40"/>
-      <c r="FD54" s="40"/>
-      <c r="FE54" s="40"/>
-      <c r="FF54" s="40"/>
-      <c r="FG54" s="40"/>
-      <c r="FH54" s="40"/>
-      <c r="FI54" s="40"/>
-      <c r="FJ54" s="40"/>
-      <c r="FK54" s="40"/>
-      <c r="FL54" s="40"/>
-      <c r="FM54" s="40"/>
-      <c r="FN54" s="40"/>
-      <c r="FO54" s="40"/>
-      <c r="FP54" s="40"/>
-      <c r="FQ54" s="40"/>
-      <c r="FR54" s="40"/>
-      <c r="FS54" s="40"/>
-      <c r="FT54" s="40"/>
-      <c r="FU54" s="40"/>
-      <c r="FV54" s="40"/>
-      <c r="FW54" s="40"/>
-      <c r="FX54" s="40"/>
-      <c r="FY54" s="40"/>
-      <c r="FZ54" s="40"/>
-      <c r="GA54" s="40"/>
-      <c r="GB54" s="40"/>
-      <c r="GC54" s="40"/>
-      <c r="GD54" s="40"/>
-      <c r="GE54" s="40"/>
-      <c r="GF54" s="40"/>
-      <c r="GG54" s="40"/>
-      <c r="GH54" s="40"/>
-      <c r="GI54" s="40"/>
-      <c r="GJ54" s="40"/>
-      <c r="GK54" s="40"/>
-      <c r="GL54" s="40"/>
-      <c r="GM54" s="40"/>
-      <c r="GN54" s="40"/>
-      <c r="GO54" s="40"/>
-      <c r="GP54" s="40"/>
-      <c r="GQ54" s="40"/>
-      <c r="GR54" s="40"/>
-      <c r="GS54" s="40"/>
-      <c r="GT54" s="40"/>
-      <c r="GU54" s="40"/>
-      <c r="GV54" s="40"/>
-      <c r="GW54" s="40"/>
-      <c r="GX54" s="40"/>
-      <c r="GY54" s="40"/>
-      <c r="GZ54" s="40"/>
-      <c r="HA54" s="40"/>
-      <c r="HB54" s="40"/>
-      <c r="HC54" s="40"/>
-      <c r="HD54" s="40"/>
-      <c r="HE54" s="40"/>
-      <c r="HF54" s="40"/>
-      <c r="HG54" s="40"/>
-      <c r="HH54" s="40"/>
-      <c r="HI54" s="40"/>
-      <c r="HJ54" s="40"/>
-      <c r="HK54" s="40"/>
-      <c r="HL54" s="40"/>
-      <c r="HM54" s="40"/>
-      <c r="HN54" s="40"/>
-      <c r="HO54" s="40"/>
-      <c r="HP54" s="40"/>
-      <c r="HQ54" s="40"/>
-      <c r="HR54" s="40"/>
-      <c r="HS54" s="40"/>
-      <c r="HT54" s="40"/>
-      <c r="HU54" s="40"/>
-      <c r="HV54" s="40"/>
-      <c r="HW54" s="40"/>
-      <c r="HX54" s="40"/>
-      <c r="HY54" s="40"/>
-      <c r="HZ54" s="40"/>
-      <c r="IA54" s="40"/>
-      <c r="IB54" s="40"/>
-      <c r="IC54" s="40"/>
-      <c r="ID54" s="40"/>
-      <c r="IE54" s="40"/>
-      <c r="IF54" s="40"/>
-      <c r="IG54" s="40"/>
-      <c r="IH54" s="40"/>
-      <c r="II54" s="40"/>
-      <c r="IJ54" s="40"/>
-      <c r="IK54" s="40"/>
-      <c r="IL54" s="40"/>
-      <c r="IM54" s="40"/>
-      <c r="IN54" s="40"/>
-      <c r="IO54" s="40"/>
-      <c r="IP54" s="40"/>
-      <c r="IQ54" s="40"/>
-      <c r="IR54" s="40"/>
-      <c r="IS54" s="40"/>
-      <c r="IT54" s="40"/>
-      <c r="IU54" s="40"/>
-      <c r="IV54" s="40"/>
-      <c r="IW54" s="40"/>
-      <c r="IX54" s="40"/>
-      <c r="IY54" s="40"/>
-      <c r="IZ54" s="40"/>
-      <c r="JA54" s="40"/>
-      <c r="JB54" s="40"/>
-      <c r="JC54" s="40"/>
-      <c r="JD54" s="40"/>
-      <c r="JE54" s="40"/>
-      <c r="JF54" s="40"/>
-      <c r="JG54" s="40"/>
-      <c r="JH54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="41"/>
+      <c r="AI54" s="41"/>
+      <c r="AJ54" s="41"/>
+      <c r="AK54" s="41"/>
+      <c r="AL54" s="41"/>
+      <c r="AM54" s="41"/>
+      <c r="AN54" s="41"/>
+      <c r="AO54" s="41"/>
+      <c r="AP54" s="41"/>
+      <c r="AQ54" s="41"/>
+      <c r="AR54" s="41"/>
+      <c r="AS54" s="41"/>
+      <c r="AT54" s="41"/>
+      <c r="AU54" s="41"/>
+      <c r="AV54" s="41"/>
+      <c r="AW54" s="41"/>
+      <c r="AX54" s="41"/>
+      <c r="AY54" s="41"/>
+      <c r="AZ54" s="41"/>
+      <c r="BA54" s="41"/>
+      <c r="BB54" s="41"/>
+      <c r="BC54" s="41"/>
+      <c r="BD54" s="41"/>
+      <c r="BE54" s="41"/>
+      <c r="BF54" s="41"/>
+      <c r="BG54" s="41"/>
+      <c r="BH54" s="41"/>
+      <c r="BI54" s="41"/>
+      <c r="BJ54" s="41"/>
+      <c r="BK54" s="41"/>
+      <c r="BL54" s="41"/>
+      <c r="BM54" s="41"/>
+      <c r="BN54" s="41"/>
+      <c r="BO54" s="41"/>
+      <c r="BP54" s="41"/>
+      <c r="BQ54" s="41"/>
+      <c r="BR54" s="41"/>
+      <c r="BS54" s="41"/>
+      <c r="BT54" s="41"/>
+      <c r="BU54" s="41"/>
+      <c r="BV54" s="41"/>
+      <c r="BW54" s="41"/>
+      <c r="BX54" s="41"/>
+      <c r="BY54" s="41"/>
+      <c r="BZ54" s="41"/>
+      <c r="CA54" s="41"/>
+      <c r="CB54" s="41"/>
+      <c r="CC54" s="41"/>
+      <c r="CD54" s="41"/>
+      <c r="CE54" s="41"/>
+      <c r="CF54" s="41"/>
+      <c r="CG54" s="41"/>
+      <c r="CH54" s="41"/>
+      <c r="CI54" s="41"/>
+      <c r="CJ54" s="41"/>
+      <c r="CK54" s="41"/>
+      <c r="CL54" s="41"/>
+      <c r="CM54" s="41"/>
+      <c r="CN54" s="41"/>
+      <c r="CO54" s="41"/>
+      <c r="CP54" s="41"/>
+      <c r="CQ54" s="41"/>
+      <c r="CR54" s="41"/>
+      <c r="CS54" s="41"/>
+      <c r="CT54" s="41"/>
+      <c r="CU54" s="41"/>
+      <c r="CV54" s="41"/>
+      <c r="CW54" s="41"/>
+      <c r="CX54" s="41"/>
+      <c r="CY54" s="41"/>
+      <c r="CZ54" s="41"/>
+      <c r="DA54" s="41"/>
+      <c r="DB54" s="41"/>
+      <c r="DC54" s="41"/>
+      <c r="DD54" s="41"/>
+      <c r="DE54" s="41"/>
+      <c r="DF54" s="41"/>
+      <c r="DG54" s="41"/>
+      <c r="DH54" s="41"/>
+      <c r="DI54" s="41"/>
+      <c r="DJ54" s="41"/>
+      <c r="DK54" s="41"/>
+      <c r="DL54" s="41"/>
+      <c r="DM54" s="41"/>
+      <c r="DN54" s="41"/>
+      <c r="DO54" s="41"/>
+      <c r="DP54" s="41"/>
+      <c r="DQ54" s="41"/>
+      <c r="DR54" s="41"/>
+      <c r="DS54" s="41"/>
+      <c r="DT54" s="41"/>
+      <c r="DU54" s="41"/>
+      <c r="DV54" s="41"/>
+      <c r="DW54" s="41"/>
+      <c r="DX54" s="41"/>
+      <c r="DY54" s="41"/>
+      <c r="DZ54" s="41"/>
+      <c r="EA54" s="41"/>
+      <c r="EB54" s="41"/>
+      <c r="EC54" s="41"/>
+      <c r="ED54" s="41"/>
+      <c r="EE54" s="41"/>
+      <c r="EF54" s="41"/>
+      <c r="EG54" s="41"/>
+      <c r="EH54" s="41"/>
+      <c r="EI54" s="41"/>
+      <c r="EJ54" s="41"/>
+      <c r="EK54" s="41"/>
+      <c r="EL54" s="41"/>
+      <c r="EM54" s="41"/>
+      <c r="EN54" s="41"/>
+      <c r="EO54" s="41"/>
+      <c r="EP54" s="41"/>
+      <c r="EQ54" s="41"/>
+      <c r="ER54" s="41"/>
+      <c r="ES54" s="41"/>
+      <c r="ET54" s="41"/>
+      <c r="EU54" s="41"/>
+      <c r="EV54" s="41"/>
+      <c r="EW54" s="41"/>
+      <c r="EX54" s="41"/>
+      <c r="EY54" s="41"/>
+      <c r="EZ54" s="41"/>
+      <c r="FA54" s="41"/>
+      <c r="FB54" s="41"/>
+      <c r="FC54" s="41"/>
+      <c r="FD54" s="41"/>
+      <c r="FE54" s="41"/>
+      <c r="FF54" s="41"/>
+      <c r="FG54" s="41"/>
+      <c r="FH54" s="41"/>
+      <c r="FI54" s="41"/>
+      <c r="FJ54" s="41"/>
+      <c r="FK54" s="41"/>
+      <c r="FL54" s="41"/>
+      <c r="FM54" s="41"/>
+      <c r="FN54" s="41"/>
+      <c r="FO54" s="41"/>
+      <c r="FP54" s="41"/>
+      <c r="FQ54" s="41"/>
+      <c r="FR54" s="41"/>
+      <c r="FS54" s="41"/>
+      <c r="FT54" s="41"/>
+      <c r="FU54" s="41"/>
+      <c r="FV54" s="41"/>
+      <c r="FW54" s="41"/>
+      <c r="FX54" s="41"/>
+      <c r="FY54" s="41"/>
+      <c r="FZ54" s="41"/>
+      <c r="GA54" s="41"/>
+      <c r="GB54" s="41"/>
+      <c r="GC54" s="41"/>
+      <c r="GD54" s="41"/>
+      <c r="GE54" s="41"/>
+      <c r="GF54" s="41"/>
+      <c r="GG54" s="41"/>
+      <c r="GH54" s="41"/>
+      <c r="GI54" s="41"/>
+      <c r="GJ54" s="41"/>
+      <c r="GK54" s="41"/>
+      <c r="GL54" s="41"/>
+      <c r="GM54" s="41"/>
+      <c r="GN54" s="41"/>
+      <c r="GO54" s="41"/>
+      <c r="GP54" s="41"/>
+      <c r="GQ54" s="41"/>
+      <c r="GR54" s="41"/>
+      <c r="GS54" s="41"/>
+      <c r="GT54" s="41"/>
+      <c r="GU54" s="41"/>
+      <c r="GV54" s="41"/>
+      <c r="GW54" s="41"/>
+      <c r="GX54" s="41"/>
+      <c r="GY54" s="41"/>
+      <c r="GZ54" s="41"/>
+      <c r="HA54" s="41"/>
+      <c r="HB54" s="41"/>
+      <c r="HC54" s="41"/>
+      <c r="HD54" s="41"/>
+      <c r="HE54" s="41"/>
+      <c r="HF54" s="41"/>
+      <c r="HG54" s="41"/>
+      <c r="HH54" s="41"/>
+      <c r="HI54" s="41"/>
+      <c r="HJ54" s="41"/>
+      <c r="HK54" s="41"/>
+      <c r="HL54" s="41"/>
+      <c r="HM54" s="41"/>
+      <c r="HN54" s="41"/>
+      <c r="HO54" s="41"/>
+      <c r="HP54" s="41"/>
+      <c r="HQ54" s="41"/>
+      <c r="HR54" s="41"/>
+      <c r="HS54" s="41"/>
+      <c r="HT54" s="41"/>
+      <c r="HU54" s="41"/>
+      <c r="HV54" s="41"/>
+      <c r="HW54" s="41"/>
+      <c r="HX54" s="41"/>
+      <c r="HY54" s="41"/>
+      <c r="HZ54" s="41"/>
+      <c r="IA54" s="41"/>
+      <c r="IB54" s="41"/>
+      <c r="IC54" s="41"/>
+      <c r="ID54" s="41"/>
+      <c r="IE54" s="41"/>
+      <c r="IF54" s="41"/>
+      <c r="IG54" s="41"/>
+      <c r="IH54" s="41"/>
+      <c r="II54" s="41"/>
+      <c r="IJ54" s="41"/>
+      <c r="IK54" s="41"/>
+      <c r="IL54" s="41"/>
+      <c r="IM54" s="41"/>
+      <c r="IN54" s="41"/>
+      <c r="IO54" s="41"/>
+      <c r="IP54" s="41"/>
+      <c r="IQ54" s="41"/>
+      <c r="IR54" s="41"/>
+      <c r="IS54" s="41"/>
+      <c r="IT54" s="41"/>
+      <c r="IU54" s="41"/>
+      <c r="IV54" s="41"/>
+      <c r="IW54" s="41"/>
+      <c r="IX54" s="41"/>
+      <c r="IY54" s="41"/>
+      <c r="IZ54" s="41"/>
+      <c r="JA54" s="41"/>
+      <c r="JB54" s="41"/>
+      <c r="JC54" s="41"/>
+      <c r="JD54" s="41"/>
+      <c r="JE54" s="41"/>
+      <c r="JF54" s="41"/>
+      <c r="JG54" s="41"/>
+      <c r="JH54" s="41"/>
       <c r="JI54"/>
       <c r="JJ54" s="33"/>
       <c r="JK54"/>
       <c r="JL54" s="39"/>
+      <c r="JM54" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -40520,7 +40663,7 @@
     <mergeCell ref="AL4:AW4"/>
     <mergeCell ref="AX4:BI4"/>
     <mergeCell ref="A44:JI44"/>
-    <mergeCell ref="JF4:JL4"/>
+    <mergeCell ref="JF4:JM4"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -40528,7 +40671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -40538,7 +40681,7 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -40549,61 +40692,61 @@
     <col min="17" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
+    <row r="1" spans="1:23" ht="12" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
     </row>
-    <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:23" ht="12" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
-    <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -40674,7 +40817,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="12.95" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
@@ -40745,7 +40888,7 @@
         <v>-7104.022157204</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="12.95" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
@@ -40816,7 +40959,7 @@
         <v>-11930.065806917</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="12.95" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
@@ -40887,7 +41030,7 @@
         <v>-4826.0436497132996</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="12.95" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
@@ -40958,7 +41101,7 @@
         <v>-8929.5042845784992</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="12.95" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>19</v>
       </c>
@@ -41029,7 +41172,7 @@
         <v>3591.8843317918199</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="12.95" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
@@ -41100,7 +41243,7 @@
         <v>-9.0346010803683008</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="12.95" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
@@ -41171,7 +41314,7 @@
         <v>1716.28733330821</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="12.95" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
@@ -41242,7 +41385,7 @@
         <v>1884.63159956397</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="12.95" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>23</v>
       </c>
@@ -41313,7 +41456,7 @@
         <v>12521.388616370299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="12.95" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
@@ -41384,7 +41527,7 @@
         <v>5926.6452143734105</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="12.95" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
@@ -41455,7 +41598,7 @@
         <v>-433.48788784288001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="12.95" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>22</v>
       </c>
@@ -41526,7 +41669,7 @@
         <v>7028.2312898398204</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="12.95" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>24</v>
       </c>
@@ -41597,7 +41740,7 @@
         <v>1988.22708731694</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="12.95" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
@@ -41668,7 +41811,7 @@
         <v>6756.4542720150102</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="12.95" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>25</v>
       </c>
@@ -41739,7 +41882,7 @@
         <v>11664.9433214786</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="12.95" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
@@ -41810,7 +41953,7 @@
         <v>-4908.4890494636002</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="12.95" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>27</v>
       </c>
@@ -41881,7 +42024,7 @@
         <v>-4351.3507480726003</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="12.95" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>28</v>
       </c>
@@ -41952,7 +42095,7 @@
         <v>-557.13830139096001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="12.95" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
@@ -42023,7 +42166,7 @@
         <v>4768.2271846980702</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="12.95" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
@@ -42094,7 +42237,7 @@
         <v>-783.91318097439</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="12.95" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
@@ -42165,7 +42308,7 @@
         <v>5552.1403656724597</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="12.95" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
@@ -42236,7 +42379,7 @@
         <v>6394.3555865745202</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="12.95" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
@@ -42307,7 +42450,7 @@
         <v>-842.21522090205997</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="12.95" customHeight="1">
       <c r="A28" s="30" t="s">
         <v>30</v>
       </c>
@@ -42378,7 +42521,7 @@
         <v>-520.50871532618999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="12.95" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
@@ -42449,7 +42592,7 @@
         <v>2937.0969640220901</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="12.95" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>19</v>
       </c>
@@ -42520,7 +42663,7 @@
         <v>3639.8907871954402</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="12.95" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>32</v>
       </c>
@@ -42591,7 +42734,7 @@
         <v>29.584225069999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="12.95" customHeight="1">
       <c r="A32" s="31" t="s">
         <v>33</v>
       </c>
@@ -42662,7 +42805,7 @@
         <v>2148.8670182833398</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="12.95" customHeight="1">
       <c r="A33" s="31" t="s">
         <v>34</v>
       </c>
@@ -42733,7 +42876,7 @@
         <v>134.75616436242299</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="12.95" customHeight="1">
       <c r="A34" s="31" t="s">
         <v>35</v>
       </c>
@@ -42804,7 +42947,7 @@
         <v>1339.65248741246</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="12.95" customHeight="1">
       <c r="A35" s="31" t="s">
         <v>36</v>
       </c>
@@ -42875,7 +43018,7 @@
         <v>-12.969107932789001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="12.95" customHeight="1">
       <c r="A36" s="31" t="s">
         <v>23</v>
       </c>
@@ -42946,7 +43089,7 @@
         <v>702.79382317334205</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="12.95" customHeight="1">
       <c r="A37" s="31" t="s">
         <v>33</v>
       </c>
@@ -43017,7 +43160,7 @@
         <v>867.55904733999705</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="12.95" customHeight="1">
       <c r="A38" s="31" t="s">
         <v>34</v>
       </c>
@@ -43088,7 +43231,7 @@
         <v>716.65485802408205</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="12.95" customHeight="1">
       <c r="A39" s="31" t="s">
         <v>35</v>
       </c>
@@ -43159,7 +43302,7 @@
         <v>-876.91637036745999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="12.95" customHeight="1">
       <c r="A40" s="31" t="s">
         <v>37</v>
       </c>
@@ -43230,7 +43373,7 @@
         <v>-2.3155699999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="12.95" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>38</v>
       </c>
@@ -43301,7 +43444,7 @@
         <v>-4.5013962532793004</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="12.95" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>39</v>
       </c>
@@ -43372,34 +43515,34 @@
         <v>-2579.3332086383002</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+    <row r="43" spans="1:23" ht="12" customHeight="1">
+      <c r="A43" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
     </row>
-    <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="12.95" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -43470,7 +43613,7 @@
         <v>-4524.6889485657002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="12.95" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -43541,7 +43684,7 @@
         <v>4768.2271846980702</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="12.95" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>26</v>
       </c>
@@ -43612,7 +43755,7 @@
         <v>5552.1403656724597</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="12.95" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
@@ -43665,7 +43808,7 @@
         <v>6697.0597364505902</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="12.95" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
@@ -43718,7 +43861,7 @@
         <v>-1144.9193707781001</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="12.95" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>25</v>
       </c>
@@ -43789,7 +43932,7 @@
         <v>-783.91318097439</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="12.95" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
@@ -43860,7 +44003,7 @@
         <v>1538.90608977382</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="12.95" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>46</v>
       </c>
@@ -43931,32 +44074,32 @@
         <v>-2322.8192707481999</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
+    <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1">
+      <c r="A53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.11.2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E9088-7DDD-4623-BD9D-3664810F54C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -205,11 +211,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##,###,###,###,###,###,###,###,###,###,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -280,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -678,11 +684,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -806,11 +838,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -830,20 +871,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,8 +1036,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JM54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JN54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="IT6" activePane="bottomRight" state="frozen"/>
@@ -987,7 +1046,7 @@
       <selection pane="bottomRight" sqref="A1:JH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1049,884 +1108,888 @@
     <col min="267" max="268" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="269" max="270" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="271" max="273" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" ht="12" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="50"/>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
-      <c r="CJ1" s="50"/>
-      <c r="CK1" s="50"/>
-      <c r="CL1" s="50"/>
-      <c r="CM1" s="50"/>
-      <c r="CN1" s="50"/>
-      <c r="CO1" s="50"/>
-      <c r="CP1" s="50"/>
-      <c r="CQ1" s="50"/>
-      <c r="CR1" s="50"/>
-      <c r="CS1" s="50"/>
-      <c r="CT1" s="50"/>
-      <c r="CU1" s="50"/>
-      <c r="CV1" s="50"/>
-      <c r="CW1" s="50"/>
-      <c r="CX1" s="50"/>
-      <c r="CY1" s="50"/>
-      <c r="CZ1" s="50"/>
-      <c r="DA1" s="50"/>
-      <c r="DB1" s="50"/>
-      <c r="DC1" s="50"/>
-      <c r="DD1" s="50"/>
-      <c r="DE1" s="50"/>
-      <c r="DF1" s="50"/>
-      <c r="DG1" s="50"/>
-      <c r="DH1" s="50"/>
-      <c r="DI1" s="50"/>
-      <c r="DJ1" s="50"/>
-      <c r="DK1" s="50"/>
-      <c r="DL1" s="50"/>
-      <c r="DM1" s="50"/>
-      <c r="DN1" s="50"/>
-      <c r="DO1" s="50"/>
-      <c r="DP1" s="50"/>
-      <c r="DQ1" s="50"/>
-      <c r="DR1" s="50"/>
-      <c r="DS1" s="50"/>
-      <c r="DT1" s="50"/>
-      <c r="DU1" s="50"/>
-      <c r="DV1" s="50"/>
-      <c r="DW1" s="50"/>
-      <c r="DX1" s="50"/>
-      <c r="DY1" s="50"/>
-      <c r="DZ1" s="50"/>
-      <c r="EA1" s="50"/>
-      <c r="EB1" s="50"/>
-      <c r="EC1" s="50"/>
-      <c r="ED1" s="50"/>
-      <c r="EE1" s="50"/>
-      <c r="EF1" s="50"/>
-      <c r="EG1" s="50"/>
-      <c r="EH1" s="50"/>
-      <c r="EI1" s="50"/>
-      <c r="EJ1" s="50"/>
-      <c r="EK1" s="50"/>
-      <c r="EL1" s="50"/>
-      <c r="EM1" s="50"/>
-      <c r="EN1" s="50"/>
-      <c r="EO1" s="50"/>
-      <c r="EP1" s="50"/>
-      <c r="EQ1" s="50"/>
-      <c r="ER1" s="50"/>
-      <c r="ES1" s="50"/>
-      <c r="ET1" s="50"/>
-      <c r="EU1" s="50"/>
-      <c r="EV1" s="50"/>
-      <c r="EW1" s="50"/>
-      <c r="EX1" s="50"/>
-      <c r="EY1" s="50"/>
-      <c r="EZ1" s="50"/>
-      <c r="FA1" s="50"/>
-      <c r="FB1" s="50"/>
-      <c r="FC1" s="50"/>
-      <c r="FD1" s="50"/>
-      <c r="FE1" s="50"/>
-      <c r="FF1" s="50"/>
-      <c r="FG1" s="50"/>
-      <c r="FH1" s="50"/>
-      <c r="FI1" s="50"/>
-      <c r="FJ1" s="50"/>
-      <c r="FK1" s="50"/>
-      <c r="FL1" s="50"/>
-      <c r="FM1" s="50"/>
-      <c r="FN1" s="50"/>
-      <c r="FO1" s="50"/>
-      <c r="FP1" s="50"/>
-      <c r="FQ1" s="50"/>
-      <c r="FR1" s="50"/>
-      <c r="FS1" s="50"/>
-      <c r="FT1" s="50"/>
-      <c r="FU1" s="50"/>
-      <c r="FV1" s="50"/>
-      <c r="FW1" s="50"/>
-      <c r="FX1" s="50"/>
-      <c r="FY1" s="50"/>
-      <c r="FZ1" s="50"/>
-      <c r="GA1" s="50"/>
-      <c r="GB1" s="50"/>
-      <c r="GC1" s="50"/>
-      <c r="GD1" s="50"/>
-      <c r="GE1" s="50"/>
-      <c r="GF1" s="50"/>
-      <c r="GG1" s="50"/>
-      <c r="GH1" s="50"/>
-      <c r="GI1" s="50"/>
-      <c r="GJ1" s="50"/>
-      <c r="GK1" s="50"/>
-      <c r="GL1" s="50"/>
-      <c r="GM1" s="50"/>
-      <c r="GN1" s="50"/>
-      <c r="GO1" s="50"/>
-      <c r="GP1" s="50"/>
-      <c r="GQ1" s="50"/>
-      <c r="GR1" s="50"/>
-      <c r="GS1" s="50"/>
-      <c r="GT1" s="50"/>
-      <c r="GU1" s="50"/>
-      <c r="GV1" s="50"/>
-      <c r="GW1" s="50"/>
-      <c r="GX1" s="50"/>
-      <c r="GY1" s="50"/>
-      <c r="GZ1" s="50"/>
-      <c r="HA1" s="50"/>
-      <c r="HB1" s="50"/>
-      <c r="HC1" s="50"/>
-      <c r="HD1" s="50"/>
-      <c r="HE1" s="50"/>
-      <c r="HF1" s="50"/>
-      <c r="HG1" s="50"/>
-      <c r="HH1" s="50"/>
-      <c r="HI1" s="50"/>
-      <c r="HJ1" s="50"/>
-      <c r="HK1" s="50"/>
-      <c r="HL1" s="50"/>
-      <c r="HM1" s="50"/>
-      <c r="HN1" s="50"/>
-      <c r="HO1" s="50"/>
-      <c r="HP1" s="50"/>
-      <c r="HQ1" s="50"/>
-      <c r="HR1" s="50"/>
-      <c r="HS1" s="50"/>
-      <c r="HT1" s="50"/>
-      <c r="HU1" s="50"/>
-      <c r="HV1" s="50"/>
-      <c r="HW1" s="50"/>
-      <c r="HX1" s="50"/>
-      <c r="HY1" s="50"/>
-      <c r="HZ1" s="50"/>
-      <c r="IA1" s="50"/>
-      <c r="IB1" s="50"/>
-      <c r="IC1" s="50"/>
-      <c r="ID1" s="50"/>
-      <c r="IE1" s="50"/>
-      <c r="IF1" s="50"/>
-      <c r="IG1" s="50"/>
-      <c r="IH1" s="50"/>
-      <c r="II1" s="50"/>
-      <c r="IJ1" s="50"/>
-      <c r="IK1" s="50"/>
-      <c r="IL1" s="50"/>
-      <c r="IM1" s="50"/>
-      <c r="IN1" s="50"/>
-      <c r="IO1" s="50"/>
-      <c r="IP1" s="50"/>
-      <c r="IQ1" s="50"/>
-      <c r="IR1" s="50"/>
-      <c r="IS1" s="50"/>
-      <c r="IT1" s="50"/>
-      <c r="IU1" s="50"/>
-      <c r="IV1" s="50"/>
-      <c r="IW1" s="50"/>
-      <c r="IX1" s="50"/>
-      <c r="IY1" s="50"/>
-      <c r="IZ1" s="50"/>
-      <c r="JA1" s="50"/>
-      <c r="JB1" s="50"/>
-      <c r="JC1" s="50"/>
-      <c r="JD1" s="50"/>
-      <c r="JE1" s="50"/>
-      <c r="JF1" s="50"/>
-      <c r="JG1" s="50"/>
-      <c r="JH1" s="50"/>
+    <row r="1" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="42"/>
+      <c r="BQ1" s="42"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
+      <c r="BV1" s="42"/>
+      <c r="BW1" s="42"/>
+      <c r="BX1" s="42"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="42"/>
+      <c r="CC1" s="42"/>
+      <c r="CD1" s="42"/>
+      <c r="CE1" s="42"/>
+      <c r="CF1" s="42"/>
+      <c r="CG1" s="42"/>
+      <c r="CH1" s="42"/>
+      <c r="CI1" s="42"/>
+      <c r="CJ1" s="42"/>
+      <c r="CK1" s="42"/>
+      <c r="CL1" s="42"/>
+      <c r="CM1" s="42"/>
+      <c r="CN1" s="42"/>
+      <c r="CO1" s="42"/>
+      <c r="CP1" s="42"/>
+      <c r="CQ1" s="42"/>
+      <c r="CR1" s="42"/>
+      <c r="CS1" s="42"/>
+      <c r="CT1" s="42"/>
+      <c r="CU1" s="42"/>
+      <c r="CV1" s="42"/>
+      <c r="CW1" s="42"/>
+      <c r="CX1" s="42"/>
+      <c r="CY1" s="42"/>
+      <c r="CZ1" s="42"/>
+      <c r="DA1" s="42"/>
+      <c r="DB1" s="42"/>
+      <c r="DC1" s="42"/>
+      <c r="DD1" s="42"/>
+      <c r="DE1" s="42"/>
+      <c r="DF1" s="42"/>
+      <c r="DG1" s="42"/>
+      <c r="DH1" s="42"/>
+      <c r="DI1" s="42"/>
+      <c r="DJ1" s="42"/>
+      <c r="DK1" s="42"/>
+      <c r="DL1" s="42"/>
+      <c r="DM1" s="42"/>
+      <c r="DN1" s="42"/>
+      <c r="DO1" s="42"/>
+      <c r="DP1" s="42"/>
+      <c r="DQ1" s="42"/>
+      <c r="DR1" s="42"/>
+      <c r="DS1" s="42"/>
+      <c r="DT1" s="42"/>
+      <c r="DU1" s="42"/>
+      <c r="DV1" s="42"/>
+      <c r="DW1" s="42"/>
+      <c r="DX1" s="42"/>
+      <c r="DY1" s="42"/>
+      <c r="DZ1" s="42"/>
+      <c r="EA1" s="42"/>
+      <c r="EB1" s="42"/>
+      <c r="EC1" s="42"/>
+      <c r="ED1" s="42"/>
+      <c r="EE1" s="42"/>
+      <c r="EF1" s="42"/>
+      <c r="EG1" s="42"/>
+      <c r="EH1" s="42"/>
+      <c r="EI1" s="42"/>
+      <c r="EJ1" s="42"/>
+      <c r="EK1" s="42"/>
+      <c r="EL1" s="42"/>
+      <c r="EM1" s="42"/>
+      <c r="EN1" s="42"/>
+      <c r="EO1" s="42"/>
+      <c r="EP1" s="42"/>
+      <c r="EQ1" s="42"/>
+      <c r="ER1" s="42"/>
+      <c r="ES1" s="42"/>
+      <c r="ET1" s="42"/>
+      <c r="EU1" s="42"/>
+      <c r="EV1" s="42"/>
+      <c r="EW1" s="42"/>
+      <c r="EX1" s="42"/>
+      <c r="EY1" s="42"/>
+      <c r="EZ1" s="42"/>
+      <c r="FA1" s="42"/>
+      <c r="FB1" s="42"/>
+      <c r="FC1" s="42"/>
+      <c r="FD1" s="42"/>
+      <c r="FE1" s="42"/>
+      <c r="FF1" s="42"/>
+      <c r="FG1" s="42"/>
+      <c r="FH1" s="42"/>
+      <c r="FI1" s="42"/>
+      <c r="FJ1" s="42"/>
+      <c r="FK1" s="42"/>
+      <c r="FL1" s="42"/>
+      <c r="FM1" s="42"/>
+      <c r="FN1" s="42"/>
+      <c r="FO1" s="42"/>
+      <c r="FP1" s="42"/>
+      <c r="FQ1" s="42"/>
+      <c r="FR1" s="42"/>
+      <c r="FS1" s="42"/>
+      <c r="FT1" s="42"/>
+      <c r="FU1" s="42"/>
+      <c r="FV1" s="42"/>
+      <c r="FW1" s="42"/>
+      <c r="FX1" s="42"/>
+      <c r="FY1" s="42"/>
+      <c r="FZ1" s="42"/>
+      <c r="GA1" s="42"/>
+      <c r="GB1" s="42"/>
+      <c r="GC1" s="42"/>
+      <c r="GD1" s="42"/>
+      <c r="GE1" s="42"/>
+      <c r="GF1" s="42"/>
+      <c r="GG1" s="42"/>
+      <c r="GH1" s="42"/>
+      <c r="GI1" s="42"/>
+      <c r="GJ1" s="42"/>
+      <c r="GK1" s="42"/>
+      <c r="GL1" s="42"/>
+      <c r="GM1" s="42"/>
+      <c r="GN1" s="42"/>
+      <c r="GO1" s="42"/>
+      <c r="GP1" s="42"/>
+      <c r="GQ1" s="42"/>
+      <c r="GR1" s="42"/>
+      <c r="GS1" s="42"/>
+      <c r="GT1" s="42"/>
+      <c r="GU1" s="42"/>
+      <c r="GV1" s="42"/>
+      <c r="GW1" s="42"/>
+      <c r="GX1" s="42"/>
+      <c r="GY1" s="42"/>
+      <c r="GZ1" s="42"/>
+      <c r="HA1" s="42"/>
+      <c r="HB1" s="42"/>
+      <c r="HC1" s="42"/>
+      <c r="HD1" s="42"/>
+      <c r="HE1" s="42"/>
+      <c r="HF1" s="42"/>
+      <c r="HG1" s="42"/>
+      <c r="HH1" s="42"/>
+      <c r="HI1" s="42"/>
+      <c r="HJ1" s="42"/>
+      <c r="HK1" s="42"/>
+      <c r="HL1" s="42"/>
+      <c r="HM1" s="42"/>
+      <c r="HN1" s="42"/>
+      <c r="HO1" s="42"/>
+      <c r="HP1" s="42"/>
+      <c r="HQ1" s="42"/>
+      <c r="HR1" s="42"/>
+      <c r="HS1" s="42"/>
+      <c r="HT1" s="42"/>
+      <c r="HU1" s="42"/>
+      <c r="HV1" s="42"/>
+      <c r="HW1" s="42"/>
+      <c r="HX1" s="42"/>
+      <c r="HY1" s="42"/>
+      <c r="HZ1" s="42"/>
+      <c r="IA1" s="42"/>
+      <c r="IB1" s="42"/>
+      <c r="IC1" s="42"/>
+      <c r="ID1" s="42"/>
+      <c r="IE1" s="42"/>
+      <c r="IF1" s="42"/>
+      <c r="IG1" s="42"/>
+      <c r="IH1" s="42"/>
+      <c r="II1" s="42"/>
+      <c r="IJ1" s="42"/>
+      <c r="IK1" s="42"/>
+      <c r="IL1" s="42"/>
+      <c r="IM1" s="42"/>
+      <c r="IN1" s="42"/>
+      <c r="IO1" s="42"/>
+      <c r="IP1" s="42"/>
+      <c r="IQ1" s="42"/>
+      <c r="IR1" s="42"/>
+      <c r="IS1" s="42"/>
+      <c r="IT1" s="42"/>
+      <c r="IU1" s="42"/>
+      <c r="IV1" s="42"/>
+      <c r="IW1" s="42"/>
+      <c r="IX1" s="42"/>
+      <c r="IY1" s="42"/>
+      <c r="IZ1" s="42"/>
+      <c r="JA1" s="42"/>
+      <c r="JB1" s="42"/>
+      <c r="JC1" s="42"/>
+      <c r="JD1" s="42"/>
+      <c r="JE1" s="42"/>
+      <c r="JF1" s="42"/>
+      <c r="JG1" s="42"/>
+      <c r="JH1" s="42"/>
       <c r="JI1"/>
       <c r="JJ1" s="33"/>
       <c r="JK1"/>
       <c r="JL1" s="39"/>
       <c r="JM1" s="40"/>
+      <c r="JN1"/>
     </row>
-    <row r="2" spans="1:273" ht="12" customHeight="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50"/>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50"/>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50"/>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50"/>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50"/>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50"/>
-      <c r="DH2" s="50"/>
-      <c r="DI2" s="50"/>
-      <c r="DJ2" s="50"/>
-      <c r="DK2" s="50"/>
-      <c r="DL2" s="50"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="50"/>
-      <c r="DO2" s="50"/>
-      <c r="DP2" s="50"/>
-      <c r="DQ2" s="50"/>
-      <c r="DR2" s="50"/>
-      <c r="DS2" s="50"/>
-      <c r="DT2" s="50"/>
-      <c r="DU2" s="50"/>
-      <c r="DV2" s="50"/>
-      <c r="DW2" s="50"/>
-      <c r="DX2" s="50"/>
-      <c r="DY2" s="50"/>
-      <c r="DZ2" s="50"/>
-      <c r="EA2" s="50"/>
-      <c r="EB2" s="50"/>
-      <c r="EC2" s="50"/>
-      <c r="ED2" s="50"/>
-      <c r="EE2" s="50"/>
-      <c r="EF2" s="50"/>
-      <c r="EG2" s="50"/>
-      <c r="EH2" s="50"/>
-      <c r="EI2" s="50"/>
-      <c r="EJ2" s="50"/>
-      <c r="EK2" s="50"/>
-      <c r="EL2" s="50"/>
-      <c r="EM2" s="50"/>
-      <c r="EN2" s="50"/>
-      <c r="EO2" s="50"/>
-      <c r="EP2" s="50"/>
-      <c r="EQ2" s="50"/>
-      <c r="ER2" s="50"/>
-      <c r="ES2" s="50"/>
-      <c r="ET2" s="50"/>
-      <c r="EU2" s="50"/>
-      <c r="EV2" s="50"/>
-      <c r="EW2" s="50"/>
-      <c r="EX2" s="50"/>
-      <c r="EY2" s="50"/>
-      <c r="EZ2" s="50"/>
-      <c r="FA2" s="50"/>
-      <c r="FB2" s="50"/>
-      <c r="FC2" s="50"/>
-      <c r="FD2" s="50"/>
-      <c r="FE2" s="50"/>
-      <c r="FF2" s="50"/>
-      <c r="FG2" s="50"/>
-      <c r="FH2" s="50"/>
-      <c r="FI2" s="50"/>
-      <c r="FJ2" s="50"/>
-      <c r="FK2" s="50"/>
-      <c r="FL2" s="50"/>
-      <c r="FM2" s="50"/>
-      <c r="FN2" s="50"/>
-      <c r="FO2" s="50"/>
-      <c r="FP2" s="50"/>
-      <c r="FQ2" s="50"/>
-      <c r="FR2" s="50"/>
-      <c r="FS2" s="50"/>
-      <c r="FT2" s="50"/>
-      <c r="FU2" s="50"/>
-      <c r="FV2" s="50"/>
-      <c r="FW2" s="50"/>
-      <c r="FX2" s="50"/>
-      <c r="FY2" s="50"/>
-      <c r="FZ2" s="50"/>
-      <c r="GA2" s="50"/>
-      <c r="GB2" s="50"/>
-      <c r="GC2" s="50"/>
-      <c r="GD2" s="50"/>
-      <c r="GE2" s="50"/>
-      <c r="GF2" s="50"/>
-      <c r="GG2" s="50"/>
-      <c r="GH2" s="50"/>
-      <c r="GI2" s="50"/>
-      <c r="GJ2" s="50"/>
-      <c r="GK2" s="50"/>
-      <c r="GL2" s="50"/>
-      <c r="GM2" s="50"/>
-      <c r="GN2" s="50"/>
-      <c r="GO2" s="50"/>
-      <c r="GP2" s="50"/>
-      <c r="GQ2" s="50"/>
-      <c r="GR2" s="50"/>
-      <c r="GS2" s="50"/>
-      <c r="GT2" s="50"/>
-      <c r="GU2" s="50"/>
-      <c r="GV2" s="50"/>
-      <c r="GW2" s="50"/>
-      <c r="GX2" s="50"/>
-      <c r="GY2" s="50"/>
-      <c r="GZ2" s="50"/>
-      <c r="HA2" s="50"/>
-      <c r="HB2" s="50"/>
-      <c r="HC2" s="50"/>
-      <c r="HD2" s="50"/>
-      <c r="HE2" s="50"/>
-      <c r="HF2" s="50"/>
-      <c r="HG2" s="50"/>
-      <c r="HH2" s="50"/>
-      <c r="HI2" s="50"/>
-      <c r="HJ2" s="50"/>
-      <c r="HK2" s="50"/>
-      <c r="HL2" s="50"/>
-      <c r="HM2" s="50"/>
-      <c r="HN2" s="50"/>
-      <c r="HO2" s="50"/>
-      <c r="HP2" s="50"/>
-      <c r="HQ2" s="50"/>
-      <c r="HR2" s="50"/>
-      <c r="HS2" s="50"/>
-      <c r="HT2" s="50"/>
-      <c r="HU2" s="50"/>
-      <c r="HV2" s="50"/>
-      <c r="HW2" s="50"/>
-      <c r="HX2" s="50"/>
-      <c r="HY2" s="50"/>
-      <c r="HZ2" s="50"/>
-      <c r="IA2" s="50"/>
-      <c r="IB2" s="50"/>
-      <c r="IC2" s="50"/>
-      <c r="ID2" s="50"/>
-      <c r="IE2" s="50"/>
-      <c r="IF2" s="50"/>
-      <c r="IG2" s="50"/>
-      <c r="IH2" s="50"/>
-      <c r="II2" s="50"/>
-      <c r="IJ2" s="50"/>
-      <c r="IK2" s="50"/>
-      <c r="IL2" s="50"/>
-      <c r="IM2" s="50"/>
-      <c r="IN2" s="50"/>
-      <c r="IO2" s="50"/>
-      <c r="IP2" s="50"/>
-      <c r="IQ2" s="50"/>
-      <c r="IR2" s="50"/>
-      <c r="IS2" s="50"/>
-      <c r="IT2" s="50"/>
-      <c r="IU2" s="50"/>
-      <c r="IV2" s="50"/>
-      <c r="IW2" s="50"/>
-      <c r="IX2" s="50"/>
-      <c r="IY2" s="50"/>
-      <c r="IZ2" s="50"/>
-      <c r="JA2" s="50"/>
-      <c r="JB2" s="50"/>
-      <c r="JC2" s="50"/>
-      <c r="JD2" s="50"/>
-      <c r="JE2" s="50"/>
-      <c r="JF2" s="50"/>
-      <c r="JG2" s="50"/>
-      <c r="JH2" s="50"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="42"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="42"/>
+      <c r="BU2" s="42"/>
+      <c r="BV2" s="42"/>
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="42"/>
+      <c r="BY2" s="42"/>
+      <c r="BZ2" s="42"/>
+      <c r="CA2" s="42"/>
+      <c r="CB2" s="42"/>
+      <c r="CC2" s="42"/>
+      <c r="CD2" s="42"/>
+      <c r="CE2" s="42"/>
+      <c r="CF2" s="42"/>
+      <c r="CG2" s="42"/>
+      <c r="CH2" s="42"/>
+      <c r="CI2" s="42"/>
+      <c r="CJ2" s="42"/>
+      <c r="CK2" s="42"/>
+      <c r="CL2" s="42"/>
+      <c r="CM2" s="42"/>
+      <c r="CN2" s="42"/>
+      <c r="CO2" s="42"/>
+      <c r="CP2" s="42"/>
+      <c r="CQ2" s="42"/>
+      <c r="CR2" s="42"/>
+      <c r="CS2" s="42"/>
+      <c r="CT2" s="42"/>
+      <c r="CU2" s="42"/>
+      <c r="CV2" s="42"/>
+      <c r="CW2" s="42"/>
+      <c r="CX2" s="42"/>
+      <c r="CY2" s="42"/>
+      <c r="CZ2" s="42"/>
+      <c r="DA2" s="42"/>
+      <c r="DB2" s="42"/>
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
+      <c r="DF2" s="42"/>
+      <c r="DG2" s="42"/>
+      <c r="DH2" s="42"/>
+      <c r="DI2" s="42"/>
+      <c r="DJ2" s="42"/>
+      <c r="DK2" s="42"/>
+      <c r="DL2" s="42"/>
+      <c r="DM2" s="42"/>
+      <c r="DN2" s="42"/>
+      <c r="DO2" s="42"/>
+      <c r="DP2" s="42"/>
+      <c r="DQ2" s="42"/>
+      <c r="DR2" s="42"/>
+      <c r="DS2" s="42"/>
+      <c r="DT2" s="42"/>
+      <c r="DU2" s="42"/>
+      <c r="DV2" s="42"/>
+      <c r="DW2" s="42"/>
+      <c r="DX2" s="42"/>
+      <c r="DY2" s="42"/>
+      <c r="DZ2" s="42"/>
+      <c r="EA2" s="42"/>
+      <c r="EB2" s="42"/>
+      <c r="EC2" s="42"/>
+      <c r="ED2" s="42"/>
+      <c r="EE2" s="42"/>
+      <c r="EF2" s="42"/>
+      <c r="EG2" s="42"/>
+      <c r="EH2" s="42"/>
+      <c r="EI2" s="42"/>
+      <c r="EJ2" s="42"/>
+      <c r="EK2" s="42"/>
+      <c r="EL2" s="42"/>
+      <c r="EM2" s="42"/>
+      <c r="EN2" s="42"/>
+      <c r="EO2" s="42"/>
+      <c r="EP2" s="42"/>
+      <c r="EQ2" s="42"/>
+      <c r="ER2" s="42"/>
+      <c r="ES2" s="42"/>
+      <c r="ET2" s="42"/>
+      <c r="EU2" s="42"/>
+      <c r="EV2" s="42"/>
+      <c r="EW2" s="42"/>
+      <c r="EX2" s="42"/>
+      <c r="EY2" s="42"/>
+      <c r="EZ2" s="42"/>
+      <c r="FA2" s="42"/>
+      <c r="FB2" s="42"/>
+      <c r="FC2" s="42"/>
+      <c r="FD2" s="42"/>
+      <c r="FE2" s="42"/>
+      <c r="FF2" s="42"/>
+      <c r="FG2" s="42"/>
+      <c r="FH2" s="42"/>
+      <c r="FI2" s="42"/>
+      <c r="FJ2" s="42"/>
+      <c r="FK2" s="42"/>
+      <c r="FL2" s="42"/>
+      <c r="FM2" s="42"/>
+      <c r="FN2" s="42"/>
+      <c r="FO2" s="42"/>
+      <c r="FP2" s="42"/>
+      <c r="FQ2" s="42"/>
+      <c r="FR2" s="42"/>
+      <c r="FS2" s="42"/>
+      <c r="FT2" s="42"/>
+      <c r="FU2" s="42"/>
+      <c r="FV2" s="42"/>
+      <c r="FW2" s="42"/>
+      <c r="FX2" s="42"/>
+      <c r="FY2" s="42"/>
+      <c r="FZ2" s="42"/>
+      <c r="GA2" s="42"/>
+      <c r="GB2" s="42"/>
+      <c r="GC2" s="42"/>
+      <c r="GD2" s="42"/>
+      <c r="GE2" s="42"/>
+      <c r="GF2" s="42"/>
+      <c r="GG2" s="42"/>
+      <c r="GH2" s="42"/>
+      <c r="GI2" s="42"/>
+      <c r="GJ2" s="42"/>
+      <c r="GK2" s="42"/>
+      <c r="GL2" s="42"/>
+      <c r="GM2" s="42"/>
+      <c r="GN2" s="42"/>
+      <c r="GO2" s="42"/>
+      <c r="GP2" s="42"/>
+      <c r="GQ2" s="42"/>
+      <c r="GR2" s="42"/>
+      <c r="GS2" s="42"/>
+      <c r="GT2" s="42"/>
+      <c r="GU2" s="42"/>
+      <c r="GV2" s="42"/>
+      <c r="GW2" s="42"/>
+      <c r="GX2" s="42"/>
+      <c r="GY2" s="42"/>
+      <c r="GZ2" s="42"/>
+      <c r="HA2" s="42"/>
+      <c r="HB2" s="42"/>
+      <c r="HC2" s="42"/>
+      <c r="HD2" s="42"/>
+      <c r="HE2" s="42"/>
+      <c r="HF2" s="42"/>
+      <c r="HG2" s="42"/>
+      <c r="HH2" s="42"/>
+      <c r="HI2" s="42"/>
+      <c r="HJ2" s="42"/>
+      <c r="HK2" s="42"/>
+      <c r="HL2" s="42"/>
+      <c r="HM2" s="42"/>
+      <c r="HN2" s="42"/>
+      <c r="HO2" s="42"/>
+      <c r="HP2" s="42"/>
+      <c r="HQ2" s="42"/>
+      <c r="HR2" s="42"/>
+      <c r="HS2" s="42"/>
+      <c r="HT2" s="42"/>
+      <c r="HU2" s="42"/>
+      <c r="HV2" s="42"/>
+      <c r="HW2" s="42"/>
+      <c r="HX2" s="42"/>
+      <c r="HY2" s="42"/>
+      <c r="HZ2" s="42"/>
+      <c r="IA2" s="42"/>
+      <c r="IB2" s="42"/>
+      <c r="IC2" s="42"/>
+      <c r="ID2" s="42"/>
+      <c r="IE2" s="42"/>
+      <c r="IF2" s="42"/>
+      <c r="IG2" s="42"/>
+      <c r="IH2" s="42"/>
+      <c r="II2" s="42"/>
+      <c r="IJ2" s="42"/>
+      <c r="IK2" s="42"/>
+      <c r="IL2" s="42"/>
+      <c r="IM2" s="42"/>
+      <c r="IN2" s="42"/>
+      <c r="IO2" s="42"/>
+      <c r="IP2" s="42"/>
+      <c r="IQ2" s="42"/>
+      <c r="IR2" s="42"/>
+      <c r="IS2" s="42"/>
+      <c r="IT2" s="42"/>
+      <c r="IU2" s="42"/>
+      <c r="IV2" s="42"/>
+      <c r="IW2" s="42"/>
+      <c r="IX2" s="42"/>
+      <c r="IY2" s="42"/>
+      <c r="IZ2" s="42"/>
+      <c r="JA2" s="42"/>
+      <c r="JB2" s="42"/>
+      <c r="JC2" s="42"/>
+      <c r="JD2" s="42"/>
+      <c r="JE2" s="42"/>
+      <c r="JF2" s="42"/>
+      <c r="JG2" s="42"/>
+      <c r="JH2" s="42"/>
       <c r="JI2"/>
       <c r="JJ2" s="33"/>
       <c r="JK2"/>
       <c r="JL2" s="39"/>
       <c r="JM2" s="40"/>
+      <c r="JN2"/>
     </row>
-    <row r="4" spans="1:273" ht="12" customHeight="1">
+    <row r="4" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>2003</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44">
         <v>2004</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44">
         <v>2005</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44">
         <v>2006</v>
       </c>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42">
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44">
         <v>2007</v>
       </c>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42">
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44">
         <v>2008</v>
       </c>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42">
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="44">
         <v>2009</v>
       </c>
-      <c r="BW4" s="42"/>
-      <c r="BX4" s="42"/>
-      <c r="BY4" s="42"/>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42">
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="44"/>
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="44"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44">
         <v>2010</v>
       </c>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="42"/>
-      <c r="CM4" s="42"/>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42">
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="44"/>
+      <c r="CM4" s="44"/>
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="44"/>
+      <c r="CS4" s="44"/>
+      <c r="CT4" s="44">
         <v>2011</v>
       </c>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
-      <c r="DA4" s="42"/>
-      <c r="DB4" s="42"/>
-      <c r="DC4" s="42"/>
-      <c r="DD4" s="42"/>
-      <c r="DE4" s="42"/>
-      <c r="DF4" s="42">
+      <c r="CU4" s="44"/>
+      <c r="CV4" s="44"/>
+      <c r="CW4" s="44"/>
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="44"/>
+      <c r="CZ4" s="44"/>
+      <c r="DA4" s="44"/>
+      <c r="DB4" s="44"/>
+      <c r="DC4" s="44"/>
+      <c r="DD4" s="44"/>
+      <c r="DE4" s="44"/>
+      <c r="DF4" s="44">
         <v>2012</v>
       </c>
-      <c r="DG4" s="42"/>
-      <c r="DH4" s="42"/>
-      <c r="DI4" s="42"/>
-      <c r="DJ4" s="42"/>
-      <c r="DK4" s="42"/>
-      <c r="DL4" s="42"/>
-      <c r="DM4" s="42"/>
-      <c r="DN4" s="42"/>
-      <c r="DO4" s="42"/>
-      <c r="DP4" s="42"/>
-      <c r="DQ4" s="42"/>
-      <c r="DR4" s="42">
+      <c r="DG4" s="44"/>
+      <c r="DH4" s="44"/>
+      <c r="DI4" s="44"/>
+      <c r="DJ4" s="44"/>
+      <c r="DK4" s="44"/>
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="44"/>
+      <c r="DN4" s="44"/>
+      <c r="DO4" s="44"/>
+      <c r="DP4" s="44"/>
+      <c r="DQ4" s="44"/>
+      <c r="DR4" s="44">
         <v>2013</v>
       </c>
-      <c r="DS4" s="42"/>
-      <c r="DT4" s="42"/>
-      <c r="DU4" s="42"/>
-      <c r="DV4" s="42"/>
-      <c r="DW4" s="42"/>
-      <c r="DX4" s="42"/>
-      <c r="DY4" s="42"/>
-      <c r="DZ4" s="42"/>
-      <c r="EA4" s="42"/>
-      <c r="EB4" s="42"/>
-      <c r="EC4" s="42"/>
-      <c r="ED4" s="42">
+      <c r="DS4" s="44"/>
+      <c r="DT4" s="44"/>
+      <c r="DU4" s="44"/>
+      <c r="DV4" s="44"/>
+      <c r="DW4" s="44"/>
+      <c r="DX4" s="44"/>
+      <c r="DY4" s="44"/>
+      <c r="DZ4" s="44"/>
+      <c r="EA4" s="44"/>
+      <c r="EB4" s="44"/>
+      <c r="EC4" s="44"/>
+      <c r="ED4" s="44">
         <v>2014</v>
       </c>
-      <c r="EE4" s="42"/>
-      <c r="EF4" s="42"/>
-      <c r="EG4" s="42"/>
-      <c r="EH4" s="42"/>
-      <c r="EI4" s="42"/>
-      <c r="EJ4" s="42"/>
-      <c r="EK4" s="42"/>
-      <c r="EL4" s="42"/>
-      <c r="EM4" s="42"/>
-      <c r="EN4" s="42"/>
-      <c r="EO4" s="42"/>
-      <c r="EP4" s="42">
+      <c r="EE4" s="44"/>
+      <c r="EF4" s="44"/>
+      <c r="EG4" s="44"/>
+      <c r="EH4" s="44"/>
+      <c r="EI4" s="44"/>
+      <c r="EJ4" s="44"/>
+      <c r="EK4" s="44"/>
+      <c r="EL4" s="44"/>
+      <c r="EM4" s="44"/>
+      <c r="EN4" s="44"/>
+      <c r="EO4" s="44"/>
+      <c r="EP4" s="44">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="42"/>
-      <c r="ER4" s="42"/>
-      <c r="ES4" s="42"/>
-      <c r="ET4" s="42"/>
-      <c r="EU4" s="42"/>
-      <c r="EV4" s="42"/>
-      <c r="EW4" s="42"/>
-      <c r="EX4" s="42"/>
-      <c r="EY4" s="42"/>
-      <c r="EZ4" s="42"/>
-      <c r="FA4" s="42"/>
-      <c r="FB4" s="42">
+      <c r="EQ4" s="44"/>
+      <c r="ER4" s="44"/>
+      <c r="ES4" s="44"/>
+      <c r="ET4" s="44"/>
+      <c r="EU4" s="44"/>
+      <c r="EV4" s="44"/>
+      <c r="EW4" s="44"/>
+      <c r="EX4" s="44"/>
+      <c r="EY4" s="44"/>
+      <c r="EZ4" s="44"/>
+      <c r="FA4" s="44"/>
+      <c r="FB4" s="44">
         <v>2016</v>
       </c>
-      <c r="FC4" s="42"/>
-      <c r="FD4" s="42"/>
-      <c r="FE4" s="42"/>
-      <c r="FF4" s="42"/>
-      <c r="FG4" s="42"/>
-      <c r="FH4" s="42"/>
-      <c r="FI4" s="42"/>
-      <c r="FJ4" s="42"/>
-      <c r="FK4" s="42"/>
-      <c r="FL4" s="42"/>
-      <c r="FM4" s="42"/>
-      <c r="FN4" s="42">
+      <c r="FC4" s="44"/>
+      <c r="FD4" s="44"/>
+      <c r="FE4" s="44"/>
+      <c r="FF4" s="44"/>
+      <c r="FG4" s="44"/>
+      <c r="FH4" s="44"/>
+      <c r="FI4" s="44"/>
+      <c r="FJ4" s="44"/>
+      <c r="FK4" s="44"/>
+      <c r="FL4" s="44"/>
+      <c r="FM4" s="44"/>
+      <c r="FN4" s="44">
         <v>2017</v>
       </c>
-      <c r="FO4" s="42"/>
-      <c r="FP4" s="42"/>
-      <c r="FQ4" s="42"/>
-      <c r="FR4" s="42"/>
-      <c r="FS4" s="42"/>
-      <c r="FT4" s="42"/>
-      <c r="FU4" s="42"/>
-      <c r="FV4" s="42"/>
-      <c r="FW4" s="42"/>
-      <c r="FX4" s="42"/>
-      <c r="FY4" s="42"/>
-      <c r="FZ4" s="42">
+      <c r="FO4" s="44"/>
+      <c r="FP4" s="44"/>
+      <c r="FQ4" s="44"/>
+      <c r="FR4" s="44"/>
+      <c r="FS4" s="44"/>
+      <c r="FT4" s="44"/>
+      <c r="FU4" s="44"/>
+      <c r="FV4" s="44"/>
+      <c r="FW4" s="44"/>
+      <c r="FX4" s="44"/>
+      <c r="FY4" s="44"/>
+      <c r="FZ4" s="44">
         <v>2018</v>
       </c>
-      <c r="GA4" s="42"/>
-      <c r="GB4" s="42"/>
-      <c r="GC4" s="42"/>
-      <c r="GD4" s="42"/>
-      <c r="GE4" s="42"/>
-      <c r="GF4" s="42"/>
-      <c r="GG4" s="42"/>
-      <c r="GH4" s="42"/>
-      <c r="GI4" s="42"/>
-      <c r="GJ4" s="42"/>
-      <c r="GK4" s="42"/>
-      <c r="GL4" s="42">
+      <c r="GA4" s="44"/>
+      <c r="GB4" s="44"/>
+      <c r="GC4" s="44"/>
+      <c r="GD4" s="44"/>
+      <c r="GE4" s="44"/>
+      <c r="GF4" s="44"/>
+      <c r="GG4" s="44"/>
+      <c r="GH4" s="44"/>
+      <c r="GI4" s="44"/>
+      <c r="GJ4" s="44"/>
+      <c r="GK4" s="44"/>
+      <c r="GL4" s="44">
         <v>2019</v>
       </c>
-      <c r="GM4" s="42"/>
-      <c r="GN4" s="42"/>
-      <c r="GO4" s="42"/>
-      <c r="GP4" s="42"/>
-      <c r="GQ4" s="42"/>
-      <c r="GR4" s="42"/>
-      <c r="GS4" s="42"/>
-      <c r="GT4" s="42"/>
-      <c r="GU4" s="42"/>
-      <c r="GV4" s="42"/>
-      <c r="GW4" s="42"/>
-      <c r="GX4" s="42">
+      <c r="GM4" s="44"/>
+      <c r="GN4" s="44"/>
+      <c r="GO4" s="44"/>
+      <c r="GP4" s="44"/>
+      <c r="GQ4" s="44"/>
+      <c r="GR4" s="44"/>
+      <c r="GS4" s="44"/>
+      <c r="GT4" s="44"/>
+      <c r="GU4" s="44"/>
+      <c r="GV4" s="44"/>
+      <c r="GW4" s="44"/>
+      <c r="GX4" s="44">
         <v>2020</v>
       </c>
-      <c r="GY4" s="42"/>
-      <c r="GZ4" s="42"/>
-      <c r="HA4" s="42"/>
-      <c r="HB4" s="42"/>
-      <c r="HC4" s="42"/>
-      <c r="HD4" s="42"/>
-      <c r="HE4" s="42"/>
-      <c r="HF4" s="42"/>
-      <c r="HG4" s="42"/>
-      <c r="HH4" s="42"/>
-      <c r="HI4" s="42"/>
-      <c r="HJ4" s="42">
+      <c r="GY4" s="44"/>
+      <c r="GZ4" s="44"/>
+      <c r="HA4" s="44"/>
+      <c r="HB4" s="44"/>
+      <c r="HC4" s="44"/>
+      <c r="HD4" s="44"/>
+      <c r="HE4" s="44"/>
+      <c r="HF4" s="44"/>
+      <c r="HG4" s="44"/>
+      <c r="HH4" s="44"/>
+      <c r="HI4" s="44"/>
+      <c r="HJ4" s="44">
         <v>2021</v>
       </c>
-      <c r="HK4" s="42"/>
-      <c r="HL4" s="42"/>
-      <c r="HM4" s="42"/>
-      <c r="HN4" s="42"/>
-      <c r="HO4" s="42"/>
-      <c r="HP4" s="42"/>
-      <c r="HQ4" s="42"/>
-      <c r="HR4" s="42"/>
-      <c r="HS4" s="42"/>
-      <c r="HT4" s="42"/>
-      <c r="HU4" s="42"/>
-      <c r="HV4" s="42">
+      <c r="HK4" s="44"/>
+      <c r="HL4" s="44"/>
+      <c r="HM4" s="44"/>
+      <c r="HN4" s="44"/>
+      <c r="HO4" s="44"/>
+      <c r="HP4" s="44"/>
+      <c r="HQ4" s="44"/>
+      <c r="HR4" s="44"/>
+      <c r="HS4" s="44"/>
+      <c r="HT4" s="44"/>
+      <c r="HU4" s="44"/>
+      <c r="HV4" s="44">
         <v>2022</v>
       </c>
-      <c r="HW4" s="42"/>
-      <c r="HX4" s="42"/>
-      <c r="HY4" s="42"/>
-      <c r="HZ4" s="42"/>
-      <c r="IA4" s="42"/>
-      <c r="IB4" s="42"/>
-      <c r="IC4" s="42"/>
-      <c r="ID4" s="42"/>
-      <c r="IE4" s="42"/>
-      <c r="IF4" s="42"/>
-      <c r="IG4" s="42"/>
-      <c r="IH4" s="42">
+      <c r="HW4" s="44"/>
+      <c r="HX4" s="44"/>
+      <c r="HY4" s="44"/>
+      <c r="HZ4" s="44"/>
+      <c r="IA4" s="44"/>
+      <c r="IB4" s="44"/>
+      <c r="IC4" s="44"/>
+      <c r="ID4" s="44"/>
+      <c r="IE4" s="44"/>
+      <c r="IF4" s="44"/>
+      <c r="IG4" s="44"/>
+      <c r="IH4" s="44">
         <v>2023</v>
       </c>
-      <c r="II4" s="42"/>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="42">
+      <c r="II4" s="44"/>
+      <c r="IJ4" s="44"/>
+      <c r="IK4" s="44"/>
+      <c r="IL4" s="44"/>
+      <c r="IM4" s="44"/>
+      <c r="IN4" s="44"/>
+      <c r="IO4" s="44"/>
+      <c r="IP4" s="44"/>
+      <c r="IQ4" s="44"/>
+      <c r="IR4" s="44"/>
+      <c r="IS4" s="44"/>
+      <c r="IT4" s="44">
         <v>2024</v>
       </c>
-      <c r="IU4" s="42"/>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="43"/>
-      <c r="JF4" s="46">
+      <c r="IU4" s="44"/>
+      <c r="IV4" s="44"/>
+      <c r="IW4" s="44"/>
+      <c r="IX4" s="44"/>
+      <c r="IY4" s="44"/>
+      <c r="IZ4" s="44"/>
+      <c r="JA4" s="44"/>
+      <c r="JB4" s="44"/>
+      <c r="JC4" s="44"/>
+      <c r="JD4" s="44"/>
+      <c r="JE4" s="46"/>
+      <c r="JF4" s="49">
         <v>2025</v>
       </c>
-      <c r="JG4" s="47"/>
-      <c r="JH4" s="47"/>
-      <c r="JI4" s="47"/>
-      <c r="JJ4" s="47"/>
-      <c r="JK4" s="47"/>
-      <c r="JL4" s="47"/>
-      <c r="JM4" s="48"/>
+      <c r="JG4" s="50"/>
+      <c r="JH4" s="50"/>
+      <c r="JI4" s="50"/>
+      <c r="JJ4" s="50"/>
+      <c r="JK4" s="50"/>
+      <c r="JL4" s="50"/>
+      <c r="JM4" s="50"/>
+      <c r="JN4" s="51"/>
     </row>
-    <row r="5" spans="1:273" ht="12" customHeight="1">
+    <row r="5" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2743,11 +2806,14 @@
       <c r="JL5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="JM5" s="38" t="s">
+      <c r="JM5" s="57" t="s">
         <v>10</v>
       </c>
+      <c r="JN5" s="29" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:273" ht="12.95" customHeight="1">
+    <row r="6" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3564,11 +3630,14 @@
       <c r="JL6" s="36">
         <v>-1164.7505813493999</v>
       </c>
-      <c r="JM6" s="36">
+      <c r="JM6" s="58">
         <v>-1919.4407700290001</v>
       </c>
+      <c r="JN6" s="61">
+        <v>-2971.9161540022001</v>
+      </c>
     </row>
-    <row r="7" spans="1:273" ht="12.95" customHeight="1">
+    <row r="7" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4385,11 +4454,14 @@
       <c r="JL7" s="36">
         <v>1032.6810439636099</v>
       </c>
-      <c r="JM7" s="36">
+      <c r="JM7" s="58">
         <v>-1408.2089641384</v>
       </c>
+      <c r="JN7" s="61">
+        <v>1772.2495005148701</v>
+      </c>
     </row>
-    <row r="8" spans="1:273" ht="12.95" customHeight="1">
+    <row r="8" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5206,11 +5278,14 @@
       <c r="JL8" s="36">
         <v>2197.431625313</v>
       </c>
-      <c r="JM8" s="36">
+      <c r="JM8" s="58">
         <v>511.23180589055301</v>
       </c>
+      <c r="JN8" s="61">
+        <v>4744.1656545170899</v>
+      </c>
     </row>
-    <row r="9" spans="1:273" ht="12.95" customHeight="1">
+    <row r="9" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -6027,11 +6102,14 @@
       <c r="JL9" s="36">
         <v>-1325.2589060403</v>
       </c>
-      <c r="JM9" s="36">
+      <c r="JM9" s="58">
         <v>-474.84706043979003</v>
       </c>
+      <c r="JN9" s="61">
+        <v>-607.63143811056</v>
+      </c>
     </row>
-    <row r="10" spans="1:273" ht="12.95" customHeight="1">
+    <row r="10" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -6848,11 +6926,14 @@
       <c r="JL10" s="37">
         <v>472.63419309133201</v>
       </c>
-      <c r="JM10" s="37">
+      <c r="JM10" s="59">
         <v>1100.3124019704801</v>
       </c>
+      <c r="JN10" s="55">
+        <v>719.58440597693402</v>
+      </c>
     </row>
-    <row r="11" spans="1:273" ht="12.95" customHeight="1">
+    <row r="11" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -7669,11 +7750,14 @@
       <c r="JL11" s="37">
         <v>220.91448578793501</v>
       </c>
-      <c r="JM11" s="37">
+      <c r="JM11" s="59">
         <v>612.95974688183401</v>
       </c>
+      <c r="JN11" s="55">
+        <v>229.76544514189899</v>
+      </c>
     </row>
-    <row r="12" spans="1:273" ht="12.95" customHeight="1">
+    <row r="12" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -8490,11 +8574,14 @@
       <c r="JL12" s="37">
         <v>-118.35047562167</v>
       </c>
-      <c r="JM12" s="37">
+      <c r="JM12" s="59">
         <v>55.241848511915698</v>
       </c>
+      <c r="JN12" s="55">
+        <v>81.9569871763739</v>
+      </c>
     </row>
-    <row r="13" spans="1:273" ht="12.95" customHeight="1">
+    <row r="13" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -9311,11 +9398,14 @@
       <c r="JL13" s="37">
         <v>370.07018292506899</v>
       </c>
-      <c r="JM13" s="37">
+      <c r="JM13" s="59">
         <v>432.11080657673199</v>
       </c>
+      <c r="JN13" s="55">
+        <v>407.86197365866099</v>
+      </c>
     </row>
-    <row r="14" spans="1:273" ht="12.95" customHeight="1">
+    <row r="14" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -10132,11 +10222,14 @@
       <c r="JL14" s="37">
         <v>1797.8930991316199</v>
       </c>
-      <c r="JM14" s="37">
+      <c r="JM14" s="59">
         <v>1575.15946241027</v>
       </c>
+      <c r="JN14" s="55">
+        <v>1327.21584408749</v>
+      </c>
     </row>
-    <row r="15" spans="1:273" ht="12.95" customHeight="1">
+    <row r="15" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -10953,11 +11046,14 @@
       <c r="JL15" s="37">
         <v>270.83298048</v>
       </c>
-      <c r="JM15" s="37">
+      <c r="JM15" s="59">
         <v>236.15871032999999</v>
       </c>
+      <c r="JN15" s="55">
+        <v>704.78169283</v>
+      </c>
     </row>
-    <row r="16" spans="1:273" ht="12.95" customHeight="1">
+    <row r="16" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -11774,11 +11870,14 @@
       <c r="JL16" s="37">
         <v>349.34999542011298</v>
       </c>
-      <c r="JM16" s="37">
+      <c r="JM16" s="59">
         <v>-18.730402518695001</v>
       </c>
+      <c r="JN16" s="55">
+        <v>78.832220302568103</v>
+      </c>
     </row>
-    <row r="17" spans="1:273" ht="12.95" customHeight="1">
+    <row r="17" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -12595,11 +12694,14 @@
       <c r="JL17" s="37">
         <v>1177.7101232315099</v>
       </c>
-      <c r="JM17" s="37">
+      <c r="JM17" s="59">
         <v>1357.7311545989601</v>
       </c>
+      <c r="JN17" s="55">
+        <v>543.60193095492605</v>
+      </c>
     </row>
-    <row r="18" spans="1:273" ht="12.95" customHeight="1">
+    <row r="18" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -13416,11 +13518,14 @@
       <c r="JL18" s="36">
         <v>-427.25580237220998</v>
       </c>
-      <c r="JM18" s="36">
+      <c r="JM18" s="58">
         <v>2227.55851521765</v>
       </c>
+      <c r="JN18" s="61">
+        <v>-833.94733879917999</v>
+      </c>
     </row>
-    <row r="19" spans="1:273" ht="12.95" customHeight="1">
+    <row r="19" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -14237,11 +14342,14 @@
       <c r="JL19" s="37">
         <v>715.55762897367799</v>
       </c>
-      <c r="JM19" s="37">
+      <c r="JM19" s="59">
         <v>1923.1547956936399</v>
       </c>
+      <c r="JN19" s="55">
+        <v>1056.5349592586399</v>
+      </c>
     </row>
-    <row r="20" spans="1:273" ht="12.95" customHeight="1">
+    <row r="20" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -15058,11 +15166,14 @@
       <c r="JL20" s="37">
         <v>999.790696781375</v>
       </c>
-      <c r="JM20" s="37">
+      <c r="JM20" s="59">
         <v>2127.3194343779301</v>
       </c>
+      <c r="JN20" s="55">
+        <v>2122.4699493612402</v>
+      </c>
     </row>
-    <row r="21" spans="1:273" ht="12.95" customHeight="1">
+    <row r="21" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -15879,11 +15990,14 @@
       <c r="JL21" s="37">
         <v>-284.23306780770002</v>
       </c>
-      <c r="JM21" s="37">
+      <c r="JM21" s="59">
         <v>-204.1646386843</v>
       </c>
+      <c r="JN21" s="55">
+        <v>-1065.9349901026001</v>
+      </c>
     </row>
-    <row r="22" spans="1:273" ht="12.95" customHeight="1">
+    <row r="22" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -16700,11 +16814,14 @@
       <c r="JL22" s="37">
         <v>111.29379635223999</v>
       </c>
-      <c r="JM22" s="37">
+      <c r="JM22" s="59">
         <v>-382.08279078236001</v>
       </c>
+      <c r="JN22" s="55">
+        <v>-455.67386542346998</v>
+      </c>
     </row>
-    <row r="23" spans="1:273" ht="12.95" customHeight="1">
+    <row r="23" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -17521,11 +17638,14 @@
       <c r="JL23" s="37">
         <v>-395.52686415993998</v>
       </c>
-      <c r="JM23" s="37">
+      <c r="JM23" s="59">
         <v>177.918152098062</v>
       </c>
+      <c r="JN23" s="55">
+        <v>-610.26112467913003</v>
+      </c>
     </row>
-    <row r="24" spans="1:273" ht="12.95" customHeight="1">
+    <row r="24" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -18342,11 +18462,14 @@
       <c r="JL24" s="37">
         <v>1142.81343134588</v>
       </c>
-      <c r="JM24" s="37">
+      <c r="JM24" s="59">
         <v>-304.40371952401</v>
       </c>
+      <c r="JN24" s="55">
+        <v>1890.4822980578199</v>
+      </c>
     </row>
-    <row r="25" spans="1:273" ht="12.95" customHeight="1">
+    <row r="25" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -19163,11 +19286,14 @@
       <c r="JL25" s="37">
         <v>-380.80764791126001</v>
       </c>
-      <c r="JM25" s="37">
+      <c r="JM25" s="59">
         <v>-455.60945480116999</v>
       </c>
+      <c r="JN25" s="55">
+        <v>-428.24830743171998</v>
+      </c>
     </row>
-    <row r="26" spans="1:273" ht="12.95" customHeight="1">
+    <row r="26" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -19984,11 +20110,14 @@
       <c r="JL26" s="37">
         <v>1523.6210792571501</v>
       </c>
-      <c r="JM26" s="37">
+      <c r="JM26" s="59">
         <v>151.20573527716101</v>
       </c>
+      <c r="JN26" s="55">
+        <v>2318.7306054895398</v>
+      </c>
     </row>
-    <row r="27" spans="1:273" ht="12.95" customHeight="1">
+    <row r="27" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -20805,11 +20934,14 @@
       <c r="JL27" s="37">
         <v>1753.3435608293701</v>
       </c>
-      <c r="JM27" s="37">
+      <c r="JM27" s="59">
         <v>108.274609560786</v>
       </c>
+      <c r="JN27" s="55">
+        <v>2089.8732521775901</v>
+      </c>
     </row>
-    <row r="28" spans="1:273" ht="12.95" customHeight="1">
+    <row r="28" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -21626,11 +21758,14 @@
       <c r="JL28" s="37">
         <v>-229.72248157223001</v>
       </c>
-      <c r="JM28" s="37">
+      <c r="JM28" s="59">
         <v>42.931125716375099</v>
       </c>
+      <c r="JN28" s="55">
+        <v>228.857353311954</v>
+      </c>
     </row>
-    <row r="29" spans="1:273" ht="12.95" customHeight="1">
+    <row r="29" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -22447,11 +22582,14 @@
       <c r="JL29" s="36">
         <v>-70.383674832493995</v>
       </c>
-      <c r="JM29" s="36">
+      <c r="JM29" s="58">
         <v>64.225654283087295</v>
       </c>
+      <c r="JN29" s="61">
+        <v>-90.921297730660996</v>
+      </c>
     </row>
-    <row r="30" spans="1:273" ht="12.95" customHeight="1">
+    <row r="30" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -23268,11 +23406,14 @@
       <c r="JL30" s="36">
         <v>597.41571908149501</v>
       </c>
-      <c r="JM30" s="36">
+      <c r="JM30" s="58">
         <v>-3814.6894653142999</v>
       </c>
+      <c r="JN30" s="61">
+        <v>-1974.8637218752999</v>
+      </c>
     </row>
-    <row r="31" spans="1:273" ht="12.95" customHeight="1">
+    <row r="31" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -24089,11 +24230,14 @@
       <c r="JL31" s="37">
         <v>1221.46585725614</v>
       </c>
-      <c r="JM31" s="37">
+      <c r="JM31" s="59">
         <v>-3258.2933649785</v>
       </c>
+      <c r="JN31" s="55">
+        <v>809.75539715548996</v>
+      </c>
     </row>
-    <row r="32" spans="1:273" ht="12.95" customHeight="1">
+    <row r="32" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -24910,11 +25054,14 @@
       <c r="JL32" s="37">
         <v>0</v>
       </c>
-      <c r="JM32" s="37">
+      <c r="JM32" s="59">
+        <v>0</v>
+      </c>
+      <c r="JN32" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:273" ht="12.95" customHeight="1">
+    <row r="33" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -25731,11 +25878,14 @@
       <c r="JL33" s="37">
         <v>-362.17993059535002</v>
       </c>
-      <c r="JM33" s="37">
+      <c r="JM33" s="59">
         <v>-258.15050846599001</v>
       </c>
+      <c r="JN33" s="55">
+        <v>477.20781141193299</v>
+      </c>
     </row>
-    <row r="34" spans="1:273" ht="12.95" customHeight="1">
+    <row r="34" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
@@ -26552,11 +26702,14 @@
       <c r="JL34" s="37">
         <v>-79.369152821048999</v>
       </c>
-      <c r="JM34" s="37">
+      <c r="JM34" s="59">
         <v>-10.359477357736001</v>
       </c>
+      <c r="JN34" s="55">
+        <v>-221.53961593992</v>
+      </c>
     </row>
-    <row r="35" spans="1:273" ht="12.95" customHeight="1">
+    <row r="35" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -27373,11 +27526,14 @@
       <c r="JL35" s="37">
         <v>1665.95138717896</v>
       </c>
-      <c r="JM35" s="37">
+      <c r="JM35" s="59">
         <v>-3022.5754368179</v>
       </c>
+      <c r="JN35" s="55">
+        <v>557.07561330063902</v>
+      </c>
     </row>
-    <row r="36" spans="1:273" ht="12.95" customHeight="1">
+    <row r="36" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -28194,11 +28350,14 @@
       <c r="JL36" s="37">
         <v>-2.9364465064142</v>
       </c>
-      <c r="JM36" s="37">
+      <c r="JM36" s="59">
         <v>32.792057663167398</v>
       </c>
+      <c r="JN36" s="55">
+        <v>-2.9884116171652999</v>
+      </c>
     </row>
-    <row r="37" spans="1:273" ht="12.95" customHeight="1">
+    <row r="37" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
@@ -29015,11 +29174,14 @@
       <c r="JL37" s="37">
         <v>624.05013817464896</v>
       </c>
-      <c r="JM37" s="37">
+      <c r="JM37" s="59">
         <v>556.396100335852</v>
       </c>
+      <c r="JN37" s="55">
+        <v>2784.6191190308</v>
+      </c>
     </row>
-    <row r="38" spans="1:273" ht="12.95" customHeight="1">
+    <row r="38" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -29836,11 +29998,14 @@
       <c r="JL38" s="37">
         <v>742.26978146436295</v>
       </c>
-      <c r="JM38" s="37">
+      <c r="JM38" s="59">
         <v>-381.62573550705002</v>
       </c>
+      <c r="JN38" s="55">
+        <v>242.54981863702301</v>
+      </c>
     </row>
-    <row r="39" spans="1:273" ht="12.95" customHeight="1">
+    <row r="39" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
@@ -30657,11 +30822,14 @@
       <c r="JL39" s="37">
         <v>409.61422487256698</v>
       </c>
-      <c r="JM39" s="37">
+      <c r="JM39" s="59">
         <v>790.43022319104102</v>
       </c>
+      <c r="JN39" s="55">
+        <v>2385.57291917168</v>
+      </c>
     </row>
-    <row r="40" spans="1:273" ht="12.95" customHeight="1">
+    <row r="40" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -31478,11 +31646,14 @@
       <c r="JL40" s="37">
         <v>-536.34803998396001</v>
       </c>
-      <c r="JM40" s="37">
+      <c r="JM40" s="59">
         <v>164.61488196080799</v>
       </c>
+      <c r="JN40" s="55">
+        <v>148.539700861402</v>
+      </c>
     </row>
-    <row r="41" spans="1:273" ht="12.95" customHeight="1">
+    <row r="41" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -32299,11 +32470,14 @@
       <c r="JL41" s="37">
         <v>3.4253000000000002E-4</v>
       </c>
-      <c r="JM41" s="37">
+      <c r="JM41" s="59">
         <v>3.5935999999999997E-4</v>
       </c>
+      <c r="JN41" s="55">
+        <v>-1.0444199999999999E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:273" ht="12.95" customHeight="1">
+    <row r="42" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -33120,11 +33294,14 @@
       <c r="JL42" s="37">
         <v>8.5138292916837894</v>
       </c>
-      <c r="JM42" s="37">
+      <c r="JM42" s="59">
         <v>-17.023628668941999</v>
       </c>
+      <c r="JN42" s="55">
+        <v>7.9577247807017502</v>
+      </c>
     </row>
-    <row r="43" spans="1:273" ht="12.95" customHeight="1">
+    <row r="43" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
@@ -33941,288 +34118,292 @@
       <c r="JL43" s="34">
         <v>60.732082814104203</v>
       </c>
-      <c r="JM43" s="34">
+      <c r="JM43" s="60">
         <v>78.311586224415507</v>
       </c>
+      <c r="JN43" s="62">
+        <v>535.44764251350205</v>
+      </c>
     </row>
-    <row r="44" spans="1:273" ht="12" customHeight="1">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="45"/>
-      <c r="AO44" s="45"/>
-      <c r="AP44" s="45"/>
-      <c r="AQ44" s="45"/>
-      <c r="AR44" s="45"/>
-      <c r="AS44" s="45"/>
-      <c r="AT44" s="45"/>
-      <c r="AU44" s="45"/>
-      <c r="AV44" s="45"/>
-      <c r="AW44" s="45"/>
-      <c r="AX44" s="45"/>
-      <c r="AY44" s="45"/>
-      <c r="AZ44" s="45"/>
-      <c r="BA44" s="45"/>
-      <c r="BB44" s="45"/>
-      <c r="BC44" s="45"/>
-      <c r="BD44" s="45"/>
-      <c r="BE44" s="45"/>
-      <c r="BF44" s="45"/>
-      <c r="BG44" s="45"/>
-      <c r="BH44" s="45"/>
-      <c r="BI44" s="45"/>
-      <c r="BJ44" s="45"/>
-      <c r="BK44" s="45"/>
-      <c r="BL44" s="45"/>
-      <c r="BM44" s="45"/>
-      <c r="BN44" s="45"/>
-      <c r="BO44" s="45"/>
-      <c r="BP44" s="45"/>
-      <c r="BQ44" s="45"/>
-      <c r="BR44" s="45"/>
-      <c r="BS44" s="45"/>
-      <c r="BT44" s="45"/>
-      <c r="BU44" s="45"/>
-      <c r="BV44" s="45"/>
-      <c r="BW44" s="45"/>
-      <c r="BX44" s="45"/>
-      <c r="BY44" s="45"/>
-      <c r="BZ44" s="45"/>
-      <c r="CA44" s="45"/>
-      <c r="CB44" s="45"/>
-      <c r="CC44" s="45"/>
-      <c r="CD44" s="45"/>
-      <c r="CE44" s="45"/>
-      <c r="CF44" s="45"/>
-      <c r="CG44" s="45"/>
-      <c r="CH44" s="45"/>
-      <c r="CI44" s="45"/>
-      <c r="CJ44" s="45"/>
-      <c r="CK44" s="45"/>
-      <c r="CL44" s="45"/>
-      <c r="CM44" s="45"/>
-      <c r="CN44" s="45"/>
-      <c r="CO44" s="45"/>
-      <c r="CP44" s="45"/>
-      <c r="CQ44" s="45"/>
-      <c r="CR44" s="45"/>
-      <c r="CS44" s="45"/>
-      <c r="CT44" s="45"/>
-      <c r="CU44" s="45"/>
-      <c r="CV44" s="45"/>
-      <c r="CW44" s="45"/>
-      <c r="CX44" s="45"/>
-      <c r="CY44" s="45"/>
-      <c r="CZ44" s="45"/>
-      <c r="DA44" s="45"/>
-      <c r="DB44" s="45"/>
-      <c r="DC44" s="45"/>
-      <c r="DD44" s="45"/>
-      <c r="DE44" s="45"/>
-      <c r="DF44" s="45"/>
-      <c r="DG44" s="45"/>
-      <c r="DH44" s="45"/>
-      <c r="DI44" s="45"/>
-      <c r="DJ44" s="45"/>
-      <c r="DK44" s="45"/>
-      <c r="DL44" s="45"/>
-      <c r="DM44" s="45"/>
-      <c r="DN44" s="45"/>
-      <c r="DO44" s="45"/>
-      <c r="DP44" s="45"/>
-      <c r="DQ44" s="45"/>
-      <c r="DR44" s="45"/>
-      <c r="DS44" s="45"/>
-      <c r="DT44" s="45"/>
-      <c r="DU44" s="45"/>
-      <c r="DV44" s="45"/>
-      <c r="DW44" s="45"/>
-      <c r="DX44" s="45"/>
-      <c r="DY44" s="45"/>
-      <c r="DZ44" s="45"/>
-      <c r="EA44" s="45"/>
-      <c r="EB44" s="45"/>
-      <c r="EC44" s="45"/>
-      <c r="ED44" s="45"/>
-      <c r="EE44" s="45"/>
-      <c r="EF44" s="45"/>
-      <c r="EG44" s="45"/>
-      <c r="EH44" s="45"/>
-      <c r="EI44" s="45"/>
-      <c r="EJ44" s="45"/>
-      <c r="EK44" s="45"/>
-      <c r="EL44" s="45"/>
-      <c r="EM44" s="45"/>
-      <c r="EN44" s="45"/>
-      <c r="EO44" s="45"/>
-      <c r="EP44" s="45"/>
-      <c r="EQ44" s="45"/>
-      <c r="ER44" s="45"/>
-      <c r="ES44" s="45"/>
-      <c r="ET44" s="45"/>
-      <c r="EU44" s="45"/>
-      <c r="EV44" s="45"/>
-      <c r="EW44" s="45"/>
-      <c r="EX44" s="45"/>
-      <c r="EY44" s="45"/>
-      <c r="EZ44" s="45"/>
-      <c r="FA44" s="45"/>
-      <c r="FB44" s="45"/>
-      <c r="FC44" s="45"/>
-      <c r="FD44" s="45"/>
-      <c r="FE44" s="45"/>
-      <c r="FF44" s="45"/>
-      <c r="FG44" s="45"/>
-      <c r="FH44" s="45"/>
-      <c r="FI44" s="45"/>
-      <c r="FJ44" s="45"/>
-      <c r="FK44" s="45"/>
-      <c r="FL44" s="45"/>
-      <c r="FM44" s="45"/>
-      <c r="FN44" s="45"/>
-      <c r="FO44" s="45"/>
-      <c r="FP44" s="45"/>
-      <c r="FQ44" s="45"/>
-      <c r="FR44" s="45"/>
-      <c r="FS44" s="45"/>
-      <c r="FT44" s="45"/>
-      <c r="FU44" s="45"/>
-      <c r="FV44" s="45"/>
-      <c r="FW44" s="45"/>
-      <c r="FX44" s="45"/>
-      <c r="FY44" s="45"/>
-      <c r="FZ44" s="45"/>
-      <c r="GA44" s="45"/>
-      <c r="GB44" s="45"/>
-      <c r="GC44" s="45"/>
-      <c r="GD44" s="45"/>
-      <c r="GE44" s="45"/>
-      <c r="GF44" s="45"/>
-      <c r="GG44" s="45"/>
-      <c r="GH44" s="45"/>
-      <c r="GI44" s="45"/>
-      <c r="GJ44" s="45"/>
-      <c r="GK44" s="45"/>
-      <c r="GL44" s="45"/>
-      <c r="GM44" s="45"/>
-      <c r="GN44" s="45"/>
-      <c r="GO44" s="45"/>
-      <c r="GP44" s="45"/>
-      <c r="GQ44" s="45"/>
-      <c r="GR44" s="45"/>
-      <c r="GS44" s="45"/>
-      <c r="GT44" s="45"/>
-      <c r="GU44" s="45"/>
-      <c r="GV44" s="45"/>
-      <c r="GW44" s="45"/>
-      <c r="GX44" s="45"/>
-      <c r="GY44" s="45"/>
-      <c r="GZ44" s="45"/>
-      <c r="HA44" s="45"/>
-      <c r="HB44" s="45"/>
-      <c r="HC44" s="45"/>
-      <c r="HD44" s="45"/>
-      <c r="HE44" s="45"/>
-      <c r="HF44" s="45"/>
-      <c r="HG44" s="45"/>
-      <c r="HH44" s="45"/>
-      <c r="HI44" s="45"/>
-      <c r="HJ44" s="45"/>
-      <c r="HK44" s="45"/>
-      <c r="HL44" s="45"/>
-      <c r="HM44" s="45"/>
-      <c r="HN44" s="45"/>
-      <c r="HO44" s="45"/>
-      <c r="HP44" s="45"/>
-      <c r="HQ44" s="45"/>
-      <c r="HR44" s="45"/>
-      <c r="HS44" s="45"/>
-      <c r="HT44" s="45"/>
-      <c r="HU44" s="45"/>
-      <c r="HV44" s="45"/>
-      <c r="HW44" s="45"/>
-      <c r="HX44" s="45"/>
-      <c r="HY44" s="45"/>
-      <c r="HZ44" s="45"/>
-      <c r="IA44" s="45"/>
-      <c r="IB44" s="45"/>
-      <c r="IC44" s="45"/>
-      <c r="ID44" s="45"/>
-      <c r="IE44" s="45"/>
-      <c r="IF44" s="45"/>
-      <c r="IG44" s="45"/>
-      <c r="IH44" s="45"/>
-      <c r="II44" s="45"/>
-      <c r="IJ44" s="45"/>
-      <c r="IK44" s="45"/>
-      <c r="IL44" s="45"/>
-      <c r="IM44" s="45"/>
-      <c r="IN44" s="45"/>
-      <c r="IO44" s="45"/>
-      <c r="IP44" s="45"/>
-      <c r="IQ44" s="45"/>
-      <c r="IR44" s="45"/>
-      <c r="IS44" s="45"/>
-      <c r="IT44" s="45"/>
-      <c r="IU44" s="45"/>
-      <c r="IV44" s="45"/>
-      <c r="IW44" s="45"/>
-      <c r="IX44" s="45"/>
-      <c r="IY44" s="45"/>
-      <c r="IZ44" s="45"/>
-      <c r="JA44" s="45"/>
-      <c r="JB44" s="45"/>
-      <c r="JC44" s="45"/>
-      <c r="JD44" s="45"/>
-      <c r="JE44" s="45"/>
-      <c r="JF44" s="45"/>
-      <c r="JG44" s="45"/>
-      <c r="JH44" s="45"/>
-      <c r="JI44" s="45"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="48"/>
+      <c r="AH44" s="48"/>
+      <c r="AI44" s="48"/>
+      <c r="AJ44" s="48"/>
+      <c r="AK44" s="48"/>
+      <c r="AL44" s="48"/>
+      <c r="AM44" s="48"/>
+      <c r="AN44" s="48"/>
+      <c r="AO44" s="48"/>
+      <c r="AP44" s="48"/>
+      <c r="AQ44" s="48"/>
+      <c r="AR44" s="48"/>
+      <c r="AS44" s="48"/>
+      <c r="AT44" s="48"/>
+      <c r="AU44" s="48"/>
+      <c r="AV44" s="48"/>
+      <c r="AW44" s="48"/>
+      <c r="AX44" s="48"/>
+      <c r="AY44" s="48"/>
+      <c r="AZ44" s="48"/>
+      <c r="BA44" s="48"/>
+      <c r="BB44" s="48"/>
+      <c r="BC44" s="48"/>
+      <c r="BD44" s="48"/>
+      <c r="BE44" s="48"/>
+      <c r="BF44" s="48"/>
+      <c r="BG44" s="48"/>
+      <c r="BH44" s="48"/>
+      <c r="BI44" s="48"/>
+      <c r="BJ44" s="48"/>
+      <c r="BK44" s="48"/>
+      <c r="BL44" s="48"/>
+      <c r="BM44" s="48"/>
+      <c r="BN44" s="48"/>
+      <c r="BO44" s="48"/>
+      <c r="BP44" s="48"/>
+      <c r="BQ44" s="48"/>
+      <c r="BR44" s="48"/>
+      <c r="BS44" s="48"/>
+      <c r="BT44" s="48"/>
+      <c r="BU44" s="48"/>
+      <c r="BV44" s="48"/>
+      <c r="BW44" s="48"/>
+      <c r="BX44" s="48"/>
+      <c r="BY44" s="48"/>
+      <c r="BZ44" s="48"/>
+      <c r="CA44" s="48"/>
+      <c r="CB44" s="48"/>
+      <c r="CC44" s="48"/>
+      <c r="CD44" s="48"/>
+      <c r="CE44" s="48"/>
+      <c r="CF44" s="48"/>
+      <c r="CG44" s="48"/>
+      <c r="CH44" s="48"/>
+      <c r="CI44" s="48"/>
+      <c r="CJ44" s="48"/>
+      <c r="CK44" s="48"/>
+      <c r="CL44" s="48"/>
+      <c r="CM44" s="48"/>
+      <c r="CN44" s="48"/>
+      <c r="CO44" s="48"/>
+      <c r="CP44" s="48"/>
+      <c r="CQ44" s="48"/>
+      <c r="CR44" s="48"/>
+      <c r="CS44" s="48"/>
+      <c r="CT44" s="48"/>
+      <c r="CU44" s="48"/>
+      <c r="CV44" s="48"/>
+      <c r="CW44" s="48"/>
+      <c r="CX44" s="48"/>
+      <c r="CY44" s="48"/>
+      <c r="CZ44" s="48"/>
+      <c r="DA44" s="48"/>
+      <c r="DB44" s="48"/>
+      <c r="DC44" s="48"/>
+      <c r="DD44" s="48"/>
+      <c r="DE44" s="48"/>
+      <c r="DF44" s="48"/>
+      <c r="DG44" s="48"/>
+      <c r="DH44" s="48"/>
+      <c r="DI44" s="48"/>
+      <c r="DJ44" s="48"/>
+      <c r="DK44" s="48"/>
+      <c r="DL44" s="48"/>
+      <c r="DM44" s="48"/>
+      <c r="DN44" s="48"/>
+      <c r="DO44" s="48"/>
+      <c r="DP44" s="48"/>
+      <c r="DQ44" s="48"/>
+      <c r="DR44" s="48"/>
+      <c r="DS44" s="48"/>
+      <c r="DT44" s="48"/>
+      <c r="DU44" s="48"/>
+      <c r="DV44" s="48"/>
+      <c r="DW44" s="48"/>
+      <c r="DX44" s="48"/>
+      <c r="DY44" s="48"/>
+      <c r="DZ44" s="48"/>
+      <c r="EA44" s="48"/>
+      <c r="EB44" s="48"/>
+      <c r="EC44" s="48"/>
+      <c r="ED44" s="48"/>
+      <c r="EE44" s="48"/>
+      <c r="EF44" s="48"/>
+      <c r="EG44" s="48"/>
+      <c r="EH44" s="48"/>
+      <c r="EI44" s="48"/>
+      <c r="EJ44" s="48"/>
+      <c r="EK44" s="48"/>
+      <c r="EL44" s="48"/>
+      <c r="EM44" s="48"/>
+      <c r="EN44" s="48"/>
+      <c r="EO44" s="48"/>
+      <c r="EP44" s="48"/>
+      <c r="EQ44" s="48"/>
+      <c r="ER44" s="48"/>
+      <c r="ES44" s="48"/>
+      <c r="ET44" s="48"/>
+      <c r="EU44" s="48"/>
+      <c r="EV44" s="48"/>
+      <c r="EW44" s="48"/>
+      <c r="EX44" s="48"/>
+      <c r="EY44" s="48"/>
+      <c r="EZ44" s="48"/>
+      <c r="FA44" s="48"/>
+      <c r="FB44" s="48"/>
+      <c r="FC44" s="48"/>
+      <c r="FD44" s="48"/>
+      <c r="FE44" s="48"/>
+      <c r="FF44" s="48"/>
+      <c r="FG44" s="48"/>
+      <c r="FH44" s="48"/>
+      <c r="FI44" s="48"/>
+      <c r="FJ44" s="48"/>
+      <c r="FK44" s="48"/>
+      <c r="FL44" s="48"/>
+      <c r="FM44" s="48"/>
+      <c r="FN44" s="48"/>
+      <c r="FO44" s="48"/>
+      <c r="FP44" s="48"/>
+      <c r="FQ44" s="48"/>
+      <c r="FR44" s="48"/>
+      <c r="FS44" s="48"/>
+      <c r="FT44" s="48"/>
+      <c r="FU44" s="48"/>
+      <c r="FV44" s="48"/>
+      <c r="FW44" s="48"/>
+      <c r="FX44" s="48"/>
+      <c r="FY44" s="48"/>
+      <c r="FZ44" s="48"/>
+      <c r="GA44" s="48"/>
+      <c r="GB44" s="48"/>
+      <c r="GC44" s="48"/>
+      <c r="GD44" s="48"/>
+      <c r="GE44" s="48"/>
+      <c r="GF44" s="48"/>
+      <c r="GG44" s="48"/>
+      <c r="GH44" s="48"/>
+      <c r="GI44" s="48"/>
+      <c r="GJ44" s="48"/>
+      <c r="GK44" s="48"/>
+      <c r="GL44" s="48"/>
+      <c r="GM44" s="48"/>
+      <c r="GN44" s="48"/>
+      <c r="GO44" s="48"/>
+      <c r="GP44" s="48"/>
+      <c r="GQ44" s="48"/>
+      <c r="GR44" s="48"/>
+      <c r="GS44" s="48"/>
+      <c r="GT44" s="48"/>
+      <c r="GU44" s="48"/>
+      <c r="GV44" s="48"/>
+      <c r="GW44" s="48"/>
+      <c r="GX44" s="48"/>
+      <c r="GY44" s="48"/>
+      <c r="GZ44" s="48"/>
+      <c r="HA44" s="48"/>
+      <c r="HB44" s="48"/>
+      <c r="HC44" s="48"/>
+      <c r="HD44" s="48"/>
+      <c r="HE44" s="48"/>
+      <c r="HF44" s="48"/>
+      <c r="HG44" s="48"/>
+      <c r="HH44" s="48"/>
+      <c r="HI44" s="48"/>
+      <c r="HJ44" s="48"/>
+      <c r="HK44" s="48"/>
+      <c r="HL44" s="48"/>
+      <c r="HM44" s="48"/>
+      <c r="HN44" s="48"/>
+      <c r="HO44" s="48"/>
+      <c r="HP44" s="48"/>
+      <c r="HQ44" s="48"/>
+      <c r="HR44" s="48"/>
+      <c r="HS44" s="48"/>
+      <c r="HT44" s="48"/>
+      <c r="HU44" s="48"/>
+      <c r="HV44" s="48"/>
+      <c r="HW44" s="48"/>
+      <c r="HX44" s="48"/>
+      <c r="HY44" s="48"/>
+      <c r="HZ44" s="48"/>
+      <c r="IA44" s="48"/>
+      <c r="IB44" s="48"/>
+      <c r="IC44" s="48"/>
+      <c r="ID44" s="48"/>
+      <c r="IE44" s="48"/>
+      <c r="IF44" s="48"/>
+      <c r="IG44" s="48"/>
+      <c r="IH44" s="48"/>
+      <c r="II44" s="48"/>
+      <c r="IJ44" s="48"/>
+      <c r="IK44" s="48"/>
+      <c r="IL44" s="48"/>
+      <c r="IM44" s="48"/>
+      <c r="IN44" s="48"/>
+      <c r="IO44" s="48"/>
+      <c r="IP44" s="48"/>
+      <c r="IQ44" s="48"/>
+      <c r="IR44" s="48"/>
+      <c r="IS44" s="48"/>
+      <c r="IT44" s="48"/>
+      <c r="IU44" s="48"/>
+      <c r="IV44" s="48"/>
+      <c r="IW44" s="48"/>
+      <c r="IX44" s="48"/>
+      <c r="IY44" s="48"/>
+      <c r="IZ44" s="48"/>
+      <c r="JA44" s="48"/>
+      <c r="JB44" s="48"/>
+      <c r="JC44" s="48"/>
+      <c r="JD44" s="48"/>
+      <c r="JE44" s="48"/>
+      <c r="JF44" s="48"/>
+      <c r="JG44" s="48"/>
+      <c r="JH44" s="48"/>
+      <c r="JI44" s="48"/>
       <c r="JJ44" s="10"/>
       <c r="JK44"/>
       <c r="JL44" s="39"/>
       <c r="JM44" s="40"/>
+      <c r="JN44"/>
     </row>
-    <row r="45" spans="1:273" ht="12.95" customHeight="1">
+    <row r="45" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
@@ -35042,8 +35223,11 @@
       <c r="JM45" s="21">
         <v>-1997.7523562534</v>
       </c>
+      <c r="JN45" s="54">
+        <v>-3507.3637965157</v>
+      </c>
     </row>
-    <row r="46" spans="1:273" ht="12.95" customHeight="1">
+    <row r="46" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -35863,8 +36047,11 @@
       <c r="JM46" s="23">
         <v>-304.40371952401</v>
       </c>
+      <c r="JN46" s="55">
+        <v>1890.4822980578199</v>
+      </c>
     </row>
-    <row r="47" spans="1:273" ht="12.95" customHeight="1">
+    <row r="47" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
@@ -36684,8 +36871,11 @@
       <c r="JM47" s="23">
         <v>151.20573527716101</v>
       </c>
+      <c r="JN47" s="55">
+        <v>2318.7306054895398</v>
+      </c>
     </row>
-    <row r="48" spans="1:273" ht="12.95" customHeight="1">
+    <row r="48" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -37289,8 +37479,11 @@
       <c r="JM48" s="23">
         <v>104.883565300762</v>
       </c>
+      <c r="JN48" s="55">
+        <v>757.95289213666399</v>
+      </c>
     </row>
-    <row r="49" spans="1:273" ht="12.95" customHeight="1">
+    <row r="49" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -37894,8 +38087,11 @@
       <c r="JM49" s="23">
         <v>46.322169976399401</v>
       </c>
+      <c r="JN49" s="55">
+        <v>1560.77771335287</v>
+      </c>
     </row>
-    <row r="50" spans="1:273" ht="12.95" customHeight="1">
+    <row r="50" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
@@ -38715,8 +38911,11 @@
       <c r="JM50" s="23">
         <v>-455.60945480116999</v>
       </c>
+      <c r="JN50" s="55">
+        <v>-428.24830743171998</v>
+      </c>
     </row>
-    <row r="51" spans="1:273" ht="12.95" customHeight="1">
+    <row r="51" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -39536,8 +39735,11 @@
       <c r="JM51" s="23">
         <v>-462.27644498081997</v>
       </c>
+      <c r="JN51" s="55">
+        <v>-724.30363879654999</v>
+      </c>
     </row>
-    <row r="52" spans="1:273" ht="12.95" customHeight="1">
+    <row r="52" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>46</v>
       </c>
@@ -40357,286 +40559,301 @@
       <c r="JM52" s="25">
         <v>6.6669901796447801</v>
       </c>
+      <c r="JN52" s="56">
+        <v>296.055331364832</v>
+      </c>
     </row>
-    <row r="54" spans="1:273" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:274" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="41"/>
-      <c r="AG54" s="41"/>
-      <c r="AH54" s="41"/>
-      <c r="AI54" s="41"/>
-      <c r="AJ54" s="41"/>
-      <c r="AK54" s="41"/>
-      <c r="AL54" s="41"/>
-      <c r="AM54" s="41"/>
-      <c r="AN54" s="41"/>
-      <c r="AO54" s="41"/>
-      <c r="AP54" s="41"/>
-      <c r="AQ54" s="41"/>
-      <c r="AR54" s="41"/>
-      <c r="AS54" s="41"/>
-      <c r="AT54" s="41"/>
-      <c r="AU54" s="41"/>
-      <c r="AV54" s="41"/>
-      <c r="AW54" s="41"/>
-      <c r="AX54" s="41"/>
-      <c r="AY54" s="41"/>
-      <c r="AZ54" s="41"/>
-      <c r="BA54" s="41"/>
-      <c r="BB54" s="41"/>
-      <c r="BC54" s="41"/>
-      <c r="BD54" s="41"/>
-      <c r="BE54" s="41"/>
-      <c r="BF54" s="41"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="41"/>
-      <c r="BI54" s="41"/>
-      <c r="BJ54" s="41"/>
-      <c r="BK54" s="41"/>
-      <c r="BL54" s="41"/>
-      <c r="BM54" s="41"/>
-      <c r="BN54" s="41"/>
-      <c r="BO54" s="41"/>
-      <c r="BP54" s="41"/>
-      <c r="BQ54" s="41"/>
-      <c r="BR54" s="41"/>
-      <c r="BS54" s="41"/>
-      <c r="BT54" s="41"/>
-      <c r="BU54" s="41"/>
-      <c r="BV54" s="41"/>
-      <c r="BW54" s="41"/>
-      <c r="BX54" s="41"/>
-      <c r="BY54" s="41"/>
-      <c r="BZ54" s="41"/>
-      <c r="CA54" s="41"/>
-      <c r="CB54" s="41"/>
-      <c r="CC54" s="41"/>
-      <c r="CD54" s="41"/>
-      <c r="CE54" s="41"/>
-      <c r="CF54" s="41"/>
-      <c r="CG54" s="41"/>
-      <c r="CH54" s="41"/>
-      <c r="CI54" s="41"/>
-      <c r="CJ54" s="41"/>
-      <c r="CK54" s="41"/>
-      <c r="CL54" s="41"/>
-      <c r="CM54" s="41"/>
-      <c r="CN54" s="41"/>
-      <c r="CO54" s="41"/>
-      <c r="CP54" s="41"/>
-      <c r="CQ54" s="41"/>
-      <c r="CR54" s="41"/>
-      <c r="CS54" s="41"/>
-      <c r="CT54" s="41"/>
-      <c r="CU54" s="41"/>
-      <c r="CV54" s="41"/>
-      <c r="CW54" s="41"/>
-      <c r="CX54" s="41"/>
-      <c r="CY54" s="41"/>
-      <c r="CZ54" s="41"/>
-      <c r="DA54" s="41"/>
-      <c r="DB54" s="41"/>
-      <c r="DC54" s="41"/>
-      <c r="DD54" s="41"/>
-      <c r="DE54" s="41"/>
-      <c r="DF54" s="41"/>
-      <c r="DG54" s="41"/>
-      <c r="DH54" s="41"/>
-      <c r="DI54" s="41"/>
-      <c r="DJ54" s="41"/>
-      <c r="DK54" s="41"/>
-      <c r="DL54" s="41"/>
-      <c r="DM54" s="41"/>
-      <c r="DN54" s="41"/>
-      <c r="DO54" s="41"/>
-      <c r="DP54" s="41"/>
-      <c r="DQ54" s="41"/>
-      <c r="DR54" s="41"/>
-      <c r="DS54" s="41"/>
-      <c r="DT54" s="41"/>
-      <c r="DU54" s="41"/>
-      <c r="DV54" s="41"/>
-      <c r="DW54" s="41"/>
-      <c r="DX54" s="41"/>
-      <c r="DY54" s="41"/>
-      <c r="DZ54" s="41"/>
-      <c r="EA54" s="41"/>
-      <c r="EB54" s="41"/>
-      <c r="EC54" s="41"/>
-      <c r="ED54" s="41"/>
-      <c r="EE54" s="41"/>
-      <c r="EF54" s="41"/>
-      <c r="EG54" s="41"/>
-      <c r="EH54" s="41"/>
-      <c r="EI54" s="41"/>
-      <c r="EJ54" s="41"/>
-      <c r="EK54" s="41"/>
-      <c r="EL54" s="41"/>
-      <c r="EM54" s="41"/>
-      <c r="EN54" s="41"/>
-      <c r="EO54" s="41"/>
-      <c r="EP54" s="41"/>
-      <c r="EQ54" s="41"/>
-      <c r="ER54" s="41"/>
-      <c r="ES54" s="41"/>
-      <c r="ET54" s="41"/>
-      <c r="EU54" s="41"/>
-      <c r="EV54" s="41"/>
-      <c r="EW54" s="41"/>
-      <c r="EX54" s="41"/>
-      <c r="EY54" s="41"/>
-      <c r="EZ54" s="41"/>
-      <c r="FA54" s="41"/>
-      <c r="FB54" s="41"/>
-      <c r="FC54" s="41"/>
-      <c r="FD54" s="41"/>
-      <c r="FE54" s="41"/>
-      <c r="FF54" s="41"/>
-      <c r="FG54" s="41"/>
-      <c r="FH54" s="41"/>
-      <c r="FI54" s="41"/>
-      <c r="FJ54" s="41"/>
-      <c r="FK54" s="41"/>
-      <c r="FL54" s="41"/>
-      <c r="FM54" s="41"/>
-      <c r="FN54" s="41"/>
-      <c r="FO54" s="41"/>
-      <c r="FP54" s="41"/>
-      <c r="FQ54" s="41"/>
-      <c r="FR54" s="41"/>
-      <c r="FS54" s="41"/>
-      <c r="FT54" s="41"/>
-      <c r="FU54" s="41"/>
-      <c r="FV54" s="41"/>
-      <c r="FW54" s="41"/>
-      <c r="FX54" s="41"/>
-      <c r="FY54" s="41"/>
-      <c r="FZ54" s="41"/>
-      <c r="GA54" s="41"/>
-      <c r="GB54" s="41"/>
-      <c r="GC54" s="41"/>
-      <c r="GD54" s="41"/>
-      <c r="GE54" s="41"/>
-      <c r="GF54" s="41"/>
-      <c r="GG54" s="41"/>
-      <c r="GH54" s="41"/>
-      <c r="GI54" s="41"/>
-      <c r="GJ54" s="41"/>
-      <c r="GK54" s="41"/>
-      <c r="GL54" s="41"/>
-      <c r="GM54" s="41"/>
-      <c r="GN54" s="41"/>
-      <c r="GO54" s="41"/>
-      <c r="GP54" s="41"/>
-      <c r="GQ54" s="41"/>
-      <c r="GR54" s="41"/>
-      <c r="GS54" s="41"/>
-      <c r="GT54" s="41"/>
-      <c r="GU54" s="41"/>
-      <c r="GV54" s="41"/>
-      <c r="GW54" s="41"/>
-      <c r="GX54" s="41"/>
-      <c r="GY54" s="41"/>
-      <c r="GZ54" s="41"/>
-      <c r="HA54" s="41"/>
-      <c r="HB54" s="41"/>
-      <c r="HC54" s="41"/>
-      <c r="HD54" s="41"/>
-      <c r="HE54" s="41"/>
-      <c r="HF54" s="41"/>
-      <c r="HG54" s="41"/>
-      <c r="HH54" s="41"/>
-      <c r="HI54" s="41"/>
-      <c r="HJ54" s="41"/>
-      <c r="HK54" s="41"/>
-      <c r="HL54" s="41"/>
-      <c r="HM54" s="41"/>
-      <c r="HN54" s="41"/>
-      <c r="HO54" s="41"/>
-      <c r="HP54" s="41"/>
-      <c r="HQ54" s="41"/>
-      <c r="HR54" s="41"/>
-      <c r="HS54" s="41"/>
-      <c r="HT54" s="41"/>
-      <c r="HU54" s="41"/>
-      <c r="HV54" s="41"/>
-      <c r="HW54" s="41"/>
-      <c r="HX54" s="41"/>
-      <c r="HY54" s="41"/>
-      <c r="HZ54" s="41"/>
-      <c r="IA54" s="41"/>
-      <c r="IB54" s="41"/>
-      <c r="IC54" s="41"/>
-      <c r="ID54" s="41"/>
-      <c r="IE54" s="41"/>
-      <c r="IF54" s="41"/>
-      <c r="IG54" s="41"/>
-      <c r="IH54" s="41"/>
-      <c r="II54" s="41"/>
-      <c r="IJ54" s="41"/>
-      <c r="IK54" s="41"/>
-      <c r="IL54" s="41"/>
-      <c r="IM54" s="41"/>
-      <c r="IN54" s="41"/>
-      <c r="IO54" s="41"/>
-      <c r="IP54" s="41"/>
-      <c r="IQ54" s="41"/>
-      <c r="IR54" s="41"/>
-      <c r="IS54" s="41"/>
-      <c r="IT54" s="41"/>
-      <c r="IU54" s="41"/>
-      <c r="IV54" s="41"/>
-      <c r="IW54" s="41"/>
-      <c r="IX54" s="41"/>
-      <c r="IY54" s="41"/>
-      <c r="IZ54" s="41"/>
-      <c r="JA54" s="41"/>
-      <c r="JB54" s="41"/>
-      <c r="JC54" s="41"/>
-      <c r="JD54" s="41"/>
-      <c r="JE54" s="41"/>
-      <c r="JF54" s="41"/>
-      <c r="JG54" s="41"/>
-      <c r="JH54" s="41"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="45"/>
+      <c r="AH54" s="45"/>
+      <c r="AI54" s="45"/>
+      <c r="AJ54" s="45"/>
+      <c r="AK54" s="45"/>
+      <c r="AL54" s="45"/>
+      <c r="AM54" s="45"/>
+      <c r="AN54" s="45"/>
+      <c r="AO54" s="45"/>
+      <c r="AP54" s="45"/>
+      <c r="AQ54" s="45"/>
+      <c r="AR54" s="45"/>
+      <c r="AS54" s="45"/>
+      <c r="AT54" s="45"/>
+      <c r="AU54" s="45"/>
+      <c r="AV54" s="45"/>
+      <c r="AW54" s="45"/>
+      <c r="AX54" s="45"/>
+      <c r="AY54" s="45"/>
+      <c r="AZ54" s="45"/>
+      <c r="BA54" s="45"/>
+      <c r="BB54" s="45"/>
+      <c r="BC54" s="45"/>
+      <c r="BD54" s="45"/>
+      <c r="BE54" s="45"/>
+      <c r="BF54" s="45"/>
+      <c r="BG54" s="45"/>
+      <c r="BH54" s="45"/>
+      <c r="BI54" s="45"/>
+      <c r="BJ54" s="45"/>
+      <c r="BK54" s="45"/>
+      <c r="BL54" s="45"/>
+      <c r="BM54" s="45"/>
+      <c r="BN54" s="45"/>
+      <c r="BO54" s="45"/>
+      <c r="BP54" s="45"/>
+      <c r="BQ54" s="45"/>
+      <c r="BR54" s="45"/>
+      <c r="BS54" s="45"/>
+      <c r="BT54" s="45"/>
+      <c r="BU54" s="45"/>
+      <c r="BV54" s="45"/>
+      <c r="BW54" s="45"/>
+      <c r="BX54" s="45"/>
+      <c r="BY54" s="45"/>
+      <c r="BZ54" s="45"/>
+      <c r="CA54" s="45"/>
+      <c r="CB54" s="45"/>
+      <c r="CC54" s="45"/>
+      <c r="CD54" s="45"/>
+      <c r="CE54" s="45"/>
+      <c r="CF54" s="45"/>
+      <c r="CG54" s="45"/>
+      <c r="CH54" s="45"/>
+      <c r="CI54" s="45"/>
+      <c r="CJ54" s="45"/>
+      <c r="CK54" s="45"/>
+      <c r="CL54" s="45"/>
+      <c r="CM54" s="45"/>
+      <c r="CN54" s="45"/>
+      <c r="CO54" s="45"/>
+      <c r="CP54" s="45"/>
+      <c r="CQ54" s="45"/>
+      <c r="CR54" s="45"/>
+      <c r="CS54" s="45"/>
+      <c r="CT54" s="45"/>
+      <c r="CU54" s="45"/>
+      <c r="CV54" s="45"/>
+      <c r="CW54" s="45"/>
+      <c r="CX54" s="45"/>
+      <c r="CY54" s="45"/>
+      <c r="CZ54" s="45"/>
+      <c r="DA54" s="45"/>
+      <c r="DB54" s="45"/>
+      <c r="DC54" s="45"/>
+      <c r="DD54" s="45"/>
+      <c r="DE54" s="45"/>
+      <c r="DF54" s="45"/>
+      <c r="DG54" s="45"/>
+      <c r="DH54" s="45"/>
+      <c r="DI54" s="45"/>
+      <c r="DJ54" s="45"/>
+      <c r="DK54" s="45"/>
+      <c r="DL54" s="45"/>
+      <c r="DM54" s="45"/>
+      <c r="DN54" s="45"/>
+      <c r="DO54" s="45"/>
+      <c r="DP54" s="45"/>
+      <c r="DQ54" s="45"/>
+      <c r="DR54" s="45"/>
+      <c r="DS54" s="45"/>
+      <c r="DT54" s="45"/>
+      <c r="DU54" s="45"/>
+      <c r="DV54" s="45"/>
+      <c r="DW54" s="45"/>
+      <c r="DX54" s="45"/>
+      <c r="DY54" s="45"/>
+      <c r="DZ54" s="45"/>
+      <c r="EA54" s="45"/>
+      <c r="EB54" s="45"/>
+      <c r="EC54" s="45"/>
+      <c r="ED54" s="45"/>
+      <c r="EE54" s="45"/>
+      <c r="EF54" s="45"/>
+      <c r="EG54" s="45"/>
+      <c r="EH54" s="45"/>
+      <c r="EI54" s="45"/>
+      <c r="EJ54" s="45"/>
+      <c r="EK54" s="45"/>
+      <c r="EL54" s="45"/>
+      <c r="EM54" s="45"/>
+      <c r="EN54" s="45"/>
+      <c r="EO54" s="45"/>
+      <c r="EP54" s="45"/>
+      <c r="EQ54" s="45"/>
+      <c r="ER54" s="45"/>
+      <c r="ES54" s="45"/>
+      <c r="ET54" s="45"/>
+      <c r="EU54" s="45"/>
+      <c r="EV54" s="45"/>
+      <c r="EW54" s="45"/>
+      <c r="EX54" s="45"/>
+      <c r="EY54" s="45"/>
+      <c r="EZ54" s="45"/>
+      <c r="FA54" s="45"/>
+      <c r="FB54" s="45"/>
+      <c r="FC54" s="45"/>
+      <c r="FD54" s="45"/>
+      <c r="FE54" s="45"/>
+      <c r="FF54" s="45"/>
+      <c r="FG54" s="45"/>
+      <c r="FH54" s="45"/>
+      <c r="FI54" s="45"/>
+      <c r="FJ54" s="45"/>
+      <c r="FK54" s="45"/>
+      <c r="FL54" s="45"/>
+      <c r="FM54" s="45"/>
+      <c r="FN54" s="45"/>
+      <c r="FO54" s="45"/>
+      <c r="FP54" s="45"/>
+      <c r="FQ54" s="45"/>
+      <c r="FR54" s="45"/>
+      <c r="FS54" s="45"/>
+      <c r="FT54" s="45"/>
+      <c r="FU54" s="45"/>
+      <c r="FV54" s="45"/>
+      <c r="FW54" s="45"/>
+      <c r="FX54" s="45"/>
+      <c r="FY54" s="45"/>
+      <c r="FZ54" s="45"/>
+      <c r="GA54" s="45"/>
+      <c r="GB54" s="45"/>
+      <c r="GC54" s="45"/>
+      <c r="GD54" s="45"/>
+      <c r="GE54" s="45"/>
+      <c r="GF54" s="45"/>
+      <c r="GG54" s="45"/>
+      <c r="GH54" s="45"/>
+      <c r="GI54" s="45"/>
+      <c r="GJ54" s="45"/>
+      <c r="GK54" s="45"/>
+      <c r="GL54" s="45"/>
+      <c r="GM54" s="45"/>
+      <c r="GN54" s="45"/>
+      <c r="GO54" s="45"/>
+      <c r="GP54" s="45"/>
+      <c r="GQ54" s="45"/>
+      <c r="GR54" s="45"/>
+      <c r="GS54" s="45"/>
+      <c r="GT54" s="45"/>
+      <c r="GU54" s="45"/>
+      <c r="GV54" s="45"/>
+      <c r="GW54" s="45"/>
+      <c r="GX54" s="45"/>
+      <c r="GY54" s="45"/>
+      <c r="GZ54" s="45"/>
+      <c r="HA54" s="45"/>
+      <c r="HB54" s="45"/>
+      <c r="HC54" s="45"/>
+      <c r="HD54" s="45"/>
+      <c r="HE54" s="45"/>
+      <c r="HF54" s="45"/>
+      <c r="HG54" s="45"/>
+      <c r="HH54" s="45"/>
+      <c r="HI54" s="45"/>
+      <c r="HJ54" s="45"/>
+      <c r="HK54" s="45"/>
+      <c r="HL54" s="45"/>
+      <c r="HM54" s="45"/>
+      <c r="HN54" s="45"/>
+      <c r="HO54" s="45"/>
+      <c r="HP54" s="45"/>
+      <c r="HQ54" s="45"/>
+      <c r="HR54" s="45"/>
+      <c r="HS54" s="45"/>
+      <c r="HT54" s="45"/>
+      <c r="HU54" s="45"/>
+      <c r="HV54" s="45"/>
+      <c r="HW54" s="45"/>
+      <c r="HX54" s="45"/>
+      <c r="HY54" s="45"/>
+      <c r="HZ54" s="45"/>
+      <c r="IA54" s="45"/>
+      <c r="IB54" s="45"/>
+      <c r="IC54" s="45"/>
+      <c r="ID54" s="45"/>
+      <c r="IE54" s="45"/>
+      <c r="IF54" s="45"/>
+      <c r="IG54" s="45"/>
+      <c r="IH54" s="45"/>
+      <c r="II54" s="45"/>
+      <c r="IJ54" s="45"/>
+      <c r="IK54" s="45"/>
+      <c r="IL54" s="45"/>
+      <c r="IM54" s="45"/>
+      <c r="IN54" s="45"/>
+      <c r="IO54" s="45"/>
+      <c r="IP54" s="45"/>
+      <c r="IQ54" s="45"/>
+      <c r="IR54" s="45"/>
+      <c r="IS54" s="45"/>
+      <c r="IT54" s="45"/>
+      <c r="IU54" s="45"/>
+      <c r="IV54" s="45"/>
+      <c r="IW54" s="45"/>
+      <c r="IX54" s="45"/>
+      <c r="IY54" s="45"/>
+      <c r="IZ54" s="45"/>
+      <c r="JA54" s="45"/>
+      <c r="JB54" s="45"/>
+      <c r="JC54" s="45"/>
+      <c r="JD54" s="45"/>
+      <c r="JE54" s="45"/>
+      <c r="JF54" s="45"/>
+      <c r="JG54" s="45"/>
+      <c r="JH54" s="45"/>
       <c r="JI54"/>
       <c r="JJ54" s="33"/>
       <c r="JK54"/>
       <c r="JL54" s="39"/>
       <c r="JM54" s="40"/>
+      <c r="JN54"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A54:JH54"/>
+    <mergeCell ref="IH4:IS4"/>
+    <mergeCell ref="IT4:JE4"/>
+    <mergeCell ref="DF4:DQ4"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="AL4:AW4"/>
+    <mergeCell ref="AX4:BI4"/>
+    <mergeCell ref="A44:JI44"/>
+    <mergeCell ref="JF4:JN4"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -40653,17 +40870,6 @@
     <mergeCell ref="BV4:CG4"/>
     <mergeCell ref="CH4:CS4"/>
     <mergeCell ref="CT4:DE4"/>
-    <mergeCell ref="A54:JH54"/>
-    <mergeCell ref="IH4:IS4"/>
-    <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="DF4:DQ4"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="Z4:AK4"/>
-    <mergeCell ref="AL4:AW4"/>
-    <mergeCell ref="AX4:BI4"/>
-    <mergeCell ref="A44:JI44"/>
-    <mergeCell ref="JF4:JM4"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -40671,7 +40877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -40681,7 +40887,7 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -40692,61 +40898,61 @@
     <col min="17" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
+    <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
     </row>
-    <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
     </row>
-    <row r="4" spans="1:23" ht="12" customHeight="1">
+    <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -40817,7 +41023,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="12.95" customHeight="1">
+    <row r="5" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
@@ -40888,7 +41094,7 @@
         <v>-7104.022157204</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="12.95" customHeight="1">
+    <row r="6" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
@@ -40959,7 +41165,7 @@
         <v>-11930.065806917</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="12.95" customHeight="1">
+    <row r="7" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
@@ -41030,7 +41236,7 @@
         <v>-4826.0436497132996</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.95" customHeight="1">
+    <row r="8" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
@@ -41101,7 +41307,7 @@
         <v>-8929.5042845784992</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.95" customHeight="1">
+    <row r="9" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>19</v>
       </c>
@@ -41172,7 +41378,7 @@
         <v>3591.8843317918199</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.95" customHeight="1">
+    <row r="10" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
@@ -41243,7 +41449,7 @@
         <v>-9.0346010803683008</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.95" customHeight="1">
+    <row r="11" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
@@ -41314,7 +41520,7 @@
         <v>1716.28733330821</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.95" customHeight="1">
+    <row r="12" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
@@ -41385,7 +41591,7 @@
         <v>1884.63159956397</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.95" customHeight="1">
+    <row r="13" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>23</v>
       </c>
@@ -41456,7 +41662,7 @@
         <v>12521.388616370299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="12.95" customHeight="1">
+    <row r="14" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
@@ -41527,7 +41733,7 @@
         <v>5926.6452143734105</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12.95" customHeight="1">
+    <row r="15" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
@@ -41598,7 +41804,7 @@
         <v>-433.48788784288001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="12.95" customHeight="1">
+    <row r="16" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>22</v>
       </c>
@@ -41669,7 +41875,7 @@
         <v>7028.2312898398204</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="12.95" customHeight="1">
+    <row r="17" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>24</v>
       </c>
@@ -41740,7 +41946,7 @@
         <v>1988.22708731694</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="12.95" customHeight="1">
+    <row r="18" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
@@ -41811,7 +42017,7 @@
         <v>6756.4542720150102</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="12.95" customHeight="1">
+    <row r="19" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>25</v>
       </c>
@@ -41882,7 +42088,7 @@
         <v>11664.9433214786</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="12.95" customHeight="1">
+    <row r="20" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
@@ -41953,7 +42159,7 @@
         <v>-4908.4890494636002</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="12.95" customHeight="1">
+    <row r="21" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>27</v>
       </c>
@@ -42024,7 +42230,7 @@
         <v>-4351.3507480726003</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="12.95" customHeight="1">
+    <row r="22" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>28</v>
       </c>
@@ -42095,7 +42301,7 @@
         <v>-557.13830139096001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="12.95" customHeight="1">
+    <row r="23" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>29</v>
       </c>
@@ -42166,7 +42372,7 @@
         <v>4768.2271846980702</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="12.95" customHeight="1">
+    <row r="24" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
@@ -42237,7 +42443,7 @@
         <v>-783.91318097439</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="12.95" customHeight="1">
+    <row r="25" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
@@ -42308,7 +42514,7 @@
         <v>5552.1403656724597</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="12.95" customHeight="1">
+    <row r="26" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
@@ -42379,7 +42585,7 @@
         <v>6394.3555865745202</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="12.95" customHeight="1">
+    <row r="27" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>28</v>
       </c>
@@ -42450,7 +42656,7 @@
         <v>-842.21522090205997</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="12.95" customHeight="1">
+    <row r="28" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>30</v>
       </c>
@@ -42521,7 +42727,7 @@
         <v>-520.50871532618999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="12.95" customHeight="1">
+    <row r="29" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
@@ -42592,7 +42798,7 @@
         <v>2937.0969640220901</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="12.95" customHeight="1">
+    <row r="30" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>19</v>
       </c>
@@ -42663,7 +42869,7 @@
         <v>3639.8907871954402</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.95" customHeight="1">
+    <row r="31" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>32</v>
       </c>
@@ -42734,7 +42940,7 @@
         <v>29.584225069999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.95" customHeight="1">
+    <row r="32" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>33</v>
       </c>
@@ -42805,7 +43011,7 @@
         <v>2148.8670182833398</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="12.95" customHeight="1">
+    <row r="33" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>34</v>
       </c>
@@ -42876,7 +43082,7 @@
         <v>134.75616436242299</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="12.95" customHeight="1">
+    <row r="34" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>35</v>
       </c>
@@ -42947,7 +43153,7 @@
         <v>1339.65248741246</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="12.95" customHeight="1">
+    <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>36</v>
       </c>
@@ -43018,7 +43224,7 @@
         <v>-12.969107932789001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="12.95" customHeight="1">
+    <row r="36" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>23</v>
       </c>
@@ -43089,7 +43295,7 @@
         <v>702.79382317334205</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="12.95" customHeight="1">
+    <row r="37" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>33</v>
       </c>
@@ -43160,7 +43366,7 @@
         <v>867.55904733999705</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="12.95" customHeight="1">
+    <row r="38" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>34</v>
       </c>
@@ -43231,7 +43437,7 @@
         <v>716.65485802408205</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="12.95" customHeight="1">
+    <row r="39" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>35</v>
       </c>
@@ -43302,7 +43508,7 @@
         <v>-876.91637036745999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="12.95" customHeight="1">
+    <row r="40" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>37</v>
       </c>
@@ -43373,7 +43579,7 @@
         <v>-2.3155699999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="12.95" customHeight="1">
+    <row r="41" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>38</v>
       </c>
@@ -43444,7 +43650,7 @@
         <v>-4.5013962532793004</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="12.95" customHeight="1">
+    <row r="42" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>39</v>
       </c>
@@ -43515,7 +43721,7 @@
         <v>-2579.3332086383002</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="12" customHeight="1">
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
         <v>40</v>
       </c>
@@ -43542,7 +43748,7 @@
       <c r="V43" s="53"/>
       <c r="W43" s="53"/>
     </row>
-    <row r="44" spans="1:23" ht="12.95" customHeight="1">
+    <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -43613,7 +43819,7 @@
         <v>-4524.6889485657002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="12.95" customHeight="1">
+    <row r="45" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -43684,7 +43890,7 @@
         <v>4768.2271846980702</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="12.95" customHeight="1">
+    <row r="46" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>26</v>
       </c>
@@ -43755,7 +43961,7 @@
         <v>5552.1403656724597</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="12.95" customHeight="1">
+    <row r="47" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
@@ -43808,7 +44014,7 @@
         <v>6697.0597364505902</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="12.95" customHeight="1">
+    <row r="48" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
@@ -43861,7 +44067,7 @@
         <v>-1144.9193707781001</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="12.95" customHeight="1">
+    <row r="49" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>25</v>
       </c>
@@ -43932,7 +44138,7 @@
         <v>-783.91318097439</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="12.95" customHeight="1">
+    <row r="50" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
@@ -44003,7 +44209,7 @@
         <v>1538.90608977382</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="12.95" customHeight="1">
+    <row r="51" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>46</v>
       </c>
@@ -44074,32 +44280,32 @@
         <v>-2322.8192707481999</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.11.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.18.11.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E9088-7DDD-4623-BD9D-3664810F54C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C9988-C967-4F1E-92BD-277E108C58C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -838,6 +838,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -876,33 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,10 +1040,10 @@
   <dimension ref="A1:JN54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IT6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IX6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:JH1"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1112,276 +1112,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="42"/>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="42"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="42"/>
-      <c r="BP1" s="42"/>
-      <c r="BQ1" s="42"/>
-      <c r="BR1" s="42"/>
-      <c r="BS1" s="42"/>
-      <c r="BT1" s="42"/>
-      <c r="BU1" s="42"/>
-      <c r="BV1" s="42"/>
-      <c r="BW1" s="42"/>
-      <c r="BX1" s="42"/>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="42"/>
-      <c r="CC1" s="42"/>
-      <c r="CD1" s="42"/>
-      <c r="CE1" s="42"/>
-      <c r="CF1" s="42"/>
-      <c r="CG1" s="42"/>
-      <c r="CH1" s="42"/>
-      <c r="CI1" s="42"/>
-      <c r="CJ1" s="42"/>
-      <c r="CK1" s="42"/>
-      <c r="CL1" s="42"/>
-      <c r="CM1" s="42"/>
-      <c r="CN1" s="42"/>
-      <c r="CO1" s="42"/>
-      <c r="CP1" s="42"/>
-      <c r="CQ1" s="42"/>
-      <c r="CR1" s="42"/>
-      <c r="CS1" s="42"/>
-      <c r="CT1" s="42"/>
-      <c r="CU1" s="42"/>
-      <c r="CV1" s="42"/>
-      <c r="CW1" s="42"/>
-      <c r="CX1" s="42"/>
-      <c r="CY1" s="42"/>
-      <c r="CZ1" s="42"/>
-      <c r="DA1" s="42"/>
-      <c r="DB1" s="42"/>
-      <c r="DC1" s="42"/>
-      <c r="DD1" s="42"/>
-      <c r="DE1" s="42"/>
-      <c r="DF1" s="42"/>
-      <c r="DG1" s="42"/>
-      <c r="DH1" s="42"/>
-      <c r="DI1" s="42"/>
-      <c r="DJ1" s="42"/>
-      <c r="DK1" s="42"/>
-      <c r="DL1" s="42"/>
-      <c r="DM1" s="42"/>
-      <c r="DN1" s="42"/>
-      <c r="DO1" s="42"/>
-      <c r="DP1" s="42"/>
-      <c r="DQ1" s="42"/>
-      <c r="DR1" s="42"/>
-      <c r="DS1" s="42"/>
-      <c r="DT1" s="42"/>
-      <c r="DU1" s="42"/>
-      <c r="DV1" s="42"/>
-      <c r="DW1" s="42"/>
-      <c r="DX1" s="42"/>
-      <c r="DY1" s="42"/>
-      <c r="DZ1" s="42"/>
-      <c r="EA1" s="42"/>
-      <c r="EB1" s="42"/>
-      <c r="EC1" s="42"/>
-      <c r="ED1" s="42"/>
-      <c r="EE1" s="42"/>
-      <c r="EF1" s="42"/>
-      <c r="EG1" s="42"/>
-      <c r="EH1" s="42"/>
-      <c r="EI1" s="42"/>
-      <c r="EJ1" s="42"/>
-      <c r="EK1" s="42"/>
-      <c r="EL1" s="42"/>
-      <c r="EM1" s="42"/>
-      <c r="EN1" s="42"/>
-      <c r="EO1" s="42"/>
-      <c r="EP1" s="42"/>
-      <c r="EQ1" s="42"/>
-      <c r="ER1" s="42"/>
-      <c r="ES1" s="42"/>
-      <c r="ET1" s="42"/>
-      <c r="EU1" s="42"/>
-      <c r="EV1" s="42"/>
-      <c r="EW1" s="42"/>
-      <c r="EX1" s="42"/>
-      <c r="EY1" s="42"/>
-      <c r="EZ1" s="42"/>
-      <c r="FA1" s="42"/>
-      <c r="FB1" s="42"/>
-      <c r="FC1" s="42"/>
-      <c r="FD1" s="42"/>
-      <c r="FE1" s="42"/>
-      <c r="FF1" s="42"/>
-      <c r="FG1" s="42"/>
-      <c r="FH1" s="42"/>
-      <c r="FI1" s="42"/>
-      <c r="FJ1" s="42"/>
-      <c r="FK1" s="42"/>
-      <c r="FL1" s="42"/>
-      <c r="FM1" s="42"/>
-      <c r="FN1" s="42"/>
-      <c r="FO1" s="42"/>
-      <c r="FP1" s="42"/>
-      <c r="FQ1" s="42"/>
-      <c r="FR1" s="42"/>
-      <c r="FS1" s="42"/>
-      <c r="FT1" s="42"/>
-      <c r="FU1" s="42"/>
-      <c r="FV1" s="42"/>
-      <c r="FW1" s="42"/>
-      <c r="FX1" s="42"/>
-      <c r="FY1" s="42"/>
-      <c r="FZ1" s="42"/>
-      <c r="GA1" s="42"/>
-      <c r="GB1" s="42"/>
-      <c r="GC1" s="42"/>
-      <c r="GD1" s="42"/>
-      <c r="GE1" s="42"/>
-      <c r="GF1" s="42"/>
-      <c r="GG1" s="42"/>
-      <c r="GH1" s="42"/>
-      <c r="GI1" s="42"/>
-      <c r="GJ1" s="42"/>
-      <c r="GK1" s="42"/>
-      <c r="GL1" s="42"/>
-      <c r="GM1" s="42"/>
-      <c r="GN1" s="42"/>
-      <c r="GO1" s="42"/>
-      <c r="GP1" s="42"/>
-      <c r="GQ1" s="42"/>
-      <c r="GR1" s="42"/>
-      <c r="GS1" s="42"/>
-      <c r="GT1" s="42"/>
-      <c r="GU1" s="42"/>
-      <c r="GV1" s="42"/>
-      <c r="GW1" s="42"/>
-      <c r="GX1" s="42"/>
-      <c r="GY1" s="42"/>
-      <c r="GZ1" s="42"/>
-      <c r="HA1" s="42"/>
-      <c r="HB1" s="42"/>
-      <c r="HC1" s="42"/>
-      <c r="HD1" s="42"/>
-      <c r="HE1" s="42"/>
-      <c r="HF1" s="42"/>
-      <c r="HG1" s="42"/>
-      <c r="HH1" s="42"/>
-      <c r="HI1" s="42"/>
-      <c r="HJ1" s="42"/>
-      <c r="HK1" s="42"/>
-      <c r="HL1" s="42"/>
-      <c r="HM1" s="42"/>
-      <c r="HN1" s="42"/>
-      <c r="HO1" s="42"/>
-      <c r="HP1" s="42"/>
-      <c r="HQ1" s="42"/>
-      <c r="HR1" s="42"/>
-      <c r="HS1" s="42"/>
-      <c r="HT1" s="42"/>
-      <c r="HU1" s="42"/>
-      <c r="HV1" s="42"/>
-      <c r="HW1" s="42"/>
-      <c r="HX1" s="42"/>
-      <c r="HY1" s="42"/>
-      <c r="HZ1" s="42"/>
-      <c r="IA1" s="42"/>
-      <c r="IB1" s="42"/>
-      <c r="IC1" s="42"/>
-      <c r="ID1" s="42"/>
-      <c r="IE1" s="42"/>
-      <c r="IF1" s="42"/>
-      <c r="IG1" s="42"/>
-      <c r="IH1" s="42"/>
-      <c r="II1" s="42"/>
-      <c r="IJ1" s="42"/>
-      <c r="IK1" s="42"/>
-      <c r="IL1" s="42"/>
-      <c r="IM1" s="42"/>
-      <c r="IN1" s="42"/>
-      <c r="IO1" s="42"/>
-      <c r="IP1" s="42"/>
-      <c r="IQ1" s="42"/>
-      <c r="IR1" s="42"/>
-      <c r="IS1" s="42"/>
-      <c r="IT1" s="42"/>
-      <c r="IU1" s="42"/>
-      <c r="IV1" s="42"/>
-      <c r="IW1" s="42"/>
-      <c r="IX1" s="42"/>
-      <c r="IY1" s="42"/>
-      <c r="IZ1" s="42"/>
-      <c r="JA1" s="42"/>
-      <c r="JB1" s="42"/>
-      <c r="JC1" s="42"/>
-      <c r="JD1" s="42"/>
-      <c r="JE1" s="42"/>
-      <c r="JF1" s="42"/>
-      <c r="JG1" s="42"/>
-      <c r="JH1" s="42"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="51"/>
+      <c r="CN1" s="51"/>
+      <c r="CO1" s="51"/>
+      <c r="CP1" s="51"/>
+      <c r="CQ1" s="51"/>
+      <c r="CR1" s="51"/>
+      <c r="CS1" s="51"/>
+      <c r="CT1" s="51"/>
+      <c r="CU1" s="51"/>
+      <c r="CV1" s="51"/>
+      <c r="CW1" s="51"/>
+      <c r="CX1" s="51"/>
+      <c r="CY1" s="51"/>
+      <c r="CZ1" s="51"/>
+      <c r="DA1" s="51"/>
+      <c r="DB1" s="51"/>
+      <c r="DC1" s="51"/>
+      <c r="DD1" s="51"/>
+      <c r="DE1" s="51"/>
+      <c r="DF1" s="51"/>
+      <c r="DG1" s="51"/>
+      <c r="DH1" s="51"/>
+      <c r="DI1" s="51"/>
+      <c r="DJ1" s="51"/>
+      <c r="DK1" s="51"/>
+      <c r="DL1" s="51"/>
+      <c r="DM1" s="51"/>
+      <c r="DN1" s="51"/>
+      <c r="DO1" s="51"/>
+      <c r="DP1" s="51"/>
+      <c r="DQ1" s="51"/>
+      <c r="DR1" s="51"/>
+      <c r="DS1" s="51"/>
+      <c r="DT1" s="51"/>
+      <c r="DU1" s="51"/>
+      <c r="DV1" s="51"/>
+      <c r="DW1" s="51"/>
+      <c r="DX1" s="51"/>
+      <c r="DY1" s="51"/>
+      <c r="DZ1" s="51"/>
+      <c r="EA1" s="51"/>
+      <c r="EB1" s="51"/>
+      <c r="EC1" s="51"/>
+      <c r="ED1" s="51"/>
+      <c r="EE1" s="51"/>
+      <c r="EF1" s="51"/>
+      <c r="EG1" s="51"/>
+      <c r="EH1" s="51"/>
+      <c r="EI1" s="51"/>
+      <c r="EJ1" s="51"/>
+      <c r="EK1" s="51"/>
+      <c r="EL1" s="51"/>
+      <c r="EM1" s="51"/>
+      <c r="EN1" s="51"/>
+      <c r="EO1" s="51"/>
+      <c r="EP1" s="51"/>
+      <c r="EQ1" s="51"/>
+      <c r="ER1" s="51"/>
+      <c r="ES1" s="51"/>
+      <c r="ET1" s="51"/>
+      <c r="EU1" s="51"/>
+      <c r="EV1" s="51"/>
+      <c r="EW1" s="51"/>
+      <c r="EX1" s="51"/>
+      <c r="EY1" s="51"/>
+      <c r="EZ1" s="51"/>
+      <c r="FA1" s="51"/>
+      <c r="FB1" s="51"/>
+      <c r="FC1" s="51"/>
+      <c r="FD1" s="51"/>
+      <c r="FE1" s="51"/>
+      <c r="FF1" s="51"/>
+      <c r="FG1" s="51"/>
+      <c r="FH1" s="51"/>
+      <c r="FI1" s="51"/>
+      <c r="FJ1" s="51"/>
+      <c r="FK1" s="51"/>
+      <c r="FL1" s="51"/>
+      <c r="FM1" s="51"/>
+      <c r="FN1" s="51"/>
+      <c r="FO1" s="51"/>
+      <c r="FP1" s="51"/>
+      <c r="FQ1" s="51"/>
+      <c r="FR1" s="51"/>
+      <c r="FS1" s="51"/>
+      <c r="FT1" s="51"/>
+      <c r="FU1" s="51"/>
+      <c r="FV1" s="51"/>
+      <c r="FW1" s="51"/>
+      <c r="FX1" s="51"/>
+      <c r="FY1" s="51"/>
+      <c r="FZ1" s="51"/>
+      <c r="GA1" s="51"/>
+      <c r="GB1" s="51"/>
+      <c r="GC1" s="51"/>
+      <c r="GD1" s="51"/>
+      <c r="GE1" s="51"/>
+      <c r="GF1" s="51"/>
+      <c r="GG1" s="51"/>
+      <c r="GH1" s="51"/>
+      <c r="GI1" s="51"/>
+      <c r="GJ1" s="51"/>
+      <c r="GK1" s="51"/>
+      <c r="GL1" s="51"/>
+      <c r="GM1" s="51"/>
+      <c r="GN1" s="51"/>
+      <c r="GO1" s="51"/>
+      <c r="GP1" s="51"/>
+      <c r="GQ1" s="51"/>
+      <c r="GR1" s="51"/>
+      <c r="GS1" s="51"/>
+      <c r="GT1" s="51"/>
+      <c r="GU1" s="51"/>
+      <c r="GV1" s="51"/>
+      <c r="GW1" s="51"/>
+      <c r="GX1" s="51"/>
+      <c r="GY1" s="51"/>
+      <c r="GZ1" s="51"/>
+      <c r="HA1" s="51"/>
+      <c r="HB1" s="51"/>
+      <c r="HC1" s="51"/>
+      <c r="HD1" s="51"/>
+      <c r="HE1" s="51"/>
+      <c r="HF1" s="51"/>
+      <c r="HG1" s="51"/>
+      <c r="HH1" s="51"/>
+      <c r="HI1" s="51"/>
+      <c r="HJ1" s="51"/>
+      <c r="HK1" s="51"/>
+      <c r="HL1" s="51"/>
+      <c r="HM1" s="51"/>
+      <c r="HN1" s="51"/>
+      <c r="HO1" s="51"/>
+      <c r="HP1" s="51"/>
+      <c r="HQ1" s="51"/>
+      <c r="HR1" s="51"/>
+      <c r="HS1" s="51"/>
+      <c r="HT1" s="51"/>
+      <c r="HU1" s="51"/>
+      <c r="HV1" s="51"/>
+      <c r="HW1" s="51"/>
+      <c r="HX1" s="51"/>
+      <c r="HY1" s="51"/>
+      <c r="HZ1" s="51"/>
+      <c r="IA1" s="51"/>
+      <c r="IB1" s="51"/>
+      <c r="IC1" s="51"/>
+      <c r="ID1" s="51"/>
+      <c r="IE1" s="51"/>
+      <c r="IF1" s="51"/>
+      <c r="IG1" s="51"/>
+      <c r="IH1" s="51"/>
+      <c r="II1" s="51"/>
+      <c r="IJ1" s="51"/>
+      <c r="IK1" s="51"/>
+      <c r="IL1" s="51"/>
+      <c r="IM1" s="51"/>
+      <c r="IN1" s="51"/>
+      <c r="IO1" s="51"/>
+      <c r="IP1" s="51"/>
+      <c r="IQ1" s="51"/>
+      <c r="IR1" s="51"/>
+      <c r="IS1" s="51"/>
+      <c r="IT1" s="51"/>
+      <c r="IU1" s="51"/>
+      <c r="IV1" s="51"/>
+      <c r="IW1" s="51"/>
+      <c r="IX1" s="51"/>
+      <c r="IY1" s="51"/>
+      <c r="IZ1" s="51"/>
+      <c r="JA1" s="51"/>
+      <c r="JB1" s="51"/>
+      <c r="JC1" s="51"/>
+      <c r="JD1" s="51"/>
+      <c r="JE1" s="51"/>
+      <c r="JF1" s="51"/>
+      <c r="JG1" s="51"/>
+      <c r="JH1" s="51"/>
       <c r="JI1"/>
       <c r="JJ1" s="33"/>
       <c r="JK1"/>
@@ -1390,276 +1390,276 @@
       <c r="JN1"/>
     </row>
     <row r="2" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="42"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="42"/>
-      <c r="BU2" s="42"/>
-      <c r="BV2" s="42"/>
-      <c r="BW2" s="42"/>
-      <c r="BX2" s="42"/>
-      <c r="BY2" s="42"/>
-      <c r="BZ2" s="42"/>
-      <c r="CA2" s="42"/>
-      <c r="CB2" s="42"/>
-      <c r="CC2" s="42"/>
-      <c r="CD2" s="42"/>
-      <c r="CE2" s="42"/>
-      <c r="CF2" s="42"/>
-      <c r="CG2" s="42"/>
-      <c r="CH2" s="42"/>
-      <c r="CI2" s="42"/>
-      <c r="CJ2" s="42"/>
-      <c r="CK2" s="42"/>
-      <c r="CL2" s="42"/>
-      <c r="CM2" s="42"/>
-      <c r="CN2" s="42"/>
-      <c r="CO2" s="42"/>
-      <c r="CP2" s="42"/>
-      <c r="CQ2" s="42"/>
-      <c r="CR2" s="42"/>
-      <c r="CS2" s="42"/>
-      <c r="CT2" s="42"/>
-      <c r="CU2" s="42"/>
-      <c r="CV2" s="42"/>
-      <c r="CW2" s="42"/>
-      <c r="CX2" s="42"/>
-      <c r="CY2" s="42"/>
-      <c r="CZ2" s="42"/>
-      <c r="DA2" s="42"/>
-      <c r="DB2" s="42"/>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
-      <c r="DF2" s="42"/>
-      <c r="DG2" s="42"/>
-      <c r="DH2" s="42"/>
-      <c r="DI2" s="42"/>
-      <c r="DJ2" s="42"/>
-      <c r="DK2" s="42"/>
-      <c r="DL2" s="42"/>
-      <c r="DM2" s="42"/>
-      <c r="DN2" s="42"/>
-      <c r="DO2" s="42"/>
-      <c r="DP2" s="42"/>
-      <c r="DQ2" s="42"/>
-      <c r="DR2" s="42"/>
-      <c r="DS2" s="42"/>
-      <c r="DT2" s="42"/>
-      <c r="DU2" s="42"/>
-      <c r="DV2" s="42"/>
-      <c r="DW2" s="42"/>
-      <c r="DX2" s="42"/>
-      <c r="DY2" s="42"/>
-      <c r="DZ2" s="42"/>
-      <c r="EA2" s="42"/>
-      <c r="EB2" s="42"/>
-      <c r="EC2" s="42"/>
-      <c r="ED2" s="42"/>
-      <c r="EE2" s="42"/>
-      <c r="EF2" s="42"/>
-      <c r="EG2" s="42"/>
-      <c r="EH2" s="42"/>
-      <c r="EI2" s="42"/>
-      <c r="EJ2" s="42"/>
-      <c r="EK2" s="42"/>
-      <c r="EL2" s="42"/>
-      <c r="EM2" s="42"/>
-      <c r="EN2" s="42"/>
-      <c r="EO2" s="42"/>
-      <c r="EP2" s="42"/>
-      <c r="EQ2" s="42"/>
-      <c r="ER2" s="42"/>
-      <c r="ES2" s="42"/>
-      <c r="ET2" s="42"/>
-      <c r="EU2" s="42"/>
-      <c r="EV2" s="42"/>
-      <c r="EW2" s="42"/>
-      <c r="EX2" s="42"/>
-      <c r="EY2" s="42"/>
-      <c r="EZ2" s="42"/>
-      <c r="FA2" s="42"/>
-      <c r="FB2" s="42"/>
-      <c r="FC2" s="42"/>
-      <c r="FD2" s="42"/>
-      <c r="FE2" s="42"/>
-      <c r="FF2" s="42"/>
-      <c r="FG2" s="42"/>
-      <c r="FH2" s="42"/>
-      <c r="FI2" s="42"/>
-      <c r="FJ2" s="42"/>
-      <c r="FK2" s="42"/>
-      <c r="FL2" s="42"/>
-      <c r="FM2" s="42"/>
-      <c r="FN2" s="42"/>
-      <c r="FO2" s="42"/>
-      <c r="FP2" s="42"/>
-      <c r="FQ2" s="42"/>
-      <c r="FR2" s="42"/>
-      <c r="FS2" s="42"/>
-      <c r="FT2" s="42"/>
-      <c r="FU2" s="42"/>
-      <c r="FV2" s="42"/>
-      <c r="FW2" s="42"/>
-      <c r="FX2" s="42"/>
-      <c r="FY2" s="42"/>
-      <c r="FZ2" s="42"/>
-      <c r="GA2" s="42"/>
-      <c r="GB2" s="42"/>
-      <c r="GC2" s="42"/>
-      <c r="GD2" s="42"/>
-      <c r="GE2" s="42"/>
-      <c r="GF2" s="42"/>
-      <c r="GG2" s="42"/>
-      <c r="GH2" s="42"/>
-      <c r="GI2" s="42"/>
-      <c r="GJ2" s="42"/>
-      <c r="GK2" s="42"/>
-      <c r="GL2" s="42"/>
-      <c r="GM2" s="42"/>
-      <c r="GN2" s="42"/>
-      <c r="GO2" s="42"/>
-      <c r="GP2" s="42"/>
-      <c r="GQ2" s="42"/>
-      <c r="GR2" s="42"/>
-      <c r="GS2" s="42"/>
-      <c r="GT2" s="42"/>
-      <c r="GU2" s="42"/>
-      <c r="GV2" s="42"/>
-      <c r="GW2" s="42"/>
-      <c r="GX2" s="42"/>
-      <c r="GY2" s="42"/>
-      <c r="GZ2" s="42"/>
-      <c r="HA2" s="42"/>
-      <c r="HB2" s="42"/>
-      <c r="HC2" s="42"/>
-      <c r="HD2" s="42"/>
-      <c r="HE2" s="42"/>
-      <c r="HF2" s="42"/>
-      <c r="HG2" s="42"/>
-      <c r="HH2" s="42"/>
-      <c r="HI2" s="42"/>
-      <c r="HJ2" s="42"/>
-      <c r="HK2" s="42"/>
-      <c r="HL2" s="42"/>
-      <c r="HM2" s="42"/>
-      <c r="HN2" s="42"/>
-      <c r="HO2" s="42"/>
-      <c r="HP2" s="42"/>
-      <c r="HQ2" s="42"/>
-      <c r="HR2" s="42"/>
-      <c r="HS2" s="42"/>
-      <c r="HT2" s="42"/>
-      <c r="HU2" s="42"/>
-      <c r="HV2" s="42"/>
-      <c r="HW2" s="42"/>
-      <c r="HX2" s="42"/>
-      <c r="HY2" s="42"/>
-      <c r="HZ2" s="42"/>
-      <c r="IA2" s="42"/>
-      <c r="IB2" s="42"/>
-      <c r="IC2" s="42"/>
-      <c r="ID2" s="42"/>
-      <c r="IE2" s="42"/>
-      <c r="IF2" s="42"/>
-      <c r="IG2" s="42"/>
-      <c r="IH2" s="42"/>
-      <c r="II2" s="42"/>
-      <c r="IJ2" s="42"/>
-      <c r="IK2" s="42"/>
-      <c r="IL2" s="42"/>
-      <c r="IM2" s="42"/>
-      <c r="IN2" s="42"/>
-      <c r="IO2" s="42"/>
-      <c r="IP2" s="42"/>
-      <c r="IQ2" s="42"/>
-      <c r="IR2" s="42"/>
-      <c r="IS2" s="42"/>
-      <c r="IT2" s="42"/>
-      <c r="IU2" s="42"/>
-      <c r="IV2" s="42"/>
-      <c r="IW2" s="42"/>
-      <c r="IX2" s="42"/>
-      <c r="IY2" s="42"/>
-      <c r="IZ2" s="42"/>
-      <c r="JA2" s="42"/>
-      <c r="JB2" s="42"/>
-      <c r="JC2" s="42"/>
-      <c r="JD2" s="42"/>
-      <c r="JE2" s="42"/>
-      <c r="JF2" s="42"/>
-      <c r="JG2" s="42"/>
-      <c r="JH2" s="42"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="51"/>
+      <c r="BS2" s="51"/>
+      <c r="BT2" s="51"/>
+      <c r="BU2" s="51"/>
+      <c r="BV2" s="51"/>
+      <c r="BW2" s="51"/>
+      <c r="BX2" s="51"/>
+      <c r="BY2" s="51"/>
+      <c r="BZ2" s="51"/>
+      <c r="CA2" s="51"/>
+      <c r="CB2" s="51"/>
+      <c r="CC2" s="51"/>
+      <c r="CD2" s="51"/>
+      <c r="CE2" s="51"/>
+      <c r="CF2" s="51"/>
+      <c r="CG2" s="51"/>
+      <c r="CH2" s="51"/>
+      <c r="CI2" s="51"/>
+      <c r="CJ2" s="51"/>
+      <c r="CK2" s="51"/>
+      <c r="CL2" s="51"/>
+      <c r="CM2" s="51"/>
+      <c r="CN2" s="51"/>
+      <c r="CO2" s="51"/>
+      <c r="CP2" s="51"/>
+      <c r="CQ2" s="51"/>
+      <c r="CR2" s="51"/>
+      <c r="CS2" s="51"/>
+      <c r="CT2" s="51"/>
+      <c r="CU2" s="51"/>
+      <c r="CV2" s="51"/>
+      <c r="CW2" s="51"/>
+      <c r="CX2" s="51"/>
+      <c r="CY2" s="51"/>
+      <c r="CZ2" s="51"/>
+      <c r="DA2" s="51"/>
+      <c r="DB2" s="51"/>
+      <c r="DC2" s="51"/>
+      <c r="DD2" s="51"/>
+      <c r="DE2" s="51"/>
+      <c r="DF2" s="51"/>
+      <c r="DG2" s="51"/>
+      <c r="DH2" s="51"/>
+      <c r="DI2" s="51"/>
+      <c r="DJ2" s="51"/>
+      <c r="DK2" s="51"/>
+      <c r="DL2" s="51"/>
+      <c r="DM2" s="51"/>
+      <c r="DN2" s="51"/>
+      <c r="DO2" s="51"/>
+      <c r="DP2" s="51"/>
+      <c r="DQ2" s="51"/>
+      <c r="DR2" s="51"/>
+      <c r="DS2" s="51"/>
+      <c r="DT2" s="51"/>
+      <c r="DU2" s="51"/>
+      <c r="DV2" s="51"/>
+      <c r="DW2" s="51"/>
+      <c r="DX2" s="51"/>
+      <c r="DY2" s="51"/>
+      <c r="DZ2" s="51"/>
+      <c r="EA2" s="51"/>
+      <c r="EB2" s="51"/>
+      <c r="EC2" s="51"/>
+      <c r="ED2" s="51"/>
+      <c r="EE2" s="51"/>
+      <c r="EF2" s="51"/>
+      <c r="EG2" s="51"/>
+      <c r="EH2" s="51"/>
+      <c r="EI2" s="51"/>
+      <c r="EJ2" s="51"/>
+      <c r="EK2" s="51"/>
+      <c r="EL2" s="51"/>
+      <c r="EM2" s="51"/>
+      <c r="EN2" s="51"/>
+      <c r="EO2" s="51"/>
+      <c r="EP2" s="51"/>
+      <c r="EQ2" s="51"/>
+      <c r="ER2" s="51"/>
+      <c r="ES2" s="51"/>
+      <c r="ET2" s="51"/>
+      <c r="EU2" s="51"/>
+      <c r="EV2" s="51"/>
+      <c r="EW2" s="51"/>
+      <c r="EX2" s="51"/>
+      <c r="EY2" s="51"/>
+      <c r="EZ2" s="51"/>
+      <c r="FA2" s="51"/>
+      <c r="FB2" s="51"/>
+      <c r="FC2" s="51"/>
+      <c r="FD2" s="51"/>
+      <c r="FE2" s="51"/>
+      <c r="FF2" s="51"/>
+      <c r="FG2" s="51"/>
+      <c r="FH2" s="51"/>
+      <c r="FI2" s="51"/>
+      <c r="FJ2" s="51"/>
+      <c r="FK2" s="51"/>
+      <c r="FL2" s="51"/>
+      <c r="FM2" s="51"/>
+      <c r="FN2" s="51"/>
+      <c r="FO2" s="51"/>
+      <c r="FP2" s="51"/>
+      <c r="FQ2" s="51"/>
+      <c r="FR2" s="51"/>
+      <c r="FS2" s="51"/>
+      <c r="FT2" s="51"/>
+      <c r="FU2" s="51"/>
+      <c r="FV2" s="51"/>
+      <c r="FW2" s="51"/>
+      <c r="FX2" s="51"/>
+      <c r="FY2" s="51"/>
+      <c r="FZ2" s="51"/>
+      <c r="GA2" s="51"/>
+      <c r="GB2" s="51"/>
+      <c r="GC2" s="51"/>
+      <c r="GD2" s="51"/>
+      <c r="GE2" s="51"/>
+      <c r="GF2" s="51"/>
+      <c r="GG2" s="51"/>
+      <c r="GH2" s="51"/>
+      <c r="GI2" s="51"/>
+      <c r="GJ2" s="51"/>
+      <c r="GK2" s="51"/>
+      <c r="GL2" s="51"/>
+      <c r="GM2" s="51"/>
+      <c r="GN2" s="51"/>
+      <c r="GO2" s="51"/>
+      <c r="GP2" s="51"/>
+      <c r="GQ2" s="51"/>
+      <c r="GR2" s="51"/>
+      <c r="GS2" s="51"/>
+      <c r="GT2" s="51"/>
+      <c r="GU2" s="51"/>
+      <c r="GV2" s="51"/>
+      <c r="GW2" s="51"/>
+      <c r="GX2" s="51"/>
+      <c r="GY2" s="51"/>
+      <c r="GZ2" s="51"/>
+      <c r="HA2" s="51"/>
+      <c r="HB2" s="51"/>
+      <c r="HC2" s="51"/>
+      <c r="HD2" s="51"/>
+      <c r="HE2" s="51"/>
+      <c r="HF2" s="51"/>
+      <c r="HG2" s="51"/>
+      <c r="HH2" s="51"/>
+      <c r="HI2" s="51"/>
+      <c r="HJ2" s="51"/>
+      <c r="HK2" s="51"/>
+      <c r="HL2" s="51"/>
+      <c r="HM2" s="51"/>
+      <c r="HN2" s="51"/>
+      <c r="HO2" s="51"/>
+      <c r="HP2" s="51"/>
+      <c r="HQ2" s="51"/>
+      <c r="HR2" s="51"/>
+      <c r="HS2" s="51"/>
+      <c r="HT2" s="51"/>
+      <c r="HU2" s="51"/>
+      <c r="HV2" s="51"/>
+      <c r="HW2" s="51"/>
+      <c r="HX2" s="51"/>
+      <c r="HY2" s="51"/>
+      <c r="HZ2" s="51"/>
+      <c r="IA2" s="51"/>
+      <c r="IB2" s="51"/>
+      <c r="IC2" s="51"/>
+      <c r="ID2" s="51"/>
+      <c r="IE2" s="51"/>
+      <c r="IF2" s="51"/>
+      <c r="IG2" s="51"/>
+      <c r="IH2" s="51"/>
+      <c r="II2" s="51"/>
+      <c r="IJ2" s="51"/>
+      <c r="IK2" s="51"/>
+      <c r="IL2" s="51"/>
+      <c r="IM2" s="51"/>
+      <c r="IN2" s="51"/>
+      <c r="IO2" s="51"/>
+      <c r="IP2" s="51"/>
+      <c r="IQ2" s="51"/>
+      <c r="IR2" s="51"/>
+      <c r="IS2" s="51"/>
+      <c r="IT2" s="51"/>
+      <c r="IU2" s="51"/>
+      <c r="IV2" s="51"/>
+      <c r="IW2" s="51"/>
+      <c r="IX2" s="51"/>
+      <c r="IY2" s="51"/>
+      <c r="IZ2" s="51"/>
+      <c r="JA2" s="51"/>
+      <c r="JB2" s="51"/>
+      <c r="JC2" s="51"/>
+      <c r="JD2" s="51"/>
+      <c r="JE2" s="51"/>
+      <c r="JF2" s="51"/>
+      <c r="JG2" s="51"/>
+      <c r="JH2" s="51"/>
       <c r="JI2"/>
       <c r="JJ2" s="33"/>
       <c r="JK2"/>
@@ -1669,325 +1669,325 @@
     </row>
     <row r="4" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="44">
+      <c r="B4" s="53">
         <v>2003</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53">
         <v>2004</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44">
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53">
         <v>2005</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44">
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53">
         <v>2006</v>
       </c>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44">
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53">
         <v>2007</v>
       </c>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44">
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="53">
         <v>2008</v>
       </c>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44">
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="53"/>
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="53"/>
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="53">
         <v>2009</v>
       </c>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44"/>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44">
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="53"/>
+      <c r="CH4" s="53">
         <v>2010</v>
       </c>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="44"/>
-      <c r="CN4" s="44"/>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="44"/>
-      <c r="CT4" s="44">
+      <c r="CI4" s="53"/>
+      <c r="CJ4" s="53"/>
+      <c r="CK4" s="53"/>
+      <c r="CL4" s="53"/>
+      <c r="CM4" s="53"/>
+      <c r="CN4" s="53"/>
+      <c r="CO4" s="53"/>
+      <c r="CP4" s="53"/>
+      <c r="CQ4" s="53"/>
+      <c r="CR4" s="53"/>
+      <c r="CS4" s="53"/>
+      <c r="CT4" s="53">
         <v>2011</v>
       </c>
-      <c r="CU4" s="44"/>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="44"/>
-      <c r="DB4" s="44"/>
-      <c r="DC4" s="44"/>
-      <c r="DD4" s="44"/>
-      <c r="DE4" s="44"/>
-      <c r="DF4" s="44">
+      <c r="CU4" s="53"/>
+      <c r="CV4" s="53"/>
+      <c r="CW4" s="53"/>
+      <c r="CX4" s="53"/>
+      <c r="CY4" s="53"/>
+      <c r="CZ4" s="53"/>
+      <c r="DA4" s="53"/>
+      <c r="DB4" s="53"/>
+      <c r="DC4" s="53"/>
+      <c r="DD4" s="53"/>
+      <c r="DE4" s="53"/>
+      <c r="DF4" s="53">
         <v>2012</v>
       </c>
-      <c r="DG4" s="44"/>
-      <c r="DH4" s="44"/>
-      <c r="DI4" s="44"/>
-      <c r="DJ4" s="44"/>
-      <c r="DK4" s="44"/>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="44"/>
-      <c r="DN4" s="44"/>
-      <c r="DO4" s="44"/>
-      <c r="DP4" s="44"/>
-      <c r="DQ4" s="44"/>
-      <c r="DR4" s="44">
+      <c r="DG4" s="53"/>
+      <c r="DH4" s="53"/>
+      <c r="DI4" s="53"/>
+      <c r="DJ4" s="53"/>
+      <c r="DK4" s="53"/>
+      <c r="DL4" s="53"/>
+      <c r="DM4" s="53"/>
+      <c r="DN4" s="53"/>
+      <c r="DO4" s="53"/>
+      <c r="DP4" s="53"/>
+      <c r="DQ4" s="53"/>
+      <c r="DR4" s="53">
         <v>2013</v>
       </c>
-      <c r="DS4" s="44"/>
-      <c r="DT4" s="44"/>
-      <c r="DU4" s="44"/>
-      <c r="DV4" s="44"/>
-      <c r="DW4" s="44"/>
-      <c r="DX4" s="44"/>
-      <c r="DY4" s="44"/>
-      <c r="DZ4" s="44"/>
-      <c r="EA4" s="44"/>
-      <c r="EB4" s="44"/>
-      <c r="EC4" s="44"/>
-      <c r="ED4" s="44">
+      <c r="DS4" s="53"/>
+      <c r="DT4" s="53"/>
+      <c r="DU4" s="53"/>
+      <c r="DV4" s="53"/>
+      <c r="DW4" s="53"/>
+      <c r="DX4" s="53"/>
+      <c r="DY4" s="53"/>
+      <c r="DZ4" s="53"/>
+      <c r="EA4" s="53"/>
+      <c r="EB4" s="53"/>
+      <c r="EC4" s="53"/>
+      <c r="ED4" s="53">
         <v>2014</v>
       </c>
-      <c r="EE4" s="44"/>
-      <c r="EF4" s="44"/>
-      <c r="EG4" s="44"/>
-      <c r="EH4" s="44"/>
-      <c r="EI4" s="44"/>
-      <c r="EJ4" s="44"/>
-      <c r="EK4" s="44"/>
-      <c r="EL4" s="44"/>
-      <c r="EM4" s="44"/>
-      <c r="EN4" s="44"/>
-      <c r="EO4" s="44"/>
-      <c r="EP4" s="44">
+      <c r="EE4" s="53"/>
+      <c r="EF4" s="53"/>
+      <c r="EG4" s="53"/>
+      <c r="EH4" s="53"/>
+      <c r="EI4" s="53"/>
+      <c r="EJ4" s="53"/>
+      <c r="EK4" s="53"/>
+      <c r="EL4" s="53"/>
+      <c r="EM4" s="53"/>
+      <c r="EN4" s="53"/>
+      <c r="EO4" s="53"/>
+      <c r="EP4" s="53">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="44"/>
-      <c r="ER4" s="44"/>
-      <c r="ES4" s="44"/>
-      <c r="ET4" s="44"/>
-      <c r="EU4" s="44"/>
-      <c r="EV4" s="44"/>
-      <c r="EW4" s="44"/>
-      <c r="EX4" s="44"/>
-      <c r="EY4" s="44"/>
-      <c r="EZ4" s="44"/>
-      <c r="FA4" s="44"/>
-      <c r="FB4" s="44">
+      <c r="EQ4" s="53"/>
+      <c r="ER4" s="53"/>
+      <c r="ES4" s="53"/>
+      <c r="ET4" s="53"/>
+      <c r="EU4" s="53"/>
+      <c r="EV4" s="53"/>
+      <c r="EW4" s="53"/>
+      <c r="EX4" s="53"/>
+      <c r="EY4" s="53"/>
+      <c r="EZ4" s="53"/>
+      <c r="FA4" s="53"/>
+      <c r="FB4" s="53">
         <v>2016</v>
       </c>
-      <c r="FC4" s="44"/>
-      <c r="FD4" s="44"/>
-      <c r="FE4" s="44"/>
-      <c r="FF4" s="44"/>
-      <c r="FG4" s="44"/>
-      <c r="FH4" s="44"/>
-      <c r="FI4" s="44"/>
-      <c r="FJ4" s="44"/>
-      <c r="FK4" s="44"/>
-      <c r="FL4" s="44"/>
-      <c r="FM4" s="44"/>
-      <c r="FN4" s="44">
+      <c r="FC4" s="53"/>
+      <c r="FD4" s="53"/>
+      <c r="FE4" s="53"/>
+      <c r="FF4" s="53"/>
+      <c r="FG4" s="53"/>
+      <c r="FH4" s="53"/>
+      <c r="FI4" s="53"/>
+      <c r="FJ4" s="53"/>
+      <c r="FK4" s="53"/>
+      <c r="FL4" s="53"/>
+      <c r="FM4" s="53"/>
+      <c r="FN4" s="53">
         <v>2017</v>
       </c>
-      <c r="FO4" s="44"/>
-      <c r="FP4" s="44"/>
-      <c r="FQ4" s="44"/>
-      <c r="FR4" s="44"/>
-      <c r="FS4" s="44"/>
-      <c r="FT4" s="44"/>
-      <c r="FU4" s="44"/>
-      <c r="FV4" s="44"/>
-      <c r="FW4" s="44"/>
-      <c r="FX4" s="44"/>
-      <c r="FY4" s="44"/>
-      <c r="FZ4" s="44">
+      <c r="FO4" s="53"/>
+      <c r="FP4" s="53"/>
+      <c r="FQ4" s="53"/>
+      <c r="FR4" s="53"/>
+      <c r="FS4" s="53"/>
+      <c r="FT4" s="53"/>
+      <c r="FU4" s="53"/>
+      <c r="FV4" s="53"/>
+      <c r="FW4" s="53"/>
+      <c r="FX4" s="53"/>
+      <c r="FY4" s="53"/>
+      <c r="FZ4" s="53">
         <v>2018</v>
       </c>
-      <c r="GA4" s="44"/>
-      <c r="GB4" s="44"/>
-      <c r="GC4" s="44"/>
-      <c r="GD4" s="44"/>
-      <c r="GE4" s="44"/>
-      <c r="GF4" s="44"/>
-      <c r="GG4" s="44"/>
-      <c r="GH4" s="44"/>
-      <c r="GI4" s="44"/>
-      <c r="GJ4" s="44"/>
-      <c r="GK4" s="44"/>
-      <c r="GL4" s="44">
+      <c r="GA4" s="53"/>
+      <c r="GB4" s="53"/>
+      <c r="GC4" s="53"/>
+      <c r="GD4" s="53"/>
+      <c r="GE4" s="53"/>
+      <c r="GF4" s="53"/>
+      <c r="GG4" s="53"/>
+      <c r="GH4" s="53"/>
+      <c r="GI4" s="53"/>
+      <c r="GJ4" s="53"/>
+      <c r="GK4" s="53"/>
+      <c r="GL4" s="53">
         <v>2019</v>
       </c>
-      <c r="GM4" s="44"/>
-      <c r="GN4" s="44"/>
-      <c r="GO4" s="44"/>
-      <c r="GP4" s="44"/>
-      <c r="GQ4" s="44"/>
-      <c r="GR4" s="44"/>
-      <c r="GS4" s="44"/>
-      <c r="GT4" s="44"/>
-      <c r="GU4" s="44"/>
-      <c r="GV4" s="44"/>
-      <c r="GW4" s="44"/>
-      <c r="GX4" s="44">
+      <c r="GM4" s="53"/>
+      <c r="GN4" s="53"/>
+      <c r="GO4" s="53"/>
+      <c r="GP4" s="53"/>
+      <c r="GQ4" s="53"/>
+      <c r="GR4" s="53"/>
+      <c r="GS4" s="53"/>
+      <c r="GT4" s="53"/>
+      <c r="GU4" s="53"/>
+      <c r="GV4" s="53"/>
+      <c r="GW4" s="53"/>
+      <c r="GX4" s="53">
         <v>2020</v>
       </c>
-      <c r="GY4" s="44"/>
-      <c r="GZ4" s="44"/>
-      <c r="HA4" s="44"/>
-      <c r="HB4" s="44"/>
-      <c r="HC4" s="44"/>
-      <c r="HD4" s="44"/>
-      <c r="HE4" s="44"/>
-      <c r="HF4" s="44"/>
-      <c r="HG4" s="44"/>
-      <c r="HH4" s="44"/>
-      <c r="HI4" s="44"/>
-      <c r="HJ4" s="44">
+      <c r="GY4" s="53"/>
+      <c r="GZ4" s="53"/>
+      <c r="HA4" s="53"/>
+      <c r="HB4" s="53"/>
+      <c r="HC4" s="53"/>
+      <c r="HD4" s="53"/>
+      <c r="HE4" s="53"/>
+      <c r="HF4" s="53"/>
+      <c r="HG4" s="53"/>
+      <c r="HH4" s="53"/>
+      <c r="HI4" s="53"/>
+      <c r="HJ4" s="53">
         <v>2021</v>
       </c>
-      <c r="HK4" s="44"/>
-      <c r="HL4" s="44"/>
-      <c r="HM4" s="44"/>
-      <c r="HN4" s="44"/>
-      <c r="HO4" s="44"/>
-      <c r="HP4" s="44"/>
-      <c r="HQ4" s="44"/>
-      <c r="HR4" s="44"/>
-      <c r="HS4" s="44"/>
-      <c r="HT4" s="44"/>
-      <c r="HU4" s="44"/>
-      <c r="HV4" s="44">
+      <c r="HK4" s="53"/>
+      <c r="HL4" s="53"/>
+      <c r="HM4" s="53"/>
+      <c r="HN4" s="53"/>
+      <c r="HO4" s="53"/>
+      <c r="HP4" s="53"/>
+      <c r="HQ4" s="53"/>
+      <c r="HR4" s="53"/>
+      <c r="HS4" s="53"/>
+      <c r="HT4" s="53"/>
+      <c r="HU4" s="53"/>
+      <c r="HV4" s="53">
         <v>2022</v>
       </c>
-      <c r="HW4" s="44"/>
-      <c r="HX4" s="44"/>
-      <c r="HY4" s="44"/>
-      <c r="HZ4" s="44"/>
-      <c r="IA4" s="44"/>
-      <c r="IB4" s="44"/>
-      <c r="IC4" s="44"/>
-      <c r="ID4" s="44"/>
-      <c r="IE4" s="44"/>
-      <c r="IF4" s="44"/>
-      <c r="IG4" s="44"/>
-      <c r="IH4" s="44">
+      <c r="HW4" s="53"/>
+      <c r="HX4" s="53"/>
+      <c r="HY4" s="53"/>
+      <c r="HZ4" s="53"/>
+      <c r="IA4" s="53"/>
+      <c r="IB4" s="53"/>
+      <c r="IC4" s="53"/>
+      <c r="ID4" s="53"/>
+      <c r="IE4" s="53"/>
+      <c r="IF4" s="53"/>
+      <c r="IG4" s="53"/>
+      <c r="IH4" s="53">
         <v>2023</v>
       </c>
-      <c r="II4" s="44"/>
-      <c r="IJ4" s="44"/>
-      <c r="IK4" s="44"/>
-      <c r="IL4" s="44"/>
-      <c r="IM4" s="44"/>
-      <c r="IN4" s="44"/>
-      <c r="IO4" s="44"/>
-      <c r="IP4" s="44"/>
-      <c r="IQ4" s="44"/>
-      <c r="IR4" s="44"/>
-      <c r="IS4" s="44"/>
-      <c r="IT4" s="44">
+      <c r="II4" s="53"/>
+      <c r="IJ4" s="53"/>
+      <c r="IK4" s="53"/>
+      <c r="IL4" s="53"/>
+      <c r="IM4" s="53"/>
+      <c r="IN4" s="53"/>
+      <c r="IO4" s="53"/>
+      <c r="IP4" s="53"/>
+      <c r="IQ4" s="53"/>
+      <c r="IR4" s="53"/>
+      <c r="IS4" s="53"/>
+      <c r="IT4" s="53">
         <v>2024</v>
       </c>
-      <c r="IU4" s="44"/>
-      <c r="IV4" s="44"/>
-      <c r="IW4" s="44"/>
-      <c r="IX4" s="44"/>
-      <c r="IY4" s="44"/>
-      <c r="IZ4" s="44"/>
-      <c r="JA4" s="44"/>
-      <c r="JB4" s="44"/>
-      <c r="JC4" s="44"/>
-      <c r="JD4" s="44"/>
-      <c r="JE4" s="46"/>
-      <c r="JF4" s="49">
+      <c r="IU4" s="53"/>
+      <c r="IV4" s="53"/>
+      <c r="IW4" s="53"/>
+      <c r="IX4" s="53"/>
+      <c r="IY4" s="53"/>
+      <c r="IZ4" s="53"/>
+      <c r="JA4" s="53"/>
+      <c r="JB4" s="53"/>
+      <c r="JC4" s="53"/>
+      <c r="JD4" s="53"/>
+      <c r="JE4" s="55"/>
+      <c r="JF4" s="58">
         <v>2025</v>
       </c>
-      <c r="JG4" s="50"/>
-      <c r="JH4" s="50"/>
-      <c r="JI4" s="50"/>
-      <c r="JJ4" s="50"/>
-      <c r="JK4" s="50"/>
-      <c r="JL4" s="50"/>
-      <c r="JM4" s="50"/>
-      <c r="JN4" s="51"/>
+      <c r="JG4" s="59"/>
+      <c r="JH4" s="59"/>
+      <c r="JI4" s="59"/>
+      <c r="JJ4" s="59"/>
+      <c r="JK4" s="59"/>
+      <c r="JL4" s="59"/>
+      <c r="JM4" s="59"/>
+      <c r="JN4" s="60"/>
     </row>
     <row r="5" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -2806,7 +2806,7 @@
       <c r="JL5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="JM5" s="57" t="s">
+      <c r="JM5" s="44" t="s">
         <v>10</v>
       </c>
       <c r="JN5" s="29" t="s">
@@ -3610,31 +3610,31 @@
         <v>-1028.9986300083001</v>
       </c>
       <c r="JF6" s="4">
-        <v>1188.41642939952</v>
+        <v>1855.2049747419601</v>
       </c>
       <c r="JG6" s="4">
-        <v>-1512.8776628584001</v>
+        <v>-1361.1267764632</v>
       </c>
       <c r="JH6" s="4">
-        <v>-2093.7995649861</v>
+        <v>-2575.4782331972001</v>
       </c>
       <c r="JI6" s="4">
-        <v>-988.08999719891005</v>
+        <v>-486.60042233127001</v>
       </c>
       <c r="JJ6" s="4">
-        <v>-1705.6120319234999</v>
+        <v>-1827.2632282581001</v>
       </c>
       <c r="JK6" s="36">
-        <v>-1879.6716170065999</v>
+        <v>-1101.5763802547999</v>
       </c>
       <c r="JL6" s="36">
-        <v>-1164.7505813493999</v>
-      </c>
-      <c r="JM6" s="58">
-        <v>-1919.4407700290001</v>
-      </c>
-      <c r="JN6" s="61">
-        <v>-2971.9161540022001</v>
+        <v>-794.34880192595995</v>
+      </c>
+      <c r="JM6" s="45">
+        <v>-1579.6617210995</v>
+      </c>
+      <c r="JN6" s="48">
+        <v>-3065.4125720451002</v>
       </c>
     </row>
     <row r="7" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4434,31 +4434,31 @@
         <v>-2074.1180414498999</v>
       </c>
       <c r="JF7" s="4">
-        <v>2703.7430782787201</v>
+        <v>3271.0140566783798</v>
       </c>
       <c r="JG7" s="4">
-        <v>-1401.7181791078999</v>
+        <v>-1347.6867113215999</v>
       </c>
       <c r="JH7" s="4">
-        <v>132.51882134379699</v>
+        <v>-736.87293594874996</v>
       </c>
       <c r="JI7" s="4">
-        <v>615.26364335831897</v>
+        <v>1003.7563850579201</v>
       </c>
       <c r="JJ7" s="4">
-        <v>-302.95713927452999</v>
+        <v>-521.34230033475001</v>
       </c>
       <c r="JK7" s="36">
-        <v>-1163.4810785966999</v>
+        <v>-760.80336699587997</v>
       </c>
       <c r="JL7" s="36">
-        <v>1032.6810439636099</v>
-      </c>
-      <c r="JM7" s="58">
-        <v>-1408.2089641384</v>
-      </c>
-      <c r="JN7" s="61">
-        <v>1772.2495005148701</v>
+        <v>1019.17813745351</v>
+      </c>
+      <c r="JM7" s="45">
+        <v>-1658.6768053889</v>
+      </c>
+      <c r="JN7" s="48">
+        <v>1485.18132297641</v>
       </c>
     </row>
     <row r="8" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5258,31 +5258,31 @@
         <v>-1045.1194114415</v>
       </c>
       <c r="JF8" s="4">
-        <v>1515.3266488791901</v>
+        <v>1415.8090819364199</v>
       </c>
       <c r="JG8" s="4">
-        <v>111.159483750536</v>
+        <v>13.4400651416616</v>
       </c>
       <c r="JH8" s="4">
-        <v>2226.31838632992</v>
+        <v>1838.6052972484799</v>
       </c>
       <c r="JI8" s="4">
-        <v>1603.3536405572299</v>
+        <v>1490.3568073891799</v>
       </c>
       <c r="JJ8" s="4">
-        <v>1402.65489264901</v>
+        <v>1305.9209279233301</v>
       </c>
       <c r="JK8" s="36">
-        <v>716.19053840983497</v>
+        <v>340.77301325890102</v>
       </c>
       <c r="JL8" s="36">
-        <v>2197.431625313</v>
-      </c>
-      <c r="JM8" s="58">
-        <v>511.23180589055301</v>
-      </c>
-      <c r="JN8" s="61">
-        <v>4744.1656545170899</v>
+        <v>1813.5269393794699</v>
+      </c>
+      <c r="JM8" s="45">
+        <v>-79.015084289471005</v>
+      </c>
+      <c r="JN8" s="48">
+        <v>4550.5938950215204</v>
       </c>
     </row>
     <row r="9" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6082,31 +6082,31 @@
         <v>1001.84932505287</v>
       </c>
       <c r="JF9" s="4">
-        <v>-294.16169723338999</v>
+        <v>-194.05552237689</v>
       </c>
       <c r="JG9" s="4">
-        <v>-1391.7408103256</v>
+        <v>-1274.9574028929001</v>
       </c>
       <c r="JH9" s="4">
-        <v>91.035393919710103</v>
+        <v>280.74398649359102</v>
       </c>
       <c r="JI9" s="4">
-        <v>-1577.1648435848001</v>
+        <v>-1525.1175193571</v>
       </c>
       <c r="JJ9" s="4">
-        <v>-1289.1893347256</v>
+        <v>-1187.6927137789</v>
       </c>
       <c r="JK9" s="36">
-        <v>-35.460547574492999</v>
+        <v>9.7200293782884</v>
       </c>
       <c r="JL9" s="36">
-        <v>-1325.2589060403</v>
-      </c>
-      <c r="JM9" s="58">
-        <v>-474.84706043979003</v>
-      </c>
-      <c r="JN9" s="61">
-        <v>-607.63143811056</v>
+        <v>-980.72543747747</v>
+      </c>
+      <c r="JM9" s="45">
+        <v>-23.884080614076002</v>
+      </c>
+      <c r="JN9" s="48">
+        <v>-601.18552663868002</v>
       </c>
     </row>
     <row r="10" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6906,31 +6906,31 @@
         <v>852.31833986889103</v>
       </c>
       <c r="JF10" s="6">
-        <v>476.54751698071601</v>
+        <v>494.18609394389802</v>
       </c>
       <c r="JG10" s="6">
-        <v>692.38003736450901</v>
+        <v>710.06046345599202</v>
       </c>
       <c r="JH10" s="6">
-        <v>968.11679876686298</v>
+        <v>1008.36354615593</v>
       </c>
       <c r="JI10" s="6">
-        <v>374.19529497273101</v>
+        <v>349.50857696678997</v>
       </c>
       <c r="JJ10" s="6">
-        <v>-78.337839180870006</v>
+        <v>-112.99003342045</v>
       </c>
       <c r="JK10" s="37">
-        <v>742.66516223423798</v>
+        <v>667.91691785073795</v>
       </c>
       <c r="JL10" s="37">
-        <v>472.63419309133201</v>
-      </c>
-      <c r="JM10" s="59">
-        <v>1100.3124019704801</v>
-      </c>
-      <c r="JN10" s="55">
-        <v>719.58440597693402</v>
+        <v>553.03894305552501</v>
+      </c>
+      <c r="JM10" s="46">
+        <v>1031.6991962459699</v>
+      </c>
+      <c r="JN10" s="42">
+        <v>532.45622843847195</v>
       </c>
     </row>
     <row r="11" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7730,31 +7730,31 @@
         <v>416.46482357826801</v>
       </c>
       <c r="JF11" s="6">
-        <v>193.478250322294</v>
+        <v>201.95506235881399</v>
       </c>
       <c r="JG11" s="6">
-        <v>270.1536959773</v>
+        <v>274.64625126452802</v>
       </c>
       <c r="JH11" s="6">
-        <v>417.20175338856399</v>
+        <v>451.39976903483199</v>
       </c>
       <c r="JI11" s="6">
-        <v>68.543522571631897</v>
+        <v>38.812947412023398</v>
       </c>
       <c r="JJ11" s="6">
-        <v>131.029729314473</v>
+        <v>115.80908170284999</v>
       </c>
       <c r="JK11" s="37">
-        <v>128.56362061304</v>
+        <v>74.941888512584995</v>
       </c>
       <c r="JL11" s="37">
-        <v>220.91448578793501</v>
-      </c>
-      <c r="JM11" s="59">
-        <v>612.95974688183401</v>
-      </c>
-      <c r="JN11" s="55">
-        <v>229.76544514189899</v>
+        <v>201.34269572541999</v>
+      </c>
+      <c r="JM11" s="46">
+        <v>585.37968759007799</v>
+      </c>
+      <c r="JN11" s="42">
+        <v>197.79835514189901</v>
       </c>
     </row>
     <row r="12" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8554,31 +8554,31 @@
         <v>143.192148638036</v>
       </c>
       <c r="JF12" s="6">
-        <v>17.918957549081401</v>
+        <v>28.735148394911601</v>
       </c>
       <c r="JG12" s="6">
-        <v>89.892567509853393</v>
+        <v>94.5737097730524</v>
       </c>
       <c r="JH12" s="6">
-        <v>484.341693518618</v>
+        <v>475.04677708865103</v>
       </c>
       <c r="JI12" s="6">
-        <v>139.79555764183701</v>
+        <v>228.61428645303101</v>
       </c>
       <c r="JJ12" s="6">
-        <v>-249.38489204537001</v>
+        <v>-214.46118516211001</v>
       </c>
       <c r="JK12" s="37">
-        <v>324.79245637839398</v>
+        <v>365.95536508909697</v>
       </c>
       <c r="JL12" s="37">
-        <v>-118.35047562167</v>
-      </c>
-      <c r="JM12" s="59">
-        <v>55.241848511915698</v>
-      </c>
-      <c r="JN12" s="55">
-        <v>81.9569871763739</v>
+        <v>-25.478543959307</v>
+      </c>
+      <c r="JM12" s="46">
+        <v>30.761550639473398</v>
+      </c>
+      <c r="JN12" s="42">
+        <v>-73.204100362087999</v>
       </c>
     </row>
     <row r="13" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9378,30 +9378,30 @@
         <v>292.66136765258699</v>
       </c>
       <c r="JF13" s="6">
-        <v>265.15030910934001</v>
+        <v>263.49588319017198</v>
       </c>
       <c r="JG13" s="6">
-        <v>332.33377387735601</v>
+        <v>340.840502418413</v>
       </c>
       <c r="JH13" s="6">
-        <v>66.573351859682006</v>
+        <v>81.917000032444307</v>
       </c>
       <c r="JI13" s="6">
-        <v>165.856214759262</v>
+        <v>82.081343101735001</v>
       </c>
       <c r="JJ13" s="6">
-        <v>40.017323550027498</v>
+        <v>-14.33792996119</v>
       </c>
       <c r="JK13" s="37">
-        <v>289.30908524280397</v>
+        <v>227.019664249057</v>
       </c>
       <c r="JL13" s="37">
-        <v>370.07018292506899</v>
-      </c>
-      <c r="JM13" s="59">
-        <v>432.11080657673199</v>
-      </c>
-      <c r="JN13" s="55">
+        <v>377.17479128941198</v>
+      </c>
+      <c r="JM13" s="46">
+        <v>415.55795801642</v>
+      </c>
+      <c r="JN13" s="42">
         <v>407.86197365866099</v>
       </c>
     </row>
@@ -10202,31 +10202,31 @@
         <v>-149.53098518397999</v>
       </c>
       <c r="JF14" s="6">
-        <v>770.70921421410196</v>
+        <v>688.24161632078506</v>
       </c>
       <c r="JG14" s="6">
-        <v>2084.1208476901102</v>
+        <v>1985.01786634887</v>
       </c>
       <c r="JH14" s="6">
-        <v>877.08140484715295</v>
+        <v>727.619559662337</v>
       </c>
       <c r="JI14" s="6">
-        <v>1951.3601385575701</v>
+        <v>1874.6260963238799</v>
       </c>
       <c r="JJ14" s="6">
-        <v>1210.8514955447499</v>
+        <v>1074.7026803584899</v>
       </c>
       <c r="JK14" s="37">
-        <v>778.12570980873204</v>
+        <v>658.19688847245004</v>
       </c>
       <c r="JL14" s="37">
-        <v>1797.8930991316199</v>
-      </c>
-      <c r="JM14" s="59">
-        <v>1575.15946241027</v>
-      </c>
-      <c r="JN14" s="55">
-        <v>1327.21584408749</v>
+        <v>1533.7643805329899</v>
+      </c>
+      <c r="JM14" s="46">
+        <v>1055.5832768600501</v>
+      </c>
+      <c r="JN14" s="42">
+        <v>1133.64175507715</v>
       </c>
     </row>
     <row r="15" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -11026,30 +11026,30 @@
         <v>1128.5175564199999</v>
       </c>
       <c r="JF15" s="6">
-        <v>150.16633150999999</v>
+        <v>168.79891080250101</v>
       </c>
       <c r="JG15" s="6">
-        <v>1025.3716739894801</v>
+        <v>1145.14811251838</v>
       </c>
       <c r="JH15" s="6">
-        <v>419.24722014000002</v>
+        <v>345.24738514000001</v>
       </c>
       <c r="JI15" s="6">
-        <v>432.93191062353498</v>
+        <v>436.93492902570802</v>
       </c>
       <c r="JJ15" s="6">
-        <v>459.97056966000002</v>
+        <v>460.16556966000002</v>
       </c>
       <c r="JK15" s="37">
-        <v>585.42030042000101</v>
+        <v>501.30148228000098</v>
       </c>
       <c r="JL15" s="37">
-        <v>270.83298048</v>
-      </c>
-      <c r="JM15" s="59">
-        <v>236.15871032999999</v>
-      </c>
-      <c r="JN15" s="55">
+        <v>282.82716942000002</v>
+      </c>
+      <c r="JM15" s="46">
+        <v>341.80753721365897</v>
+      </c>
+      <c r="JN15" s="42">
         <v>704.78169283</v>
       </c>
     </row>
@@ -11850,30 +11850,30 @@
         <v>-390.3926242677</v>
       </c>
       <c r="JF16" s="6">
-        <v>36.555653245317302</v>
+        <v>37.440016777456101</v>
       </c>
       <c r="JG16" s="6">
-        <v>-285.09334362921999</v>
+        <v>-420.57543617051999</v>
       </c>
       <c r="JH16" s="6">
-        <v>-400.377156195</v>
+        <v>-395.53526774340003</v>
       </c>
       <c r="JI16" s="6">
-        <v>60.112881528106598</v>
+        <v>80.029413919797307</v>
       </c>
       <c r="JJ16" s="6">
-        <v>149.655605855392</v>
+        <v>160.96340810797599</v>
       </c>
       <c r="JK16" s="37">
-        <v>226.374501018465</v>
+        <v>312.61723396067498</v>
       </c>
       <c r="JL16" s="37">
-        <v>349.34999542011298</v>
-      </c>
-      <c r="JM16" s="59">
-        <v>-18.730402518695001</v>
-      </c>
-      <c r="JN16" s="55">
+        <v>184.40061036669999</v>
+      </c>
+      <c r="JM16" s="46">
+        <v>-44.063633926145002</v>
+      </c>
+      <c r="JN16" s="42">
         <v>78.832220302568103</v>
       </c>
     </row>
@@ -12674,31 +12674,31 @@
         <v>-887.65591733628003</v>
       </c>
       <c r="JF17" s="6">
-        <v>583.98722945878501</v>
+        <v>482.00268874082798</v>
       </c>
       <c r="JG17" s="6">
-        <v>1343.8425173298399</v>
+        <v>1260.4451900009999</v>
       </c>
       <c r="JH17" s="6">
-        <v>858.211340902149</v>
+        <v>777.907442265741</v>
       </c>
       <c r="JI17" s="6">
-        <v>1458.3153464059201</v>
+        <v>1357.6617533783699</v>
       </c>
       <c r="JJ17" s="6">
-        <v>601.22532002936202</v>
+        <v>453.57370259051498</v>
       </c>
       <c r="JK17" s="37">
-        <v>-33.669091629733998</v>
+        <v>-155.72182776823001</v>
       </c>
       <c r="JL17" s="37">
-        <v>1177.7101232315099</v>
-      </c>
-      <c r="JM17" s="59">
-        <v>1357.7311545989601</v>
-      </c>
-      <c r="JN17" s="55">
-        <v>543.60193095492605</v>
+        <v>1066.5366007462901</v>
+      </c>
+      <c r="JM17" s="46">
+        <v>757.83937357253399</v>
+      </c>
+      <c r="JN17" s="42">
+        <v>350.02784194458002</v>
       </c>
     </row>
     <row r="18" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -13498,31 +13498,31 @@
         <v>-366.47186149474999</v>
       </c>
       <c r="JF18" s="4">
-        <v>1252.7271314606701</v>
+        <v>1346.38273080814</v>
       </c>
       <c r="JG18" s="4">
-        <v>1084.1442802556501</v>
+        <v>1070.99512089472</v>
       </c>
       <c r="JH18" s="4">
-        <v>-347.32045601425</v>
+        <v>-452.42979763697002</v>
       </c>
       <c r="JI18" s="4">
-        <v>1070.5117005529501</v>
+        <v>530.97928605182597</v>
       </c>
       <c r="JJ18" s="4">
-        <v>-385.61052607228999</v>
+        <v>97.626023432381402</v>
       </c>
       <c r="JK18" s="36">
-        <v>1470.0387050270999</v>
+        <v>1157.7468506395801</v>
       </c>
       <c r="JL18" s="36">
-        <v>-427.25580237220998</v>
-      </c>
-      <c r="JM18" s="58">
-        <v>2227.55851521765</v>
-      </c>
-      <c r="JN18" s="61">
-        <v>-833.94733879917999</v>
+        <v>-320.40215714082001</v>
+      </c>
+      <c r="JM18" s="45">
+        <v>2058.1148822855598</v>
+      </c>
+      <c r="JN18" s="48">
+        <v>-933.88966831395999</v>
       </c>
     </row>
     <row r="19" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14322,31 +14322,31 @@
         <v>-421.14935668966001</v>
       </c>
       <c r="JF19" s="6">
-        <v>2160.56587586567</v>
+        <v>2239.1528863693702</v>
       </c>
       <c r="JG19" s="6">
-        <v>1815.71094705054</v>
+        <v>1802.73778561273</v>
       </c>
       <c r="JH19" s="6">
-        <v>1858.0323528354199</v>
+        <v>1766.6404087689</v>
       </c>
       <c r="JI19" s="6">
-        <v>998.58303888803198</v>
+        <v>460.12371302724898</v>
       </c>
       <c r="JJ19" s="6">
-        <v>198.45724806208199</v>
+        <v>681.56285513674402</v>
       </c>
       <c r="JK19" s="37">
-        <v>2313.4866627136198</v>
+        <v>1895.3156140159299</v>
       </c>
       <c r="JL19" s="37">
-        <v>715.55762897367799</v>
-      </c>
-      <c r="JM19" s="59">
-        <v>1923.1547956936399</v>
-      </c>
-      <c r="JN19" s="55">
-        <v>1056.5349592586399</v>
+        <v>807.05661677073601</v>
+      </c>
+      <c r="JM19" s="46">
+        <v>1659.06298164706</v>
+      </c>
+      <c r="JN19" s="42">
+        <v>956.59495925863803</v>
       </c>
     </row>
     <row r="20" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15146,31 +15146,31 @@
         <v>5.0290587337846402</v>
       </c>
       <c r="JF20" s="6">
-        <v>1588.5132499459201</v>
+        <v>1666.3438477366799</v>
       </c>
       <c r="JG20" s="6">
-        <v>1453.95097633302</v>
+        <v>1441.4864830369399</v>
       </c>
       <c r="JH20" s="6">
-        <v>1085.78596528002</v>
+        <v>996.11939878471196</v>
       </c>
       <c r="JI20" s="6">
-        <v>-668.70090346789004</v>
+        <v>-669.87254652479999</v>
       </c>
       <c r="JJ20" s="6">
-        <v>945.60308411677795</v>
+        <v>835.01144199960902</v>
       </c>
       <c r="JK20" s="37">
-        <v>1242.4881633170301</v>
+        <v>1313.98522728087</v>
       </c>
       <c r="JL20" s="37">
-        <v>999.790696781375</v>
-      </c>
-      <c r="JM20" s="59">
-        <v>2127.3194343779301</v>
-      </c>
-      <c r="JN20" s="55">
-        <v>2122.4699493612402</v>
+        <v>810.86659432085105</v>
+      </c>
+      <c r="JM20" s="46">
+        <v>2218.8850700662101</v>
+      </c>
+      <c r="JN20" s="42">
+        <v>2022.5299493612399</v>
       </c>
     </row>
     <row r="21" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15970,30 +15970,30 @@
         <v>-426.17841542344001</v>
       </c>
       <c r="JF21" s="6">
-        <v>572.05262591974395</v>
+        <v>572.80903863268895</v>
       </c>
       <c r="JG21" s="6">
-        <v>361.75997071751601</v>
+        <v>361.251302575784</v>
       </c>
       <c r="JH21" s="6">
-        <v>772.24638755540002</v>
+        <v>770.52100998418803</v>
       </c>
       <c r="JI21" s="6">
-        <v>1667.2839423559201</v>
+        <v>1129.9962595520401</v>
       </c>
       <c r="JJ21" s="6">
-        <v>-747.1458360547</v>
+        <v>-153.44858686286</v>
       </c>
       <c r="JK21" s="37">
-        <v>1070.99849939658</v>
+        <v>581.33038673505405</v>
       </c>
       <c r="JL21" s="37">
-        <v>-284.23306780770002</v>
-      </c>
-      <c r="JM21" s="59">
-        <v>-204.1646386843</v>
-      </c>
-      <c r="JN21" s="55">
+        <v>-3.8099775501142998</v>
+      </c>
+      <c r="JM21" s="46">
+        <v>-559.82208841914996</v>
+      </c>
+      <c r="JN21" s="42">
         <v>-1065.9349901026001</v>
       </c>
     </row>
@@ -16794,30 +16794,30 @@
         <v>-3.4630242108756</v>
       </c>
       <c r="JF22" s="6">
-        <v>390.73673115432001</v>
+        <v>392.98128677947801</v>
       </c>
       <c r="JG22" s="6">
-        <v>932.11073895937795</v>
+        <v>931.97181083279702</v>
       </c>
       <c r="JH22" s="6">
-        <v>446.20595720078597</v>
+        <v>444.94788270220999</v>
       </c>
       <c r="JI22" s="6">
-        <v>679.87123591829504</v>
+        <v>844.19980869901406</v>
       </c>
       <c r="JJ22" s="6">
-        <v>613.66762323614796</v>
+        <v>755.88594452405403</v>
       </c>
       <c r="JK22" s="37">
-        <v>227.270104056478</v>
+        <v>332.00407371427599</v>
       </c>
       <c r="JL22" s="37">
-        <v>111.29379635223999</v>
-      </c>
-      <c r="JM22" s="59">
-        <v>-382.08279078236001</v>
-      </c>
-      <c r="JN22" s="55">
+        <v>93.762881607732695</v>
+      </c>
+      <c r="JM22" s="46">
+        <v>-380.55611491559</v>
+      </c>
+      <c r="JN22" s="42">
         <v>-455.67386542346998</v>
       </c>
     </row>
@@ -17618,30 +17618,30 @@
         <v>-422.71539121257001</v>
       </c>
       <c r="JF23" s="6">
-        <v>181.31589476542399</v>
+        <v>179.82775185321199</v>
       </c>
       <c r="JG23" s="6">
-        <v>-570.35076824186001</v>
+        <v>-570.72050825701001</v>
       </c>
       <c r="JH23" s="6">
-        <v>326.04043035461399</v>
+        <v>325.57312728197797</v>
       </c>
       <c r="JI23" s="6">
-        <v>987.41270643762903</v>
+        <v>285.79645085303002</v>
       </c>
       <c r="JJ23" s="6">
-        <v>-1360.8134592908</v>
+        <v>-909.33453138692005</v>
       </c>
       <c r="JK23" s="37">
-        <v>843.72839534010404</v>
+        <v>249.326313020778</v>
       </c>
       <c r="JL23" s="37">
-        <v>-395.52686415993998</v>
-      </c>
-      <c r="JM23" s="59">
-        <v>177.918152098062</v>
-      </c>
-      <c r="JN23" s="55">
+        <v>-97.572859157847006</v>
+      </c>
+      <c r="JM23" s="46">
+        <v>-179.26597350355999</v>
+      </c>
+      <c r="JN23" s="42">
         <v>-610.26112467913003</v>
       </c>
     </row>
@@ -18442,31 +18442,31 @@
         <v>-54.677495194906001</v>
       </c>
       <c r="JF24" s="6">
-        <v>907.83874440499699</v>
+        <v>892.77015556123501</v>
       </c>
       <c r="JG24" s="6">
-        <v>731.56666679489297</v>
+        <v>731.74266471801195</v>
       </c>
       <c r="JH24" s="6">
-        <v>2205.3528088496601</v>
+        <v>2219.0702064058701</v>
       </c>
       <c r="JI24" s="6">
-        <v>-71.928661664914003</v>
+        <v>-70.855573024578007</v>
       </c>
       <c r="JJ24" s="6">
-        <v>584.06777413437305</v>
+        <v>583.93683170436304</v>
       </c>
       <c r="JK24" s="37">
-        <v>843.44795768651795</v>
+        <v>737.56876337634401</v>
       </c>
       <c r="JL24" s="37">
-        <v>1142.81343134588</v>
-      </c>
-      <c r="JM24" s="59">
-        <v>-304.40371952401</v>
-      </c>
-      <c r="JN24" s="55">
-        <v>1890.4822980578199</v>
+        <v>1127.45877391156</v>
+      </c>
+      <c r="JM24" s="46">
+        <v>-399.0519006385</v>
+      </c>
+      <c r="JN24" s="42">
+        <v>1890.4846275725999</v>
       </c>
     </row>
     <row r="25" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19286,11 +19286,11 @@
       <c r="JL25" s="37">
         <v>-380.80764791126001</v>
       </c>
-      <c r="JM25" s="59">
+      <c r="JM25" s="46">
         <v>-455.60945480116999</v>
       </c>
-      <c r="JN25" s="55">
-        <v>-428.24830743171998</v>
+      <c r="JN25" s="42">
+        <v>-428.24597791693998</v>
       </c>
     </row>
     <row r="26" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20090,30 +20090,30 @@
         <v>-82.623071473161005</v>
       </c>
       <c r="JF26" s="6">
-        <v>852.13736016721703</v>
+        <v>837.06877132345403</v>
       </c>
       <c r="JG26" s="6">
-        <v>883.20863477622402</v>
+        <v>883.38463269934402</v>
       </c>
       <c r="JH26" s="6">
-        <v>2399.5055515310601</v>
+        <v>2413.2229490872701</v>
       </c>
       <c r="JI26" s="6">
-        <v>75.8761778266134</v>
+        <v>76.949266466949396</v>
       </c>
       <c r="JJ26" s="6">
-        <v>719.15334482114895</v>
+        <v>719.02240239113905</v>
       </c>
       <c r="JK26" s="37">
-        <v>1063.08103856858</v>
+        <v>957.20184425840205</v>
       </c>
       <c r="JL26" s="37">
-        <v>1523.6210792571501</v>
-      </c>
-      <c r="JM26" s="59">
-        <v>151.20573527716101</v>
-      </c>
-      <c r="JN26" s="55">
+        <v>1508.2664218228199</v>
+      </c>
+      <c r="JM26" s="46">
+        <v>56.5575541626716</v>
+      </c>
+      <c r="JN26" s="42">
         <v>2318.7306054895398</v>
       </c>
     </row>
@@ -20914,30 +20914,30 @@
         <v>-73.353249672773998</v>
       </c>
       <c r="JF27" s="6">
-        <v>259.92593655476003</v>
+        <v>242.56647853214</v>
       </c>
       <c r="JG27" s="6">
-        <v>793.74553502530296</v>
+        <v>793.91296098956502</v>
       </c>
       <c r="JH27" s="6">
-        <v>2303.99911206977</v>
+        <v>2317.4821311751398</v>
       </c>
       <c r="JI27" s="6">
-        <v>-108.03519219642</v>
+        <v>-106.97150978693</v>
       </c>
       <c r="JJ27" s="6">
-        <v>605.89010145238694</v>
+        <v>605.74975279153796</v>
       </c>
       <c r="JK27" s="37">
-        <v>630.77791349986705</v>
+        <v>524.86711103454195</v>
       </c>
       <c r="JL27" s="37">
-        <v>1753.3435608293701</v>
-      </c>
-      <c r="JM27" s="59">
-        <v>108.274609560786</v>
-      </c>
-      <c r="JN27" s="55">
+        <v>1738.03958474052</v>
+      </c>
+      <c r="JM27" s="46">
+        <v>111.903836734314</v>
+      </c>
+      <c r="JN27" s="42">
         <v>2089.8732521775901</v>
       </c>
     </row>
@@ -21738,30 +21738,30 @@
         <v>-9.2698218003869002</v>
       </c>
       <c r="JF28" s="6">
-        <v>592.211423612457</v>
+        <v>594.50229279131395</v>
       </c>
       <c r="JG28" s="6">
-        <v>89.463099750921302</v>
+        <v>89.471671709778605</v>
       </c>
       <c r="JH28" s="6">
-        <v>95.506439461288593</v>
+        <v>95.740817912128506</v>
       </c>
       <c r="JI28" s="6">
-        <v>183.91137002303799</v>
+        <v>183.92077625387699</v>
       </c>
       <c r="JJ28" s="6">
-        <v>113.263243368761</v>
+        <v>113.272649599601</v>
       </c>
       <c r="JK28" s="37">
-        <v>432.30312506870899</v>
+        <v>432.33473322385902</v>
       </c>
       <c r="JL28" s="37">
-        <v>-229.72248157223001</v>
-      </c>
-      <c r="JM28" s="59">
-        <v>42.931125716375099</v>
-      </c>
-      <c r="JN28" s="55">
+        <v>-229.77316291770001</v>
+      </c>
+      <c r="JM28" s="46">
+        <v>-55.346282571642</v>
+      </c>
+      <c r="JN28" s="42">
         <v>228.857353311954</v>
       </c>
     </row>
@@ -22562,30 +22562,30 @@
         <v>-170.96475169548</v>
       </c>
       <c r="JF29" s="4">
-        <v>-136.90423404223</v>
+        <v>-141.73057730117</v>
       </c>
       <c r="JG29" s="4">
-        <v>-123.85181107429</v>
+        <v>-120.21044600169</v>
       </c>
       <c r="JH29" s="4">
-        <v>-451.29294961074999</v>
+        <v>-457.22286327722998</v>
       </c>
       <c r="JI29" s="4">
-        <v>-439.03397031345003</v>
+        <v>-439.81818392074001</v>
       </c>
       <c r="JJ29" s="4">
-        <v>-29.607419313404002</v>
+        <v>-33.468443350888997</v>
       </c>
       <c r="JK29" s="36">
-        <v>-157.86499620951</v>
+        <v>-164.3896663342</v>
       </c>
       <c r="JL29" s="36">
-        <v>-70.383674832493995</v>
-      </c>
-      <c r="JM29" s="58">
-        <v>64.225654283087295</v>
-      </c>
-      <c r="JN29" s="61">
+        <v>-69.304515125329999</v>
+      </c>
+      <c r="JM29" s="45">
+        <v>60.765399203489302</v>
+      </c>
+      <c r="JN29" s="48">
         <v>-90.921297730660996</v>
       </c>
     </row>
@@ -23386,30 +23386,30 @@
         <v>-1331.9698771678</v>
       </c>
       <c r="JF30" s="4">
-        <v>564.84433148662401</v>
+        <v>1042.69744588403</v>
       </c>
       <c r="JG30" s="4">
-        <v>-1146.4608982548</v>
+        <v>-1101.985625004</v>
       </c>
       <c r="JH30" s="4">
-        <v>-1264.2719428158</v>
+        <v>-1824.6199483114999</v>
       </c>
       <c r="JI30" s="4">
-        <v>141.62449611852099</v>
+        <v>1131.3833748668301</v>
       </c>
       <c r="JJ30" s="4">
-        <v>-122.71521445155</v>
+        <v>-825.23855719997005</v>
       </c>
       <c r="JK30" s="36">
-        <v>-3315.7427642789999</v>
+        <v>-2264.0115799678001</v>
       </c>
       <c r="JL30" s="36">
-        <v>597.41571908149501</v>
-      </c>
-      <c r="JM30" s="58">
-        <v>-3814.6894653142999</v>
-      </c>
-      <c r="JN30" s="61">
+        <v>515.35122500355396</v>
+      </c>
+      <c r="JM30" s="45">
+        <v>-3752.9695081988002</v>
+      </c>
+      <c r="JN30" s="48">
         <v>-1974.8637218752999</v>
       </c>
     </row>
@@ -24210,30 +24210,30 @@
         <v>-279.66671815693002</v>
       </c>
       <c r="JF31" s="6">
-        <v>1821.1875424371699</v>
+        <v>2302.1655491602501</v>
       </c>
       <c r="JG31" s="6">
-        <v>-2228.4305868698002</v>
+        <v>-2172.7473253077001</v>
       </c>
       <c r="JH31" s="6">
-        <v>-770.73960968706001</v>
+        <v>-1567.5496675109</v>
       </c>
       <c r="JI31" s="6">
-        <v>1556.49411160758</v>
+        <v>2512.3297421167499</v>
       </c>
       <c r="JJ31" s="6">
-        <v>750.48406657854002</v>
+        <v>106.905375806818</v>
       </c>
       <c r="JK31" s="37">
-        <v>-3028.5556636962001</v>
+        <v>-2099.3739931681998</v>
       </c>
       <c r="JL31" s="37">
-        <v>1221.46585725614</v>
-      </c>
-      <c r="JM31" s="59">
-        <v>-3258.2933649785</v>
-      </c>
-      <c r="JN31" s="55">
+        <v>1039.6347767678001</v>
+      </c>
+      <c r="JM31" s="46">
+        <v>-3155.5687763300002</v>
+      </c>
+      <c r="JN31" s="42">
         <v>809.75539715548996</v>
       </c>
     </row>
@@ -25054,10 +25054,10 @@
       <c r="JL32" s="37">
         <v>0</v>
       </c>
-      <c r="JM32" s="59">
-        <v>0</v>
-      </c>
-      <c r="JN32" s="55">
+      <c r="JM32" s="46">
+        <v>0</v>
+      </c>
+      <c r="JN32" s="42">
         <v>0</v>
       </c>
     </row>
@@ -25858,30 +25858,30 @@
         <v>1013.73110840833</v>
       </c>
       <c r="JF33" s="6">
-        <v>1559.2478770412599</v>
+        <v>1206.8878220219599</v>
       </c>
       <c r="JG33" s="6">
-        <v>-226.12803068061001</v>
+        <v>-390.17087691348001</v>
       </c>
       <c r="JH33" s="6">
-        <v>-497.83597423404001</v>
+        <v>-263.57852369190999</v>
       </c>
       <c r="JI33" s="6">
-        <v>-105.5862235896</v>
+        <v>58.988970698888302</v>
       </c>
       <c r="JJ33" s="6">
-        <v>-580.68408952786001</v>
+        <v>-396.06064167496999</v>
       </c>
       <c r="JK33" s="37">
-        <v>-200.04236735947001</v>
+        <v>-279.63584068540001</v>
       </c>
       <c r="JL33" s="37">
-        <v>-362.17993059535002</v>
-      </c>
-      <c r="JM33" s="59">
-        <v>-258.15050846599001</v>
-      </c>
-      <c r="JN33" s="55">
+        <v>-399.29119783665999</v>
+      </c>
+      <c r="JM33" s="46">
+        <v>-211.33344606012</v>
+      </c>
+      <c r="JN33" s="42">
         <v>477.20781141193299</v>
       </c>
     </row>
@@ -26682,30 +26682,30 @@
         <v>15.925438226660701</v>
       </c>
       <c r="JF34" s="6">
-        <v>-257.26382664281999</v>
+        <v>-257.22399598453001</v>
       </c>
       <c r="JG34" s="6">
-        <v>-100.44001776855001</v>
+        <v>-100.39155728355</v>
       </c>
       <c r="JH34" s="6">
-        <v>109.75415089367699</v>
+        <v>109.644714896964</v>
       </c>
       <c r="JI34" s="6">
-        <v>23.8945510768073</v>
+        <v>570.38699761510702</v>
       </c>
       <c r="JJ34" s="6">
-        <v>385.03332093123601</v>
+        <v>-149.07037588637999</v>
       </c>
       <c r="JK34" s="37">
-        <v>-35.973160346759997</v>
+        <v>575.26707779216702</v>
       </c>
       <c r="JL34" s="37">
-        <v>-79.369152821048999</v>
-      </c>
-      <c r="JM34" s="59">
-        <v>-10.359477357736001</v>
-      </c>
-      <c r="JN34" s="55">
+        <v>-371.71018314729002</v>
+      </c>
+      <c r="JM34" s="46">
+        <v>168.59170744242601</v>
+      </c>
+      <c r="JN34" s="42">
         <v>-221.53961593992</v>
       </c>
     </row>
@@ -27506,30 +27506,30 @@
         <v>-1303.2135075752999</v>
       </c>
       <c r="JF35" s="6">
-        <v>521.99256476224298</v>
+        <v>1355.29079584633</v>
       </c>
       <c r="JG35" s="6">
-        <v>-1899.0595423177999</v>
+        <v>-1679.3818950079001</v>
       </c>
       <c r="JH35" s="6">
-        <v>-379.81282591436002</v>
+        <v>-1410.7708982836</v>
       </c>
       <c r="JI35" s="6">
-        <v>1641.0716956389799</v>
+        <v>1885.8396853213601</v>
       </c>
       <c r="JJ35" s="6">
-        <v>949.03500160729004</v>
+        <v>654.93655980029496</v>
       </c>
       <c r="JK35" s="37">
-        <v>-2816.3950089225</v>
+        <v>-2418.8601032074998</v>
       </c>
       <c r="JL35" s="37">
-        <v>1665.95138717896</v>
-      </c>
-      <c r="JM35" s="59">
-        <v>-3022.5754368179</v>
-      </c>
-      <c r="JN35" s="55">
+        <v>1813.57260425817</v>
+      </c>
+      <c r="JM35" s="46">
+        <v>-3145.6190953753999</v>
+      </c>
+      <c r="JN35" s="42">
         <v>557.07561330063902</v>
       </c>
     </row>
@@ -28350,10 +28350,10 @@
       <c r="JL36" s="37">
         <v>-2.9364465064142</v>
       </c>
-      <c r="JM36" s="59">
+      <c r="JM36" s="46">
         <v>32.792057663167398</v>
       </c>
-      <c r="JN36" s="55">
+      <c r="JN36" s="42">
         <v>-2.9884116171652999</v>
       </c>
     </row>
@@ -29154,30 +29154,30 @@
         <v>1052.3031590108701</v>
       </c>
       <c r="JF37" s="6">
-        <v>1256.34321095054</v>
+        <v>1259.4681032762201</v>
       </c>
       <c r="JG37" s="6">
-        <v>-1081.969688615</v>
+        <v>-1070.7617003037001</v>
       </c>
       <c r="JH37" s="6">
-        <v>493.532333128706</v>
+        <v>257.07028080068301</v>
       </c>
       <c r="JI37" s="6">
-        <v>1414.8696154890599</v>
+        <v>1380.9463672499201</v>
       </c>
       <c r="JJ37" s="6">
-        <v>873.19928103009499</v>
+        <v>932.14393300678296</v>
       </c>
       <c r="JK37" s="37">
-        <v>287.18710058277901</v>
+        <v>164.63758679958499</v>
       </c>
       <c r="JL37" s="37">
-        <v>624.05013817464896</v>
-      </c>
-      <c r="JM37" s="59">
-        <v>556.396100335852</v>
-      </c>
-      <c r="JN37" s="55">
+        <v>524.28355176424998</v>
+      </c>
+      <c r="JM37" s="46">
+        <v>597.40073186887105</v>
+      </c>
+      <c r="JN37" s="42">
         <v>2784.6191190308</v>
       </c>
     </row>
@@ -29978,30 +29978,30 @@
         <v>294.93755230821398</v>
       </c>
       <c r="JF38" s="6">
-        <v>238.35777394803199</v>
+        <v>237.47903535937999</v>
       </c>
       <c r="JG38" s="6">
-        <v>-505.13167643559001</v>
+        <v>-504.75137508375002</v>
       </c>
       <c r="JH38" s="6">
-        <v>56.488468019368</v>
+        <v>52.4061362899171</v>
       </c>
       <c r="JI38" s="6">
-        <v>280.26939080894698</v>
+        <v>273.13783407393402</v>
       </c>
       <c r="JJ38" s="6">
-        <v>14.347543586186999</v>
+        <v>43.049066112671099</v>
       </c>
       <c r="JK38" s="37">
-        <v>215.07495668310199</v>
+        <v>286.93419557644</v>
       </c>
       <c r="JL38" s="37">
-        <v>742.26978146436295</v>
-      </c>
-      <c r="JM38" s="59">
-        <v>-381.62573550705002</v>
-      </c>
-      <c r="JN38" s="55">
+        <v>728.86179155008301</v>
+      </c>
+      <c r="JM38" s="46">
+        <v>-418.99461651690001</v>
+      </c>
+      <c r="JN38" s="42">
         <v>242.54981863702301</v>
       </c>
     </row>
@@ -30802,30 +30802,30 @@
         <v>844.79612468330902</v>
       </c>
       <c r="JF39" s="6">
-        <v>498.57767904035899</v>
+        <v>502.58130995468798</v>
       </c>
       <c r="JG39" s="6">
-        <v>-169.55712075619999</v>
+        <v>-158.72943379681001</v>
       </c>
       <c r="JH39" s="6">
-        <v>361.59313312609299</v>
+        <v>129.213412527521</v>
       </c>
       <c r="JI39" s="6">
-        <v>847.87157013642502</v>
+        <v>821.079878632293</v>
       </c>
       <c r="JJ39" s="6">
-        <v>570.02681805530403</v>
+        <v>600.26994750550898</v>
       </c>
       <c r="JK39" s="37">
-        <v>-352.28276133051997</v>
+        <v>-546.69151400706005</v>
       </c>
       <c r="JL39" s="37">
-        <v>409.61422487256698</v>
-      </c>
-      <c r="JM39" s="59">
-        <v>790.43022319104102</v>
-      </c>
-      <c r="JN39" s="55">
+        <v>323.25562837644901</v>
+      </c>
+      <c r="JM39" s="46">
+        <v>868.803735733905</v>
+      </c>
+      <c r="JN39" s="42">
         <v>2385.57291917168</v>
       </c>
     </row>
@@ -31646,10 +31646,10 @@
       <c r="JL40" s="37">
         <v>-536.34803998396001</v>
       </c>
-      <c r="JM40" s="59">
+      <c r="JM40" s="46">
         <v>164.61488196080799</v>
       </c>
-      <c r="JN40" s="55">
+      <c r="JN40" s="42">
         <v>148.539700861402</v>
       </c>
     </row>
@@ -32470,10 +32470,10 @@
       <c r="JL41" s="37">
         <v>3.4253000000000002E-4</v>
       </c>
-      <c r="JM41" s="59">
+      <c r="JM41" s="46">
         <v>3.5935999999999997E-4</v>
       </c>
-      <c r="JN41" s="55">
+      <c r="JN41" s="42">
         <v>-1.0444199999999999E-3</v>
       </c>
     </row>
@@ -33294,10 +33294,10 @@
       <c r="JL42" s="37">
         <v>8.5138292916837894</v>
       </c>
-      <c r="JM42" s="59">
+      <c r="JM42" s="46">
         <v>-17.023628668941999</v>
       </c>
-      <c r="JN42" s="55">
+      <c r="JN42" s="42">
         <v>7.9577247807017502</v>
       </c>
     </row>
@@ -34118,285 +34118,285 @@
       <c r="JL43" s="34">
         <v>60.732082814104203</v>
       </c>
-      <c r="JM43" s="60">
+      <c r="JM43" s="47">
         <v>78.311586224415507</v>
       </c>
-      <c r="JN43" s="62">
+      <c r="JN43" s="49">
         <v>535.44764251350205</v>
       </c>
     </row>
     <row r="44" spans="1:274" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="48"/>
-      <c r="AV44" s="48"/>
-      <c r="AW44" s="48"/>
-      <c r="AX44" s="48"/>
-      <c r="AY44" s="48"/>
-      <c r="AZ44" s="48"/>
-      <c r="BA44" s="48"/>
-      <c r="BB44" s="48"/>
-      <c r="BC44" s="48"/>
-      <c r="BD44" s="48"/>
-      <c r="BE44" s="48"/>
-      <c r="BF44" s="48"/>
-      <c r="BG44" s="48"/>
-      <c r="BH44" s="48"/>
-      <c r="BI44" s="48"/>
-      <c r="BJ44" s="48"/>
-      <c r="BK44" s="48"/>
-      <c r="BL44" s="48"/>
-      <c r="BM44" s="48"/>
-      <c r="BN44" s="48"/>
-      <c r="BO44" s="48"/>
-      <c r="BP44" s="48"/>
-      <c r="BQ44" s="48"/>
-      <c r="BR44" s="48"/>
-      <c r="BS44" s="48"/>
-      <c r="BT44" s="48"/>
-      <c r="BU44" s="48"/>
-      <c r="BV44" s="48"/>
-      <c r="BW44" s="48"/>
-      <c r="BX44" s="48"/>
-      <c r="BY44" s="48"/>
-      <c r="BZ44" s="48"/>
-      <c r="CA44" s="48"/>
-      <c r="CB44" s="48"/>
-      <c r="CC44" s="48"/>
-      <c r="CD44" s="48"/>
-      <c r="CE44" s="48"/>
-      <c r="CF44" s="48"/>
-      <c r="CG44" s="48"/>
-      <c r="CH44" s="48"/>
-      <c r="CI44" s="48"/>
-      <c r="CJ44" s="48"/>
-      <c r="CK44" s="48"/>
-      <c r="CL44" s="48"/>
-      <c r="CM44" s="48"/>
-      <c r="CN44" s="48"/>
-      <c r="CO44" s="48"/>
-      <c r="CP44" s="48"/>
-      <c r="CQ44" s="48"/>
-      <c r="CR44" s="48"/>
-      <c r="CS44" s="48"/>
-      <c r="CT44" s="48"/>
-      <c r="CU44" s="48"/>
-      <c r="CV44" s="48"/>
-      <c r="CW44" s="48"/>
-      <c r="CX44" s="48"/>
-      <c r="CY44" s="48"/>
-      <c r="CZ44" s="48"/>
-      <c r="DA44" s="48"/>
-      <c r="DB44" s="48"/>
-      <c r="DC44" s="48"/>
-      <c r="DD44" s="48"/>
-      <c r="DE44" s="48"/>
-      <c r="DF44" s="48"/>
-      <c r="DG44" s="48"/>
-      <c r="DH44" s="48"/>
-      <c r="DI44" s="48"/>
-      <c r="DJ44" s="48"/>
-      <c r="DK44" s="48"/>
-      <c r="DL44" s="48"/>
-      <c r="DM44" s="48"/>
-      <c r="DN44" s="48"/>
-      <c r="DO44" s="48"/>
-      <c r="DP44" s="48"/>
-      <c r="DQ44" s="48"/>
-      <c r="DR44" s="48"/>
-      <c r="DS44" s="48"/>
-      <c r="DT44" s="48"/>
-      <c r="DU44" s="48"/>
-      <c r="DV44" s="48"/>
-      <c r="DW44" s="48"/>
-      <c r="DX44" s="48"/>
-      <c r="DY44" s="48"/>
-      <c r="DZ44" s="48"/>
-      <c r="EA44" s="48"/>
-      <c r="EB44" s="48"/>
-      <c r="EC44" s="48"/>
-      <c r="ED44" s="48"/>
-      <c r="EE44" s="48"/>
-      <c r="EF44" s="48"/>
-      <c r="EG44" s="48"/>
-      <c r="EH44" s="48"/>
-      <c r="EI44" s="48"/>
-      <c r="EJ44" s="48"/>
-      <c r="EK44" s="48"/>
-      <c r="EL44" s="48"/>
-      <c r="EM44" s="48"/>
-      <c r="EN44" s="48"/>
-      <c r="EO44" s="48"/>
-      <c r="EP44" s="48"/>
-      <c r="EQ44" s="48"/>
-      <c r="ER44" s="48"/>
-      <c r="ES44" s="48"/>
-      <c r="ET44" s="48"/>
-      <c r="EU44" s="48"/>
-      <c r="EV44" s="48"/>
-      <c r="EW44" s="48"/>
-      <c r="EX44" s="48"/>
-      <c r="EY44" s="48"/>
-      <c r="EZ44" s="48"/>
-      <c r="FA44" s="48"/>
-      <c r="FB44" s="48"/>
-      <c r="FC44" s="48"/>
-      <c r="FD44" s="48"/>
-      <c r="FE44" s="48"/>
-      <c r="FF44" s="48"/>
-      <c r="FG44" s="48"/>
-      <c r="FH44" s="48"/>
-      <c r="FI44" s="48"/>
-      <c r="FJ44" s="48"/>
-      <c r="FK44" s="48"/>
-      <c r="FL44" s="48"/>
-      <c r="FM44" s="48"/>
-      <c r="FN44" s="48"/>
-      <c r="FO44" s="48"/>
-      <c r="FP44" s="48"/>
-      <c r="FQ44" s="48"/>
-      <c r="FR44" s="48"/>
-      <c r="FS44" s="48"/>
-      <c r="FT44" s="48"/>
-      <c r="FU44" s="48"/>
-      <c r="FV44" s="48"/>
-      <c r="FW44" s="48"/>
-      <c r="FX44" s="48"/>
-      <c r="FY44" s="48"/>
-      <c r="FZ44" s="48"/>
-      <c r="GA44" s="48"/>
-      <c r="GB44" s="48"/>
-      <c r="GC44" s="48"/>
-      <c r="GD44" s="48"/>
-      <c r="GE44" s="48"/>
-      <c r="GF44" s="48"/>
-      <c r="GG44" s="48"/>
-      <c r="GH44" s="48"/>
-      <c r="GI44" s="48"/>
-      <c r="GJ44" s="48"/>
-      <c r="GK44" s="48"/>
-      <c r="GL44" s="48"/>
-      <c r="GM44" s="48"/>
-      <c r="GN44" s="48"/>
-      <c r="GO44" s="48"/>
-      <c r="GP44" s="48"/>
-      <c r="GQ44" s="48"/>
-      <c r="GR44" s="48"/>
-      <c r="GS44" s="48"/>
-      <c r="GT44" s="48"/>
-      <c r="GU44" s="48"/>
-      <c r="GV44" s="48"/>
-      <c r="GW44" s="48"/>
-      <c r="GX44" s="48"/>
-      <c r="GY44" s="48"/>
-      <c r="GZ44" s="48"/>
-      <c r="HA44" s="48"/>
-      <c r="HB44" s="48"/>
-      <c r="HC44" s="48"/>
-      <c r="HD44" s="48"/>
-      <c r="HE44" s="48"/>
-      <c r="HF44" s="48"/>
-      <c r="HG44" s="48"/>
-      <c r="HH44" s="48"/>
-      <c r="HI44" s="48"/>
-      <c r="HJ44" s="48"/>
-      <c r="HK44" s="48"/>
-      <c r="HL44" s="48"/>
-      <c r="HM44" s="48"/>
-      <c r="HN44" s="48"/>
-      <c r="HO44" s="48"/>
-      <c r="HP44" s="48"/>
-      <c r="HQ44" s="48"/>
-      <c r="HR44" s="48"/>
-      <c r="HS44" s="48"/>
-      <c r="HT44" s="48"/>
-      <c r="HU44" s="48"/>
-      <c r="HV44" s="48"/>
-      <c r="HW44" s="48"/>
-      <c r="HX44" s="48"/>
-      <c r="HY44" s="48"/>
-      <c r="HZ44" s="48"/>
-      <c r="IA44" s="48"/>
-      <c r="IB44" s="48"/>
-      <c r="IC44" s="48"/>
-      <c r="ID44" s="48"/>
-      <c r="IE44" s="48"/>
-      <c r="IF44" s="48"/>
-      <c r="IG44" s="48"/>
-      <c r="IH44" s="48"/>
-      <c r="II44" s="48"/>
-      <c r="IJ44" s="48"/>
-      <c r="IK44" s="48"/>
-      <c r="IL44" s="48"/>
-      <c r="IM44" s="48"/>
-      <c r="IN44" s="48"/>
-      <c r="IO44" s="48"/>
-      <c r="IP44" s="48"/>
-      <c r="IQ44" s="48"/>
-      <c r="IR44" s="48"/>
-      <c r="IS44" s="48"/>
-      <c r="IT44" s="48"/>
-      <c r="IU44" s="48"/>
-      <c r="IV44" s="48"/>
-      <c r="IW44" s="48"/>
-      <c r="IX44" s="48"/>
-      <c r="IY44" s="48"/>
-      <c r="IZ44" s="48"/>
-      <c r="JA44" s="48"/>
-      <c r="JB44" s="48"/>
-      <c r="JC44" s="48"/>
-      <c r="JD44" s="48"/>
-      <c r="JE44" s="48"/>
-      <c r="JF44" s="48"/>
-      <c r="JG44" s="48"/>
-      <c r="JH44" s="48"/>
-      <c r="JI44" s="48"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="57"/>
+      <c r="AP44" s="57"/>
+      <c r="AQ44" s="57"/>
+      <c r="AR44" s="57"/>
+      <c r="AS44" s="57"/>
+      <c r="AT44" s="57"/>
+      <c r="AU44" s="57"/>
+      <c r="AV44" s="57"/>
+      <c r="AW44" s="57"/>
+      <c r="AX44" s="57"/>
+      <c r="AY44" s="57"/>
+      <c r="AZ44" s="57"/>
+      <c r="BA44" s="57"/>
+      <c r="BB44" s="57"/>
+      <c r="BC44" s="57"/>
+      <c r="BD44" s="57"/>
+      <c r="BE44" s="57"/>
+      <c r="BF44" s="57"/>
+      <c r="BG44" s="57"/>
+      <c r="BH44" s="57"/>
+      <c r="BI44" s="57"/>
+      <c r="BJ44" s="57"/>
+      <c r="BK44" s="57"/>
+      <c r="BL44" s="57"/>
+      <c r="BM44" s="57"/>
+      <c r="BN44" s="57"/>
+      <c r="BO44" s="57"/>
+      <c r="BP44" s="57"/>
+      <c r="BQ44" s="57"/>
+      <c r="BR44" s="57"/>
+      <c r="BS44" s="57"/>
+      <c r="BT44" s="57"/>
+      <c r="BU44" s="57"/>
+      <c r="BV44" s="57"/>
+      <c r="BW44" s="57"/>
+      <c r="BX44" s="57"/>
+      <c r="BY44" s="57"/>
+      <c r="BZ44" s="57"/>
+      <c r="CA44" s="57"/>
+      <c r="CB44" s="57"/>
+      <c r="CC44" s="57"/>
+      <c r="CD44" s="57"/>
+      <c r="CE44" s="57"/>
+      <c r="CF44" s="57"/>
+      <c r="CG44" s="57"/>
+      <c r="CH44" s="57"/>
+      <c r="CI44" s="57"/>
+      <c r="CJ44" s="57"/>
+      <c r="CK44" s="57"/>
+      <c r="CL44" s="57"/>
+      <c r="CM44" s="57"/>
+      <c r="CN44" s="57"/>
+      <c r="CO44" s="57"/>
+      <c r="CP44" s="57"/>
+      <c r="CQ44" s="57"/>
+      <c r="CR44" s="57"/>
+      <c r="CS44" s="57"/>
+      <c r="CT44" s="57"/>
+      <c r="CU44" s="57"/>
+      <c r="CV44" s="57"/>
+      <c r="CW44" s="57"/>
+      <c r="CX44" s="57"/>
+      <c r="CY44" s="57"/>
+      <c r="CZ44" s="57"/>
+      <c r="DA44" s="57"/>
+      <c r="DB44" s="57"/>
+      <c r="DC44" s="57"/>
+      <c r="DD44" s="57"/>
+      <c r="DE44" s="57"/>
+      <c r="DF44" s="57"/>
+      <c r="DG44" s="57"/>
+      <c r="DH44" s="57"/>
+      <c r="DI44" s="57"/>
+      <c r="DJ44" s="57"/>
+      <c r="DK44" s="57"/>
+      <c r="DL44" s="57"/>
+      <c r="DM44" s="57"/>
+      <c r="DN44" s="57"/>
+      <c r="DO44" s="57"/>
+      <c r="DP44" s="57"/>
+      <c r="DQ44" s="57"/>
+      <c r="DR44" s="57"/>
+      <c r="DS44" s="57"/>
+      <c r="DT44" s="57"/>
+      <c r="DU44" s="57"/>
+      <c r="DV44" s="57"/>
+      <c r="DW44" s="57"/>
+      <c r="DX44" s="57"/>
+      <c r="DY44" s="57"/>
+      <c r="DZ44" s="57"/>
+      <c r="EA44" s="57"/>
+      <c r="EB44" s="57"/>
+      <c r="EC44" s="57"/>
+      <c r="ED44" s="57"/>
+      <c r="EE44" s="57"/>
+      <c r="EF44" s="57"/>
+      <c r="EG44" s="57"/>
+      <c r="EH44" s="57"/>
+      <c r="EI44" s="57"/>
+      <c r="EJ44" s="57"/>
+      <c r="EK44" s="57"/>
+      <c r="EL44" s="57"/>
+      <c r="EM44" s="57"/>
+      <c r="EN44" s="57"/>
+      <c r="EO44" s="57"/>
+      <c r="EP44" s="57"/>
+      <c r="EQ44" s="57"/>
+      <c r="ER44" s="57"/>
+      <c r="ES44" s="57"/>
+      <c r="ET44" s="57"/>
+      <c r="EU44" s="57"/>
+      <c r="EV44" s="57"/>
+      <c r="EW44" s="57"/>
+      <c r="EX44" s="57"/>
+      <c r="EY44" s="57"/>
+      <c r="EZ44" s="57"/>
+      <c r="FA44" s="57"/>
+      <c r="FB44" s="57"/>
+      <c r="FC44" s="57"/>
+      <c r="FD44" s="57"/>
+      <c r="FE44" s="57"/>
+      <c r="FF44" s="57"/>
+      <c r="FG44" s="57"/>
+      <c r="FH44" s="57"/>
+      <c r="FI44" s="57"/>
+      <c r="FJ44" s="57"/>
+      <c r="FK44" s="57"/>
+      <c r="FL44" s="57"/>
+      <c r="FM44" s="57"/>
+      <c r="FN44" s="57"/>
+      <c r="FO44" s="57"/>
+      <c r="FP44" s="57"/>
+      <c r="FQ44" s="57"/>
+      <c r="FR44" s="57"/>
+      <c r="FS44" s="57"/>
+      <c r="FT44" s="57"/>
+      <c r="FU44" s="57"/>
+      <c r="FV44" s="57"/>
+      <c r="FW44" s="57"/>
+      <c r="FX44" s="57"/>
+      <c r="FY44" s="57"/>
+      <c r="FZ44" s="57"/>
+      <c r="GA44" s="57"/>
+      <c r="GB44" s="57"/>
+      <c r="GC44" s="57"/>
+      <c r="GD44" s="57"/>
+      <c r="GE44" s="57"/>
+      <c r="GF44" s="57"/>
+      <c r="GG44" s="57"/>
+      <c r="GH44" s="57"/>
+      <c r="GI44" s="57"/>
+      <c r="GJ44" s="57"/>
+      <c r="GK44" s="57"/>
+      <c r="GL44" s="57"/>
+      <c r="GM44" s="57"/>
+      <c r="GN44" s="57"/>
+      <c r="GO44" s="57"/>
+      <c r="GP44" s="57"/>
+      <c r="GQ44" s="57"/>
+      <c r="GR44" s="57"/>
+      <c r="GS44" s="57"/>
+      <c r="GT44" s="57"/>
+      <c r="GU44" s="57"/>
+      <c r="GV44" s="57"/>
+      <c r="GW44" s="57"/>
+      <c r="GX44" s="57"/>
+      <c r="GY44" s="57"/>
+      <c r="GZ44" s="57"/>
+      <c r="HA44" s="57"/>
+      <c r="HB44" s="57"/>
+      <c r="HC44" s="57"/>
+      <c r="HD44" s="57"/>
+      <c r="HE44" s="57"/>
+      <c r="HF44" s="57"/>
+      <c r="HG44" s="57"/>
+      <c r="HH44" s="57"/>
+      <c r="HI44" s="57"/>
+      <c r="HJ44" s="57"/>
+      <c r="HK44" s="57"/>
+      <c r="HL44" s="57"/>
+      <c r="HM44" s="57"/>
+      <c r="HN44" s="57"/>
+      <c r="HO44" s="57"/>
+      <c r="HP44" s="57"/>
+      <c r="HQ44" s="57"/>
+      <c r="HR44" s="57"/>
+      <c r="HS44" s="57"/>
+      <c r="HT44" s="57"/>
+      <c r="HU44" s="57"/>
+      <c r="HV44" s="57"/>
+      <c r="HW44" s="57"/>
+      <c r="HX44" s="57"/>
+      <c r="HY44" s="57"/>
+      <c r="HZ44" s="57"/>
+      <c r="IA44" s="57"/>
+      <c r="IB44" s="57"/>
+      <c r="IC44" s="57"/>
+      <c r="ID44" s="57"/>
+      <c r="IE44" s="57"/>
+      <c r="IF44" s="57"/>
+      <c r="IG44" s="57"/>
+      <c r="IH44" s="57"/>
+      <c r="II44" s="57"/>
+      <c r="IJ44" s="57"/>
+      <c r="IK44" s="57"/>
+      <c r="IL44" s="57"/>
+      <c r="IM44" s="57"/>
+      <c r="IN44" s="57"/>
+      <c r="IO44" s="57"/>
+      <c r="IP44" s="57"/>
+      <c r="IQ44" s="57"/>
+      <c r="IR44" s="57"/>
+      <c r="IS44" s="57"/>
+      <c r="IT44" s="57"/>
+      <c r="IU44" s="57"/>
+      <c r="IV44" s="57"/>
+      <c r="IW44" s="57"/>
+      <c r="IX44" s="57"/>
+      <c r="IY44" s="57"/>
+      <c r="IZ44" s="57"/>
+      <c r="JA44" s="57"/>
+      <c r="JB44" s="57"/>
+      <c r="JC44" s="57"/>
+      <c r="JD44" s="57"/>
+      <c r="JE44" s="57"/>
+      <c r="JF44" s="57"/>
+      <c r="JG44" s="57"/>
+      <c r="JH44" s="57"/>
+      <c r="JI44" s="57"/>
       <c r="JJ44" s="10"/>
       <c r="JK44"/>
       <c r="JL44" s="39"/>
@@ -35200,31 +35200,31 @@
         <v>-867.55716530515997</v>
       </c>
       <c r="JF45" s="16">
-        <v>1386.50553167167</v>
+        <v>2053.2940770141099</v>
       </c>
       <c r="JG45" s="19">
-        <v>-1577.9092393991</v>
+        <v>-1426.1583530037999</v>
       </c>
       <c r="JH45" s="20">
-        <v>-1971.8499545211</v>
+        <v>-2453.5286227321999</v>
       </c>
       <c r="JI45" s="21">
-        <v>-804.06261722681995</v>
+        <v>-302.57304235917002</v>
       </c>
       <c r="JJ45" s="21">
-        <v>-1827.1224945629001</v>
+        <v>-1948.7736908974</v>
       </c>
       <c r="JK45" s="21">
-        <v>-2039.0296030359</v>
+        <v>-1260.9343662841</v>
       </c>
       <c r="JL45" s="21">
-        <v>-1225.4826641635</v>
+        <v>-855.08088474006001</v>
       </c>
       <c r="JM45" s="21">
-        <v>-1997.7523562534</v>
-      </c>
-      <c r="JN45" s="54">
-        <v>-3507.3637965157</v>
+        <v>-1657.9733073238999</v>
+      </c>
+      <c r="JN45" s="41">
+        <v>-3600.8602145586001</v>
       </c>
     </row>
     <row r="46" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -36024,31 +36024,31 @@
         <v>-54.677495194906001</v>
       </c>
       <c r="JF46" s="17">
-        <v>907.83874440499699</v>
+        <v>892.77015556123501</v>
       </c>
       <c r="JG46" s="22">
-        <v>731.56666679489297</v>
+        <v>731.74266471801195</v>
       </c>
       <c r="JH46" s="6">
-        <v>2205.3528088496601</v>
+        <v>2219.0702064058701</v>
       </c>
       <c r="JI46" s="23">
-        <v>-71.928661664914003</v>
+        <v>-70.855573024578007</v>
       </c>
       <c r="JJ46" s="23">
-        <v>584.06777413437305</v>
+        <v>583.93683170436304</v>
       </c>
       <c r="JK46" s="23">
-        <v>843.44795768651795</v>
+        <v>737.56876337634401</v>
       </c>
       <c r="JL46" s="23">
-        <v>1142.81343134588</v>
+        <v>1127.45877391156</v>
       </c>
       <c r="JM46" s="23">
-        <v>-304.40371952401</v>
-      </c>
-      <c r="JN46" s="55">
-        <v>1890.4822980578199</v>
+        <v>-399.0519006385</v>
+      </c>
+      <c r="JN46" s="42">
+        <v>1890.4846275725999</v>
       </c>
     </row>
     <row r="47" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -36848,30 +36848,30 @@
         <v>-82.623071473161005</v>
       </c>
       <c r="JF47" s="17">
-        <v>852.13736016721703</v>
+        <v>837.06877132345403</v>
       </c>
       <c r="JG47" s="22">
-        <v>883.20863477622402</v>
+        <v>883.38463269934402</v>
       </c>
       <c r="JH47" s="6">
-        <v>2399.5055515310601</v>
+        <v>2413.2229490872701</v>
       </c>
       <c r="JI47" s="23">
-        <v>75.8761778266134</v>
+        <v>76.949266466949396</v>
       </c>
       <c r="JJ47" s="23">
-        <v>719.15334482114895</v>
+        <v>719.02240239113905</v>
       </c>
       <c r="JK47" s="23">
-        <v>1063.08103856858</v>
+        <v>957.20184425840205</v>
       </c>
       <c r="JL47" s="23">
-        <v>1523.6210792571501</v>
+        <v>1508.2664218228199</v>
       </c>
       <c r="JM47" s="23">
-        <v>151.20573527716101</v>
-      </c>
-      <c r="JN47" s="55">
+        <v>56.5575541626716</v>
+      </c>
+      <c r="JN47" s="42">
         <v>2318.7306054895398</v>
       </c>
     </row>
@@ -37456,30 +37456,30 @@
         <v>402.09355977688398</v>
       </c>
       <c r="JF48" s="17">
-        <v>538.35263575316401</v>
+        <v>523.28404690940204</v>
       </c>
       <c r="JG48" s="22">
-        <v>467.07393040799298</v>
+        <v>467.24992833111202</v>
       </c>
       <c r="JH48" s="6">
-        <v>2286.6521256405499</v>
+        <v>2286.8055247041698</v>
       </c>
       <c r="JI48" s="23">
-        <v>-275.34512969753001</v>
+        <v>-275.41635628162999</v>
       </c>
       <c r="JJ48" s="23">
-        <v>423.564146456164</v>
+        <v>423.48669790153798</v>
       </c>
       <c r="JK48" s="23">
-        <v>515.23729631660797</v>
+        <v>409.42227532485799</v>
       </c>
       <c r="JL48" s="23">
-        <v>983.92187301876095</v>
+        <v>982.03738000662099</v>
       </c>
       <c r="JM48" s="23">
-        <v>104.883565300762</v>
-      </c>
-      <c r="JN48" s="55">
+        <v>10.196848679411101</v>
+      </c>
+      <c r="JN48" s="42">
         <v>757.95289213666399</v>
       </c>
     </row>
@@ -38070,24 +38070,24 @@
         <v>416.13470436823098</v>
       </c>
       <c r="JH49" s="6">
-        <v>112.853425890501</v>
+        <v>126.417424383097</v>
       </c>
       <c r="JI49" s="23">
-        <v>351.22130752414301</v>
+        <v>352.36562274858301</v>
       </c>
       <c r="JJ49" s="23">
-        <v>295.58919836498501</v>
+        <v>295.53570448960102</v>
       </c>
       <c r="JK49" s="23">
-        <v>547.843742251967</v>
+        <v>547.77956893354406</v>
       </c>
       <c r="JL49" s="23">
-        <v>539.69920623838698</v>
+        <v>526.22904181619901</v>
       </c>
       <c r="JM49" s="23">
-        <v>46.322169976399401</v>
-      </c>
-      <c r="JN49" s="55">
+        <v>46.360705483260503</v>
+      </c>
+      <c r="JN49" s="42">
         <v>1560.77771335287</v>
       </c>
     </row>
@@ -38911,8 +38911,8 @@
       <c r="JM50" s="23">
         <v>-455.60945480116999</v>
       </c>
-      <c r="JN50" s="55">
-        <v>-428.24830743171998</v>
+      <c r="JN50" s="42">
+        <v>-428.24597791693998</v>
       </c>
     </row>
     <row r="51" spans="1:274" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -39735,7 +39735,7 @@
       <c r="JM51" s="23">
         <v>-462.27644498081997</v>
       </c>
-      <c r="JN51" s="55">
+      <c r="JN51" s="42">
         <v>-724.30363879654999</v>
       </c>
     </row>
@@ -40548,7 +40548,7 @@
         <v>-44.133557108985997</v>
       </c>
       <c r="JJ52" s="25">
-        <v>57.231837767608702</v>
+        <v>57.231837767608802</v>
       </c>
       <c r="JK52" s="25">
         <v>-403.35437997375999</v>
@@ -40557,283 +40557,283 @@
         <v>-272.49325965533001</v>
       </c>
       <c r="JM52" s="25">
-        <v>6.6669901796447801</v>
-      </c>
-      <c r="JN52" s="56">
-        <v>296.055331364832</v>
+        <v>6.6669901796447899</v>
+      </c>
+      <c r="JN52" s="43">
+        <v>296.05766087961302</v>
       </c>
     </row>
     <row r="54" spans="1:274" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="45"/>
-      <c r="AO54" s="45"/>
-      <c r="AP54" s="45"/>
-      <c r="AQ54" s="45"/>
-      <c r="AR54" s="45"/>
-      <c r="AS54" s="45"/>
-      <c r="AT54" s="45"/>
-      <c r="AU54" s="45"/>
-      <c r="AV54" s="45"/>
-      <c r="AW54" s="45"/>
-      <c r="AX54" s="45"/>
-      <c r="AY54" s="45"/>
-      <c r="AZ54" s="45"/>
-      <c r="BA54" s="45"/>
-      <c r="BB54" s="45"/>
-      <c r="BC54" s="45"/>
-      <c r="BD54" s="45"/>
-      <c r="BE54" s="45"/>
-      <c r="BF54" s="45"/>
-      <c r="BG54" s="45"/>
-      <c r="BH54" s="45"/>
-      <c r="BI54" s="45"/>
-      <c r="BJ54" s="45"/>
-      <c r="BK54" s="45"/>
-      <c r="BL54" s="45"/>
-      <c r="BM54" s="45"/>
-      <c r="BN54" s="45"/>
-      <c r="BO54" s="45"/>
-      <c r="BP54" s="45"/>
-      <c r="BQ54" s="45"/>
-      <c r="BR54" s="45"/>
-      <c r="BS54" s="45"/>
-      <c r="BT54" s="45"/>
-      <c r="BU54" s="45"/>
-      <c r="BV54" s="45"/>
-      <c r="BW54" s="45"/>
-      <c r="BX54" s="45"/>
-      <c r="BY54" s="45"/>
-      <c r="BZ54" s="45"/>
-      <c r="CA54" s="45"/>
-      <c r="CB54" s="45"/>
-      <c r="CC54" s="45"/>
-      <c r="CD54" s="45"/>
-      <c r="CE54" s="45"/>
-      <c r="CF54" s="45"/>
-      <c r="CG54" s="45"/>
-      <c r="CH54" s="45"/>
-      <c r="CI54" s="45"/>
-      <c r="CJ54" s="45"/>
-      <c r="CK54" s="45"/>
-      <c r="CL54" s="45"/>
-      <c r="CM54" s="45"/>
-      <c r="CN54" s="45"/>
-      <c r="CO54" s="45"/>
-      <c r="CP54" s="45"/>
-      <c r="CQ54" s="45"/>
-      <c r="CR54" s="45"/>
-      <c r="CS54" s="45"/>
-      <c r="CT54" s="45"/>
-      <c r="CU54" s="45"/>
-      <c r="CV54" s="45"/>
-      <c r="CW54" s="45"/>
-      <c r="CX54" s="45"/>
-      <c r="CY54" s="45"/>
-      <c r="CZ54" s="45"/>
-      <c r="DA54" s="45"/>
-      <c r="DB54" s="45"/>
-      <c r="DC54" s="45"/>
-      <c r="DD54" s="45"/>
-      <c r="DE54" s="45"/>
-      <c r="DF54" s="45"/>
-      <c r="DG54" s="45"/>
-      <c r="DH54" s="45"/>
-      <c r="DI54" s="45"/>
-      <c r="DJ54" s="45"/>
-      <c r="DK54" s="45"/>
-      <c r="DL54" s="45"/>
-      <c r="DM54" s="45"/>
-      <c r="DN54" s="45"/>
-      <c r="DO54" s="45"/>
-      <c r="DP54" s="45"/>
-      <c r="DQ54" s="45"/>
-      <c r="DR54" s="45"/>
-      <c r="DS54" s="45"/>
-      <c r="DT54" s="45"/>
-      <c r="DU54" s="45"/>
-      <c r="DV54" s="45"/>
-      <c r="DW54" s="45"/>
-      <c r="DX54" s="45"/>
-      <c r="DY54" s="45"/>
-      <c r="DZ54" s="45"/>
-      <c r="EA54" s="45"/>
-      <c r="EB54" s="45"/>
-      <c r="EC54" s="45"/>
-      <c r="ED54" s="45"/>
-      <c r="EE54" s="45"/>
-      <c r="EF54" s="45"/>
-      <c r="EG54" s="45"/>
-      <c r="EH54" s="45"/>
-      <c r="EI54" s="45"/>
-      <c r="EJ54" s="45"/>
-      <c r="EK54" s="45"/>
-      <c r="EL54" s="45"/>
-      <c r="EM54" s="45"/>
-      <c r="EN54" s="45"/>
-      <c r="EO54" s="45"/>
-      <c r="EP54" s="45"/>
-      <c r="EQ54" s="45"/>
-      <c r="ER54" s="45"/>
-      <c r="ES54" s="45"/>
-      <c r="ET54" s="45"/>
-      <c r="EU54" s="45"/>
-      <c r="EV54" s="45"/>
-      <c r="EW54" s="45"/>
-      <c r="EX54" s="45"/>
-      <c r="EY54" s="45"/>
-      <c r="EZ54" s="45"/>
-      <c r="FA54" s="45"/>
-      <c r="FB54" s="45"/>
-      <c r="FC54" s="45"/>
-      <c r="FD54" s="45"/>
-      <c r="FE54" s="45"/>
-      <c r="FF54" s="45"/>
-      <c r="FG54" s="45"/>
-      <c r="FH54" s="45"/>
-      <c r="FI54" s="45"/>
-      <c r="FJ54" s="45"/>
-      <c r="FK54" s="45"/>
-      <c r="FL54" s="45"/>
-      <c r="FM54" s="45"/>
-      <c r="FN54" s="45"/>
-      <c r="FO54" s="45"/>
-      <c r="FP54" s="45"/>
-      <c r="FQ54" s="45"/>
-      <c r="FR54" s="45"/>
-      <c r="FS54" s="45"/>
-      <c r="FT54" s="45"/>
-      <c r="FU54" s="45"/>
-      <c r="FV54" s="45"/>
-      <c r="FW54" s="45"/>
-      <c r="FX54" s="45"/>
-      <c r="FY54" s="45"/>
-      <c r="FZ54" s="45"/>
-      <c r="GA54" s="45"/>
-      <c r="GB54" s="45"/>
-      <c r="GC54" s="45"/>
-      <c r="GD54" s="45"/>
-      <c r="GE54" s="45"/>
-      <c r="GF54" s="45"/>
-      <c r="GG54" s="45"/>
-      <c r="GH54" s="45"/>
-      <c r="GI54" s="45"/>
-      <c r="GJ54" s="45"/>
-      <c r="GK54" s="45"/>
-      <c r="GL54" s="45"/>
-      <c r="GM54" s="45"/>
-      <c r="GN54" s="45"/>
-      <c r="GO54" s="45"/>
-      <c r="GP54" s="45"/>
-      <c r="GQ54" s="45"/>
-      <c r="GR54" s="45"/>
-      <c r="GS54" s="45"/>
-      <c r="GT54" s="45"/>
-      <c r="GU54" s="45"/>
-      <c r="GV54" s="45"/>
-      <c r="GW54" s="45"/>
-      <c r="GX54" s="45"/>
-      <c r="GY54" s="45"/>
-      <c r="GZ54" s="45"/>
-      <c r="HA54" s="45"/>
-      <c r="HB54" s="45"/>
-      <c r="HC54" s="45"/>
-      <c r="HD54" s="45"/>
-      <c r="HE54" s="45"/>
-      <c r="HF54" s="45"/>
-      <c r="HG54" s="45"/>
-      <c r="HH54" s="45"/>
-      <c r="HI54" s="45"/>
-      <c r="HJ54" s="45"/>
-      <c r="HK54" s="45"/>
-      <c r="HL54" s="45"/>
-      <c r="HM54" s="45"/>
-      <c r="HN54" s="45"/>
-      <c r="HO54" s="45"/>
-      <c r="HP54" s="45"/>
-      <c r="HQ54" s="45"/>
-      <c r="HR54" s="45"/>
-      <c r="HS54" s="45"/>
-      <c r="HT54" s="45"/>
-      <c r="HU54" s="45"/>
-      <c r="HV54" s="45"/>
-      <c r="HW54" s="45"/>
-      <c r="HX54" s="45"/>
-      <c r="HY54" s="45"/>
-      <c r="HZ54" s="45"/>
-      <c r="IA54" s="45"/>
-      <c r="IB54" s="45"/>
-      <c r="IC54" s="45"/>
-      <c r="ID54" s="45"/>
-      <c r="IE54" s="45"/>
-      <c r="IF54" s="45"/>
-      <c r="IG54" s="45"/>
-      <c r="IH54" s="45"/>
-      <c r="II54" s="45"/>
-      <c r="IJ54" s="45"/>
-      <c r="IK54" s="45"/>
-      <c r="IL54" s="45"/>
-      <c r="IM54" s="45"/>
-      <c r="IN54" s="45"/>
-      <c r="IO54" s="45"/>
-      <c r="IP54" s="45"/>
-      <c r="IQ54" s="45"/>
-      <c r="IR54" s="45"/>
-      <c r="IS54" s="45"/>
-      <c r="IT54" s="45"/>
-      <c r="IU54" s="45"/>
-      <c r="IV54" s="45"/>
-      <c r="IW54" s="45"/>
-      <c r="IX54" s="45"/>
-      <c r="IY54" s="45"/>
-      <c r="IZ54" s="45"/>
-      <c r="JA54" s="45"/>
-      <c r="JB54" s="45"/>
-      <c r="JC54" s="45"/>
-      <c r="JD54" s="45"/>
-      <c r="JE54" s="45"/>
-      <c r="JF54" s="45"/>
-      <c r="JG54" s="45"/>
-      <c r="JH54" s="45"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
+      <c r="AD54" s="54"/>
+      <c r="AE54" s="54"/>
+      <c r="AF54" s="54"/>
+      <c r="AG54" s="54"/>
+      <c r="AH54" s="54"/>
+      <c r="AI54" s="54"/>
+      <c r="AJ54" s="54"/>
+      <c r="AK54" s="54"/>
+      <c r="AL54" s="54"/>
+      <c r="AM54" s="54"/>
+      <c r="AN54" s="54"/>
+      <c r="AO54" s="54"/>
+      <c r="AP54" s="54"/>
+      <c r="AQ54" s="54"/>
+      <c r="AR54" s="54"/>
+      <c r="AS54" s="54"/>
+      <c r="AT54" s="54"/>
+      <c r="AU54" s="54"/>
+      <c r="AV54" s="54"/>
+      <c r="AW54" s="54"/>
+      <c r="AX54" s="54"/>
+      <c r="AY54" s="54"/>
+      <c r="AZ54" s="54"/>
+      <c r="BA54" s="54"/>
+      <c r="BB54" s="54"/>
+      <c r="BC54" s="54"/>
+      <c r="BD54" s="54"/>
+      <c r="BE54" s="54"/>
+      <c r="BF54" s="54"/>
+      <c r="BG54" s="54"/>
+      <c r="BH54" s="54"/>
+      <c r="BI54" s="54"/>
+      <c r="BJ54" s="54"/>
+      <c r="BK54" s="54"/>
+      <c r="BL54" s="54"/>
+      <c r="BM54" s="54"/>
+      <c r="BN54" s="54"/>
+      <c r="BO54" s="54"/>
+      <c r="BP54" s="54"/>
+      <c r="BQ54" s="54"/>
+      <c r="BR54" s="54"/>
+      <c r="BS54" s="54"/>
+      <c r="BT54" s="54"/>
+      <c r="BU54" s="54"/>
+      <c r="BV54" s="54"/>
+      <c r="BW54" s="54"/>
+      <c r="BX54" s="54"/>
+      <c r="BY54" s="54"/>
+      <c r="BZ54" s="54"/>
+      <c r="CA54" s="54"/>
+      <c r="CB54" s="54"/>
+      <c r="CC54" s="54"/>
+      <c r="CD54" s="54"/>
+      <c r="CE54" s="54"/>
+      <c r="CF54" s="54"/>
+      <c r="CG54" s="54"/>
+      <c r="CH54" s="54"/>
+      <c r="CI54" s="54"/>
+      <c r="CJ54" s="54"/>
+      <c r="CK54" s="54"/>
+      <c r="CL54" s="54"/>
+      <c r="CM54" s="54"/>
+      <c r="CN54" s="54"/>
+      <c r="CO54" s="54"/>
+      <c r="CP54" s="54"/>
+      <c r="CQ54" s="54"/>
+      <c r="CR54" s="54"/>
+      <c r="CS54" s="54"/>
+      <c r="CT54" s="54"/>
+      <c r="CU54" s="54"/>
+      <c r="CV54" s="54"/>
+      <c r="CW54" s="54"/>
+      <c r="CX54" s="54"/>
+      <c r="CY54" s="54"/>
+      <c r="CZ54" s="54"/>
+      <c r="DA54" s="54"/>
+      <c r="DB54" s="54"/>
+      <c r="DC54" s="54"/>
+      <c r="DD54" s="54"/>
+      <c r="DE54" s="54"/>
+      <c r="DF54" s="54"/>
+      <c r="DG54" s="54"/>
+      <c r="DH54" s="54"/>
+      <c r="DI54" s="54"/>
+      <c r="DJ54" s="54"/>
+      <c r="DK54" s="54"/>
+      <c r="DL54" s="54"/>
+      <c r="DM54" s="54"/>
+      <c r="DN54" s="54"/>
+      <c r="DO54" s="54"/>
+      <c r="DP54" s="54"/>
+      <c r="DQ54" s="54"/>
+      <c r="DR54" s="54"/>
+      <c r="DS54" s="54"/>
+      <c r="DT54" s="54"/>
+      <c r="DU54" s="54"/>
+      <c r="DV54" s="54"/>
+      <c r="DW54" s="54"/>
+      <c r="DX54" s="54"/>
+      <c r="DY54" s="54"/>
+      <c r="DZ54" s="54"/>
+      <c r="EA54" s="54"/>
+      <c r="EB54" s="54"/>
+      <c r="EC54" s="54"/>
+      <c r="ED54" s="54"/>
+      <c r="EE54" s="54"/>
+      <c r="EF54" s="54"/>
+      <c r="EG54" s="54"/>
+      <c r="EH54" s="54"/>
+      <c r="EI54" s="54"/>
+      <c r="EJ54" s="54"/>
+      <c r="EK54" s="54"/>
+      <c r="EL54" s="54"/>
+      <c r="EM54" s="54"/>
+      <c r="EN54" s="54"/>
+      <c r="EO54" s="54"/>
+      <c r="EP54" s="54"/>
+      <c r="EQ54" s="54"/>
+      <c r="ER54" s="54"/>
+      <c r="ES54" s="54"/>
+      <c r="ET54" s="54"/>
+      <c r="EU54" s="54"/>
+      <c r="EV54" s="54"/>
+      <c r="EW54" s="54"/>
+      <c r="EX54" s="54"/>
+      <c r="EY54" s="54"/>
+      <c r="EZ54" s="54"/>
+      <c r="FA54" s="54"/>
+      <c r="FB54" s="54"/>
+      <c r="FC54" s="54"/>
+      <c r="FD54" s="54"/>
+      <c r="FE54" s="54"/>
+      <c r="FF54" s="54"/>
+      <c r="FG54" s="54"/>
+      <c r="FH54" s="54"/>
+      <c r="FI54" s="54"/>
+      <c r="FJ54" s="54"/>
+      <c r="FK54" s="54"/>
+      <c r="FL54" s="54"/>
+      <c r="FM54" s="54"/>
+      <c r="FN54" s="54"/>
+      <c r="FO54" s="54"/>
+      <c r="FP54" s="54"/>
+      <c r="FQ54" s="54"/>
+      <c r="FR54" s="54"/>
+      <c r="FS54" s="54"/>
+      <c r="FT54" s="54"/>
+      <c r="FU54" s="54"/>
+      <c r="FV54" s="54"/>
+      <c r="FW54" s="54"/>
+      <c r="FX54" s="54"/>
+      <c r="FY54" s="54"/>
+      <c r="FZ54" s="54"/>
+      <c r="GA54" s="54"/>
+      <c r="GB54" s="54"/>
+      <c r="GC54" s="54"/>
+      <c r="GD54" s="54"/>
+      <c r="GE54" s="54"/>
+      <c r="GF54" s="54"/>
+      <c r="GG54" s="54"/>
+      <c r="GH54" s="54"/>
+      <c r="GI54" s="54"/>
+      <c r="GJ54" s="54"/>
+      <c r="GK54" s="54"/>
+      <c r="GL54" s="54"/>
+      <c r="GM54" s="54"/>
+      <c r="GN54" s="54"/>
+      <c r="GO54" s="54"/>
+      <c r="GP54" s="54"/>
+      <c r="GQ54" s="54"/>
+      <c r="GR54" s="54"/>
+      <c r="GS54" s="54"/>
+      <c r="GT54" s="54"/>
+      <c r="GU54" s="54"/>
+      <c r="GV54" s="54"/>
+      <c r="GW54" s="54"/>
+      <c r="GX54" s="54"/>
+      <c r="GY54" s="54"/>
+      <c r="GZ54" s="54"/>
+      <c r="HA54" s="54"/>
+      <c r="HB54" s="54"/>
+      <c r="HC54" s="54"/>
+      <c r="HD54" s="54"/>
+      <c r="HE54" s="54"/>
+      <c r="HF54" s="54"/>
+      <c r="HG54" s="54"/>
+      <c r="HH54" s="54"/>
+      <c r="HI54" s="54"/>
+      <c r="HJ54" s="54"/>
+      <c r="HK54" s="54"/>
+      <c r="HL54" s="54"/>
+      <c r="HM54" s="54"/>
+      <c r="HN54" s="54"/>
+      <c r="HO54" s="54"/>
+      <c r="HP54" s="54"/>
+      <c r="HQ54" s="54"/>
+      <c r="HR54" s="54"/>
+      <c r="HS54" s="54"/>
+      <c r="HT54" s="54"/>
+      <c r="HU54" s="54"/>
+      <c r="HV54" s="54"/>
+      <c r="HW54" s="54"/>
+      <c r="HX54" s="54"/>
+      <c r="HY54" s="54"/>
+      <c r="HZ54" s="54"/>
+      <c r="IA54" s="54"/>
+      <c r="IB54" s="54"/>
+      <c r="IC54" s="54"/>
+      <c r="ID54" s="54"/>
+      <c r="IE54" s="54"/>
+      <c r="IF54" s="54"/>
+      <c r="IG54" s="54"/>
+      <c r="IH54" s="54"/>
+      <c r="II54" s="54"/>
+      <c r="IJ54" s="54"/>
+      <c r="IK54" s="54"/>
+      <c r="IL54" s="54"/>
+      <c r="IM54" s="54"/>
+      <c r="IN54" s="54"/>
+      <c r="IO54" s="54"/>
+      <c r="IP54" s="54"/>
+      <c r="IQ54" s="54"/>
+      <c r="IR54" s="54"/>
+      <c r="IS54" s="54"/>
+      <c r="IT54" s="54"/>
+      <c r="IU54" s="54"/>
+      <c r="IV54" s="54"/>
+      <c r="IW54" s="54"/>
+      <c r="IX54" s="54"/>
+      <c r="IY54" s="54"/>
+      <c r="IZ54" s="54"/>
+      <c r="JA54" s="54"/>
+      <c r="JB54" s="54"/>
+      <c r="JC54" s="54"/>
+      <c r="JD54" s="54"/>
+      <c r="JE54" s="54"/>
+      <c r="JF54" s="54"/>
+      <c r="JG54" s="54"/>
+      <c r="JH54" s="54"/>
       <c r="JI54"/>
       <c r="JJ54" s="33"/>
       <c r="JK54"/>
@@ -40881,7 +40881,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -40899,58 +40899,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
     </row>
     <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -43722,31 +43722,31 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
     </row>
     <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -44281,31 +44281,31 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
+++ b/fuentes/bc_inv_extranjera/Cuenta_Financiera_categoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.01.2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvbalpagos\01_DBDP\04_PRODUCTOS\02_CF\CF.07.02.2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB071AB-D54E-4BF7-98B6-09CB012199C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B61422-5F20-4ECF-9C40-0EAE326EFF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mensual" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="48">
   <si>
     <t>FLUJOS DE LA CUENTA FINANCIERA DE BALANZA DE PAGOS</t>
   </si>
@@ -274,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -324,21 +324,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,36 +579,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,11 +657,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -715,16 +730,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,10 +751,10 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,37 +766,40 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,37 +808,34 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -829,22 +844,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,35 +895,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,13 +1058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JP54"/>
+  <dimension ref="A1:JQ54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="IX6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="IT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:JH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1093,280 +1132,281 @@
     <col min="274" max="274" width="7.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="275" max="275" width="7.42578125" style="1" customWidth="1"/>
     <col min="276" max="276" width="7.28515625" style="1" customWidth="1"/>
-    <col min="277" max="16384" width="11.42578125" style="1"/>
+    <col min="277" max="277" width="7.28515625" style="47" customWidth="1"/>
+    <col min="278" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="49"/>
-      <c r="CD1" s="49"/>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="49"/>
-      <c r="CT1" s="49"/>
-      <c r="CU1" s="49"/>
-      <c r="CV1" s="49"/>
-      <c r="CW1" s="49"/>
-      <c r="CX1" s="49"/>
-      <c r="CY1" s="49"/>
-      <c r="CZ1" s="49"/>
-      <c r="DA1" s="49"/>
-      <c r="DB1" s="49"/>
-      <c r="DC1" s="49"/>
-      <c r="DD1" s="49"/>
-      <c r="DE1" s="49"/>
-      <c r="DF1" s="49"/>
-      <c r="DG1" s="49"/>
-      <c r="DH1" s="49"/>
-      <c r="DI1" s="49"/>
-      <c r="DJ1" s="49"/>
-      <c r="DK1" s="49"/>
-      <c r="DL1" s="49"/>
-      <c r="DM1" s="49"/>
-      <c r="DN1" s="49"/>
-      <c r="DO1" s="49"/>
-      <c r="DP1" s="49"/>
-      <c r="DQ1" s="49"/>
-      <c r="DR1" s="49"/>
-      <c r="DS1" s="49"/>
-      <c r="DT1" s="49"/>
-      <c r="DU1" s="49"/>
-      <c r="DV1" s="49"/>
-      <c r="DW1" s="49"/>
-      <c r="DX1" s="49"/>
-      <c r="DY1" s="49"/>
-      <c r="DZ1" s="49"/>
-      <c r="EA1" s="49"/>
-      <c r="EB1" s="49"/>
-      <c r="EC1" s="49"/>
-      <c r="ED1" s="49"/>
-      <c r="EE1" s="49"/>
-      <c r="EF1" s="49"/>
-      <c r="EG1" s="49"/>
-      <c r="EH1" s="49"/>
-      <c r="EI1" s="49"/>
-      <c r="EJ1" s="49"/>
-      <c r="EK1" s="49"/>
-      <c r="EL1" s="49"/>
-      <c r="EM1" s="49"/>
-      <c r="EN1" s="49"/>
-      <c r="EO1" s="49"/>
-      <c r="EP1" s="49"/>
-      <c r="EQ1" s="49"/>
-      <c r="ER1" s="49"/>
-      <c r="ES1" s="49"/>
-      <c r="ET1" s="49"/>
-      <c r="EU1" s="49"/>
-      <c r="EV1" s="49"/>
-      <c r="EW1" s="49"/>
-      <c r="EX1" s="49"/>
-      <c r="EY1" s="49"/>
-      <c r="EZ1" s="49"/>
-      <c r="FA1" s="49"/>
-      <c r="FB1" s="49"/>
-      <c r="FC1" s="49"/>
-      <c r="FD1" s="49"/>
-      <c r="FE1" s="49"/>
-      <c r="FF1" s="49"/>
-      <c r="FG1" s="49"/>
-      <c r="FH1" s="49"/>
-      <c r="FI1" s="49"/>
-      <c r="FJ1" s="49"/>
-      <c r="FK1" s="49"/>
-      <c r="FL1" s="49"/>
-      <c r="FM1" s="49"/>
-      <c r="FN1" s="49"/>
-      <c r="FO1" s="49"/>
-      <c r="FP1" s="49"/>
-      <c r="FQ1" s="49"/>
-      <c r="FR1" s="49"/>
-      <c r="FS1" s="49"/>
-      <c r="FT1" s="49"/>
-      <c r="FU1" s="49"/>
-      <c r="FV1" s="49"/>
-      <c r="FW1" s="49"/>
-      <c r="FX1" s="49"/>
-      <c r="FY1" s="49"/>
-      <c r="FZ1" s="49"/>
-      <c r="GA1" s="49"/>
-      <c r="GB1" s="49"/>
-      <c r="GC1" s="49"/>
-      <c r="GD1" s="49"/>
-      <c r="GE1" s="49"/>
-      <c r="GF1" s="49"/>
-      <c r="GG1" s="49"/>
-      <c r="GH1" s="49"/>
-      <c r="GI1" s="49"/>
-      <c r="GJ1" s="49"/>
-      <c r="GK1" s="49"/>
-      <c r="GL1" s="49"/>
-      <c r="GM1" s="49"/>
-      <c r="GN1" s="49"/>
-      <c r="GO1" s="49"/>
-      <c r="GP1" s="49"/>
-      <c r="GQ1" s="49"/>
-      <c r="GR1" s="49"/>
-      <c r="GS1" s="49"/>
-      <c r="GT1" s="49"/>
-      <c r="GU1" s="49"/>
-      <c r="GV1" s="49"/>
-      <c r="GW1" s="49"/>
-      <c r="GX1" s="49"/>
-      <c r="GY1" s="49"/>
-      <c r="GZ1" s="49"/>
-      <c r="HA1" s="49"/>
-      <c r="HB1" s="49"/>
-      <c r="HC1" s="49"/>
-      <c r="HD1" s="49"/>
-      <c r="HE1" s="49"/>
-      <c r="HF1" s="49"/>
-      <c r="HG1" s="49"/>
-      <c r="HH1" s="49"/>
-      <c r="HI1" s="49"/>
-      <c r="HJ1" s="49"/>
-      <c r="HK1" s="49"/>
-      <c r="HL1" s="49"/>
-      <c r="HM1" s="49"/>
-      <c r="HN1" s="49"/>
-      <c r="HO1" s="49"/>
-      <c r="HP1" s="49"/>
-      <c r="HQ1" s="49"/>
-      <c r="HR1" s="49"/>
-      <c r="HS1" s="49"/>
-      <c r="HT1" s="49"/>
-      <c r="HU1" s="49"/>
-      <c r="HV1" s="49"/>
-      <c r="HW1" s="49"/>
-      <c r="HX1" s="49"/>
-      <c r="HY1" s="49"/>
-      <c r="HZ1" s="49"/>
-      <c r="IA1" s="49"/>
-      <c r="IB1" s="49"/>
-      <c r="IC1" s="49"/>
-      <c r="ID1" s="49"/>
-      <c r="IE1" s="49"/>
-      <c r="IF1" s="49"/>
-      <c r="IG1" s="49"/>
-      <c r="IH1" s="49"/>
-      <c r="II1" s="49"/>
-      <c r="IJ1" s="49"/>
-      <c r="IK1" s="49"/>
-      <c r="IL1" s="49"/>
-      <c r="IM1" s="49"/>
-      <c r="IN1" s="49"/>
-      <c r="IO1" s="49"/>
-      <c r="IP1" s="49"/>
-      <c r="IQ1" s="49"/>
-      <c r="IR1" s="49"/>
-      <c r="IS1" s="49"/>
-      <c r="IT1" s="49"/>
-      <c r="IU1" s="49"/>
-      <c r="IV1" s="49"/>
-      <c r="IW1" s="49"/>
-      <c r="IX1" s="49"/>
-      <c r="IY1" s="49"/>
-      <c r="IZ1" s="49"/>
-      <c r="JA1" s="49"/>
-      <c r="JB1" s="49"/>
-      <c r="JC1" s="49"/>
-      <c r="JD1" s="49"/>
-      <c r="JE1" s="49"/>
-      <c r="JF1" s="49"/>
-      <c r="JG1" s="49"/>
-      <c r="JH1" s="49"/>
+    <row r="1" spans="1:277" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57"/>
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57"/>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
+      <c r="CM1" s="57"/>
+      <c r="CN1" s="57"/>
+      <c r="CO1" s="57"/>
+      <c r="CP1" s="57"/>
+      <c r="CQ1" s="57"/>
+      <c r="CR1" s="57"/>
+      <c r="CS1" s="57"/>
+      <c r="CT1" s="57"/>
+      <c r="CU1" s="57"/>
+      <c r="CV1" s="57"/>
+      <c r="CW1" s="57"/>
+      <c r="CX1" s="57"/>
+      <c r="CY1" s="57"/>
+      <c r="CZ1" s="57"/>
+      <c r="DA1" s="57"/>
+      <c r="DB1" s="57"/>
+      <c r="DC1" s="57"/>
+      <c r="DD1" s="57"/>
+      <c r="DE1" s="57"/>
+      <c r="DF1" s="57"/>
+      <c r="DG1" s="57"/>
+      <c r="DH1" s="57"/>
+      <c r="DI1" s="57"/>
+      <c r="DJ1" s="57"/>
+      <c r="DK1" s="57"/>
+      <c r="DL1" s="57"/>
+      <c r="DM1" s="57"/>
+      <c r="DN1" s="57"/>
+      <c r="DO1" s="57"/>
+      <c r="DP1" s="57"/>
+      <c r="DQ1" s="57"/>
+      <c r="DR1" s="57"/>
+      <c r="DS1" s="57"/>
+      <c r="DT1" s="57"/>
+      <c r="DU1" s="57"/>
+      <c r="DV1" s="57"/>
+      <c r="DW1" s="57"/>
+      <c r="DX1" s="57"/>
+      <c r="DY1" s="57"/>
+      <c r="DZ1" s="57"/>
+      <c r="EA1" s="57"/>
+      <c r="EB1" s="57"/>
+      <c r="EC1" s="57"/>
+      <c r="ED1" s="57"/>
+      <c r="EE1" s="57"/>
+      <c r="EF1" s="57"/>
+      <c r="EG1" s="57"/>
+      <c r="EH1" s="57"/>
+      <c r="EI1" s="57"/>
+      <c r="EJ1" s="57"/>
+      <c r="EK1" s="57"/>
+      <c r="EL1" s="57"/>
+      <c r="EM1" s="57"/>
+      <c r="EN1" s="57"/>
+      <c r="EO1" s="57"/>
+      <c r="EP1" s="57"/>
+      <c r="EQ1" s="57"/>
+      <c r="ER1" s="57"/>
+      <c r="ES1" s="57"/>
+      <c r="ET1" s="57"/>
+      <c r="EU1" s="57"/>
+      <c r="EV1" s="57"/>
+      <c r="EW1" s="57"/>
+      <c r="EX1" s="57"/>
+      <c r="EY1" s="57"/>
+      <c r="EZ1" s="57"/>
+      <c r="FA1" s="57"/>
+      <c r="FB1" s="57"/>
+      <c r="FC1" s="57"/>
+      <c r="FD1" s="57"/>
+      <c r="FE1" s="57"/>
+      <c r="FF1" s="57"/>
+      <c r="FG1" s="57"/>
+      <c r="FH1" s="57"/>
+      <c r="FI1" s="57"/>
+      <c r="FJ1" s="57"/>
+      <c r="FK1" s="57"/>
+      <c r="FL1" s="57"/>
+      <c r="FM1" s="57"/>
+      <c r="FN1" s="57"/>
+      <c r="FO1" s="57"/>
+      <c r="FP1" s="57"/>
+      <c r="FQ1" s="57"/>
+      <c r="FR1" s="57"/>
+      <c r="FS1" s="57"/>
+      <c r="FT1" s="57"/>
+      <c r="FU1" s="57"/>
+      <c r="FV1" s="57"/>
+      <c r="FW1" s="57"/>
+      <c r="FX1" s="57"/>
+      <c r="FY1" s="57"/>
+      <c r="FZ1" s="57"/>
+      <c r="GA1" s="57"/>
+      <c r="GB1" s="57"/>
+      <c r="GC1" s="57"/>
+      <c r="GD1" s="57"/>
+      <c r="GE1" s="57"/>
+      <c r="GF1" s="57"/>
+      <c r="GG1" s="57"/>
+      <c r="GH1" s="57"/>
+      <c r="GI1" s="57"/>
+      <c r="GJ1" s="57"/>
+      <c r="GK1" s="57"/>
+      <c r="GL1" s="57"/>
+      <c r="GM1" s="57"/>
+      <c r="GN1" s="57"/>
+      <c r="GO1" s="57"/>
+      <c r="GP1" s="57"/>
+      <c r="GQ1" s="57"/>
+      <c r="GR1" s="57"/>
+      <c r="GS1" s="57"/>
+      <c r="GT1" s="57"/>
+      <c r="GU1" s="57"/>
+      <c r="GV1" s="57"/>
+      <c r="GW1" s="57"/>
+      <c r="GX1" s="57"/>
+      <c r="GY1" s="57"/>
+      <c r="GZ1" s="57"/>
+      <c r="HA1" s="57"/>
+      <c r="HB1" s="57"/>
+      <c r="HC1" s="57"/>
+      <c r="HD1" s="57"/>
+      <c r="HE1" s="57"/>
+      <c r="HF1" s="57"/>
+      <c r="HG1" s="57"/>
+      <c r="HH1" s="57"/>
+      <c r="HI1" s="57"/>
+      <c r="HJ1" s="57"/>
+      <c r="HK1" s="57"/>
+      <c r="HL1" s="57"/>
+      <c r="HM1" s="57"/>
+      <c r="HN1" s="57"/>
+      <c r="HO1" s="57"/>
+      <c r="HP1" s="57"/>
+      <c r="HQ1" s="57"/>
+      <c r="HR1" s="57"/>
+      <c r="HS1" s="57"/>
+      <c r="HT1" s="57"/>
+      <c r="HU1" s="57"/>
+      <c r="HV1" s="57"/>
+      <c r="HW1" s="57"/>
+      <c r="HX1" s="57"/>
+      <c r="HY1" s="57"/>
+      <c r="HZ1" s="57"/>
+      <c r="IA1" s="57"/>
+      <c r="IB1" s="57"/>
+      <c r="IC1" s="57"/>
+      <c r="ID1" s="57"/>
+      <c r="IE1" s="57"/>
+      <c r="IF1" s="57"/>
+      <c r="IG1" s="57"/>
+      <c r="IH1" s="57"/>
+      <c r="II1" s="57"/>
+      <c r="IJ1" s="57"/>
+      <c r="IK1" s="57"/>
+      <c r="IL1" s="57"/>
+      <c r="IM1" s="57"/>
+      <c r="IN1" s="57"/>
+      <c r="IO1" s="57"/>
+      <c r="IP1" s="57"/>
+      <c r="IQ1" s="57"/>
+      <c r="IR1" s="57"/>
+      <c r="IS1" s="57"/>
+      <c r="IT1" s="57"/>
+      <c r="IU1" s="57"/>
+      <c r="IV1" s="57"/>
+      <c r="IW1" s="57"/>
+      <c r="IX1" s="57"/>
+      <c r="IY1" s="57"/>
+      <c r="IZ1" s="57"/>
+      <c r="JA1" s="57"/>
+      <c r="JB1" s="57"/>
+      <c r="JC1" s="57"/>
+      <c r="JD1" s="57"/>
+      <c r="JE1" s="57"/>
+      <c r="JF1" s="57"/>
+      <c r="JG1" s="57"/>
+      <c r="JH1" s="57"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
       <c r="JK1" s="1"/>
@@ -1374,277 +1414,277 @@
       <c r="JM1" s="1"/>
       <c r="JN1" s="1"/>
     </row>
-    <row r="2" spans="1:276" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:277" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49"/>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="49"/>
-      <c r="CK2" s="49"/>
-      <c r="CL2" s="49"/>
-      <c r="CM2" s="49"/>
-      <c r="CN2" s="49"/>
-      <c r="CO2" s="49"/>
-      <c r="CP2" s="49"/>
-      <c r="CQ2" s="49"/>
-      <c r="CR2" s="49"/>
-      <c r="CS2" s="49"/>
-      <c r="CT2" s="49"/>
-      <c r="CU2" s="49"/>
-      <c r="CV2" s="49"/>
-      <c r="CW2" s="49"/>
-      <c r="CX2" s="49"/>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49"/>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="49"/>
-      <c r="DF2" s="49"/>
-      <c r="DG2" s="49"/>
-      <c r="DH2" s="49"/>
-      <c r="DI2" s="49"/>
-      <c r="DJ2" s="49"/>
-      <c r="DK2" s="49"/>
-      <c r="DL2" s="49"/>
-      <c r="DM2" s="49"/>
-      <c r="DN2" s="49"/>
-      <c r="DO2" s="49"/>
-      <c r="DP2" s="49"/>
-      <c r="DQ2" s="49"/>
-      <c r="DR2" s="49"/>
-      <c r="DS2" s="49"/>
-      <c r="DT2" s="49"/>
-      <c r="DU2" s="49"/>
-      <c r="DV2" s="49"/>
-      <c r="DW2" s="49"/>
-      <c r="DX2" s="49"/>
-      <c r="DY2" s="49"/>
-      <c r="DZ2" s="49"/>
-      <c r="EA2" s="49"/>
-      <c r="EB2" s="49"/>
-      <c r="EC2" s="49"/>
-      <c r="ED2" s="49"/>
-      <c r="EE2" s="49"/>
-      <c r="EF2" s="49"/>
-      <c r="EG2" s="49"/>
-      <c r="EH2" s="49"/>
-      <c r="EI2" s="49"/>
-      <c r="EJ2" s="49"/>
-      <c r="EK2" s="49"/>
-      <c r="EL2" s="49"/>
-      <c r="EM2" s="49"/>
-      <c r="EN2" s="49"/>
-      <c r="EO2" s="49"/>
-      <c r="EP2" s="49"/>
-      <c r="EQ2" s="49"/>
-      <c r="ER2" s="49"/>
-      <c r="ES2" s="49"/>
-      <c r="ET2" s="49"/>
-      <c r="EU2" s="49"/>
-      <c r="EV2" s="49"/>
-      <c r="EW2" s="49"/>
-      <c r="EX2" s="49"/>
-      <c r="EY2" s="49"/>
-      <c r="EZ2" s="49"/>
-      <c r="FA2" s="49"/>
-      <c r="FB2" s="49"/>
-      <c r="FC2" s="49"/>
-      <c r="FD2" s="49"/>
-      <c r="FE2" s="49"/>
-      <c r="FF2" s="49"/>
-      <c r="FG2" s="49"/>
-      <c r="FH2" s="49"/>
-      <c r="FI2" s="49"/>
-      <c r="FJ2" s="49"/>
-      <c r="FK2" s="49"/>
-      <c r="FL2" s="49"/>
-      <c r="FM2" s="49"/>
-      <c r="FN2" s="49"/>
-      <c r="FO2" s="49"/>
-      <c r="FP2" s="49"/>
-      <c r="FQ2" s="49"/>
-      <c r="FR2" s="49"/>
-      <c r="FS2" s="49"/>
-      <c r="FT2" s="49"/>
-      <c r="FU2" s="49"/>
-      <c r="FV2" s="49"/>
-      <c r="FW2" s="49"/>
-      <c r="FX2" s="49"/>
-      <c r="FY2" s="49"/>
-      <c r="FZ2" s="49"/>
-      <c r="GA2" s="49"/>
-      <c r="GB2" s="49"/>
-      <c r="GC2" s="49"/>
-      <c r="GD2" s="49"/>
-      <c r="GE2" s="49"/>
-      <c r="GF2" s="49"/>
-      <c r="GG2" s="49"/>
-      <c r="GH2" s="49"/>
-      <c r="GI2" s="49"/>
-      <c r="GJ2" s="49"/>
-      <c r="GK2" s="49"/>
-      <c r="GL2" s="49"/>
-      <c r="GM2" s="49"/>
-      <c r="GN2" s="49"/>
-      <c r="GO2" s="49"/>
-      <c r="GP2" s="49"/>
-      <c r="GQ2" s="49"/>
-      <c r="GR2" s="49"/>
-      <c r="GS2" s="49"/>
-      <c r="GT2" s="49"/>
-      <c r="GU2" s="49"/>
-      <c r="GV2" s="49"/>
-      <c r="GW2" s="49"/>
-      <c r="GX2" s="49"/>
-      <c r="GY2" s="49"/>
-      <c r="GZ2" s="49"/>
-      <c r="HA2" s="49"/>
-      <c r="HB2" s="49"/>
-      <c r="HC2" s="49"/>
-      <c r="HD2" s="49"/>
-      <c r="HE2" s="49"/>
-      <c r="HF2" s="49"/>
-      <c r="HG2" s="49"/>
-      <c r="HH2" s="49"/>
-      <c r="HI2" s="49"/>
-      <c r="HJ2" s="49"/>
-      <c r="HK2" s="49"/>
-      <c r="HL2" s="49"/>
-      <c r="HM2" s="49"/>
-      <c r="HN2" s="49"/>
-      <c r="HO2" s="49"/>
-      <c r="HP2" s="49"/>
-      <c r="HQ2" s="49"/>
-      <c r="HR2" s="49"/>
-      <c r="HS2" s="49"/>
-      <c r="HT2" s="49"/>
-      <c r="HU2" s="49"/>
-      <c r="HV2" s="49"/>
-      <c r="HW2" s="49"/>
-      <c r="HX2" s="49"/>
-      <c r="HY2" s="49"/>
-      <c r="HZ2" s="49"/>
-      <c r="IA2" s="49"/>
-      <c r="IB2" s="49"/>
-      <c r="IC2" s="49"/>
-      <c r="ID2" s="49"/>
-      <c r="IE2" s="49"/>
-      <c r="IF2" s="49"/>
-      <c r="IG2" s="49"/>
-      <c r="IH2" s="49"/>
-      <c r="II2" s="49"/>
-      <c r="IJ2" s="49"/>
-      <c r="IK2" s="49"/>
-      <c r="IL2" s="49"/>
-      <c r="IM2" s="49"/>
-      <c r="IN2" s="49"/>
-      <c r="IO2" s="49"/>
-      <c r="IP2" s="49"/>
-      <c r="IQ2" s="49"/>
-      <c r="IR2" s="49"/>
-      <c r="IS2" s="49"/>
-      <c r="IT2" s="49"/>
-      <c r="IU2" s="49"/>
-      <c r="IV2" s="49"/>
-      <c r="IW2" s="49"/>
-      <c r="IX2" s="49"/>
-      <c r="IY2" s="49"/>
-      <c r="IZ2" s="49"/>
-      <c r="JA2" s="49"/>
-      <c r="JB2" s="49"/>
-      <c r="JC2" s="49"/>
-      <c r="JD2" s="49"/>
-      <c r="JE2" s="49"/>
-      <c r="JF2" s="49"/>
-      <c r="JG2" s="49"/>
-      <c r="JH2" s="49"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57"/>
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57"/>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57"/>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57"/>
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="57"/>
+      <c r="BV2" s="57"/>
+      <c r="BW2" s="57"/>
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="57"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57"/>
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57"/>
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57"/>
+      <c r="CF2" s="57"/>
+      <c r="CG2" s="57"/>
+      <c r="CH2" s="57"/>
+      <c r="CI2" s="57"/>
+      <c r="CJ2" s="57"/>
+      <c r="CK2" s="57"/>
+      <c r="CL2" s="57"/>
+      <c r="CM2" s="57"/>
+      <c r="CN2" s="57"/>
+      <c r="CO2" s="57"/>
+      <c r="CP2" s="57"/>
+      <c r="CQ2" s="57"/>
+      <c r="CR2" s="57"/>
+      <c r="CS2" s="57"/>
+      <c r="CT2" s="57"/>
+      <c r="CU2" s="57"/>
+      <c r="CV2" s="57"/>
+      <c r="CW2" s="57"/>
+      <c r="CX2" s="57"/>
+      <c r="CY2" s="57"/>
+      <c r="CZ2" s="57"/>
+      <c r="DA2" s="57"/>
+      <c r="DB2" s="57"/>
+      <c r="DC2" s="57"/>
+      <c r="DD2" s="57"/>
+      <c r="DE2" s="57"/>
+      <c r="DF2" s="57"/>
+      <c r="DG2" s="57"/>
+      <c r="DH2" s="57"/>
+      <c r="DI2" s="57"/>
+      <c r="DJ2" s="57"/>
+      <c r="DK2" s="57"/>
+      <c r="DL2" s="57"/>
+      <c r="DM2" s="57"/>
+      <c r="DN2" s="57"/>
+      <c r="DO2" s="57"/>
+      <c r="DP2" s="57"/>
+      <c r="DQ2" s="57"/>
+      <c r="DR2" s="57"/>
+      <c r="DS2" s="57"/>
+      <c r="DT2" s="57"/>
+      <c r="DU2" s="57"/>
+      <c r="DV2" s="57"/>
+      <c r="DW2" s="57"/>
+      <c r="DX2" s="57"/>
+      <c r="DY2" s="57"/>
+      <c r="DZ2" s="57"/>
+      <c r="EA2" s="57"/>
+      <c r="EB2" s="57"/>
+      <c r="EC2" s="57"/>
+      <c r="ED2" s="57"/>
+      <c r="EE2" s="57"/>
+      <c r="EF2" s="57"/>
+      <c r="EG2" s="57"/>
+      <c r="EH2" s="57"/>
+      <c r="EI2" s="57"/>
+      <c r="EJ2" s="57"/>
+      <c r="EK2" s="57"/>
+      <c r="EL2" s="57"/>
+      <c r="EM2" s="57"/>
+      <c r="EN2" s="57"/>
+      <c r="EO2" s="57"/>
+      <c r="EP2" s="57"/>
+      <c r="EQ2" s="57"/>
+      <c r="ER2" s="57"/>
+      <c r="ES2" s="57"/>
+      <c r="ET2" s="57"/>
+      <c r="EU2" s="57"/>
+      <c r="EV2" s="57"/>
+      <c r="EW2" s="57"/>
+      <c r="EX2" s="57"/>
+      <c r="EY2" s="57"/>
+      <c r="EZ2" s="57"/>
+      <c r="FA2" s="57"/>
+      <c r="FB2" s="57"/>
+      <c r="FC2" s="57"/>
+      <c r="FD2" s="57"/>
+      <c r="FE2" s="57"/>
+      <c r="FF2" s="57"/>
+      <c r="FG2" s="57"/>
+      <c r="FH2" s="57"/>
+      <c r="FI2" s="57"/>
+      <c r="FJ2" s="57"/>
+      <c r="FK2" s="57"/>
+      <c r="FL2" s="57"/>
+      <c r="FM2" s="57"/>
+      <c r="FN2" s="57"/>
+      <c r="FO2" s="57"/>
+      <c r="FP2" s="57"/>
+      <c r="FQ2" s="57"/>
+      <c r="FR2" s="57"/>
+      <c r="FS2" s="57"/>
+      <c r="FT2" s="57"/>
+      <c r="FU2" s="57"/>
+      <c r="FV2" s="57"/>
+      <c r="FW2" s="57"/>
+      <c r="FX2" s="57"/>
+      <c r="FY2" s="57"/>
+      <c r="FZ2" s="57"/>
+      <c r="GA2" s="57"/>
+      <c r="GB2" s="57"/>
+      <c r="GC2" s="57"/>
+      <c r="GD2" s="57"/>
+      <c r="GE2" s="57"/>
+      <c r="GF2" s="57"/>
+      <c r="GG2" s="57"/>
+      <c r="GH2" s="57"/>
+      <c r="GI2" s="57"/>
+      <c r="GJ2" s="57"/>
+      <c r="GK2" s="57"/>
+      <c r="GL2" s="57"/>
+      <c r="GM2" s="57"/>
+      <c r="GN2" s="57"/>
+      <c r="GO2" s="57"/>
+      <c r="GP2" s="57"/>
+      <c r="GQ2" s="57"/>
+      <c r="GR2" s="57"/>
+      <c r="GS2" s="57"/>
+      <c r="GT2" s="57"/>
+      <c r="GU2" s="57"/>
+      <c r="GV2" s="57"/>
+      <c r="GW2" s="57"/>
+      <c r="GX2" s="57"/>
+      <c r="GY2" s="57"/>
+      <c r="GZ2" s="57"/>
+      <c r="HA2" s="57"/>
+      <c r="HB2" s="57"/>
+      <c r="HC2" s="57"/>
+      <c r="HD2" s="57"/>
+      <c r="HE2" s="57"/>
+      <c r="HF2" s="57"/>
+      <c r="HG2" s="57"/>
+      <c r="HH2" s="57"/>
+      <c r="HI2" s="57"/>
+      <c r="HJ2" s="57"/>
+      <c r="HK2" s="57"/>
+      <c r="HL2" s="57"/>
+      <c r="HM2" s="57"/>
+      <c r="HN2" s="57"/>
+      <c r="HO2" s="57"/>
+      <c r="HP2" s="57"/>
+      <c r="HQ2" s="57"/>
+      <c r="HR2" s="57"/>
+      <c r="HS2" s="57"/>
+      <c r="HT2" s="57"/>
+      <c r="HU2" s="57"/>
+      <c r="HV2" s="57"/>
+      <c r="HW2" s="57"/>
+      <c r="HX2" s="57"/>
+      <c r="HY2" s="57"/>
+      <c r="HZ2" s="57"/>
+      <c r="IA2" s="57"/>
+      <c r="IB2" s="57"/>
+      <c r="IC2" s="57"/>
+      <c r="ID2" s="57"/>
+      <c r="IE2" s="57"/>
+      <c r="IF2" s="57"/>
+      <c r="IG2" s="57"/>
+      <c r="IH2" s="57"/>
+      <c r="II2" s="57"/>
+      <c r="IJ2" s="57"/>
+      <c r="IK2" s="57"/>
+      <c r="IL2" s="57"/>
+      <c r="IM2" s="57"/>
+      <c r="IN2" s="57"/>
+      <c r="IO2" s="57"/>
+      <c r="IP2" s="57"/>
+      <c r="IQ2" s="57"/>
+      <c r="IR2" s="57"/>
+      <c r="IS2" s="57"/>
+      <c r="IT2" s="57"/>
+      <c r="IU2" s="57"/>
+      <c r="IV2" s="57"/>
+      <c r="IW2" s="57"/>
+      <c r="IX2" s="57"/>
+      <c r="IY2" s="57"/>
+      <c r="IZ2" s="57"/>
+      <c r="JA2" s="57"/>
+      <c r="JB2" s="57"/>
+      <c r="JC2" s="57"/>
+      <c r="JD2" s="57"/>
+      <c r="JE2" s="57"/>
+      <c r="JF2" s="57"/>
+      <c r="JG2" s="57"/>
+      <c r="JH2" s="57"/>
       <c r="JI2" s="1"/>
       <c r="JJ2" s="1"/>
       <c r="JK2" s="1"/>
@@ -1652,331 +1692,332 @@
       <c r="JM2" s="1"/>
       <c r="JN2" s="1"/>
     </row>
-    <row r="4" spans="1:276" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:277" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="51">
+      <c r="B4" s="49">
         <v>2003</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49">
         <v>2004</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51">
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49">
         <v>2005</v>
       </c>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51">
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49">
         <v>2006</v>
       </c>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51">
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49">
         <v>2007</v>
       </c>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="51"/>
-      <c r="BH4" s="51"/>
-      <c r="BI4" s="51"/>
-      <c r="BJ4" s="51">
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49">
         <v>2008</v>
       </c>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="51"/>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="51"/>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="51"/>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="51"/>
-      <c r="BT4" s="51"/>
-      <c r="BU4" s="51"/>
-      <c r="BV4" s="51">
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49">
         <v>2009</v>
       </c>
-      <c r="BW4" s="51"/>
-      <c r="BX4" s="51"/>
-      <c r="BY4" s="51"/>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="51"/>
-      <c r="CB4" s="51"/>
-      <c r="CC4" s="51"/>
-      <c r="CD4" s="51"/>
-      <c r="CE4" s="51"/>
-      <c r="CF4" s="51"/>
-      <c r="CG4" s="51"/>
-      <c r="CH4" s="51">
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49">
         <v>2010</v>
       </c>
-      <c r="CI4" s="51"/>
-      <c r="CJ4" s="51"/>
-      <c r="CK4" s="51"/>
-      <c r="CL4" s="51"/>
-      <c r="CM4" s="51"/>
-      <c r="CN4" s="51"/>
-      <c r="CO4" s="51"/>
-      <c r="CP4" s="51"/>
-      <c r="CQ4" s="51"/>
-      <c r="CR4" s="51"/>
-      <c r="CS4" s="51"/>
-      <c r="CT4" s="51">
+      <c r="CI4" s="49"/>
+      <c r="CJ4" s="49"/>
+      <c r="CK4" s="49"/>
+      <c r="CL4" s="49"/>
+      <c r="CM4" s="49"/>
+      <c r="CN4" s="49"/>
+      <c r="CO4" s="49"/>
+      <c r="CP4" s="49"/>
+      <c r="CQ4" s="49"/>
+      <c r="CR4" s="49"/>
+      <c r="CS4" s="49"/>
+      <c r="CT4" s="49">
         <v>2011</v>
       </c>
-      <c r="CU4" s="51"/>
-      <c r="CV4" s="51"/>
-      <c r="CW4" s="51"/>
-      <c r="CX4" s="51"/>
-      <c r="CY4" s="51"/>
-      <c r="CZ4" s="51"/>
-      <c r="DA4" s="51"/>
-      <c r="DB4" s="51"/>
-      <c r="DC4" s="51"/>
-      <c r="DD4" s="51"/>
-      <c r="DE4" s="51"/>
-      <c r="DF4" s="51">
+      <c r="CU4" s="49"/>
+      <c r="CV4" s="49"/>
+      <c r="CW4" s="49"/>
+      <c r="CX4" s="49"/>
+      <c r="CY4" s="49"/>
+      <c r="CZ4" s="49"/>
+      <c r="DA4" s="49"/>
+      <c r="DB4" s="49"/>
+      <c r="DC4" s="49"/>
+      <c r="DD4" s="49"/>
+      <c r="DE4" s="49"/>
+      <c r="DF4" s="49">
         <v>2012</v>
       </c>
-      <c r="DG4" s="51"/>
-      <c r="DH4" s="51"/>
-      <c r="DI4" s="51"/>
-      <c r="DJ4" s="51"/>
-      <c r="DK4" s="51"/>
-      <c r="DL4" s="51"/>
-      <c r="DM4" s="51"/>
-      <c r="DN4" s="51"/>
-      <c r="DO4" s="51"/>
-      <c r="DP4" s="51"/>
-      <c r="DQ4" s="51"/>
-      <c r="DR4" s="51">
+      <c r="DG4" s="49"/>
+      <c r="DH4" s="49"/>
+      <c r="DI4" s="49"/>
+      <c r="DJ4" s="49"/>
+      <c r="DK4" s="49"/>
+      <c r="DL4" s="49"/>
+      <c r="DM4" s="49"/>
+      <c r="DN4" s="49"/>
+      <c r="DO4" s="49"/>
+      <c r="DP4" s="49"/>
+      <c r="DQ4" s="49"/>
+      <c r="DR4" s="49">
         <v>2013</v>
       </c>
-      <c r="DS4" s="51"/>
-      <c r="DT4" s="51"/>
-      <c r="DU4" s="51"/>
-      <c r="DV4" s="51"/>
-      <c r="DW4" s="51"/>
-      <c r="DX4" s="51"/>
-      <c r="DY4" s="51"/>
-      <c r="DZ4" s="51"/>
-      <c r="EA4" s="51"/>
-      <c r="EB4" s="51"/>
-      <c r="EC4" s="51"/>
-      <c r="ED4" s="51">
+      <c r="DS4" s="49"/>
+      <c r="DT4" s="49"/>
+      <c r="DU4" s="49"/>
+      <c r="DV4" s="49"/>
+      <c r="DW4" s="49"/>
+      <c r="DX4" s="49"/>
+      <c r="DY4" s="49"/>
+      <c r="DZ4" s="49"/>
+      <c r="EA4" s="49"/>
+      <c r="EB4" s="49"/>
+      <c r="EC4" s="49"/>
+      <c r="ED4" s="49">
         <v>2014</v>
       </c>
-      <c r="EE4" s="51"/>
-      <c r="EF4" s="51"/>
-      <c r="EG4" s="51"/>
-      <c r="EH4" s="51"/>
-      <c r="EI4" s="51"/>
-      <c r="EJ4" s="51"/>
-      <c r="EK4" s="51"/>
-      <c r="EL4" s="51"/>
-      <c r="EM4" s="51"/>
-      <c r="EN4" s="51"/>
-      <c r="EO4" s="51"/>
-      <c r="EP4" s="51">
+      <c r="EE4" s="49"/>
+      <c r="EF4" s="49"/>
+      <c r="EG4" s="49"/>
+      <c r="EH4" s="49"/>
+      <c r="EI4" s="49"/>
+      <c r="EJ4" s="49"/>
+      <c r="EK4" s="49"/>
+      <c r="EL4" s="49"/>
+      <c r="EM4" s="49"/>
+      <c r="EN4" s="49"/>
+      <c r="EO4" s="49"/>
+      <c r="EP4" s="49">
         <v>2015</v>
       </c>
-      <c r="EQ4" s="51"/>
-      <c r="ER4" s="51"/>
-      <c r="ES4" s="51"/>
-      <c r="ET4" s="51"/>
-      <c r="EU4" s="51"/>
-      <c r="EV4" s="51"/>
-      <c r="EW4" s="51"/>
-      <c r="EX4" s="51"/>
-      <c r="EY4" s="51"/>
-      <c r="EZ4" s="51"/>
-      <c r="FA4" s="51"/>
-      <c r="FB4" s="51">
+      <c r="EQ4" s="49"/>
+      <c r="ER4" s="49"/>
+      <c r="ES4" s="49"/>
+      <c r="ET4" s="49"/>
+      <c r="EU4" s="49"/>
+      <c r="EV4" s="49"/>
+      <c r="EW4" s="49"/>
+      <c r="EX4" s="49"/>
+      <c r="EY4" s="49"/>
+      <c r="EZ4" s="49"/>
+      <c r="FA4" s="49"/>
+      <c r="FB4" s="49">
         <v>2016</v>
       </c>
-      <c r="FC4" s="51"/>
-      <c r="FD4" s="51"/>
-      <c r="FE4" s="51"/>
-      <c r="FF4" s="51"/>
-      <c r="FG4" s="51"/>
-      <c r="FH4" s="51"/>
-      <c r="FI4" s="51"/>
-      <c r="FJ4" s="51"/>
-      <c r="FK4" s="51"/>
-      <c r="FL4" s="51"/>
-      <c r="FM4" s="51"/>
-      <c r="FN4" s="51">
+      <c r="FC4" s="49"/>
+      <c r="FD4" s="49"/>
+      <c r="FE4" s="49"/>
+      <c r="FF4" s="49"/>
+      <c r="FG4" s="49"/>
+      <c r="FH4" s="49"/>
+      <c r="FI4" s="49"/>
+      <c r="FJ4" s="49"/>
+      <c r="FK4" s="49"/>
+      <c r="FL4" s="49"/>
+      <c r="FM4" s="49"/>
+      <c r="FN4" s="49">
         <v>2017</v>
       </c>
-      <c r="FO4" s="51"/>
-      <c r="FP4" s="51"/>
-      <c r="FQ4" s="51"/>
-      <c r="FR4" s="51"/>
-      <c r="FS4" s="51"/>
-      <c r="FT4" s="51"/>
-      <c r="FU4" s="51"/>
-      <c r="FV4" s="51"/>
-      <c r="FW4" s="51"/>
-      <c r="FX4" s="51"/>
-      <c r="FY4" s="51"/>
-      <c r="FZ4" s="51">
+      <c r="FO4" s="49"/>
+      <c r="FP4" s="49"/>
+      <c r="FQ4" s="49"/>
+      <c r="FR4" s="49"/>
+      <c r="FS4" s="49"/>
+      <c r="FT4" s="49"/>
+      <c r="FU4" s="49"/>
+      <c r="FV4" s="49"/>
+      <c r="FW4" s="49"/>
+      <c r="FX4" s="49"/>
+      <c r="FY4" s="49"/>
+      <c r="FZ4" s="49">
         <v>2018</v>
       </c>
-      <c r="GA4" s="51"/>
-      <c r="GB4" s="51"/>
-      <c r="GC4" s="51"/>
-      <c r="GD4" s="51"/>
-      <c r="GE4" s="51"/>
-      <c r="GF4" s="51"/>
-      <c r="GG4" s="51"/>
-      <c r="GH4" s="51"/>
-      <c r="GI4" s="51"/>
-      <c r="GJ4" s="51"/>
-      <c r="GK4" s="51"/>
-      <c r="GL4" s="51">
+      <c r="GA4" s="49"/>
+      <c r="GB4" s="49"/>
+      <c r="GC4" s="49"/>
+      <c r="GD4" s="49"/>
+      <c r="GE4" s="49"/>
+      <c r="GF4" s="49"/>
+      <c r="GG4" s="49"/>
+      <c r="GH4" s="49"/>
+      <c r="GI4" s="49"/>
+      <c r="GJ4" s="49"/>
+      <c r="GK4" s="49"/>
+      <c r="GL4" s="49">
         <v>2019</v>
       </c>
-      <c r="GM4" s="51"/>
-      <c r="GN4" s="51"/>
-      <c r="GO4" s="51"/>
-      <c r="GP4" s="51"/>
-      <c r="GQ4" s="51"/>
-      <c r="GR4" s="51"/>
-      <c r="GS4" s="51"/>
-      <c r="GT4" s="51"/>
-      <c r="GU4" s="51"/>
-      <c r="GV4" s="51"/>
-      <c r="GW4" s="51"/>
-      <c r="GX4" s="51">
+      <c r="GM4" s="49"/>
+      <c r="GN4" s="49"/>
+      <c r="GO4" s="49"/>
+      <c r="GP4" s="49"/>
+      <c r="GQ4" s="49"/>
+      <c r="GR4" s="49"/>
+      <c r="GS4" s="49"/>
+      <c r="GT4" s="49"/>
+      <c r="GU4" s="49"/>
+      <c r="GV4" s="49"/>
+      <c r="GW4" s="49"/>
+      <c r="GX4" s="49">
         <v>2020</v>
       </c>
-      <c r="GY4" s="51"/>
-      <c r="GZ4" s="51"/>
-      <c r="HA4" s="51"/>
-      <c r="HB4" s="51"/>
-      <c r="HC4" s="51"/>
-      <c r="HD4" s="51"/>
-      <c r="HE4" s="51"/>
-      <c r="HF4" s="51"/>
-      <c r="HG4" s="51"/>
-      <c r="HH4" s="51"/>
-      <c r="HI4" s="51"/>
-      <c r="HJ4" s="51">
+      <c r="GY4" s="49"/>
+      <c r="GZ4" s="49"/>
+      <c r="HA4" s="49"/>
+      <c r="HB4" s="49"/>
+      <c r="HC4" s="49"/>
+      <c r="HD4" s="49"/>
+      <c r="HE4" s="49"/>
+      <c r="HF4" s="49"/>
+      <c r="HG4" s="49"/>
+      <c r="HH4" s="49"/>
+      <c r="HI4" s="49"/>
+      <c r="HJ4" s="49">
         <v>2021</v>
       </c>
-      <c r="HK4" s="51"/>
-      <c r="HL4" s="51"/>
-      <c r="HM4" s="51"/>
-      <c r="HN4" s="51"/>
-      <c r="HO4" s="51"/>
-      <c r="HP4" s="51"/>
-      <c r="HQ4" s="51"/>
-      <c r="HR4" s="51"/>
-      <c r="HS4" s="51"/>
-      <c r="HT4" s="51"/>
-      <c r="HU4" s="51"/>
-      <c r="HV4" s="51">
+      <c r="HK4" s="49"/>
+      <c r="HL4" s="49"/>
+      <c r="HM4" s="49"/>
+      <c r="HN4" s="49"/>
+      <c r="HO4" s="49"/>
+      <c r="HP4" s="49"/>
+      <c r="HQ4" s="49"/>
+      <c r="HR4" s="49"/>
+      <c r="HS4" s="49"/>
+      <c r="HT4" s="49"/>
+      <c r="HU4" s="49"/>
+      <c r="HV4" s="49">
         <v>2022</v>
       </c>
-      <c r="HW4" s="51"/>
-      <c r="HX4" s="51"/>
-      <c r="HY4" s="51"/>
-      <c r="HZ4" s="51"/>
-      <c r="IA4" s="51"/>
-      <c r="IB4" s="51"/>
-      <c r="IC4" s="51"/>
-      <c r="ID4" s="51"/>
-      <c r="IE4" s="51"/>
-      <c r="IF4" s="51"/>
-      <c r="IG4" s="51"/>
-      <c r="IH4" s="51">
+      <c r="HW4" s="49"/>
+      <c r="HX4" s="49"/>
+      <c r="HY4" s="49"/>
+      <c r="HZ4" s="49"/>
+      <c r="IA4" s="49"/>
+      <c r="IB4" s="49"/>
+      <c r="IC4" s="49"/>
+      <c r="ID4" s="49"/>
+      <c r="IE4" s="49"/>
+      <c r="IF4" s="49"/>
+      <c r="IG4" s="49"/>
+      <c r="IH4" s="49">
         <v>2023</v>
       </c>
-      <c r="II4" s="51"/>
-      <c r="IJ4" s="51"/>
-      <c r="IK4" s="51"/>
-      <c r="IL4" s="51"/>
-      <c r="IM4" s="51"/>
-      <c r="IN4" s="51"/>
-      <c r="IO4" s="51"/>
-      <c r="IP4" s="51"/>
-      <c r="IQ4" s="51"/>
-      <c r="IR4" s="51"/>
-      <c r="IS4" s="51"/>
-      <c r="IT4" s="51">
+      <c r="II4" s="49"/>
+      <c r="IJ4" s="49"/>
+      <c r="IK4" s="49"/>
+      <c r="IL4" s="49"/>
+      <c r="IM4" s="49"/>
+      <c r="IN4" s="49"/>
+      <c r="IO4" s="49"/>
+      <c r="IP4" s="49"/>
+      <c r="IQ4" s="49"/>
+      <c r="IR4" s="49"/>
+      <c r="IS4" s="49"/>
+      <c r="IT4" s="49">
         <v>2024</v>
       </c>
-      <c r="IU4" s="51"/>
-      <c r="IV4" s="51"/>
-      <c r="IW4" s="51"/>
-      <c r="IX4" s="51"/>
-      <c r="IY4" s="51"/>
-      <c r="IZ4" s="51"/>
-      <c r="JA4" s="51"/>
-      <c r="JB4" s="51"/>
-      <c r="JC4" s="51"/>
-      <c r="JD4" s="51"/>
-      <c r="JE4" s="53"/>
-      <c r="JF4" s="56">
+      <c r="IU4" s="49"/>
+      <c r="IV4" s="49"/>
+      <c r="IW4" s="49"/>
+      <c r="IX4" s="49"/>
+      <c r="IY4" s="49"/>
+      <c r="IZ4" s="49"/>
+      <c r="JA4" s="49"/>
+      <c r="JB4" s="49"/>
+      <c r="JC4" s="49"/>
+      <c r="JD4" s="49"/>
+      <c r="JE4" s="50"/>
+      <c r="JF4" s="53">
         <v>2025</v>
       </c>
-      <c r="JG4" s="57"/>
-      <c r="JH4" s="57"/>
-      <c r="JI4" s="57"/>
-      <c r="JJ4" s="57"/>
-      <c r="JK4" s="57"/>
-      <c r="JL4" s="57"/>
-      <c r="JM4" s="57"/>
-      <c r="JN4" s="57"/>
-      <c r="JO4" s="57"/>
-      <c r="JP4" s="58"/>
+      <c r="JG4" s="54"/>
+      <c r="JH4" s="54"/>
+      <c r="JI4" s="54"/>
+      <c r="JJ4" s="54"/>
+      <c r="JK4" s="54"/>
+      <c r="JL4" s="54"/>
+      <c r="JM4" s="54"/>
+      <c r="JN4" s="54"/>
+      <c r="JO4" s="54"/>
+      <c r="JP4" s="54"/>
+      <c r="JQ4" s="55"/>
     </row>
-    <row r="5" spans="1:276" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:277" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2805,8 +2846,11 @@
       <c r="JP5" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="JQ5" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -3635,8 +3679,11 @@
       <c r="JP6" s="12">
         <v>430.42781258256502</v>
       </c>
+      <c r="JQ6" s="12">
+        <v>4228.7969168391301</v>
+      </c>
     </row>
-    <row r="7" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -4465,8 +4512,11 @@
       <c r="JP7" s="12">
         <v>2317.3401829141299</v>
       </c>
+      <c r="JQ7" s="12">
+        <v>2341.3583789813601</v>
+      </c>
     </row>
-    <row r="8" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -5295,8 +5345,11 @@
       <c r="JP8" s="12">
         <v>1886.9123703315699</v>
       </c>
+      <c r="JQ8" s="12">
+        <v>-1887.4385378577999</v>
+      </c>
     </row>
-    <row r="9" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -6125,8 +6178,11 @@
       <c r="JP9" s="12">
         <v>-1232.0674294162</v>
       </c>
+      <c r="JQ9" s="12">
+        <v>1220.97858189108</v>
+      </c>
     </row>
-    <row r="10" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -6955,8 +7011,11 @@
       <c r="JP10" s="17">
         <v>846.77084501214301</v>
       </c>
+      <c r="JQ10" s="17">
+        <v>582.71755831577798</v>
+      </c>
     </row>
-    <row r="11" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -7785,8 +7844,11 @@
       <c r="JP11" s="17">
         <v>269.79503162860999</v>
       </c>
+      <c r="JQ11" s="17">
+        <v>300.347057857018</v>
+      </c>
     </row>
-    <row r="12" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -8615,8 +8677,11 @@
       <c r="JP12" s="17">
         <v>30.121659004148299</v>
       </c>
+      <c r="JQ12" s="17">
+        <v>-161.99617878958</v>
+      </c>
     </row>
-    <row r="13" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -9445,8 +9510,11 @@
       <c r="JP13" s="17">
         <v>546.854154379384</v>
       </c>
+      <c r="JQ13" s="17">
+        <v>444.36667924834001</v>
+      </c>
     </row>
-    <row r="14" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
@@ -10275,8 +10343,11 @@
       <c r="JP14" s="17">
         <v>2078.8382744283299</v>
       </c>
+      <c r="JQ14" s="17">
+        <v>-638.26102357530999</v>
+      </c>
     </row>
-    <row r="15" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
@@ -11105,8 +11176,11 @@
       <c r="JP15" s="17">
         <v>127.44908817</v>
       </c>
+      <c r="JQ15" s="17">
+        <v>533.27321182451101</v>
+      </c>
     </row>
-    <row r="16" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -11935,8 +12009,11 @@
       <c r="JP16" s="17">
         <v>478.24725436598197</v>
       </c>
+      <c r="JQ16" s="17">
+        <v>-412.14521154213003</v>
+      </c>
     </row>
-    <row r="17" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
@@ -12765,8 +12842,11 @@
       <c r="JP17" s="17">
         <v>1473.1419318923499</v>
       </c>
+      <c r="JQ17" s="17">
+        <v>-759.38902385768995</v>
+      </c>
     </row>
-    <row r="18" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -13595,8 +13675,11 @@
       <c r="JP18" s="12">
         <v>1612.4150381294601</v>
       </c>
+      <c r="JQ18" s="12">
+        <v>434.431672953168</v>
+      </c>
     </row>
-    <row r="19" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
@@ -14425,8 +14508,11 @@
       <c r="JP19" s="17">
         <v>2582.1951056186099</v>
       </c>
+      <c r="JQ19" s="17">
+        <v>1052.9335972096901</v>
+      </c>
     </row>
-    <row r="20" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
@@ -15255,8 +15341,11 @@
       <c r="JP20" s="17">
         <v>2627.9572792394201</v>
       </c>
+      <c r="JQ20" s="17">
+        <v>1341.99770044298</v>
+      </c>
     </row>
-    <row r="21" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -16085,8 +16174,11 @@
       <c r="JP21" s="17">
         <v>-45.762173620814998</v>
       </c>
+      <c r="JQ21" s="17">
+        <v>-289.06410323327998</v>
+      </c>
     </row>
-    <row r="22" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
@@ -16915,8 +17007,11 @@
       <c r="JP22" s="17">
         <v>-254.07388781812</v>
       </c>
+      <c r="JQ22" s="17">
+        <v>-89.788852452597993</v>
+      </c>
     </row>
-    <row r="23" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
@@ -17745,8 +17840,11 @@
       <c r="JP23" s="17">
         <v>208.31171419730799</v>
       </c>
+      <c r="JQ23" s="17">
+        <v>-199.27525078068001</v>
+      </c>
     </row>
-    <row r="24" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>29</v>
       </c>
@@ -18575,8 +18673,11 @@
       <c r="JP24" s="17">
         <v>969.78006748914902</v>
       </c>
+      <c r="JQ24" s="17">
+        <v>618.50192425652597</v>
+      </c>
     </row>
-    <row r="25" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
@@ -19405,8 +19506,11 @@
       <c r="JP25" s="17">
         <v>-862.26958022970996</v>
       </c>
+      <c r="JQ25" s="17">
+        <v>-143.21190431747999</v>
+      </c>
     </row>
-    <row r="26" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>26</v>
       </c>
@@ -20235,8 +20339,11 @@
       <c r="JP26" s="17">
         <v>1832.0496477188599</v>
       </c>
+      <c r="JQ26" s="17">
+        <v>761.71382857400704</v>
+      </c>
     </row>
-    <row r="27" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
@@ -21065,8 +21172,11 @@
       <c r="JP27" s="17">
         <v>1805.8699311836999</v>
       </c>
+      <c r="JQ27" s="17">
+        <v>769.70208234903896</v>
+      </c>
     </row>
-    <row r="28" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
@@ -21895,8 +22005,11 @@
       <c r="JP28" s="17">
         <v>26.179716535152401</v>
       </c>
+      <c r="JQ28" s="17">
+        <v>-7.9882537750321001</v>
+      </c>
     </row>
-    <row r="29" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
@@ -22725,8 +22838,11 @@
       <c r="JP29" s="12">
         <v>-33.760698803137998</v>
       </c>
+      <c r="JQ29" s="12">
+        <v>-124.71365373330001</v>
+      </c>
     </row>
-    <row r="30" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
@@ -23555,8 +23671,11 @@
       <c r="JP30" s="12">
         <v>-461.33662929155997</v>
       </c>
+      <c r="JQ30" s="12">
+        <v>2124.62411221411</v>
+      </c>
     </row>
-    <row r="31" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>19</v>
       </c>
@@ -24385,8 +24504,11 @@
       <c r="JP31" s="17">
         <v>-401.90801248205997</v>
       </c>
+      <c r="JQ31" s="17">
+        <v>2162.1295450842499</v>
+      </c>
     </row>
-    <row r="32" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>32</v>
       </c>
@@ -25215,8 +25337,11 @@
       <c r="JP32" s="17">
         <v>0</v>
       </c>
+      <c r="JQ32" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>33</v>
       </c>
@@ -26045,8 +26170,11 @@
       <c r="JP33" s="17">
         <v>-239.3583842143</v>
       </c>
+      <c r="JQ33" s="17">
+        <v>1783.3577970025101</v>
+      </c>
     </row>
-    <row r="34" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
@@ -26875,8 +27003,11 @@
       <c r="JP34" s="17">
         <v>-115.24168851685</v>
       </c>
+      <c r="JQ34" s="17">
+        <v>57.533693594552098</v>
+      </c>
     </row>
-    <row r="35" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
@@ -27705,8 +27836,11 @@
       <c r="JP35" s="17">
         <v>-44.347987264902002</v>
       </c>
+      <c r="JQ35" s="17">
+        <v>324.21636301694002</v>
+      </c>
     </row>
-    <row r="36" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>36</v>
       </c>
@@ -28535,8 +28669,11 @@
       <c r="JP36" s="17">
         <v>-2.9599524860002999</v>
       </c>
+      <c r="JQ36" s="17">
+        <v>-2.9783085297472001</v>
+      </c>
     </row>
-    <row r="37" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>23</v>
       </c>
@@ -29365,8 +29502,11 @@
       <c r="JP37" s="17">
         <v>59.428616809498401</v>
       </c>
+      <c r="JQ37" s="17">
+        <v>37.505432870144197</v>
+      </c>
     </row>
-    <row r="38" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>33</v>
       </c>
@@ -30195,8 +30335,11 @@
       <c r="JP38" s="17">
         <v>-544.79055230768995</v>
       </c>
+      <c r="JQ38" s="17">
+        <v>151.45436455636101</v>
+      </c>
     </row>
-    <row r="39" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>34</v>
       </c>
@@ -31025,8 +31168,11 @@
       <c r="JP39" s="17">
         <v>128.263253910651</v>
       </c>
+      <c r="JQ39" s="17">
+        <v>594.48588119577596</v>
+      </c>
     </row>
-    <row r="40" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
@@ -31855,8 +32001,11 @@
       <c r="JP40" s="17">
         <v>492.559991478509</v>
       </c>
+      <c r="JQ40" s="17">
+        <v>-716.22638999071</v>
+      </c>
     </row>
-    <row r="41" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
@@ -32685,8 +32834,11 @@
       <c r="JP41" s="17">
         <v>3.4253000000000002E-4</v>
       </c>
+      <c r="JQ41" s="17">
+        <v>3.5733E-4</v>
+      </c>
     </row>
-    <row r="42" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
@@ -33515,8 +33667,11 @@
       <c r="JP42" s="17">
         <v>-16.604418801967999</v>
       </c>
+      <c r="JQ42" s="17">
+        <v>7.7912197787187498</v>
+      </c>
     </row>
-    <row r="43" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>39</v>
       </c>
@@ -34345,286 +34500,289 @@
       <c r="JP43" s="22">
         <v>545.17753196399099</v>
       </c>
+      <c r="JQ43" s="22">
+        <v>573.47620351407295</v>
+      </c>
     </row>
-    <row r="44" spans="1:276" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+    <row r="44" spans="1:277" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="55"/>
-      <c r="AY44" s="55"/>
-      <c r="AZ44" s="55"/>
-      <c r="BA44" s="55"/>
-      <c r="BB44" s="55"/>
-      <c r="BC44" s="55"/>
-      <c r="BD44" s="55"/>
-      <c r="BE44" s="55"/>
-      <c r="BF44" s="55"/>
-      <c r="BG44" s="55"/>
-      <c r="BH44" s="55"/>
-      <c r="BI44" s="55"/>
-      <c r="BJ44" s="55"/>
-      <c r="BK44" s="55"/>
-      <c r="BL44" s="55"/>
-      <c r="BM44" s="55"/>
-      <c r="BN44" s="55"/>
-      <c r="BO44" s="55"/>
-      <c r="BP44" s="55"/>
-      <c r="BQ44" s="55"/>
-      <c r="BR44" s="55"/>
-      <c r="BS44" s="55"/>
-      <c r="BT44" s="55"/>
-      <c r="BU44" s="55"/>
-      <c r="BV44" s="55"/>
-      <c r="BW44" s="55"/>
-      <c r="BX44" s="55"/>
-      <c r="BY44" s="55"/>
-      <c r="BZ44" s="55"/>
-      <c r="CA44" s="55"/>
-      <c r="CB44" s="55"/>
-      <c r="CC44" s="55"/>
-      <c r="CD44" s="55"/>
-      <c r="CE44" s="55"/>
-      <c r="CF44" s="55"/>
-      <c r="CG44" s="55"/>
-      <c r="CH44" s="55"/>
-      <c r="CI44" s="55"/>
-      <c r="CJ44" s="55"/>
-      <c r="CK44" s="55"/>
-      <c r="CL44" s="55"/>
-      <c r="CM44" s="55"/>
-      <c r="CN44" s="55"/>
-      <c r="CO44" s="55"/>
-      <c r="CP44" s="55"/>
-      <c r="CQ44" s="55"/>
-      <c r="CR44" s="55"/>
-      <c r="CS44" s="55"/>
-      <c r="CT44" s="55"/>
-      <c r="CU44" s="55"/>
-      <c r="CV44" s="55"/>
-      <c r="CW44" s="55"/>
-      <c r="CX44" s="55"/>
-      <c r="CY44" s="55"/>
-      <c r="CZ44" s="55"/>
-      <c r="DA44" s="55"/>
-      <c r="DB44" s="55"/>
-      <c r="DC44" s="55"/>
-      <c r="DD44" s="55"/>
-      <c r="DE44" s="55"/>
-      <c r="DF44" s="55"/>
-      <c r="DG44" s="55"/>
-      <c r="DH44" s="55"/>
-      <c r="DI44" s="55"/>
-      <c r="DJ44" s="55"/>
-      <c r="DK44" s="55"/>
-      <c r="DL44" s="55"/>
-      <c r="DM44" s="55"/>
-      <c r="DN44" s="55"/>
-      <c r="DO44" s="55"/>
-      <c r="DP44" s="55"/>
-      <c r="DQ44" s="55"/>
-      <c r="DR44" s="55"/>
-      <c r="DS44" s="55"/>
-      <c r="DT44" s="55"/>
-      <c r="DU44" s="55"/>
-      <c r="DV44" s="55"/>
-      <c r="DW44" s="55"/>
-      <c r="DX44" s="55"/>
-      <c r="DY44" s="55"/>
-      <c r="DZ44" s="55"/>
-      <c r="EA44" s="55"/>
-      <c r="EB44" s="55"/>
-      <c r="EC44" s="55"/>
-      <c r="ED44" s="55"/>
-      <c r="EE44" s="55"/>
-      <c r="EF44" s="55"/>
-      <c r="EG44" s="55"/>
-      <c r="EH44" s="55"/>
-      <c r="EI44" s="55"/>
-      <c r="EJ44" s="55"/>
-      <c r="EK44" s="55"/>
-      <c r="EL44" s="55"/>
-      <c r="EM44" s="55"/>
-      <c r="EN44" s="55"/>
-      <c r="EO44" s="55"/>
-      <c r="EP44" s="55"/>
-      <c r="EQ44" s="55"/>
-      <c r="ER44" s="55"/>
-      <c r="ES44" s="55"/>
-      <c r="ET44" s="55"/>
-      <c r="EU44" s="55"/>
-      <c r="EV44" s="55"/>
-      <c r="EW44" s="55"/>
-      <c r="EX44" s="55"/>
-      <c r="EY44" s="55"/>
-      <c r="EZ44" s="55"/>
-      <c r="FA44" s="55"/>
-      <c r="FB44" s="55"/>
-      <c r="FC44" s="55"/>
-      <c r="FD44" s="55"/>
-      <c r="FE44" s="55"/>
-      <c r="FF44" s="55"/>
-      <c r="FG44" s="55"/>
-      <c r="FH44" s="55"/>
-      <c r="FI44" s="55"/>
-      <c r="FJ44" s="55"/>
-      <c r="FK44" s="55"/>
-      <c r="FL44" s="55"/>
-      <c r="FM44" s="55"/>
-      <c r="FN44" s="55"/>
-      <c r="FO44" s="55"/>
-      <c r="FP44" s="55"/>
-      <c r="FQ44" s="55"/>
-      <c r="FR44" s="55"/>
-      <c r="FS44" s="55"/>
-      <c r="FT44" s="55"/>
-      <c r="FU44" s="55"/>
-      <c r="FV44" s="55"/>
-      <c r="FW44" s="55"/>
-      <c r="FX44" s="55"/>
-      <c r="FY44" s="55"/>
-      <c r="FZ44" s="55"/>
-      <c r="GA44" s="55"/>
-      <c r="GB44" s="55"/>
-      <c r="GC44" s="55"/>
-      <c r="GD44" s="55"/>
-      <c r="GE44" s="55"/>
-      <c r="GF44" s="55"/>
-      <c r="GG44" s="55"/>
-      <c r="GH44" s="55"/>
-      <c r="GI44" s="55"/>
-      <c r="GJ44" s="55"/>
-      <c r="GK44" s="55"/>
-      <c r="GL44" s="55"/>
-      <c r="GM44" s="55"/>
-      <c r="GN44" s="55"/>
-      <c r="GO44" s="55"/>
-      <c r="GP44" s="55"/>
-      <c r="GQ44" s="55"/>
-      <c r="GR44" s="55"/>
-      <c r="GS44" s="55"/>
-      <c r="GT44" s="55"/>
-      <c r="GU44" s="55"/>
-      <c r="GV44" s="55"/>
-      <c r="GW44" s="55"/>
-      <c r="GX44" s="55"/>
-      <c r="GY44" s="55"/>
-      <c r="GZ44" s="55"/>
-      <c r="HA44" s="55"/>
-      <c r="HB44" s="55"/>
-      <c r="HC44" s="55"/>
-      <c r="HD44" s="55"/>
-      <c r="HE44" s="55"/>
-      <c r="HF44" s="55"/>
-      <c r="HG44" s="55"/>
-      <c r="HH44" s="55"/>
-      <c r="HI44" s="55"/>
-      <c r="HJ44" s="55"/>
-      <c r="HK44" s="55"/>
-      <c r="HL44" s="55"/>
-      <c r="HM44" s="55"/>
-      <c r="HN44" s="55"/>
-      <c r="HO44" s="55"/>
-      <c r="HP44" s="55"/>
-      <c r="HQ44" s="55"/>
-      <c r="HR44" s="55"/>
-      <c r="HS44" s="55"/>
-      <c r="HT44" s="55"/>
-      <c r="HU44" s="55"/>
-      <c r="HV44" s="55"/>
-      <c r="HW44" s="55"/>
-      <c r="HX44" s="55"/>
-      <c r="HY44" s="55"/>
-      <c r="HZ44" s="55"/>
-      <c r="IA44" s="55"/>
-      <c r="IB44" s="55"/>
-      <c r="IC44" s="55"/>
-      <c r="ID44" s="55"/>
-      <c r="IE44" s="55"/>
-      <c r="IF44" s="55"/>
-      <c r="IG44" s="55"/>
-      <c r="IH44" s="55"/>
-      <c r="II44" s="55"/>
-      <c r="IJ44" s="55"/>
-      <c r="IK44" s="55"/>
-      <c r="IL44" s="55"/>
-      <c r="IM44" s="55"/>
-      <c r="IN44" s="55"/>
-      <c r="IO44" s="55"/>
-      <c r="IP44" s="55"/>
-      <c r="IQ44" s="55"/>
-      <c r="IR44" s="55"/>
-      <c r="IS44" s="55"/>
-      <c r="IT44" s="55"/>
-      <c r="IU44" s="55"/>
-      <c r="IV44" s="55"/>
-      <c r="IW44" s="55"/>
-      <c r="IX44" s="55"/>
-      <c r="IY44" s="55"/>
-      <c r="IZ44" s="55"/>
-      <c r="JA44" s="55"/>
-      <c r="JB44" s="55"/>
-      <c r="JC44" s="55"/>
-      <c r="JD44" s="55"/>
-      <c r="JE44" s="55"/>
-      <c r="JF44" s="55"/>
-      <c r="JG44" s="55"/>
-      <c r="JH44" s="55"/>
-      <c r="JI44" s="55"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="52"/>
+      <c r="AO44" s="52"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
+      <c r="AR44" s="52"/>
+      <c r="AS44" s="52"/>
+      <c r="AT44" s="52"/>
+      <c r="AU44" s="52"/>
+      <c r="AV44" s="52"/>
+      <c r="AW44" s="52"/>
+      <c r="AX44" s="52"/>
+      <c r="AY44" s="52"/>
+      <c r="AZ44" s="52"/>
+      <c r="BA44" s="52"/>
+      <c r="BB44" s="52"/>
+      <c r="BC44" s="52"/>
+      <c r="BD44" s="52"/>
+      <c r="BE44" s="52"/>
+      <c r="BF44" s="52"/>
+      <c r="BG44" s="52"/>
+      <c r="BH44" s="52"/>
+      <c r="BI44" s="52"/>
+      <c r="BJ44" s="52"/>
+      <c r="BK44" s="52"/>
+      <c r="BL44" s="52"/>
+      <c r="BM44" s="52"/>
+      <c r="BN44" s="52"/>
+      <c r="BO44" s="52"/>
+      <c r="BP44" s="52"/>
+      <c r="BQ44" s="52"/>
+      <c r="BR44" s="52"/>
+      <c r="BS44" s="52"/>
+      <c r="BT44" s="52"/>
+      <c r="BU44" s="52"/>
+      <c r="BV44" s="52"/>
+      <c r="BW44" s="52"/>
+      <c r="BX44" s="52"/>
+      <c r="BY44" s="52"/>
+      <c r="BZ44" s="52"/>
+      <c r="CA44" s="52"/>
+      <c r="CB44" s="52"/>
+      <c r="CC44" s="52"/>
+      <c r="CD44" s="52"/>
+      <c r="CE44" s="52"/>
+      <c r="CF44" s="52"/>
+      <c r="CG44" s="52"/>
+      <c r="CH44" s="52"/>
+      <c r="CI44" s="52"/>
+      <c r="CJ44" s="52"/>
+      <c r="CK44" s="52"/>
+      <c r="CL44" s="52"/>
+      <c r="CM44" s="52"/>
+      <c r="CN44" s="52"/>
+      <c r="CO44" s="52"/>
+      <c r="CP44" s="52"/>
+      <c r="CQ44" s="52"/>
+      <c r="CR44" s="52"/>
+      <c r="CS44" s="52"/>
+      <c r="CT44" s="52"/>
+      <c r="CU44" s="52"/>
+      <c r="CV44" s="52"/>
+      <c r="CW44" s="52"/>
+      <c r="CX44" s="52"/>
+      <c r="CY44" s="52"/>
+      <c r="CZ44" s="52"/>
+      <c r="DA44" s="52"/>
+      <c r="DB44" s="52"/>
+      <c r="DC44" s="52"/>
+      <c r="DD44" s="52"/>
+      <c r="DE44" s="52"/>
+      <c r="DF44" s="52"/>
+      <c r="DG44" s="52"/>
+      <c r="DH44" s="52"/>
+      <c r="DI44" s="52"/>
+      <c r="DJ44" s="52"/>
+      <c r="DK44" s="52"/>
+      <c r="DL44" s="52"/>
+      <c r="DM44" s="52"/>
+      <c r="DN44" s="52"/>
+      <c r="DO44" s="52"/>
+      <c r="DP44" s="52"/>
+      <c r="DQ44" s="52"/>
+      <c r="DR44" s="52"/>
+      <c r="DS44" s="52"/>
+      <c r="DT44" s="52"/>
+      <c r="DU44" s="52"/>
+      <c r="DV44" s="52"/>
+      <c r="DW44" s="52"/>
+      <c r="DX44" s="52"/>
+      <c r="DY44" s="52"/>
+      <c r="DZ44" s="52"/>
+      <c r="EA44" s="52"/>
+      <c r="EB44" s="52"/>
+      <c r="EC44" s="52"/>
+      <c r="ED44" s="52"/>
+      <c r="EE44" s="52"/>
+      <c r="EF44" s="52"/>
+      <c r="EG44" s="52"/>
+      <c r="EH44" s="52"/>
+      <c r="EI44" s="52"/>
+      <c r="EJ44" s="52"/>
+      <c r="EK44" s="52"/>
+      <c r="EL44" s="52"/>
+      <c r="EM44" s="52"/>
+      <c r="EN44" s="52"/>
+      <c r="EO44" s="52"/>
+      <c r="EP44" s="52"/>
+      <c r="EQ44" s="52"/>
+      <c r="ER44" s="52"/>
+      <c r="ES44" s="52"/>
+      <c r="ET44" s="52"/>
+      <c r="EU44" s="52"/>
+      <c r="EV44" s="52"/>
+      <c r="EW44" s="52"/>
+      <c r="EX44" s="52"/>
+      <c r="EY44" s="52"/>
+      <c r="EZ44" s="52"/>
+      <c r="FA44" s="52"/>
+      <c r="FB44" s="52"/>
+      <c r="FC44" s="52"/>
+      <c r="FD44" s="52"/>
+      <c r="FE44" s="52"/>
+      <c r="FF44" s="52"/>
+      <c r="FG44" s="52"/>
+      <c r="FH44" s="52"/>
+      <c r="FI44" s="52"/>
+      <c r="FJ44" s="52"/>
+      <c r="FK44" s="52"/>
+      <c r="FL44" s="52"/>
+      <c r="FM44" s="52"/>
+      <c r="FN44" s="52"/>
+      <c r="FO44" s="52"/>
+      <c r="FP44" s="52"/>
+      <c r="FQ44" s="52"/>
+      <c r="FR44" s="52"/>
+      <c r="FS44" s="52"/>
+      <c r="FT44" s="52"/>
+      <c r="FU44" s="52"/>
+      <c r="FV44" s="52"/>
+      <c r="FW44" s="52"/>
+      <c r="FX44" s="52"/>
+      <c r="FY44" s="52"/>
+      <c r="FZ44" s="52"/>
+      <c r="GA44" s="52"/>
+      <c r="GB44" s="52"/>
+      <c r="GC44" s="52"/>
+      <c r="GD44" s="52"/>
+      <c r="GE44" s="52"/>
+      <c r="GF44" s="52"/>
+      <c r="GG44" s="52"/>
+      <c r="GH44" s="52"/>
+      <c r="GI44" s="52"/>
+      <c r="GJ44" s="52"/>
+      <c r="GK44" s="52"/>
+      <c r="GL44" s="52"/>
+      <c r="GM44" s="52"/>
+      <c r="GN44" s="52"/>
+      <c r="GO44" s="52"/>
+      <c r="GP44" s="52"/>
+      <c r="GQ44" s="52"/>
+      <c r="GR44" s="52"/>
+      <c r="GS44" s="52"/>
+      <c r="GT44" s="52"/>
+      <c r="GU44" s="52"/>
+      <c r="GV44" s="52"/>
+      <c r="GW44" s="52"/>
+      <c r="GX44" s="52"/>
+      <c r="GY44" s="52"/>
+      <c r="GZ44" s="52"/>
+      <c r="HA44" s="52"/>
+      <c r="HB44" s="52"/>
+      <c r="HC44" s="52"/>
+      <c r="HD44" s="52"/>
+      <c r="HE44" s="52"/>
+      <c r="HF44" s="52"/>
+      <c r="HG44" s="52"/>
+      <c r="HH44" s="52"/>
+      <c r="HI44" s="52"/>
+      <c r="HJ44" s="52"/>
+      <c r="HK44" s="52"/>
+      <c r="HL44" s="52"/>
+      <c r="HM44" s="52"/>
+      <c r="HN44" s="52"/>
+      <c r="HO44" s="52"/>
+      <c r="HP44" s="52"/>
+      <c r="HQ44" s="52"/>
+      <c r="HR44" s="52"/>
+      <c r="HS44" s="52"/>
+      <c r="HT44" s="52"/>
+      <c r="HU44" s="52"/>
+      <c r="HV44" s="52"/>
+      <c r="HW44" s="52"/>
+      <c r="HX44" s="52"/>
+      <c r="HY44" s="52"/>
+      <c r="HZ44" s="52"/>
+      <c r="IA44" s="52"/>
+      <c r="IB44" s="52"/>
+      <c r="IC44" s="52"/>
+      <c r="ID44" s="52"/>
+      <c r="IE44" s="52"/>
+      <c r="IF44" s="52"/>
+      <c r="IG44" s="52"/>
+      <c r="IH44" s="52"/>
+      <c r="II44" s="52"/>
+      <c r="IJ44" s="52"/>
+      <c r="IK44" s="52"/>
+      <c r="IL44" s="52"/>
+      <c r="IM44" s="52"/>
+      <c r="IN44" s="52"/>
+      <c r="IO44" s="52"/>
+      <c r="IP44" s="52"/>
+      <c r="IQ44" s="52"/>
+      <c r="IR44" s="52"/>
+      <c r="IS44" s="52"/>
+      <c r="IT44" s="52"/>
+      <c r="IU44" s="52"/>
+      <c r="IV44" s="52"/>
+      <c r="IW44" s="52"/>
+      <c r="IX44" s="52"/>
+      <c r="IY44" s="52"/>
+      <c r="IZ44" s="52"/>
+      <c r="JA44" s="52"/>
+      <c r="JB44" s="52"/>
+      <c r="JC44" s="52"/>
+      <c r="JD44" s="52"/>
+      <c r="JE44" s="52"/>
+      <c r="JF44" s="52"/>
+      <c r="JG44" s="52"/>
+      <c r="JH44" s="52"/>
+      <c r="JI44" s="52"/>
       <c r="JJ44" s="23"/>
       <c r="JK44" s="1"/>
       <c r="JL44" s="1"/>
       <c r="JM44" s="1"/>
       <c r="JN44" s="1"/>
     </row>
-    <row r="45" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>41</v>
       </c>
@@ -35453,8 +35611,11 @@
       <c r="JP45" s="30">
         <v>-114.74971938143</v>
       </c>
+      <c r="JQ45" s="30">
+        <v>3655.3207133250598</v>
+      </c>
     </row>
-    <row r="46" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -36283,8 +36444,11 @@
       <c r="JP46" s="17">
         <v>969.78006748914902</v>
       </c>
+      <c r="JQ46" s="17">
+        <v>618.50192425652597</v>
+      </c>
     </row>
-    <row r="47" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>26</v>
       </c>
@@ -37113,8 +37277,11 @@
       <c r="JP47" s="17">
         <v>1832.0496477188599</v>
       </c>
+      <c r="JQ47" s="17">
+        <v>761.71382857400704</v>
+      </c>
     </row>
-    <row r="48" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>43</v>
       </c>
@@ -37727,8 +37894,11 @@
       <c r="JP48" s="17">
         <v>263.78402183260698</v>
       </c>
+      <c r="JQ48" s="17">
+        <v>275.21318230396298</v>
+      </c>
     </row>
-    <row r="49" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
@@ -38341,8 +38511,11 @@
       <c r="JP49" s="17">
         <v>1568.2656258862501</v>
       </c>
+      <c r="JQ49" s="17">
+        <v>486.50064627004502</v>
+      </c>
     </row>
-    <row r="50" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>25</v>
       </c>
@@ -39171,8 +39344,11 @@
       <c r="JP50" s="17">
         <v>-862.26958022970996</v>
       </c>
+      <c r="JQ50" s="17">
+        <v>-143.21190431747999</v>
+      </c>
     </row>
-    <row r="51" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>45</v>
       </c>
@@ -40001,8 +40177,11 @@
       <c r="JP51" s="17">
         <v>-142.69994873122999</v>
       </c>
+      <c r="JQ51" s="17">
+        <v>-36.414830756564001</v>
+      </c>
     </row>
-    <row r="52" spans="1:276" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:277" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
         <v>46</v>
       </c>
@@ -40831,278 +41010,281 @@
       <c r="JP52" s="39">
         <v>-719.56963149847002</v>
       </c>
+      <c r="JQ52" s="39">
+        <v>-106.79707356092</v>
+      </c>
     </row>
-    <row r="54" spans="1:276" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
+    <row r="54" spans="1:277" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52"/>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
-      <c r="AM54" s="52"/>
-      <c r="AN54" s="52"/>
-      <c r="AO54" s="52"/>
-      <c r="AP54" s="52"/>
-      <c r="AQ54" s="52"/>
-      <c r="AR54" s="52"/>
-      <c r="AS54" s="52"/>
-      <c r="AT54" s="52"/>
-      <c r="AU54" s="52"/>
-      <c r="AV54" s="52"/>
-      <c r="AW54" s="52"/>
-      <c r="AX54" s="52"/>
-      <c r="AY54" s="52"/>
-      <c r="AZ54" s="52"/>
-      <c r="BA54" s="52"/>
-      <c r="BB54" s="52"/>
-      <c r="BC54" s="52"/>
-      <c r="BD54" s="52"/>
-      <c r="BE54" s="52"/>
-      <c r="BF54" s="52"/>
-      <c r="BG54" s="52"/>
-      <c r="BH54" s="52"/>
-      <c r="BI54" s="52"/>
-      <c r="BJ54" s="52"/>
-      <c r="BK54" s="52"/>
-      <c r="BL54" s="52"/>
-      <c r="BM54" s="52"/>
-      <c r="BN54" s="52"/>
-      <c r="BO54" s="52"/>
-      <c r="BP54" s="52"/>
-      <c r="BQ54" s="52"/>
-      <c r="BR54" s="52"/>
-      <c r="BS54" s="52"/>
-      <c r="BT54" s="52"/>
-      <c r="BU54" s="52"/>
-      <c r="BV54" s="52"/>
-      <c r="BW54" s="52"/>
-      <c r="BX54" s="52"/>
-      <c r="BY54" s="52"/>
-      <c r="BZ54" s="52"/>
-      <c r="CA54" s="52"/>
-      <c r="CB54" s="52"/>
-      <c r="CC54" s="52"/>
-      <c r="CD54" s="52"/>
-      <c r="CE54" s="52"/>
-      <c r="CF54" s="52"/>
-      <c r="CG54" s="52"/>
-      <c r="CH54" s="52"/>
-      <c r="CI54" s="52"/>
-      <c r="CJ54" s="52"/>
-      <c r="CK54" s="52"/>
-      <c r="CL54" s="52"/>
-      <c r="CM54" s="52"/>
-      <c r="CN54" s="52"/>
-      <c r="CO54" s="52"/>
-      <c r="CP54" s="52"/>
-      <c r="CQ54" s="52"/>
-      <c r="CR54" s="52"/>
-      <c r="CS54" s="52"/>
-      <c r="CT54" s="52"/>
-      <c r="CU54" s="52"/>
-      <c r="CV54" s="52"/>
-      <c r="CW54" s="52"/>
-      <c r="CX54" s="52"/>
-      <c r="CY54" s="52"/>
-      <c r="CZ54" s="52"/>
-      <c r="DA54" s="52"/>
-      <c r="DB54" s="52"/>
-      <c r="DC54" s="52"/>
-      <c r="DD54" s="52"/>
-      <c r="DE54" s="52"/>
-      <c r="DF54" s="52"/>
-      <c r="DG54" s="52"/>
-      <c r="DH54" s="52"/>
-      <c r="DI54" s="52"/>
-      <c r="DJ54" s="52"/>
-      <c r="DK54" s="52"/>
-      <c r="DL54" s="52"/>
-      <c r="DM54" s="52"/>
-      <c r="DN54" s="52"/>
-      <c r="DO54" s="52"/>
-      <c r="DP54" s="52"/>
-      <c r="DQ54" s="52"/>
-      <c r="DR54" s="52"/>
-      <c r="DS54" s="52"/>
-      <c r="DT54" s="52"/>
-      <c r="DU54" s="52"/>
-      <c r="DV54" s="52"/>
-      <c r="DW54" s="52"/>
-      <c r="DX54" s="52"/>
-      <c r="DY54" s="52"/>
-      <c r="DZ54" s="52"/>
-      <c r="EA54" s="52"/>
-      <c r="EB54" s="52"/>
-      <c r="EC54" s="52"/>
-      <c r="ED54" s="52"/>
-      <c r="EE54" s="52"/>
-      <c r="EF54" s="52"/>
-      <c r="EG54" s="52"/>
-      <c r="EH54" s="52"/>
-      <c r="EI54" s="52"/>
-      <c r="EJ54" s="52"/>
-      <c r="EK54" s="52"/>
-      <c r="EL54" s="52"/>
-      <c r="EM54" s="52"/>
-      <c r="EN54" s="52"/>
-      <c r="EO54" s="52"/>
-      <c r="EP54" s="52"/>
-      <c r="EQ54" s="52"/>
-      <c r="ER54" s="52"/>
-      <c r="ES54" s="52"/>
-      <c r="ET54" s="52"/>
-      <c r="EU54" s="52"/>
-      <c r="EV54" s="52"/>
-      <c r="EW54" s="52"/>
-      <c r="EX54" s="52"/>
-      <c r="EY54" s="52"/>
-      <c r="EZ54" s="52"/>
-      <c r="FA54" s="52"/>
-      <c r="FB54" s="52"/>
-      <c r="FC54" s="52"/>
-      <c r="FD54" s="52"/>
-      <c r="FE54" s="52"/>
-      <c r="FF54" s="52"/>
-      <c r="FG54" s="52"/>
-      <c r="FH54" s="52"/>
-      <c r="FI54" s="52"/>
-      <c r="FJ54" s="52"/>
-      <c r="FK54" s="52"/>
-      <c r="FL54" s="52"/>
-      <c r="FM54" s="52"/>
-      <c r="FN54" s="52"/>
-      <c r="FO54" s="52"/>
-      <c r="FP54" s="52"/>
-      <c r="FQ54" s="52"/>
-      <c r="FR54" s="52"/>
-      <c r="FS54" s="52"/>
-      <c r="FT54" s="52"/>
-      <c r="FU54" s="52"/>
-      <c r="FV54" s="52"/>
-      <c r="FW54" s="52"/>
-      <c r="FX54" s="52"/>
-      <c r="FY54" s="52"/>
-      <c r="FZ54" s="52"/>
-      <c r="GA54" s="52"/>
-      <c r="GB54" s="52"/>
-      <c r="GC54" s="52"/>
-      <c r="GD54" s="52"/>
-      <c r="GE54" s="52"/>
-      <c r="GF54" s="52"/>
-      <c r="GG54" s="52"/>
-      <c r="GH54" s="52"/>
-      <c r="GI54" s="52"/>
-      <c r="GJ54" s="52"/>
-      <c r="GK54" s="52"/>
-      <c r="GL54" s="52"/>
-      <c r="GM54" s="52"/>
-      <c r="GN54" s="52"/>
-      <c r="GO54" s="52"/>
-      <c r="GP54" s="52"/>
-      <c r="GQ54" s="52"/>
-      <c r="GR54" s="52"/>
-      <c r="GS54" s="52"/>
-      <c r="GT54" s="52"/>
-      <c r="GU54" s="52"/>
-      <c r="GV54" s="52"/>
-      <c r="GW54" s="52"/>
-      <c r="GX54" s="52"/>
-      <c r="GY54" s="52"/>
-      <c r="GZ54" s="52"/>
-      <c r="HA54" s="52"/>
-      <c r="HB54" s="52"/>
-      <c r="HC54" s="52"/>
-      <c r="HD54" s="52"/>
-      <c r="HE54" s="52"/>
-      <c r="HF54" s="52"/>
-      <c r="HG54" s="52"/>
-      <c r="HH54" s="52"/>
-      <c r="HI54" s="52"/>
-      <c r="HJ54" s="52"/>
-      <c r="HK54" s="52"/>
-      <c r="HL54" s="52"/>
-      <c r="HM54" s="52"/>
-      <c r="HN54" s="52"/>
-      <c r="HO54" s="52"/>
-      <c r="HP54" s="52"/>
-      <c r="HQ54" s="52"/>
-      <c r="HR54" s="52"/>
-      <c r="HS54" s="52"/>
-      <c r="HT54" s="52"/>
-      <c r="HU54" s="52"/>
-      <c r="HV54" s="52"/>
-      <c r="HW54" s="52"/>
-      <c r="HX54" s="52"/>
-      <c r="HY54" s="52"/>
-      <c r="HZ54" s="52"/>
-      <c r="IA54" s="52"/>
-      <c r="IB54" s="52"/>
-      <c r="IC54" s="52"/>
-      <c r="ID54" s="52"/>
-      <c r="IE54" s="52"/>
-      <c r="IF54" s="52"/>
-      <c r="IG54" s="52"/>
-      <c r="IH54" s="52"/>
-      <c r="II54" s="52"/>
-      <c r="IJ54" s="52"/>
-      <c r="IK54" s="52"/>
-      <c r="IL54" s="52"/>
-      <c r="IM54" s="52"/>
-      <c r="IN54" s="52"/>
-      <c r="IO54" s="52"/>
-      <c r="IP54" s="52"/>
-      <c r="IQ54" s="52"/>
-      <c r="IR54" s="52"/>
-      <c r="IS54" s="52"/>
-      <c r="IT54" s="52"/>
-      <c r="IU54" s="52"/>
-      <c r="IV54" s="52"/>
-      <c r="IW54" s="52"/>
-      <c r="IX54" s="52"/>
-      <c r="IY54" s="52"/>
-      <c r="IZ54" s="52"/>
-      <c r="JA54" s="52"/>
-      <c r="JB54" s="52"/>
-      <c r="JC54" s="52"/>
-      <c r="JD54" s="52"/>
-      <c r="JE54" s="52"/>
-      <c r="JF54" s="52"/>
-      <c r="JG54" s="52"/>
-      <c r="JH54" s="52"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="48"/>
+      <c r="AC54" s="48"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="48"/>
+      <c r="AF54" s="48"/>
+      <c r="AG54" s="48"/>
+      <c r="AH54" s="48"/>
+      <c r="AI54" s="48"/>
+      <c r="AJ54" s="48"/>
+      <c r="AK54" s="48"/>
+      <c r="AL54" s="48"/>
+      <c r="AM54" s="48"/>
+      <c r="AN54" s="48"/>
+      <c r="AO54" s="48"/>
+      <c r="AP54" s="48"/>
+      <c r="AQ54" s="48"/>
+      <c r="AR54" s="48"/>
+      <c r="AS54" s="48"/>
+      <c r="AT54" s="48"/>
+      <c r="AU54" s="48"/>
+      <c r="AV54" s="48"/>
+      <c r="AW54" s="48"/>
+      <c r="AX54" s="48"/>
+      <c r="AY54" s="48"/>
+      <c r="AZ54" s="48"/>
+      <c r="BA54" s="48"/>
+      <c r="BB54" s="48"/>
+      <c r="BC54" s="48"/>
+      <c r="BD54" s="48"/>
+      <c r="BE54" s="48"/>
+      <c r="BF54" s="48"/>
+      <c r="BG54" s="48"/>
+      <c r="BH54" s="48"/>
+      <c r="BI54" s="48"/>
+      <c r="BJ54" s="48"/>
+      <c r="BK54" s="48"/>
+      <c r="BL54" s="48"/>
+      <c r="BM54" s="48"/>
+      <c r="BN54" s="48"/>
+      <c r="BO54" s="48"/>
+      <c r="BP54" s="48"/>
+      <c r="BQ54" s="48"/>
+      <c r="BR54" s="48"/>
+      <c r="BS54" s="48"/>
+      <c r="BT54" s="48"/>
+      <c r="BU54" s="48"/>
+      <c r="BV54" s="48"/>
+      <c r="BW54" s="48"/>
+      <c r="BX54" s="48"/>
+      <c r="BY54" s="48"/>
+      <c r="BZ54" s="48"/>
+      <c r="CA54" s="48"/>
+      <c r="CB54" s="48"/>
+      <c r="CC54" s="48"/>
+      <c r="CD54" s="48"/>
+      <c r="CE54" s="48"/>
+      <c r="CF54" s="48"/>
+      <c r="CG54" s="48"/>
+      <c r="CH54" s="48"/>
+      <c r="CI54" s="48"/>
+      <c r="CJ54" s="48"/>
+      <c r="CK54" s="48"/>
+      <c r="CL54" s="48"/>
+      <c r="CM54" s="48"/>
+      <c r="CN54" s="48"/>
+      <c r="CO54" s="48"/>
+      <c r="CP54" s="48"/>
+      <c r="CQ54" s="48"/>
+      <c r="CR54" s="48"/>
+      <c r="CS54" s="48"/>
+      <c r="CT54" s="48"/>
+      <c r="CU54" s="48"/>
+      <c r="CV54" s="48"/>
+      <c r="CW54" s="48"/>
+      <c r="CX54" s="48"/>
+      <c r="CY54" s="48"/>
+      <c r="CZ54" s="48"/>
+      <c r="DA54" s="48"/>
+      <c r="DB54" s="48"/>
+      <c r="DC54" s="48"/>
+      <c r="DD54" s="48"/>
+      <c r="DE54" s="48"/>
+      <c r="DF54" s="48"/>
+      <c r="DG54" s="48"/>
+      <c r="DH54" s="48"/>
+      <c r="DI54" s="48"/>
+      <c r="DJ54" s="48"/>
+      <c r="DK54" s="48"/>
+      <c r="DL54" s="48"/>
+      <c r="DM54" s="48"/>
+      <c r="DN54" s="48"/>
+      <c r="DO54" s="48"/>
+      <c r="DP54" s="48"/>
+      <c r="DQ54" s="48"/>
+      <c r="DR54" s="48"/>
+      <c r="DS54" s="48"/>
+      <c r="DT54" s="48"/>
+      <c r="DU54" s="48"/>
+      <c r="DV54" s="48"/>
+      <c r="DW54" s="48"/>
+      <c r="DX54" s="48"/>
+      <c r="DY54" s="48"/>
+      <c r="DZ54" s="48"/>
+      <c r="EA54" s="48"/>
+      <c r="EB54" s="48"/>
+      <c r="EC54" s="48"/>
+      <c r="ED54" s="48"/>
+      <c r="EE54" s="48"/>
+      <c r="EF54" s="48"/>
+      <c r="EG54" s="48"/>
+      <c r="EH54" s="48"/>
+      <c r="EI54" s="48"/>
+      <c r="EJ54" s="48"/>
+      <c r="EK54" s="48"/>
+      <c r="EL54" s="48"/>
+      <c r="EM54" s="48"/>
+      <c r="EN54" s="48"/>
+      <c r="EO54" s="48"/>
+      <c r="EP54" s="48"/>
+      <c r="EQ54" s="48"/>
+      <c r="ER54" s="48"/>
+      <c r="ES54" s="48"/>
+      <c r="ET54" s="48"/>
+      <c r="EU54" s="48"/>
+      <c r="EV54" s="48"/>
+      <c r="EW54" s="48"/>
+      <c r="EX54" s="48"/>
+      <c r="EY54" s="48"/>
+      <c r="EZ54" s="48"/>
+      <c r="FA54" s="48"/>
+      <c r="FB54" s="48"/>
+      <c r="FC54" s="48"/>
+      <c r="FD54" s="48"/>
+      <c r="FE54" s="48"/>
+      <c r="FF54" s="48"/>
+      <c r="FG54" s="48"/>
+      <c r="FH54" s="48"/>
+      <c r="FI54" s="48"/>
+      <c r="FJ54" s="48"/>
+      <c r="FK54" s="48"/>
+      <c r="FL54" s="48"/>
+      <c r="FM54" s="48"/>
+      <c r="FN54" s="48"/>
+      <c r="FO54" s="48"/>
+      <c r="FP54" s="48"/>
+      <c r="FQ54" s="48"/>
+      <c r="FR54" s="48"/>
+      <c r="FS54" s="48"/>
+      <c r="FT54" s="48"/>
+      <c r="FU54" s="48"/>
+      <c r="FV54" s="48"/>
+      <c r="FW54" s="48"/>
+      <c r="FX54" s="48"/>
+      <c r="FY54" s="48"/>
+      <c r="FZ54" s="48"/>
+      <c r="GA54" s="48"/>
+      <c r="GB54" s="48"/>
+      <c r="GC54" s="48"/>
+      <c r="GD54" s="48"/>
+      <c r="GE54" s="48"/>
+      <c r="GF54" s="48"/>
+      <c r="GG54" s="48"/>
+      <c r="GH54" s="48"/>
+      <c r="GI54" s="48"/>
+      <c r="GJ54" s="48"/>
+      <c r="GK54" s="48"/>
+      <c r="GL54" s="48"/>
+      <c r="GM54" s="48"/>
+      <c r="GN54" s="48"/>
+      <c r="GO54" s="48"/>
+      <c r="GP54" s="48"/>
+      <c r="GQ54" s="48"/>
+      <c r="GR54" s="48"/>
+      <c r="GS54" s="48"/>
+      <c r="GT54" s="48"/>
+      <c r="GU54" s="48"/>
+      <c r="GV54" s="48"/>
+      <c r="GW54" s="48"/>
+      <c r="GX54" s="48"/>
+      <c r="GY54" s="48"/>
+      <c r="GZ54" s="48"/>
+      <c r="HA54" s="48"/>
+      <c r="HB54" s="48"/>
+      <c r="HC54" s="48"/>
+      <c r="HD54" s="48"/>
+      <c r="HE54" s="48"/>
+      <c r="HF54" s="48"/>
+      <c r="HG54" s="48"/>
+      <c r="HH54" s="48"/>
+      <c r="HI54" s="48"/>
+      <c r="HJ54" s="48"/>
+      <c r="HK54" s="48"/>
+      <c r="HL54" s="48"/>
+      <c r="HM54" s="48"/>
+      <c r="HN54" s="48"/>
+      <c r="HO54" s="48"/>
+      <c r="HP54" s="48"/>
+      <c r="HQ54" s="48"/>
+      <c r="HR54" s="48"/>
+      <c r="HS54" s="48"/>
+      <c r="HT54" s="48"/>
+      <c r="HU54" s="48"/>
+      <c r="HV54" s="48"/>
+      <c r="HW54" s="48"/>
+      <c r="HX54" s="48"/>
+      <c r="HY54" s="48"/>
+      <c r="HZ54" s="48"/>
+      <c r="IA54" s="48"/>
+      <c r="IB54" s="48"/>
+      <c r="IC54" s="48"/>
+      <c r="ID54" s="48"/>
+      <c r="IE54" s="48"/>
+      <c r="IF54" s="48"/>
+      <c r="IG54" s="48"/>
+      <c r="IH54" s="48"/>
+      <c r="II54" s="48"/>
+      <c r="IJ54" s="48"/>
+      <c r="IK54" s="48"/>
+      <c r="IL54" s="48"/>
+      <c r="IM54" s="48"/>
+      <c r="IN54" s="48"/>
+      <c r="IO54" s="48"/>
+      <c r="IP54" s="48"/>
+      <c r="IQ54" s="48"/>
+      <c r="IR54" s="48"/>
+      <c r="IS54" s="48"/>
+      <c r="IT54" s="48"/>
+      <c r="IU54" s="48"/>
+      <c r="IV54" s="48"/>
+      <c r="IW54" s="48"/>
+      <c r="IX54" s="48"/>
+      <c r="IY54" s="48"/>
+      <c r="IZ54" s="48"/>
+      <c r="JA54" s="48"/>
+      <c r="JB54" s="48"/>
+      <c r="JC54" s="48"/>
+      <c r="JD54" s="48"/>
+      <c r="JE54" s="48"/>
+      <c r="JF54" s="48"/>
+      <c r="JG54" s="48"/>
+      <c r="JH54" s="48"/>
       <c r="JI54" s="1"/>
       <c r="JJ54" s="1"/>
       <c r="JK54" s="1"/>
@@ -41112,17 +41294,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A54:JH54"/>
-    <mergeCell ref="IH4:IS4"/>
-    <mergeCell ref="IT4:JE4"/>
-    <mergeCell ref="DF4:DQ4"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="N4:Y4"/>
-    <mergeCell ref="Z4:AK4"/>
-    <mergeCell ref="AL4:AW4"/>
-    <mergeCell ref="AX4:BI4"/>
-    <mergeCell ref="A44:JI44"/>
-    <mergeCell ref="JF4:JP4"/>
     <mergeCell ref="A1:JH1"/>
     <mergeCell ref="A2:JH2"/>
     <mergeCell ref="FZ4:GK4"/>
@@ -41139,6 +41310,17 @@
     <mergeCell ref="BV4:CG4"/>
     <mergeCell ref="CH4:CS4"/>
     <mergeCell ref="CT4:DE4"/>
+    <mergeCell ref="A54:JH54"/>
+    <mergeCell ref="IH4:IS4"/>
+    <mergeCell ref="IT4:JE4"/>
+    <mergeCell ref="DF4:DQ4"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="Z4:AK4"/>
+    <mergeCell ref="AL4:AW4"/>
+    <mergeCell ref="AX4:BI4"/>
+    <mergeCell ref="A44:JI44"/>
+    <mergeCell ref="JF4:JQ4"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -41147,13 +41329,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41165,139 +41347,145 @@
     <col min="10" max="13" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="23" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="1"/>
+    <col min="24" max="24" width="8.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
+    <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="60">
         <v>2003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="61">
         <v>2004</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="61">
         <v>2005</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="61">
         <v>2006</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="61">
         <v>2007</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="61">
         <v>2008</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="61">
         <v>2009</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="61">
         <v>2010</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="61">
         <v>2011</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="61">
         <v>2012</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="61">
         <v>2013</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="61">
         <v>2014</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="61">
         <v>2015</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="61">
         <v>2016</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="61">
         <v>2017</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="61">
         <v>2018</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="61">
         <v>2019</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="61">
         <v>2020</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="61">
         <v>2021</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="61">
         <v>2022</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="61">
         <v>2023</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="61">
         <v>2024</v>
       </c>
+      <c r="X4" s="62">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <v>931.79317399879801</v>
       </c>
       <c r="C5" s="9">
@@ -41363,12 +41551,15 @@
       <c r="W5" s="9">
         <v>-7104.022157204</v>
       </c>
+      <c r="X5" s="63">
+        <v>-5272.6413423156</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>4418.4340347796797</v>
       </c>
       <c r="C6" s="9">
@@ -41434,12 +41625,15 @@
       <c r="W6" s="9">
         <v>-11930.065806917</v>
       </c>
+      <c r="X6" s="63">
+        <v>10576.2400574812</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>3486.6408607808798</v>
       </c>
       <c r="C7" s="9">
@@ -41505,12 +41699,15 @@
       <c r="W7" s="9">
         <v>-4826.0436497132996</v>
       </c>
+      <c r="X7" s="63">
+        <v>15848.881399796801</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>-1666.2471217358</v>
       </c>
       <c r="C8" s="9">
@@ -41576,12 +41773,15 @@
       <c r="W8" s="9">
         <v>-8929.5042845784992</v>
       </c>
+      <c r="X8" s="63">
+        <v>-6576.8191210845998</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>1819.48130001444</v>
       </c>
       <c r="C9" s="14">
@@ -41647,12 +41847,15 @@
       <c r="W9" s="14">
         <v>3591.8843317918199</v>
       </c>
+      <c r="X9" s="33">
+        <v>7575.08573471412</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>587.84219239000004</v>
       </c>
       <c r="C10" s="14">
@@ -41718,12 +41921,15 @@
       <c r="W10" s="14">
         <v>-9.0346010803683008</v>
       </c>
+      <c r="X10" s="33">
+        <v>2997.0544153687101</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>574.44112347197802</v>
       </c>
       <c r="C11" s="14">
@@ -41789,12 +41995,15 @@
       <c r="W11" s="14">
         <v>1716.28733330821</v>
       </c>
+      <c r="X11" s="33">
+        <v>971.66225184874099</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>657.19798415246305</v>
       </c>
       <c r="C12" s="14">
@@ -41860,12 +42069,15 @@
       <c r="W12" s="14">
         <v>1884.63159956397</v>
       </c>
+      <c r="X12" s="33">
+        <v>3606.3690674966701</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>3485.7284217502702</v>
       </c>
       <c r="C13" s="14">
@@ -41931,12 +42143,15 @@
       <c r="W13" s="14">
         <v>12521.388616370299</v>
       </c>
+      <c r="X13" s="33">
+        <v>14151.904855798701</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>1546.397020831</v>
       </c>
       <c r="C14" s="14">
@@ -42002,12 +42217,15 @@
       <c r="W14" s="14">
         <v>5926.6452143734105</v>
       </c>
+      <c r="X14" s="33">
+        <v>5232.1837456347603</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>-477.85101517477</v>
       </c>
       <c r="C15" s="14">
@@ -42073,12 +42291,15 @@
       <c r="W15" s="14">
         <v>-433.48788784288001</v>
       </c>
+      <c r="X15" s="33">
+        <v>367.70787391970998</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>2417.18241609403</v>
       </c>
       <c r="C16" s="14">
@@ -42144,12 +42365,15 @@
       <c r="W16" s="14">
         <v>7028.2312898398204</v>
       </c>
+      <c r="X16" s="33">
+        <v>8552.01323624424</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="43">
         <v>3288.1294299749502</v>
       </c>
       <c r="C17" s="9">
@@ -42215,12 +42439,15 @@
       <c r="W17" s="9">
         <v>1988.22708731694</v>
       </c>
+      <c r="X17" s="63">
+        <v>7962.8421038181796</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="45">
         <v>4698.9805120803003</v>
       </c>
       <c r="C18" s="14">
@@ -42286,12 +42513,15 @@
       <c r="W18" s="14">
         <v>6756.4542720150102</v>
       </c>
+      <c r="X18" s="33">
+        <v>18445.303067794601</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>4853.4592857362204</v>
       </c>
       <c r="C19" s="14">
@@ -42357,12 +42587,15 @@
       <c r="W19" s="14">
         <v>11664.9433214786</v>
       </c>
+      <c r="X19" s="33">
+        <v>16569.043589786299</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="45">
         <v>-154.47877365592001</v>
       </c>
       <c r="C20" s="14">
@@ -42428,12 +42661,15 @@
       <c r="W20" s="14">
         <v>-4908.4890494636002</v>
       </c>
+      <c r="X20" s="33">
+        <v>1876.25947800836</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>8.5069365140774398</v>
       </c>
       <c r="C21" s="14">
@@ -42499,12 +42735,15 @@
       <c r="W21" s="14">
         <v>-4351.3507480726003</v>
       </c>
+      <c r="X21" s="33">
+        <v>2719.6648236932401</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>-162.98571017</v>
       </c>
       <c r="C22" s="14">
@@ -42570,12 +42809,15 @@
       <c r="W22" s="14">
         <v>-557.13830139096001</v>
       </c>
+      <c r="X22" s="33">
+        <v>-843.40534568487999</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>1410.8510821053501</v>
       </c>
       <c r="C23" s="14">
@@ -42641,12 +42883,15 @@
       <c r="W23" s="14">
         <v>4768.2271846980702</v>
       </c>
+      <c r="X23" s="33">
+        <v>10482.4609639765</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <v>317.74047755300001</v>
       </c>
       <c r="C24" s="14">
@@ -42712,12 +42957,15 @@
       <c r="W24" s="14">
         <v>-783.91318097439</v>
       </c>
+      <c r="X24" s="33">
+        <v>-4253.3996844246003</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+    <row r="25" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <v>1093.11060455235</v>
       </c>
       <c r="C25" s="14">
@@ -42783,12 +43031,15 @@
       <c r="W25" s="14">
         <v>5552.1403656724597</v>
       </c>
+      <c r="X25" s="33">
+        <v>14735.8606484011</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="45">
         <v>1093.11060455235</v>
       </c>
       <c r="C26" s="14">
@@ -42854,12 +43105,15 @@
       <c r="W26" s="14">
         <v>6394.3555865745202</v>
       </c>
+      <c r="X26" s="33">
+        <v>13118.728921677401</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+    <row r="27" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>0</v>
       </c>
       <c r="C27" s="14">
@@ -42925,12 +43179,15 @@
       <c r="W27" s="14">
         <v>-842.21522090205997</v>
       </c>
+      <c r="X27" s="33">
+        <v>1617.13172672367</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="43">
         <v>-117.63091175308</v>
       </c>
       <c r="C28" s="9">
@@ -42996,12 +43253,15 @@
       <c r="W28" s="9">
         <v>-520.50871532618999</v>
       </c>
+      <c r="X28" s="63">
+        <v>-1728.0230622818001</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <v>-206.85822248724</v>
       </c>
       <c r="C29" s="9">
@@ -43067,12 +43327,15 @@
       <c r="W29" s="9">
         <v>2937.0969640220901</v>
       </c>
+      <c r="X29" s="63">
+        <v>-7121.2970718625002</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+    <row r="30" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="45">
         <v>105.60313443802301</v>
       </c>
       <c r="C30" s="14">
@@ -43138,12 +43401,15 @@
       <c r="W30" s="14">
         <v>3639.8907871954402</v>
       </c>
+      <c r="X30" s="33">
+        <v>998.45413605679903</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="45">
         <v>60</v>
       </c>
       <c r="C31" s="14">
@@ -43209,12 +43475,15 @@
       <c r="W31" s="14">
         <v>29.584225069999999</v>
       </c>
+      <c r="X31" s="33">
+        <v>26.77760129</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="45">
         <v>547.31113443802303</v>
       </c>
       <c r="C32" s="14">
@@ -43280,12 +43549,15 @@
       <c r="W32" s="14">
         <v>2148.8670182833398</v>
       </c>
+      <c r="X32" s="33">
+        <v>2138.92764699587</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="45">
         <v>-43.619</v>
       </c>
       <c r="C33" s="14">
@@ -43351,12 +43623,15 @@
       <c r="W33" s="14">
         <v>134.75616436242299</v>
       </c>
+      <c r="X33" s="33">
+        <v>275.51005145341099</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="45">
         <v>-458.089</v>
       </c>
       <c r="C34" s="14">
@@ -43422,12 +43697,15 @@
       <c r="W34" s="14">
         <v>1339.65248741246</v>
       </c>
+      <c r="X34" s="33">
+        <v>-1443.5683102908999</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="14">
@@ -43493,12 +43771,15 @@
       <c r="W35" s="14">
         <v>-12.969107932789001</v>
       </c>
+      <c r="X35" s="33">
+        <v>0.80714660841174002</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="45">
         <v>312.46135692526298</v>
       </c>
       <c r="C36" s="14">
@@ -43564,12 +43845,15 @@
       <c r="W36" s="14">
         <v>702.79382317334205</v>
       </c>
+      <c r="X36" s="33">
+        <v>8119.7512079193102</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+    <row r="37" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="45">
         <v>-213.67901805028001</v>
       </c>
       <c r="C37" s="14">
@@ -43635,12 +43919,15 @@
       <c r="W37" s="14">
         <v>867.55904733999705</v>
       </c>
+      <c r="X37" s="33">
+        <v>851.32423057461904</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+    <row r="38" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="45">
         <v>476.18700026532503</v>
       </c>
       <c r="C38" s="14">
@@ -43706,12 +43993,15 @@
       <c r="W38" s="14">
         <v>716.65485802408205</v>
       </c>
+      <c r="X38" s="33">
+        <v>6364.8105242003703</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+    <row r="39" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="45">
         <v>52.254000710218698</v>
       </c>
       <c r="C39" s="14">
@@ -43777,12 +44067,15 @@
       <c r="W39" s="14">
         <v>-876.91637036745999</v>
       </c>
+      <c r="X39" s="33">
+        <v>906.68678319476805</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+    <row r="40" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="45">
         <v>-2.23165441</v>
       </c>
       <c r="C40" s="14">
@@ -43848,12 +44141,15 @@
       <c r="W40" s="14">
         <v>-2.3155699999999999E-3</v>
       </c>
+      <c r="X40" s="33">
+        <v>-1.09066E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+    <row r="41" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="45">
         <v>-6.8971589999999999E-2</v>
       </c>
       <c r="C41" s="14">
@@ -43919,178 +44215,188 @@
       <c r="W41" s="14">
         <v>-4.5013962532793004</v>
       </c>
+      <c r="X41" s="33">
+        <v>-3.0692393904466999</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="64">
         <v>-365.6</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="20">
         <v>-190.78</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="20">
         <v>1715.7</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="20">
         <v>1997.4499290000001</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="20">
         <v>-3214.1421120862001</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="20">
         <v>6444.2458361025901</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="20">
         <v>1647.7473963807199</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="20">
         <v>3023.8329888529402</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="20">
         <v>14190.095452359799</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="20">
         <v>-366.78796823604</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="20">
         <v>311.41526197348497</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="20">
         <v>1056.85506781403</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="20">
         <v>211.12135586459601</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="20">
         <v>1805.0926206158499</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="20">
         <v>-2749.6007625213001</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="Q42" s="20">
         <v>1396.7148359099001</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="20">
         <v>-152.47959545950999</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="20">
         <v>-2894.9549718945</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="20">
         <v>12211.4717735984</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="20">
         <v>-9201.1676370443001</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="20">
         <v>6787.8154360692697</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="20">
         <v>-2579.3332086383002</v>
       </c>
+      <c r="X42" s="65">
+        <v>2190.6558090951498</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="60"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="60"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
     </row>
-    <row r="44" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="28">
         <v>1297.3931739988</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="28">
         <v>3695.1121658472598</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="28">
         <v>-36.300672512121999</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="28">
         <v>8042.4237893692098</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="28">
         <v>11592.347945588301</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="28">
         <v>-11193.747712947001</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="28">
         <v>740.28691534998904</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="28">
         <v>4463.6331699395196</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="28">
         <v>-23286.605484291998</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="28">
         <v>-14840.337161064999</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="28">
         <v>-13846.07107337</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="28">
         <v>-10399.446792839</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="28">
         <v>-4128.0251559334001</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="28">
         <v>-6036.3671140501001</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="28">
         <v>-3408.2157784551</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44" s="28">
         <v>-12735.357566359</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44" s="28">
         <v>-10637.214057863999</v>
       </c>
-      <c r="S44" s="14">
+      <c r="S44" s="28">
         <v>-4822.1518502544995</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="28">
         <v>-37406.406621347996</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U44" s="28">
         <v>-19142.517721812001</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="28">
         <v>-15161.607535863999</v>
       </c>
-      <c r="W44" s="14">
+      <c r="W44" s="28">
         <v>-4524.6889485657002</v>
       </c>
+      <c r="X44" s="29">
+        <v>-7463.2971514107003</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="67" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="14">
@@ -44159,9 +44465,12 @@
       <c r="W45" s="14">
         <v>4768.2271846980702</v>
       </c>
+      <c r="X45" s="33">
+        <v>10482.4609639765</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="67" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="14">
@@ -44230,9 +44539,12 @@
       <c r="W46" s="14">
         <v>5552.1403656724597</v>
       </c>
+      <c r="X46" s="33">
+        <v>14735.8606484011</v>
+      </c>
     </row>
-    <row r="47" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="14"/>
@@ -44283,9 +44595,12 @@
       <c r="W47" s="14">
         <v>6697.0597364505902</v>
       </c>
+      <c r="X47" s="33">
+        <v>7423.6568059870197</v>
+      </c>
     </row>
-    <row r="48" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="67" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="14"/>
@@ -44336,9 +44651,12 @@
       <c r="W48" s="14">
         <v>-1144.9193707781001</v>
       </c>
+      <c r="X48" s="33">
+        <v>7312.2038424140801</v>
+      </c>
     </row>
-    <row r="49" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="67" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="14">
@@ -44407,9 +44725,12 @@
       <c r="W49" s="14">
         <v>-783.91318097439</v>
       </c>
+      <c r="X49" s="33">
+        <v>-4253.3996844246003</v>
+      </c>
     </row>
-    <row r="50" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="67" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="14">
@@ -44478,9 +44799,12 @@
       <c r="W50" s="14">
         <v>1538.90608977382</v>
       </c>
+      <c r="X50" s="33">
+        <v>-1760.6269514805001</v>
+      </c>
     </row>
-    <row r="51" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+    <row r="51" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="68" t="s">
         <v>46</v>
       </c>
       <c r="B51" s="35">
@@ -44549,40 +44873,44 @@
       <c r="W51" s="35">
         <v>-2322.8192707481999</v>
       </c>
+      <c r="X51" s="38">
+        <v>-2492.7727329441</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
+    <row r="53" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A43:W43"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="A53:W53"/>
+    <mergeCell ref="A43:X43"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
